--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="349">
   <si>
     <t>Deployment date</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Mag</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
     <t>Burned wire</t>
   </si>
   <si>
@@ -941,9 +938,6 @@
     <t>Burned wire, attached</t>
   </si>
   <si>
-    <t>8+</t>
-  </si>
-  <si>
     <t>2.13.0-r</t>
   </si>
   <si>
@@ -953,46 +947,127 @@
     <t>19u2496</t>
   </si>
   <si>
+    <t>v2.8.1-r deadReck</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_46</t>
+  </si>
+  <si>
+    <t>now have dead reckoning, warm up FLBBCD max 10s</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA024_50</t>
+  </si>
+  <si>
+    <t>both to up</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>20200706</t>
+  </si>
+  <si>
+    <t>Hilary Moors-Murphy</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL5.5-GL3-GL2-GL1-Tri-tip-side</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>EastCom/Sigma-T</t>
+  </si>
+  <si>
+    <t>Deployed by Jude. Big internal waves on plateau,we are losing 1/5 of our autonomy by sampling all the time. Changed sampling rate to up on second yo for the way back.</t>
+  </si>
+  <si>
+    <t>AZOMP 2020</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL7-GL3-GL2-GL1-Tri-DR</t>
+  </si>
+  <si>
+    <t>GL1-AMAR-DS2-DS3-DS4-DS5-DS6-DS2-HL3-GL1-TRI-DR</t>
+  </si>
+  <si>
+    <t>20200724</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_58</t>
+  </si>
+  <si>
+    <t>20200727</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>2070 acoustic</t>
+  </si>
+  <si>
+    <t>low noise and easy drift option, raw pld file has a lot of empty lines but its my fault has I put maindatalogger at 1s. Easy drift works well in theorie but glider never reach the exact ballast.</t>
+  </si>
+  <si>
+    <t>Narry Face/C&amp;P</t>
+  </si>
+  <si>
+    <t>20200818</t>
+  </si>
+  <si>
+    <t>20200820</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_60</t>
+  </si>
+  <si>
+    <t>TRI1-2-3-4-BB2-4-7-10-11-10-7-4-2-1 and/or WP from path planning (Nicolai)</t>
+  </si>
+  <si>
+    <t>14+</t>
+  </si>
+  <si>
+    <t>C&amp;P/</t>
+  </si>
+  <si>
+    <t>Glider started mission with 28.6 volt only. Was deployed in Trinity Bay because hard to find boat in Bonavista with covid. Alarm 64 masked from the beginning. Difficulties with strong pycnocline, change zt from 10 to 15. Recovery in rough water as battery was already very low.</t>
+  </si>
+  <si>
+    <t>ballast.hy=30; removed 3 washers, 2048 masked because of strong pycno at 10m.</t>
+  </si>
+  <si>
+    <t>BB2-4-7-10-11-12-13-12-11-10-7-4-2-0.5-0</t>
+  </si>
+  <si>
+    <t>20200915</t>
+  </si>
+  <si>
+    <t>20200916</t>
+  </si>
+  <si>
+    <t>Rinko was not working the 2 first dive but got fixed but unpluging and repluging,</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_61</t>
+  </si>
+  <si>
+    <t>16+</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_85</t>
+  </si>
+  <si>
+    <t>LEGATO ?</t>
+  </si>
+  <si>
+    <t>CTD of SEA021</t>
+  </si>
+  <si>
     <t>Sigma-T/</t>
-  </si>
-  <si>
-    <t>EastCom/</t>
-  </si>
-  <si>
-    <t>low noise and easy drift option, raw pld file has a lot of empty lines but its my fault has I put maindatalogger at 1s.</t>
-  </si>
-  <si>
-    <t>v2.8.1-r deadReck</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA032_46</t>
-  </si>
-  <si>
-    <t>GL1-GL2-GL3-HL5.5-GL3-GL2-GL1-Tri</t>
-  </si>
-  <si>
-    <t>now have dead reckoning, warm up FLBBCD max 10s</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA024_50</t>
-  </si>
-  <si>
-    <t>Deployed by Jude. Big internal waves on plateau,we are losing 1/5 of our autonomy by sampling all the time. Changed smapling rate to up on second yo for the way back.</t>
-  </si>
-  <si>
-    <t>both to up</t>
-  </si>
-  <si>
-    <t>1 to 2</t>
-  </si>
-  <si>
-    <t>20200706</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>Hilary Moors-Murphy</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1078,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1123,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1218,7 +1307,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,6 +1502,45 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1721,13 +1849,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ52"/>
+  <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="AY48" sqref="AY48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,13 +1984,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>4</v>
@@ -1871,10 +1999,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>7</v>
@@ -1958,7 +2086,7 @@
         <v>70</v>
       </c>
       <c r="AN2" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AO2" s="40" t="s">
         <v>71</v>
@@ -1979,19 +2107,19 @@
         <v>96</v>
       </c>
       <c r="AU2" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AV2" s="36" t="s">
         <v>41</v>
       </c>
       <c r="AW2" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX2" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="AX2" s="44" t="s">
-        <v>215</v>
-      </c>
       <c r="AY2" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ2" s="46" t="s">
         <v>12</v>
@@ -2020,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -2124,7 +2252,7 @@
         <v>181</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR3" s="17" t="s">
         <v>186</v>
@@ -2138,16 +2266,16 @@
       <c r="AU3" s="15"/>
       <c r="AV3" s="13"/>
       <c r="AW3" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX3" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX3" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY3" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2173,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -2277,7 +2405,7 @@
         <v>181</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR4" s="17" t="s">
         <v>186</v>
@@ -2291,21 +2419,21 @@
       <c r="AU4" s="15"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX4" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX4" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY4" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ4" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>23</v>
@@ -2326,7 +2454,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -2430,10 +2558,10 @@
         <v>181</v>
       </c>
       <c r="AQ5" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR5" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS5" s="53" t="s">
         <v>98</v>
@@ -2446,13 +2574,13 @@
         <v>42</v>
       </c>
       <c r="AW5" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX5" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX5" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY5" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ5" s="56" t="s">
         <v>28</v>
@@ -2460,7 +2588,7 @@
     </row>
     <row r="6" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>30</v>
@@ -2481,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -2586,10 +2714,10 @@
         <v>181</v>
       </c>
       <c r="AQ6" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR6" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS6" s="53" t="s">
         <v>98</v>
@@ -2600,21 +2728,21 @@
       <c r="AU6" s="53"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX6" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX6" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY6" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ6" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>31</v>
@@ -2635,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -2739,10 +2867,10 @@
         <v>181</v>
       </c>
       <c r="AQ7" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR7" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS7" s="53" t="s">
         <v>98</v>
@@ -2755,21 +2883,21 @@
         <v>43</v>
       </c>
       <c r="AW7" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX7" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX7" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY7" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ7" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>33</v>
@@ -2790,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -2894,10 +3022,10 @@
         <v>181</v>
       </c>
       <c r="AQ8" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR8" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS8" s="53" t="s">
         <v>99</v>
@@ -2908,21 +3036,21 @@
       <c r="AU8" s="53"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX8" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX8" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY8" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ8" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>45</v>
@@ -2943,7 +3071,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -3047,10 +3175,10 @@
         <v>181</v>
       </c>
       <c r="AQ9" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR9" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS9" s="53" t="s">
         <v>98</v>
@@ -3061,13 +3189,13 @@
       <c r="AU9" s="53"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX9" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX9" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY9" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ9" s="56" t="s">
         <v>49</v>
@@ -3075,7 +3203,7 @@
     </row>
     <row r="10" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>50</v>
@@ -3096,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -3200,10 +3328,10 @@
         <v>181</v>
       </c>
       <c r="AQ10" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR10" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS10" s="53" t="s">
         <v>99</v>
@@ -3214,21 +3342,21 @@
       <c r="AU10" s="53"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX10" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX10" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY10" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AZ10" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>54</v>
@@ -3249,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -3353,10 +3481,10 @@
         <v>181</v>
       </c>
       <c r="AQ11" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR11" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS11" s="53" t="s">
         <v>99</v>
@@ -3367,13 +3495,13 @@
       <c r="AU11" s="53"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX11" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX11" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY11" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ11" s="70" t="s">
         <v>110</v>
@@ -3381,7 +3509,7 @@
     </row>
     <row r="12" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>54</v>
@@ -3402,7 +3530,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -3508,10 +3636,10 @@
         <v>181</v>
       </c>
       <c r="AQ12" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR12" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS12" s="53" t="s">
         <v>98</v>
@@ -3522,13 +3650,13 @@
       <c r="AU12" s="53"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX12" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX12" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY12" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ12" s="70" t="s">
         <v>111</v>
@@ -3536,7 +3664,7 @@
     </row>
     <row r="13" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>63</v>
@@ -3557,7 +3685,7 @@
         <v>140</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -3661,10 +3789,10 @@
         <v>181</v>
       </c>
       <c r="AQ13" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR13" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS13" s="51" t="s">
         <v>101</v>
@@ -3677,21 +3805,21 @@
         <v>67</v>
       </c>
       <c r="AW13" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AX13" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AY13" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AZ13" s="71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>65</v>
@@ -3712,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -3816,10 +3944,10 @@
         <v>181</v>
       </c>
       <c r="AQ14" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR14" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS14" s="53" t="s">
         <v>99</v>
@@ -3830,13 +3958,13 @@
       <c r="AU14" s="53"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX14" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX14" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY14" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ14" s="56" t="s">
         <v>94</v>
@@ -3844,7 +3972,7 @@
     </row>
     <row r="15" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>104</v>
@@ -3865,7 +3993,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -3971,10 +4099,10 @@
         <v>181</v>
       </c>
       <c r="AQ15" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR15" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS15" s="53" t="s">
         <v>99</v>
@@ -3985,21 +4113,21 @@
       <c r="AU15" s="53"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX15" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX15" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY15" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ15" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>109</v>
@@ -4020,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -4124,10 +4252,10 @@
         <v>181</v>
       </c>
       <c r="AQ16" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR16" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS16" s="51" t="s">
         <v>101</v>
@@ -4140,21 +4268,21 @@
       </c>
       <c r="AV16" s="3"/>
       <c r="AW16" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX16" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX16" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY16" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ16" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>114</v>
@@ -4175,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -4278,10 +4406,10 @@
         <v>181</v>
       </c>
       <c r="AQ17" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR17" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS17" s="53" t="s">
         <v>98</v>
@@ -4294,13 +4422,13 @@
       </c>
       <c r="AV17" s="3"/>
       <c r="AW17" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX17" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX17" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY17" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ17" s="56" t="s">
         <v>136</v>
@@ -4308,7 +4436,7 @@
     </row>
     <row r="18" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>124</v>
@@ -4329,7 +4457,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -4432,10 +4560,10 @@
         <v>181</v>
       </c>
       <c r="AQ18" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR18" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS18" s="22" t="s">
         <v>101</v>
@@ -4448,19 +4576,22 @@
         <v>125</v>
       </c>
       <c r="AW18" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX18" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX18" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY18" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ18" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
       <c r="B19" s="20" t="s">
         <v>141</v>
       </c>
@@ -4480,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -4579,10 +4710,10 @@
         <v>180</v>
       </c>
       <c r="AQ19" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR19" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS19" s="73" t="s">
         <v>122</v>
@@ -4593,13 +4724,13 @@
       <c r="AU19" s="22"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AX19" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AY19" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ19" s="21" t="s">
         <v>144</v>
@@ -4662,11 +4793,14 @@
       <c r="AW20" s="14"/>
       <c r="AX20" s="14"/>
       <c r="AY20" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ20" s="21"/>
     </row>
     <row r="21" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
       <c r="B21" s="20" t="s">
         <v>146</v>
       </c>
@@ -4686,7 +4820,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I21" s="2">
         <v>29.3</v>
@@ -4789,10 +4923,10 @@
         <v>181</v>
       </c>
       <c r="AQ21" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR21" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS21" s="22" t="s">
         <v>101</v>
@@ -4805,21 +4939,21 @@
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AX21" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AY21" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ21" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>147</v>
@@ -4840,7 +4974,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -4944,10 +5078,10 @@
         <v>181</v>
       </c>
       <c r="AQ22" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS22" s="22" t="s">
         <v>101</v>
@@ -4960,13 +5094,13 @@
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX22" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX22" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY22" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ22" s="21" t="s">
         <v>182</v>
@@ -4974,7 +5108,7 @@
     </row>
     <row r="23" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>154</v>
@@ -4995,7 +5129,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -5099,10 +5233,10 @@
         <v>181</v>
       </c>
       <c r="AQ23" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS23" s="22" t="s">
         <v>101</v>
@@ -5115,13 +5249,13 @@
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX23" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX23" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY23" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ23" s="21" t="s">
         <v>167</v>
@@ -5129,7 +5263,7 @@
     </row>
     <row r="24" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>168</v>
@@ -5150,7 +5284,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I24" s="2">
         <v>29.2</v>
@@ -5254,10 +5388,10 @@
         <v>181</v>
       </c>
       <c r="AQ24" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR24" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS24" s="22" t="s">
         <v>101</v>
@@ -5270,21 +5404,21 @@
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AX24" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AY24" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AZ24" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>169</v>
@@ -5305,7 +5439,7 @@
         <v>170</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I25" s="74">
         <v>29</v>
@@ -5409,10 +5543,10 @@
         <v>181</v>
       </c>
       <c r="AQ25" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR25" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS25" s="15" t="s">
         <v>98</v>
@@ -5423,27 +5557,27 @@
       <c r="AU25" s="22"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AY25" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AZ25" s="69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>24</v>
@@ -5458,7 +5592,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -5485,7 +5619,7 @@
         <v>-62.78</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R26" s="2">
         <v>19</v>
@@ -5514,7 +5648,7 @@
       </c>
       <c r="Z26" s="18"/>
       <c r="AA26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB26" s="2">
         <v>1</v>
@@ -5563,10 +5697,10 @@
         <v>180</v>
       </c>
       <c r="AQ26" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR26" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS26" s="73" t="s">
         <v>122</v>
@@ -5579,27 +5713,27 @@
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX26" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX26" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY26" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AZ26" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>44</v>
@@ -5614,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -5641,7 +5775,7 @@
         <v>-61.44</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R27" s="2">
         <v>19</v>
@@ -5719,10 +5853,10 @@
         <v>180</v>
       </c>
       <c r="AQ27" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR27" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS27" s="22" t="s">
         <v>101</v>
@@ -5735,27 +5869,27 @@
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX27" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX27" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY27" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AZ27" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>35</v>
@@ -5770,7 +5904,7 @@
         <v>140</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -5797,7 +5931,7 @@
         <v>-50.02</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R28" s="2">
         <v>21</v>
@@ -5873,10 +6007,10 @@
         <v>181</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR28" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS28" s="15" t="s">
         <v>98</v>
@@ -5887,27 +6021,27 @@
       <c r="AU28" s="22"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AX28" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AY28" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AZ28" s="69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -5922,7 +6056,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -5949,7 +6083,7 @@
         <v>-61.45</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R29" s="2">
         <v>23</v>
@@ -5971,10 +6105,10 @@
         <v>2</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z29" s="18"/>
       <c r="AA29" s="2">
@@ -6002,7 +6136,7 @@
         <v>33</v>
       </c>
       <c r="AI29" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ29" s="22" t="s">
         <v>180</v>
@@ -6026,10 +6160,10 @@
         <v>180</v>
       </c>
       <c r="AQ29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR29" s="68" t="s">
         <v>187</v>
-      </c>
-      <c r="AR29" s="68" t="s">
-        <v>188</v>
       </c>
       <c r="AS29" s="15" t="s">
         <v>101</v>
@@ -6042,27 +6176,27 @@
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX29" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX29" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY29" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ29" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>53</v>
@@ -6074,10 +6208,10 @@
         <v>4800937</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I30" s="2">
         <v>29.2</v>
@@ -6104,7 +6238,7 @@
         <v>-62.68</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R30" s="2">
         <v>23</v>
@@ -6116,7 +6250,7 @@
         <v>949</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V30" s="18" t="s">
         <v>36</v>
@@ -6125,10 +6259,10 @@
         <v>1</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y30" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z30" s="18"/>
       <c r="AA30" s="2">
@@ -6150,14 +6284,14 @@
         <v>176</v>
       </c>
       <c r="AG30" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH30" s="14">
         <v>58</v>
       </c>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
@@ -6166,10 +6300,10 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="15"/>
       <c r="AQ30" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR30" s="68" t="s">
         <v>187</v>
-      </c>
-      <c r="AR30" s="68" t="s">
-        <v>188</v>
       </c>
       <c r="AS30" s="22" t="s">
         <v>122</v>
@@ -6180,27 +6314,27 @@
       <c r="AU30" s="22"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX30" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY30" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ30" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>35</v>
@@ -6215,7 +6349,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I31" s="2">
         <v>29.1</v>
@@ -6242,7 +6376,7 @@
         <v>-61.47</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R31" s="2">
         <v>21</v>
@@ -6264,10 +6398,10 @@
         <v>2</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y31" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z31" s="18"/>
       <c r="AA31" s="2">
@@ -6286,7 +6420,7 @@
         <v>20190509</v>
       </c>
       <c r="AF31" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG31" s="18" t="s">
         <v>160</v>
@@ -6295,7 +6429,7 @@
         <v>32</v>
       </c>
       <c r="AI31" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ31" s="22" t="s">
         <v>180</v>
@@ -6319,10 +6453,10 @@
         <v>180</v>
       </c>
       <c r="AQ31" s="10" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR31" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS31" s="15" t="s">
         <v>98</v>
@@ -6335,27 +6469,27 @@
       </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX31" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX31" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY31" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ31" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -6370,7 +6504,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I32" s="2">
         <v>29.2</v>
@@ -6397,7 +6531,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R32" s="2">
         <v>21</v>
@@ -6412,16 +6546,16 @@
         <v>725</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X32" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y32" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z32" s="18"/>
       <c r="AA32" s="2">
@@ -6440,19 +6574,19 @@
         <v>20190906</v>
       </c>
       <c r="AF32" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG32" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH32" s="14">
         <v>33</v>
       </c>
       <c r="AI32" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK32" s="10" t="s">
         <v>72</v>
@@ -6473,10 +6607,10 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR32" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS32" s="22" t="s">
         <v>122</v>
@@ -6489,27 +6623,27 @@
       </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX32" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX32" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY32" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ32" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>44</v>
@@ -6524,7 +6658,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I33" s="2">
         <v>29</v>
@@ -6551,7 +6685,7 @@
         <v>-61.93</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R33" s="2">
         <v>16</v>
@@ -6573,16 +6707,16 @@
         <v>1</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y33" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB33" s="2">
         <v>5</v>
@@ -6597,16 +6731,16 @@
         <v>20200227</v>
       </c>
       <c r="AF33" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG33" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="AG33" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="AH33" s="14">
         <v>42</v>
       </c>
       <c r="AI33" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ33" s="22" t="s">
         <v>180</v>
@@ -6630,10 +6764,10 @@
         <v>180</v>
       </c>
       <c r="AQ33" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AR33" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS33" s="15" t="s">
         <v>98</v>
@@ -6646,21 +6780,21 @@
       </c>
       <c r="AV33" s="2"/>
       <c r="AW33" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX33" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="AX33" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="AY33" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ33" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="AZ33" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="48"/>
@@ -6717,7 +6851,7 @@
     </row>
     <row r="35" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="48"/>
@@ -6777,10 +6911,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D36" s="48" t="s">
         <v>13</v>
@@ -6795,48 +6929,69 @@
         <v>15</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="I36" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>26.1</v>
+      </c>
       <c r="K36" s="48">
         <v>44.492600000000003</v>
       </c>
       <c r="L36" s="48">
         <v>-63.400799999999997</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
+      <c r="M36" s="50">
+        <v>42.92</v>
+      </c>
+      <c r="N36" s="50">
+        <v>-63.44</v>
+      </c>
+      <c r="O36" s="50">
+        <v>44.5</v>
+      </c>
+      <c r="P36" s="50">
+        <v>-61.84</v>
+      </c>
       <c r="Q36" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="R36" s="3">
+        <v>18</v>
+      </c>
+      <c r="S36" s="3">
+        <v>495</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1182</v>
+      </c>
+      <c r="U36" s="3">
+        <f>480*2+452*0.5</f>
+        <v>1186</v>
+      </c>
       <c r="V36" s="50" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="W36" s="50" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="X36" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y36" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z36" s="50"/>
       <c r="AA36" s="3" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AB36" s="3">
         <v>7</v>
       </c>
       <c r="AC36" s="3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD36" s="3">
         <v>1023.25</v>
@@ -6845,16 +7000,16 @@
         <v>20190906</v>
       </c>
       <c r="AF36" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG36" s="50" t="s">
         <v>236</v>
-      </c>
-      <c r="AG36" s="50" t="s">
-        <v>237</v>
       </c>
       <c r="AH36" s="48">
         <v>33</v>
       </c>
       <c r="AI36" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ36" s="51" t="s">
         <v>180</v>
@@ -6878,10 +7033,10 @@
         <v>180</v>
       </c>
       <c r="AQ36" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR36" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS36" s="51" t="s">
         <v>101</v>
@@ -6894,23 +7049,25 @@
       </c>
       <c r="AV36" s="3"/>
       <c r="AW36" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX36" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX36" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY36" s="50" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AZ36" s="56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37" s="47"/>
+        <v>314</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>325</v>
+      </c>
       <c r="D37" s="48" t="s">
         <v>35</v>
       </c>
@@ -6924,42 +7081,68 @@
         <v>15</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+        <v>311</v>
+      </c>
+      <c r="I37" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="K37" s="82">
+        <v>44.4803</v>
+      </c>
+      <c r="L37" s="82">
+        <v>-63.425199999999997</v>
+      </c>
+      <c r="M37" s="50">
+        <v>42.54</v>
+      </c>
+      <c r="N37" s="50">
+        <v>-63.43</v>
+      </c>
+      <c r="O37" s="50">
+        <v>44.53</v>
+      </c>
+      <c r="P37" s="50">
+        <v>-61.43</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="R37" s="3">
+        <v>21</v>
+      </c>
+      <c r="S37" s="3">
+        <v>583</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1240</v>
+      </c>
+      <c r="U37" s="3">
+        <v>924</v>
+      </c>
       <c r="V37" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W37" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X37" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y37" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z37" s="50"/>
       <c r="AA37" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AB37" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC37" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="AD37" s="3">
         <v>1023.25</v>
@@ -6968,19 +7151,19 @@
         <v>20190509</v>
       </c>
       <c r="AF37" s="50" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AG37" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AH37" s="48">
         <v>32</v>
       </c>
       <c r="AI37" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ37" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK37" s="47" t="s">
         <v>79</v>
@@ -7001,10 +7184,10 @@
         <v>180</v>
       </c>
       <c r="AQ37" s="54" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="AR37" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS37" s="51" t="s">
         <v>101</v>
@@ -7015,25 +7198,29 @@
       <c r="AU37" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV37" s="3"/>
+      <c r="AV37" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="AW37" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX37" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AX37" s="48" t="s">
-        <v>228</v>
-      </c>
       <c r="AY37" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ37" s="56" t="s">
         <v>310</v>
-      </c>
-      <c r="AZ37" s="56" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="47"/>
+        <v>314</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>325</v>
+      </c>
       <c r="D38" s="48" t="s">
         <v>53</v>
       </c>
@@ -7044,24 +7231,50 @@
         <v>4800937</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="I38" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="K38" s="83">
+        <v>44.477899999999998</v>
+      </c>
+      <c r="L38" s="83">
+        <v>-63.423400000000001</v>
+      </c>
+      <c r="M38" s="50">
+        <v>42.91</v>
+      </c>
+      <c r="N38" s="50">
+        <v>-63.35</v>
+      </c>
+      <c r="O38" s="50">
+        <v>44.53</v>
+      </c>
+      <c r="P38" s="50">
+        <v>-62.81</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="R38" s="3">
+        <v>21</v>
+      </c>
+      <c r="S38" s="3">
+        <v>497</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1035</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="V38" s="50" t="s">
         <v>36</v>
       </c>
@@ -7069,20 +7282,20 @@
         <v>1</v>
       </c>
       <c r="X38" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y38" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z38" s="50"/>
       <c r="AA38" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AB38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="3">
         <v>1023.25</v>
@@ -7091,10 +7304,10 @@
         <v>20190906</v>
       </c>
       <c r="AF38" s="50" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG38" s="50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AH38" s="48">
         <v>58</v>
@@ -7110,203 +7323,481 @@
       <c r="AO38" s="54"/>
       <c r="AP38" s="51"/>
       <c r="AQ38" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR38" s="61" t="s">
-        <v>188</v>
+        <v>253</v>
+      </c>
+      <c r="AR38" s="55" t="s">
+        <v>304</v>
       </c>
       <c r="AS38" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AT38" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AU38" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="AV38" s="3"/>
+      <c r="AV38" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="AW38" s="48" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AX38" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AY38" s="50" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="AZ38" s="56" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="48"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="54"/>
-      <c r="AM39" s="54"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="54"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="54"/>
-      <c r="AR39" s="55"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
+      <c r="B39" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="48">
+        <v>58</v>
+      </c>
+      <c r="F39" s="48">
+        <v>4800993</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="I39" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="J39" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="K39" s="48">
+        <v>47.857399999999998</v>
+      </c>
+      <c r="L39" s="48">
+        <v>-53.536200000000001</v>
+      </c>
+      <c r="M39" s="50">
+        <v>47.85</v>
+      </c>
+      <c r="N39" s="50">
+        <v>-53.54</v>
+      </c>
+      <c r="O39" s="50">
+        <v>49.66</v>
+      </c>
+      <c r="P39" s="50">
+        <v>-50.08</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="R39" s="3">
+        <v>25</v>
+      </c>
+      <c r="S39" s="3">
+        <v>627</v>
+      </c>
+      <c r="T39" s="3">
+        <v>742</v>
+      </c>
+      <c r="U39" s="3">
+        <f>646*2</f>
+        <v>1292</v>
+      </c>
+      <c r="V39" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" s="50">
+        <v>1</v>
+      </c>
+      <c r="X39" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y39" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z39" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>1025</v>
+      </c>
+      <c r="AE39" s="81">
+        <v>20200227</v>
+      </c>
+      <c r="AF39" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG39" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH39" s="85">
+        <v>42</v>
+      </c>
+      <c r="AI39" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ39" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK39" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL39" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM39" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN39" s="87">
+        <v>42859</v>
+      </c>
+      <c r="AO39" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP39" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ39" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR39" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS39" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT39" s="77" t="s">
+        <v>298</v>
+      </c>
       <c r="AU39" s="51"/>
       <c r="AV39" s="3"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="56"/>
+      <c r="AW39" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX39" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY39" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ39" s="56" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="40" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="48"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="61"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
+      <c r="B40" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="48">
+        <v>60</v>
+      </c>
+      <c r="F40" s="48">
+        <v>4800993</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="K40" s="48">
+        <v>48.728999999999999</v>
+      </c>
+      <c r="L40" s="48">
+        <v>-52.985999999999997</v>
+      </c>
+      <c r="M40" s="50">
+        <v>48.65</v>
+      </c>
+      <c r="N40" s="50">
+        <v>-53.32</v>
+      </c>
+      <c r="O40" s="50">
+        <v>49.94</v>
+      </c>
+      <c r="P40" s="50">
+        <v>-49.29</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="R40" s="3">
+        <v>26</v>
+      </c>
+      <c r="S40" s="3">
+        <v>689</v>
+      </c>
+      <c r="T40" s="3">
+        <v>700</v>
+      </c>
+      <c r="U40" s="3">
+        <f>T40*2</f>
+        <v>1400</v>
+      </c>
+      <c r="V40" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" s="50">
+        <v>1</v>
+      </c>
+      <c r="X40" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y40" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z40" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>1023.75</v>
+      </c>
+      <c r="AE40" s="81">
+        <v>20200227</v>
+      </c>
+      <c r="AF40" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG40" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH40" s="85">
+        <v>42</v>
+      </c>
+      <c r="AI40" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ40" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK40" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL40" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM40" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN40" s="87">
+        <v>42859</v>
+      </c>
+      <c r="AO40" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP40" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ40" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR40" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS40" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT40" s="77" t="s">
+        <v>298</v>
+      </c>
       <c r="AU40" s="51"/>
       <c r="AV40" s="3"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="50"/>
-      <c r="AZ40" s="56"/>
+      <c r="AW40" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX40" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY40" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ40" s="56" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="41" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
+      <c r="B41" s="47" t="s">
+        <v>340</v>
+      </c>
       <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="3"/>
+      <c r="D41" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="48">
+        <v>61</v>
+      </c>
+      <c r="F41" s="48">
+        <v>4800993</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="I41" s="3">
+        <v>29.1</v>
+      </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="K41">
+        <v>48.7239</v>
+      </c>
+      <c r="L41">
+        <v>-52.982300000000002</v>
+      </c>
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
       <c r="P41" s="50"/>
-      <c r="Q41" s="3"/>
+      <c r="Q41" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
+      <c r="V41" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="W41" s="50">
+        <v>1</v>
+      </c>
+      <c r="X41" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y41" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z41" s="50" t="s">
+        <v>201</v>
+      </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="48"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="47"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="51"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="51"/>
-      <c r="AT41" s="51"/>
+      <c r="AD41" s="3">
+        <v>1023.75</v>
+      </c>
+      <c r="AE41" s="81">
+        <v>20200227</v>
+      </c>
+      <c r="AF41" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG41" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH41" s="85">
+        <v>42</v>
+      </c>
+      <c r="AI41" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ41" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK41" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL41" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM41" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN41" s="87">
+        <v>42859</v>
+      </c>
+      <c r="AO41" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP41" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ41" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR41" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS41" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT41" s="77" t="s">
+        <v>298</v>
+      </c>
       <c r="AU41" s="51"/>
       <c r="AV41" s="3"/>
-      <c r="AW41" s="48"/>
-      <c r="AX41" s="48"/>
-      <c r="AY41" s="50"/>
-      <c r="AZ41" s="56"/>
+      <c r="AW41" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX41" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY41" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ41" s="56" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="42" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="D42" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="48">
+        <v>85</v>
+      </c>
       <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="50"/>
+      <c r="G42" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>345</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="48"/>
@@ -7320,37 +7811,83 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
+      <c r="V42" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="W42" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="X42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z42" s="50" t="s">
+        <v>346</v>
+      </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="48"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="47"/>
-      <c r="AL42" s="47"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="61"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="81"/>
+      <c r="AH42" s="85">
+        <v>33</v>
+      </c>
+      <c r="AI42" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ42" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK42" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL42" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM42" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN42" s="52">
+        <v>42711</v>
+      </c>
+      <c r="AO42" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP42" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ42" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR42" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS42" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT42" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU42" s="51" t="s">
+        <v>344</v>
+      </c>
       <c r="AV42" s="3"/>
-      <c r="AW42" s="48"/>
-      <c r="AX42" s="48"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="56"/>
+      <c r="AW42" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX42" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY42" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="AZ42" s="56" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="43" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="47"/>
@@ -7359,7 +7896,7 @@
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="50"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="48"/>
@@ -7382,22 +7919,22 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="51"/>
-      <c r="AJ43" s="51"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="51"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="61"/>
-      <c r="AS43" s="51"/>
-      <c r="AT43" s="51"/>
+      <c r="AE43" s="81"/>
+      <c r="AF43" s="81"/>
+      <c r="AG43" s="81"/>
+      <c r="AH43" s="85"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="75"/>
+      <c r="AK43" s="86"/>
+      <c r="AL43" s="86"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="87"/>
+      <c r="AO43" s="86"/>
+      <c r="AP43" s="76"/>
+      <c r="AQ43" s="54"/>
+      <c r="AR43" s="55"/>
+      <c r="AS43" s="77"/>
+      <c r="AT43" s="77"/>
       <c r="AU43" s="51"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="48"/>
@@ -7412,7 +7949,7 @@
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
-      <c r="H44" s="50"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="48"/>
@@ -7434,27 +7971,23 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="51"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="51"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="51"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="61"/>
-      <c r="AS44" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT44" s="51" t="s">
-        <v>103</v>
-      </c>
+      <c r="AD44" s="80"/>
+      <c r="AE44" s="81"/>
+      <c r="AF44" s="81"/>
+      <c r="AG44" s="81"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="86"/>
+      <c r="AL44" s="86"/>
+      <c r="AM44" s="86"/>
+      <c r="AN44" s="87"/>
+      <c r="AO44" s="86"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="77"/>
+      <c r="AT44" s="77"/>
       <c r="AU44" s="51"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="48"/>
@@ -7463,7 +7996,9 @@
       <c r="AZ44" s="56"/>
     </row>
     <row r="45" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
+      <c r="B45" s="66" t="s">
+        <v>102</v>
+      </c>
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
@@ -7503,16 +8038,12 @@
       <c r="AM45" s="47"/>
       <c r="AN45" s="51"/>
       <c r="AO45" s="47"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="55"/>
-      <c r="AS45" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT45" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU45" s="53"/>
+      <c r="AP45" s="51"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="61"/>
+      <c r="AS45" s="51"/>
+      <c r="AT45" s="51"/>
+      <c r="AU45" s="51"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="48"/>
       <c r="AX45" s="48"/>
@@ -7560,15 +8091,11 @@
       <c r="AM46" s="47"/>
       <c r="AN46" s="51"/>
       <c r="AO46" s="47"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT46" s="51" t="s">
-        <v>108</v>
-      </c>
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="61"/>
+      <c r="AS46" s="51"/>
+      <c r="AT46" s="51"/>
       <c r="AU46" s="51"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="48"/>
@@ -7597,41 +8124,37 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
-      <c r="V47" s="62"/>
-      <c r="W47" s="62"/>
-      <c r="X47" s="62"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="62"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="63"/>
-      <c r="AE47" s="62"/>
-      <c r="AF47" s="62"/>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="59"/>
-      <c r="AJ47" s="59"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="59"/>
-      <c r="AO47" s="64"/>
-      <c r="AP47" s="59"/>
-      <c r="AQ47" s="64"/>
-      <c r="AR47" s="65"/>
-      <c r="AS47" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT47" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU47" s="59"/>
-      <c r="AV47" s="63"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="29"/>
-      <c r="AY47" s="62"/>
-      <c r="AZ47" s="30"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="48"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="61"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="48"/>
+      <c r="AX47" s="48"/>
+      <c r="AY47" s="50"/>
+      <c r="AZ47" s="56"/>
     </row>
     <row r="48" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="47"/>
@@ -7654,41 +8177,37 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="63"/>
-      <c r="AE48" s="62"/>
-      <c r="AF48" s="62"/>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="59"/>
-      <c r="AJ48" s="59"/>
-      <c r="AK48" s="64"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="64"/>
-      <c r="AN48" s="59"/>
-      <c r="AO48" s="64"/>
-      <c r="AP48" s="59"/>
-      <c r="AQ48" s="64"/>
-      <c r="AR48" s="65"/>
-      <c r="AS48" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="AT48" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU48" s="59"/>
-      <c r="AV48" s="63"/>
-      <c r="AW48" s="29"/>
-      <c r="AX48" s="29"/>
-      <c r="AY48" s="62"/>
-      <c r="AZ48" s="30"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="48"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="48"/>
+      <c r="AX48" s="48"/>
+      <c r="AY48" s="50"/>
+      <c r="AZ48" s="56"/>
     </row>
     <row r="49" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="47"/>
@@ -7711,37 +8230,41 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="63"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="64"/>
-      <c r="AL49" s="64"/>
-      <c r="AM49" s="64"/>
-      <c r="AN49" s="59"/>
-      <c r="AO49" s="64"/>
-      <c r="AP49" s="59"/>
-      <c r="AQ49" s="64"/>
-      <c r="AR49" s="65"/>
-      <c r="AS49" s="59"/>
-      <c r="AT49" s="59"/>
-      <c r="AU49" s="59"/>
-      <c r="AV49" s="63"/>
-      <c r="AW49" s="29"/>
-      <c r="AX49" s="29"/>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="30"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="48"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="61"/>
+      <c r="AS49" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT49" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU49" s="51"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="48"/>
+      <c r="AX49" s="48"/>
+      <c r="AY49" s="50"/>
+      <c r="AZ49" s="56"/>
     </row>
     <row r="50" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="47"/>
@@ -7764,37 +8287,41 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="64"/>
-      <c r="AL50" s="64"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="59"/>
-      <c r="AO50" s="64"/>
-      <c r="AP50" s="59"/>
-      <c r="AQ50" s="64"/>
-      <c r="AR50" s="65"/>
-      <c r="AS50" s="59"/>
-      <c r="AT50" s="59"/>
-      <c r="AU50" s="59"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="29"/>
-      <c r="AX50" s="29"/>
-      <c r="AY50" s="62"/>
-      <c r="AZ50" s="30"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="48"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="54"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT50" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU50" s="53"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="48"/>
+      <c r="AX50" s="48"/>
+      <c r="AY50" s="50"/>
+      <c r="AZ50" s="56"/>
     </row>
     <row r="51" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="47"/>
@@ -7817,37 +8344,41 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
-      <c r="AD51" s="63"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="59"/>
-      <c r="AJ51" s="59"/>
-      <c r="AK51" s="64"/>
-      <c r="AL51" s="64"/>
-      <c r="AM51" s="64"/>
-      <c r="AN51" s="59"/>
-      <c r="AO51" s="64"/>
-      <c r="AP51" s="59"/>
-      <c r="AQ51" s="64"/>
-      <c r="AR51" s="65"/>
-      <c r="AS51" s="59"/>
-      <c r="AT51" s="59"/>
-      <c r="AU51" s="59"/>
-      <c r="AV51" s="63"/>
-      <c r="AW51" s="29"/>
-      <c r="AX51" s="29"/>
-      <c r="AY51" s="62"/>
-      <c r="AZ51" s="30"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="54"/>
+      <c r="AR51" s="55"/>
+      <c r="AS51" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT51" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU51" s="51"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="48"/>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="50"/>
+      <c r="AZ51" s="56"/>
     </row>
     <row r="52" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="47"/>
@@ -7893,14 +8424,287 @@
       <c r="AP52" s="59"/>
       <c r="AQ52" s="64"/>
       <c r="AR52" s="65"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
+      <c r="AS52" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT52" s="84" t="s">
+        <v>123</v>
+      </c>
       <c r="AU52" s="59"/>
       <c r="AV52" s="63"/>
       <c r="AW52" s="29"/>
       <c r="AX52" s="29"/>
       <c r="AY52" s="62"/>
       <c r="AZ52" s="30"/>
+    </row>
+    <row r="53" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="63"/>
+      <c r="AE53" s="62"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="64"/>
+      <c r="AL53" s="64"/>
+      <c r="AM53" s="64"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="64"/>
+      <c r="AP53" s="59"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="65"/>
+      <c r="AS53" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT53" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU53" s="59"/>
+      <c r="AV53" s="63"/>
+      <c r="AW53" s="29"/>
+      <c r="AX53" s="29"/>
+      <c r="AY53" s="62"/>
+      <c r="AZ53" s="30"/>
+    </row>
+    <row r="54" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="63"/>
+      <c r="AE54" s="62"/>
+      <c r="AF54" s="62"/>
+      <c r="AG54" s="62"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="64"/>
+      <c r="AL54" s="64"/>
+      <c r="AM54" s="64"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="64"/>
+      <c r="AP54" s="59"/>
+      <c r="AQ54" s="64"/>
+      <c r="AR54" s="65"/>
+      <c r="AS54" s="59"/>
+      <c r="AT54" s="59"/>
+      <c r="AU54" s="59"/>
+      <c r="AV54" s="63"/>
+      <c r="AW54" s="29"/>
+      <c r="AX54" s="29"/>
+      <c r="AY54" s="62"/>
+      <c r="AZ54" s="30"/>
+    </row>
+    <row r="55" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="64"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="59"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="59"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="65"/>
+      <c r="AS55" s="59"/>
+      <c r="AT55" s="59"/>
+      <c r="AU55" s="59"/>
+      <c r="AV55" s="63"/>
+      <c r="AW55" s="29"/>
+      <c r="AX55" s="29"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="30"/>
+    </row>
+    <row r="56" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="63"/>
+      <c r="AE56" s="62"/>
+      <c r="AF56" s="62"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="64"/>
+      <c r="AL56" s="64"/>
+      <c r="AM56" s="64"/>
+      <c r="AN56" s="59"/>
+      <c r="AO56" s="64"/>
+      <c r="AP56" s="59"/>
+      <c r="AQ56" s="64"/>
+      <c r="AR56" s="65"/>
+      <c r="AS56" s="59"/>
+      <c r="AT56" s="59"/>
+      <c r="AU56" s="59"/>
+      <c r="AV56" s="63"/>
+      <c r="AW56" s="29"/>
+      <c r="AX56" s="29"/>
+      <c r="AY56" s="62"/>
+      <c r="AZ56" s="30"/>
+    </row>
+    <row r="57" spans="2:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="63"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="64"/>
+      <c r="AL57" s="64"/>
+      <c r="AM57" s="64"/>
+      <c r="AN57" s="59"/>
+      <c r="AO57" s="64"/>
+      <c r="AP57" s="59"/>
+      <c r="AQ57" s="64"/>
+      <c r="AR57" s="65"/>
+      <c r="AS57" s="59"/>
+      <c r="AT57" s="59"/>
+      <c r="AU57" s="59"/>
+      <c r="AV57" s="63"/>
+      <c r="AW57" s="29"/>
+      <c r="AX57" s="29"/>
+      <c r="AY57" s="62"/>
+      <c r="AZ57" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="350">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>Sigma-T/</t>
+  </si>
+  <si>
+    <t>pitch</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1858,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY48" sqref="AY48"/>
+      <selection pane="bottomRight" activeCell="AW47" sqref="AW47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7681,10 +7684,10 @@
         <v>29.1</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41">
+      <c r="K41" s="82">
         <v>48.7239</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="82">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="50"/>
@@ -7789,9 +7792,11 @@
         <v>13</v>
       </c>
       <c r="E42" s="48">
-        <v>85</v>
-      </c>
-      <c r="F42" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="F42" s="48">
+        <v>4800925</v>
+      </c>
       <c r="G42" s="48" t="s">
         <v>15</v>
       </c>
@@ -7829,17 +7834,23 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="81"/>
-      <c r="AG42" s="81"/>
-      <c r="AH42" s="85">
+      <c r="AD42" s="3">
+        <v>1022.8</v>
+      </c>
+      <c r="AE42" s="50">
+        <v>20200914</v>
+      </c>
+      <c r="AF42" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="48">
         <v>33</v>
       </c>
-      <c r="AI42" s="75" t="s">
+      <c r="AI42" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="AJ42" s="75" t="s">
+      <c r="AJ42" s="51" t="s">
         <v>234</v>
       </c>
       <c r="AK42" s="47" t="s">
@@ -7866,16 +7877,18 @@
       <c r="AR42" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="AS42" s="78" t="s">
+      <c r="AS42" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AT42" s="79" t="s">
+      <c r="AT42" s="51" t="s">
         <v>307</v>
       </c>
       <c r="AU42" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV42" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="AV42" s="3"/>
       <c r="AW42" s="48" t="s">
         <v>226</v>
       </c>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="359">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1028,9 +1028,6 @@
     <t>14+</t>
   </si>
   <si>
-    <t>C&amp;P/</t>
-  </si>
-  <si>
     <t>Glider started mission with 28.6 volt only. Was deployed in Trinity Bay because hard to find boat in Bonavista with covid. Alarm 64 masked from the beginning. Difficulties with strong pycnocline, change zt from 10 to 15. Recovery in rough water as battery was already very low.</t>
   </si>
   <si>
@@ -1046,31 +1043,61 @@
     <t>20200916</t>
   </si>
   <si>
-    <t>Rinko was not working the 2 first dive but got fixed but unpluging and repluging,</t>
-  </si>
-  <si>
     <t>GLI2020_SEA022_61</t>
   </si>
   <si>
     <t>16+</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA019_85</t>
-  </si>
-  <si>
-    <t>LEGATO ?</t>
-  </si>
-  <si>
-    <t>CTD of SEA021</t>
-  </si>
-  <si>
     <t>Sigma-T/</t>
   </si>
   <si>
     <t>pitch</t>
+  </si>
+  <si>
+    <t>20200928</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_84</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>20u1037</t>
+  </si>
+  <si>
+    <t>20u1036</t>
+  </si>
+  <si>
+    <t>20u1035</t>
+  </si>
+  <si>
+    <t>Rinko was not working the 2 first dive but got fixed but unpluging and repluging, sampling pattern 011/1 on the way back, really struggle with current on the way back, could not go north to make it in Bay</t>
+  </si>
+  <si>
+    <t>CTD of SEA021, first mission with Legato and test for pitch auto adjustments. All sensor turned off on the way back</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL6-GL3-GL2-GL1-Tri-DR</t>
+  </si>
+  <si>
+    <t>20201007</t>
+  </si>
+  <si>
+    <t>BB2-4-7-10-11-12-13-12-11-10-7-4-2-1-please</t>
+  </si>
+  <si>
+    <t>AFAP (1/16)</t>
+  </si>
+  <si>
+    <t>Jan2020</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_50</t>
+  </si>
+  <si>
+    <t>AZMP fall 2020</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1108,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,6 +1167,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1310,7 +1344,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,6 +1578,15 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1855,10 +1898,10 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW47" sqref="AW47"/>
+      <selection pane="bottomRight" activeCell="AY42" sqref="AY42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7445,40 +7488,40 @@
       <c r="AD39" s="3">
         <v>1025</v>
       </c>
-      <c r="AE39" s="81">
+      <c r="AE39" s="50">
         <v>20200227</v>
       </c>
-      <c r="AF39" s="81" t="s">
+      <c r="AF39" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="AG39" s="81" t="s">
+      <c r="AG39" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="AH39" s="85">
+      <c r="AH39" s="48">
         <v>42</v>
       </c>
-      <c r="AI39" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ39" s="75" t="s">
+      <c r="AI39" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ39" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AK39" s="86" t="s">
+      <c r="AK39" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AL39" s="86" t="s">
+      <c r="AL39" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AM39" s="86" t="s">
+      <c r="AM39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AN39" s="87">
+      <c r="AN39" s="52">
         <v>42859</v>
       </c>
-      <c r="AO39" s="86" t="s">
+      <c r="AO39" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AP39" s="76" t="s">
+      <c r="AP39" s="53" t="s">
         <v>180</v>
       </c>
       <c r="AQ39" s="54" t="s">
@@ -7487,10 +7530,10 @@
       <c r="AR39" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="AS39" s="77" t="s">
+      <c r="AS39" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AT39" s="77" t="s">
+      <c r="AT39" s="53" t="s">
         <v>298</v>
       </c>
       <c r="AU39" s="51"/>
@@ -7505,7 +7548,7 @@
         <v>329</v>
       </c>
       <c r="AZ39" s="56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -7513,7 +7556,7 @@
         <v>331</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>44</v>
@@ -7555,7 +7598,7 @@
         <v>-49.29</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R40" s="3">
         <v>26</v>
@@ -7586,7 +7629,7 @@
         <v>201</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AB40" s="3">
         <v>8</v>
@@ -7597,40 +7640,40 @@
       <c r="AD40" s="3">
         <v>1023.75</v>
       </c>
-      <c r="AE40" s="81">
+      <c r="AE40" s="50">
         <v>20200227</v>
       </c>
-      <c r="AF40" s="81" t="s">
+      <c r="AF40" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="AG40" s="81" t="s">
+      <c r="AG40" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="AH40" s="85">
+      <c r="AH40" s="48">
         <v>42</v>
       </c>
-      <c r="AI40" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ40" s="75" t="s">
+      <c r="AI40" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ40" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AK40" s="86" t="s">
+      <c r="AK40" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AL40" s="86" t="s">
+      <c r="AL40" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AM40" s="86" t="s">
+      <c r="AM40" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AN40" s="87">
+      <c r="AN40" s="52">
         <v>42859</v>
       </c>
-      <c r="AO40" s="86" t="s">
+      <c r="AO40" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AP40" s="76" t="s">
+      <c r="AP40" s="53" t="s">
         <v>180</v>
       </c>
       <c r="AQ40" s="54" t="s">
@@ -7639,10 +7682,10 @@
       <c r="AR40" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="AS40" s="77" t="s">
+      <c r="AS40" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AT40" s="77" t="s">
+      <c r="AT40" s="53" t="s">
         <v>298</v>
       </c>
       <c r="AU40" s="51"/>
@@ -7657,14 +7700,16 @@
         <v>230</v>
       </c>
       <c r="AZ40" s="56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" s="47"/>
+        <v>339</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>353</v>
+      </c>
       <c r="D41" s="48" t="s">
         <v>44</v>
       </c>
@@ -7678,29 +7723,48 @@
         <v>140</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3">
+        <v>25.3</v>
+      </c>
       <c r="K41" s="82">
         <v>48.7239</v>
       </c>
       <c r="L41" s="82">
         <v>-52.982300000000002</v>
       </c>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
+      <c r="M41" s="50">
+        <v>48.68</v>
+      </c>
+      <c r="N41" s="50">
+        <v>-53.05</v>
+      </c>
+      <c r="O41" s="50">
+        <v>49.72</v>
+      </c>
+      <c r="P41" s="50">
+        <v>-49.75</v>
+      </c>
       <c r="Q41" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="R41" s="3">
+        <v>21</v>
+      </c>
+      <c r="S41" s="3">
+        <v>575</v>
+      </c>
+      <c r="T41" s="3">
+        <v>645</v>
+      </c>
+      <c r="U41" s="3">
+        <f>213*2+432</f>
+        <v>858</v>
+      </c>
       <c r="V41" s="50" t="s">
         <v>251</v>
       </c>
@@ -7716,46 +7780,52 @@
       <c r="Z41" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
+      <c r="AA41" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>4</v>
+      </c>
       <c r="AD41" s="3">
         <v>1023.75</v>
       </c>
-      <c r="AE41" s="81">
+      <c r="AE41" s="50">
         <v>20200227</v>
       </c>
-      <c r="AF41" s="81" t="s">
+      <c r="AF41" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="AG41" s="81" t="s">
+      <c r="AG41" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="AH41" s="85">
+      <c r="AH41" s="48">
         <v>42</v>
       </c>
-      <c r="AI41" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ41" s="75" t="s">
+      <c r="AI41" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ41" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AK41" s="86" t="s">
+      <c r="AK41" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AL41" s="86" t="s">
+      <c r="AL41" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AM41" s="86" t="s">
+      <c r="AM41" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AN41" s="87">
+      <c r="AN41" s="52">
         <v>42859</v>
       </c>
-      <c r="AO41" s="86" t="s">
+      <c r="AO41" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AP41" s="76" t="s">
+      <c r="AP41" s="53" t="s">
         <v>180</v>
       </c>
       <c r="AQ41" s="54" t="s">
@@ -7764,10 +7834,10 @@
       <c r="AR41" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="AS41" s="77" t="s">
+      <c r="AS41" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AT41" s="77" t="s">
+      <c r="AT41" s="53" t="s">
         <v>298</v>
       </c>
       <c r="AU41" s="51"/>
@@ -7779,14 +7849,16 @@
         <v>227</v>
       </c>
       <c r="AY41" s="50" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="AZ41" s="56" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
+      <c r="B42" s="47" t="s">
+        <v>344</v>
+      </c>
       <c r="C42" s="47"/>
       <c r="D42" s="48" t="s">
         <v>13</v>
@@ -7811,7 +7883,9 @@
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
       <c r="P42" s="50"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -7829,7 +7903,7 @@
         <v>201</v>
       </c>
       <c r="Z42" s="50" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -7841,14 +7915,14 @@
         <v>20200914</v>
       </c>
       <c r="AF42" s="50" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AG42" s="50"/>
       <c r="AH42" s="48">
         <v>33</v>
       </c>
       <c r="AI42" s="51" t="s">
-        <v>250</v>
+        <v>356</v>
       </c>
       <c r="AJ42" s="51" t="s">
         <v>234</v>
@@ -7863,10 +7937,10 @@
         <v>75</v>
       </c>
       <c r="AN42" s="52">
-        <v>42711</v>
-      </c>
-      <c r="AO42" s="47" t="s">
-        <v>77</v>
+        <v>42691</v>
+      </c>
+      <c r="AO42" s="54">
+        <v>4551</v>
       </c>
       <c r="AP42" s="47" t="s">
         <v>180</v>
@@ -7887,7 +7961,7 @@
         <v>150</v>
       </c>
       <c r="AV42" s="3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AW42" s="48" t="s">
         <v>226</v>
@@ -7896,20 +7970,30 @@
         <v>227</v>
       </c>
       <c r="AY42" s="50" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AZ42" s="56" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49"/>
+      <c r="D43" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="48">
+        <v>50</v>
+      </c>
+      <c r="F43" s="48">
+        <v>4800937</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>357</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="48"/>
@@ -7923,29 +8007,63 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="50"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
+      <c r="V43" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="W43" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="X43" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y43" s="50" t="s">
+        <v>201</v>
+      </c>
       <c r="Z43" s="50"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="81"/>
+      <c r="AD43" s="3">
+        <v>1023.5</v>
+      </c>
+      <c r="AE43" s="50">
+        <v>20200914</v>
+      </c>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
-      <c r="AH43" s="85"/>
-      <c r="AI43" s="75"/>
-      <c r="AJ43" s="75"/>
-      <c r="AK43" s="86"/>
-      <c r="AL43" s="86"/>
-      <c r="AM43" s="86"/>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="86"/>
-      <c r="AP43" s="76"/>
-      <c r="AQ43" s="54"/>
-      <c r="AR43" s="55"/>
+      <c r="AH43" s="85">
+        <v>30</v>
+      </c>
+      <c r="AI43" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ43" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK43" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL43" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM43" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN43" s="87">
+        <v>42723</v>
+      </c>
+      <c r="AO43" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP43" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ43" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR43" s="55" t="s">
+        <v>304</v>
+      </c>
       <c r="AS43" s="77"/>
       <c r="AT43" s="77"/>
       <c r="AU43" s="51"/>
@@ -8266,11 +8384,11 @@
       <c r="AP49" s="51"/>
       <c r="AQ49" s="47"/>
       <c r="AR49" s="61"/>
-      <c r="AS49" s="75" t="s">
+      <c r="AS49" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="AT49" s="75" t="s">
-        <v>103</v>
+      <c r="AT49" s="90" t="s">
+        <v>349</v>
       </c>
       <c r="AU49" s="51"/>
       <c r="AV49" s="3"/>
@@ -8380,11 +8498,11 @@
       <c r="AP51" s="53"/>
       <c r="AQ51" s="54"/>
       <c r="AR51" s="55"/>
-      <c r="AS51" s="76" t="s">
+      <c r="AS51" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="AT51" s="75" t="s">
-        <v>108</v>
+      <c r="AT51" s="90" t="s">
+        <v>348</v>
       </c>
       <c r="AU51" s="51"/>
       <c r="AV51" s="3"/>
@@ -8437,11 +8555,11 @@
       <c r="AP52" s="59"/>
       <c r="AQ52" s="64"/>
       <c r="AR52" s="65"/>
-      <c r="AS52" s="84" t="s">
+      <c r="AS52" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="AT52" s="84" t="s">
-        <v>123</v>
+      <c r="AT52" s="88" t="s">
+        <v>347</v>
       </c>
       <c r="AU52" s="59"/>
       <c r="AV52" s="63"/>
@@ -8551,8 +8669,12 @@
       <c r="AP54" s="59"/>
       <c r="AQ54" s="64"/>
       <c r="AR54" s="65"/>
-      <c r="AS54" s="59"/>
-      <c r="AT54" s="59"/>
+      <c r="AS54" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT54" s="84" t="s">
+        <v>123</v>
+      </c>
       <c r="AU54" s="59"/>
       <c r="AV54" s="63"/>
       <c r="AW54" s="29"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="362">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>Rinko was not working the 2 first dive but got fixed but unpluging and repluging, sampling pattern 011/1 on the way back, really struggle with current on the way back, could not go north to make it in Bay</t>
   </si>
   <si>
-    <t>CTD of SEA021, first mission with Legato and test for pitch auto adjustments. All sensor turned off on the way back</t>
-  </si>
-  <si>
     <t>GL1-GL2-GL3-HL6-GL3-GL2-GL1-Tri-DR</t>
   </si>
   <si>
@@ -1094,10 +1091,22 @@
     <t>Jan2020</t>
   </si>
   <si>
-    <t>GLI2020_SEA032_50</t>
-  </si>
-  <si>
     <t>AZMP fall 2020</t>
+  </si>
+  <si>
+    <t>20201016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD of SEA021, first mission with Legato and test for pitch auto adjustments. All sensor turned off on the way back, sensors turned back on for HL5 AZMP station comparison and at recoveru for RBR cast </t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_51</t>
+  </si>
+  <si>
+    <t>PLD of sea022 but GPCTD of sea021.</t>
+  </si>
+  <si>
+    <t>20201020</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1117,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,6 +1183,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1344,7 +1360,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1576,9 +1592,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,6 +1599,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1898,10 +1929,10 @@
   <dimension ref="A1:AZ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AX26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY42" sqref="AY42"/>
+      <selection pane="bottomRight" activeCell="AZ49" sqref="AZ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7501,7 +7532,7 @@
         <v>42</v>
       </c>
       <c r="AI39" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ39" s="51" t="s">
         <v>180</v>
@@ -7653,7 +7684,7 @@
         <v>42</v>
       </c>
       <c r="AI40" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ40" s="51" t="s">
         <v>180</v>
@@ -7708,7 +7739,7 @@
         <v>339</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>44</v>
@@ -7750,7 +7781,7 @@
         <v>-49.75</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R41" s="3">
         <v>21</v>
@@ -7805,7 +7836,7 @@
         <v>42</v>
       </c>
       <c r="AI41" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ41" s="51" t="s">
         <v>180</v>
@@ -7859,7 +7890,9 @@
       <c r="B42" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="47" t="s">
+        <v>357</v>
+      </c>
       <c r="D42" s="48" t="s">
         <v>13</v>
       </c>
@@ -7875,20 +7908,42 @@
       <c r="H42" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
+      <c r="I42" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="K42" s="48">
+        <v>44.375999999999998</v>
+      </c>
+      <c r="L42" s="48">
+        <v>-63.326599999999999</v>
+      </c>
+      <c r="M42" s="50">
+        <v>42.83</v>
+      </c>
+      <c r="N42" s="50">
+        <v>-63.43</v>
+      </c>
+      <c r="O42" s="50">
+        <v>44.47</v>
+      </c>
+      <c r="P42" s="50">
+        <v>-61.69</v>
+      </c>
       <c r="Q42" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="R42" s="3">
+        <v>18</v>
+      </c>
+      <c r="S42" s="3">
+        <v>469</v>
+      </c>
+      <c r="T42" s="3">
+        <v>1015</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="50" t="s">
         <v>251</v>
@@ -7903,11 +7958,17 @@
         <v>201</v>
       </c>
       <c r="Z42" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>5</v>
+      </c>
       <c r="AD42" s="3">
         <v>1022.8</v>
       </c>
@@ -7922,7 +7983,7 @@
         <v>33</v>
       </c>
       <c r="AI42" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ42" s="51" t="s">
         <v>234</v>
@@ -7961,7 +8022,7 @@
         <v>150</v>
       </c>
       <c r="AV42" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AW42" s="48" t="s">
         <v>226</v>
@@ -7970,20 +8031,22 @@
         <v>227</v>
       </c>
       <c r="AY42" s="50" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="AZ42" s="56" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
+      <c r="B43" s="47" t="s">
+        <v>361</v>
+      </c>
       <c r="C43" s="47"/>
       <c r="D43" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="48">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="48">
         <v>4800937</v>
@@ -7992,7 +8055,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -8031,31 +8094,31 @@
       </c>
       <c r="AF43" s="81"/>
       <c r="AG43" s="81"/>
-      <c r="AH43" s="85">
+      <c r="AH43" s="95">
         <v>30</v>
       </c>
       <c r="AI43" s="51" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="AJ43" s="51" t="s">
         <v>234</v>
       </c>
       <c r="AK43" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL43" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM43" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN43" s="87">
+        <v>78</v>
+      </c>
+      <c r="AL43" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM43" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN43" s="92">
         <v>42723</v>
       </c>
-      <c r="AO43" s="86" t="s">
+      <c r="AO43" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AP43" s="76" t="s">
+      <c r="AP43" s="94" t="s">
         <v>180</v>
       </c>
       <c r="AQ43" s="54" t="s">
@@ -8064,14 +8127,28 @@
       <c r="AR43" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="AS43" s="77"/>
-      <c r="AT43" s="77"/>
-      <c r="AU43" s="51"/>
+      <c r="AS43" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT43" s="90" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU43" s="51" t="s">
+        <v>151</v>
+      </c>
       <c r="AV43" s="3"/>
-      <c r="AW43" s="48"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="50"/>
-      <c r="AZ43" s="56"/>
+      <c r="AW43" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX43" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY43" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ43" s="56" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="44" spans="1:52" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="47"/>
@@ -8110,9 +8187,9 @@
       <c r="AI44" s="75"/>
       <c r="AJ44" s="75"/>
       <c r="AK44" s="86"/>
-      <c r="AL44" s="86"/>
-      <c r="AM44" s="86"/>
-      <c r="AN44" s="87"/>
+      <c r="AL44" s="91"/>
+      <c r="AM44" s="91"/>
+      <c r="AN44" s="92"/>
       <c r="AO44" s="86"/>
       <c r="AP44" s="76"/>
       <c r="AQ44" s="54"/>
@@ -8165,9 +8242,9 @@
       <c r="AI45" s="51"/>
       <c r="AJ45" s="51"/>
       <c r="AK45" s="47"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="51"/>
+      <c r="AL45" s="91"/>
+      <c r="AM45" s="91"/>
+      <c r="AN45" s="93"/>
       <c r="AO45" s="47"/>
       <c r="AP45" s="51"/>
       <c r="AQ45" s="47"/>
@@ -8218,9 +8295,9 @@
       <c r="AI46" s="51"/>
       <c r="AJ46" s="51"/>
       <c r="AK46" s="47"/>
-      <c r="AL46" s="47"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="51"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91"/>
+      <c r="AN46" s="93"/>
       <c r="AO46" s="47"/>
       <c r="AP46" s="51"/>
       <c r="AQ46" s="47"/>
@@ -8384,10 +8461,10 @@
       <c r="AP49" s="51"/>
       <c r="AQ49" s="47"/>
       <c r="AR49" s="61"/>
-      <c r="AS49" s="90" t="s">
+      <c r="AS49" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="AT49" s="90" t="s">
+      <c r="AT49" s="89" t="s">
         <v>349</v>
       </c>
       <c r="AU49" s="51"/>
@@ -8498,10 +8575,10 @@
       <c r="AP51" s="53"/>
       <c r="AQ51" s="54"/>
       <c r="AR51" s="55"/>
-      <c r="AS51" s="89" t="s">
+      <c r="AS51" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="AT51" s="90" t="s">
+      <c r="AT51" s="89" t="s">
         <v>348</v>
       </c>
       <c r="AU51" s="51"/>
@@ -8555,10 +8632,10 @@
       <c r="AP52" s="59"/>
       <c r="AQ52" s="64"/>
       <c r="AR52" s="65"/>
-      <c r="AS52" s="88" t="s">
+      <c r="AS52" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="AT52" s="88" t="s">
+      <c r="AT52" s="87" t="s">
         <v>347</v>
       </c>
       <c r="AU52" s="59"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="394">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1197,6 +1197,12 @@
   </si>
   <si>
     <t>Sampling rate PAM (Hz)</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_58</t>
+  </si>
+  <si>
+    <t>New battery, new release, auto pitch mission.</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,12 +1317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1456,7 +1456,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,12 +1615,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1628,9 +1622,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,9 +1634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,16 +1666,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,9 +1680,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,26 +1704,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2058,13 +2043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AJ25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AF27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
+      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,8 +2079,8 @@
     <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="93" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="93" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.109375" bestFit="1" customWidth="1"/>
@@ -2105,20 +2090,20 @@
     <col min="35" max="35" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" style="94" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.77734375" style="107" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.77734375" style="94" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.77734375" style="6" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" style="107" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" style="107" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="12.77734375" style="107" customWidth="1"/>
-    <col min="51" max="51" width="11.77734375" style="107" customWidth="1"/>
-    <col min="52" max="52" width="14.77734375" style="107" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" style="107" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.77734375" style="94" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" style="94" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="12.77734375" style="94" customWidth="1"/>
+    <col min="51" max="51" width="11.77734375" style="94" customWidth="1"/>
+    <col min="52" max="52" width="14.77734375" style="94" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" style="94" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11.77734375" style="5" customWidth="1"/>
     <col min="55" max="55" width="11.77734375" style="1" customWidth="1"/>
     <col min="56" max="56" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
@@ -2199,26 +2184,26 @@
       <c r="BJ1" s="25"/>
       <c r="BK1" s="30"/>
     </row>
-    <row r="2" spans="1:63" s="87" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="1:63" s="79" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="82" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2227,22 +2212,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="82" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2260,25 +2245,25 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="92" t="s">
+      <c r="V2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="92" t="s">
+      <c r="W2" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="X2" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="92" t="s">
+      <c r="Y2" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="92" t="s">
+      <c r="Z2" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="93" t="s">
+      <c r="AA2" s="84" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="93" t="s">
+      <c r="AB2" s="84" t="s">
         <v>347</v>
       </c>
       <c r="AC2" s="32" t="s">
@@ -2293,97 +2278,97 @@
       <c r="AF2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="92" t="s">
+      <c r="AG2" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="92" t="s">
+      <c r="AH2" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="92" t="s">
+      <c r="AI2" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="94" t="s">
+      <c r="AJ2" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="108" t="s">
+      <c r="AK2" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="AL2" s="102" t="s">
+      <c r="AL2" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="AM2" s="108" t="s">
+      <c r="AM2" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="AN2" s="108" t="s">
+      <c r="AN2" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="AO2" s="102" t="s">
+      <c r="AO2" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="AP2" s="102" t="s">
+      <c r="AP2" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="AQ2" s="96" t="s">
+      <c r="AQ2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="95" t="s">
+      <c r="AR2" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="AS2" s="97" t="s">
+      <c r="AS2" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="AT2" s="102" t="s">
+      <c r="AT2" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AU2" s="102" t="s">
+      <c r="AU2" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AV2" s="102" t="s">
+      <c r="AV2" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="AW2" s="102" t="s">
+      <c r="AW2" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="AX2" s="102" t="s">
+      <c r="AX2" s="86" t="s">
         <v>362</v>
       </c>
-      <c r="AY2" s="102" t="s">
+      <c r="AY2" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AZ2" s="102" t="s">
+      <c r="AZ2" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="BA2" s="102" t="s">
+      <c r="BA2" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="BB2" s="98" t="s">
+      <c r="BB2" s="89" t="s">
         <v>171</v>
       </c>
       <c r="BC2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BD2" s="95" t="s">
+      <c r="BD2" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="95" t="s">
+      <c r="BE2" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="95" t="s">
+      <c r="BF2" s="86" t="s">
         <v>229</v>
       </c>
       <c r="BG2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="99" t="s">
+      <c r="BH2" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="BI2" s="99" t="s">
+      <c r="BI2" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="BJ2" s="100" t="s">
+      <c r="BJ2" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="101" t="s">
+      <c r="BK2" s="92" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2465,8 +2450,8 @@
         <v>115</v>
       </c>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="13">
         <v>0</v>
       </c>
@@ -2494,7 +2479,7 @@
       <c r="AK3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="103" t="s">
+      <c r="AL3" s="15" t="s">
         <v>364</v>
       </c>
       <c r="AM3" s="10" t="s">
@@ -2503,7 +2488,7 @@
       <c r="AN3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO3" s="103" t="s">
+      <c r="AO3" s="15" t="s">
         <v>365</v>
       </c>
       <c r="AP3" s="15" t="s">
@@ -2518,14 +2503,14 @@
       <c r="AS3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
       <c r="BB3" s="10" t="s">
         <v>237</v>
       </c>
@@ -2631,8 +2616,8 @@
         <v>115</v>
       </c>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
       <c r="AC4" s="2">
         <v>2</v>
       </c>
@@ -2660,7 +2645,7 @@
       <c r="AK4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="103" t="s">
+      <c r="AL4" s="15" t="s">
         <v>364</v>
       </c>
       <c r="AM4" s="10" t="s">
@@ -2669,7 +2654,7 @@
       <c r="AN4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO4" s="103" t="s">
+      <c r="AO4" s="15" t="s">
         <v>365</v>
       </c>
       <c r="AP4" s="15" t="s">
@@ -2684,14 +2669,14 @@
       <c r="AS4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
       <c r="BB4" s="10" t="s">
         <v>237</v>
       </c>
@@ -2797,8 +2782,8 @@
         <v>115</v>
       </c>
       <c r="Z5" s="36"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
       <c r="AC5" s="3">
         <v>1</v>
       </c>
@@ -2826,7 +2811,7 @@
       <c r="AK5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="103" t="s">
+      <c r="AL5" s="40" t="s">
         <v>370</v>
       </c>
       <c r="AM5" s="34" t="s">
@@ -2835,7 +2820,7 @@
       <c r="AN5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO5" s="103" t="s">
+      <c r="AO5" s="40" t="s">
         <v>371</v>
       </c>
       <c r="AP5" s="40" t="s">
@@ -2850,14 +2835,14 @@
       <c r="AS5" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
       <c r="BB5" s="41" t="s">
         <v>237</v>
       </c>
@@ -2966,8 +2951,8 @@
         <v>115</v>
       </c>
       <c r="Z6" s="36"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
       <c r="AC6" s="3">
         <v>2</v>
       </c>
@@ -2995,7 +2980,7 @@
       <c r="AK6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL6" s="103" t="s">
+      <c r="AL6" s="40" t="s">
         <v>364</v>
       </c>
       <c r="AM6" s="41" t="s">
@@ -3004,7 +2989,7 @@
       <c r="AN6" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO6" s="103" t="s">
+      <c r="AO6" s="40" t="s">
         <v>365</v>
       </c>
       <c r="AP6" s="40" t="s">
@@ -3019,14 +3004,14 @@
       <c r="AS6" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="103"/>
-      <c r="AW6" s="103"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
       <c r="BB6" s="41" t="s">
         <v>237</v>
       </c>
@@ -3132,8 +3117,8 @@
         <v>115</v>
       </c>
       <c r="Z7" s="36"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
       <c r="AC7" s="3">
         <v>4</v>
       </c>
@@ -3161,7 +3146,7 @@
       <c r="AK7" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL7" s="103" t="s">
+      <c r="AL7" s="40" t="s">
         <v>370</v>
       </c>
       <c r="AM7" s="34" t="s">
@@ -3170,7 +3155,7 @@
       <c r="AN7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO7" s="103" t="s">
+      <c r="AO7" s="40" t="s">
         <v>371</v>
       </c>
       <c r="AP7" s="40" t="s">
@@ -3185,14 +3170,14 @@
       <c r="AS7" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="103"/>
-      <c r="BA7" s="103"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
       <c r="BB7" s="41" t="s">
         <v>237</v>
       </c>
@@ -3300,8 +3285,8 @@
         <v>115</v>
       </c>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="3">
         <v>3</v>
       </c>
@@ -3329,7 +3314,7 @@
       <c r="AK8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL8" s="103" t="s">
+      <c r="AL8" s="40" t="s">
         <v>364</v>
       </c>
       <c r="AM8" s="34" t="s">
@@ -3338,7 +3323,7 @@
       <c r="AN8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO8" s="103" t="s">
+      <c r="AO8" s="40" t="s">
         <v>380</v>
       </c>
       <c r="AP8" s="40" t="s">
@@ -3353,14 +3338,14 @@
       <c r="AS8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
       <c r="BB8" s="41" t="s">
         <v>237</v>
       </c>
@@ -3466,8 +3451,8 @@
         <v>115</v>
       </c>
       <c r="Z9" s="36"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
       <c r="AC9" s="3">
         <v>2</v>
       </c>
@@ -3495,7 +3480,7 @@
       <c r="AK9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL9" s="104" t="s">
+      <c r="AL9" s="38" t="s">
         <v>376</v>
       </c>
       <c r="AM9" s="34" t="s">
@@ -3504,7 +3489,7 @@
       <c r="AN9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AO9" s="104" t="s">
+      <c r="AO9" s="38" t="s">
         <v>377</v>
       </c>
       <c r="AP9" s="38" t="s">
@@ -3519,14 +3504,14 @@
       <c r="AS9" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
       <c r="BB9" s="41" t="s">
         <v>237</v>
       </c>
@@ -3632,8 +3617,8 @@
         <v>115</v>
       </c>
       <c r="Z10" s="36"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
       <c r="AC10" s="3" t="s">
         <v>58</v>
       </c>
@@ -3661,7 +3646,7 @@
       <c r="AK10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL10" s="103" t="s">
+      <c r="AL10" s="40" t="s">
         <v>364</v>
       </c>
       <c r="AM10" s="41" t="s">
@@ -3670,7 +3655,7 @@
       <c r="AN10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO10" s="103" t="s">
+      <c r="AO10" s="40" t="s">
         <v>365</v>
       </c>
       <c r="AP10" s="40" t="s">
@@ -3685,14 +3670,14 @@
       <c r="AS10" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
       <c r="BB10" s="41" t="s">
         <v>237</v>
       </c>
@@ -3798,8 +3783,8 @@
         <v>4</v>
       </c>
       <c r="Z11" s="37"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
       <c r="AC11" s="3">
         <v>1</v>
       </c>
@@ -3827,7 +3812,7 @@
       <c r="AK11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL11" s="104" t="s">
+      <c r="AL11" s="38" t="s">
         <v>381</v>
       </c>
       <c r="AM11" s="34" t="s">
@@ -3836,7 +3821,7 @@
       <c r="AN11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO11" s="104" t="s">
+      <c r="AO11" s="38" t="s">
         <v>51</v>
       </c>
       <c r="AP11" s="38" t="s">
@@ -3851,14 +3836,14 @@
       <c r="AS11" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="104"/>
-      <c r="AY11" s="104"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="104"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
       <c r="BB11" s="41" t="s">
         <v>237</v>
       </c>
@@ -3966,8 +3951,8 @@
       <c r="Z12" s="37">
         <v>4</v>
       </c>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
       <c r="AC12" s="3">
         <v>8</v>
       </c>
@@ -3995,14 +3980,14 @@
       <c r="AK12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="104" t="s">
+      <c r="AL12" s="38" t="s">
         <v>384</v>
       </c>
       <c r="AM12" s="34" t="s">
         <v>85</v>
       </c>
       <c r="AN12" s="34"/>
-      <c r="AO12" s="104"/>
+      <c r="AO12" s="38"/>
       <c r="AP12" s="38" t="s">
         <v>169</v>
       </c>
@@ -4015,20 +4000,20 @@
       <c r="AS12" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT12" s="109" t="s">
+      <c r="AT12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AU12" s="104" t="s">
+      <c r="AU12" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AV12" s="104" t="s">
+      <c r="AV12" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="104"/>
-      <c r="AY12" s="104"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="104"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
       <c r="BB12" s="41" t="s">
         <v>237</v>
       </c>
@@ -4134,8 +4119,8 @@
         <v>4</v>
       </c>
       <c r="Z13" s="37"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
       <c r="AC13" s="3" t="s">
         <v>64</v>
       </c>
@@ -4163,7 +4148,7 @@
       <c r="AK13" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL13" s="104" t="s">
+      <c r="AL13" s="38" t="s">
         <v>376</v>
       </c>
       <c r="AM13" s="34" t="s">
@@ -4172,7 +4157,7 @@
       <c r="AN13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AO13" s="104" t="s">
+      <c r="AO13" s="38" t="s">
         <v>377</v>
       </c>
       <c r="AP13" s="38" t="s">
@@ -4187,14 +4172,14 @@
       <c r="AS13" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="104"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="104"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
       <c r="BB13" s="41" t="s">
         <v>237</v>
       </c>
@@ -4302,8 +4287,8 @@
         <v>4</v>
       </c>
       <c r="Z14" s="36"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
       <c r="AC14" s="3">
         <v>5</v>
       </c>
@@ -4331,7 +4316,7 @@
       <c r="AK14" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL14" s="104" t="s">
+      <c r="AL14" s="38" t="s">
         <v>372</v>
       </c>
       <c r="AM14" s="34" t="s">
@@ -4340,7 +4325,7 @@
       <c r="AN14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO14" s="104" t="s">
+      <c r="AO14" s="38" t="s">
         <v>373</v>
       </c>
       <c r="AP14" s="38" t="s">
@@ -4355,14 +4340,14 @@
       <c r="AS14" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="104"/>
-      <c r="AY14" s="104"/>
-      <c r="AZ14" s="104"/>
-      <c r="BA14" s="104"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
       <c r="BB14" s="41" t="s">
         <v>237</v>
       </c>
@@ -4470,8 +4455,8 @@
       <c r="Z15" s="37">
         <v>1</v>
       </c>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
       <c r="AC15" s="3">
         <v>1</v>
       </c>
@@ -4499,14 +4484,14 @@
       <c r="AK15" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL15" s="104" t="s">
+      <c r="AL15" s="38" t="s">
         <v>384</v>
       </c>
       <c r="AM15" s="34" t="s">
         <v>85</v>
       </c>
       <c r="AN15" s="34"/>
-      <c r="AO15" s="104"/>
+      <c r="AO15" s="38"/>
       <c r="AP15" s="38" t="s">
         <v>169</v>
       </c>
@@ -4519,20 +4504,20 @@
       <c r="AS15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT15" s="109" t="s">
+      <c r="AT15" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AU15" s="104" t="s">
+      <c r="AU15" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AV15" s="104" t="s">
+      <c r="AV15" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="104"/>
-      <c r="AY15" s="104"/>
-      <c r="AZ15" s="104"/>
-      <c r="BA15" s="104"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
       <c r="BB15" s="41" t="s">
         <v>237</v>
       </c>
@@ -4638,8 +4623,8 @@
         <v>1</v>
       </c>
       <c r="Z16" s="37"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
       <c r="AC16" s="3">
         <v>0</v>
       </c>
@@ -4667,7 +4652,7 @@
       <c r="AK16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="104" t="s">
+      <c r="AL16" s="38" t="s">
         <v>372</v>
       </c>
       <c r="AM16" s="34" t="s">
@@ -4676,7 +4661,7 @@
       <c r="AN16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO16" s="104" t="s">
+      <c r="AO16" s="38" t="s">
         <v>373</v>
       </c>
       <c r="AP16" s="38" t="s">
@@ -4691,14 +4676,14 @@
       <c r="AS16" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="104"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="104"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
       <c r="BB16" s="41" t="s">
         <v>237</v>
       </c>
@@ -4805,8 +4790,8 @@
         <v>1</v>
       </c>
       <c r="Z17" s="37"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
       <c r="AC17" s="3">
         <v>1</v>
       </c>
@@ -4834,7 +4819,7 @@
       <c r="AK17" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL17" s="103" t="s">
+      <c r="AL17" s="40" t="s">
         <v>366</v>
       </c>
       <c r="AM17" s="41" t="s">
@@ -4843,7 +4828,7 @@
       <c r="AN17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO17" s="103" t="s">
+      <c r="AO17" s="40" t="s">
         <v>367</v>
       </c>
       <c r="AP17" s="40" t="s">
@@ -4858,14 +4843,14 @@
       <c r="AS17" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="103"/>
-      <c r="BA17" s="103"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="40"/>
       <c r="BB17" s="41" t="s">
         <v>237</v>
       </c>
@@ -4972,8 +4957,8 @@
         <v>1</v>
       </c>
       <c r="Z18" s="18"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
       <c r="AC18" s="2" t="s">
         <v>123</v>
       </c>
@@ -5001,7 +4986,7 @@
       <c r="AK18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL18" s="104" t="s">
+      <c r="AL18" s="22" t="s">
         <v>372</v>
       </c>
       <c r="AM18" s="20" t="s">
@@ -5010,7 +4995,7 @@
       <c r="AN18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO18" s="104" t="s">
+      <c r="AO18" s="22" t="s">
         <v>373</v>
       </c>
       <c r="AP18" s="22" t="s">
@@ -5025,14 +5010,14 @@
       <c r="AS18" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="104"/>
-      <c r="AY18" s="104"/>
-      <c r="AZ18" s="104"/>
-      <c r="BA18" s="104"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
       <c r="BB18" s="10" t="s">
         <v>237</v>
       </c>
@@ -5135,8 +5120,8 @@
         <v>1</v>
       </c>
       <c r="Z19" s="18"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
       <c r="AC19" s="2">
         <v>0</v>
       </c>
@@ -5164,7 +5149,7 @@
       <c r="AK19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL19" s="103" t="s">
+      <c r="AL19" s="15" t="s">
         <v>366</v>
       </c>
       <c r="AM19" s="10" t="s">
@@ -5173,7 +5158,7 @@
       <c r="AN19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO19" s="103" t="s">
+      <c r="AO19" s="15" t="s">
         <v>367</v>
       </c>
       <c r="AP19" s="15" t="s">
@@ -5188,14 +5173,14 @@
       <c r="AS19" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="103"/>
-      <c r="BA19" s="103"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
       <c r="BB19" s="10" t="s">
         <v>237</v>
       </c>
@@ -5255,8 +5240,8 @@
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -5266,22 +5251,22 @@
       <c r="AI20" s="18"/>
       <c r="AJ20" s="14"/>
       <c r="AK20" s="20"/>
-      <c r="AL20" s="104"/>
+      <c r="AL20" s="22"/>
       <c r="AM20" s="20"/>
       <c r="AN20" s="20"/>
-      <c r="AO20" s="104"/>
+      <c r="AO20" s="22"/>
       <c r="AP20" s="22"/>
       <c r="AQ20" s="20"/>
       <c r="AR20" s="16"/>
       <c r="AS20" s="22"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="104"/>
-      <c r="AY20" s="104"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="104"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
       <c r="BB20" s="20"/>
       <c r="BC20" s="55"/>
       <c r="BD20" s="22"/>
@@ -5372,8 +5357,8 @@
         <v>1</v>
       </c>
       <c r="Z21" s="18"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
       <c r="AC21" s="2">
         <v>0</v>
       </c>
@@ -5401,7 +5386,7 @@
       <c r="AK21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL21" s="104" t="s">
+      <c r="AL21" s="22" t="s">
         <v>378</v>
       </c>
       <c r="AM21" s="20" t="s">
@@ -5410,7 +5395,7 @@
       <c r="AN21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO21" s="104" t="s">
+      <c r="AO21" s="22" t="s">
         <v>379</v>
       </c>
       <c r="AP21" s="22" t="s">
@@ -5425,14 +5410,14 @@
       <c r="AS21" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
       <c r="BB21" s="10" t="s">
         <v>237</v>
       </c>
@@ -5540,8 +5525,8 @@
         <v>1</v>
       </c>
       <c r="Z22" s="18"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
       <c r="AC22" s="2">
         <v>1</v>
       </c>
@@ -5569,7 +5554,7 @@
       <c r="AK22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AL22" s="104" t="s">
+      <c r="AL22" s="22" t="s">
         <v>381</v>
       </c>
       <c r="AM22" s="20" t="s">
@@ -5578,7 +5563,7 @@
       <c r="AN22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AO22" s="104" t="s">
+      <c r="AO22" s="22" t="s">
         <v>51</v>
       </c>
       <c r="AP22" s="22" t="s">
@@ -5593,14 +5578,14 @@
       <c r="AS22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
-      <c r="AX22" s="104"/>
-      <c r="AY22" s="104"/>
-      <c r="AZ22" s="104"/>
-      <c r="BA22" s="104"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
       <c r="BB22" s="10" t="s">
         <v>237</v>
       </c>
@@ -5708,8 +5693,8 @@
         <v>2</v>
       </c>
       <c r="Z23" s="18"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
       <c r="AC23" s="2">
         <v>7</v>
       </c>
@@ -5737,7 +5722,7 @@
       <c r="AK23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL23" s="104" t="s">
+      <c r="AL23" s="22" t="s">
         <v>378</v>
       </c>
       <c r="AM23" s="20" t="s">
@@ -5746,7 +5731,7 @@
       <c r="AN23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO23" s="104" t="s">
+      <c r="AO23" s="22" t="s">
         <v>379</v>
       </c>
       <c r="AP23" s="22" t="s">
@@ -5761,14 +5746,14 @@
       <c r="AS23" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="104"/>
-      <c r="AY23" s="104"/>
-      <c r="AZ23" s="104"/>
-      <c r="BA23" s="104"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
       <c r="BB23" s="10" t="s">
         <v>237</v>
       </c>
@@ -5876,8 +5861,8 @@
         <v>1</v>
       </c>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
       <c r="AC24" s="2">
         <v>8</v>
       </c>
@@ -5905,7 +5890,7 @@
       <c r="AK24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL24" s="104" t="s">
+      <c r="AL24" s="22" t="s">
         <v>378</v>
       </c>
       <c r="AM24" s="20" t="s">
@@ -5914,7 +5899,7 @@
       <c r="AN24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO24" s="104" t="s">
+      <c r="AO24" s="22" t="s">
         <v>379</v>
       </c>
       <c r="AP24" s="22" t="s">
@@ -5929,14 +5914,14 @@
       <c r="AS24" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="104"/>
-      <c r="AY24" s="104"/>
-      <c r="AZ24" s="104"/>
-      <c r="BA24" s="104"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
       <c r="BB24" s="10" t="s">
         <v>237</v>
       </c>
@@ -6044,8 +6029,8 @@
         <v>1</v>
       </c>
       <c r="Z25" s="18"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
       <c r="AC25" s="2">
         <v>1</v>
       </c>
@@ -6073,7 +6058,7 @@
       <c r="AK25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL25" s="104" t="s">
+      <c r="AL25" s="22" t="s">
         <v>372</v>
       </c>
       <c r="AM25" s="20" t="s">
@@ -6082,7 +6067,7 @@
       <c r="AN25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO25" s="104" t="s">
+      <c r="AO25" s="22" t="s">
         <v>373</v>
       </c>
       <c r="AP25" s="22" t="s">
@@ -6097,14 +6082,14 @@
       <c r="AS25" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="104"/>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
       <c r="BB25" s="10" t="s">
         <v>237</v>
       </c>
@@ -6210,8 +6195,8 @@
         <v>1</v>
       </c>
       <c r="Z26" s="18"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
       <c r="AC26" s="2" t="s">
         <v>182</v>
       </c>
@@ -6240,14 +6225,14 @@
       <c r="AK26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AL26" s="104" t="s">
+      <c r="AL26" s="22" t="s">
         <v>384</v>
       </c>
       <c r="AM26" s="20" t="s">
         <v>85</v>
       </c>
       <c r="AN26" s="20"/>
-      <c r="AO26" s="104"/>
+      <c r="AO26" s="22"/>
       <c r="AP26" s="22" t="s">
         <v>168</v>
       </c>
@@ -6260,14 +6245,14 @@
       <c r="AS26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AT26" s="104"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="104"/>
-      <c r="AX26" s="104"/>
-      <c r="AY26" s="104"/>
-      <c r="AZ26" s="104"/>
-      <c r="BA26" s="104"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="22"/>
       <c r="BB26" s="10" t="s">
         <v>237</v>
       </c>
@@ -6375,8 +6360,8 @@
         <v>1</v>
       </c>
       <c r="Z27" s="18"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
       <c r="AC27" s="2">
         <v>3</v>
       </c>
@@ -6405,7 +6390,7 @@
       <c r="AK27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL27" s="104" t="s">
+      <c r="AL27" s="22" t="s">
         <v>378</v>
       </c>
       <c r="AM27" s="20" t="s">
@@ -6414,7 +6399,7 @@
       <c r="AN27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO27" s="104" t="s">
+      <c r="AO27" s="22" t="s">
         <v>379</v>
       </c>
       <c r="AP27" s="22" t="s">
@@ -6429,14 +6414,14 @@
       <c r="AS27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AT27" s="104"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="104"/>
-      <c r="AX27" s="104"/>
-      <c r="AY27" s="104"/>
-      <c r="AZ27" s="104"/>
-      <c r="BA27" s="104"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
       <c r="BB27" s="10" t="s">
         <v>237</v>
       </c>
@@ -6543,8 +6528,8 @@
         <v>1</v>
       </c>
       <c r="Z28" s="18"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
       <c r="AC28" s="2">
         <v>1</v>
       </c>
@@ -6572,7 +6557,7 @@
       <c r="AK28" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL28" s="104" t="s">
+      <c r="AL28" s="22" t="s">
         <v>372</v>
       </c>
       <c r="AM28" s="20" t="s">
@@ -6581,7 +6566,7 @@
       <c r="AN28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO28" s="104" t="s">
+      <c r="AO28" s="22" t="s">
         <v>373</v>
       </c>
       <c r="AP28" s="22" t="s">
@@ -6596,14 +6581,14 @@
       <c r="AS28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AT28" s="104"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="104"/>
-      <c r="AW28" s="104"/>
-      <c r="AX28" s="104"/>
-      <c r="AY28" s="104"/>
-      <c r="AZ28" s="104"/>
-      <c r="BA28" s="104"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
       <c r="BB28" s="10" t="s">
         <v>237</v>
       </c>
@@ -6709,8 +6694,8 @@
         <v>188</v>
       </c>
       <c r="Z29" s="18"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
       <c r="AC29" s="2">
         <v>2</v>
       </c>
@@ -6738,7 +6723,7 @@
       <c r="AK29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL29" s="104" t="s">
+      <c r="AL29" s="22" t="s">
         <v>368</v>
       </c>
       <c r="AM29" s="10" t="s">
@@ -6747,7 +6732,7 @@
       <c r="AN29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO29" s="104" t="s">
+      <c r="AO29" s="22" t="s">
         <v>369</v>
       </c>
       <c r="AP29" s="22" t="s">
@@ -6762,14 +6747,14 @@
       <c r="AS29" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="103"/>
-      <c r="AV29" s="103"/>
-      <c r="AW29" s="103"/>
-      <c r="AX29" s="103"/>
-      <c r="AY29" s="103"/>
-      <c r="AZ29" s="103"/>
-      <c r="BA29" s="103"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
       <c r="BB29" s="10" t="s">
         <v>237</v>
       </c>
@@ -6876,10 +6861,10 @@
         <v>194</v>
       </c>
       <c r="Z30" s="18"/>
-      <c r="AA30" s="84">
+      <c r="AA30" s="18">
         <v>96</v>
       </c>
-      <c r="AB30" s="84"/>
+      <c r="AB30" s="18"/>
       <c r="AC30" s="2">
         <v>7</v>
       </c>
@@ -6905,26 +6890,26 @@
         <v>58</v>
       </c>
       <c r="AK30" s="20"/>
-      <c r="AL30" s="104"/>
+      <c r="AL30" s="22"/>
       <c r="AM30" s="20"/>
       <c r="AN30" s="20"/>
-      <c r="AO30" s="104"/>
+      <c r="AO30" s="22"/>
       <c r="AP30" s="22"/>
       <c r="AQ30" s="20"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="15"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="104" t="s">
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="AX30" s="104" t="s">
+      <c r="AX30" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AY30" s="104"/>
-      <c r="AZ30" s="104"/>
-      <c r="BA30" s="104"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
       <c r="BB30" s="10" t="s">
         <v>237</v>
       </c>
@@ -7030,8 +7015,8 @@
         <v>188</v>
       </c>
       <c r="Z31" s="18"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
       <c r="AC31" s="2">
         <v>1</v>
       </c>
@@ -7059,7 +7044,7 @@
       <c r="AK31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AL31" s="104" t="s">
+      <c r="AL31" s="22" t="s">
         <v>382</v>
       </c>
       <c r="AM31" s="20" t="s">
@@ -7068,7 +7053,7 @@
       <c r="AN31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AO31" s="104" t="s">
+      <c r="AO31" s="22" t="s">
         <v>383</v>
       </c>
       <c r="AP31" s="22" t="s">
@@ -7083,14 +7068,14 @@
       <c r="AS31" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AT31" s="104"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
-      <c r="AX31" s="104"/>
-      <c r="AY31" s="104"/>
-      <c r="AZ31" s="104"/>
-      <c r="BA31" s="104"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
       <c r="BB31" s="10" t="s">
         <v>237</v>
       </c>
@@ -7197,8 +7182,8 @@
         <v>188</v>
       </c>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
       <c r="AC32" s="2">
         <v>3</v>
       </c>
@@ -7226,7 +7211,7 @@
       <c r="AK32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL32" s="104" t="s">
+      <c r="AL32" s="22" t="s">
         <v>368</v>
       </c>
       <c r="AM32" s="10" t="s">
@@ -7235,7 +7220,7 @@
       <c r="AN32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO32" s="104" t="s">
+      <c r="AO32" s="22" t="s">
         <v>369</v>
       </c>
       <c r="AP32" s="22" t="s">
@@ -7250,14 +7235,14 @@
       <c r="AS32" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="103"/>
-      <c r="AV32" s="103"/>
-      <c r="AW32" s="103"/>
-      <c r="AX32" s="103"/>
-      <c r="AY32" s="103"/>
-      <c r="AZ32" s="103"/>
-      <c r="BA32" s="103"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
       <c r="BB32" s="10" t="s">
         <v>237</v>
       </c>
@@ -7367,8 +7352,8 @@
       <c r="Z33" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
       <c r="AC33" s="2" t="s">
         <v>238</v>
       </c>
@@ -7396,14 +7381,14 @@
       <c r="AK33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AL33" s="104" t="s">
+      <c r="AL33" s="22" t="s">
         <v>374</v>
       </c>
       <c r="AM33" s="20" t="s">
         <v>85</v>
       </c>
       <c r="AN33" s="20"/>
-      <c r="AO33" s="104"/>
+      <c r="AO33" s="22"/>
       <c r="AP33" s="22" t="s">
         <v>168</v>
       </c>
@@ -7416,20 +7401,20 @@
       <c r="AS33" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AT33" s="109" t="s">
+      <c r="AT33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AU33" s="104" t="s">
+      <c r="AU33" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="AV33" s="104" t="s">
+      <c r="AV33" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="AW33" s="104"/>
-      <c r="AX33" s="104"/>
-      <c r="AY33" s="104"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="104"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="22"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
       <c r="BB33" s="10" t="s">
         <v>236</v>
       </c>
@@ -7489,8 +7474,8 @@
       <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -7500,22 +7485,22 @@
       <c r="AI34" s="37"/>
       <c r="AJ34" s="35"/>
       <c r="AK34" s="34"/>
-      <c r="AL34" s="104"/>
+      <c r="AL34" s="38"/>
       <c r="AM34" s="34"/>
       <c r="AN34" s="34"/>
-      <c r="AO34" s="104"/>
+      <c r="AO34" s="38"/>
       <c r="AP34" s="38"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="39"/>
       <c r="AS34" s="40"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="104"/>
-      <c r="AW34" s="104"/>
-      <c r="AX34" s="104"/>
-      <c r="AY34" s="104"/>
-      <c r="AZ34" s="104"/>
-      <c r="BA34" s="104"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
       <c r="BB34" s="41"/>
       <c r="BC34" s="42"/>
       <c r="BD34" s="40"/>
@@ -7557,8 +7542,8 @@
       <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
@@ -7568,22 +7553,22 @@
       <c r="AI35" s="37"/>
       <c r="AJ35" s="35"/>
       <c r="AK35" s="34"/>
-      <c r="AL35" s="104"/>
+      <c r="AL35" s="38"/>
       <c r="AM35" s="34"/>
       <c r="AN35" s="34"/>
-      <c r="AO35" s="104"/>
+      <c r="AO35" s="38"/>
       <c r="AP35" s="38"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="38"/>
       <c r="AS35" s="40"/>
-      <c r="AT35" s="104"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="104"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="104"/>
-      <c r="AY35" s="104"/>
-      <c r="AZ35" s="104"/>
-      <c r="BA35" s="104"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
       <c r="BB35" s="41"/>
       <c r="BC35" s="42"/>
       <c r="BD35" s="40"/>
@@ -7673,8 +7658,8 @@
         <v>188</v>
       </c>
       <c r="Z36" s="37"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
       <c r="AC36" s="3" t="s">
         <v>301</v>
       </c>
@@ -7702,7 +7687,7 @@
       <c r="AK36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL36" s="104" t="s">
+      <c r="AL36" s="38" t="s">
         <v>368</v>
       </c>
       <c r="AM36" s="41" t="s">
@@ -7711,7 +7696,7 @@
       <c r="AN36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO36" s="104" t="s">
+      <c r="AO36" s="38" t="s">
         <v>369</v>
       </c>
       <c r="AP36" s="38" t="s">
@@ -7726,14 +7711,14 @@
       <c r="AS36" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="103"/>
-      <c r="AV36" s="103"/>
-      <c r="AW36" s="103"/>
-      <c r="AX36" s="103"/>
-      <c r="AY36" s="103"/>
-      <c r="AZ36" s="103"/>
-      <c r="BA36" s="103"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="40"/>
       <c r="BB36" s="41" t="s">
         <v>237</v>
       </c>
@@ -7794,10 +7779,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="69">
+      <c r="K37" s="66">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="69">
+      <c r="L37" s="66">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -7840,8 +7825,8 @@
         <v>188</v>
       </c>
       <c r="Z37" s="37"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
       <c r="AC37" s="3" t="s">
         <v>310</v>
       </c>
@@ -7869,7 +7854,7 @@
       <c r="AK37" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL37" s="104" t="s">
+      <c r="AL37" s="38" t="s">
         <v>382</v>
       </c>
       <c r="AM37" s="34" t="s">
@@ -7878,7 +7863,7 @@
       <c r="AN37" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO37" s="104" t="s">
+      <c r="AO37" s="38" t="s">
         <v>383</v>
       </c>
       <c r="AP37" s="38" t="s">
@@ -7893,14 +7878,14 @@
       <c r="AS37" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AT37" s="104"/>
-      <c r="AU37" s="104"/>
-      <c r="AV37" s="104"/>
-      <c r="AW37" s="104"/>
-      <c r="AX37" s="104"/>
-      <c r="AY37" s="104"/>
-      <c r="AZ37" s="104"/>
-      <c r="BA37" s="104"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
       <c r="BB37" s="41" t="s">
         <v>237</v>
       </c>
@@ -7963,10 +7948,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="67">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="70">
+      <c r="L38" s="67">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8009,10 +7994,10 @@
         <v>194</v>
       </c>
       <c r="Z38" s="37"/>
-      <c r="AA38" s="84">
+      <c r="AA38" s="37">
         <v>96</v>
       </c>
-      <c r="AB38" s="84"/>
+      <c r="AB38" s="37"/>
       <c r="AC38" s="3" t="s">
         <v>310</v>
       </c>
@@ -8038,26 +8023,26 @@
         <v>58</v>
       </c>
       <c r="AK38" s="41"/>
-      <c r="AL38" s="104"/>
+      <c r="AL38" s="38"/>
       <c r="AM38" s="41"/>
       <c r="AN38" s="41"/>
-      <c r="AO38" s="104"/>
+      <c r="AO38" s="38"/>
       <c r="AP38" s="38"/>
       <c r="AQ38" s="41"/>
       <c r="AR38" s="39"/>
       <c r="AS38" s="38"/>
-      <c r="AT38" s="103"/>
-      <c r="AU38" s="103"/>
-      <c r="AV38" s="103"/>
-      <c r="AW38" s="103" t="s">
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
+      <c r="AV38" s="40"/>
+      <c r="AW38" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="AX38" s="103" t="s">
+      <c r="AX38" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AY38" s="103"/>
-      <c r="AZ38" s="103"/>
-      <c r="BA38" s="103"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
       <c r="BB38" s="41" t="s">
         <v>237</v>
       </c>
@@ -8169,8 +8154,8 @@
       <c r="Z39" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
       <c r="AC39" s="3" t="s">
         <v>318</v>
       </c>
@@ -8198,14 +8183,14 @@
       <c r="AK39" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL39" s="104" t="s">
+      <c r="AL39" s="38" t="s">
         <v>374</v>
       </c>
       <c r="AM39" s="34" t="s">
         <v>85</v>
       </c>
       <c r="AN39" s="34"/>
-      <c r="AO39" s="104"/>
+      <c r="AO39" s="38"/>
       <c r="AP39" s="38" t="s">
         <v>168</v>
       </c>
@@ -8218,20 +8203,20 @@
       <c r="AS39" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AT39" s="109" t="s">
+      <c r="AT39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AU39" s="104" t="s">
+      <c r="AU39" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AV39" s="104" t="s">
+      <c r="AV39" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AW39" s="104"/>
-      <c r="AX39" s="104"/>
-      <c r="AY39" s="104"/>
-      <c r="AZ39" s="104"/>
-      <c r="BA39" s="104"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
       <c r="BB39" s="41" t="s">
         <v>236</v>
       </c>
@@ -8339,8 +8324,8 @@
       <c r="Z40" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AA40" s="84"/>
-      <c r="AB40" s="84"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
       <c r="AC40" s="3" t="s">
         <v>325</v>
       </c>
@@ -8368,14 +8353,14 @@
       <c r="AK40" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL40" s="104" t="s">
+      <c r="AL40" s="38" t="s">
         <v>374</v>
       </c>
       <c r="AM40" s="34" t="s">
         <v>85</v>
       </c>
       <c r="AN40" s="34"/>
-      <c r="AO40" s="104"/>
+      <c r="AO40" s="38"/>
       <c r="AP40" s="38" t="s">
         <v>168</v>
       </c>
@@ -8388,20 +8373,20 @@
       <c r="AS40" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AT40" s="109" t="s">
+      <c r="AT40" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AU40" s="104" t="s">
+      <c r="AU40" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AV40" s="104" t="s">
+      <c r="AV40" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AW40" s="104"/>
-      <c r="AX40" s="104"/>
-      <c r="AY40" s="104"/>
-      <c r="AZ40" s="104"/>
-      <c r="BA40" s="104"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
       <c r="BB40" s="41" t="s">
         <v>236</v>
       </c>
@@ -8460,10 +8445,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="69">
+      <c r="K41" s="66">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="69">
+      <c r="L41" s="66">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -8509,8 +8494,8 @@
       <c r="Z41" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
       <c r="AC41" s="3" t="s">
         <v>301</v>
       </c>
@@ -8538,14 +8523,14 @@
       <c r="AK41" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL41" s="104" t="s">
+      <c r="AL41" s="38" t="s">
         <v>374</v>
       </c>
       <c r="AM41" s="34" t="s">
         <v>85</v>
       </c>
       <c r="AN41" s="34"/>
-      <c r="AO41" s="104"/>
+      <c r="AO41" s="38"/>
       <c r="AP41" s="38" t="s">
         <v>168</v>
       </c>
@@ -8558,20 +8543,20 @@
       <c r="AS41" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AT41" s="109" t="s">
+      <c r="AT41" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AU41" s="104" t="s">
+      <c r="AU41" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AV41" s="104" t="s">
+      <c r="AV41" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AW41" s="104"/>
-      <c r="AX41" s="104"/>
-      <c r="AY41" s="104"/>
-      <c r="AZ41" s="104"/>
-      <c r="BA41" s="104"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
       <c r="BB41" s="41" t="s">
         <v>236</v>
       </c>
@@ -8676,8 +8661,8 @@
         <v>188</v>
       </c>
       <c r="Z42" s="37"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84" t="s">
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37" t="s">
         <v>348</v>
       </c>
       <c r="AC42" s="3">
@@ -8707,7 +8692,7 @@
       <c r="AK42" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL42" s="104" t="s">
+      <c r="AL42" s="38" t="s">
         <v>374</v>
       </c>
       <c r="AM42" s="34" t="s">
@@ -8716,7 +8701,7 @@
       <c r="AN42" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO42" s="104" t="s">
+      <c r="AO42" s="38" t="s">
         <v>375</v>
       </c>
       <c r="AP42" s="38" t="s">
@@ -8731,18 +8716,18 @@
       <c r="AS42" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AT42" s="103"/>
-      <c r="AU42" s="103"/>
-      <c r="AV42" s="103"/>
-      <c r="AW42" s="103"/>
-      <c r="AX42" s="103"/>
-      <c r="AY42" s="103" t="s">
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="40"/>
+      <c r="AV42" s="40"/>
+      <c r="AW42" s="40"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="AZ42" s="103" t="s">
+      <c r="AZ42" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="BA42" s="103" t="s">
+      <c r="BA42" s="40" t="s">
         <v>168</v>
       </c>
       <c r="BB42" s="41" t="s">
@@ -8853,8 +8838,8 @@
         <v>188</v>
       </c>
       <c r="Z43" s="37"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="84"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
       <c r="AC43" s="3">
         <v>3</v>
       </c>
@@ -8876,13 +8861,13 @@
       <c r="AI43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ43" s="82">
+      <c r="AJ43" s="78">
         <v>30</v>
       </c>
       <c r="AK43" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL43" s="104" t="s">
+      <c r="AL43" s="38" t="s">
         <v>374</v>
       </c>
       <c r="AM43" s="34" t="s">
@@ -8891,39 +8876,39 @@
       <c r="AN43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO43" s="104" t="s">
+      <c r="AO43" s="38" t="s">
         <v>375</v>
       </c>
       <c r="AP43" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AQ43" s="78" t="s">
+      <c r="AQ43" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AR43" s="79">
+      <c r="AR43" s="75">
         <v>42723</v>
       </c>
-      <c r="AS43" s="81" t="s">
+      <c r="AS43" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="AT43" s="104"/>
-      <c r="AU43" s="104"/>
-      <c r="AV43" s="104"/>
-      <c r="AW43" s="104"/>
-      <c r="AX43" s="104"/>
-      <c r="AY43" s="104"/>
-      <c r="AZ43" s="104"/>
-      <c r="BA43" s="104"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
       <c r="BB43" s="41" t="s">
         <v>237</v>
       </c>
       <c r="BC43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD43" s="77" t="s">
+      <c r="BD43" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="BE43" s="77" t="s">
+      <c r="BE43" s="73" t="s">
         <v>329</v>
       </c>
       <c r="BF43" s="38" t="s">
@@ -8944,13 +8929,26 @@
       </c>
     </row>
     <row r="44" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>9</v>
+      </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="D44" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="35">
+        <v>57</v>
+      </c>
+      <c r="F44" s="35">
+        <v>4800926</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>392</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="35"/>
@@ -8964,59 +8962,108 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
+      <c r="V44" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="W44" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="X44" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y44" s="65" t="s">
+        <v>188</v>
+      </c>
       <c r="Z44" s="37"/>
-      <c r="AA44" s="84"/>
-      <c r="AB44" s="84"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="105"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="105"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="73"/>
-      <c r="AR44" s="79"/>
-      <c r="AS44" s="63"/>
-      <c r="AT44" s="105"/>
-      <c r="AU44" s="105"/>
-      <c r="AV44" s="105"/>
-      <c r="AW44" s="105"/>
-      <c r="AX44" s="105"/>
-      <c r="AY44" s="105"/>
-      <c r="AZ44" s="105"/>
-      <c r="BA44" s="105"/>
-      <c r="BB44" s="41"/>
-      <c r="BC44" s="42"/>
-      <c r="BD44" s="64"/>
-      <c r="BE44" s="64"/>
+      <c r="AF44" s="3">
+        <v>1024.5</v>
+      </c>
+      <c r="AG44" s="37">
+        <v>20200112</v>
+      </c>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="35">
+        <v>29</v>
+      </c>
+      <c r="AK44" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL44" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM44" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN44" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO44" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP44" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ44" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR44" s="95">
+        <v>42711</v>
+      </c>
+      <c r="AS44" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="38"/>
+      <c r="AV44" s="38"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC44" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD44" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE44" s="40" t="s">
+        <v>282</v>
+      </c>
       <c r="BF44" s="38"/>
       <c r="BG44" s="3"/>
-      <c r="BH44" s="35"/>
-      <c r="BI44" s="35"/>
-      <c r="BJ44" s="37"/>
-      <c r="BK44" s="43"/>
+      <c r="BH44" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI44" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ44" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK44" s="43" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="45" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="53" t="s">
-        <v>99</v>
-      </c>
+      <c r="A45" s="23">
+        <v>10</v>
+      </c>
+      <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="37"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="35"/>
@@ -9035,8 +9082,8 @@
       <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="84"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
@@ -9044,28 +9091,28 @@
       <c r="AG45" s="37"/>
       <c r="AH45" s="37"/>
       <c r="AI45" s="37"/>
-      <c r="AJ45" s="35"/>
+      <c r="AJ45" s="78"/>
       <c r="AK45" s="34"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="78"/>
-      <c r="AN45" s="78"/>
-      <c r="AO45" s="104"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="38"/>
       <c r="AP45" s="38"/>
-      <c r="AQ45" s="34"/>
-      <c r="AR45" s="80"/>
-      <c r="AS45" s="38"/>
-      <c r="AT45" s="104"/>
-      <c r="AU45" s="104"/>
-      <c r="AV45" s="104"/>
-      <c r="AW45" s="104"/>
-      <c r="AX45" s="104"/>
-      <c r="AY45" s="104"/>
-      <c r="AZ45" s="104"/>
-      <c r="BA45" s="104"/>
-      <c r="BB45" s="34"/>
-      <c r="BC45" s="48"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
+      <c r="AQ45" s="74"/>
+      <c r="AR45" s="75"/>
+      <c r="AS45" s="77"/>
+      <c r="AT45" s="38"/>
+      <c r="AU45" s="38"/>
+      <c r="AV45" s="38"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="42"/>
+      <c r="BD45" s="73"/>
+      <c r="BE45" s="73"/>
       <c r="BF45" s="38"/>
       <c r="BG45" s="3"/>
       <c r="BH45" s="35"/>
@@ -9073,72 +9120,77 @@
       <c r="BJ45" s="37"/>
       <c r="BK45" s="43"/>
     </row>
-    <row r="46" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="35"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="78"/>
-      <c r="AN46" s="78"/>
-      <c r="AO46" s="104"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="34"/>
-      <c r="AR46" s="80"/>
-      <c r="AS46" s="38"/>
-      <c r="AT46" s="104"/>
-      <c r="AU46" s="104"/>
-      <c r="AV46" s="104"/>
-      <c r="AW46" s="104"/>
-      <c r="AX46" s="104"/>
-      <c r="AY46" s="104"/>
-      <c r="AZ46" s="104"/>
-      <c r="BA46" s="104"/>
-      <c r="BB46" s="34"/>
-      <c r="BC46" s="48"/>
-      <c r="BD46" s="38"/>
-      <c r="BE46" s="38"/>
-      <c r="BF46" s="38"/>
-      <c r="BG46" s="3"/>
-      <c r="BH46" s="35"/>
-      <c r="BI46" s="35"/>
-      <c r="BJ46" s="37"/>
-      <c r="BK46" s="43"/>
+    <row r="46" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="97"/>
+      <c r="AH46" s="97"/>
+      <c r="AI46" s="97"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="99"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="101"/>
+      <c r="AN46" s="101"/>
+      <c r="AO46" s="100"/>
+      <c r="AP46" s="100"/>
+      <c r="AQ46" s="99"/>
+      <c r="AR46" s="102"/>
+      <c r="AS46" s="103"/>
+      <c r="AT46" s="100"/>
+      <c r="AU46" s="100"/>
+      <c r="AV46" s="100"/>
+      <c r="AW46" s="100"/>
+      <c r="AX46" s="100"/>
+      <c r="AY46" s="100"/>
+      <c r="AZ46" s="100"/>
+      <c r="BA46" s="100"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="104"/>
+      <c r="BE46" s="104"/>
+      <c r="BF46" s="22"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="18"/>
+      <c r="BK46" s="21"/>
     </row>
     <row r="47" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
+      <c r="B47" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C47" s="34"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -9163,8 +9215,8 @@
       <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="84"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
@@ -9174,22 +9226,22 @@
       <c r="AI47" s="37"/>
       <c r="AJ47" s="35"/>
       <c r="AK47" s="34"/>
-      <c r="AL47" s="104"/>
-      <c r="AM47" s="34"/>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="104"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="38"/>
       <c r="AP47" s="38"/>
       <c r="AQ47" s="34"/>
-      <c r="AR47" s="38"/>
+      <c r="AR47" s="76"/>
       <c r="AS47" s="38"/>
-      <c r="AT47" s="104"/>
-      <c r="AU47" s="104"/>
-      <c r="AV47" s="104"/>
-      <c r="AW47" s="104"/>
-      <c r="AX47" s="104"/>
-      <c r="AY47" s="104"/>
-      <c r="AZ47" s="104"/>
-      <c r="BA47" s="104"/>
+      <c r="AT47" s="38"/>
+      <c r="AU47" s="38"/>
+      <c r="AV47" s="38"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
       <c r="BB47" s="34"/>
       <c r="BC47" s="48"/>
       <c r="BD47" s="38"/>
@@ -9227,8 +9279,8 @@
       <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="84"/>
+      <c r="AA48" s="37"/>
+      <c r="AB48" s="37"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
@@ -9238,22 +9290,22 @@
       <c r="AI48" s="37"/>
       <c r="AJ48" s="35"/>
       <c r="AK48" s="34"/>
-      <c r="AL48" s="104"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="104"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="38"/>
       <c r="AP48" s="38"/>
       <c r="AQ48" s="34"/>
-      <c r="AR48" s="38"/>
+      <c r="AR48" s="76"/>
       <c r="AS48" s="38"/>
-      <c r="AT48" s="104"/>
-      <c r="AU48" s="104"/>
-      <c r="AV48" s="104"/>
-      <c r="AW48" s="104"/>
-      <c r="AX48" s="104"/>
-      <c r="AY48" s="104"/>
-      <c r="AZ48" s="104"/>
-      <c r="BA48" s="104"/>
+      <c r="AT48" s="38"/>
+      <c r="AU48" s="38"/>
+      <c r="AV48" s="38"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
       <c r="BB48" s="34"/>
       <c r="BC48" s="48"/>
       <c r="BD48" s="38"/>
@@ -9291,8 +9343,8 @@
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
@@ -9302,30 +9354,26 @@
       <c r="AI49" s="37"/>
       <c r="AJ49" s="35"/>
       <c r="AK49" s="34"/>
-      <c r="AL49" s="104"/>
+      <c r="AL49" s="38"/>
       <c r="AM49" s="34"/>
       <c r="AN49" s="34"/>
-      <c r="AO49" s="104"/>
+      <c r="AO49" s="38"/>
       <c r="AP49" s="38"/>
       <c r="AQ49" s="34"/>
       <c r="AR49" s="38"/>
       <c r="AS49" s="38"/>
-      <c r="AT49" s="104"/>
-      <c r="AU49" s="104"/>
-      <c r="AV49" s="104"/>
-      <c r="AW49" s="104"/>
-      <c r="AX49" s="104"/>
-      <c r="AY49" s="104"/>
-      <c r="AZ49" s="104"/>
-      <c r="BA49" s="104"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="38"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
       <c r="BB49" s="34"/>
       <c r="BC49" s="48"/>
-      <c r="BD49" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE49" s="76" t="s">
-        <v>331</v>
-      </c>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
       <c r="BF49" s="38"/>
       <c r="BG49" s="3"/>
       <c r="BH49" s="35"/>
@@ -9359,8 +9407,8 @@
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
@@ -9370,31 +9418,27 @@
       <c r="AI50" s="37"/>
       <c r="AJ50" s="35"/>
       <c r="AK50" s="34"/>
-      <c r="AL50" s="104"/>
+      <c r="AL50" s="38"/>
       <c r="AM50" s="34"/>
       <c r="AN50" s="34"/>
-      <c r="AO50" s="104"/>
+      <c r="AO50" s="38"/>
       <c r="AP50" s="38"/>
       <c r="AQ50" s="34"/>
       <c r="AR50" s="38"/>
-      <c r="AS50" s="40"/>
-      <c r="AT50" s="104"/>
-      <c r="AU50" s="104"/>
-      <c r="AV50" s="104"/>
-      <c r="AW50" s="104"/>
-      <c r="AX50" s="104"/>
-      <c r="AY50" s="104"/>
-      <c r="AZ50" s="104"/>
-      <c r="BA50" s="104"/>
-      <c r="BB50" s="41"/>
-      <c r="BC50" s="42"/>
-      <c r="BD50" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE50" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="BF50" s="40"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="34"/>
+      <c r="BC50" s="48"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
       <c r="BG50" s="3"/>
       <c r="BH50" s="35"/>
       <c r="BI50" s="35"/>
@@ -9427,8 +9471,8 @@
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
@@ -9438,29 +9482,29 @@
       <c r="AI51" s="37"/>
       <c r="AJ51" s="35"/>
       <c r="AK51" s="34"/>
-      <c r="AL51" s="104"/>
+      <c r="AL51" s="38"/>
       <c r="AM51" s="34"/>
       <c r="AN51" s="34"/>
-      <c r="AO51" s="104"/>
+      <c r="AO51" s="38"/>
       <c r="AP51" s="38"/>
       <c r="AQ51" s="34"/>
       <c r="AR51" s="38"/>
-      <c r="AS51" s="40"/>
-      <c r="AT51" s="104"/>
-      <c r="AU51" s="104"/>
-      <c r="AV51" s="104"/>
-      <c r="AW51" s="104"/>
-      <c r="AX51" s="104"/>
-      <c r="AY51" s="104"/>
-      <c r="AZ51" s="104"/>
-      <c r="BA51" s="104"/>
-      <c r="BB51" s="41"/>
-      <c r="BC51" s="42"/>
-      <c r="BD51" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE51" s="76" t="s">
-        <v>330</v>
+      <c r="AS51" s="38"/>
+      <c r="AT51" s="38"/>
+      <c r="AU51" s="38"/>
+      <c r="AV51" s="38"/>
+      <c r="AW51" s="38"/>
+      <c r="AX51" s="38"/>
+      <c r="AY51" s="38"/>
+      <c r="AZ51" s="38"/>
+      <c r="BA51" s="38"/>
+      <c r="BB51" s="34"/>
+      <c r="BC51" s="48"/>
+      <c r="BD51" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE51" s="72" t="s">
+        <v>331</v>
       </c>
       <c r="BF51" s="38"/>
       <c r="BG51" s="3"/>
@@ -9490,52 +9534,52 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="49"/>
-      <c r="X52" s="49"/>
-      <c r="Y52" s="49"/>
-      <c r="Z52" s="49"/>
-      <c r="AA52" s="85"/>
-      <c r="AB52" s="85"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+      <c r="AB52" s="37"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="49"/>
-      <c r="AH52" s="49"/>
-      <c r="AI52" s="49"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="51"/>
-      <c r="AL52" s="106"/>
-      <c r="AM52" s="51"/>
-      <c r="AN52" s="51"/>
-      <c r="AO52" s="106"/>
-      <c r="AP52" s="46"/>
-      <c r="AQ52" s="51"/>
-      <c r="AR52" s="46"/>
-      <c r="AS52" s="46"/>
-      <c r="AT52" s="106"/>
-      <c r="AU52" s="106"/>
-      <c r="AV52" s="106"/>
-      <c r="AW52" s="106"/>
-      <c r="AX52" s="106"/>
-      <c r="AY52" s="106"/>
-      <c r="AZ52" s="106"/>
-      <c r="BA52" s="106"/>
-      <c r="BB52" s="51"/>
-      <c r="BC52" s="52"/>
-      <c r="BD52" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE52" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="BF52" s="46"/>
-      <c r="BG52" s="50"/>
-      <c r="BH52" s="29"/>
-      <c r="BI52" s="29"/>
-      <c r="BJ52" s="49"/>
-      <c r="BK52" s="30"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
+      <c r="AI52" s="37"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="38"/>
+      <c r="AP52" s="38"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="38"/>
+      <c r="AS52" s="40"/>
+      <c r="AT52" s="38"/>
+      <c r="AU52" s="38"/>
+      <c r="AV52" s="38"/>
+      <c r="AW52" s="38"/>
+      <c r="AX52" s="38"/>
+      <c r="AY52" s="38"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="38"/>
+      <c r="BB52" s="41"/>
+      <c r="BC52" s="42"/>
+      <c r="BD52" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE52" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF52" s="40"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="35"/>
+      <c r="BI52" s="35"/>
+      <c r="BJ52" s="37"/>
+      <c r="BK52" s="43"/>
     </row>
     <row r="53" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="34"/>
@@ -9558,52 +9602,52 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="85"/>
-      <c r="AB53" s="85"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="51"/>
-      <c r="AL53" s="106"/>
-      <c r="AM53" s="51"/>
-      <c r="AN53" s="51"/>
-      <c r="AO53" s="106"/>
-      <c r="AP53" s="46"/>
-      <c r="AQ53" s="51"/>
-      <c r="AR53" s="46"/>
-      <c r="AS53" s="46"/>
-      <c r="AT53" s="106"/>
-      <c r="AU53" s="106"/>
-      <c r="AV53" s="106"/>
-      <c r="AW53" s="106"/>
-      <c r="AX53" s="106"/>
-      <c r="AY53" s="106"/>
-      <c r="AZ53" s="106"/>
-      <c r="BA53" s="106"/>
-      <c r="BB53" s="51"/>
-      <c r="BC53" s="52"/>
-      <c r="BD53" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="BE53" s="66" t="s">
-        <v>291</v>
-      </c>
-      <c r="BF53" s="46"/>
-      <c r="BG53" s="50"/>
-      <c r="BH53" s="29"/>
-      <c r="BI53" s="29"/>
-      <c r="BJ53" s="49"/>
-      <c r="BK53" s="30"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="34"/>
+      <c r="AL53" s="38"/>
+      <c r="AM53" s="34"/>
+      <c r="AN53" s="34"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="38"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="40"/>
+      <c r="AT53" s="38"/>
+      <c r="AU53" s="38"/>
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="38"/>
+      <c r="AX53" s="38"/>
+      <c r="AY53" s="38"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="38"/>
+      <c r="BB53" s="41"/>
+      <c r="BC53" s="42"/>
+      <c r="BD53" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE53" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="BF53" s="38"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="35"/>
+      <c r="BI53" s="35"/>
+      <c r="BJ53" s="37"/>
+      <c r="BK53" s="43"/>
     </row>
     <row r="54" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
@@ -9631,8 +9675,8 @@
       <c r="X54" s="49"/>
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
-      <c r="AA54" s="85"/>
-      <c r="AB54" s="85"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
@@ -9642,29 +9686,29 @@
       <c r="AI54" s="49"/>
       <c r="AJ54" s="29"/>
       <c r="AK54" s="51"/>
-      <c r="AL54" s="106"/>
+      <c r="AL54" s="46"/>
       <c r="AM54" s="51"/>
       <c r="AN54" s="51"/>
-      <c r="AO54" s="106"/>
+      <c r="AO54" s="46"/>
       <c r="AP54" s="46"/>
       <c r="AQ54" s="51"/>
       <c r="AR54" s="46"/>
       <c r="AS54" s="46"/>
-      <c r="AT54" s="106"/>
-      <c r="AU54" s="106"/>
-      <c r="AV54" s="106"/>
-      <c r="AW54" s="106"/>
-      <c r="AX54" s="106"/>
-      <c r="AY54" s="106"/>
-      <c r="AZ54" s="106"/>
-      <c r="BA54" s="106"/>
+      <c r="AT54" s="46"/>
+      <c r="AU54" s="46"/>
+      <c r="AV54" s="46"/>
+      <c r="AW54" s="46"/>
+      <c r="AX54" s="46"/>
+      <c r="AY54" s="46"/>
+      <c r="AZ54" s="46"/>
+      <c r="BA54" s="46"/>
       <c r="BB54" s="51"/>
       <c r="BC54" s="52"/>
-      <c r="BD54" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BE54" s="71" t="s">
-        <v>119</v>
+      <c r="BD54" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE54" s="70" t="s">
+        <v>329</v>
       </c>
       <c r="BF54" s="46"/>
       <c r="BG54" s="50"/>
@@ -9699,8 +9743,8 @@
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
-      <c r="AA55" s="85"/>
-      <c r="AB55" s="85"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="49"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
@@ -9710,26 +9754,30 @@
       <c r="AI55" s="49"/>
       <c r="AJ55" s="29"/>
       <c r="AK55" s="51"/>
-      <c r="AL55" s="106"/>
+      <c r="AL55" s="46"/>
       <c r="AM55" s="51"/>
       <c r="AN55" s="51"/>
-      <c r="AO55" s="106"/>
+      <c r="AO55" s="46"/>
       <c r="AP55" s="46"/>
       <c r="AQ55" s="51"/>
       <c r="AR55" s="46"/>
       <c r="AS55" s="46"/>
-      <c r="AT55" s="106"/>
-      <c r="AU55" s="106"/>
-      <c r="AV55" s="106"/>
-      <c r="AW55" s="106"/>
-      <c r="AX55" s="106"/>
-      <c r="AY55" s="106"/>
-      <c r="AZ55" s="106"/>
-      <c r="BA55" s="106"/>
+      <c r="AT55" s="46"/>
+      <c r="AU55" s="46"/>
+      <c r="AV55" s="46"/>
+      <c r="AW55" s="46"/>
+      <c r="AX55" s="46"/>
+      <c r="AY55" s="46"/>
+      <c r="AZ55" s="46"/>
+      <c r="BA55" s="46"/>
       <c r="BB55" s="51"/>
       <c r="BC55" s="52"/>
-      <c r="BD55" s="46"/>
-      <c r="BE55" s="46"/>
+      <c r="BD55" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE55" s="64" t="s">
+        <v>291</v>
+      </c>
       <c r="BF55" s="46"/>
       <c r="BG55" s="50"/>
       <c r="BH55" s="29"/>
@@ -9763,8 +9811,8 @@
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
-      <c r="AA56" s="85"/>
-      <c r="AB56" s="85"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="49"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
@@ -9774,26 +9822,30 @@
       <c r="AI56" s="49"/>
       <c r="AJ56" s="29"/>
       <c r="AK56" s="51"/>
-      <c r="AL56" s="106"/>
+      <c r="AL56" s="46"/>
       <c r="AM56" s="51"/>
       <c r="AN56" s="51"/>
-      <c r="AO56" s="106"/>
+      <c r="AO56" s="46"/>
       <c r="AP56" s="46"/>
       <c r="AQ56" s="51"/>
       <c r="AR56" s="46"/>
       <c r="AS56" s="46"/>
-      <c r="AT56" s="106"/>
-      <c r="AU56" s="106"/>
-      <c r="AV56" s="106"/>
-      <c r="AW56" s="106"/>
-      <c r="AX56" s="106"/>
-      <c r="AY56" s="106"/>
-      <c r="AZ56" s="106"/>
-      <c r="BA56" s="106"/>
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="46"/>
+      <c r="AV56" s="46"/>
+      <c r="AW56" s="46"/>
+      <c r="AX56" s="46"/>
+      <c r="AY56" s="46"/>
+      <c r="AZ56" s="46"/>
+      <c r="BA56" s="46"/>
       <c r="BB56" s="51"/>
       <c r="BC56" s="52"/>
-      <c r="BD56" s="46"/>
-      <c r="BE56" s="46"/>
+      <c r="BD56" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BE56" s="68" t="s">
+        <v>119</v>
+      </c>
       <c r="BF56" s="46"/>
       <c r="BG56" s="50"/>
       <c r="BH56" s="29"/>
@@ -9827,8 +9879,8 @@
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
-      <c r="AA57" s="85"/>
-      <c r="AB57" s="85"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
@@ -9838,22 +9890,22 @@
       <c r="AI57" s="49"/>
       <c r="AJ57" s="29"/>
       <c r="AK57" s="51"/>
-      <c r="AL57" s="106"/>
+      <c r="AL57" s="46"/>
       <c r="AM57" s="51"/>
       <c r="AN57" s="51"/>
-      <c r="AO57" s="106"/>
+      <c r="AO57" s="46"/>
       <c r="AP57" s="46"/>
       <c r="AQ57" s="51"/>
       <c r="AR57" s="46"/>
       <c r="AS57" s="46"/>
-      <c r="AT57" s="106"/>
-      <c r="AU57" s="106"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="106"/>
-      <c r="AX57" s="106"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="106"/>
-      <c r="BA57" s="106"/>
+      <c r="AT57" s="46"/>
+      <c r="AU57" s="46"/>
+      <c r="AV57" s="46"/>
+      <c r="AW57" s="46"/>
+      <c r="AX57" s="46"/>
+      <c r="AY57" s="46"/>
+      <c r="AZ57" s="46"/>
+      <c r="BA57" s="46"/>
       <c r="BB57" s="51"/>
       <c r="BC57" s="52"/>
       <c r="BD57" s="46"/>
@@ -9864,6 +9916,134 @@
       <c r="BI57" s="29"/>
       <c r="BJ57" s="49"/>
       <c r="BK57" s="30"/>
+    </row>
+    <row r="58" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="49"/>
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="51"/>
+      <c r="AL58" s="46"/>
+      <c r="AM58" s="51"/>
+      <c r="AN58" s="51"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="46"/>
+      <c r="AQ58" s="51"/>
+      <c r="AR58" s="46"/>
+      <c r="AS58" s="46"/>
+      <c r="AT58" s="46"/>
+      <c r="AU58" s="46"/>
+      <c r="AV58" s="46"/>
+      <c r="AW58" s="46"/>
+      <c r="AX58" s="46"/>
+      <c r="AY58" s="46"/>
+      <c r="AZ58" s="46"/>
+      <c r="BA58" s="46"/>
+      <c r="BB58" s="51"/>
+      <c r="BC58" s="52"/>
+      <c r="BD58" s="46"/>
+      <c r="BE58" s="46"/>
+      <c r="BF58" s="46"/>
+      <c r="BG58" s="50"/>
+      <c r="BH58" s="29"/>
+      <c r="BI58" s="29"/>
+      <c r="BJ58" s="49"/>
+      <c r="BK58" s="30"/>
+    </row>
+    <row r="59" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="50"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="49"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="51"/>
+      <c r="AL59" s="46"/>
+      <c r="AM59" s="51"/>
+      <c r="AN59" s="51"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="46"/>
+      <c r="AQ59" s="51"/>
+      <c r="AR59" s="46"/>
+      <c r="AS59" s="46"/>
+      <c r="AT59" s="46"/>
+      <c r="AU59" s="46"/>
+      <c r="AV59" s="46"/>
+      <c r="AW59" s="46"/>
+      <c r="AX59" s="46"/>
+      <c r="AY59" s="46"/>
+      <c r="AZ59" s="46"/>
+      <c r="BA59" s="46"/>
+      <c r="BB59" s="51"/>
+      <c r="BC59" s="52"/>
+      <c r="BD59" s="46"/>
+      <c r="BE59" s="46"/>
+      <c r="BF59" s="46"/>
+      <c r="BG59" s="50"/>
+      <c r="BH59" s="29"/>
+      <c r="BI59" s="29"/>
+      <c r="BJ59" s="49"/>
+      <c r="BK59" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="204" windowWidth="22980" windowHeight="8364"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21228" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="412">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1199,10 +1199,64 @@
     <t>Sampling rate PAM (Hz)</t>
   </si>
   <si>
-    <t>GLI2021_SEA021_58</t>
-  </si>
-  <si>
-    <t>New battery, new release, auto pitch mission.</t>
+    <t>20210215</t>
+  </si>
+  <si>
+    <t>20201125</t>
+  </si>
+  <si>
+    <t>New battery, new release, auto pitch mission. Weird altimeter hits at surface. Struggled with NSC on the way out and bad weather on the way back, both delaying the progress forward by several days.</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_64</t>
+  </si>
+  <si>
+    <t>20210310</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL7-GL3-GL2-GL1-NSC-Tip- Rec</t>
+  </si>
+  <si>
+    <t>2.15.1-r</t>
+  </si>
+  <si>
+    <t>3.2.0-r</t>
+  </si>
+  <si>
+    <t>Sigma-T/Bearcat</t>
+  </si>
+  <si>
+    <t>20210331</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL7-GL3-GL2-GL1-NSC-Tri- DR</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>Bearcat/Sigma-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altimeter hits at surface, masked 2058 in day 2. </t>
+  </si>
+  <si>
+    <t>20210407</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_57</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_59</t>
+  </si>
+  <si>
+    <t>3.2.1-r altiFix</t>
+  </si>
+  <si>
+    <t>Sigma-T/</t>
+  </si>
+  <si>
+    <t>Firmware upgrade altifix</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1449,6 +1503,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1456,7 +1538,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,9 +1706,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,9 +1713,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1706,34 +1782,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2046,10 +2107,10 @@
   <dimension ref="A1:BK59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AF27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BI26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF47" sqref="AF47"/>
+      <selection pane="bottomRight" activeCell="BI49" sqref="BI49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,8 +2140,8 @@
     <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="93" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="91" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="91" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.109375" bestFit="1" customWidth="1"/>
@@ -2090,20 +2151,21 @@
     <col min="35" max="35" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" style="94" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.77734375" style="94" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.77734375" style="6" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" style="94" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" style="94" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="12.77734375" style="94" customWidth="1"/>
-    <col min="51" max="51" width="11.77734375" style="94" customWidth="1"/>
-    <col min="52" max="52" width="14.77734375" style="94" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" style="94" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.77734375" style="92" customWidth="1"/>
+    <col min="44" max="44" width="12.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="92" customWidth="1"/>
+    <col min="46" max="46" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.77734375" style="6" customWidth="1"/>
+    <col min="49" max="50" width="12.77734375" style="92" customWidth="1"/>
+    <col min="51" max="51" width="11.77734375" style="92" customWidth="1"/>
+    <col min="52" max="52" width="14.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" style="92" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11.77734375" style="5" customWidth="1"/>
     <col min="55" max="55" width="11.77734375" style="1" customWidth="1"/>
     <col min="56" max="56" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
@@ -2159,14 +2221,14 @@
       <c r="AJ1" s="24"/>
       <c r="AK1" s="27"/>
       <c r="AL1" s="26"/>
-      <c r="AM1" s="27"/>
+      <c r="AM1" s="26"/>
       <c r="AN1" s="27"/>
-      <c r="AO1" s="26"/>
+      <c r="AO1" s="27"/>
       <c r="AP1" s="26"/>
-      <c r="AQ1" s="27"/>
+      <c r="AQ1" s="26"/>
       <c r="AR1" s="26"/>
       <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
+      <c r="AT1" s="27"/>
       <c r="AU1" s="26"/>
       <c r="AV1" s="26"/>
       <c r="AW1" s="26"/>
@@ -2184,26 +2246,26 @@
       <c r="BJ1" s="25"/>
       <c r="BK1" s="30"/>
     </row>
-    <row r="2" spans="1:63" s="79" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="80" t="s">
+    <row r="2" spans="1:63" s="77" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="80" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2212,22 +2274,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2245,25 +2307,25 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="84" t="s">
+      <c r="V2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="84" t="s">
+      <c r="W2" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="84" t="s">
+      <c r="X2" s="82" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="84" t="s">
+      <c r="Y2" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="84" t="s">
+      <c r="Z2" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="84" t="s">
+      <c r="AA2" s="82" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="84" t="s">
+      <c r="AB2" s="82" t="s">
         <v>347</v>
       </c>
       <c r="AC2" s="32" t="s">
@@ -2278,101 +2340,101 @@
       <c r="AF2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="84" t="s">
+      <c r="AG2" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="84" t="s">
+      <c r="AI2" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="85" t="s">
+      <c r="AJ2" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="87" t="s">
+      <c r="AK2" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="AL2" s="86" t="s">
+      <c r="AL2" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="AM2" s="87" t="s">
+      <c r="AM2" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN2" s="85" t="s">
         <v>350</v>
       </c>
-      <c r="AN2" s="87" t="s">
+      <c r="AO2" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="AO2" s="86" t="s">
+      <c r="AP2" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="AP2" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="AQ2" s="87" t="s">
+      <c r="AQ2" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR2" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS2" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="86" t="s">
+      <c r="AU2" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="AS2" s="88" t="s">
+      <c r="AV2" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="AT2" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AU2" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AV2" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW2" s="86" t="s">
+      <c r="AW2" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="AX2" s="86" t="s">
+      <c r="AX2" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="AY2" s="86" t="s">
+      <c r="AY2" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="AZ2" s="86" t="s">
+      <c r="AZ2" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="BA2" s="86" t="s">
+      <c r="BA2" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="BB2" s="89" t="s">
+      <c r="BB2" s="87" t="s">
         <v>171</v>
       </c>
       <c r="BC2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BD2" s="86" t="s">
+      <c r="BD2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="86" t="s">
+      <c r="BE2" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="86" t="s">
+      <c r="BF2" s="84" t="s">
         <v>229</v>
       </c>
       <c r="BG2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="90" t="s">
+      <c r="BH2" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="BI2" s="90" t="s">
+      <c r="BI2" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="BJ2" s="91" t="s">
+      <c r="BJ2" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="92" t="s">
+      <c r="BK2" s="90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2482,30 +2544,30 @@
       <c r="AL3" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="AM3" s="10" t="s">
+      <c r="AM3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AP3" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AV3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AQ3" s="10">
-        <v>4551</v>
-      </c>
-      <c r="AR3" s="16">
-        <v>42691</v>
-      </c>
-      <c r="AS3" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
       <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
       <c r="AY3" s="15"/>
@@ -2538,11 +2600,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="96">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2648,30 +2710,30 @@
       <c r="AL4" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AM4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO4" s="15" t="s">
+      <c r="AP4" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AV4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AQ4" s="10">
-        <v>4551</v>
-      </c>
-      <c r="AR4" s="16">
-        <v>42691</v>
-      </c>
-      <c r="AS4" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AY4" s="15"/>
@@ -2814,30 +2876,30 @@
       <c r="AL5" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AO5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO5" s="40" t="s">
+      <c r="AP5" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="AP5" s="40" t="s">
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU5" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV5" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ5" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR5" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS5" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
       <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
       <c r="AY5" s="40"/>
@@ -2983,30 +3045,30 @@
       <c r="AL6" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM6" s="41" t="s">
+      <c r="AM6" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN6" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AN6" s="41" t="s">
+      <c r="AO6" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO6" s="40" t="s">
+      <c r="AP6" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="AP6" s="40" t="s">
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="41">
+        <v>4551</v>
+      </c>
+      <c r="AU6" s="39">
+        <v>42691</v>
+      </c>
+      <c r="AV6" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ6" s="41">
-        <v>4551</v>
-      </c>
-      <c r="AR6" s="39">
-        <v>42691</v>
-      </c>
-      <c r="AS6" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
       <c r="AW6" s="40"/>
       <c r="AX6" s="40"/>
       <c r="AY6" s="40"/>
@@ -3149,30 +3211,30 @@
       <c r="AL7" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AM7" s="34" t="s">
+      <c r="AM7" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN7" s="34" t="s">
+      <c r="AO7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO7" s="40" t="s">
+      <c r="AP7" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="AP7" s="40" t="s">
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU7" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV7" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ7" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR7" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS7" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
       <c r="AY7" s="40"/>
@@ -3317,30 +3379,30 @@
       <c r="AL8" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AN8" s="34" t="s">
+      <c r="AO8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO8" s="40" t="s">
+      <c r="AP8" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="AP8" s="40" t="s">
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU8" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR8" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS8" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="40"/>
@@ -3483,30 +3545,30 @@
       <c r="AL9" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AM9" s="34" t="s">
+      <c r="AM9" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AO9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AO9" s="38" t="s">
+      <c r="AP9" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AP9" s="38" t="s">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU9" s="39">
+        <v>42723</v>
+      </c>
+      <c r="AV9" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ9" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR9" s="39">
-        <v>42723</v>
-      </c>
-      <c r="AS9" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
       <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
       <c r="AY9" s="38"/>
@@ -3649,30 +3711,30 @@
       <c r="AL10" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM10" s="41" t="s">
+      <c r="AM10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AN10" s="41" t="s">
+      <c r="AO10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO10" s="40" t="s">
+      <c r="AP10" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="AP10" s="40" t="s">
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="41">
+        <v>4551</v>
+      </c>
+      <c r="AU10" s="39">
+        <v>42691</v>
+      </c>
+      <c r="AV10" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ10" s="41">
-        <v>4551</v>
-      </c>
-      <c r="AR10" s="39">
-        <v>42691</v>
-      </c>
-      <c r="AS10" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="40"/>
-      <c r="AV10" s="40"/>
       <c r="AW10" s="40"/>
       <c r="AX10" s="40"/>
       <c r="AY10" s="40"/>
@@ -3815,30 +3877,30 @@
       <c r="AL11" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="AM11" s="34" t="s">
+      <c r="AM11" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AN11" s="34" t="s">
+      <c r="AO11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO11" s="38" t="s">
+      <c r="AP11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AP11" s="38" t="s">
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU11" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV11" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ11" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR11" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS11" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
       <c r="AY11" s="38"/>
@@ -3983,31 +4045,31 @@
       <c r="AL12" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AM12" s="34" t="s">
+      <c r="AM12" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38" t="s">
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR12" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS12" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU12" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV12" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="AQ12" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR12" s="39">
-        <v>42859</v>
-      </c>
-      <c r="AS12" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU12" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV12" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
@@ -4151,30 +4213,30 @@
       <c r="AL13" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AM13" s="34" t="s">
+      <c r="AM13" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN13" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AN13" s="34" t="s">
+      <c r="AO13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AO13" s="38" t="s">
+      <c r="AP13" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AP13" s="38" t="s">
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU13" s="39">
+        <v>42723</v>
+      </c>
+      <c r="AV13" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AQ13" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR13" s="39">
-        <v>42723</v>
-      </c>
-      <c r="AS13" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
       <c r="AW13" s="38"/>
       <c r="AX13" s="38"/>
       <c r="AY13" s="38"/>
@@ -4319,30 +4381,30 @@
       <c r="AL14" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="AM14" s="34" t="s">
+      <c r="AM14" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN14" s="34" t="s">
+      <c r="AO14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO14" s="38" t="s">
+      <c r="AP14" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="AP14" s="38" t="s">
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU14" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV14" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ14" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR14" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS14" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
       <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
       <c r="AY14" s="38"/>
@@ -4487,31 +4549,31 @@
       <c r="AL15" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AM15" s="34" t="s">
+      <c r="AM15" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38" t="s">
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR15" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS15" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT15" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU15" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV15" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="AQ15" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR15" s="39">
-        <v>42859</v>
-      </c>
-      <c r="AS15" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT15" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU15" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV15" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
@@ -4545,7 +4607,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -4655,30 +4717,30 @@
       <c r="AL16" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="AM16" s="34" t="s">
+      <c r="AM16" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN16" s="34" t="s">
+      <c r="AO16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO16" s="38" t="s">
+      <c r="AP16" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="AP16" s="38" t="s">
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" s="39">
+        <v>42711</v>
+      </c>
+      <c r="AV16" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AQ16" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR16" s="39">
-        <v>42711</v>
-      </c>
-      <c r="AS16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
       <c r="AW16" s="38"/>
       <c r="AX16" s="38"/>
       <c r="AY16" s="38"/>
@@ -4713,11 +4775,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+    <row r="17" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="98">
         <v>13</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="97" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -4822,30 +4884,30 @@
       <c r="AL17" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AM17" s="41" t="s">
+      <c r="AM17" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AN17" s="41" t="s">
+      <c r="AO17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO17" s="40" t="s">
+      <c r="AP17" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AP17" s="40" t="s">
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="41">
+        <v>4551</v>
+      </c>
+      <c r="AU17" s="39">
+        <v>42691</v>
+      </c>
+      <c r="AV17" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AQ17" s="41">
-        <v>4551</v>
-      </c>
-      <c r="AR17" s="39">
-        <v>42691</v>
-      </c>
-      <c r="AS17" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
       <c r="AW17" s="40"/>
       <c r="AX17" s="40"/>
       <c r="AY17" s="40"/>
@@ -4989,30 +5051,30 @@
       <c r="AL18" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM18" s="20" t="s">
+      <c r="AM18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AN18" s="20" t="s">
+      <c r="AO18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO18" s="22" t="s">
+      <c r="AP18" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AP18" s="22" t="s">
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU18" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV18" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AQ18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR18" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="22"/>
       <c r="AW18" s="22"/>
       <c r="AX18" s="22"/>
       <c r="AY18" s="22"/>
@@ -5152,30 +5214,30 @@
       <c r="AL19" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="AM19" s="10" t="s">
+      <c r="AM19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN19" s="10" t="s">
+      <c r="AO19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO19" s="15" t="s">
+      <c r="AP19" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="AP19" s="15" t="s">
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AU19" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AV19" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="AQ19" s="10">
-        <v>4551</v>
-      </c>
-      <c r="AR19" s="16">
-        <v>42691</v>
-      </c>
-      <c r="AS19" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="15"/>
       <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
@@ -5252,15 +5314,15 @@
       <c r="AJ20" s="14"/>
       <c r="AK20" s="20"/>
       <c r="AL20" s="22"/>
-      <c r="AM20" s="20"/>
+      <c r="AM20" s="22"/>
       <c r="AN20" s="20"/>
-      <c r="AO20" s="22"/>
+      <c r="AO20" s="20"/>
       <c r="AP20" s="22"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="16"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
       <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="16"/>
       <c r="AV20" s="22"/>
       <c r="AW20" s="22"/>
       <c r="AX20" s="22"/>
@@ -5281,7 +5343,7 @@
       <c r="BK20" s="21"/>
     </row>
     <row r="21" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="94">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5389,30 +5451,30 @@
       <c r="AL21" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM21" s="20" t="s">
+      <c r="AM21" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AN21" s="20" t="s">
+      <c r="AO21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO21" s="22" t="s">
+      <c r="AP21" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AP21" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ21" s="20" t="s">
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AR21" s="16">
+      <c r="AU21" s="16">
         <v>42723</v>
       </c>
-      <c r="AS21" s="22" t="s">
+      <c r="AV21" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT21" s="22"/>
-      <c r="AU21" s="22"/>
-      <c r="AV21" s="22"/>
       <c r="AW21" s="22"/>
       <c r="AX21" s="22"/>
       <c r="AY21" s="22"/>
@@ -5448,7 +5510,7 @@
       </c>
     </row>
     <row r="22" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="94">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -5557,30 +5619,30 @@
       <c r="AL22" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="AM22" s="20" t="s">
+      <c r="AM22" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AN22" s="20" t="s">
+      <c r="AO22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AO22" s="22" t="s">
+      <c r="AP22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AP22" s="22" t="s">
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU22" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AQ22" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR22" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS22" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT22" s="22"/>
-      <c r="AU22" s="22"/>
-      <c r="AV22" s="22"/>
       <c r="AW22" s="22"/>
       <c r="AX22" s="22"/>
       <c r="AY22" s="22"/>
@@ -5725,30 +5787,30 @@
       <c r="AL23" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM23" s="20" t="s">
+      <c r="AM23" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AN23" s="20" t="s">
+      <c r="AO23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO23" s="22" t="s">
+      <c r="AP23" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AP23" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ23" s="20" t="s">
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AR23" s="16">
+      <c r="AU23" s="16">
         <v>42723</v>
       </c>
-      <c r="AS23" s="22" t="s">
+      <c r="AV23" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
       <c r="AW23" s="22"/>
       <c r="AX23" s="22"/>
       <c r="AY23" s="22"/>
@@ -5893,30 +5955,30 @@
       <c r="AL24" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM24" s="20" t="s">
+      <c r="AM24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AN24" s="20" t="s">
+      <c r="AO24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO24" s="22" t="s">
+      <c r="AP24" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AP24" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ24" s="20" t="s">
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AR24" s="16">
+      <c r="AU24" s="16">
         <v>42723</v>
       </c>
-      <c r="AS24" s="22" t="s">
+      <c r="AV24" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AT24" s="22"/>
-      <c r="AU24" s="22"/>
-      <c r="AV24" s="22"/>
       <c r="AW24" s="22"/>
       <c r="AX24" s="22"/>
       <c r="AY24" s="22"/>
@@ -6061,30 +6123,30 @@
       <c r="AL25" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM25" s="20" t="s">
+      <c r="AM25" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN25" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AN25" s="20" t="s">
+      <c r="AO25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO25" s="22" t="s">
+      <c r="AP25" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AP25" s="22" t="s">
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU25" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV25" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AQ25" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR25" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS25" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
       <c r="AW25" s="22"/>
       <c r="AX25" s="22"/>
       <c r="AY25" s="22"/>
@@ -6228,26 +6290,26 @@
       <c r="AL26" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="AM26" s="20" t="s">
+      <c r="AM26" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22" t="s">
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU26" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AQ26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR26" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS26" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
       <c r="AX26" s="22"/>
       <c r="AY26" s="22"/>
@@ -6393,30 +6455,30 @@
       <c r="AL27" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM27" s="20" t="s">
+      <c r="AM27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AN27" s="20" t="s">
+      <c r="AO27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AO27" s="22" t="s">
+      <c r="AP27" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AP27" s="22" t="s">
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU27" s="16">
+        <v>42723</v>
+      </c>
+      <c r="AV27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AQ27" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR27" s="16">
-        <v>42723</v>
-      </c>
-      <c r="AS27" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT27" s="22"/>
-      <c r="AU27" s="22"/>
-      <c r="AV27" s="22"/>
       <c r="AW27" s="22"/>
       <c r="AX27" s="22"/>
       <c r="AY27" s="22"/>
@@ -6560,30 +6622,30 @@
       <c r="AL28" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM28" s="20" t="s">
+      <c r="AM28" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AN28" s="20" t="s">
+      <c r="AO28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AO28" s="22" t="s">
+      <c r="AP28" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AP28" s="22" t="s">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU28" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AQ28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR28" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS28" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
       <c r="AW28" s="22"/>
       <c r="AX28" s="22"/>
       <c r="AY28" s="22"/>
@@ -6726,30 +6788,30 @@
       <c r="AL29" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="AM29" s="10" t="s">
+      <c r="AM29" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN29" s="10" t="s">
+      <c r="AO29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO29" s="22" t="s">
+      <c r="AP29" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="AP29" s="22" t="s">
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AU29" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AV29" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AQ29" s="10">
-        <v>4551</v>
-      </c>
-      <c r="AR29" s="16">
-        <v>42691</v>
-      </c>
-      <c r="AS29" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT29" s="15"/>
-      <c r="AU29" s="15"/>
-      <c r="AV29" s="15"/>
       <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
@@ -6891,16 +6953,16 @@
       </c>
       <c r="AK30" s="20"/>
       <c r="AL30" s="22"/>
-      <c r="AM30" s="20"/>
+      <c r="AM30" s="22"/>
       <c r="AN30" s="20"/>
-      <c r="AO30" s="22"/>
+      <c r="AO30" s="20"/>
       <c r="AP30" s="22"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="16"/>
-      <c r="AS30" s="15"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="15"/>
       <c r="AW30" s="22" t="s">
         <v>387</v>
       </c>
@@ -7047,30 +7109,30 @@
       <c r="AL31" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="AM31" s="20" t="s">
+      <c r="AM31" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AN31" s="20" t="s">
+      <c r="AO31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AO31" s="22" t="s">
+      <c r="AP31" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="AP31" s="22" t="s">
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU31" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV31" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AQ31" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR31" s="16">
-        <v>42711</v>
-      </c>
-      <c r="AS31" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-      <c r="AV31" s="22"/>
       <c r="AW31" s="22"/>
       <c r="AX31" s="22"/>
       <c r="AY31" s="22"/>
@@ -7105,7 +7167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7214,30 +7276,30 @@
       <c r="AL32" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="AM32" s="10" t="s">
+      <c r="AM32" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AN32" s="10" t="s">
+      <c r="AO32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AO32" s="22" t="s">
+      <c r="AP32" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="AP32" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ32" s="10">
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="10">
         <v>4551</v>
       </c>
-      <c r="AR32" s="16">
+      <c r="AU32" s="16">
         <v>42691</v>
       </c>
-      <c r="AS32" s="22" t="s">
+      <c r="AV32" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
       <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
@@ -7272,11 +7334,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="33" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="96">
         <v>14</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="95" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -7384,31 +7446,31 @@
       <c r="AL33" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="AM33" s="20" t="s">
+      <c r="AM33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22" t="s">
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR33" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS33" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU33" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AV33" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="AQ33" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR33" s="16">
-        <v>42859</v>
-      </c>
-      <c r="AS33" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT33" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU33" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV33" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="AW33" s="22"/>
       <c r="AX33" s="22"/>
@@ -7486,16 +7548,16 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="34"/>
       <c r="AL34" s="38"/>
-      <c r="AM34" s="34"/>
+      <c r="AM34" s="38"/>
       <c r="AN34" s="34"/>
-      <c r="AO34" s="38"/>
+      <c r="AO34" s="34"/>
       <c r="AP34" s="38"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="40"/>
       <c r="AW34" s="38"/>
       <c r="AX34" s="38"/>
       <c r="AY34" s="38"/>
@@ -7554,16 +7616,16 @@
       <c r="AJ35" s="35"/>
       <c r="AK35" s="34"/>
       <c r="AL35" s="38"/>
-      <c r="AM35" s="34"/>
+      <c r="AM35" s="38"/>
       <c r="AN35" s="34"/>
-      <c r="AO35" s="38"/>
+      <c r="AO35" s="34"/>
       <c r="AP35" s="38"/>
-      <c r="AQ35" s="34"/>
+      <c r="AQ35" s="38"/>
       <c r="AR35" s="38"/>
-      <c r="AS35" s="40"/>
-      <c r="AT35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="34"/>
       <c r="AU35" s="38"/>
-      <c r="AV35" s="38"/>
+      <c r="AV35" s="40"/>
       <c r="AW35" s="38"/>
       <c r="AX35" s="38"/>
       <c r="AY35" s="38"/>
@@ -7690,30 +7752,30 @@
       <c r="AL36" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="AM36" s="41" t="s">
+      <c r="AM36" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN36" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AN36" s="41" t="s">
+      <c r="AO36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AO36" s="38" t="s">
+      <c r="AP36" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="AP36" s="38" t="s">
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="41">
+        <v>4551</v>
+      </c>
+      <c r="AU36" s="39">
+        <v>42691</v>
+      </c>
+      <c r="AV36" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AQ36" s="41">
-        <v>4551</v>
-      </c>
-      <c r="AR36" s="39">
-        <v>42691</v>
-      </c>
-      <c r="AS36" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
       <c r="AW36" s="40"/>
       <c r="AX36" s="40"/>
       <c r="AY36" s="40"/>
@@ -7779,10 +7841,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="66">
+      <c r="K37" s="65">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="66">
+      <c r="L37" s="65">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -7857,30 +7919,30 @@
       <c r="AL37" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AM37" s="34" t="s">
+      <c r="AM37" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN37" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AN37" s="34" t="s">
+      <c r="AO37" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AO37" s="38" t="s">
+      <c r="AP37" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="AP37" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ37" s="34" t="s">
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AR37" s="39">
+      <c r="AU37" s="39">
         <v>42711</v>
       </c>
-      <c r="AS37" s="38" t="s">
+      <c r="AV37" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AT37" s="38"/>
-      <c r="AU37" s="38"/>
-      <c r="AV37" s="38"/>
       <c r="AW37" s="38"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="38"/>
@@ -7948,10 +8010,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="67">
+      <c r="K38" s="66">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="67">
+      <c r="L38" s="66">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8024,16 +8086,16 @@
       </c>
       <c r="AK38" s="41"/>
       <c r="AL38" s="38"/>
-      <c r="AM38" s="41"/>
+      <c r="AM38" s="38"/>
       <c r="AN38" s="41"/>
-      <c r="AO38" s="38"/>
+      <c r="AO38" s="41"/>
       <c r="AP38" s="38"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="39"/>
-      <c r="AS38" s="38"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="41"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="38"/>
       <c r="AW38" s="40" t="s">
         <v>387</v>
       </c>
@@ -8186,31 +8248,31 @@
       <c r="AL39" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM39" s="34" t="s">
+      <c r="AM39" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN39" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="38"/>
-      <c r="AP39" s="38" t="s">
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR39" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS39" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT39" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU39" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV39" s="40" t="s">
         <v>168</v>
-      </c>
-      <c r="AQ39" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR39" s="39">
-        <v>42859</v>
-      </c>
-      <c r="AS39" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT39" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU39" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV39" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="AW39" s="38"/>
       <c r="AX39" s="38"/>
@@ -8356,31 +8418,31 @@
       <c r="AL40" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM40" s="34" t="s">
+      <c r="AM40" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN40" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38" t="s">
+      <c r="AO40" s="34"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR40" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS40" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT40" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU40" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV40" s="40" t="s">
         <v>168</v>
-      </c>
-      <c r="AQ40" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR40" s="39">
-        <v>42859</v>
-      </c>
-      <c r="AS40" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT40" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU40" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV40" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="AW40" s="38"/>
       <c r="AX40" s="38"/>
@@ -8445,10 +8507,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="66">
+      <c r="K41" s="65">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="66">
+      <c r="L41" s="65">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -8526,31 +8588,31 @@
       <c r="AL41" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM41" s="34" t="s">
+      <c r="AM41" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN41" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38" t="s">
+      <c r="AO41" s="34"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR41" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS41" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT41" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU41" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV41" s="40" t="s">
         <v>168</v>
-      </c>
-      <c r="AQ41" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR41" s="39">
-        <v>42859</v>
-      </c>
-      <c r="AS41" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT41" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU41" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV41" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="AW41" s="38"/>
       <c r="AX41" s="38"/>
@@ -8695,30 +8757,30 @@
       <c r="AL42" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM42" s="34" t="s">
+      <c r="AM42" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN42" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN42" s="34" t="s">
+      <c r="AO42" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO42" s="38" t="s">
+      <c r="AP42" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AP42" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ42" s="41">
+      <c r="AQ42" s="40"/>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="40"/>
+      <c r="AT42" s="41">
         <v>4551</v>
       </c>
-      <c r="AR42" s="39">
+      <c r="AU42" s="39">
         <v>42691</v>
       </c>
-      <c r="AS42" s="34" t="s">
+      <c r="AV42" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="40"/>
-      <c r="AV42" s="40"/>
       <c r="AW42" s="40"/>
       <c r="AX42" s="40"/>
       <c r="AY42" s="40" t="s">
@@ -8861,7 +8923,7 @@
       <c r="AI43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ43" s="78">
+      <c r="AJ43" s="76">
         <v>30</v>
       </c>
       <c r="AK43" s="34" t="s">
@@ -8870,30 +8932,30 @@
       <c r="AL43" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM43" s="34" t="s">
+      <c r="AM43" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN43" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN43" s="34" t="s">
+      <c r="AO43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO43" s="38" t="s">
+      <c r="AP43" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AP43" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ43" s="74" t="s">
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AR43" s="75">
+      <c r="AU43" s="73">
         <v>42723</v>
       </c>
-      <c r="AS43" s="77" t="s">
+      <c r="AV43" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="AT43" s="38"/>
-      <c r="AU43" s="38"/>
-      <c r="AV43" s="38"/>
       <c r="AW43" s="38"/>
       <c r="AX43" s="38"/>
       <c r="AY43" s="38"/>
@@ -8905,10 +8967,10 @@
       <c r="BC43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD43" s="73" t="s">
+      <c r="BD43" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="BE43" s="73" t="s">
+      <c r="BE43" s="71" t="s">
         <v>329</v>
       </c>
       <c r="BF43" s="38" t="s">
@@ -8928,12 +8990,16 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
@@ -8947,47 +9013,83 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="I44" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="K44" s="35">
+        <v>44.380699999999997</v>
+      </c>
+      <c r="L44" s="35">
+        <v>-63.335099999999997</v>
+      </c>
+      <c r="M44" s="37">
+        <v>42.57</v>
+      </c>
+      <c r="N44" s="37">
+        <v>-63.43</v>
+      </c>
+      <c r="O44" s="37">
+        <v>44.5</v>
+      </c>
+      <c r="P44" s="37">
+        <v>-61.53</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="R44" s="3">
+        <v>23</v>
+      </c>
+      <c r="S44" s="3">
+        <v>601</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1392</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1241</v>
+      </c>
       <c r="V44" s="37" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="W44" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="X44" s="65" t="s">
+      <c r="X44" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Y44" s="65" t="s">
+      <c r="Y44" s="37" t="s">
         <v>188</v>
       </c>
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
       <c r="AB44" s="37"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
+      <c r="AC44" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>3.5</v>
+      </c>
       <c r="AF44" s="3">
         <v>1024.5</v>
       </c>
       <c r="AG44" s="37">
-        <v>20200112</v>
-      </c>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
+        <v>20210112</v>
+      </c>
+      <c r="AH44" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI44" s="37" t="s">
+        <v>398</v>
+      </c>
       <c r="AJ44" s="35">
         <v>29</v>
       </c>
@@ -8997,30 +9099,30 @@
       <c r="AL44" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM44" s="69" t="s">
+      <c r="AM44" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AN44" s="69" t="s">
+      <c r="AO44" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AO44" s="38" t="s">
+      <c r="AP44" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AP44" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ44" s="69" t="s">
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="38"/>
+      <c r="AS44" s="38"/>
+      <c r="AT44" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AR44" s="95">
+      <c r="AU44" s="39">
         <v>42711</v>
       </c>
-      <c r="AS44" s="40" t="s">
+      <c r="AV44" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AT44" s="38"/>
-      <c r="AU44" s="38"/>
-      <c r="AV44" s="38"/>
       <c r="AW44" s="38"/>
       <c r="AX44" s="38"/>
       <c r="AY44" s="38"/>
@@ -9046,91 +9148,205 @@
       <c r="BI44" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ44" s="65" t="s">
-        <v>203</v>
+      <c r="BJ44" s="37" t="s">
+        <v>400</v>
       </c>
       <c r="BK44" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+    <row r="45" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="98">
         <v>10</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+      <c r="B45" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="35">
+        <v>64</v>
+      </c>
+      <c r="F45" s="35">
+        <v>4800993</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="I45" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="K45" s="35">
+        <v>44.380200000000002</v>
+      </c>
+      <c r="L45" s="35">
+        <v>-63.330100000000002</v>
+      </c>
+      <c r="M45" s="37">
+        <v>42.69</v>
+      </c>
+      <c r="N45" s="37">
+        <v>-63.41</v>
+      </c>
+      <c r="O45" s="37">
+        <v>44.54</v>
+      </c>
+      <c r="P45" s="37">
+        <v>-61.52</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R45" s="3">
+        <v>21</v>
+      </c>
+      <c r="S45" s="3">
+        <v>578</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1318</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1132</v>
+      </c>
+      <c r="V45" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W45" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="X45" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y45" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z45" s="37" t="s">
+        <v>188</v>
+      </c>
       <c r="AA45" s="37"/>
       <c r="AB45" s="37"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="78"/>
-      <c r="AK45" s="34"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="34"/>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="38"/>
+      <c r="AC45" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>1024.5</v>
+      </c>
+      <c r="AG45" s="37">
+        <v>20210302</v>
+      </c>
+      <c r="AH45" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI45" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ45" s="76">
+        <v>42</v>
+      </c>
+      <c r="AK45" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL45" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM45" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN45" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO45" s="34"/>
       <c r="AP45" s="38"/>
-      <c r="AQ45" s="74"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="77"/>
-      <c r="AT45" s="38"/>
-      <c r="AU45" s="38"/>
-      <c r="AV45" s="38"/>
+      <c r="AQ45" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR45" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS45" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT45" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU45" s="39">
+        <v>42859</v>
+      </c>
+      <c r="AV45" s="99" t="s">
+        <v>168</v>
+      </c>
       <c r="AW45" s="38"/>
       <c r="AX45" s="38"/>
       <c r="AY45" s="38"/>
       <c r="AZ45" s="38"/>
       <c r="BA45" s="38"/>
-      <c r="BB45" s="41"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="73"/>
-      <c r="BE45" s="73"/>
+      <c r="BB45" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC45" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD45" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE45" s="38" t="s">
+        <v>330</v>
+      </c>
       <c r="BF45" s="38"/>
       <c r="BG45" s="3"/>
-      <c r="BH45" s="35"/>
-      <c r="BI45" s="35"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="43"/>
+      <c r="BH45" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI45" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ45" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="BK45" s="43" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="46" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="C46" s="20"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="14">
+        <v>59</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4800926</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>408</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="14"/>
@@ -9144,48 +9360,104 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
+      <c r="V46" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X46" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y46" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="97"/>
-      <c r="AH46" s="97"/>
-      <c r="AI46" s="97"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="99"/>
-      <c r="AL46" s="100"/>
-      <c r="AM46" s="101"/>
-      <c r="AN46" s="101"/>
-      <c r="AO46" s="100"/>
-      <c r="AP46" s="100"/>
-      <c r="AQ46" s="99"/>
-      <c r="AR46" s="102"/>
-      <c r="AS46" s="103"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
-      <c r="BA46" s="100"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="17"/>
-      <c r="BD46" s="104"/>
-      <c r="BE46" s="104"/>
-      <c r="BF46" s="22"/>
-      <c r="BG46" s="2"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="14"/>
-      <c r="BJ46" s="18"/>
-      <c r="BK46" s="21"/>
+      <c r="AF46" s="2">
+        <v>1024.5</v>
+      </c>
+      <c r="AG46" s="18">
+        <v>20210112</v>
+      </c>
+      <c r="AH46" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI46" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ46" s="14">
+        <v>29</v>
+      </c>
+      <c r="AK46" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL46" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM46" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN46" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO46" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP46" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ46" s="93"/>
+      <c r="AR46" s="93"/>
+      <c r="AS46" s="93"/>
+      <c r="AT46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU46" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AV46" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW46" s="93"/>
+      <c r="AX46" s="93"/>
+      <c r="AY46" s="93"/>
+      <c r="AZ46" s="93"/>
+      <c r="BA46" s="93"/>
+      <c r="BB46" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC46" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE46" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF46" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG46" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="BH46" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI46" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ46" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="BK46" s="21" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="47" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -9227,15 +9499,15 @@
       <c r="AJ47" s="35"/>
       <c r="AK47" s="34"/>
       <c r="AL47" s="38"/>
-      <c r="AM47" s="74"/>
-      <c r="AN47" s="74"/>
-      <c r="AO47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
       <c r="AP47" s="38"/>
-      <c r="AQ47" s="34"/>
-      <c r="AR47" s="76"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="38"/>
       <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
+      <c r="AT47" s="34"/>
+      <c r="AU47" s="74"/>
       <c r="AV47" s="38"/>
       <c r="AW47" s="38"/>
       <c r="AX47" s="38"/>
@@ -9291,15 +9563,15 @@
       <c r="AJ48" s="35"/>
       <c r="AK48" s="34"/>
       <c r="AL48" s="38"/>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="74"/>
-      <c r="AO48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
       <c r="AP48" s="38"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="76"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="38"/>
       <c r="AS48" s="38"/>
-      <c r="AT48" s="38"/>
-      <c r="AU48" s="38"/>
+      <c r="AT48" s="34"/>
+      <c r="AU48" s="74"/>
       <c r="AV48" s="38"/>
       <c r="AW48" s="38"/>
       <c r="AX48" s="38"/>
@@ -9355,14 +9627,14 @@
       <c r="AJ49" s="35"/>
       <c r="AK49" s="34"/>
       <c r="AL49" s="38"/>
-      <c r="AM49" s="34"/>
+      <c r="AM49" s="38"/>
       <c r="AN49" s="34"/>
-      <c r="AO49" s="38"/>
+      <c r="AO49" s="34"/>
       <c r="AP49" s="38"/>
-      <c r="AQ49" s="34"/>
+      <c r="AQ49" s="38"/>
       <c r="AR49" s="38"/>
       <c r="AS49" s="38"/>
-      <c r="AT49" s="38"/>
+      <c r="AT49" s="34"/>
       <c r="AU49" s="38"/>
       <c r="AV49" s="38"/>
       <c r="AW49" s="38"/>
@@ -9419,14 +9691,14 @@
       <c r="AJ50" s="35"/>
       <c r="AK50" s="34"/>
       <c r="AL50" s="38"/>
-      <c r="AM50" s="34"/>
+      <c r="AM50" s="38"/>
       <c r="AN50" s="34"/>
-      <c r="AO50" s="38"/>
+      <c r="AO50" s="34"/>
       <c r="AP50" s="38"/>
-      <c r="AQ50" s="34"/>
+      <c r="AQ50" s="38"/>
       <c r="AR50" s="38"/>
       <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
+      <c r="AT50" s="34"/>
       <c r="AU50" s="38"/>
       <c r="AV50" s="38"/>
       <c r="AW50" s="38"/>
@@ -9483,14 +9755,14 @@
       <c r="AJ51" s="35"/>
       <c r="AK51" s="34"/>
       <c r="AL51" s="38"/>
-      <c r="AM51" s="34"/>
+      <c r="AM51" s="38"/>
       <c r="AN51" s="34"/>
-      <c r="AO51" s="38"/>
+      <c r="AO51" s="34"/>
       <c r="AP51" s="38"/>
-      <c r="AQ51" s="34"/>
+      <c r="AQ51" s="38"/>
       <c r="AR51" s="38"/>
       <c r="AS51" s="38"/>
-      <c r="AT51" s="38"/>
+      <c r="AT51" s="34"/>
       <c r="AU51" s="38"/>
       <c r="AV51" s="38"/>
       <c r="AW51" s="38"/>
@@ -9500,10 +9772,10 @@
       <c r="BA51" s="38"/>
       <c r="BB51" s="34"/>
       <c r="BC51" s="48"/>
-      <c r="BD51" s="72" t="s">
+      <c r="BD51" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="BE51" s="72" t="s">
+      <c r="BE51" s="70" t="s">
         <v>331</v>
       </c>
       <c r="BF51" s="38"/>
@@ -9551,16 +9823,16 @@
       <c r="AJ52" s="35"/>
       <c r="AK52" s="34"/>
       <c r="AL52" s="38"/>
-      <c r="AM52" s="34"/>
+      <c r="AM52" s="38"/>
       <c r="AN52" s="34"/>
-      <c r="AO52" s="38"/>
+      <c r="AO52" s="34"/>
       <c r="AP52" s="38"/>
-      <c r="AQ52" s="34"/>
+      <c r="AQ52" s="38"/>
       <c r="AR52" s="38"/>
-      <c r="AS52" s="40"/>
-      <c r="AT52" s="38"/>
+      <c r="AS52" s="38"/>
+      <c r="AT52" s="34"/>
       <c r="AU52" s="38"/>
-      <c r="AV52" s="38"/>
+      <c r="AV52" s="40"/>
       <c r="AW52" s="38"/>
       <c r="AX52" s="38"/>
       <c r="AY52" s="38"/>
@@ -9619,16 +9891,16 @@
       <c r="AJ53" s="35"/>
       <c r="AK53" s="34"/>
       <c r="AL53" s="38"/>
-      <c r="AM53" s="34"/>
+      <c r="AM53" s="38"/>
       <c r="AN53" s="34"/>
-      <c r="AO53" s="38"/>
+      <c r="AO53" s="34"/>
       <c r="AP53" s="38"/>
-      <c r="AQ53" s="34"/>
+      <c r="AQ53" s="38"/>
       <c r="AR53" s="38"/>
-      <c r="AS53" s="40"/>
-      <c r="AT53" s="38"/>
+      <c r="AS53" s="38"/>
+      <c r="AT53" s="34"/>
       <c r="AU53" s="38"/>
-      <c r="AV53" s="38"/>
+      <c r="AV53" s="40"/>
       <c r="AW53" s="38"/>
       <c r="AX53" s="38"/>
       <c r="AY53" s="38"/>
@@ -9636,10 +9908,10 @@
       <c r="BA53" s="38"/>
       <c r="BB53" s="41"/>
       <c r="BC53" s="42"/>
-      <c r="BD53" s="71" t="s">
+      <c r="BD53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="72" t="s">
+      <c r="BE53" s="70" t="s">
         <v>330</v>
       </c>
       <c r="BF53" s="38"/>
@@ -9687,14 +9959,14 @@
       <c r="AJ54" s="29"/>
       <c r="AK54" s="51"/>
       <c r="AL54" s="46"/>
-      <c r="AM54" s="51"/>
+      <c r="AM54" s="46"/>
       <c r="AN54" s="51"/>
-      <c r="AO54" s="46"/>
+      <c r="AO54" s="51"/>
       <c r="AP54" s="46"/>
-      <c r="AQ54" s="51"/>
+      <c r="AQ54" s="46"/>
       <c r="AR54" s="46"/>
       <c r="AS54" s="46"/>
-      <c r="AT54" s="46"/>
+      <c r="AT54" s="51"/>
       <c r="AU54" s="46"/>
       <c r="AV54" s="46"/>
       <c r="AW54" s="46"/>
@@ -9704,10 +9976,10 @@
       <c r="BA54" s="46"/>
       <c r="BB54" s="51"/>
       <c r="BC54" s="52"/>
-      <c r="BD54" s="70" t="s">
+      <c r="BD54" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BE54" s="70" t="s">
+      <c r="BE54" s="68" t="s">
         <v>329</v>
       </c>
       <c r="BF54" s="46"/>
@@ -9755,14 +10027,14 @@
       <c r="AJ55" s="29"/>
       <c r="AK55" s="51"/>
       <c r="AL55" s="46"/>
-      <c r="AM55" s="51"/>
+      <c r="AM55" s="46"/>
       <c r="AN55" s="51"/>
-      <c r="AO55" s="46"/>
+      <c r="AO55" s="51"/>
       <c r="AP55" s="46"/>
-      <c r="AQ55" s="51"/>
+      <c r="AQ55" s="46"/>
       <c r="AR55" s="46"/>
       <c r="AS55" s="46"/>
-      <c r="AT55" s="46"/>
+      <c r="AT55" s="51"/>
       <c r="AU55" s="46"/>
       <c r="AV55" s="46"/>
       <c r="AW55" s="46"/>
@@ -9823,14 +10095,14 @@
       <c r="AJ56" s="29"/>
       <c r="AK56" s="51"/>
       <c r="AL56" s="46"/>
-      <c r="AM56" s="51"/>
+      <c r="AM56" s="46"/>
       <c r="AN56" s="51"/>
-      <c r="AO56" s="46"/>
+      <c r="AO56" s="51"/>
       <c r="AP56" s="46"/>
-      <c r="AQ56" s="51"/>
+      <c r="AQ56" s="46"/>
       <c r="AR56" s="46"/>
       <c r="AS56" s="46"/>
-      <c r="AT56" s="46"/>
+      <c r="AT56" s="51"/>
       <c r="AU56" s="46"/>
       <c r="AV56" s="46"/>
       <c r="AW56" s="46"/>
@@ -9843,7 +10115,7 @@
       <c r="BD56" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="BE56" s="68" t="s">
+      <c r="BE56" s="67" t="s">
         <v>119</v>
       </c>
       <c r="BF56" s="46"/>
@@ -9891,14 +10163,14 @@
       <c r="AJ57" s="29"/>
       <c r="AK57" s="51"/>
       <c r="AL57" s="46"/>
-      <c r="AM57" s="51"/>
+      <c r="AM57" s="46"/>
       <c r="AN57" s="51"/>
-      <c r="AO57" s="46"/>
+      <c r="AO57" s="51"/>
       <c r="AP57" s="46"/>
-      <c r="AQ57" s="51"/>
+      <c r="AQ57" s="46"/>
       <c r="AR57" s="46"/>
       <c r="AS57" s="46"/>
-      <c r="AT57" s="46"/>
+      <c r="AT57" s="51"/>
       <c r="AU57" s="46"/>
       <c r="AV57" s="46"/>
       <c r="AW57" s="46"/>
@@ -9955,14 +10227,14 @@
       <c r="AJ58" s="29"/>
       <c r="AK58" s="51"/>
       <c r="AL58" s="46"/>
-      <c r="AM58" s="51"/>
+      <c r="AM58" s="46"/>
       <c r="AN58" s="51"/>
-      <c r="AO58" s="46"/>
+      <c r="AO58" s="51"/>
       <c r="AP58" s="46"/>
-      <c r="AQ58" s="51"/>
+      <c r="AQ58" s="46"/>
       <c r="AR58" s="46"/>
       <c r="AS58" s="46"/>
-      <c r="AT58" s="46"/>
+      <c r="AT58" s="51"/>
       <c r="AU58" s="46"/>
       <c r="AV58" s="46"/>
       <c r="AW58" s="46"/>
@@ -10019,14 +10291,14 @@
       <c r="AJ59" s="29"/>
       <c r="AK59" s="51"/>
       <c r="AL59" s="46"/>
-      <c r="AM59" s="51"/>
+      <c r="AM59" s="46"/>
       <c r="AN59" s="51"/>
-      <c r="AO59" s="46"/>
+      <c r="AO59" s="51"/>
       <c r="AP59" s="46"/>
-      <c r="AQ59" s="51"/>
+      <c r="AQ59" s="46"/>
       <c r="AR59" s="46"/>
       <c r="AS59" s="46"/>
-      <c r="AT59" s="46"/>
+      <c r="AT59" s="51"/>
       <c r="AU59" s="46"/>
       <c r="AV59" s="46"/>
       <c r="AW59" s="46"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="428">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1253,10 +1253,58 @@
     <t>3.2.1-r altiFix</t>
   </si>
   <si>
-    <t>Sigma-T/</t>
-  </si>
-  <si>
-    <t>Firmware upgrade altifix</t>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>62?</t>
+  </si>
+  <si>
+    <t>Sampling rate Minifluo (s)</t>
+  </si>
+  <si>
+    <t>AFAP(4-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1-r </t>
+  </si>
+  <si>
+    <t>Minifluo S/N</t>
+  </si>
+  <si>
+    <t>Minifluo cal date</t>
+  </si>
+  <si>
+    <t>Minifluo warmup</t>
+  </si>
+  <si>
+    <t>MFL7</t>
+  </si>
+  <si>
+    <t>20200316</t>
+  </si>
+  <si>
+    <t>new dropweight and battery, sea032 pld with minifluo.</t>
+  </si>
+  <si>
+    <t>Firmware upgrade alti fixed. Lots of crazy readings for angular, heading and roll on the way back. Glider always km west of the line.</t>
+  </si>
+  <si>
+    <t>20201127</t>
+  </si>
+  <si>
+    <t>20210206</t>
+  </si>
+  <si>
+    <t>first mission after maintenance and battery upgrade. Heading low noise ON.</t>
+  </si>
+  <si>
+    <t>20210429</t>
+  </si>
+  <si>
+    <t>20210507</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_94</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1586,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,6 +1843,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2104,13 +2158,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK59"/>
+  <dimension ref="A1:BO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BI26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BB42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI49" sqref="BI49"/>
+      <selection pane="bottomRight" activeCell="BL47" sqref="BL47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,43 +2196,45 @@
     <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.5546875" style="91" customWidth="1"/>
     <col min="28" max="28" width="20.5546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" style="92" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.77734375" style="92" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="92" customWidth="1"/>
-    <col min="46" max="46" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.77734375" style="6" customWidth="1"/>
-    <col min="49" max="50" width="12.77734375" style="92" customWidth="1"/>
-    <col min="51" max="51" width="11.77734375" style="92" customWidth="1"/>
-    <col min="52" max="52" width="14.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" style="92" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.77734375" style="5" customWidth="1"/>
-    <col min="55" max="55" width="11.77734375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" style="6" customWidth="1"/>
-    <col min="58" max="58" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5546875" style="4" customWidth="1"/>
-    <col min="62" max="62" width="16.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="116.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="91" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="92" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="92" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.77734375" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="92" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="92" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="92" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="92" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="92" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
+    <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5546875" style="4" customWidth="1"/>
+    <col min="66" max="66" width="16.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -2192,22 +2248,6 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
-      <c r="R1" s="23">
-        <f>SUM(R5:R17)</f>
-        <v>223</v>
-      </c>
-      <c r="S1" s="23">
-        <f>SUM(S5:S17)</f>
-        <v>4914</v>
-      </c>
-      <c r="T1" s="23">
-        <f>SUM(T5:T17)</f>
-        <v>11701</v>
-      </c>
-      <c r="U1" s="23">
-        <f>SUM(U5:U17)</f>
-        <v>7627</v>
-      </c>
       <c r="V1" s="25"/>
       <c r="W1" s="25"/>
       <c r="X1" s="25"/>
@@ -2215,38 +2255,42 @@
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AC1" s="25"/>
       <c r="AH1" s="25"/>
       <c r="AI1" s="25"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="26"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="27"/>
       <c r="AM1" s="26"/>
-      <c r="AN1" s="27"/>
+      <c r="AN1" s="26"/>
       <c r="AO1" s="27"/>
-      <c r="AP1" s="26"/>
+      <c r="AP1" s="27"/>
       <c r="AQ1" s="26"/>
       <c r="AR1" s="26"/>
       <c r="AS1" s="26"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="27"/>
       <c r="AV1" s="26"/>
       <c r="AW1" s="26"/>
       <c r="AX1" s="26"/>
       <c r="AY1" s="26"/>
       <c r="AZ1" s="26"/>
       <c r="BA1" s="26"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="28"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
       <c r="BD1" s="26"/>
       <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="30"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:63" s="77" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" s="77" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
@@ -2328,113 +2372,125 @@
       <c r="AB2" s="82" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AE2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AF2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="82" t="s">
+      <c r="AH2" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="82" t="s">
+      <c r="AI2" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="82" t="s">
+      <c r="AJ2" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="83" t="s">
+      <c r="AK2" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="85" t="s">
+      <c r="AL2" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="AL2" s="84" t="s">
+      <c r="AM2" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="AM2" s="84" t="s">
+      <c r="AN2" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="AN2" s="85" t="s">
+      <c r="AO2" s="85" t="s">
         <v>350</v>
       </c>
-      <c r="AO2" s="85" t="s">
+      <c r="AP2" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="AP2" s="84" t="s">
+      <c r="AQ2" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="AQ2" s="84" t="s">
+      <c r="AR2" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="AR2" s="84" t="s">
+      <c r="AS2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="AS2" s="84" t="s">
+      <c r="AT2" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="AT2" s="85" t="s">
+      <c r="AU2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AU2" s="84" t="s">
+      <c r="AV2" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="AV2" s="86" t="s">
+      <c r="AW2" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="AW2" s="84" t="s">
+      <c r="AX2" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="AX2" s="84" t="s">
+      <c r="AY2" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="AY2" s="84" t="s">
+      <c r="AZ2" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="AZ2" s="84" t="s">
+      <c r="BA2" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="BA2" s="84" t="s">
+      <c r="BB2" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="BB2" s="87" t="s">
+      <c r="BC2" s="84" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD2" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE2" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="BF2" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="BC2" s="33" t="s">
+      <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BD2" s="84" t="s">
+      <c r="BH2" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="84" t="s">
+      <c r="BI2" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="84" t="s">
+      <c r="BJ2" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="BG2" s="32" t="s">
+      <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="88" t="s">
+      <c r="BL2" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="BI2" s="88" t="s">
+      <c r="BM2" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="BJ2" s="89" t="s">
+      <c r="BN2" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="90" t="s">
+      <c r="BO2" s="90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2514,9 +2570,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="13">
-        <v>0</v>
-      </c>
+      <c r="AC3" s="12"/>
       <c r="AD3" s="13">
         <v>0</v>
       </c>
@@ -2524,83 +2578,89 @@
         <v>0</v>
       </c>
       <c r="AF3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="13">
         <v>1024</v>
       </c>
-      <c r="AG3" s="12">
+      <c r="AH3" s="12">
         <v>20170617</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AK3" s="11">
         <v>33</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AM3" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AO3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AP3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="10">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="10">
         <v>4551</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AV3" s="16">
         <v>42691</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AW3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
       <c r="AY3" s="15"/>
       <c r="AZ3" s="15"/>
       <c r="BA3" s="15"/>
-      <c r="BB3" s="10" t="s">
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC3" s="17" t="s">
+      <c r="BG3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BH3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE3" s="15" t="s">
+      <c r="BI3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="14" t="s">
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI3" s="14" t="s">
+      <c r="BM3" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ3" s="18" t="s">
+      <c r="BN3" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK3" s="19" t="s">
+      <c r="BO3" s="19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="96">
         <v>2</v>
       </c>
@@ -2680,93 +2740,97 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="2">
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="2">
         <v>2</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>9</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AG4" s="13">
         <v>1024.5999999999999</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AH4" s="12">
         <v>20180228</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AK4" s="11">
         <v>33</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL4" s="15" t="s">
+      <c r="AM4" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AN4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AQ4" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
-      <c r="AT4" s="10">
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="10">
         <v>4551</v>
       </c>
-      <c r="AU4" s="16">
+      <c r="AV4" s="16">
         <v>42691</v>
       </c>
-      <c r="AV4" s="15" t="s">
+      <c r="AW4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AY4" s="15"/>
       <c r="AZ4" s="15"/>
       <c r="BA4" s="15"/>
-      <c r="BB4" s="10" t="s">
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC4" s="17" t="s">
+      <c r="BG4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="BD4" s="15" t="s">
+      <c r="BH4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE4" s="15" t="s">
+      <c r="BI4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="14" t="s">
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI4" s="14" t="s">
+      <c r="BM4" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ4" s="18" t="s">
+      <c r="BN4" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="BK4" s="21" t="s">
+      <c r="BO4" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -2846,95 +2910,99 @@
       <c r="Z5" s="36"/>
       <c r="AA5" s="36"/>
       <c r="AB5" s="36"/>
-      <c r="AC5" s="3">
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="3">
         <v>1</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0</v>
       </c>
       <c r="AE5" s="3">
         <v>0</v>
       </c>
       <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
         <v>1025</v>
       </c>
-      <c r="AG5" s="37">
+      <c r="AH5" s="37">
         <v>20180328</v>
       </c>
-      <c r="AH5" s="37" t="s">
+      <c r="AI5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI5" s="37" t="s">
+      <c r="AJ5" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ5" s="35">
+      <c r="AK5" s="35">
         <v>29</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AL5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="40" t="s">
+      <c r="AM5" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AM5" s="40" t="s">
+      <c r="AN5" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AO5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO5" s="34" t="s">
+      <c r="AP5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" s="40" t="s">
+      <c r="AQ5" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="AQ5" s="40"/>
       <c r="AR5" s="40"/>
       <c r="AS5" s="40"/>
-      <c r="AT5" s="34" t="s">
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU5" s="39">
+      <c r="AV5" s="39">
         <v>42711</v>
       </c>
-      <c r="AV5" s="40" t="s">
+      <c r="AW5" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW5" s="40"/>
       <c r="AX5" s="40"/>
       <c r="AY5" s="40"/>
       <c r="AZ5" s="40"/>
       <c r="BA5" s="40"/>
-      <c r="BB5" s="41" t="s">
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC5" s="42" t="s">
+      <c r="BG5" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD5" s="40" t="s">
+      <c r="BH5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="40" t="s">
+      <c r="BI5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="3" t="s">
+      <c r="BJ5" s="40"/>
+      <c r="BK5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BH5" s="35" t="s">
+      <c r="BL5" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI5" s="35" t="s">
+      <c r="BM5" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ5" s="37" t="s">
+      <c r="BN5" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK5" s="43" t="s">
+      <c r="BO5" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3015,93 +3083,97 @@
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
       <c r="AB6" s="36"/>
-      <c r="AC6" s="3">
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="3">
         <v>2</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>1</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>2</v>
       </c>
-      <c r="AF6" s="44">
+      <c r="AG6" s="44">
         <v>1024.3</v>
       </c>
-      <c r="AG6" s="36">
+      <c r="AH6" s="36">
         <v>20180228</v>
       </c>
-      <c r="AH6" s="37" t="s">
+      <c r="AI6" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI6" s="36" t="s">
+      <c r="AJ6" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AK6" s="45">
         <v>33</v>
       </c>
-      <c r="AK6" s="41" t="s">
+      <c r="AL6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL6" s="40" t="s">
+      <c r="AM6" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM6" s="40" t="s">
+      <c r="AN6" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN6" s="41" t="s">
+      <c r="AO6" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AO6" s="41" t="s">
+      <c r="AP6" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AP6" s="40" t="s">
+      <c r="AQ6" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="AQ6" s="40"/>
       <c r="AR6" s="40"/>
       <c r="AS6" s="40"/>
-      <c r="AT6" s="41">
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="41">
         <v>4551</v>
       </c>
-      <c r="AU6" s="39">
+      <c r="AV6" s="39">
         <v>42691</v>
       </c>
-      <c r="AV6" s="40" t="s">
+      <c r="AW6" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW6" s="40"/>
       <c r="AX6" s="40"/>
       <c r="AY6" s="40"/>
       <c r="AZ6" s="40"/>
       <c r="BA6" s="40"/>
-      <c r="BB6" s="41" t="s">
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC6" s="42" t="s">
+      <c r="BG6" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD6" s="40" t="s">
+      <c r="BH6" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE6" s="40" t="s">
+      <c r="BI6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="35" t="s">
+      <c r="BJ6" s="40"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI6" s="35" t="s">
+      <c r="BM6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ6" s="37" t="s">
+      <c r="BN6" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK6" s="43" t="s">
+      <c r="BO6" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3181,95 +3253,99 @@
       <c r="Z7" s="36"/>
       <c r="AA7" s="36"/>
       <c r="AB7" s="36"/>
-      <c r="AC7" s="3">
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="3">
         <v>4</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>3</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <v>2.5</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <v>1023.9</v>
       </c>
-      <c r="AG7" s="37">
+      <c r="AH7" s="37">
         <v>20180328</v>
       </c>
-      <c r="AH7" s="37" t="s">
+      <c r="AI7" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI7" s="37" t="s">
+      <c r="AJ7" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ7" s="35">
+      <c r="AK7" s="35">
         <v>29</v>
       </c>
-      <c r="AK7" s="34" t="s">
+      <c r="AL7" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL7" s="40" t="s">
+      <c r="AM7" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="AM7" s="40" t="s">
+      <c r="AN7" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN7" s="34" t="s">
+      <c r="AO7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO7" s="34" t="s">
+      <c r="AP7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP7" s="40" t="s">
+      <c r="AQ7" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="AQ7" s="40"/>
       <c r="AR7" s="40"/>
       <c r="AS7" s="40"/>
-      <c r="AT7" s="34" t="s">
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU7" s="39">
+      <c r="AV7" s="39">
         <v>42711</v>
       </c>
-      <c r="AV7" s="40" t="s">
+      <c r="AW7" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
       <c r="AY7" s="40"/>
       <c r="AZ7" s="40"/>
       <c r="BA7" s="40"/>
-      <c r="BB7" s="41" t="s">
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC7" s="42" t="s">
+      <c r="BG7" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD7" s="40" t="s">
+      <c r="BH7" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE7" s="40" t="s">
+      <c r="BI7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="3" t="s">
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BH7" s="35" t="s">
+      <c r="BL7" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI7" s="35" t="s">
+      <c r="BM7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ7" s="37" t="s">
+      <c r="BN7" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK7" s="43" t="s">
+      <c r="BO7" s="43" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3349,93 +3425,97 @@
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
       <c r="AB8" s="36"/>
-      <c r="AC8" s="3">
-        <v>3</v>
-      </c>
+      <c r="AC8" s="36"/>
       <c r="AD8" s="3">
         <v>3</v>
       </c>
       <c r="AE8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="3">
         <v>5</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>1023.5</v>
       </c>
-      <c r="AG8" s="37">
+      <c r="AH8" s="37">
         <v>20180601</v>
       </c>
-      <c r="AH8" s="37" t="s">
+      <c r="AI8" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI8" s="37" t="s">
+      <c r="AJ8" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ8" s="35">
+      <c r="AK8" s="35">
         <v>32</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AL8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL8" s="40" t="s">
+      <c r="AM8" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM8" s="40" t="s">
+      <c r="AN8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN8" s="34" t="s">
+      <c r="AO8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AO8" s="34" t="s">
+      <c r="AP8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AP8" s="40" t="s">
+      <c r="AQ8" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="AQ8" s="40"/>
       <c r="AR8" s="40"/>
       <c r="AS8" s="40"/>
-      <c r="AT8" s="34" t="s">
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AU8" s="39">
+      <c r="AV8" s="39">
         <v>42711</v>
       </c>
-      <c r="AV8" s="40" t="s">
+      <c r="AW8" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="40"/>
       <c r="AZ8" s="40"/>
       <c r="BA8" s="40"/>
-      <c r="BB8" s="41" t="s">
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC8" s="42" t="s">
+      <c r="BG8" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD8" s="40" t="s">
+      <c r="BH8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE8" s="40" t="s">
+      <c r="BI8" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="BF8" s="40"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="35" t="s">
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI8" s="35" t="s">
+      <c r="BM8" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ8" s="37" t="s">
+      <c r="BN8" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK8" s="43" t="s">
+      <c r="BO8" s="43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -3515,9 +3595,7 @@
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
-      <c r="AC9" s="3">
-        <v>2</v>
-      </c>
+      <c r="AC9" s="36"/>
       <c r="AD9" s="3">
         <v>2</v>
       </c>
@@ -3525,83 +3603,89 @@
         <v>2</v>
       </c>
       <c r="AF9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="3">
         <v>1023.5</v>
       </c>
-      <c r="AG9" s="37">
+      <c r="AH9" s="37">
         <v>20180601</v>
       </c>
-      <c r="AH9" s="37" t="s">
+      <c r="AI9" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI9" s="37" t="s">
+      <c r="AJ9" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ9" s="35">
+      <c r="AK9" s="35">
         <v>30</v>
       </c>
-      <c r="AK9" s="34" t="s">
+      <c r="AL9" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL9" s="38" t="s">
+      <c r="AM9" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AM9" s="38" t="s">
+      <c r="AN9" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AO9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AO9" s="34" t="s">
+      <c r="AP9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AP9" s="38" t="s">
+      <c r="AQ9" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AQ9" s="38"/>
       <c r="AR9" s="38"/>
       <c r="AS9" s="38"/>
-      <c r="AT9" s="34" t="s">
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AU9" s="39">
+      <c r="AV9" s="39">
         <v>42723</v>
       </c>
-      <c r="AV9" s="40" t="s">
+      <c r="AW9" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW9" s="38"/>
       <c r="AX9" s="38"/>
       <c r="AY9" s="38"/>
       <c r="AZ9" s="38"/>
       <c r="BA9" s="38"/>
-      <c r="BB9" s="41" t="s">
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="40"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC9" s="42" t="s">
+      <c r="BG9" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD9" s="40" t="s">
+      <c r="BH9" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE9" s="40" t="s">
+      <c r="BI9" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="35" t="s">
+      <c r="BJ9" s="40"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI9" s="35" t="s">
+      <c r="BM9" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ9" s="37" t="s">
+      <c r="BN9" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK9" s="43" t="s">
+      <c r="BO9" s="43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -3681,93 +3765,97 @@
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
-      <c r="AC10" s="3" t="s">
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>6</v>
       </c>
       <c r="AE10" s="3">
         <v>6</v>
       </c>
-      <c r="AF10" s="44">
+      <c r="AF10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="44">
         <v>1022.7</v>
       </c>
-      <c r="AG10" s="36">
+      <c r="AH10" s="36">
         <v>20180711</v>
       </c>
-      <c r="AH10" s="36" t="s">
+      <c r="AI10" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="AI10" s="36" t="s">
+      <c r="AJ10" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="AJ10" s="45">
+      <c r="AK10" s="45">
         <v>33</v>
       </c>
-      <c r="AK10" s="41" t="s">
+      <c r="AL10" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL10" s="40" t="s">
+      <c r="AM10" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="AM10" s="40" t="s">
+      <c r="AN10" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN10" s="41" t="s">
+      <c r="AO10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AO10" s="41" t="s">
+      <c r="AP10" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AP10" s="40" t="s">
+      <c r="AQ10" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="AQ10" s="40"/>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
-      <c r="AT10" s="41">
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="41">
         <v>4551</v>
       </c>
-      <c r="AU10" s="39">
+      <c r="AV10" s="39">
         <v>42691</v>
       </c>
-      <c r="AV10" s="40" t="s">
+      <c r="AW10" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW10" s="40"/>
       <c r="AX10" s="40"/>
       <c r="AY10" s="40"/>
       <c r="AZ10" s="40"/>
       <c r="BA10" s="40"/>
-      <c r="BB10" s="41" t="s">
+      <c r="BB10" s="40"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC10" s="42" t="s">
+      <c r="BG10" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD10" s="40" t="s">
+      <c r="BH10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE10" s="40" t="s">
+      <c r="BI10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="BF10" s="40"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="35" t="s">
+      <c r="BJ10" s="40"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI10" s="35" t="s">
+      <c r="BM10" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ10" s="37" t="s">
+      <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="BK10" s="57" t="s">
+      <c r="BO10" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -3847,9 +3935,7 @@
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
       <c r="AB11" s="37"/>
-      <c r="AC11" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="37"/>
       <c r="AD11" s="3">
         <v>1</v>
       </c>
@@ -3857,83 +3943,89 @@
         <v>1</v>
       </c>
       <c r="AF11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
         <v>1022.5</v>
       </c>
-      <c r="AG11" s="37">
+      <c r="AH11" s="37">
         <v>20180907</v>
       </c>
-      <c r="AH11" s="37" t="s">
+      <c r="AI11" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AI11" s="37" t="s">
+      <c r="AJ11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AJ11" s="35">
+      <c r="AK11" s="35">
         <v>32</v>
       </c>
-      <c r="AK11" s="34" t="s">
+      <c r="AL11" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL11" s="38" t="s">
+      <c r="AM11" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="AM11" s="38" t="s">
+      <c r="AN11" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN11" s="34" t="s">
+      <c r="AO11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AO11" s="34" t="s">
+      <c r="AP11" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AP11" s="38" t="s">
+      <c r="AQ11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AQ11" s="38"/>
       <c r="AR11" s="38"/>
       <c r="AS11" s="38"/>
-      <c r="AT11" s="34" t="s">
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AU11" s="39">
+      <c r="AV11" s="39">
         <v>42711</v>
       </c>
-      <c r="AV11" s="40" t="s">
+      <c r="AW11" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
       <c r="AY11" s="38"/>
       <c r="AZ11" s="38"/>
       <c r="BA11" s="38"/>
-      <c r="BB11" s="41" t="s">
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC11" s="42" t="s">
+      <c r="BG11" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD11" s="40" t="s">
+      <c r="BH11" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE11" s="40" t="s">
+      <c r="BI11" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="BF11" s="40"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="35" t="s">
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI11" s="35" t="s">
+      <c r="BM11" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ11" s="37" t="s">
+      <c r="BN11" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK11" s="57" t="s">
+      <c r="BO11" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4015,95 +4107,99 @@
       </c>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
-      <c r="AC12" s="3">
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="3">
         <v>8</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>7</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>4.5</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>1022.5</v>
       </c>
-      <c r="AG12" s="37">
+      <c r="AH12" s="37">
         <v>20180228</v>
       </c>
-      <c r="AH12" s="37" t="s">
+      <c r="AI12" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="AI12" s="37" t="s">
+      <c r="AJ12" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AJ12" s="35">
+      <c r="AK12" s="35">
         <v>42</v>
       </c>
-      <c r="AK12" s="34" t="s">
+      <c r="AL12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL12" s="38" t="s">
+      <c r="AM12" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AM12" s="38" t="s">
+      <c r="AN12" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN12" s="34" t="s">
+      <c r="AO12" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="34" t="s">
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AR12" s="38" t="s">
+      <c r="AS12" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AS12" s="38" t="s">
+      <c r="AT12" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AT12" s="34" t="s">
+      <c r="AU12" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU12" s="39">
+      <c r="AV12" s="39">
         <v>42859</v>
       </c>
-      <c r="AV12" s="40" t="s">
+      <c r="AW12" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW12" s="38"/>
       <c r="AX12" s="38"/>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="38"/>
       <c r="BA12" s="38"/>
-      <c r="BB12" s="41" t="s">
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC12" s="42" t="s">
+      <c r="BG12" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD12" s="40" t="s">
+      <c r="BH12" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE12" s="40" t="s">
+      <c r="BI12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="BF12" s="40"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="35" t="s">
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI12" s="35" t="s">
+      <c r="BM12" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ12" s="37" t="s">
+      <c r="BN12" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK12" s="57" t="s">
+      <c r="BO12" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4183,95 +4279,99 @@
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
-      <c r="AC13" s="3" t="s">
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>3</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <v>8</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AG13" s="3">
         <v>1025</v>
       </c>
-      <c r="AG13" s="37">
+      <c r="AH13" s="37">
         <v>20181016</v>
       </c>
-      <c r="AH13" s="37" t="s">
+      <c r="AI13" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI13" s="37" t="s">
+      <c r="AJ13" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ13" s="35">
+      <c r="AK13" s="35">
         <v>30</v>
       </c>
-      <c r="AK13" s="34" t="s">
+      <c r="AL13" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL13" s="38" t="s">
+      <c r="AM13" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="AM13" s="38" t="s">
+      <c r="AN13" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN13" s="34" t="s">
+      <c r="AO13" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AO13" s="34" t="s">
+      <c r="AP13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AP13" s="38" t="s">
+      <c r="AQ13" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="AQ13" s="38"/>
       <c r="AR13" s="38"/>
       <c r="AS13" s="38"/>
-      <c r="AT13" s="34" t="s">
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AU13" s="39">
+      <c r="AV13" s="39">
         <v>42723</v>
       </c>
-      <c r="AV13" s="38" t="s">
+      <c r="AW13" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AW13" s="38"/>
       <c r="AX13" s="38"/>
       <c r="AY13" s="38"/>
       <c r="AZ13" s="38"/>
       <c r="BA13" s="38"/>
-      <c r="BB13" s="41" t="s">
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC13" s="42" t="s">
+      <c r="BG13" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD13" s="38" t="s">
+      <c r="BH13" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BE13" s="38" t="s">
+      <c r="BI13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="3" t="s">
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BH13" s="35" t="s">
+      <c r="BL13" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="BI13" s="35" t="s">
+      <c r="BM13" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ13" s="37" t="s">
+      <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="BK13" s="58" t="s">
+      <c r="BO13" s="58" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4351,93 +4451,97 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="3">
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="3">
         <v>5</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1.5</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AG14" s="3">
         <v>1024.5</v>
       </c>
-      <c r="AG14" s="37">
+      <c r="AH14" s="37">
         <v>20180907</v>
       </c>
-      <c r="AH14" s="37" t="s">
+      <c r="AI14" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AI14" s="37" t="s">
+      <c r="AJ14" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="AJ14" s="35">
+      <c r="AK14" s="35">
         <v>29</v>
       </c>
-      <c r="AK14" s="34" t="s">
+      <c r="AL14" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL14" s="38" t="s">
+      <c r="AM14" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="AM14" s="38" t="s">
+      <c r="AN14" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN14" s="34" t="s">
+      <c r="AO14" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO14" s="34" t="s">
+      <c r="AP14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP14" s="38" t="s">
+      <c r="AQ14" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="AQ14" s="38"/>
       <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
-      <c r="AT14" s="34" t="s">
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU14" s="39">
+      <c r="AV14" s="39">
         <v>42711</v>
       </c>
-      <c r="AV14" s="40" t="s">
+      <c r="AW14" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW14" s="38"/>
       <c r="AX14" s="38"/>
       <c r="AY14" s="38"/>
       <c r="AZ14" s="38"/>
       <c r="BA14" s="38"/>
-      <c r="BB14" s="41" t="s">
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC14" s="42" t="s">
+      <c r="BG14" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD14" s="40" t="s">
+      <c r="BH14" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE14" s="40" t="s">
+      <c r="BI14" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="BF14" s="40"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="35" t="s">
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI14" s="35" t="s">
+      <c r="BM14" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ14" s="37" t="s">
+      <c r="BN14" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK14" s="43" t="s">
+      <c r="BO14" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -4519,9 +4623,7 @@
       </c>
       <c r="AA15" s="37"/>
       <c r="AB15" s="37"/>
-      <c r="AC15" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC15" s="37"/>
       <c r="AD15" s="3">
         <v>1</v>
       </c>
@@ -4529,85 +4631,91 @@
         <v>1</v>
       </c>
       <c r="AF15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="3">
         <v>1024.5</v>
       </c>
-      <c r="AG15" s="37">
+      <c r="AH15" s="37">
         <v>20180228</v>
       </c>
-      <c r="AH15" s="37" t="s">
+      <c r="AI15" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AI15" s="37" t="s">
+      <c r="AJ15" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AJ15" s="35">
+      <c r="AK15" s="35">
         <v>42</v>
       </c>
-      <c r="AK15" s="34" t="s">
+      <c r="AL15" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL15" s="38" t="s">
+      <c r="AM15" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="AM15" s="38" t="s">
+      <c r="AN15" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN15" s="34" t="s">
+      <c r="AO15" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="34" t="s">
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AR15" s="38" t="s">
+      <c r="AS15" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="AS15" s="38" t="s">
+      <c r="AT15" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AT15" s="34" t="s">
+      <c r="AU15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU15" s="39">
+      <c r="AV15" s="39">
         <v>42859</v>
       </c>
-      <c r="AV15" s="40" t="s">
+      <c r="AW15" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW15" s="38"/>
       <c r="AX15" s="38"/>
       <c r="AY15" s="38"/>
       <c r="AZ15" s="38"/>
       <c r="BA15" s="38"/>
-      <c r="BB15" s="41" t="s">
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="40"/>
+      <c r="BF15" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC15" s="42" t="s">
+      <c r="BG15" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD15" s="40" t="s">
+      <c r="BH15" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE15" s="40" t="s">
+      <c r="BI15" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="BF15" s="40"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="35" t="s">
+      <c r="BJ15" s="40"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI15" s="35" t="s">
+      <c r="BM15" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ15" s="37" t="s">
+      <c r="BN15" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK15" s="43" t="s">
+      <c r="BO15" s="43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -4687,9 +4795,7 @@
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
+      <c r="AC16" s="37"/>
       <c r="AD16" s="3">
         <v>0</v>
       </c>
@@ -4697,85 +4803,91 @@
         <v>0</v>
       </c>
       <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
         <v>1024.8</v>
       </c>
-      <c r="AG16" s="37">
+      <c r="AH16" s="37">
         <v>20180907</v>
       </c>
-      <c r="AH16" s="37" t="s">
+      <c r="AI16" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AI16" s="37" t="s">
+      <c r="AJ16" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="AJ16" s="35">
+      <c r="AK16" s="35">
         <v>29</v>
       </c>
-      <c r="AK16" s="34" t="s">
+      <c r="AL16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL16" s="38" t="s">
+      <c r="AM16" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="AM16" s="38" t="s">
+      <c r="AN16" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AN16" s="34" t="s">
+      <c r="AO16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO16" s="34" t="s">
+      <c r="AP16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP16" s="38" t="s">
+      <c r="AQ16" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="AQ16" s="38"/>
       <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
-      <c r="AT16" s="34" t="s">
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU16" s="39">
+      <c r="AV16" s="39">
         <v>42711</v>
       </c>
-      <c r="AV16" s="38" t="s">
+      <c r="AW16" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AW16" s="38"/>
       <c r="AX16" s="38"/>
       <c r="AY16" s="38"/>
       <c r="AZ16" s="38"/>
       <c r="BA16" s="38"/>
-      <c r="BB16" s="41" t="s">
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="40"/>
+      <c r="BE16" s="40"/>
+      <c r="BF16" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC16" s="42" t="s">
+      <c r="BG16" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD16" s="38" t="s">
+      <c r="BH16" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BE16" s="38" t="s">
+      <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BF16" s="38" t="s">
+      <c r="BJ16" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="35" t="s">
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BM16" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ16" s="37" t="s">
+      <c r="BN16" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK16" s="43" t="s">
+      <c r="BO16" s="43" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="98">
         <v>13</v>
       </c>
@@ -4854,95 +4966,99 @@
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
-      <c r="AC17" s="3">
-        <v>1</v>
-      </c>
+      <c r="AC17" s="37"/>
       <c r="AD17" s="3">
         <v>1</v>
       </c>
       <c r="AE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3">
         <v>2</v>
       </c>
-      <c r="AF17" s="44">
+      <c r="AG17" s="44">
         <v>1024.8</v>
       </c>
-      <c r="AG17" s="36">
+      <c r="AH17" s="36">
         <v>20180711</v>
       </c>
-      <c r="AH17" s="36" t="s">
+      <c r="AI17" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="AI17" s="36" t="s">
+      <c r="AJ17" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="AJ17" s="45">
+      <c r="AK17" s="45">
         <v>33</v>
       </c>
-      <c r="AK17" s="41" t="s">
+      <c r="AL17" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL17" s="40" t="s">
+      <c r="AM17" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="AM17" s="40" t="s">
+      <c r="AN17" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AN17" s="41" t="s">
+      <c r="AO17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AO17" s="41" t="s">
+      <c r="AP17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AP17" s="40" t="s">
+      <c r="AQ17" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="AQ17" s="40"/>
       <c r="AR17" s="40"/>
       <c r="AS17" s="40"/>
-      <c r="AT17" s="41">
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="41">
         <v>4551</v>
       </c>
-      <c r="AU17" s="39">
+      <c r="AV17" s="39">
         <v>42691</v>
       </c>
-      <c r="AV17" s="40" t="s">
+      <c r="AW17" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AW17" s="40"/>
       <c r="AX17" s="40"/>
       <c r="AY17" s="40"/>
       <c r="AZ17" s="40"/>
       <c r="BA17" s="40"/>
-      <c r="BB17" s="41" t="s">
+      <c r="BB17" s="40"/>
+      <c r="BC17" s="40"/>
+      <c r="BD17" s="40"/>
+      <c r="BE17" s="40"/>
+      <c r="BF17" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC17" s="42" t="s">
+      <c r="BG17" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD17" s="40" t="s">
+      <c r="BH17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE17" s="38" t="s">
+      <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BF17" s="38" t="s">
+      <c r="BJ17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="35" t="s">
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI17" s="35" t="s">
+      <c r="BM17" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ17" s="37" t="s">
+      <c r="BN17" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK17" s="43" t="s">
+      <c r="BO17" s="43" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5021,95 +5137,99 @@
       <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="2" t="s">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AE18" s="2">
         <v>1</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AF18" s="2">
         <v>0</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AG18" s="2">
         <v>1025</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AH18" s="18">
         <v>20180907</v>
       </c>
-      <c r="AH18" s="18" t="s">
+      <c r="AI18" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="AI18" s="18" t="s">
+      <c r="AJ18" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ18" s="14">
+      <c r="AK18" s="14">
         <v>29</v>
       </c>
-      <c r="AK18" s="20" t="s">
+      <c r="AL18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL18" s="22" t="s">
+      <c r="AM18" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM18" s="22" t="s">
+      <c r="AN18" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AN18" s="20" t="s">
+      <c r="AO18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AO18" s="20" t="s">
+      <c r="AP18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AP18" s="22" t="s">
+      <c r="AQ18" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AQ18" s="22"/>
       <c r="AR18" s="22"/>
       <c r="AS18" s="22"/>
-      <c r="AT18" s="20" t="s">
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AU18" s="16">
+      <c r="AV18" s="16">
         <v>42711</v>
       </c>
-      <c r="AV18" s="22" t="s">
+      <c r="AW18" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AW18" s="22"/>
       <c r="AX18" s="22"/>
       <c r="AY18" s="22"/>
       <c r="AZ18" s="22"/>
       <c r="BA18" s="22"/>
-      <c r="BB18" s="10" t="s">
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC18" s="17" t="s">
+      <c r="BG18" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD18" s="22" t="s">
+      <c r="BH18" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE18" s="22" t="s">
+      <c r="BI18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF18" s="22"/>
-      <c r="BG18" s="2" t="s">
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BH18" s="14" t="s">
+      <c r="BL18" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI18" s="14" t="s">
+      <c r="BM18" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ18" s="18" t="s">
+      <c r="BN18" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK18" s="21" t="s">
+      <c r="BO18" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5184,9 +5304,7 @@
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
-      <c r="AC19" s="2">
-        <v>0</v>
-      </c>
+      <c r="AC19" s="18"/>
       <c r="AD19" s="2">
         <v>0</v>
       </c>
@@ -5194,83 +5312,89 @@
         <v>0</v>
       </c>
       <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
         <v>1024.5</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AH19" s="12">
         <v>20180711</v>
       </c>
-      <c r="AH19" s="12" t="s">
+      <c r="AI19" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AI19" s="12" t="s">
+      <c r="AJ19" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AK19" s="11">
         <v>33</v>
       </c>
-      <c r="AK19" s="10" t="s">
+      <c r="AL19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL19" s="15" t="s">
+      <c r="AM19" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="AM19" s="15" t="s">
+      <c r="AN19" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AN19" s="10" t="s">
+      <c r="AO19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO19" s="10" t="s">
+      <c r="AP19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AP19" s="15" t="s">
+      <c r="AQ19" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="AQ19" s="15"/>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
-      <c r="AT19" s="10">
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="10">
         <v>4551</v>
       </c>
-      <c r="AU19" s="16">
+      <c r="AV19" s="16">
         <v>42691</v>
       </c>
-      <c r="AV19" s="59" t="s">
+      <c r="AW19" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="AW19" s="15"/>
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="15"/>
       <c r="BA19" s="15"/>
-      <c r="BB19" s="10" t="s">
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC19" s="17" t="s">
+      <c r="BG19" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD19" s="60" t="s">
+      <c r="BH19" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="BE19" s="60" t="s">
+      <c r="BI19" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BF19" s="22"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="14" t="s">
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI19" s="14" t="s">
+      <c r="BM19" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="BJ19" s="18" t="s">
+      <c r="BN19" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK19" s="21" t="s">
+      <c r="BO19" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="54" t="s">
         <v>135</v>
       </c>
@@ -5304,45 +5428,49 @@
       <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
-      <c r="AC20" s="2"/>
+      <c r="AC20" s="18"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="18"/>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="18"/>
       <c r="AI20" s="18"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="22"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="20"/>
       <c r="AM20" s="22"/>
-      <c r="AN20" s="20"/>
+      <c r="AN20" s="22"/>
       <c r="AO20" s="20"/>
-      <c r="AP20" s="22"/>
+      <c r="AP20" s="20"/>
       <c r="AQ20" s="22"/>
       <c r="AR20" s="22"/>
       <c r="AS20" s="22"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="16"/>
       <c r="AW20" s="22"/>
       <c r="AX20" s="22"/>
       <c r="AY20" s="22"/>
       <c r="AZ20" s="22"/>
       <c r="BA20" s="22"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="55"/>
+      <c r="BB20" s="22"/>
+      <c r="BC20" s="22"/>
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="2"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="18" t="s">
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK20" s="21"/>
+      <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="94">
         <v>3</v>
       </c>
@@ -5421,9 +5549,7 @@
       <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
-      <c r="AC21" s="2">
-        <v>0</v>
-      </c>
+      <c r="AC21" s="18"/>
       <c r="AD21" s="2">
         <v>0</v>
       </c>
@@ -5431,85 +5557,91 @@
         <v>0</v>
       </c>
       <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
         <v>1023.5</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AH21" s="18">
         <v>20181016</v>
       </c>
-      <c r="AH21" s="18" t="s">
+      <c r="AI21" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AJ21" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ21" s="14">
+      <c r="AK21" s="14">
         <v>30</v>
       </c>
-      <c r="AK21" s="20" t="s">
+      <c r="AL21" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL21" s="22" t="s">
+      <c r="AM21" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM21" s="22" t="s">
+      <c r="AN21" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN21" s="20" t="s">
+      <c r="AO21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AO21" s="20" t="s">
+      <c r="AP21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AP21" s="22" t="s">
+      <c r="AQ21" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AQ21" s="22"/>
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
-      <c r="AT21" s="20" t="s">
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AU21" s="16">
+      <c r="AV21" s="16">
         <v>42723</v>
       </c>
-      <c r="AV21" s="22" t="s">
+      <c r="AW21" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AW21" s="22"/>
       <c r="AX21" s="22"/>
       <c r="AY21" s="22"/>
       <c r="AZ21" s="22"/>
       <c r="BA21" s="22"/>
-      <c r="BB21" s="10" t="s">
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC21" s="17" t="s">
+      <c r="BG21" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD21" s="22" t="s">
+      <c r="BH21" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE21" s="22" t="s">
+      <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF21" s="22" t="s">
+      <c r="BJ21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="14" t="s">
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="BI21" s="14" t="s">
+      <c r="BM21" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ21" s="18" t="s">
+      <c r="BN21" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK21" s="21" t="s">
+      <c r="BO21" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="94">
         <v>3</v>
       </c>
@@ -5589,95 +5721,99 @@
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
-      <c r="AC22" s="2">
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="2">
         <v>1</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
       </c>
       <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
         <v>1024.4000000000001</v>
       </c>
-      <c r="AG22" s="18">
+      <c r="AH22" s="18">
         <v>20190509</v>
       </c>
-      <c r="AH22" s="18" t="s">
+      <c r="AI22" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="AI22" s="18" t="s">
+      <c r="AJ22" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ22" s="14">
+      <c r="AK22" s="14">
         <v>32</v>
       </c>
-      <c r="AK22" s="20" t="s">
+      <c r="AL22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AL22" s="22" t="s">
+      <c r="AM22" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="AM22" s="22" t="s">
+      <c r="AN22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AN22" s="20" t="s">
+      <c r="AO22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AO22" s="20" t="s">
+      <c r="AP22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AP22" s="22" t="s">
+      <c r="AQ22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AQ22" s="22"/>
       <c r="AR22" s="22"/>
       <c r="AS22" s="22"/>
-      <c r="AT22" s="20" t="s">
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AU22" s="16">
+      <c r="AV22" s="16">
         <v>42711</v>
       </c>
-      <c r="AV22" s="22" t="s">
+      <c r="AW22" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AW22" s="22"/>
       <c r="AX22" s="22"/>
       <c r="AY22" s="22"/>
       <c r="AZ22" s="22"/>
       <c r="BA22" s="22"/>
-      <c r="BB22" s="10" t="s">
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC22" s="17" t="s">
+      <c r="BG22" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD22" s="22" t="s">
+      <c r="BH22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE22" s="22" t="s">
+      <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF22" s="22" t="s">
+      <c r="BJ22" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="14" t="s">
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI22" s="14" t="s">
+      <c r="BM22" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ22" s="18" t="s">
+      <c r="BN22" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK22" s="21" t="s">
+      <c r="BO22" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -5757,95 +5893,99 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
-      <c r="AC23" s="2">
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="2">
         <v>7</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AE23" s="2">
         <v>6</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AF23" s="2">
         <v>3.5</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AG23" s="2">
         <v>1023</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AH23" s="18">
         <v>20181016</v>
       </c>
-      <c r="AH23" s="18" t="s">
+      <c r="AI23" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="AI23" s="18" t="s">
+      <c r="AJ23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ23" s="14">
+      <c r="AK23" s="14">
         <v>30</v>
       </c>
-      <c r="AK23" s="20" t="s">
+      <c r="AL23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL23" s="22" t="s">
+      <c r="AM23" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM23" s="22" t="s">
+      <c r="AN23" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN23" s="20" t="s">
+      <c r="AO23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AO23" s="20" t="s">
+      <c r="AP23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AP23" s="22" t="s">
+      <c r="AQ23" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AQ23" s="22"/>
       <c r="AR23" s="22"/>
       <c r="AS23" s="22"/>
-      <c r="AT23" s="20" t="s">
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AU23" s="16">
+      <c r="AV23" s="16">
         <v>42723</v>
       </c>
-      <c r="AV23" s="22" t="s">
+      <c r="AW23" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AW23" s="22"/>
       <c r="AX23" s="22"/>
       <c r="AY23" s="22"/>
       <c r="AZ23" s="22"/>
       <c r="BA23" s="22"/>
-      <c r="BB23" s="10" t="s">
+      <c r="BB23" s="22"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC23" s="17" t="s">
+      <c r="BG23" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD23" s="22" t="s">
+      <c r="BH23" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE23" s="22" t="s">
+      <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF23" s="22" t="s">
+      <c r="BJ23" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="14" t="s">
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI23" s="14" t="s">
+      <c r="BM23" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ23" s="18" t="s">
+      <c r="BN23" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK23" s="21" t="s">
+      <c r="BO23" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -5925,95 +6065,99 @@
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
-      <c r="AC24" s="2">
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="2">
         <v>8</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AE24" s="2">
         <v>6</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AF24" s="2">
         <v>3.5</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AG24" s="2">
         <v>1023</v>
       </c>
-      <c r="AG24" s="18">
+      <c r="AH24" s="18">
         <v>20181016</v>
       </c>
-      <c r="AH24" s="18" t="s">
+      <c r="AI24" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="AI24" s="18" t="s">
+      <c r="AJ24" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ24" s="14">
+      <c r="AK24" s="14">
         <v>30</v>
       </c>
-      <c r="AK24" s="20" t="s">
+      <c r="AL24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL24" s="22" t="s">
+      <c r="AM24" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM24" s="22" t="s">
+      <c r="AN24" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN24" s="20" t="s">
+      <c r="AO24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AO24" s="20" t="s">
+      <c r="AP24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AP24" s="22" t="s">
+      <c r="AQ24" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AQ24" s="22"/>
       <c r="AR24" s="22"/>
       <c r="AS24" s="22"/>
-      <c r="AT24" s="20" t="s">
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AU24" s="16">
+      <c r="AV24" s="16">
         <v>42723</v>
       </c>
-      <c r="AV24" s="22" t="s">
+      <c r="AW24" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AW24" s="22"/>
       <c r="AX24" s="22"/>
       <c r="AY24" s="22"/>
       <c r="AZ24" s="22"/>
       <c r="BA24" s="22"/>
-      <c r="BB24" s="10" t="s">
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC24" s="17" t="s">
+      <c r="BG24" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD24" s="22" t="s">
+      <c r="BH24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE24" s="22" t="s">
+      <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF24" s="22" t="s">
+      <c r="BJ24" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="14" t="s">
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="BI24" s="14" t="s">
+      <c r="BM24" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ24" s="18" t="s">
+      <c r="BN24" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="BK24" s="21" t="s">
+      <c r="BO24" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6093,93 +6237,97 @@
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
-      <c r="AC25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AC25" s="18"/>
       <c r="AD25" s="2">
         <v>1</v>
       </c>
       <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="2">
         <v>0.25</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AG25" s="2">
         <v>1025</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AH25" s="18">
         <v>20190509</v>
       </c>
-      <c r="AH25" s="18" t="s">
+      <c r="AI25" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="AI25" s="18" t="s">
+      <c r="AJ25" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ25" s="14">
+      <c r="AK25" s="14">
         <v>32</v>
       </c>
-      <c r="AK25" s="20" t="s">
+      <c r="AL25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL25" s="22" t="s">
+      <c r="AM25" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM25" s="22" t="s">
+      <c r="AN25" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AN25" s="20" t="s">
+      <c r="AO25" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AO25" s="20" t="s">
+      <c r="AP25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AP25" s="22" t="s">
+      <c r="AQ25" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AQ25" s="22"/>
       <c r="AR25" s="22"/>
       <c r="AS25" s="22"/>
-      <c r="AT25" s="20" t="s">
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AU25" s="16">
+      <c r="AV25" s="16">
         <v>42711</v>
       </c>
-      <c r="AV25" s="15" t="s">
+      <c r="AW25" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AW25" s="22"/>
       <c r="AX25" s="22"/>
       <c r="AY25" s="22"/>
       <c r="AZ25" s="22"/>
       <c r="BA25" s="22"/>
-      <c r="BB25" s="10" t="s">
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC25" s="17" t="s">
+      <c r="BG25" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD25" s="15" t="s">
+      <c r="BH25" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE25" s="22" t="s">
+      <c r="BI25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BF25" s="22"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="14" t="s">
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI25" s="14" t="s">
+      <c r="BM25" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="BJ25" s="18" t="s">
+      <c r="BN25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="BK25" s="56" t="s">
+      <c r="BO25" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6259,92 +6407,96 @@
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
-      <c r="AC26" s="2" t="s">
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AE26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AF26" s="2">
         <f>1+15</f>
         <v>16</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AG26" s="2">
         <v>1022.5</v>
       </c>
-      <c r="AG26" s="18">
+      <c r="AH26" s="18">
         <v>20180816</v>
       </c>
-      <c r="AH26" s="18" t="s">
+      <c r="AI26" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="AI26" s="18" t="s">
+      <c r="AJ26" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ26" s="14">
+      <c r="AK26" s="14">
         <v>29</v>
       </c>
-      <c r="AK26" s="20" t="s">
+      <c r="AL26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AL26" s="22" t="s">
+      <c r="AM26" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="AM26" s="22" t="s">
+      <c r="AN26" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN26" s="20" t="s">
+      <c r="AO26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="22"/>
+      <c r="AP26" s="20"/>
       <c r="AQ26" s="22"/>
       <c r="AR26" s="22"/>
       <c r="AS26" s="22"/>
-      <c r="AT26" s="20" t="s">
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AU26" s="16">
+      <c r="AV26" s="16">
         <v>42711</v>
       </c>
-      <c r="AV26" s="15" t="s">
+      <c r="AW26" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AW26" s="22"/>
       <c r="AX26" s="22"/>
       <c r="AY26" s="22"/>
       <c r="AZ26" s="22"/>
       <c r="BA26" s="22"/>
-      <c r="BB26" s="10" t="s">
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC26" s="17" t="s">
+      <c r="BG26" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD26" s="60" t="s">
+      <c r="BH26" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="BE26" s="60" t="s">
+      <c r="BI26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BF26" s="22" t="s">
+      <c r="BJ26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="14" t="s">
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI26" s="14" t="s">
+      <c r="BM26" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ26" s="18" t="s">
+      <c r="BN26" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="BK26" s="21" t="s">
+      <c r="BO26" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -6424,96 +6576,100 @@
       <c r="Z27" s="18"/>
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
-      <c r="AC27" s="2">
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="2">
         <v>3</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>2</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AF27" s="2">
         <f>1+1+15</f>
         <v>17</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AG27" s="2">
         <v>1022.5</v>
       </c>
-      <c r="AG27" s="18">
+      <c r="AH27" s="18">
         <v>20181016</v>
       </c>
-      <c r="AH27" s="18" t="s">
+      <c r="AI27" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="AI27" s="18" t="s">
+      <c r="AJ27" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ27" s="14">
+      <c r="AK27" s="14">
         <v>30</v>
       </c>
-      <c r="AK27" s="20" t="s">
+      <c r="AL27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="AL27" s="22" t="s">
+      <c r="AM27" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AM27" s="22" t="s">
+      <c r="AN27" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN27" s="20" t="s">
+      <c r="AO27" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="AO27" s="20" t="s">
+      <c r="AP27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="AP27" s="22" t="s">
+      <c r="AQ27" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AQ27" s="22"/>
       <c r="AR27" s="22"/>
       <c r="AS27" s="22"/>
-      <c r="AT27" s="20" t="s">
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AU27" s="16">
+      <c r="AV27" s="16">
         <v>42723</v>
       </c>
-      <c r="AV27" s="15" t="s">
+      <c r="AW27" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AW27" s="22"/>
       <c r="AX27" s="22"/>
       <c r="AY27" s="22"/>
       <c r="AZ27" s="22"/>
       <c r="BA27" s="22"/>
-      <c r="BB27" s="10" t="s">
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC27" s="17" t="s">
+      <c r="BG27" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD27" s="22" t="s">
+      <c r="BH27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="BE27" s="22" t="s">
+      <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF27" s="22" t="s">
+      <c r="BJ27" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="14" t="s">
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI27" s="14" t="s">
+      <c r="BM27" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ27" s="18" t="s">
+      <c r="BN27" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="BK27" s="21" t="s">
+      <c r="BO27" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -6592,93 +6748,97 @@
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
-      <c r="AC28" s="2">
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="2">
         <v>1</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
       </c>
       <c r="AE28" s="2">
         <v>0</v>
       </c>
       <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
         <v>1025</v>
       </c>
-      <c r="AG28" s="18">
+      <c r="AH28" s="18">
         <v>20190509</v>
       </c>
-      <c r="AH28" s="18" t="s">
+      <c r="AI28" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="AI28" s="18" t="s">
+      <c r="AJ28" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ28" s="14">
+      <c r="AK28" s="14">
         <v>32</v>
       </c>
-      <c r="AK28" s="20" t="s">
+      <c r="AL28" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL28" s="22" t="s">
+      <c r="AM28" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AM28" s="22" t="s">
+      <c r="AN28" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AN28" s="20" t="s">
+      <c r="AO28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AO28" s="20" t="s">
+      <c r="AP28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AP28" s="22" t="s">
+      <c r="AQ28" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="AQ28" s="22"/>
       <c r="AR28" s="22"/>
       <c r="AS28" s="22"/>
-      <c r="AT28" s="20" t="s">
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AU28" s="16">
+      <c r="AV28" s="16">
         <v>42711</v>
       </c>
-      <c r="AV28" s="15" t="s">
+      <c r="AW28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AW28" s="22"/>
       <c r="AX28" s="22"/>
       <c r="AY28" s="22"/>
       <c r="AZ28" s="22"/>
       <c r="BA28" s="22"/>
-      <c r="BB28" s="10" t="s">
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC28" s="17" t="s">
+      <c r="BG28" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD28" s="15" t="s">
+      <c r="BH28" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE28" s="22" t="s">
+      <c r="BI28" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="14" t="s">
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI28" s="14" t="s">
+      <c r="BM28" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="BJ28" s="18" t="s">
+      <c r="BN28" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="BK28" s="56" t="s">
+      <c r="BO28" s="56" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -6758,95 +6918,99 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
-      <c r="AC29" s="2">
-        <v>2</v>
-      </c>
+      <c r="AC29" s="18"/>
       <c r="AD29" s="2">
         <v>2</v>
       </c>
       <c r="AE29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="2">
         <v>1</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AG29" s="2">
         <v>1023.25</v>
       </c>
-      <c r="AG29" s="18">
+      <c r="AH29" s="18">
         <v>20190906</v>
       </c>
-      <c r="AH29" s="18" t="s">
+      <c r="AI29" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="AI29" s="18" t="s">
+      <c r="AJ29" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ29" s="14">
+      <c r="AK29" s="14">
         <v>33</v>
       </c>
-      <c r="AK29" s="10" t="s">
+      <c r="AL29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL29" s="22" t="s">
+      <c r="AM29" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="AM29" s="22" t="s">
+      <c r="AN29" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN29" s="10" t="s">
+      <c r="AO29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO29" s="10" t="s">
+      <c r="AP29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AP29" s="22" t="s">
+      <c r="AQ29" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="AQ29" s="15"/>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
-      <c r="AT29" s="10">
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="10">
         <v>4551</v>
       </c>
-      <c r="AU29" s="16">
+      <c r="AV29" s="16">
         <v>42691</v>
       </c>
-      <c r="AV29" s="22" t="s">
+      <c r="AW29" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AW29" s="15"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="15"/>
       <c r="AZ29" s="15"/>
       <c r="BA29" s="15"/>
-      <c r="BB29" s="10" t="s">
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC29" s="55" t="s">
+      <c r="BG29" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="BD29" s="15" t="s">
+      <c r="BH29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="BE29" s="22" t="s">
+      <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BF29" s="22" t="s">
+      <c r="BJ29" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="14" t="s">
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI29" s="14" t="s">
+      <c r="BM29" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ29" s="18" t="s">
+      <c r="BN29" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK29" s="21" t="s">
+      <c r="BO29" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -6927,79 +7091,83 @@
         <v>96</v>
       </c>
       <c r="AB30" s="18"/>
-      <c r="AC30" s="2">
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="2">
         <v>7</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AE30" s="2">
         <v>4</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AF30" s="2">
         <v>3.5</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AG30" s="2">
         <v>1023.25</v>
       </c>
-      <c r="AG30" s="18">
+      <c r="AH30" s="18">
         <v>20190906</v>
       </c>
-      <c r="AH30" s="18" t="s">
+      <c r="AI30" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="AI30" s="18" t="s">
+      <c r="AJ30" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="AJ30" s="14">
+      <c r="AK30" s="14">
         <v>58</v>
       </c>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="22"/>
+      <c r="AL30" s="20"/>
       <c r="AM30" s="22"/>
-      <c r="AN30" s="20"/>
+      <c r="AN30" s="22"/>
       <c r="AO30" s="20"/>
-      <c r="AP30" s="22"/>
+      <c r="AP30" s="20"/>
       <c r="AQ30" s="22"/>
       <c r="AR30" s="22"/>
       <c r="AS30" s="22"/>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="16"/>
-      <c r="AV30" s="15"/>
-      <c r="AW30" s="22" t="s">
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="AX30" s="22" t="s">
+      <c r="AY30" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AY30" s="22"/>
       <c r="AZ30" s="22"/>
       <c r="BA30" s="22"/>
-      <c r="BB30" s="10" t="s">
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC30" s="55" t="s">
+      <c r="BG30" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="BD30" s="22" t="s">
+      <c r="BH30" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BE30" s="22" t="s">
+      <c r="BI30" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BF30" s="22"/>
-      <c r="BG30" s="2"/>
-      <c r="BH30" s="14" t="s">
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI30" s="14" t="s">
+      <c r="BM30" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ30" s="18" t="s">
+      <c r="BN30" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK30" s="21" t="s">
+      <c r="BO30" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7079,95 +7247,99 @@
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
       <c r="AB31" s="18"/>
-      <c r="AC31" s="2">
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="2">
         <v>1</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0</v>
       </c>
       <c r="AE31" s="2">
         <v>0</v>
       </c>
       <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
         <v>1023.25</v>
       </c>
-      <c r="AG31" s="18">
+      <c r="AH31" s="18">
         <v>20190509</v>
       </c>
-      <c r="AH31" s="18" t="s">
+      <c r="AI31" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="AI31" s="18" t="s">
+      <c r="AJ31" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="AJ31" s="14">
+      <c r="AK31" s="14">
         <v>32</v>
       </c>
-      <c r="AK31" s="20" t="s">
+      <c r="AL31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AL31" s="22" t="s">
+      <c r="AM31" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="AM31" s="22" t="s">
+      <c r="AN31" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN31" s="20" t="s">
+      <c r="AO31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="AO31" s="20" t="s">
+      <c r="AP31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AP31" s="22" t="s">
+      <c r="AQ31" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="AQ31" s="22"/>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
-      <c r="AT31" s="20" t="s">
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AU31" s="16">
+      <c r="AV31" s="16">
         <v>42711</v>
       </c>
-      <c r="AV31" s="15" t="s">
+      <c r="AW31" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AW31" s="22"/>
       <c r="AX31" s="22"/>
       <c r="AY31" s="22"/>
       <c r="AZ31" s="22"/>
       <c r="BA31" s="22"/>
-      <c r="BB31" s="10" t="s">
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC31" s="17" t="s">
+      <c r="BG31" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BD31" s="15" t="s">
+      <c r="BH31" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE31" s="15" t="s">
+      <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BF31" s="22" t="s">
+      <c r="BJ31" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="14" t="s">
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI31" s="14" t="s">
+      <c r="BM31" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ31" s="18" t="s">
+      <c r="BN31" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK31" s="21" t="s">
+      <c r="BO31" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7246,95 +7418,99 @@
       <c r="Z32" s="18"/>
       <c r="AA32" s="18"/>
       <c r="AB32" s="18"/>
-      <c r="AC32" s="2">
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="2">
         <v>3</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AE32" s="2">
         <v>2</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AF32" s="2">
         <v>1</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AG32" s="2">
         <v>1024.5</v>
       </c>
-      <c r="AG32" s="18">
+      <c r="AH32" s="18">
         <v>20190906</v>
       </c>
-      <c r="AH32" s="18" t="s">
+      <c r="AI32" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="AI32" s="18" t="s">
+      <c r="AJ32" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="AJ32" s="14">
+      <c r="AK32" s="14">
         <v>33</v>
       </c>
-      <c r="AK32" s="10" t="s">
+      <c r="AL32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AL32" s="22" t="s">
+      <c r="AM32" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="AM32" s="22" t="s">
+      <c r="AN32" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AN32" s="10" t="s">
+      <c r="AO32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AO32" s="10" t="s">
+      <c r="AP32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AP32" s="22" t="s">
+      <c r="AQ32" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="AQ32" s="15"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
-      <c r="AT32" s="10">
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="10">
         <v>4551</v>
       </c>
-      <c r="AU32" s="16">
+      <c r="AV32" s="16">
         <v>42691</v>
       </c>
-      <c r="AV32" s="22" t="s">
+      <c r="AW32" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AW32" s="15"/>
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
       <c r="AZ32" s="15"/>
       <c r="BA32" s="15"/>
-      <c r="BB32" s="10" t="s">
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BC32" s="17" t="s">
+      <c r="BG32" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="BD32" s="22" t="s">
+      <c r="BH32" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="BE32" s="22" t="s">
+      <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BF32" s="22" t="s">
+      <c r="BJ32" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="14" t="s">
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI32" s="14" t="s">
+      <c r="BM32" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ32" s="18" t="s">
+      <c r="BN32" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="BK32" s="21" t="s">
+      <c r="BO32" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:63" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="96">
         <v>14</v>
       </c>
@@ -7416,97 +7592,101 @@
       </c>
       <c r="AA33" s="18"/>
       <c r="AB33" s="18"/>
-      <c r="AC33" s="2" t="s">
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AE33" s="2">
         <v>5</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AF33" s="2">
         <v>4.5</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AG33" s="2">
         <v>1024.5</v>
       </c>
-      <c r="AG33" s="18">
+      <c r="AH33" s="18">
         <v>20200227</v>
       </c>
-      <c r="AH33" s="18" t="s">
+      <c r="AI33" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="AI33" s="18" t="s">
+      <c r="AJ33" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="AJ33" s="14">
+      <c r="AK33" s="14">
         <v>42</v>
       </c>
-      <c r="AK33" s="20" t="s">
+      <c r="AL33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="AL33" s="22" t="s">
+      <c r="AM33" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="AM33" s="22" t="s">
+      <c r="AN33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AN33" s="20" t="s">
+      <c r="AO33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="20" t="s">
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AR33" s="22" t="s">
+      <c r="AS33" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="AS33" s="22" t="s">
+      <c r="AT33" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="AT33" s="20" t="s">
+      <c r="AU33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AU33" s="16">
+      <c r="AV33" s="16">
         <v>42859</v>
       </c>
-      <c r="AV33" s="15" t="s">
+      <c r="AW33" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AW33" s="22"/>
       <c r="AX33" s="22"/>
       <c r="AY33" s="22"/>
       <c r="AZ33" s="22"/>
       <c r="BA33" s="22"/>
-      <c r="BB33" s="10" t="s">
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="BC33" s="17" t="s">
+      <c r="BG33" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="BD33" s="15" t="s">
+      <c r="BH33" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="BE33" s="22" t="s">
+      <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BF33" s="22" t="s">
+      <c r="BJ33" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="14" t="s">
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI33" s="14" t="s">
+      <c r="BM33" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ33" s="18" t="s">
+      <c r="BN33" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="BK33" s="21" t="s">
+      <c r="BO33" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -7538,43 +7718,47 @@
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="37"/>
-      <c r="AC34" s="3"/>
+      <c r="AC34" s="37"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="37"/>
+      <c r="AG34" s="3"/>
       <c r="AH34" s="37"/>
       <c r="AI34" s="37"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="38"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="34"/>
       <c r="AM34" s="38"/>
-      <c r="AN34" s="34"/>
+      <c r="AN34" s="38"/>
       <c r="AO34" s="34"/>
-      <c r="AP34" s="38"/>
+      <c r="AP34" s="34"/>
       <c r="AQ34" s="38"/>
       <c r="AR34" s="38"/>
       <c r="AS34" s="38"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="39"/>
-      <c r="AV34" s="40"/>
-      <c r="AW34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="40"/>
       <c r="AX34" s="38"/>
       <c r="AY34" s="38"/>
       <c r="AZ34" s="38"/>
       <c r="BA34" s="38"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="42"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="40"/>
       <c r="BD34" s="40"/>
-      <c r="BE34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="35"/>
-      <c r="BI34" s="35"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="43"/>
+      <c r="BE34" s="40"/>
+      <c r="BF34" s="41"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="35"/>
+      <c r="BM34" s="35"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -7606,43 +7790,47 @@
       <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
       <c r="AB35" s="37"/>
-      <c r="AC35" s="3"/>
+      <c r="AC35" s="37"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="37"/>
+      <c r="AG35" s="3"/>
       <c r="AH35" s="37"/>
       <c r="AI35" s="37"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="38"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="34"/>
       <c r="AM35" s="38"/>
-      <c r="AN35" s="34"/>
+      <c r="AN35" s="38"/>
       <c r="AO35" s="34"/>
-      <c r="AP35" s="38"/>
+      <c r="AP35" s="34"/>
       <c r="AQ35" s="38"/>
       <c r="AR35" s="38"/>
       <c r="AS35" s="38"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="38"/>
-      <c r="AV35" s="40"/>
-      <c r="AW35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="40"/>
       <c r="AX35" s="38"/>
       <c r="AY35" s="38"/>
       <c r="AZ35" s="38"/>
       <c r="BA35" s="38"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="42"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="40"/>
       <c r="BD35" s="40"/>
-      <c r="BE35" s="38"/>
-      <c r="BF35" s="38"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="35"/>
-      <c r="BI35" s="35"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="43"/>
+      <c r="BE35" s="40"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="42"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="35"/>
+      <c r="BM35" s="35"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -7722,95 +7910,99 @@
       <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
-      <c r="AC36" s="3" t="s">
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AE36" s="3">
         <v>7</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AF36" s="3">
         <v>6</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>1023.25</v>
       </c>
-      <c r="AG36" s="37">
+      <c r="AH36" s="37">
         <v>20190906</v>
       </c>
-      <c r="AH36" s="37" t="s">
+      <c r="AI36" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AI36" s="37" t="s">
+      <c r="AJ36" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AJ36" s="35">
+      <c r="AK36" s="35">
         <v>33</v>
       </c>
-      <c r="AK36" s="41" t="s">
+      <c r="AL36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AL36" s="38" t="s">
+      <c r="AM36" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="AM36" s="38" t="s">
+      <c r="AN36" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AN36" s="41" t="s">
+      <c r="AO36" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AO36" s="41" t="s">
+      <c r="AP36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AP36" s="38" t="s">
+      <c r="AQ36" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="AQ36" s="40"/>
       <c r="AR36" s="40"/>
       <c r="AS36" s="40"/>
-      <c r="AT36" s="41">
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="41">
         <v>4551</v>
       </c>
-      <c r="AU36" s="39">
+      <c r="AV36" s="39">
         <v>42691</v>
       </c>
-      <c r="AV36" s="38" t="s">
+      <c r="AW36" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AW36" s="40"/>
       <c r="AX36" s="40"/>
       <c r="AY36" s="40"/>
       <c r="AZ36" s="40"/>
       <c r="BA36" s="40"/>
-      <c r="BB36" s="41" t="s">
+      <c r="BB36" s="40"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="40"/>
+      <c r="BE36" s="40"/>
+      <c r="BF36" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC36" s="42" t="s">
+      <c r="BG36" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD36" s="38" t="s">
+      <c r="BH36" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BE36" s="38" t="s">
+      <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BF36" s="38" t="s">
+      <c r="BJ36" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="35" t="s">
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI36" s="35" t="s">
+      <c r="BM36" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ36" s="37" t="s">
+      <c r="BN36" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="BK36" s="43" t="s">
+      <c r="BO36" s="43" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -7889,97 +8081,101 @@
       <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
       <c r="AB37" s="37"/>
-      <c r="AC37" s="3" t="s">
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>5</v>
       </c>
       <c r="AE37" s="3">
         <v>5</v>
       </c>
       <c r="AF37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG37" s="3">
         <v>1023.25</v>
       </c>
-      <c r="AG37" s="37">
+      <c r="AH37" s="37">
         <v>20190509</v>
       </c>
-      <c r="AH37" s="37" t="s">
+      <c r="AI37" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="AI37" s="37" t="s">
+      <c r="AJ37" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ37" s="35">
+      <c r="AK37" s="35">
         <v>32</v>
       </c>
-      <c r="AK37" s="34" t="s">
+      <c r="AL37" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL37" s="38" t="s">
+      <c r="AM37" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="AM37" s="38" t="s">
+      <c r="AN37" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AN37" s="34" t="s">
+      <c r="AO37" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AO37" s="34" t="s">
+      <c r="AP37" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AP37" s="38" t="s">
+      <c r="AQ37" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="AQ37" s="38"/>
       <c r="AR37" s="38"/>
       <c r="AS37" s="38"/>
-      <c r="AT37" s="34" t="s">
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AU37" s="39">
+      <c r="AV37" s="39">
         <v>42711</v>
       </c>
-      <c r="AV37" s="38" t="s">
+      <c r="AW37" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AW37" s="38"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="38"/>
       <c r="AZ37" s="38"/>
       <c r="BA37" s="38"/>
-      <c r="BB37" s="41" t="s">
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="40"/>
+      <c r="BD37" s="40"/>
+      <c r="BE37" s="40"/>
+      <c r="BF37" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC37" s="42" t="s">
+      <c r="BG37" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BD37" s="38" t="s">
+      <c r="BH37" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="BE37" s="38" t="s">
+      <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BF37" s="38" t="s">
+      <c r="BJ37" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="BG37" s="3" t="s">
+      <c r="BK37" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BH37" s="35" t="s">
+      <c r="BL37" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI37" s="35" t="s">
+      <c r="BM37" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ37" s="37" t="s">
+      <c r="BN37" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK37" s="43" t="s">
+      <c r="BO37" s="43" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8060,83 +8256,87 @@
         <v>96</v>
       </c>
       <c r="AB38" s="37"/>
-      <c r="AC38" s="3" t="s">
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>3</v>
       </c>
       <c r="AE38" s="3">
         <v>3</v>
       </c>
       <c r="AF38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="3">
         <v>1023.25</v>
       </c>
-      <c r="AG38" s="37">
+      <c r="AH38" s="37">
         <v>20190906</v>
       </c>
-      <c r="AH38" s="37" t="s">
+      <c r="AI38" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="AI38" s="37" t="s">
+      <c r="AJ38" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ38" s="35">
+      <c r="AK38" s="35">
         <v>58</v>
       </c>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="38"/>
+      <c r="AL38" s="41"/>
       <c r="AM38" s="38"/>
-      <c r="AN38" s="41"/>
+      <c r="AN38" s="38"/>
       <c r="AO38" s="41"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="40"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="38"/>
       <c r="AR38" s="40"/>
       <c r="AS38" s="40"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="39"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="40" t="s">
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="41"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="AX38" s="40" t="s">
+      <c r="AY38" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="AY38" s="40"/>
       <c r="AZ38" s="40"/>
       <c r="BA38" s="40"/>
-      <c r="BB38" s="41" t="s">
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="40"/>
+      <c r="BD38" s="40"/>
+      <c r="BE38" s="40"/>
+      <c r="BF38" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC38" s="42" t="s">
+      <c r="BG38" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD38" s="46" t="s">
+      <c r="BH38" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="BE38" s="38" t="s">
+      <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BF38" s="38" t="s">
+      <c r="BJ38" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="BG38" s="3" t="s">
+      <c r="BK38" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BH38" s="35" t="s">
+      <c r="BL38" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="BI38" s="35" t="s">
+      <c r="BM38" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ38" s="37" t="s">
+      <c r="BN38" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK38" s="43" t="s">
+      <c r="BO38" s="43" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8218,95 +8418,99 @@
       </c>
       <c r="AA39" s="37"/>
       <c r="AB39" s="37"/>
-      <c r="AC39" s="3" t="s">
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="3">
         <v>4</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AF39" s="3">
         <v>3.5</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AG39" s="3">
         <v>1025</v>
       </c>
-      <c r="AG39" s="37">
+      <c r="AH39" s="37">
         <v>20200227</v>
       </c>
-      <c r="AH39" s="37" t="s">
+      <c r="AI39" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AI39" s="37" t="s">
+      <c r="AJ39" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AJ39" s="35">
+      <c r="AK39" s="35">
         <v>42</v>
       </c>
-      <c r="AK39" s="34" t="s">
+      <c r="AL39" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL39" s="38" t="s">
+      <c r="AM39" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM39" s="38" t="s">
+      <c r="AN39" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AN39" s="34" t="s">
+      <c r="AO39" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="38"/>
-      <c r="AQ39" s="34" t="s">
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AR39" s="38" t="s">
+      <c r="AS39" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AS39" s="38" t="s">
+      <c r="AT39" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AT39" s="34" t="s">
+      <c r="AU39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU39" s="39">
+      <c r="AV39" s="39">
         <v>42859</v>
       </c>
-      <c r="AV39" s="40" t="s">
+      <c r="AW39" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AW39" s="38"/>
       <c r="AX39" s="38"/>
       <c r="AY39" s="38"/>
       <c r="AZ39" s="38"/>
       <c r="BA39" s="38"/>
-      <c r="BB39" s="41" t="s">
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="40"/>
+      <c r="BD39" s="40"/>
+      <c r="BE39" s="40"/>
+      <c r="BF39" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BC39" s="42" t="s">
+      <c r="BG39" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD39" s="40" t="s">
+      <c r="BH39" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE39" s="40" t="s">
+      <c r="BI39" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="BF39" s="38"/>
-      <c r="BG39" s="3"/>
-      <c r="BH39" s="35" t="s">
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BI39" s="35" t="s">
+      <c r="BM39" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ39" s="37" t="s">
+      <c r="BN39" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="BK39" s="43" t="s">
+      <c r="BO39" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -8388,95 +8592,99 @@
       </c>
       <c r="AA40" s="37"/>
       <c r="AB40" s="37"/>
-      <c r="AC40" s="3" t="s">
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="3">
         <v>8</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AF40" s="3">
         <v>7.5</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AG40" s="3">
         <v>1023.75</v>
       </c>
-      <c r="AG40" s="37">
+      <c r="AH40" s="37">
         <v>20200227</v>
       </c>
-      <c r="AH40" s="37" t="s">
+      <c r="AI40" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AI40" s="37" t="s">
+      <c r="AJ40" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AJ40" s="35">
+      <c r="AK40" s="35">
         <v>42</v>
       </c>
-      <c r="AK40" s="34" t="s">
+      <c r="AL40" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL40" s="38" t="s">
+      <c r="AM40" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM40" s="38" t="s">
+      <c r="AN40" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AN40" s="34" t="s">
+      <c r="AO40" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="34" t="s">
+      <c r="AP40" s="34"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AR40" s="38" t="s">
+      <c r="AS40" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AS40" s="38" t="s">
+      <c r="AT40" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AT40" s="34" t="s">
+      <c r="AU40" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU40" s="39">
+      <c r="AV40" s="39">
         <v>42859</v>
       </c>
-      <c r="AV40" s="40" t="s">
+      <c r="AW40" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AW40" s="38"/>
       <c r="AX40" s="38"/>
       <c r="AY40" s="38"/>
       <c r="AZ40" s="38"/>
       <c r="BA40" s="38"/>
-      <c r="BB40" s="41" t="s">
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="40"/>
+      <c r="BE40" s="40"/>
+      <c r="BF40" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BC40" s="42" t="s">
+      <c r="BG40" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD40" s="40" t="s">
+      <c r="BH40" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE40" s="40" t="s">
+      <c r="BI40" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="BF40" s="38"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="35" t="s">
+      <c r="BJ40" s="38"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BI40" s="35" t="s">
+      <c r="BM40" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ40" s="37" t="s">
+      <c r="BN40" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="BK40" s="43" t="s">
+      <c r="BO40" s="43" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -8558,95 +8766,99 @@
       </c>
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
-      <c r="AC41" s="3" t="s">
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>1023.75</v>
       </c>
-      <c r="AG41" s="37">
+      <c r="AH41" s="37">
         <v>20200227</v>
       </c>
-      <c r="AH41" s="37" t="s">
+      <c r="AI41" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AI41" s="37" t="s">
+      <c r="AJ41" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AJ41" s="35">
+      <c r="AK41" s="35">
         <v>42</v>
       </c>
-      <c r="AK41" s="34" t="s">
+      <c r="AL41" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL41" s="38" t="s">
+      <c r="AM41" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM41" s="38" t="s">
+      <c r="AN41" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AN41" s="34" t="s">
+      <c r="AO41" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="34" t="s">
+      <c r="AP41" s="34"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AR41" s="38" t="s">
+      <c r="AS41" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="AS41" s="38" t="s">
+      <c r="AT41" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="AT41" s="34" t="s">
+      <c r="AU41" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU41" s="39">
+      <c r="AV41" s="39">
         <v>42859</v>
       </c>
-      <c r="AV41" s="40" t="s">
+      <c r="AW41" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AW41" s="38"/>
       <c r="AX41" s="38"/>
       <c r="AY41" s="38"/>
       <c r="AZ41" s="38"/>
       <c r="BA41" s="38"/>
-      <c r="BB41" s="41" t="s">
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="40"/>
+      <c r="BD41" s="40"/>
+      <c r="BE41" s="40"/>
+      <c r="BF41" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BC41" s="42" t="s">
+      <c r="BG41" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD41" s="40" t="s">
+      <c r="BH41" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE41" s="40" t="s">
+      <c r="BI41" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="BF41" s="38"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="35" t="s">
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="BI41" s="35" t="s">
+      <c r="BM41" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ41" s="37" t="s">
+      <c r="BN41" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="BK41" s="43" t="s">
+      <c r="BO41" s="43" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -8727,103 +8939,107 @@
       <c r="AB42" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="3">
         <v>11</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>8</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>5</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>1022.8</v>
       </c>
-      <c r="AG42" s="37">
+      <c r="AH42" s="37">
         <v>20200914</v>
       </c>
-      <c r="AH42" s="37" t="s">
+      <c r="AI42" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="AI42" s="37" t="s">
+      <c r="AJ42" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ42" s="35">
+      <c r="AK42" s="35">
         <v>33</v>
       </c>
-      <c r="AK42" s="34" t="s">
+      <c r="AL42" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL42" s="38" t="s">
+      <c r="AM42" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM42" s="38" t="s">
+      <c r="AN42" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AN42" s="34" t="s">
+      <c r="AO42" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO42" s="34" t="s">
+      <c r="AP42" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP42" s="38" t="s">
+      <c r="AQ42" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AQ42" s="40"/>
       <c r="AR42" s="40"/>
       <c r="AS42" s="40"/>
-      <c r="AT42" s="41">
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="41">
         <v>4551</v>
       </c>
-      <c r="AU42" s="39">
+      <c r="AV42" s="39">
         <v>42691</v>
       </c>
-      <c r="AV42" s="34" t="s">
+      <c r="AW42" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AW42" s="40"/>
       <c r="AX42" s="40"/>
-      <c r="AY42" s="40" t="s">
+      <c r="AY42" s="40"/>
+      <c r="AZ42" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="AZ42" s="40" t="s">
+      <c r="BA42" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="BA42" s="40" t="s">
+      <c r="BB42" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="BB42" s="41" t="s">
+      <c r="BC42" s="40"/>
+      <c r="BD42" s="40"/>
+      <c r="BE42" s="40"/>
+      <c r="BF42" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC42" s="42" t="s">
+      <c r="BG42" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD42" s="46" t="s">
+      <c r="BH42" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="BE42" s="38" t="s">
+      <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BF42" s="38" t="s">
+      <c r="BJ42" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="BG42" s="3" t="s">
+      <c r="BK42" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="BH42" s="35" t="s">
+      <c r="BL42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI42" s="35" t="s">
+      <c r="BM42" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ42" s="37" t="s">
+      <c r="BN42" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK42" s="43" t="s">
+      <c r="BO42" s="43" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -8902,95 +9118,99 @@
       <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
       <c r="AB43" s="37"/>
-      <c r="AC43" s="3">
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="3">
         <v>3</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2</v>
       </c>
-      <c r="AE43" s="3" t="s">
+      <c r="AF43" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>1023.5</v>
       </c>
-      <c r="AG43" s="37">
+      <c r="AH43" s="37">
         <v>20200914</v>
       </c>
-      <c r="AH43" s="37" t="s">
+      <c r="AI43" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="AI43" s="37" t="s">
+      <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AJ43" s="76">
+      <c r="AK43" s="76">
         <v>30</v>
       </c>
-      <c r="AK43" s="34" t="s">
+      <c r="AL43" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL43" s="38" t="s">
+      <c r="AM43" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM43" s="38" t="s">
+      <c r="AN43" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AN43" s="34" t="s">
+      <c r="AO43" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO43" s="34" t="s">
+      <c r="AP43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP43" s="38" t="s">
+      <c r="AQ43" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AQ43" s="38"/>
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
-      <c r="AT43" s="72" t="s">
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AU43" s="73">
+      <c r="AV43" s="73">
         <v>42723</v>
       </c>
-      <c r="AV43" s="75" t="s">
+      <c r="AW43" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="AW43" s="38"/>
       <c r="AX43" s="38"/>
       <c r="AY43" s="38"/>
       <c r="AZ43" s="38"/>
       <c r="BA43" s="38"/>
-      <c r="BB43" s="41" t="s">
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="40"/>
+      <c r="BD43" s="40"/>
+      <c r="BE43" s="40"/>
+      <c r="BF43" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="BC43" s="42" t="s">
+      <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD43" s="71" t="s">
+      <c r="BH43" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="BE43" s="71" t="s">
+      <c r="BI43" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="BF43" s="38" t="s">
+      <c r="BJ43" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="BG43" s="3"/>
-      <c r="BH43" s="35" t="s">
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI43" s="35" t="s">
+      <c r="BM43" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ43" s="37" t="s">
+      <c r="BN43" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BK43" s="43" t="s">
+      <c r="BO43" s="43" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9069,93 +9289,97 @@
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
       <c r="AB44" s="37"/>
-      <c r="AC44" s="3" t="s">
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3.5</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AG44" s="3">
         <v>1024.5</v>
       </c>
-      <c r="AG44" s="37">
+      <c r="AH44" s="37">
         <v>20210112</v>
       </c>
-      <c r="AH44" s="37" t="s">
+      <c r="AI44" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="AI44" s="37" t="s">
+      <c r="AJ44" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AJ44" s="35">
+      <c r="AK44" s="35">
         <v>29</v>
       </c>
-      <c r="AK44" s="34" t="s">
+      <c r="AL44" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="AL44" s="38" t="s">
+      <c r="AM44" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM44" s="38" t="s">
+      <c r="AN44" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AN44" s="34" t="s">
+      <c r="AO44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AO44" s="34" t="s">
+      <c r="AP44" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AP44" s="38" t="s">
+      <c r="AQ44" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="AQ44" s="38"/>
       <c r="AR44" s="38"/>
       <c r="AS44" s="38"/>
-      <c r="AT44" s="34" t="s">
+      <c r="AT44" s="38"/>
+      <c r="AU44" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU44" s="39">
+      <c r="AV44" s="39">
         <v>42711</v>
       </c>
-      <c r="AV44" s="40" t="s">
+      <c r="AW44" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="AW44" s="38"/>
       <c r="AX44" s="38"/>
       <c r="AY44" s="38"/>
       <c r="AZ44" s="38"/>
       <c r="BA44" s="38"/>
-      <c r="BB44" s="41" t="s">
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="40"/>
+      <c r="BD44" s="40"/>
+      <c r="BE44" s="40"/>
+      <c r="BF44" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BC44" s="42" t="s">
+      <c r="BG44" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD44" s="40" t="s">
+      <c r="BH44" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="BE44" s="40" t="s">
+      <c r="BI44" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="BF44" s="38"/>
-      <c r="BG44" s="3"/>
-      <c r="BH44" s="35" t="s">
+      <c r="BJ44" s="38"/>
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI44" s="35" t="s">
+      <c r="BM44" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ44" s="37" t="s">
+      <c r="BN44" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="BK44" s="43" t="s">
+      <c r="BO44" s="43" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:63" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="98">
         <v>10</v>
       </c>
@@ -9236,102 +9460,108 @@
       </c>
       <c r="AA45" s="37"/>
       <c r="AB45" s="37"/>
-      <c r="AC45" s="3" t="s">
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>1</v>
       </c>
       <c r="AE45" s="3">
         <v>1</v>
       </c>
       <c r="AF45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="3">
         <v>1024.5</v>
       </c>
-      <c r="AG45" s="37">
+      <c r="AH45" s="37">
         <v>20210302</v>
       </c>
-      <c r="AH45" s="37" t="s">
+      <c r="AI45" s="37" t="s">
         <v>399</v>
       </c>
-      <c r="AI45" s="37" t="s">
+      <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AJ45" s="76">
+      <c r="AK45" s="76">
         <v>42</v>
       </c>
-      <c r="AK45" s="34" t="s">
+      <c r="AL45" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AL45" s="38" t="s">
+      <c r="AM45" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="AM45" s="38" t="s">
+      <c r="AN45" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AN45" s="34" t="s">
+      <c r="AO45" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AO45" s="34"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="38" t="s">
+      <c r="AP45" s="34"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AR45" s="38" t="s">
+      <c r="AS45" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="AS45" s="38" t="s">
+      <c r="AT45" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AT45" s="34" t="s">
+      <c r="AU45" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AU45" s="39">
+      <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AV45" s="99" t="s">
+      <c r="AW45" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="AW45" s="38"/>
       <c r="AX45" s="38"/>
       <c r="AY45" s="38"/>
       <c r="AZ45" s="38"/>
       <c r="BA45" s="38"/>
-      <c r="BB45" s="41" t="s">
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="40"/>
+      <c r="BD45" s="40"/>
+      <c r="BE45" s="40"/>
+      <c r="BF45" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="BC45" s="42" t="s">
+      <c r="BG45" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BD45" s="40" t="s">
+      <c r="BH45" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="38" t="s">
+      <c r="BI45" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="BF45" s="38"/>
-      <c r="BG45" s="3"/>
-      <c r="BH45" s="35" t="s">
+      <c r="BJ45" s="38"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BI45" s="35" t="s">
+      <c r="BM45" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="BJ45" s="37" t="s">
+      <c r="BN45" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="BK45" s="43" t="s">
+      <c r="BO45" s="43" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:63" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="20" t="s">
+        <v>425</v>
+      </c>
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
@@ -9347,19 +9577,45 @@
       <c r="H46" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="I46" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="K46" s="14">
+        <v>44.376800000000003</v>
+      </c>
+      <c r="L46" s="14">
+        <v>-63.331699999999998</v>
+      </c>
+      <c r="M46" s="18">
+        <v>42.47</v>
+      </c>
+      <c r="N46" s="18">
+        <v>-63.47</v>
+      </c>
+      <c r="O46" s="18">
+        <v>44.53</v>
+      </c>
+      <c r="P46" s="18">
+        <v>-61.49</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="R46" s="2">
+        <v>22</v>
+      </c>
+      <c r="S46" s="2">
+        <v>635</v>
+      </c>
+      <c r="T46" s="2">
+        <v>1125</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1114</v>
+      </c>
       <c r="V46" s="18" t="s">
         <v>36</v>
       </c>
@@ -9375,222 +9631,368 @@
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>0</v>
+      </c>
       <c r="AF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2">
         <v>1024.5</v>
       </c>
-      <c r="AG46" s="18">
+      <c r="AH46" s="18">
         <v>20210112</v>
       </c>
-      <c r="AH46" s="18" t="s">
+      <c r="AI46" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="AI46" s="18" t="s">
+      <c r="AJ46" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="AJ46" s="14">
+      <c r="AK46" s="14">
         <v>29</v>
       </c>
-      <c r="AK46" s="20" t="s">
+      <c r="AL46" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AL46" s="22" t="s">
+      <c r="AM46" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="AM46" s="22" t="s">
+      <c r="AN46" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AN46" s="20" t="s">
+      <c r="AO46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AO46" s="20" t="s">
+      <c r="AP46" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AP46" s="22" t="s">
+      <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AQ46" s="93"/>
       <c r="AR46" s="93"/>
       <c r="AS46" s="93"/>
-      <c r="AT46" s="20" t="s">
+      <c r="AT46" s="93"/>
+      <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AU46" s="16">
+      <c r="AV46" s="16">
         <v>42711</v>
       </c>
-      <c r="AV46" s="15" t="s">
+      <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AW46" s="93"/>
       <c r="AX46" s="93"/>
       <c r="AY46" s="93"/>
       <c r="AZ46" s="93"/>
       <c r="BA46" s="93"/>
-      <c r="BB46" s="10" t="s">
+      <c r="BB46" s="93"/>
+      <c r="BC46" s="100"/>
+      <c r="BD46" s="100"/>
+      <c r="BE46" s="100"/>
+      <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="BC46" s="17" t="s">
+      <c r="BG46" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="BD46" s="15" t="s">
+      <c r="BH46" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="BE46" s="15" t="s">
+      <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BF46" s="22" t="s">
+      <c r="BJ46" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BG46" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="BH46" s="14" t="s">
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BI46" s="14" t="s">
+      <c r="BM46" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BJ46" s="18" t="s">
+      <c r="BN46" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO46" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="14">
+        <v>94</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4800925</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I47" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y47" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>1032.5</v>
+      </c>
+      <c r="AH47" s="18">
+        <v>20210420</v>
+      </c>
+      <c r="AI47" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ47" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>33</v>
+      </c>
+      <c r="AL47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM47" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN47" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP47" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ47" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22"/>
+      <c r="AU47" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AV47" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AW47" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX47" s="93"/>
+      <c r="AY47" s="93"/>
+      <c r="AZ47" s="93"/>
+      <c r="BA47" s="93"/>
+      <c r="BB47" s="93"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG47" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM47" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN47" s="18"/>
+      <c r="BO47" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="BK46" s="21" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>411</v>
       </c>
+      <c r="F48" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH48" s="18">
+        <v>20210421</v>
+      </c>
+      <c r="AI48" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ48" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM48" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO48" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="22"/>
+      <c r="AR48" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS48" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT48" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU48" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV48" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW48" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX48" s="93"/>
+      <c r="AY48" s="93"/>
+      <c r="AZ48" s="93"/>
+      <c r="BA48" s="93"/>
+      <c r="BB48" s="93"/>
+      <c r="BC48" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD48" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE48" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF48" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG48" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI48" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM48" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN48" s="18"/>
+      <c r="BO48" s="21" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="47" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="53" t="s">
+    <row r="49" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="72"/>
-      <c r="AO47" s="72"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="34"/>
-      <c r="AU47" s="74"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
-      <c r="BB47" s="34"/>
-      <c r="BC47" s="48"/>
-      <c r="BD47" s="38"/>
-      <c r="BE47" s="38"/>
-      <c r="BF47" s="38"/>
-      <c r="BG47" s="3"/>
-      <c r="BH47" s="35"/>
-      <c r="BI47" s="35"/>
-      <c r="BJ47" s="37"/>
-      <c r="BK47" s="43"/>
-    </row>
-    <row r="48" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="35"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="38"/>
-      <c r="AM48" s="38"/>
-      <c r="AN48" s="72"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="38"/>
-      <c r="AQ48" s="38"/>
-      <c r="AR48" s="38"/>
-      <c r="AS48" s="38"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="74"/>
-      <c r="AV48" s="38"/>
-      <c r="AW48" s="38"/>
-      <c r="AX48" s="38"/>
-      <c r="AY48" s="38"/>
-      <c r="AZ48" s="38"/>
-      <c r="BA48" s="38"/>
-      <c r="BB48" s="34"/>
-      <c r="BC48" s="48"/>
-      <c r="BD48" s="38"/>
-      <c r="BE48" s="38"/>
-      <c r="BF48" s="38"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="35"/>
-      <c r="BI48" s="35"/>
-      <c r="BJ48" s="37"/>
-      <c r="BK48" s="43"/>
-    </row>
-    <row r="49" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -9617,43 +10019,47 @@
       <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
       <c r="AB49" s="37"/>
-      <c r="AC49" s="3"/>
+      <c r="AC49" s="37"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="37"/>
+      <c r="AG49" s="3"/>
       <c r="AH49" s="37"/>
       <c r="AI49" s="37"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="34"/>
-      <c r="AL49" s="38"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="34"/>
       <c r="AM49" s="38"/>
-      <c r="AN49" s="34"/>
-      <c r="AO49" s="34"/>
-      <c r="AP49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
       <c r="AQ49" s="38"/>
       <c r="AR49" s="38"/>
       <c r="AS49" s="38"/>
-      <c r="AT49" s="34"/>
-      <c r="AU49" s="38"/>
-      <c r="AV49" s="38"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="34"/>
+      <c r="AV49" s="74"/>
       <c r="AW49" s="38"/>
       <c r="AX49" s="38"/>
       <c r="AY49" s="38"/>
       <c r="AZ49" s="38"/>
       <c r="BA49" s="38"/>
-      <c r="BB49" s="34"/>
-      <c r="BC49" s="48"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
       <c r="BD49" s="38"/>
       <c r="BE49" s="38"/>
-      <c r="BF49" s="38"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="35"/>
-      <c r="BI49" s="35"/>
-      <c r="BJ49" s="37"/>
-      <c r="BK49" s="43"/>
+      <c r="BF49" s="34"/>
+      <c r="BG49" s="48"/>
+      <c r="BH49" s="38"/>
+      <c r="BI49" s="38"/>
+      <c r="BJ49" s="38"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="35"/>
+      <c r="BM49" s="35"/>
+      <c r="BN49" s="37"/>
+      <c r="BO49" s="43"/>
     </row>
-    <row r="50" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="35"/>
@@ -9681,43 +10087,47 @@
       <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
       <c r="AB50" s="37"/>
-      <c r="AC50" s="3"/>
+      <c r="AC50" s="37"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="37"/>
+      <c r="AG50" s="3"/>
       <c r="AH50" s="37"/>
       <c r="AI50" s="37"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="34"/>
-      <c r="AL50" s="38"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="34"/>
       <c r="AM50" s="38"/>
-      <c r="AN50" s="34"/>
-      <c r="AO50" s="34"/>
-      <c r="AP50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="72"/>
+      <c r="AP50" s="72"/>
       <c r="AQ50" s="38"/>
       <c r="AR50" s="38"/>
       <c r="AS50" s="38"/>
-      <c r="AT50" s="34"/>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="34"/>
+      <c r="AV50" s="74"/>
       <c r="AW50" s="38"/>
       <c r="AX50" s="38"/>
       <c r="AY50" s="38"/>
       <c r="AZ50" s="38"/>
       <c r="BA50" s="38"/>
-      <c r="BB50" s="34"/>
-      <c r="BC50" s="48"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
       <c r="BD50" s="38"/>
       <c r="BE50" s="38"/>
-      <c r="BF50" s="38"/>
-      <c r="BG50" s="3"/>
-      <c r="BH50" s="35"/>
-      <c r="BI50" s="35"/>
-      <c r="BJ50" s="37"/>
-      <c r="BK50" s="43"/>
+      <c r="BF50" s="34"/>
+      <c r="BG50" s="48"/>
+      <c r="BH50" s="38"/>
+      <c r="BI50" s="38"/>
+      <c r="BJ50" s="38"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="35"/>
+      <c r="BM50" s="35"/>
+      <c r="BN50" s="37"/>
+      <c r="BO50" s="43"/>
     </row>
-    <row r="51" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="35"/>
@@ -9745,47 +10155,47 @@
       <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
       <c r="AB51" s="37"/>
-      <c r="AC51" s="3"/>
+      <c r="AC51" s="37"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
-      <c r="AG51" s="37"/>
+      <c r="AG51" s="3"/>
       <c r="AH51" s="37"/>
       <c r="AI51" s="37"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="38"/>
+      <c r="AJ51" s="37"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="34"/>
       <c r="AM51" s="38"/>
-      <c r="AN51" s="34"/>
+      <c r="AN51" s="38"/>
       <c r="AO51" s="34"/>
-      <c r="AP51" s="38"/>
+      <c r="AP51" s="34"/>
       <c r="AQ51" s="38"/>
       <c r="AR51" s="38"/>
       <c r="AS51" s="38"/>
-      <c r="AT51" s="34"/>
-      <c r="AU51" s="38"/>
+      <c r="AT51" s="38"/>
+      <c r="AU51" s="34"/>
       <c r="AV51" s="38"/>
       <c r="AW51" s="38"/>
       <c r="AX51" s="38"/>
       <c r="AY51" s="38"/>
       <c r="AZ51" s="38"/>
       <c r="BA51" s="38"/>
-      <c r="BB51" s="34"/>
-      <c r="BC51" s="48"/>
-      <c r="BD51" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE51" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="BF51" s="38"/>
-      <c r="BG51" s="3"/>
-      <c r="BH51" s="35"/>
-      <c r="BI51" s="35"/>
-      <c r="BJ51" s="37"/>
-      <c r="BK51" s="43"/>
+      <c r="BB51" s="38"/>
+      <c r="BC51" s="38"/>
+      <c r="BD51" s="38"/>
+      <c r="BE51" s="38"/>
+      <c r="BF51" s="34"/>
+      <c r="BG51" s="48"/>
+      <c r="BH51" s="38"/>
+      <c r="BI51" s="38"/>
+      <c r="BJ51" s="38"/>
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="35"/>
+      <c r="BM51" s="35"/>
+      <c r="BN51" s="37"/>
+      <c r="BO51" s="43"/>
     </row>
-    <row r="52" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="35"/>
@@ -9813,47 +10223,47 @@
       <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
       <c r="AB52" s="37"/>
-      <c r="AC52" s="3"/>
+      <c r="AC52" s="37"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
-      <c r="AG52" s="37"/>
+      <c r="AG52" s="3"/>
       <c r="AH52" s="37"/>
       <c r="AI52" s="37"/>
-      <c r="AJ52" s="35"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="38"/>
+      <c r="AJ52" s="37"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="34"/>
       <c r="AM52" s="38"/>
-      <c r="AN52" s="34"/>
+      <c r="AN52" s="38"/>
       <c r="AO52" s="34"/>
-      <c r="AP52" s="38"/>
+      <c r="AP52" s="34"/>
       <c r="AQ52" s="38"/>
       <c r="AR52" s="38"/>
       <c r="AS52" s="38"/>
-      <c r="AT52" s="34"/>
-      <c r="AU52" s="38"/>
-      <c r="AV52" s="40"/>
+      <c r="AT52" s="38"/>
+      <c r="AU52" s="34"/>
+      <c r="AV52" s="38"/>
       <c r="AW52" s="38"/>
       <c r="AX52" s="38"/>
       <c r="AY52" s="38"/>
       <c r="AZ52" s="38"/>
       <c r="BA52" s="38"/>
-      <c r="BB52" s="41"/>
-      <c r="BC52" s="42"/>
-      <c r="BD52" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE52" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="BF52" s="40"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="35"/>
-      <c r="BI52" s="35"/>
-      <c r="BJ52" s="37"/>
-      <c r="BK52" s="43"/>
+      <c r="BB52" s="38"/>
+      <c r="BC52" s="38"/>
+      <c r="BD52" s="38"/>
+      <c r="BE52" s="38"/>
+      <c r="BF52" s="34"/>
+      <c r="BG52" s="48"/>
+      <c r="BH52" s="38"/>
+      <c r="BI52" s="38"/>
+      <c r="BJ52" s="38"/>
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="35"/>
+      <c r="BM52" s="35"/>
+      <c r="BN52" s="37"/>
+      <c r="BO52" s="43"/>
     </row>
-    <row r="53" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="35"/>
@@ -9881,47 +10291,51 @@
       <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
       <c r="AB53" s="37"/>
-      <c r="AC53" s="3"/>
+      <c r="AC53" s="37"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
-      <c r="AG53" s="37"/>
+      <c r="AG53" s="3"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="38"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="34"/>
       <c r="AM53" s="38"/>
-      <c r="AN53" s="34"/>
+      <c r="AN53" s="38"/>
       <c r="AO53" s="34"/>
-      <c r="AP53" s="38"/>
+      <c r="AP53" s="34"/>
       <c r="AQ53" s="38"/>
       <c r="AR53" s="38"/>
       <c r="AS53" s="38"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="38"/>
-      <c r="AV53" s="40"/>
+      <c r="AT53" s="38"/>
+      <c r="AU53" s="34"/>
+      <c r="AV53" s="38"/>
       <c r="AW53" s="38"/>
       <c r="AX53" s="38"/>
       <c r="AY53" s="38"/>
       <c r="AZ53" s="38"/>
       <c r="BA53" s="38"/>
-      <c r="BB53" s="41"/>
-      <c r="BC53" s="42"/>
-      <c r="BD53" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE53" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="37"/>
-      <c r="BK53" s="43"/>
+      <c r="BB53" s="38"/>
+      <c r="BC53" s="38"/>
+      <c r="BD53" s="38"/>
+      <c r="BE53" s="38"/>
+      <c r="BF53" s="34"/>
+      <c r="BG53" s="48"/>
+      <c r="BH53" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI53" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ53" s="38"/>
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="35"/>
+      <c r="BM53" s="35"/>
+      <c r="BN53" s="37"/>
+      <c r="BO53" s="43"/>
     </row>
-    <row r="54" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="35"/>
@@ -9942,54 +10356,58 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-      <c r="Y54" s="49"/>
-      <c r="Z54" s="49"/>
-      <c r="AA54" s="49"/>
-      <c r="AB54" s="49"/>
-      <c r="AC54" s="3"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="50"/>
-      <c r="AG54" s="49"/>
-      <c r="AH54" s="49"/>
-      <c r="AI54" s="49"/>
-      <c r="AJ54" s="29"/>
-      <c r="AK54" s="51"/>
-      <c r="AL54" s="46"/>
-      <c r="AM54" s="46"/>
-      <c r="AN54" s="51"/>
-      <c r="AO54" s="51"/>
-      <c r="AP54" s="46"/>
-      <c r="AQ54" s="46"/>
-      <c r="AR54" s="46"/>
-      <c r="AS54" s="46"/>
-      <c r="AT54" s="51"/>
-      <c r="AU54" s="46"/>
-      <c r="AV54" s="46"/>
-      <c r="AW54" s="46"/>
-      <c r="AX54" s="46"/>
-      <c r="AY54" s="46"/>
-      <c r="AZ54" s="46"/>
-      <c r="BA54" s="46"/>
-      <c r="BB54" s="51"/>
-      <c r="BC54" s="52"/>
-      <c r="BD54" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE54" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="BF54" s="46"/>
-      <c r="BG54" s="50"/>
-      <c r="BH54" s="29"/>
-      <c r="BI54" s="29"/>
-      <c r="BJ54" s="49"/>
-      <c r="BK54" s="30"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="37"/>
+      <c r="AJ54" s="37"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="34"/>
+      <c r="AP54" s="34"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="38"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="38"/>
+      <c r="AW54" s="40"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="40"/>
+      <c r="BF54" s="41"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI54" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ54" s="40"/>
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="35"/>
+      <c r="BM54" s="35"/>
+      <c r="BN54" s="37"/>
+      <c r="BO54" s="43"/>
     </row>
-    <row r="55" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="35"/>
@@ -10010,54 +10428,58 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="3"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="51"/>
-      <c r="AL55" s="46"/>
-      <c r="AM55" s="46"/>
-      <c r="AN55" s="51"/>
-      <c r="AO55" s="51"/>
-      <c r="AP55" s="46"/>
-      <c r="AQ55" s="46"/>
-      <c r="AR55" s="46"/>
-      <c r="AS55" s="46"/>
-      <c r="AT55" s="51"/>
-      <c r="AU55" s="46"/>
-      <c r="AV55" s="46"/>
-      <c r="AW55" s="46"/>
-      <c r="AX55" s="46"/>
-      <c r="AY55" s="46"/>
-      <c r="AZ55" s="46"/>
-      <c r="BA55" s="46"/>
-      <c r="BB55" s="51"/>
-      <c r="BC55" s="52"/>
-      <c r="BD55" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="BE55" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="BF55" s="46"/>
-      <c r="BG55" s="50"/>
-      <c r="BH55" s="29"/>
-      <c r="BI55" s="29"/>
-      <c r="BJ55" s="49"/>
-      <c r="BK55" s="30"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="34"/>
+      <c r="AM55" s="38"/>
+      <c r="AN55" s="38"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34"/>
+      <c r="AQ55" s="38"/>
+      <c r="AR55" s="38"/>
+      <c r="AS55" s="38"/>
+      <c r="AT55" s="38"/>
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="38"/>
+      <c r="AW55" s="40"/>
+      <c r="AX55" s="38"/>
+      <c r="AY55" s="38"/>
+      <c r="AZ55" s="38"/>
+      <c r="BA55" s="38"/>
+      <c r="BB55" s="38"/>
+      <c r="BC55" s="40"/>
+      <c r="BD55" s="40"/>
+      <c r="BE55" s="40"/>
+      <c r="BF55" s="41"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI55" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ55" s="38"/>
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="35"/>
+      <c r="BM55" s="35"/>
+      <c r="BN55" s="37"/>
+      <c r="BO55" s="43"/>
     </row>
-    <row r="56" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="35"/>
@@ -10085,47 +10507,51 @@
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
       <c r="AB56" s="49"/>
-      <c r="AC56" s="3"/>
+      <c r="AC56" s="49"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="50"/>
-      <c r="AG56" s="49"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="50"/>
       <c r="AH56" s="49"/>
       <c r="AI56" s="49"/>
-      <c r="AJ56" s="29"/>
-      <c r="AK56" s="51"/>
-      <c r="AL56" s="46"/>
+      <c r="AJ56" s="49"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="51"/>
       <c r="AM56" s="46"/>
-      <c r="AN56" s="51"/>
+      <c r="AN56" s="46"/>
       <c r="AO56" s="51"/>
-      <c r="AP56" s="46"/>
+      <c r="AP56" s="51"/>
       <c r="AQ56" s="46"/>
       <c r="AR56" s="46"/>
       <c r="AS56" s="46"/>
-      <c r="AT56" s="51"/>
-      <c r="AU56" s="46"/>
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="51"/>
       <c r="AV56" s="46"/>
       <c r="AW56" s="46"/>
       <c r="AX56" s="46"/>
       <c r="AY56" s="46"/>
       <c r="AZ56" s="46"/>
       <c r="BA56" s="46"/>
-      <c r="BB56" s="51"/>
-      <c r="BC56" s="52"/>
-      <c r="BD56" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BE56" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF56" s="46"/>
-      <c r="BG56" s="50"/>
-      <c r="BH56" s="29"/>
-      <c r="BI56" s="29"/>
-      <c r="BJ56" s="49"/>
-      <c r="BK56" s="30"/>
+      <c r="BB56" s="46"/>
+      <c r="BC56" s="46"/>
+      <c r="BD56" s="46"/>
+      <c r="BE56" s="46"/>
+      <c r="BF56" s="51"/>
+      <c r="BG56" s="52"/>
+      <c r="BH56" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI56" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ56" s="46"/>
+      <c r="BK56" s="50"/>
+      <c r="BL56" s="29"/>
+      <c r="BM56" s="29"/>
+      <c r="BN56" s="49"/>
+      <c r="BO56" s="30"/>
     </row>
-    <row r="57" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="35"/>
@@ -10153,43 +10579,51 @@
       <c r="Z57" s="49"/>
       <c r="AA57" s="49"/>
       <c r="AB57" s="49"/>
-      <c r="AC57" s="3"/>
+      <c r="AC57" s="49"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="49"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="50"/>
       <c r="AH57" s="49"/>
       <c r="AI57" s="49"/>
-      <c r="AJ57" s="29"/>
-      <c r="AK57" s="51"/>
-      <c r="AL57" s="46"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="51"/>
       <c r="AM57" s="46"/>
-      <c r="AN57" s="51"/>
+      <c r="AN57" s="46"/>
       <c r="AO57" s="51"/>
-      <c r="AP57" s="46"/>
+      <c r="AP57" s="51"/>
       <c r="AQ57" s="46"/>
       <c r="AR57" s="46"/>
       <c r="AS57" s="46"/>
-      <c r="AT57" s="51"/>
-      <c r="AU57" s="46"/>
+      <c r="AT57" s="46"/>
+      <c r="AU57" s="51"/>
       <c r="AV57" s="46"/>
       <c r="AW57" s="46"/>
       <c r="AX57" s="46"/>
       <c r="AY57" s="46"/>
       <c r="AZ57" s="46"/>
       <c r="BA57" s="46"/>
-      <c r="BB57" s="51"/>
-      <c r="BC57" s="52"/>
+      <c r="BB57" s="46"/>
+      <c r="BC57" s="46"/>
       <c r="BD57" s="46"/>
       <c r="BE57" s="46"/>
-      <c r="BF57" s="46"/>
-      <c r="BG57" s="50"/>
-      <c r="BH57" s="29"/>
-      <c r="BI57" s="29"/>
-      <c r="BJ57" s="49"/>
-      <c r="BK57" s="30"/>
+      <c r="BF57" s="51"/>
+      <c r="BG57" s="52"/>
+      <c r="BH57" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI57" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ57" s="46"/>
+      <c r="BK57" s="50"/>
+      <c r="BL57" s="29"/>
+      <c r="BM57" s="29"/>
+      <c r="BN57" s="49"/>
+      <c r="BO57" s="30"/>
     </row>
-    <row r="58" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="35"/>
@@ -10217,43 +10651,51 @@
       <c r="Z58" s="49"/>
       <c r="AA58" s="49"/>
       <c r="AB58" s="49"/>
-      <c r="AC58" s="3"/>
+      <c r="AC58" s="49"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="50"/>
-      <c r="AG58" s="49"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="50"/>
       <c r="AH58" s="49"/>
       <c r="AI58" s="49"/>
-      <c r="AJ58" s="29"/>
-      <c r="AK58" s="51"/>
-      <c r="AL58" s="46"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="29"/>
+      <c r="AL58" s="51"/>
       <c r="AM58" s="46"/>
-      <c r="AN58" s="51"/>
+      <c r="AN58" s="46"/>
       <c r="AO58" s="51"/>
-      <c r="AP58" s="46"/>
+      <c r="AP58" s="51"/>
       <c r="AQ58" s="46"/>
       <c r="AR58" s="46"/>
       <c r="AS58" s="46"/>
-      <c r="AT58" s="51"/>
-      <c r="AU58" s="46"/>
+      <c r="AT58" s="46"/>
+      <c r="AU58" s="51"/>
       <c r="AV58" s="46"/>
       <c r="AW58" s="46"/>
       <c r="AX58" s="46"/>
       <c r="AY58" s="46"/>
       <c r="AZ58" s="46"/>
       <c r="BA58" s="46"/>
-      <c r="BB58" s="51"/>
-      <c r="BC58" s="52"/>
+      <c r="BB58" s="46"/>
+      <c r="BC58" s="46"/>
       <c r="BD58" s="46"/>
       <c r="BE58" s="46"/>
-      <c r="BF58" s="46"/>
-      <c r="BG58" s="50"/>
-      <c r="BH58" s="29"/>
-      <c r="BI58" s="29"/>
-      <c r="BJ58" s="49"/>
-      <c r="BK58" s="30"/>
+      <c r="BF58" s="51"/>
+      <c r="BG58" s="52"/>
+      <c r="BH58" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI58" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ58" s="46"/>
+      <c r="BK58" s="50"/>
+      <c r="BL58" s="29"/>
+      <c r="BM58" s="29"/>
+      <c r="BN58" s="49"/>
+      <c r="BO58" s="30"/>
     </row>
-    <row r="59" spans="2:63" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="35"/>
@@ -10281,41 +10723,181 @@
       <c r="Z59" s="49"/>
       <c r="AA59" s="49"/>
       <c r="AB59" s="49"/>
-      <c r="AC59" s="3"/>
+      <c r="AC59" s="49"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="50"/>
-      <c r="AG59" s="49"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="50"/>
       <c r="AH59" s="49"/>
       <c r="AI59" s="49"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="51"/>
-      <c r="AL59" s="46"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="51"/>
       <c r="AM59" s="46"/>
-      <c r="AN59" s="51"/>
+      <c r="AN59" s="46"/>
       <c r="AO59" s="51"/>
-      <c r="AP59" s="46"/>
+      <c r="AP59" s="51"/>
       <c r="AQ59" s="46"/>
       <c r="AR59" s="46"/>
       <c r="AS59" s="46"/>
-      <c r="AT59" s="51"/>
-      <c r="AU59" s="46"/>
+      <c r="AT59" s="46"/>
+      <c r="AU59" s="51"/>
       <c r="AV59" s="46"/>
       <c r="AW59" s="46"/>
       <c r="AX59" s="46"/>
       <c r="AY59" s="46"/>
       <c r="AZ59" s="46"/>
       <c r="BA59" s="46"/>
-      <c r="BB59" s="51"/>
-      <c r="BC59" s="52"/>
+      <c r="BB59" s="46"/>
+      <c r="BC59" s="46"/>
       <c r="BD59" s="46"/>
       <c r="BE59" s="46"/>
-      <c r="BF59" s="46"/>
-      <c r="BG59" s="50"/>
-      <c r="BH59" s="29"/>
-      <c r="BI59" s="29"/>
-      <c r="BJ59" s="49"/>
-      <c r="BK59" s="30"/>
+      <c r="BF59" s="51"/>
+      <c r="BG59" s="52"/>
+      <c r="BH59" s="46"/>
+      <c r="BI59" s="46"/>
+      <c r="BJ59" s="46"/>
+      <c r="BK59" s="50"/>
+      <c r="BL59" s="29"/>
+      <c r="BM59" s="29"/>
+      <c r="BN59" s="49"/>
+      <c r="BO59" s="30"/>
+    </row>
+    <row r="60" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="49"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="49"/>
+      <c r="AK60" s="29"/>
+      <c r="AL60" s="51"/>
+      <c r="AM60" s="46"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="51"/>
+      <c r="AP60" s="51"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+      <c r="AS60" s="46"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="51"/>
+      <c r="AV60" s="46"/>
+      <c r="AW60" s="46"/>
+      <c r="AX60" s="46"/>
+      <c r="AY60" s="46"/>
+      <c r="AZ60" s="46"/>
+      <c r="BA60" s="46"/>
+      <c r="BB60" s="46"/>
+      <c r="BC60" s="46"/>
+      <c r="BD60" s="46"/>
+      <c r="BE60" s="46"/>
+      <c r="BF60" s="51"/>
+      <c r="BG60" s="52"/>
+      <c r="BH60" s="46"/>
+      <c r="BI60" s="46"/>
+      <c r="BJ60" s="46"/>
+      <c r="BK60" s="50"/>
+      <c r="BL60" s="29"/>
+      <c r="BM60" s="29"/>
+      <c r="BN60" s="49"/>
+      <c r="BO60" s="30"/>
+    </row>
+    <row r="61" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="29"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="46"/>
+      <c r="AN61" s="46"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="46"/>
+      <c r="AR61" s="46"/>
+      <c r="AS61" s="46"/>
+      <c r="AT61" s="46"/>
+      <c r="AU61" s="51"/>
+      <c r="AV61" s="46"/>
+      <c r="AW61" s="46"/>
+      <c r="AX61" s="46"/>
+      <c r="AY61" s="46"/>
+      <c r="AZ61" s="46"/>
+      <c r="BA61" s="46"/>
+      <c r="BB61" s="46"/>
+      <c r="BC61" s="46"/>
+      <c r="BD61" s="46"/>
+      <c r="BE61" s="46"/>
+      <c r="BF61" s="51"/>
+      <c r="BG61" s="52"/>
+      <c r="BH61" s="46"/>
+      <c r="BI61" s="46"/>
+      <c r="BJ61" s="46"/>
+      <c r="BK61" s="50"/>
+      <c r="BL61" s="29"/>
+      <c r="BM61" s="29"/>
+      <c r="BN61" s="49"/>
+      <c r="BO61" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="436">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1283,9 +1283,6 @@
     <t>20200316</t>
   </si>
   <si>
-    <t>new dropweight and battery, sea032 pld with minifluo.</t>
-  </si>
-  <si>
     <t>Firmware upgrade alti fixed. Lots of crazy readings for angular, heading and roll on the way back. Glider always km west of the line.</t>
   </si>
   <si>
@@ -1295,9 +1292,6 @@
     <t>20210206</t>
   </si>
   <si>
-    <t>first mission after maintenance and battery upgrade. Heading low noise ON.</t>
-  </si>
-  <si>
     <t>20210429</t>
   </si>
   <si>
@@ -1305,6 +1299,36 @@
   </si>
   <si>
     <t>GLI2021_SEA019_94</t>
+  </si>
+  <si>
+    <t>20210511</t>
+  </si>
+  <si>
+    <t>GL1-GL2</t>
+  </si>
+  <si>
+    <t>Sigma-T/Molly Kool</t>
+  </si>
+  <si>
+    <t>First mission after maintenance and battery upgrade. Heading low noise ON. Water inlet alarm after 4 days. Mission aborted. Argos tag running for 24h.</t>
+  </si>
+  <si>
+    <t>new dropweight and battery, pld of sea032 with rinko and minifluo.</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>acc 1, ctd and eco 5</t>
+  </si>
+  <si>
+    <t>20201230</t>
+  </si>
+  <si>
+    <t>With legato and ecopuck</t>
+  </si>
+  <si>
+    <t>with pld of sea024</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1610,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,6 +1873,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2158,13 +2188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO61"/>
+  <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BB42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BN40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL47" sqref="BL47"/>
+      <selection pane="bottomRight" activeCell="BO49" sqref="BO49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9560,7 +9590,7 @@
         <v>406</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>24</v>
@@ -9601,7 +9631,7 @@
       <c r="P46" s="18">
         <v>-61.49</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="2" t="s">
         <v>402</v>
       </c>
       <c r="R46" s="2">
@@ -9720,14 +9750,19 @@
         <v>203</v>
       </c>
       <c r="BO46" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>2</v>
+      </c>
       <c r="B47" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="C47" s="20"/>
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
@@ -9741,23 +9776,48 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I47" s="2">
         <v>29.1</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="J47" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="K47" s="14">
+        <v>44.380200000000002</v>
+      </c>
+      <c r="L47" s="14">
+        <v>-63.336500000000001</v>
+      </c>
+      <c r="M47" s="18">
+        <v>43.72</v>
+      </c>
+      <c r="N47" s="18">
+        <v>-63.42</v>
+      </c>
+      <c r="O47" s="18">
+        <v>44.39</v>
+      </c>
+      <c r="P47" s="18">
+        <v>-62.67</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="R47" s="2">
+        <v>4</v>
+      </c>
+      <c r="S47" s="2">
+        <v>104</v>
+      </c>
+      <c r="T47" s="2">
+        <v>134</v>
+      </c>
+      <c r="U47" s="2">
+        <f>T47*2</f>
+        <v>268</v>
+      </c>
       <c r="V47" s="18" t="s">
         <v>36</v>
       </c>
@@ -9774,11 +9834,17 @@
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
       <c r="AC47" s="18"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>0</v>
+      </c>
       <c r="AG47" s="2">
-        <v>1032.5</v>
+        <v>1023.5</v>
       </c>
       <c r="AH47" s="18">
         <v>20210420</v>
@@ -9796,7 +9862,7 @@
         <v>69</v>
       </c>
       <c r="AM47" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN47" s="22" t="s">
         <v>219</v>
@@ -9808,7 +9874,7 @@
         <v>71</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
@@ -9836,8 +9902,12 @@
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH47" s="15"/>
-      <c r="BI47" s="15"/>
+      <c r="BH47" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI47" s="22" t="s">
+        <v>291</v>
+      </c>
       <c r="BJ47" s="22" t="s">
         <v>139</v>
       </c>
@@ -9848,27 +9918,29 @@
       <c r="BM47" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN47" s="18"/>
+      <c r="BN47" s="18" t="s">
+        <v>428</v>
+      </c>
       <c r="BO47" s="21" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>411</v>
+        <v>44</v>
+      </c>
+      <c r="E48" s="102">
+        <v>66</v>
       </c>
       <c r="F48" s="14">
-        <v>4800994</v>
+        <v>4800993</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="2"/>
@@ -9884,22 +9956,22 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
+      <c r="V48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W48" s="18" t="s">
+        <v>235</v>
+      </c>
       <c r="X48" s="18" t="s">
         <v>188</v>
       </c>
       <c r="Y48" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Z48" s="18" t="s">
-        <v>188</v>
-      </c>
+      <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
-      <c r="AC48" s="18" t="s">
-        <v>413</v>
-      </c>
+      <c r="AC48" s="18"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
@@ -9907,7 +9979,7 @@
         <v>1024</v>
       </c>
       <c r="AH48" s="18">
-        <v>20210421</v>
+        <v>20210420</v>
       </c>
       <c r="AI48" s="18" t="s">
         <v>414</v>
@@ -9916,38 +9988,36 @@
         <v>398</v>
       </c>
       <c r="AK48" s="14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AL48" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AM48" s="22" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="AN48" s="22" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="AO48" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="22"/>
-      <c r="AR48" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS48" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="AT48" s="22" t="s">
-        <v>168</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AP48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ48" s="103">
+        <v>20210105</v>
+      </c>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="22"/>
       <c r="AU48" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AV48" s="16">
-        <v>42859</v>
-      </c>
-      <c r="AW48" s="101" t="s">
+        <v>42711</v>
+      </c>
+      <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
       <c r="AX48" s="93"/>
@@ -9955,180 +10025,306 @@
       <c r="AZ48" s="93"/>
       <c r="BA48" s="93"/>
       <c r="BB48" s="93"/>
-      <c r="BC48" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="BD48" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="BE48" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
       <c r="BF48" s="10" t="s">
         <v>236</v>
       </c>
       <c r="BG48" s="17" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="BH48" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI48" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ48" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="BI48" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ48" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="BK48" s="2"/>
       <c r="BL48" s="14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BM48" s="14" t="s">
         <v>212</v>
       </c>
       <c r="BN48" s="18"/>
       <c r="BO48" s="21" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="49" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="37"/>
-      <c r="AB49" s="37"/>
-      <c r="AC49" s="37"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="34"/>
-      <c r="AM49" s="38"/>
-      <c r="AN49" s="38"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="72"/>
-      <c r="AQ49" s="38"/>
-      <c r="AR49" s="38"/>
-      <c r="AS49" s="38"/>
-      <c r="AT49" s="38"/>
-      <c r="AU49" s="34"/>
-      <c r="AV49" s="74"/>
-      <c r="AW49" s="38"/>
-      <c r="AX49" s="38"/>
-      <c r="AY49" s="38"/>
-      <c r="AZ49" s="38"/>
-      <c r="BA49" s="38"/>
-      <c r="BB49" s="38"/>
-      <c r="BC49" s="38"/>
-      <c r="BD49" s="38"/>
-      <c r="BE49" s="38"/>
-      <c r="BF49" s="34"/>
-      <c r="BG49" s="48"/>
-      <c r="BH49" s="38"/>
-      <c r="BI49" s="38"/>
-      <c r="BJ49" s="38"/>
-      <c r="BK49" s="3"/>
-      <c r="BL49" s="35"/>
-      <c r="BM49" s="35"/>
-      <c r="BN49" s="37"/>
-      <c r="BO49" s="43"/>
+    <row r="49" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="102">
+        <v>55</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W49" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18">
+        <v>256</v>
+      </c>
+      <c r="AB49" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>1023.5</v>
+      </c>
+      <c r="AH49" s="18">
+        <v>20210527</v>
+      </c>
+      <c r="AI49" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ49" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>58</v>
+      </c>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV49" s="16">
+        <v>42723</v>
+      </c>
+      <c r="AW49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX49" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AY49" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ49" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA49" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="BB49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG49" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH49" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI49" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ49" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM49" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN49" s="18"/>
+      <c r="BO49" s="21" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="50" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="34"/>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="72"/>
-      <c r="AP50" s="72"/>
-      <c r="AQ50" s="38"/>
-      <c r="AR50" s="38"/>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38"/>
-      <c r="AU50" s="34"/>
-      <c r="AV50" s="74"/>
-      <c r="AW50" s="38"/>
-      <c r="AX50" s="38"/>
-      <c r="AY50" s="38"/>
-      <c r="AZ50" s="38"/>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38"/>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="38"/>
-      <c r="BF50" s="34"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="38"/>
-      <c r="BI50" s="38"/>
-      <c r="BJ50" s="38"/>
-      <c r="BK50" s="3"/>
-      <c r="BL50" s="35"/>
-      <c r="BM50" s="35"/>
-      <c r="BN50" s="37"/>
-      <c r="BO50" s="43"/>
+    <row r="50" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y50" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z50" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH50" s="18">
+        <v>20210421</v>
+      </c>
+      <c r="AI50" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ50" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL50" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM50" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN50" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO50" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="22"/>
+      <c r="AR50" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS50" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT50" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU50" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV50" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW50" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX50" s="93"/>
+      <c r="AY50" s="93"/>
+      <c r="AZ50" s="93"/>
+      <c r="BA50" s="93"/>
+      <c r="BB50" s="93"/>
+      <c r="BC50" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD50" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF50" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG50" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH50" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI50" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ50" s="22"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM50" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN50" s="18"/>
+      <c r="BO50" s="21" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="51" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="34"/>
+      <c r="B51" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C51" s="34"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -10167,14 +10363,14 @@
       <c r="AL51" s="34"/>
       <c r="AM51" s="38"/>
       <c r="AN51" s="38"/>
-      <c r="AO51" s="34"/>
-      <c r="AP51" s="34"/>
+      <c r="AO51" s="72"/>
+      <c r="AP51" s="72"/>
       <c r="AQ51" s="38"/>
       <c r="AR51" s="38"/>
       <c r="AS51" s="38"/>
       <c r="AT51" s="38"/>
       <c r="AU51" s="34"/>
-      <c r="AV51" s="38"/>
+      <c r="AV51" s="74"/>
       <c r="AW51" s="38"/>
       <c r="AX51" s="38"/>
       <c r="AY51" s="38"/>
@@ -10235,14 +10431,14 @@
       <c r="AL52" s="34"/>
       <c r="AM52" s="38"/>
       <c r="AN52" s="38"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="34"/>
+      <c r="AO52" s="72"/>
+      <c r="AP52" s="72"/>
       <c r="AQ52" s="38"/>
       <c r="AR52" s="38"/>
       <c r="AS52" s="38"/>
       <c r="AT52" s="38"/>
       <c r="AU52" s="34"/>
-      <c r="AV52" s="38"/>
+      <c r="AV52" s="74"/>
       <c r="AW52" s="38"/>
       <c r="AX52" s="38"/>
       <c r="AY52" s="38"/>
@@ -10322,12 +10518,8 @@
       <c r="BE53" s="38"/>
       <c r="BF53" s="34"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI53" s="70" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH53" s="38"/>
+      <c r="BI53" s="38"/>
       <c r="BJ53" s="38"/>
       <c r="BK53" s="3"/>
       <c r="BL53" s="35"/>
@@ -10383,24 +10575,20 @@
       <c r="AT54" s="38"/>
       <c r="AU54" s="34"/>
       <c r="AV54" s="38"/>
-      <c r="AW54" s="40"/>
+      <c r="AW54" s="38"/>
       <c r="AX54" s="38"/>
       <c r="AY54" s="38"/>
       <c r="AZ54" s="38"/>
       <c r="BA54" s="38"/>
       <c r="BB54" s="38"/>
-      <c r="BC54" s="40"/>
-      <c r="BD54" s="40"/>
-      <c r="BE54" s="40"/>
-      <c r="BF54" s="41"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI54" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ54" s="40"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="34"/>
+      <c r="BG54" s="48"/>
+      <c r="BH54" s="38"/>
+      <c r="BI54" s="38"/>
+      <c r="BJ54" s="38"/>
       <c r="BK54" s="3"/>
       <c r="BL54" s="35"/>
       <c r="BM54" s="35"/>
@@ -10455,22 +10643,22 @@
       <c r="AT55" s="38"/>
       <c r="AU55" s="34"/>
       <c r="AV55" s="38"/>
-      <c r="AW55" s="40"/>
+      <c r="AW55" s="38"/>
       <c r="AX55" s="38"/>
       <c r="AY55" s="38"/>
       <c r="AZ55" s="38"/>
       <c r="BA55" s="38"/>
       <c r="BB55" s="38"/>
-      <c r="BC55" s="40"/>
-      <c r="BD55" s="40"/>
-      <c r="BE55" s="40"/>
-      <c r="BF55" s="41"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="69" t="s">
-        <v>95</v>
+      <c r="BC55" s="38"/>
+      <c r="BD55" s="38"/>
+      <c r="BE55" s="38"/>
+      <c r="BF55" s="34"/>
+      <c r="BG55" s="48"/>
+      <c r="BH55" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="BI55" s="70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BJ55" s="38"/>
       <c r="BK55" s="3"/>
@@ -10500,56 +10688,56 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="49"/>
-      <c r="W56" s="49"/>
-      <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
-      <c r="Z56" s="49"/>
-      <c r="AA56" s="49"/>
-      <c r="AB56" s="49"/>
-      <c r="AC56" s="49"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="49"/>
-      <c r="AI56" s="49"/>
-      <c r="AJ56" s="49"/>
-      <c r="AK56" s="29"/>
-      <c r="AL56" s="51"/>
-      <c r="AM56" s="46"/>
-      <c r="AN56" s="46"/>
-      <c r="AO56" s="51"/>
-      <c r="AP56" s="51"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="46"/>
-      <c r="AS56" s="46"/>
-      <c r="AT56" s="46"/>
-      <c r="AU56" s="51"/>
-      <c r="AV56" s="46"/>
-      <c r="AW56" s="46"/>
-      <c r="AX56" s="46"/>
-      <c r="AY56" s="46"/>
-      <c r="AZ56" s="46"/>
-      <c r="BA56" s="46"/>
-      <c r="BB56" s="46"/>
-      <c r="BC56" s="46"/>
-      <c r="BD56" s="46"/>
-      <c r="BE56" s="46"/>
-      <c r="BF56" s="51"/>
-      <c r="BG56" s="52"/>
-      <c r="BH56" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI56" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ56" s="46"/>
-      <c r="BK56" s="50"/>
-      <c r="BL56" s="29"/>
-      <c r="BM56" s="29"/>
-      <c r="BN56" s="49"/>
-      <c r="BO56" s="30"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
+      <c r="AK56" s="35"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="34"/>
+      <c r="AP56" s="34"/>
+      <c r="AQ56" s="38"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="AT56" s="38"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="38"/>
+      <c r="AW56" s="40"/>
+      <c r="AX56" s="38"/>
+      <c r="AY56" s="38"/>
+      <c r="AZ56" s="38"/>
+      <c r="BA56" s="38"/>
+      <c r="BB56" s="38"/>
+      <c r="BC56" s="40"/>
+      <c r="BD56" s="40"/>
+      <c r="BE56" s="40"/>
+      <c r="BF56" s="41"/>
+      <c r="BG56" s="42"/>
+      <c r="BH56" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI56" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ56" s="40"/>
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="35"/>
+      <c r="BM56" s="35"/>
+      <c r="BN56" s="37"/>
+      <c r="BO56" s="43"/>
     </row>
     <row r="57" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34"/>
@@ -10572,56 +10760,56 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="49"/>
-      <c r="AJ57" s="49"/>
-      <c r="AK57" s="29"/>
-      <c r="AL57" s="51"/>
-      <c r="AM57" s="46"/>
-      <c r="AN57" s="46"/>
-      <c r="AO57" s="51"/>
-      <c r="AP57" s="51"/>
-      <c r="AQ57" s="46"/>
-      <c r="AR57" s="46"/>
-      <c r="AS57" s="46"/>
-      <c r="AT57" s="46"/>
-      <c r="AU57" s="51"/>
-      <c r="AV57" s="46"/>
-      <c r="AW57" s="46"/>
-      <c r="AX57" s="46"/>
-      <c r="AY57" s="46"/>
-      <c r="AZ57" s="46"/>
-      <c r="BA57" s="46"/>
-      <c r="BB57" s="46"/>
-      <c r="BC57" s="46"/>
-      <c r="BD57" s="46"/>
-      <c r="BE57" s="46"/>
-      <c r="BF57" s="51"/>
-      <c r="BG57" s="52"/>
-      <c r="BH57" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI57" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ57" s="46"/>
-      <c r="BK57" s="50"/>
-      <c r="BL57" s="29"/>
-      <c r="BM57" s="29"/>
-      <c r="BN57" s="49"/>
-      <c r="BO57" s="30"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
+      <c r="AK57" s="35"/>
+      <c r="AL57" s="34"/>
+      <c r="AM57" s="38"/>
+      <c r="AN57" s="38"/>
+      <c r="AO57" s="34"/>
+      <c r="AP57" s="34"/>
+      <c r="AQ57" s="38"/>
+      <c r="AR57" s="38"/>
+      <c r="AS57" s="38"/>
+      <c r="AT57" s="38"/>
+      <c r="AU57" s="34"/>
+      <c r="AV57" s="38"/>
+      <c r="AW57" s="40"/>
+      <c r="AX57" s="38"/>
+      <c r="AY57" s="38"/>
+      <c r="AZ57" s="38"/>
+      <c r="BA57" s="38"/>
+      <c r="BB57" s="38"/>
+      <c r="BC57" s="40"/>
+      <c r="BD57" s="40"/>
+      <c r="BE57" s="40"/>
+      <c r="BF57" s="41"/>
+      <c r="BG57" s="42"/>
+      <c r="BH57" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI57" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ57" s="38"/>
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="35"/>
+      <c r="BM57" s="35"/>
+      <c r="BN57" s="37"/>
+      <c r="BO57" s="43"/>
     </row>
     <row r="58" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="34"/>
@@ -10682,11 +10870,11 @@
       <c r="BE58" s="46"/>
       <c r="BF58" s="51"/>
       <c r="BG58" s="52"/>
-      <c r="BH58" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI58" s="67" t="s">
-        <v>119</v>
+      <c r="BH58" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI58" s="68" t="s">
+        <v>329</v>
       </c>
       <c r="BJ58" s="46"/>
       <c r="BK58" s="50"/>
@@ -10754,8 +10942,12 @@
       <c r="BE59" s="46"/>
       <c r="BF59" s="51"/>
       <c r="BG59" s="52"/>
-      <c r="BH59" s="46"/>
-      <c r="BI59" s="46"/>
+      <c r="BH59" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI59" s="64" t="s">
+        <v>291</v>
+      </c>
       <c r="BJ59" s="46"/>
       <c r="BK59" s="50"/>
       <c r="BL59" s="29"/>
@@ -10822,8 +11014,12 @@
       <c r="BE60" s="46"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="52"/>
-      <c r="BH60" s="46"/>
-      <c r="BI60" s="46"/>
+      <c r="BH60" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI60" s="67" t="s">
+        <v>119</v>
+      </c>
       <c r="BJ60" s="46"/>
       <c r="BK60" s="50"/>
       <c r="BL60" s="29"/>
@@ -10899,6 +11095,142 @@
       <c r="BN61" s="49"/>
       <c r="BO61" s="30"/>
     </row>
+    <row r="62" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="29"/>
+      <c r="AL62" s="51"/>
+      <c r="AM62" s="46"/>
+      <c r="AN62" s="46"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="46"/>
+      <c r="AR62" s="46"/>
+      <c r="AS62" s="46"/>
+      <c r="AT62" s="46"/>
+      <c r="AU62" s="51"/>
+      <c r="AV62" s="46"/>
+      <c r="AW62" s="46"/>
+      <c r="AX62" s="46"/>
+      <c r="AY62" s="46"/>
+      <c r="AZ62" s="46"/>
+      <c r="BA62" s="46"/>
+      <c r="BB62" s="46"/>
+      <c r="BC62" s="46"/>
+      <c r="BD62" s="46"/>
+      <c r="BE62" s="46"/>
+      <c r="BF62" s="51"/>
+      <c r="BG62" s="52"/>
+      <c r="BH62" s="46"/>
+      <c r="BI62" s="46"/>
+      <c r="BJ62" s="46"/>
+      <c r="BK62" s="50"/>
+      <c r="BL62" s="29"/>
+      <c r="BM62" s="29"/>
+      <c r="BN62" s="49"/>
+      <c r="BO62" s="30"/>
+    </row>
+    <row r="63" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="51"/>
+      <c r="AM63" s="46"/>
+      <c r="AN63" s="46"/>
+      <c r="AO63" s="51"/>
+      <c r="AP63" s="51"/>
+      <c r="AQ63" s="46"/>
+      <c r="AR63" s="46"/>
+      <c r="AS63" s="46"/>
+      <c r="AT63" s="46"/>
+      <c r="AU63" s="51"/>
+      <c r="AV63" s="46"/>
+      <c r="AW63" s="46"/>
+      <c r="AX63" s="46"/>
+      <c r="AY63" s="46"/>
+      <c r="AZ63" s="46"/>
+      <c r="BA63" s="46"/>
+      <c r="BB63" s="46"/>
+      <c r="BC63" s="46"/>
+      <c r="BD63" s="46"/>
+      <c r="BE63" s="46"/>
+      <c r="BF63" s="51"/>
+      <c r="BG63" s="52"/>
+      <c r="BH63" s="46"/>
+      <c r="BI63" s="46"/>
+      <c r="BJ63" s="46"/>
+      <c r="BK63" s="50"/>
+      <c r="BL63" s="29"/>
+      <c r="BM63" s="29"/>
+      <c r="BN63" s="49"/>
+      <c r="BO63" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="455">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1253,12 +1253,6 @@
     <t>3.2.1-r altiFix</t>
   </si>
   <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>62?</t>
-  </si>
-  <si>
     <t>Sampling rate Minifluo (s)</t>
   </si>
   <si>
@@ -1313,22 +1307,85 @@
     <t>First mission after maintenance and battery upgrade. Heading low noise ON. Water inlet alarm after 4 days. Mission aborted. Argos tag running for 24h.</t>
   </si>
   <si>
-    <t>new dropweight and battery, pld of sea032 with rinko and minifluo.</t>
-  </si>
-  <si>
-    <t>PAM</t>
-  </si>
-  <si>
     <t>acc 1, ctd and eco 5</t>
   </si>
   <si>
     <t>20201230</t>
   </si>
   <si>
-    <t>With legato and ecopuck</t>
-  </si>
-  <si>
-    <t>with pld of sea024</t>
+    <t>20210531</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_66</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_60</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_63</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-Tri- DR</t>
+  </si>
+  <si>
+    <t>GL1-EMB-EB2-EB3-GL1-Tri- DR</t>
+  </si>
+  <si>
+    <t>with pld of sea024, rough deployment</t>
+  </si>
+  <si>
+    <t>20210607</t>
+  </si>
+  <si>
+    <t>in src odis and removed from MARFIS</t>
+  </si>
+  <si>
+    <t>20210621</t>
+  </si>
+  <si>
+    <t>new dropweight and battery, pld of sea032 with rinko and minifluo. Short mission in Trinity bay due to lack of time.</t>
+  </si>
+  <si>
+    <t>see comment</t>
+  </si>
+  <si>
+    <t>With legato and ecopuck, legato was not working on first deployment attempt, mission shortened by one week. Science profile accoustique 664, ctd and ecopuck 285 plus 12 x 2h drift and 1 x 6h drift</t>
+  </si>
+  <si>
+    <t>20200621</t>
+  </si>
+  <si>
+    <t>20210630</t>
+  </si>
+  <si>
+    <t>Tri0.5-Tri1-Tri2-Tri2.5-Tri2.8-Tri2.5-Tri2-Tri0.5-Tri00</t>
+  </si>
+  <si>
+    <t>Mammals zodiac/Mammals zodiac</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_68</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_62</t>
+  </si>
+  <si>
+    <t>~1023</t>
+  </si>
+  <si>
+    <t>2.16.0-r condtemp</t>
+  </si>
+  <si>
+    <t>Sigma-T/</t>
+  </si>
+  <si>
+    <t>pld of sea024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With legato and ecopuck, </t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1610,7 +1673,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,10 +1938,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2188,13 +2264,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO63"/>
+  <dimension ref="A1:BO65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BN40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BN34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO49" sqref="BO49"/>
+      <selection pane="bottomRight" activeCell="BO45" sqref="BO45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,7 +2290,7 @@
     <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.33203125" customWidth="1"/>
     <col min="18" max="18" width="8.109375" customWidth="1"/>
     <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
@@ -2268,7 +2344,9 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="E1" s="105" t="s">
+        <v>438</v>
+      </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
@@ -2403,7 +2481,7 @@
         <v>347</v>
       </c>
       <c r="AC2" s="82" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>55</v>
@@ -2481,13 +2559,13 @@
         <v>357</v>
       </c>
       <c r="BC2" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="BD2" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="BE2" s="84" t="s">
         <v>415</v>
-      </c>
-      <c r="BD2" s="84" t="s">
-        <v>416</v>
-      </c>
-      <c r="BE2" s="84" t="s">
-        <v>417</v>
       </c>
       <c r="BF2" s="87" t="s">
         <v>171</v>
@@ -2533,7 +2611,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="103">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -2703,7 +2781,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="104">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -2873,7 +2951,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="104">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3045,7 +3123,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="104">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3216,7 +3294,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="104">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3388,7 +3466,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="104">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3558,7 +3636,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="104">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -3728,7 +3806,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="104">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -3898,7 +3976,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="104">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4068,7 +4146,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="104">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4242,7 +4320,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="104">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4414,7 +4492,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="104">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -4584,7 +4662,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="104">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -4758,7 +4836,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="104">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -4900,7 +4978,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="38" t="s">
+      <c r="BJ16" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -4930,7 +5008,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="104">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5071,7 +5149,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="38" t="s">
+      <c r="BJ17" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5101,7 +5179,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="104">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5272,7 +5350,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="104">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5513,7 +5591,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="104">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -5654,7 +5732,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="22" t="s">
+      <c r="BJ21" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -5684,7 +5762,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="104">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -5826,7 +5904,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="22" t="s">
+      <c r="BJ22" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -5856,7 +5934,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="104">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -5998,7 +6076,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="22" t="s">
+      <c r="BJ23" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6028,7 +6106,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="104">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6170,7 +6248,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="22" t="s">
+      <c r="BJ24" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6200,7 +6278,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="104">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6370,7 +6448,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="104">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6509,7 +6587,7 @@
       <c r="BI26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="22" t="s">
+      <c r="BJ26" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -6539,7 +6617,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="104">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -6682,7 +6760,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="22" t="s">
+      <c r="BJ27" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -6712,7 +6790,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="104">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -6881,7 +6959,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="104">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7023,7 +7101,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="22" t="s">
+      <c r="BJ29" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7053,7 +7131,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="104">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7210,7 +7288,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="104">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7352,7 +7430,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="22" t="s">
+      <c r="BJ31" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7382,7 +7460,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="104">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7523,7 +7601,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="22" t="s">
+      <c r="BJ32" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -7553,7 +7631,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="104">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -7699,7 +7777,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="22" t="s">
+      <c r="BJ33" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -7873,7 +7951,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="104">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8015,7 +8093,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="38" t="s">
+      <c r="BJ36" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8045,7 +8123,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="104">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8186,7 +8264,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="38" t="s">
+      <c r="BJ37" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8218,7 +8296,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="104">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8347,7 +8425,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="38" t="s">
+      <c r="BJ38" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8379,7 +8457,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="104">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8553,7 +8631,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="104">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -8727,7 +8805,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="104">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -8901,7 +8979,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="104">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9050,7 +9128,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="38" t="s">
+      <c r="BJ42" s="106" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9082,7 +9160,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="104">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9223,7 +9301,7 @@
       <c r="BI43" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="38" t="s">
+      <c r="BJ43" s="106" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9590,7 +9668,7 @@
         <v>406</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>24</v>
@@ -9750,7 +9828,7 @@
         <v>203</v>
       </c>
       <c r="BO46" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9758,10 +9836,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>426</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -9776,7 +9854,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I47" s="2">
         <v>29.1</v>
@@ -9803,7 +9881,7 @@
         <v>-62.67</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="R47" s="2">
         <v>4</v>
@@ -9850,7 +9928,7 @@
         <v>20210420</v>
       </c>
       <c r="AI47" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AJ47" s="18" t="s">
         <v>398</v>
@@ -9862,7 +9940,7 @@
         <v>69</v>
       </c>
       <c r="AM47" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN47" s="22" t="s">
         <v>219</v>
@@ -9874,7 +9952,7 @@
         <v>71</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
@@ -9919,21 +9997,23 @@
         <v>212</v>
       </c>
       <c r="BN47" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BO47" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="20"/>
+        <v>430</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="102">
+      <c r="E48" s="14">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -9942,20 +10022,48 @@
       <c r="G48" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="H48" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I48" s="2">
+        <v>29</v>
+      </c>
+      <c r="J48" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="K48" s="14">
+        <v>44.530900000000003</v>
+      </c>
+      <c r="L48" s="14">
+        <v>-63.460500000000003</v>
+      </c>
+      <c r="M48" s="18">
+        <v>42.46</v>
+      </c>
+      <c r="N48" s="18">
+        <v>-63.47</v>
+      </c>
+      <c r="O48" s="18">
+        <v>44.54</v>
+      </c>
+      <c r="P48" s="18">
+        <v>-61.41</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R48" s="2">
+        <v>21</v>
+      </c>
+      <c r="S48" s="2">
+        <v>626</v>
+      </c>
+      <c r="T48" s="2">
+        <v>1033</v>
+      </c>
+      <c r="U48" s="2">
+        <v>894</v>
+      </c>
       <c r="V48" s="18" t="s">
         <v>36</v>
       </c>
@@ -9972,9 +10080,15 @@
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>1.5</v>
+      </c>
       <c r="AG48" s="2">
         <v>1024</v>
       </c>
@@ -9982,7 +10096,7 @@
         <v>20210420</v>
       </c>
       <c r="AI48" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AJ48" s="18" t="s">
         <v>398</v>
@@ -9994,7 +10108,7 @@
         <v>76</v>
       </c>
       <c r="AM48" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AN48" s="22" t="s">
         <v>219</v>
@@ -10005,7 +10119,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="103">
+      <c r="AQ48" s="102">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10050,21 +10164,25 @@
       <c r="BM48" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN48" s="18"/>
+      <c r="BN48" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="BO48" s="21" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C49" s="20"/>
+        <v>437</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="102">
-        <v>55</v>
+      <c r="E49" s="14">
+        <v>60</v>
       </c>
       <c r="F49" s="14">
         <v>4800937</v>
@@ -10072,25 +10190,53 @@
       <c r="G49" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="H49" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I49" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="K49" s="14">
+        <v>44.378100000000003</v>
+      </c>
+      <c r="L49" s="14">
+        <v>-63.334099999999999</v>
+      </c>
+      <c r="M49" s="18">
+        <v>43.45</v>
+      </c>
+      <c r="N49" s="18">
+        <v>-63.41</v>
+      </c>
+      <c r="O49" s="18">
+        <v>44.52</v>
+      </c>
+      <c r="P49" s="18">
+        <v>-62.85</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="R49" s="2">
+        <v>14</v>
+      </c>
+      <c r="S49" s="2">
+        <v>332</v>
+      </c>
+      <c r="T49" s="2">
+        <v>486</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="V49" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="X49" s="18"/>
       <c r="Y49" s="18" t="s">
@@ -10104,9 +10250,15 @@
         <v>1</v>
       </c>
       <c r="AC49" s="18"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>0</v>
+      </c>
       <c r="AG49" s="2">
         <v>1023.5</v>
       </c>
@@ -10114,7 +10266,7 @@
         <v>20210527</v>
       </c>
       <c r="AI49" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AJ49" s="18" t="s">
         <v>398</v>
@@ -10159,7 +10311,7 @@
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
       <c r="BF49" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BG49" s="17" t="s">
         <v>288</v>
@@ -10180,21 +10332,25 @@
       <c r="BM49" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN49" s="18"/>
+      <c r="BN49" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="BO49" s="21" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C50" s="20"/>
+        <v>443</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>411</v>
+      <c r="E50" s="14">
+        <v>63</v>
       </c>
       <c r="F50" s="14">
         <v>4800994</v>
@@ -10202,22 +10358,55 @@
       <c r="G50" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
+      <c r="H50" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I50" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="J50" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="K50" s="14">
+        <v>47.734900000000003</v>
+      </c>
+      <c r="L50" s="14">
+        <v>-53.663699999999999</v>
+      </c>
+      <c r="M50" s="18">
+        <v>47.7</v>
+      </c>
+      <c r="N50" s="18">
+        <v>-53.68</v>
+      </c>
+      <c r="O50" s="18">
+        <v>48.48</v>
+      </c>
+      <c r="P50" s="18">
+        <v>-52.69</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R50" s="2">
+        <v>9</v>
+      </c>
+      <c r="S50" s="2">
+        <v>250</v>
+      </c>
+      <c r="T50" s="2">
+        <v>177</v>
+      </c>
+      <c r="U50" s="2">
+        <f>T50*2</f>
+        <v>354</v>
+      </c>
+      <c r="V50" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" s="18">
+        <v>1</v>
+      </c>
       <c r="X50" s="18" t="s">
         <v>188</v>
       </c>
@@ -10230,11 +10419,17 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>0</v>
+      </c>
       <c r="AG50" s="2">
         <v>1024</v>
       </c>
@@ -10242,7 +10437,7 @@
         <v>20210421</v>
       </c>
       <c r="AI50" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AJ50" s="18" t="s">
         <v>398</v>
@@ -10288,10 +10483,10 @@
       <c r="BA50" s="93"/>
       <c r="BB50" s="93"/>
       <c r="BC50" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="BD50" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BE50" s="15" t="s">
         <v>168</v>
@@ -10316,151 +10511,291 @@
       <c r="BM50" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN50" s="18"/>
+      <c r="BN50" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="BO50" s="21" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="51" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="37"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="38"/>
-      <c r="AN51" s="38"/>
-      <c r="AO51" s="72"/>
-      <c r="AP51" s="72"/>
-      <c r="AQ51" s="38"/>
-      <c r="AR51" s="38"/>
-      <c r="AS51" s="38"/>
-      <c r="AT51" s="38"/>
-      <c r="AU51" s="34"/>
-      <c r="AV51" s="74"/>
-      <c r="AW51" s="38"/>
-      <c r="AX51" s="38"/>
-      <c r="AY51" s="38"/>
-      <c r="AZ51" s="38"/>
-      <c r="BA51" s="38"/>
-      <c r="BB51" s="38"/>
-      <c r="BC51" s="38"/>
-      <c r="BD51" s="38"/>
-      <c r="BE51" s="38"/>
-      <c r="BF51" s="34"/>
-      <c r="BG51" s="48"/>
-      <c r="BH51" s="38"/>
-      <c r="BI51" s="38"/>
-      <c r="BJ51" s="38"/>
-      <c r="BK51" s="3"/>
-      <c r="BL51" s="35"/>
-      <c r="BM51" s="35"/>
-      <c r="BN51" s="37"/>
-      <c r="BO51" s="43"/>
+    <row r="51" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="14">
+        <v>68</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4800993</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH51" s="18">
+        <v>20210420</v>
+      </c>
+      <c r="AI51" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ51" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK51" s="14">
+        <v>32</v>
+      </c>
+      <c r="AL51" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM51" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN51" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO51" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ51" s="102">
+        <v>20210105</v>
+      </c>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="22"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV51" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW51" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="93"/>
+      <c r="BB51" s="93"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG51" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH51" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI51" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ51" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM51" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN51" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="BO51" s="21" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="52" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37"/>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="38"/>
-      <c r="AN52" s="38"/>
-      <c r="AO52" s="72"/>
-      <c r="AP52" s="72"/>
-      <c r="AQ52" s="38"/>
-      <c r="AR52" s="38"/>
-      <c r="AS52" s="38"/>
-      <c r="AT52" s="38"/>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="74"/>
-      <c r="AW52" s="38"/>
-      <c r="AX52" s="38"/>
-      <c r="AY52" s="38"/>
-      <c r="AZ52" s="38"/>
-      <c r="BA52" s="38"/>
-      <c r="BB52" s="38"/>
-      <c r="BC52" s="38"/>
-      <c r="BD52" s="38"/>
-      <c r="BE52" s="38"/>
-      <c r="BF52" s="34"/>
-      <c r="BG52" s="48"/>
-      <c r="BH52" s="38"/>
-      <c r="BI52" s="38"/>
-      <c r="BJ52" s="38"/>
-      <c r="BK52" s="3"/>
-      <c r="BL52" s="35"/>
-      <c r="BM52" s="35"/>
-      <c r="BN52" s="37"/>
-      <c r="BO52" s="43"/>
+    <row r="52" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="14">
+        <v>62</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="V52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W52" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18">
+        <v>256</v>
+      </c>
+      <c r="AB52" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH52" s="18">
+        <v>20210527</v>
+      </c>
+      <c r="AI52" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ52" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>58</v>
+      </c>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="22"/>
+      <c r="AN52" s="22"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="22"/>
+      <c r="AR52" s="22"/>
+      <c r="AS52" s="22"/>
+      <c r="AT52" s="22"/>
+      <c r="AU52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV52" s="16">
+        <v>42723</v>
+      </c>
+      <c r="AW52" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX52" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AY52" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ52" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA52" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="BB52" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="15"/>
+      <c r="BF52" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="BG52" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH52" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI52" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ52" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK52" s="2"/>
+      <c r="BL52" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM52" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN52" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="BO52" s="21" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="53" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="34"/>
+      <c r="B53" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C53" s="34"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -10499,14 +10834,14 @@
       <c r="AL53" s="34"/>
       <c r="AM53" s="38"/>
       <c r="AN53" s="38"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
+      <c r="AO53" s="72"/>
+      <c r="AP53" s="72"/>
       <c r="AQ53" s="38"/>
       <c r="AR53" s="38"/>
       <c r="AS53" s="38"/>
       <c r="AT53" s="38"/>
       <c r="AU53" s="34"/>
-      <c r="AV53" s="38"/>
+      <c r="AV53" s="74"/>
       <c r="AW53" s="38"/>
       <c r="AX53" s="38"/>
       <c r="AY53" s="38"/>
@@ -10567,14 +10902,14 @@
       <c r="AL54" s="34"/>
       <c r="AM54" s="38"/>
       <c r="AN54" s="38"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="34"/>
+      <c r="AO54" s="72"/>
+      <c r="AP54" s="72"/>
       <c r="AQ54" s="38"/>
       <c r="AR54" s="38"/>
       <c r="AS54" s="38"/>
       <c r="AT54" s="38"/>
       <c r="AU54" s="34"/>
-      <c r="AV54" s="38"/>
+      <c r="AV54" s="74"/>
       <c r="AW54" s="38"/>
       <c r="AX54" s="38"/>
       <c r="AY54" s="38"/>
@@ -10654,12 +10989,8 @@
       <c r="BE55" s="38"/>
       <c r="BF55" s="34"/>
       <c r="BG55" s="48"/>
-      <c r="BH55" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI55" s="70" t="s">
-        <v>331</v>
-      </c>
+      <c r="BH55" s="38"/>
+      <c r="BI55" s="38"/>
       <c r="BJ55" s="38"/>
       <c r="BK55" s="3"/>
       <c r="BL55" s="35"/>
@@ -10715,24 +11046,20 @@
       <c r="AT56" s="38"/>
       <c r="AU56" s="34"/>
       <c r="AV56" s="38"/>
-      <c r="AW56" s="40"/>
+      <c r="AW56" s="38"/>
       <c r="AX56" s="38"/>
       <c r="AY56" s="38"/>
       <c r="AZ56" s="38"/>
       <c r="BA56" s="38"/>
       <c r="BB56" s="38"/>
-      <c r="BC56" s="40"/>
-      <c r="BD56" s="40"/>
-      <c r="BE56" s="40"/>
-      <c r="BF56" s="41"/>
-      <c r="BG56" s="42"/>
-      <c r="BH56" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI56" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ56" s="40"/>
+      <c r="BC56" s="38"/>
+      <c r="BD56" s="38"/>
+      <c r="BE56" s="38"/>
+      <c r="BF56" s="34"/>
+      <c r="BG56" s="48"/>
+      <c r="BH56" s="38"/>
+      <c r="BI56" s="38"/>
+      <c r="BJ56" s="38"/>
       <c r="BK56" s="3"/>
       <c r="BL56" s="35"/>
       <c r="BM56" s="35"/>
@@ -10787,22 +11114,22 @@
       <c r="AT57" s="38"/>
       <c r="AU57" s="34"/>
       <c r="AV57" s="38"/>
-      <c r="AW57" s="40"/>
+      <c r="AW57" s="38"/>
       <c r="AX57" s="38"/>
       <c r="AY57" s="38"/>
       <c r="AZ57" s="38"/>
       <c r="BA57" s="38"/>
       <c r="BB57" s="38"/>
-      <c r="BC57" s="40"/>
-      <c r="BD57" s="40"/>
-      <c r="BE57" s="40"/>
-      <c r="BF57" s="41"/>
-      <c r="BG57" s="42"/>
-      <c r="BH57" s="69" t="s">
-        <v>95</v>
+      <c r="BC57" s="38"/>
+      <c r="BD57" s="38"/>
+      <c r="BE57" s="38"/>
+      <c r="BF57" s="34"/>
+      <c r="BG57" s="48"/>
+      <c r="BH57" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="BI57" s="70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BJ57" s="38"/>
       <c r="BK57" s="3"/>
@@ -10832,56 +11159,56 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
-      <c r="V58" s="49"/>
-      <c r="W58" s="49"/>
-      <c r="X58" s="49"/>
-      <c r="Y58" s="49"/>
-      <c r="Z58" s="49"/>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="50"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
-      <c r="AJ58" s="49"/>
-      <c r="AK58" s="29"/>
-      <c r="AL58" s="51"/>
-      <c r="AM58" s="46"/>
-      <c r="AN58" s="46"/>
-      <c r="AO58" s="51"/>
-      <c r="AP58" s="51"/>
-      <c r="AQ58" s="46"/>
-      <c r="AR58" s="46"/>
-      <c r="AS58" s="46"/>
-      <c r="AT58" s="46"/>
-      <c r="AU58" s="51"/>
-      <c r="AV58" s="46"/>
-      <c r="AW58" s="46"/>
-      <c r="AX58" s="46"/>
-      <c r="AY58" s="46"/>
-      <c r="AZ58" s="46"/>
-      <c r="BA58" s="46"/>
-      <c r="BB58" s="46"/>
-      <c r="BC58" s="46"/>
-      <c r="BD58" s="46"/>
-      <c r="BE58" s="46"/>
-      <c r="BF58" s="51"/>
-      <c r="BG58" s="52"/>
-      <c r="BH58" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI58" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ58" s="46"/>
-      <c r="BK58" s="50"/>
-      <c r="BL58" s="29"/>
-      <c r="BM58" s="29"/>
-      <c r="BN58" s="49"/>
-      <c r="BO58" s="30"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="38"/>
+      <c r="AN58" s="38"/>
+      <c r="AO58" s="34"/>
+      <c r="AP58" s="34"/>
+      <c r="AQ58" s="38"/>
+      <c r="AR58" s="38"/>
+      <c r="AS58" s="38"/>
+      <c r="AT58" s="38"/>
+      <c r="AU58" s="34"/>
+      <c r="AV58" s="38"/>
+      <c r="AW58" s="40"/>
+      <c r="AX58" s="38"/>
+      <c r="AY58" s="38"/>
+      <c r="AZ58" s="38"/>
+      <c r="BA58" s="38"/>
+      <c r="BB58" s="38"/>
+      <c r="BC58" s="40"/>
+      <c r="BD58" s="40"/>
+      <c r="BE58" s="40"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="42"/>
+      <c r="BH58" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI58" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ58" s="40"/>
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="35"/>
+      <c r="BM58" s="35"/>
+      <c r="BN58" s="37"/>
+      <c r="BO58" s="43"/>
     </row>
     <row r="59" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="34"/>
@@ -10904,56 +11231,56 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-      <c r="AG59" s="50"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="51"/>
-      <c r="AM59" s="46"/>
-      <c r="AN59" s="46"/>
-      <c r="AO59" s="51"/>
-      <c r="AP59" s="51"/>
-      <c r="AQ59" s="46"/>
-      <c r="AR59" s="46"/>
-      <c r="AS59" s="46"/>
-      <c r="AT59" s="46"/>
-      <c r="AU59" s="51"/>
-      <c r="AV59" s="46"/>
-      <c r="AW59" s="46"/>
-      <c r="AX59" s="46"/>
-      <c r="AY59" s="46"/>
-      <c r="AZ59" s="46"/>
-      <c r="BA59" s="46"/>
-      <c r="BB59" s="46"/>
-      <c r="BC59" s="46"/>
-      <c r="BD59" s="46"/>
-      <c r="BE59" s="46"/>
-      <c r="BF59" s="51"/>
-      <c r="BG59" s="52"/>
-      <c r="BH59" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI59" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ59" s="46"/>
-      <c r="BK59" s="50"/>
-      <c r="BL59" s="29"/>
-      <c r="BM59" s="29"/>
-      <c r="BN59" s="49"/>
-      <c r="BO59" s="30"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="34"/>
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
+      <c r="AQ59" s="38"/>
+      <c r="AR59" s="38"/>
+      <c r="AS59" s="38"/>
+      <c r="AT59" s="38"/>
+      <c r="AU59" s="34"/>
+      <c r="AV59" s="38"/>
+      <c r="AW59" s="40"/>
+      <c r="AX59" s="38"/>
+      <c r="AY59" s="38"/>
+      <c r="AZ59" s="38"/>
+      <c r="BA59" s="38"/>
+      <c r="BB59" s="38"/>
+      <c r="BC59" s="40"/>
+      <c r="BD59" s="40"/>
+      <c r="BE59" s="40"/>
+      <c r="BF59" s="41"/>
+      <c r="BG59" s="42"/>
+      <c r="BH59" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI59" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ59" s="38"/>
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="35"/>
+      <c r="BM59" s="35"/>
+      <c r="BN59" s="37"/>
+      <c r="BO59" s="43"/>
     </row>
     <row r="60" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="34"/>
@@ -11014,11 +11341,11 @@
       <c r="BE60" s="46"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="52"/>
-      <c r="BH60" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI60" s="67" t="s">
-        <v>119</v>
+      <c r="BH60" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI60" s="68" t="s">
+        <v>329</v>
       </c>
       <c r="BJ60" s="46"/>
       <c r="BK60" s="50"/>
@@ -11086,8 +11413,12 @@
       <c r="BE61" s="46"/>
       <c r="BF61" s="51"/>
       <c r="BG61" s="52"/>
-      <c r="BH61" s="46"/>
-      <c r="BI61" s="46"/>
+      <c r="BH61" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI61" s="64" t="s">
+        <v>291</v>
+      </c>
       <c r="BJ61" s="46"/>
       <c r="BK61" s="50"/>
       <c r="BL61" s="29"/>
@@ -11154,8 +11485,12 @@
       <c r="BE62" s="46"/>
       <c r="BF62" s="51"/>
       <c r="BG62" s="52"/>
-      <c r="BH62" s="46"/>
-      <c r="BI62" s="46"/>
+      <c r="BH62" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI62" s="67" t="s">
+        <v>119</v>
+      </c>
       <c r="BJ62" s="46"/>
       <c r="BK62" s="50"/>
       <c r="BL62" s="29"/>
@@ -11231,6 +11566,142 @@
       <c r="BN63" s="49"/>
       <c r="BO63" s="30"/>
     </row>
+    <row r="64" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="49"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="51"/>
+      <c r="AM64" s="46"/>
+      <c r="AN64" s="46"/>
+      <c r="AO64" s="51"/>
+      <c r="AP64" s="51"/>
+      <c r="AQ64" s="46"/>
+      <c r="AR64" s="46"/>
+      <c r="AS64" s="46"/>
+      <c r="AT64" s="46"/>
+      <c r="AU64" s="51"/>
+      <c r="AV64" s="46"/>
+      <c r="AW64" s="46"/>
+      <c r="AX64" s="46"/>
+      <c r="AY64" s="46"/>
+      <c r="AZ64" s="46"/>
+      <c r="BA64" s="46"/>
+      <c r="BB64" s="46"/>
+      <c r="BC64" s="46"/>
+      <c r="BD64" s="46"/>
+      <c r="BE64" s="46"/>
+      <c r="BF64" s="51"/>
+      <c r="BG64" s="52"/>
+      <c r="BH64" s="46"/>
+      <c r="BI64" s="46"/>
+      <c r="BJ64" s="46"/>
+      <c r="BK64" s="50"/>
+      <c r="BL64" s="29"/>
+      <c r="BM64" s="29"/>
+      <c r="BN64" s="49"/>
+      <c r="BO64" s="30"/>
+    </row>
+    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="50"/>
+      <c r="AH65" s="49"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="51"/>
+      <c r="AM65" s="46"/>
+      <c r="AN65" s="46"/>
+      <c r="AO65" s="51"/>
+      <c r="AP65" s="51"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="46"/>
+      <c r="AS65" s="46"/>
+      <c r="AT65" s="46"/>
+      <c r="AU65" s="51"/>
+      <c r="AV65" s="46"/>
+      <c r="AW65" s="46"/>
+      <c r="AX65" s="46"/>
+      <c r="AY65" s="46"/>
+      <c r="AZ65" s="46"/>
+      <c r="BA65" s="46"/>
+      <c r="BB65" s="46"/>
+      <c r="BC65" s="46"/>
+      <c r="BD65" s="46"/>
+      <c r="BE65" s="46"/>
+      <c r="BF65" s="51"/>
+      <c r="BG65" s="52"/>
+      <c r="BH65" s="46"/>
+      <c r="BI65" s="46"/>
+      <c r="BJ65" s="46"/>
+      <c r="BK65" s="50"/>
+      <c r="BL65" s="29"/>
+      <c r="BM65" s="29"/>
+      <c r="BN65" s="49"/>
+      <c r="BO65" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="489">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1349,12 +1349,6 @@
     <t>see comment</t>
   </si>
   <si>
-    <t>With legato and ecopuck, legato was not working on first deployment attempt, mission shortened by one week. Science profile accoustique 664, ctd and ecopuck 285 plus 12 x 2h drift and 1 x 6h drift</t>
-  </si>
-  <si>
-    <t>20200621</t>
-  </si>
-  <si>
     <t>20210630</t>
   </si>
   <si>
@@ -1364,9 +1358,6 @@
     <t>Mammals zodiac/Mammals zodiac</t>
   </si>
   <si>
-    <t>Pam</t>
-  </si>
-  <si>
     <t>GLI2021_SEA022_68</t>
   </si>
   <si>
@@ -1379,13 +1370,145 @@
     <t>2.16.0-r condtemp</t>
   </si>
   <si>
+    <t>20210712</t>
+  </si>
+  <si>
+    <t>20210721</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_65</t>
+  </si>
+  <si>
+    <t>pld of sea032 with rinko and minifluo</t>
+  </si>
+  <si>
+    <t>20210803</t>
+  </si>
+  <si>
+    <t>pld of sea024, internal waves at shelf break causing multiple alarms</t>
+  </si>
+  <si>
+    <t>With legato and ecopuck. Science profile accoustique 1600, ctd and ecopuck 245 plus 45 x 2h drift</t>
+  </si>
+  <si>
+    <r>
+      <t>With legato and ecopuck, legato was not working on first deployment attempt, mission shortened by one week. Science profile accoustique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 664/974</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ctd and ecopuck 285 plus 12 x 2h drift and 1 x 6h drift</t>
+    </r>
+  </si>
+  <si>
+    <t>GL1-EM3-EMB-EB2-EB4-EB5-EB6-Tri- DR</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20210810</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1</t>
+  </si>
+  <si>
+    <t>20210901</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_67</t>
+  </si>
+  <si>
+    <t>C&amp;P/</t>
+  </si>
+  <si>
+    <t>W1-W2-W3-W4-W5-W6-W1-Tri- DR</t>
+  </si>
+  <si>
+    <t>~1022</t>
+  </si>
+  <si>
+    <t>3.2.2-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.0-r </t>
+  </si>
+  <si>
     <t>Sigma-T/</t>
   </si>
   <si>
     <t>pld of sea024</t>
   </si>
   <si>
-    <t xml:space="preserve">With legato and ecopuck, </t>
+    <t>20210914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17.0-r </t>
+  </si>
+  <si>
+    <t>AZMP fall 2021</t>
+  </si>
+  <si>
+    <t>First mission after water leak and front tap change.</t>
+  </si>
+  <si>
+    <t>20210928</t>
+  </si>
+  <si>
+    <t>20210929</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1-please</t>
+  </si>
+  <si>
+    <t>1, flexible for hurricane</t>
+  </si>
+  <si>
+    <t>~1024</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_69</t>
+  </si>
+  <si>
+    <t>pld of sea032 with rinko and minifluo, changed sampling rate for hurricane Larry, noticed weird GPCTD data from DO at dive 181 and from other properties at dive 232. corrosion is the best hypothesis. Pld off at bb01 to go to bonavista bay. Corrosion confirmed on GPCTD bulkhead connector.</t>
+  </si>
+  <si>
+    <t>pld of sea032 with sea021 ctd 0184, had to add 2 foams for ballasting and was still a bit heavy due to SBE DO sensor</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_70</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_97</t>
+  </si>
+  <si>
+    <t>20211005</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_65</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-Tri3-Tri2-Tri1-DR</t>
+  </si>
+  <si>
+    <t>With legato and ecopuck. Science profile accoustique 1400, ctd and ecopuck 338 plus 13 x 2h drift. The ctd and eco sampling was not consistent, sometime being forgotten to be turned on and sometime sampling at 100% instead of 20%</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1519,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,13 +1571,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1673,7 +1789,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,12 +1951,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1850,31 +1960,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1954,7 +2064,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2264,13 +2377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO65"/>
+  <dimension ref="A1:BO70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BN34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="BO37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO45" sqref="BO45"/>
+      <selection pane="bottomRight" activeCell="BO60" sqref="BO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,19 +2403,19 @@
     <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.33203125" customWidth="1"/>
+    <col min="17" max="17" width="65.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.109375" customWidth="1"/>
     <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.77734375" customWidth="1"/>
     <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="91" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" style="91" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="89" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="89" customWidth="1"/>
     <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
@@ -2312,22 +2425,22 @@
     <col min="36" max="36" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" style="90" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="92" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" style="92" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="90" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="90" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="90" customWidth="1"/>
     <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11.77734375" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" style="92" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="92" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="92" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" style="92" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.21875" style="92" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="90" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="90" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="90" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="90" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="90" customWidth="1"/>
     <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
     <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
     <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
@@ -2338,13 +2451,14 @@
     <col min="65" max="65" width="15.5546875" style="4" customWidth="1"/>
     <col min="66" max="66" width="16.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="103" t="s">
         <v>438</v>
       </c>
       <c r="F1" s="24"/>
@@ -2398,26 +2512,26 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="77" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="1:67" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="78" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2426,22 +2540,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="78" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2459,28 +2573,28 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="82" t="s">
+      <c r="V2" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="80" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="82" t="s">
+      <c r="AB2" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="80" t="s">
         <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
@@ -2495,106 +2609,106 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="82" t="s">
+      <c r="AH2" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="82" t="s">
+      <c r="AI2" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="82" t="s">
+      <c r="AJ2" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="83" t="s">
+      <c r="AK2" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="85" t="s">
+      <c r="AL2" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="84" t="s">
+      <c r="AM2" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="84" t="s">
+      <c r="AN2" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="85" t="s">
+      <c r="AO2" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="85" t="s">
+      <c r="AP2" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="AQ2" s="84" t="s">
+      <c r="AQ2" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="AR2" s="84" t="s">
+      <c r="AR2" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="84" t="s">
+      <c r="AS2" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="84" t="s">
+      <c r="AT2" s="82" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="85" t="s">
+      <c r="AU2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="84" t="s">
+      <c r="AV2" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="86" t="s">
+      <c r="AW2" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="AX2" s="84" t="s">
+      <c r="AX2" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="84" t="s">
+      <c r="AY2" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="AZ2" s="84" t="s">
+      <c r="AZ2" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="BA2" s="84" t="s">
+      <c r="BA2" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="84" t="s">
+      <c r="BB2" s="82" t="s">
         <v>357</v>
       </c>
-      <c r="BC2" s="84" t="s">
+      <c r="BC2" s="82" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="84" t="s">
+      <c r="BD2" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="84" t="s">
+      <c r="BE2" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="BF2" s="87" t="s">
+      <c r="BF2" s="85" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="84" t="s">
+      <c r="BH2" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="84" t="s">
+      <c r="BI2" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="84" t="s">
+      <c r="BJ2" s="82" t="s">
         <v>229</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="88" t="s">
+      <c r="BL2" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="88" t="s">
+      <c r="BM2" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="89" t="s">
+      <c r="BN2" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="90" t="s">
+      <c r="BO2" s="88" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2611,7 +2725,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="101">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -2769,10 +2883,10 @@
       </c>
     </row>
     <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96">
+      <c r="A4" s="94">
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2781,7 +2895,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="102">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -2951,7 +3065,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3123,7 +3237,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="102">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3294,7 +3408,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="102">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3466,7 +3580,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="102">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3636,7 +3750,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="102">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -3806,7 +3920,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="102">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -3976,7 +4090,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="102">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4146,7 +4260,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="102">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4320,7 +4434,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4492,7 +4606,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -4662,7 +4776,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -4836,7 +4950,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="102">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -4978,7 +5092,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="106" t="s">
+      <c r="BJ16" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -4996,10 +5110,10 @@
       </c>
     </row>
     <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98">
+      <c r="A17" s="96">
         <v>13</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="95" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5008,7 +5122,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="102">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5149,7 +5263,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="106" t="s">
+      <c r="BJ17" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5179,7 +5293,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5350,7 +5464,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="102">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5579,7 +5693,7 @@
       <c r="BO20" s="21"/>
     </row>
     <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="94">
+      <c r="A21" s="92">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5591,7 +5705,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="102">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -5732,7 +5846,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="106" t="s">
+      <c r="BJ21" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -5750,7 +5864,7 @@
       </c>
     </row>
     <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94">
+      <c r="A22" s="92">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -5762,7 +5876,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="102">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -5904,7 +6018,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="106" t="s">
+      <c r="BJ22" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -5934,7 +6048,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="104">
+      <c r="E23" s="102">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6076,7 +6190,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="106" t="s">
+      <c r="BJ23" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6106,7 +6220,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="104">
+      <c r="E24" s="102">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6248,7 +6362,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="106" t="s">
+      <c r="BJ24" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6278,7 +6392,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="102">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6448,7 +6562,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E26" s="102">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6587,7 +6701,7 @@
       <c r="BI26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="106" t="s">
+      <c r="BJ26" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -6617,7 +6731,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="102">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -6760,7 +6874,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="106" t="s">
+      <c r="BJ27" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -6790,7 +6904,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="102">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -6959,7 +7073,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="102">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7101,7 +7215,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="106" t="s">
+      <c r="BJ29" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7131,7 +7245,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="102">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7288,7 +7402,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="102">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7430,7 +7544,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="106" t="s">
+      <c r="BJ31" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7460,7 +7574,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="102">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7601,7 +7715,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="106" t="s">
+      <c r="BJ32" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -7619,10 +7733,10 @@
       </c>
     </row>
     <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="96">
+      <c r="A33" s="94">
         <v>14</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="93" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -7631,7 +7745,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="104">
+      <c r="E33" s="102">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -7777,7 +7891,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="106" t="s">
+      <c r="BJ33" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -7951,7 +8065,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="104">
+      <c r="E36" s="102">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8093,7 +8207,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="106" t="s">
+      <c r="BJ36" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8123,7 +8237,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="104">
+      <c r="E37" s="102">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8141,10 +8255,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="65">
+      <c r="K37" s="63">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="65">
+      <c r="L37" s="63">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8264,7 +8378,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="106" t="s">
+      <c r="BJ37" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8296,7 +8410,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="104">
+      <c r="E38" s="102">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8314,10 +8428,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="66">
+      <c r="K38" s="64">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="66">
+      <c r="L38" s="64">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8425,7 +8539,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="106" t="s">
+      <c r="BJ38" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8457,7 +8571,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="104">
+      <c r="E39" s="102">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8631,7 +8745,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="102">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -8805,7 +8919,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="104">
+      <c r="E41" s="102">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -8823,10 +8937,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="65">
+      <c r="K41" s="63">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="65">
+      <c r="L41" s="63">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -8979,7 +9093,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="102">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9128,7 +9242,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="106" t="s">
+      <c r="BJ42" s="104" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9160,7 +9274,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="104">
+      <c r="E43" s="102">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9248,7 +9362,7 @@
       <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AK43" s="76">
+      <c r="AK43" s="74">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
@@ -9272,13 +9386,13 @@
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="72" t="s">
+      <c r="AU43" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="73">
+      <c r="AV43" s="71">
         <v>42723</v>
       </c>
-      <c r="AW43" s="75" t="s">
+      <c r="AW43" s="73" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9295,13 +9409,13 @@
       <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BH43" s="71" t="s">
+      <c r="BH43" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="71" t="s">
+      <c r="BI43" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="106" t="s">
+      <c r="BJ43" s="104" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9488,10 +9602,10 @@
       </c>
     </row>
     <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="98">
+      <c r="A45" s="96">
         <v>10</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="95" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -9590,7 +9704,7 @@
       <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AK45" s="76">
+      <c r="AK45" s="74">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
@@ -9622,7 +9736,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="99" t="s">
+      <c r="AW45" s="97" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -9782,9 +9896,9 @@
       <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AR46" s="93"/>
-      <c r="AS46" s="93"/>
-      <c r="AT46" s="93"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -9794,14 +9908,14 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="93"/>
-      <c r="AY46" s="93"/>
-      <c r="AZ46" s="93"/>
-      <c r="BA46" s="93"/>
-      <c r="BB46" s="93"/>
-      <c r="BC46" s="100"/>
-      <c r="BD46" s="100"/>
-      <c r="BE46" s="100"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="91"/>
+      <c r="AZ46" s="91"/>
+      <c r="BA46" s="91"/>
+      <c r="BB46" s="91"/>
+      <c r="BC46" s="98"/>
+      <c r="BD46" s="98"/>
+      <c r="BE46" s="98"/>
       <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
@@ -9966,11 +10080,11 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="93"/>
-      <c r="AY47" s="93"/>
-      <c r="AZ47" s="93"/>
-      <c r="BA47" s="93"/>
-      <c r="BB47" s="93"/>
+      <c r="AX47" s="91"/>
+      <c r="AY47" s="91"/>
+      <c r="AZ47" s="91"/>
+      <c r="BA47" s="91"/>
+      <c r="BB47" s="91"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
@@ -10004,6 +10118,9 @@
       </c>
     </row>
     <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>3</v>
+      </c>
       <c r="B48" s="20" t="s">
         <v>430</v>
       </c>
@@ -10119,7 +10236,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="102">
+      <c r="AQ48" s="100">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10134,11 +10251,11 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="93"/>
-      <c r="AY48" s="93"/>
-      <c r="AZ48" s="93"/>
-      <c r="BA48" s="93"/>
-      <c r="BB48" s="93"/>
+      <c r="AX48" s="91"/>
+      <c r="AY48" s="91"/>
+      <c r="AZ48" s="91"/>
+      <c r="BA48" s="91"/>
+      <c r="BB48" s="91"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
@@ -10171,7 +10288,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>4</v>
+      </c>
       <c r="B49" s="20" t="s">
         <v>437</v>
       </c>
@@ -10336,15 +10456,18 @@
         <v>203</v>
       </c>
       <c r="BO49" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>5</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>35</v>
@@ -10386,7 +10509,7 @@
         <v>-52.69</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R50" s="2">
         <v>9</v>
@@ -10474,14 +10597,14 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="101" t="s">
+      <c r="AW50" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="93"/>
-      <c r="AY50" s="93"/>
-      <c r="AZ50" s="93"/>
-      <c r="BA50" s="93"/>
-      <c r="BB50" s="93"/>
+      <c r="AX50" s="91"/>
+      <c r="AY50" s="91"/>
+      <c r="AZ50" s="91"/>
+      <c r="BA50" s="91"/>
+      <c r="BB50" s="91"/>
       <c r="BC50" s="15" t="s">
         <v>416</v>
       </c>
@@ -10512,17 +10635,22 @@
         <v>212</v>
       </c>
       <c r="BN50" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BO50" s="21" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>6</v>
+      </c>
       <c r="B51" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="20"/>
+        <v>449</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>453</v>
+      </c>
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
@@ -10536,23 +10664,47 @@
         <v>15</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="107" t="s">
+        <v>445</v>
+      </c>
+      <c r="I51" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>25</v>
+      </c>
+      <c r="K51" s="14">
+        <v>44.478400000000001</v>
+      </c>
+      <c r="L51" s="14">
+        <v>-63.441400000000002</v>
+      </c>
+      <c r="M51" s="18">
+        <v>42.43</v>
+      </c>
+      <c r="N51" s="18">
+        <v>-63.44</v>
+      </c>
+      <c r="O51" s="18">
+        <v>44.55</v>
+      </c>
+      <c r="P51" s="18">
+        <v>-61.4</v>
+      </c>
+      <c r="Q51" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+      <c r="R51" s="2">
+        <v>22</v>
+      </c>
+      <c r="S51" s="2">
+        <v>642</v>
+      </c>
+      <c r="T51" s="2">
+        <v>1154</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1013</v>
+      </c>
       <c r="V51" s="18" t="s">
         <v>36</v>
       </c>
@@ -10569,11 +10721,17 @@
       <c r="AA51" s="18"/>
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AD51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>2</v>
+      </c>
       <c r="AG51" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AH51" s="18">
         <v>20210420</v>
@@ -10602,7 +10760,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="102">
+      <c r="AQ51" s="100">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -10617,11 +10775,11 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="93"/>
-      <c r="AY51" s="93"/>
-      <c r="AZ51" s="93"/>
-      <c r="BA51" s="93"/>
-      <c r="BB51" s="93"/>
+      <c r="AX51" s="91"/>
+      <c r="AY51" s="91"/>
+      <c r="AZ51" s="91"/>
+      <c r="BA51" s="91"/>
+      <c r="BB51" s="91"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
@@ -10648,17 +10806,22 @@
         <v>212</v>
       </c>
       <c r="BN51" s="18" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="BO51" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>7</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="52" spans="2:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="C52" s="20"/>
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
@@ -10672,29 +10835,51 @@
         <v>218</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="107" t="s">
-        <v>435</v>
-      </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="I52" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="K52" s="14">
+        <v>44.476100000000002</v>
+      </c>
+      <c r="L52" s="14">
+        <v>-63.443199999999997</v>
+      </c>
+      <c r="M52" s="18">
+        <v>43.47</v>
+      </c>
+      <c r="N52" s="18">
+        <v>-63.45</v>
+      </c>
+      <c r="O52" s="18">
+        <v>44.55</v>
+      </c>
+      <c r="P52" s="18">
+        <v>-62.68</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="R52" s="2">
+        <v>22</v>
+      </c>
+      <c r="S52" s="2">
+        <v>493</v>
+      </c>
+      <c r="T52" s="2">
+        <v>808</v>
+      </c>
       <c r="U52" s="2" t="s">
         <v>441</v>
       </c>
       <c r="V52" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W52" s="108" t="s">
+      <c r="W52" s="18" t="s">
         <v>428</v>
       </c>
       <c r="X52" s="18"/>
@@ -10709,11 +10894,17 @@
         <v>1</v>
       </c>
       <c r="AC52" s="18"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
+      <c r="AD52" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>2</v>
+      </c>
       <c r="AG52" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AH52" s="18">
         <v>20210527</v>
@@ -10722,7 +10913,7 @@
         <v>412</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AK52" s="14">
         <v>58</v>
@@ -10786,431 +10977,1012 @@
         <v>212</v>
       </c>
       <c r="BN52" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="BO52" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="14">
+        <v>65</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="I53" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="J53" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="K53" s="14">
+        <v>48.727400000000003</v>
+      </c>
+      <c r="L53" s="14">
+        <v>-52.978900000000003</v>
+      </c>
+      <c r="M53" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="N53" s="18">
+        <v>-53</v>
+      </c>
+      <c r="O53" s="18">
+        <v>50.16</v>
+      </c>
+      <c r="P53" s="18">
+        <v>-50.2</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R53" s="2">
+        <v>20</v>
+      </c>
+      <c r="S53" s="2">
+        <v>567</v>
+      </c>
+      <c r="T53" s="2">
+        <v>558</v>
+      </c>
+      <c r="U53" s="2">
+        <f>T53*2</f>
+        <v>1116</v>
+      </c>
+      <c r="V53" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="18">
+        <v>1</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z53" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH53" s="18">
+        <v>20210421</v>
+      </c>
+      <c r="AI53" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ53" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL53" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM53" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO53" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="22"/>
+      <c r="AR53" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS53" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV53" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW53" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD53" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE53" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF53" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG53" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI53" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ53" s="22"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM53" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN53" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO53" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="BO52" s="21" t="s">
-        <v>454</v>
-      </c>
     </row>
-    <row r="53" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="72"/>
-      <c r="AP53" s="72"/>
-      <c r="AQ53" s="38"/>
-      <c r="AR53" s="38"/>
-      <c r="AS53" s="38"/>
-      <c r="AT53" s="38"/>
-      <c r="AU53" s="34"/>
-      <c r="AV53" s="74"/>
-      <c r="AW53" s="38"/>
-      <c r="AX53" s="38"/>
-      <c r="AY53" s="38"/>
-      <c r="AZ53" s="38"/>
-      <c r="BA53" s="38"/>
-      <c r="BB53" s="38"/>
-      <c r="BC53" s="38"/>
-      <c r="BD53" s="38"/>
-      <c r="BE53" s="38"/>
-      <c r="BF53" s="34"/>
-      <c r="BG53" s="48"/>
-      <c r="BH53" s="38"/>
-      <c r="BI53" s="38"/>
-      <c r="BJ53" s="38"/>
-      <c r="BK53" s="3"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="35"/>
-      <c r="BN53" s="37"/>
-      <c r="BO53" s="43"/>
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>9</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="14">
+        <v>67</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I54" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="J54" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="K54" s="14">
+        <v>48.732100000000003</v>
+      </c>
+      <c r="L54" s="14">
+        <v>-52.986199999999997</v>
+      </c>
+      <c r="M54" s="18">
+        <v>48.68</v>
+      </c>
+      <c r="N54" s="18">
+        <v>-53.05</v>
+      </c>
+      <c r="O54" s="18">
+        <v>50.64</v>
+      </c>
+      <c r="P54" s="18">
+        <v>-49.41</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R54" s="2">
+        <v>27</v>
+      </c>
+      <c r="S54" s="2">
+        <v>733</v>
+      </c>
+      <c r="T54" s="2">
+        <v>702</v>
+      </c>
+      <c r="U54" s="2">
+        <v>540</v>
+      </c>
+      <c r="V54" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W54" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="X54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH54" s="18">
+        <v>20210421</v>
+      </c>
+      <c r="AI54" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ54" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK54" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL54" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM54" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN54" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO54" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="22"/>
+      <c r="AR54" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS54" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT54" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU54" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV54" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW54" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD54" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE54" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG54" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH54" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI54" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ54" s="22"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM54" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN54" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="BO54" s="21" t="s">
+        <v>481</v>
+      </c>
     </row>
-    <row r="54" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="72"/>
-      <c r="AP54" s="72"/>
-      <c r="AQ54" s="38"/>
-      <c r="AR54" s="38"/>
-      <c r="AS54" s="38"/>
-      <c r="AT54" s="38"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="74"/>
-      <c r="AW54" s="38"/>
-      <c r="AX54" s="38"/>
-      <c r="AY54" s="38"/>
-      <c r="AZ54" s="38"/>
-      <c r="BA54" s="38"/>
-      <c r="BB54" s="38"/>
-      <c r="BC54" s="38"/>
-      <c r="BD54" s="38"/>
-      <c r="BE54" s="38"/>
-      <c r="BF54" s="34"/>
-      <c r="BG54" s="48"/>
-      <c r="BH54" s="38"/>
-      <c r="BI54" s="38"/>
-      <c r="BJ54" s="38"/>
-      <c r="BK54" s="3"/>
-      <c r="BL54" s="35"/>
-      <c r="BM54" s="35"/>
-      <c r="BN54" s="37"/>
-      <c r="BO54" s="43"/>
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>10</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="14">
+        <v>70</v>
+      </c>
+      <c r="F55" s="14">
+        <v>4800993</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I55" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="K55" s="14">
+        <v>44.479700000000001</v>
+      </c>
+      <c r="L55" s="14">
+        <v>-63.444600000000001</v>
+      </c>
+      <c r="M55" s="18">
+        <v>42.6</v>
+      </c>
+      <c r="N55" s="18">
+        <v>-63.46</v>
+      </c>
+      <c r="O55" s="18">
+        <v>44.53</v>
+      </c>
+      <c r="P55" s="18">
+        <v>-61.53</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R55" s="2">
+        <v>21</v>
+      </c>
+      <c r="S55" s="2">
+        <v>578</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1066</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1031</v>
+      </c>
+      <c r="V55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W55" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH55" s="18">
+        <v>20210420</v>
+      </c>
+      <c r="AI55" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AK55" s="14">
+        <v>32</v>
+      </c>
+      <c r="AL55" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM55" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN55" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO55" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP55" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ55" s="100">
+        <v>20210105</v>
+      </c>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="22"/>
+      <c r="AT55" s="22"/>
+      <c r="AU55" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV55" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW55" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX55" s="91"/>
+      <c r="AY55" s="91"/>
+      <c r="AZ55" s="91"/>
+      <c r="BA55" s="91"/>
+      <c r="BB55" s="91"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG55" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH55" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI55" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ55" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK55" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BL55" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM55" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN55" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO55" s="21" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="55" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="35"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="38"/>
-      <c r="AN55" s="38"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34"/>
-      <c r="AQ55" s="38"/>
-      <c r="AR55" s="38"/>
-      <c r="AS55" s="38"/>
-      <c r="AT55" s="38"/>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="38"/>
-      <c r="AW55" s="38"/>
-      <c r="AX55" s="38"/>
-      <c r="AY55" s="38"/>
-      <c r="AZ55" s="38"/>
-      <c r="BA55" s="38"/>
-      <c r="BB55" s="38"/>
-      <c r="BC55" s="38"/>
-      <c r="BD55" s="38"/>
-      <c r="BE55" s="38"/>
-      <c r="BF55" s="34"/>
-      <c r="BG55" s="48"/>
-      <c r="BH55" s="38"/>
-      <c r="BI55" s="38"/>
-      <c r="BJ55" s="38"/>
-      <c r="BK55" s="3"/>
-      <c r="BL55" s="35"/>
-      <c r="BM55" s="35"/>
-      <c r="BN55" s="37"/>
-      <c r="BO55" s="43"/>
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>11</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="14">
+        <v>65</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>26</v>
+      </c>
+      <c r="K56" s="14">
+        <v>44.4848</v>
+      </c>
+      <c r="L56" s="14">
+        <v>-63.439399999999999</v>
+      </c>
+      <c r="M56" s="18">
+        <v>43.46</v>
+      </c>
+      <c r="N56" s="18">
+        <v>-63.46</v>
+      </c>
+      <c r="O56" s="18">
+        <v>44.53</v>
+      </c>
+      <c r="P56" s="18">
+        <v>-62.65</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="R56" s="2">
+        <v>21</v>
+      </c>
+      <c r="S56" s="2">
+        <v>441</v>
+      </c>
+      <c r="T56" s="2">
+        <v>700</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="V56" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18">
+        <v>256</v>
+      </c>
+      <c r="AB56" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH56" s="18">
+        <v>20210527</v>
+      </c>
+      <c r="AI56" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AK56" s="14">
+        <v>58</v>
+      </c>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="22"/>
+      <c r="AR56" s="22"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV56" s="16">
+        <v>42723</v>
+      </c>
+      <c r="AW56" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX56" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AY56" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ56" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="BA56" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="BB56" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="BG56" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH56" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI56" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ56" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK56" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="BL56" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM56" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN56" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO56" s="21" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="56" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37"/>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37"/>
-      <c r="AK56" s="35"/>
-      <c r="AL56" s="34"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="34"/>
-      <c r="AP56" s="34"/>
-      <c r="AQ56" s="38"/>
-      <c r="AR56" s="38"/>
-      <c r="AS56" s="38"/>
-      <c r="AT56" s="38"/>
-      <c r="AU56" s="34"/>
-      <c r="AV56" s="38"/>
-      <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="38"/>
-      <c r="AZ56" s="38"/>
-      <c r="BA56" s="38"/>
-      <c r="BB56" s="38"/>
-      <c r="BC56" s="38"/>
-      <c r="BD56" s="38"/>
-      <c r="BE56" s="38"/>
-      <c r="BF56" s="34"/>
-      <c r="BG56" s="48"/>
-      <c r="BH56" s="38"/>
-      <c r="BI56" s="38"/>
-      <c r="BJ56" s="38"/>
-      <c r="BK56" s="3"/>
-      <c r="BL56" s="35"/>
-      <c r="BM56" s="35"/>
-      <c r="BN56" s="37"/>
-      <c r="BO56" s="43"/>
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>12</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="14">
+        <v>69</v>
+      </c>
+      <c r="F57" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="18">
+        <v>1</v>
+      </c>
+      <c r="X57" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y57" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z57" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH57" s="18">
+        <v>20210421</v>
+      </c>
+      <c r="AI57" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ57" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK57" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL57" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM57" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN57" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO57" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP57" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ57" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR57" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS57" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="AT57" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV57" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW57" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX57" s="22"/>
+      <c r="AY57" s="22"/>
+      <c r="AZ57" s="22"/>
+      <c r="BA57" s="22"/>
+      <c r="BB57" s="22"/>
+      <c r="BC57" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD57" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE57" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF57" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG57" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH57" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI57" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM57" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN57" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="BO57" s="21" t="s">
+        <v>482</v>
+      </c>
     </row>
-    <row r="57" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="37"/>
-      <c r="AB57" s="37"/>
-      <c r="AC57" s="37"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="37"/>
-      <c r="AI57" s="37"/>
-      <c r="AJ57" s="37"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="34"/>
-      <c r="AM57" s="38"/>
-      <c r="AN57" s="38"/>
-      <c r="AO57" s="34"/>
-      <c r="AP57" s="34"/>
-      <c r="AQ57" s="38"/>
-      <c r="AR57" s="38"/>
-      <c r="AS57" s="38"/>
-      <c r="AT57" s="38"/>
-      <c r="AU57" s="34"/>
-      <c r="AV57" s="38"/>
-      <c r="AW57" s="38"/>
-      <c r="AX57" s="38"/>
-      <c r="AY57" s="38"/>
-      <c r="AZ57" s="38"/>
-      <c r="BA57" s="38"/>
-      <c r="BB57" s="38"/>
-      <c r="BC57" s="38"/>
-      <c r="BD57" s="38"/>
-      <c r="BE57" s="38"/>
-      <c r="BF57" s="34"/>
-      <c r="BG57" s="48"/>
-      <c r="BH57" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI57" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ57" s="38"/>
-      <c r="BK57" s="3"/>
-      <c r="BL57" s="35"/>
-      <c r="BM57" s="35"/>
-      <c r="BN57" s="37"/>
-      <c r="BO57" s="43"/>
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>13</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="14">
+        <v>97</v>
+      </c>
+      <c r="F58" s="14">
+        <v>4800925</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="105" t="s">
+        <v>434</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W58" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X58" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y58" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2">
+        <v>1022.5</v>
+      </c>
+      <c r="AH58" s="18">
+        <v>20210922</v>
+      </c>
+      <c r="AI58" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ58" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="AK58" s="14">
+        <v>33</v>
+      </c>
+      <c r="AL58" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM58" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN58" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO58" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP58" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ58" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR58" s="22"/>
+      <c r="AS58" s="22"/>
+      <c r="AT58" s="22"/>
+      <c r="AU58" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AV58" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AW58" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX58" s="15"/>
+      <c r="AY58" s="15"/>
+      <c r="AZ58" s="15"/>
+      <c r="BA58" s="15"/>
+      <c r="BB58" s="15"/>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="15"/>
+      <c r="BF58" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG58" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH58" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI58" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ58" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK58" s="2"/>
+      <c r="BL58" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM58" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN58" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="BO58" s="21" t="s">
+        <v>474</v>
+      </c>
     </row>
-    <row r="58" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="37"/>
-      <c r="AI58" s="37"/>
-      <c r="AJ58" s="37"/>
-      <c r="AK58" s="35"/>
-      <c r="AL58" s="34"/>
-      <c r="AM58" s="38"/>
-      <c r="AN58" s="38"/>
-      <c r="AO58" s="34"/>
-      <c r="AP58" s="34"/>
-      <c r="AQ58" s="38"/>
-      <c r="AR58" s="38"/>
-      <c r="AS58" s="38"/>
-      <c r="AT58" s="38"/>
-      <c r="AU58" s="34"/>
-      <c r="AV58" s="38"/>
-      <c r="AW58" s="40"/>
-      <c r="AX58" s="38"/>
-      <c r="AY58" s="38"/>
-      <c r="AZ58" s="38"/>
-      <c r="BA58" s="38"/>
-      <c r="BB58" s="38"/>
-      <c r="BC58" s="40"/>
-      <c r="BD58" s="40"/>
-      <c r="BE58" s="40"/>
-      <c r="BF58" s="41"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI58" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ58" s="40"/>
-      <c r="BK58" s="3"/>
-      <c r="BL58" s="35"/>
-      <c r="BM58" s="35"/>
-      <c r="BN58" s="37"/>
-      <c r="BO58" s="43"/>
-    </row>
-    <row r="59" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="35"/>
@@ -11250,31 +12022,27 @@
       <c r="AL59" s="34"/>
       <c r="AM59" s="38"/>
       <c r="AN59" s="38"/>
-      <c r="AO59" s="34"/>
-      <c r="AP59" s="34"/>
+      <c r="AO59" s="70"/>
+      <c r="AP59" s="70"/>
       <c r="AQ59" s="38"/>
       <c r="AR59" s="38"/>
       <c r="AS59" s="38"/>
       <c r="AT59" s="38"/>
       <c r="AU59" s="34"/>
-      <c r="AV59" s="38"/>
-      <c r="AW59" s="40"/>
+      <c r="AV59" s="72"/>
+      <c r="AW59" s="38"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="38"/>
       <c r="AZ59" s="38"/>
       <c r="BA59" s="38"/>
       <c r="BB59" s="38"/>
-      <c r="BC59" s="40"/>
-      <c r="BD59" s="40"/>
-      <c r="BE59" s="40"/>
-      <c r="BF59" s="41"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI59" s="70" t="s">
-        <v>330</v>
-      </c>
+      <c r="BC59" s="38"/>
+      <c r="BD59" s="38"/>
+      <c r="BE59" s="38"/>
+      <c r="BF59" s="34"/>
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="38"/>
+      <c r="BI59" s="38"/>
       <c r="BJ59" s="38"/>
       <c r="BK59" s="3"/>
       <c r="BL59" s="35"/>
@@ -11282,8 +12050,10 @@
       <c r="BN59" s="37"/>
       <c r="BO59" s="43"/>
     </row>
-    <row r="60" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34"/>
+    <row r="60" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C60" s="34"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -11303,58 +12073,54 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="49"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="49"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="49"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="49"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
-      <c r="AG60" s="50"/>
-      <c r="AH60" s="49"/>
-      <c r="AI60" s="49"/>
-      <c r="AJ60" s="49"/>
-      <c r="AK60" s="29"/>
-      <c r="AL60" s="51"/>
-      <c r="AM60" s="46"/>
-      <c r="AN60" s="46"/>
-      <c r="AO60" s="51"/>
-      <c r="AP60" s="51"/>
-      <c r="AQ60" s="46"/>
-      <c r="AR60" s="46"/>
-      <c r="AS60" s="46"/>
-      <c r="AT60" s="46"/>
-      <c r="AU60" s="51"/>
-      <c r="AV60" s="46"/>
-      <c r="AW60" s="46"/>
-      <c r="AX60" s="46"/>
-      <c r="AY60" s="46"/>
-      <c r="AZ60" s="46"/>
-      <c r="BA60" s="46"/>
-      <c r="BB60" s="46"/>
-      <c r="BC60" s="46"/>
-      <c r="BD60" s="46"/>
-      <c r="BE60" s="46"/>
-      <c r="BF60" s="51"/>
-      <c r="BG60" s="52"/>
-      <c r="BH60" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI60" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ60" s="46"/>
-      <c r="BK60" s="50"/>
-      <c r="BL60" s="29"/>
-      <c r="BM60" s="29"/>
-      <c r="BN60" s="49"/>
-      <c r="BO60" s="30"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="38"/>
+      <c r="AN60" s="38"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+      <c r="AQ60" s="38"/>
+      <c r="AR60" s="38"/>
+      <c r="AS60" s="38"/>
+      <c r="AT60" s="38"/>
+      <c r="AU60" s="34"/>
+      <c r="AV60" s="38"/>
+      <c r="AW60" s="38"/>
+      <c r="AX60" s="38"/>
+      <c r="AY60" s="38"/>
+      <c r="AZ60" s="38"/>
+      <c r="BA60" s="38"/>
+      <c r="BB60" s="38"/>
+      <c r="BC60" s="38"/>
+      <c r="BD60" s="38"/>
+      <c r="BE60" s="38"/>
+      <c r="BF60" s="34"/>
+      <c r="BG60" s="48"/>
+      <c r="BH60" s="38"/>
+      <c r="BI60" s="38"/>
+      <c r="BJ60" s="38"/>
+      <c r="BK60" s="3"/>
+      <c r="BL60" s="35"/>
+      <c r="BM60" s="35"/>
+      <c r="BN60" s="37"/>
+      <c r="BO60" s="43"/>
     </row>
-    <row r="61" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="35"/>
@@ -11375,58 +12141,54 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
-      <c r="AG61" s="50"/>
-      <c r="AH61" s="49"/>
-      <c r="AI61" s="49"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="29"/>
-      <c r="AL61" s="51"/>
-      <c r="AM61" s="46"/>
-      <c r="AN61" s="46"/>
-      <c r="AO61" s="51"/>
-      <c r="AP61" s="51"/>
-      <c r="AQ61" s="46"/>
-      <c r="AR61" s="46"/>
-      <c r="AS61" s="46"/>
-      <c r="AT61" s="46"/>
-      <c r="AU61" s="51"/>
-      <c r="AV61" s="46"/>
-      <c r="AW61" s="46"/>
-      <c r="AX61" s="46"/>
-      <c r="AY61" s="46"/>
-      <c r="AZ61" s="46"/>
-      <c r="BA61" s="46"/>
-      <c r="BB61" s="46"/>
-      <c r="BC61" s="46"/>
-      <c r="BD61" s="46"/>
-      <c r="BE61" s="46"/>
-      <c r="BF61" s="51"/>
-      <c r="BG61" s="52"/>
-      <c r="BH61" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI61" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ61" s="46"/>
-      <c r="BK61" s="50"/>
-      <c r="BL61" s="29"/>
-      <c r="BM61" s="29"/>
-      <c r="BN61" s="49"/>
-      <c r="BO61" s="30"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="37"/>
+      <c r="AJ61" s="37"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="34"/>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="38"/>
+      <c r="AT61" s="38"/>
+      <c r="AU61" s="34"/>
+      <c r="AV61" s="38"/>
+      <c r="AW61" s="38"/>
+      <c r="AX61" s="38"/>
+      <c r="AY61" s="38"/>
+      <c r="AZ61" s="38"/>
+      <c r="BA61" s="38"/>
+      <c r="BB61" s="38"/>
+      <c r="BC61" s="38"/>
+      <c r="BD61" s="38"/>
+      <c r="BE61" s="38"/>
+      <c r="BF61" s="34"/>
+      <c r="BG61" s="48"/>
+      <c r="BH61" s="38"/>
+      <c r="BI61" s="38"/>
+      <c r="BJ61" s="38"/>
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="35"/>
+      <c r="BM61" s="35"/>
+      <c r="BN61" s="37"/>
+      <c r="BO61" s="43"/>
     </row>
-    <row r="62" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="35"/>
@@ -11447,58 +12209,62 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
-      <c r="AG62" s="50"/>
-      <c r="AH62" s="49"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="49"/>
-      <c r="AK62" s="29"/>
-      <c r="AL62" s="51"/>
-      <c r="AM62" s="46"/>
-      <c r="AN62" s="46"/>
-      <c r="AO62" s="51"/>
-      <c r="AP62" s="51"/>
-      <c r="AQ62" s="46"/>
-      <c r="AR62" s="46"/>
-      <c r="AS62" s="46"/>
-      <c r="AT62" s="46"/>
-      <c r="AU62" s="51"/>
-      <c r="AV62" s="46"/>
-      <c r="AW62" s="46"/>
-      <c r="AX62" s="46"/>
-      <c r="AY62" s="46"/>
-      <c r="AZ62" s="46"/>
-      <c r="BA62" s="46"/>
-      <c r="BB62" s="46"/>
-      <c r="BC62" s="46"/>
-      <c r="BD62" s="46"/>
-      <c r="BE62" s="46"/>
-      <c r="BF62" s="51"/>
-      <c r="BG62" s="52"/>
-      <c r="BH62" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI62" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ62" s="46"/>
-      <c r="BK62" s="50"/>
-      <c r="BL62" s="29"/>
-      <c r="BM62" s="29"/>
-      <c r="BN62" s="49"/>
-      <c r="BO62" s="30"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="37"/>
+      <c r="AJ62" s="37"/>
+      <c r="AK62" s="35"/>
+      <c r="AL62" s="34"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="34"/>
+      <c r="AP62" s="34"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="34"/>
+      <c r="AV62" s="38"/>
+      <c r="AW62" s="38"/>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="34"/>
+      <c r="BG62" s="48"/>
+      <c r="BH62" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI62" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ62" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="BK62" s="3"/>
+      <c r="BL62" s="35">
+        <v>29</v>
+      </c>
+      <c r="BM62" s="35"/>
+      <c r="BN62" s="37"/>
+      <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="35"/>
@@ -11519,54 +12285,64 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="50"/>
-      <c r="AH63" s="49"/>
-      <c r="AI63" s="49"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="29"/>
-      <c r="AL63" s="51"/>
-      <c r="AM63" s="46"/>
-      <c r="AN63" s="46"/>
-      <c r="AO63" s="51"/>
-      <c r="AP63" s="51"/>
-      <c r="AQ63" s="46"/>
-      <c r="AR63" s="46"/>
-      <c r="AS63" s="46"/>
-      <c r="AT63" s="46"/>
-      <c r="AU63" s="51"/>
-      <c r="AV63" s="46"/>
-      <c r="AW63" s="46"/>
-      <c r="AX63" s="46"/>
-      <c r="AY63" s="46"/>
-      <c r="AZ63" s="46"/>
-      <c r="BA63" s="46"/>
-      <c r="BB63" s="46"/>
-      <c r="BC63" s="46"/>
-      <c r="BD63" s="46"/>
-      <c r="BE63" s="46"/>
-      <c r="BF63" s="51"/>
-      <c r="BG63" s="52"/>
-      <c r="BH63" s="46"/>
-      <c r="BI63" s="46"/>
-      <c r="BJ63" s="46"/>
-      <c r="BK63" s="50"/>
-      <c r="BL63" s="29"/>
-      <c r="BM63" s="29"/>
-      <c r="BN63" s="49"/>
-      <c r="BO63" s="30"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="34"/>
+      <c r="AM63" s="38"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="34"/>
+      <c r="AP63" s="34"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="38"/>
+      <c r="AS63" s="38"/>
+      <c r="AT63" s="38"/>
+      <c r="AU63" s="34"/>
+      <c r="AV63" s="38"/>
+      <c r="AW63" s="40"/>
+      <c r="AX63" s="38"/>
+      <c r="AY63" s="38"/>
+      <c r="AZ63" s="38"/>
+      <c r="BA63" s="38"/>
+      <c r="BB63" s="38"/>
+      <c r="BC63" s="40"/>
+      <c r="BD63" s="40"/>
+      <c r="BE63" s="40"/>
+      <c r="BF63" s="41"/>
+      <c r="BG63" s="42"/>
+      <c r="BH63" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI63" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ63" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="BK63" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="BL63" s="35">
+        <v>153</v>
+      </c>
+      <c r="BM63" s="35"/>
+      <c r="BN63" s="37"/>
+      <c r="BO63" s="43"/>
     </row>
-    <row r="64" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
@@ -11587,52 +12363,62 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="37"/>
+      <c r="AB64" s="37"/>
+      <c r="AC64" s="37"/>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="50"/>
-      <c r="AH64" s="49"/>
-      <c r="AI64" s="49"/>
-      <c r="AJ64" s="49"/>
-      <c r="AK64" s="29"/>
-      <c r="AL64" s="51"/>
-      <c r="AM64" s="46"/>
-      <c r="AN64" s="46"/>
-      <c r="AO64" s="51"/>
-      <c r="AP64" s="51"/>
-      <c r="AQ64" s="46"/>
-      <c r="AR64" s="46"/>
-      <c r="AS64" s="46"/>
-      <c r="AT64" s="46"/>
-      <c r="AU64" s="51"/>
-      <c r="AV64" s="46"/>
-      <c r="AW64" s="46"/>
-      <c r="AX64" s="46"/>
-      <c r="AY64" s="46"/>
-      <c r="AZ64" s="46"/>
-      <c r="BA64" s="46"/>
-      <c r="BB64" s="46"/>
-      <c r="BC64" s="46"/>
-      <c r="BD64" s="46"/>
-      <c r="BE64" s="46"/>
-      <c r="BF64" s="51"/>
-      <c r="BG64" s="52"/>
-      <c r="BH64" s="46"/>
-      <c r="BI64" s="46"/>
-      <c r="BJ64" s="46"/>
-      <c r="BK64" s="50"/>
-      <c r="BL64" s="29"/>
-      <c r="BM64" s="29"/>
-      <c r="BN64" s="49"/>
-      <c r="BO64" s="30"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" s="37"/>
+      <c r="AJ64" s="37"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="34"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="38"/>
+      <c r="AO64" s="34"/>
+      <c r="AP64" s="34"/>
+      <c r="AQ64" s="38"/>
+      <c r="AR64" s="38"/>
+      <c r="AS64" s="38"/>
+      <c r="AT64" s="38"/>
+      <c r="AU64" s="34"/>
+      <c r="AV64" s="38"/>
+      <c r="AW64" s="40"/>
+      <c r="AX64" s="38"/>
+      <c r="AY64" s="38"/>
+      <c r="AZ64" s="38"/>
+      <c r="BA64" s="38"/>
+      <c r="BB64" s="38"/>
+      <c r="BC64" s="40"/>
+      <c r="BD64" s="40"/>
+      <c r="BE64" s="40"/>
+      <c r="BF64" s="41"/>
+      <c r="BG64" s="42"/>
+      <c r="BH64" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI64" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ64" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK64" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BL64" s="35">
+        <v>64</v>
+      </c>
+      <c r="BM64" s="35"/>
+      <c r="BN64" s="37"/>
+      <c r="BO64" s="43"/>
     </row>
     <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="34"/>
@@ -11693,14 +12479,378 @@
       <c r="BE65" s="46"/>
       <c r="BF65" s="51"/>
       <c r="BG65" s="52"/>
-      <c r="BH65" s="46"/>
-      <c r="BI65" s="46"/>
-      <c r="BJ65" s="46"/>
-      <c r="BK65" s="50"/>
-      <c r="BL65" s="29"/>
+      <c r="BH65" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI65" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ65" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK65" s="50">
+        <v>3.34</v>
+      </c>
+      <c r="BL65" s="29">
+        <v>20</v>
+      </c>
       <c r="BM65" s="29"/>
       <c r="BN65" s="49"/>
       <c r="BO65" s="30"/>
+    </row>
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="49"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="51"/>
+      <c r="AM66" s="46"/>
+      <c r="AN66" s="46"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="51"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="46"/>
+      <c r="AS66" s="46"/>
+      <c r="AT66" s="46"/>
+      <c r="AU66" s="51"/>
+      <c r="AV66" s="46"/>
+      <c r="AW66" s="46"/>
+      <c r="AX66" s="46"/>
+      <c r="AY66" s="46"/>
+      <c r="AZ66" s="46"/>
+      <c r="BA66" s="46"/>
+      <c r="BB66" s="46"/>
+      <c r="BC66" s="46"/>
+      <c r="BD66" s="46"/>
+      <c r="BE66" s="46"/>
+      <c r="BF66" s="51"/>
+      <c r="BG66" s="52"/>
+      <c r="BH66" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI66" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ66" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK66" s="50">
+        <v>3.08</v>
+      </c>
+      <c r="BL66" s="29">
+        <v>43</v>
+      </c>
+      <c r="BM66" s="29"/>
+      <c r="BN66" s="49"/>
+      <c r="BO66" s="30"/>
+    </row>
+    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="49"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="29"/>
+      <c r="AL67" s="51"/>
+      <c r="AM67" s="46"/>
+      <c r="AN67" s="46"/>
+      <c r="AO67" s="51"/>
+      <c r="AP67" s="51"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="46"/>
+      <c r="AS67" s="46"/>
+      <c r="AT67" s="46"/>
+      <c r="AU67" s="51"/>
+      <c r="AV67" s="46"/>
+      <c r="AW67" s="46"/>
+      <c r="AX67" s="46"/>
+      <c r="AY67" s="46"/>
+      <c r="AZ67" s="46"/>
+      <c r="BA67" s="46"/>
+      <c r="BB67" s="46"/>
+      <c r="BC67" s="46"/>
+      <c r="BD67" s="46"/>
+      <c r="BE67" s="46"/>
+      <c r="BF67" s="51"/>
+      <c r="BG67" s="52"/>
+      <c r="BH67" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI67" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ67" s="46"/>
+      <c r="BK67" s="50"/>
+      <c r="BL67" s="29"/>
+      <c r="BM67" s="29"/>
+      <c r="BN67" s="49"/>
+      <c r="BO67" s="30"/>
+    </row>
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="51"/>
+      <c r="AM68" s="46"/>
+      <c r="AN68" s="46"/>
+      <c r="AO68" s="51"/>
+      <c r="AP68" s="51"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="46"/>
+      <c r="AS68" s="46"/>
+      <c r="AT68" s="46"/>
+      <c r="AU68" s="51"/>
+      <c r="AV68" s="46"/>
+      <c r="AW68" s="46"/>
+      <c r="AX68" s="46"/>
+      <c r="AY68" s="46"/>
+      <c r="AZ68" s="46"/>
+      <c r="BA68" s="46"/>
+      <c r="BB68" s="46"/>
+      <c r="BC68" s="46"/>
+      <c r="BD68" s="46"/>
+      <c r="BE68" s="46"/>
+      <c r="BF68" s="51"/>
+      <c r="BG68" s="52"/>
+      <c r="BH68" s="46"/>
+      <c r="BI68" s="46"/>
+      <c r="BJ68" s="46"/>
+      <c r="BK68" s="50"/>
+      <c r="BL68" s="29"/>
+      <c r="BM68" s="29"/>
+      <c r="BN68" s="49"/>
+      <c r="BO68" s="30"/>
+    </row>
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="29"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="46"/>
+      <c r="AN69" s="46"/>
+      <c r="AO69" s="51"/>
+      <c r="AP69" s="51"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="46"/>
+      <c r="AS69" s="46"/>
+      <c r="AT69" s="46"/>
+      <c r="AU69" s="51"/>
+      <c r="AV69" s="46"/>
+      <c r="AW69" s="46"/>
+      <c r="AX69" s="46"/>
+      <c r="AY69" s="46"/>
+      <c r="AZ69" s="46"/>
+      <c r="BA69" s="46"/>
+      <c r="BB69" s="46"/>
+      <c r="BC69" s="46"/>
+      <c r="BD69" s="46"/>
+      <c r="BE69" s="46"/>
+      <c r="BF69" s="51"/>
+      <c r="BG69" s="52"/>
+      <c r="BH69" s="46"/>
+      <c r="BI69" s="46"/>
+      <c r="BJ69" s="46"/>
+      <c r="BK69" s="50"/>
+      <c r="BL69" s="29"/>
+      <c r="BM69" s="29"/>
+      <c r="BN69" s="49"/>
+      <c r="BO69" s="30"/>
+    </row>
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="51"/>
+      <c r="AM70" s="46"/>
+      <c r="AN70" s="46"/>
+      <c r="AO70" s="51"/>
+      <c r="AP70" s="51"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="46"/>
+      <c r="AS70" s="46"/>
+      <c r="AT70" s="46"/>
+      <c r="AU70" s="51"/>
+      <c r="AV70" s="46"/>
+      <c r="AW70" s="46"/>
+      <c r="AX70" s="46"/>
+      <c r="AY70" s="46"/>
+      <c r="AZ70" s="46"/>
+      <c r="BA70" s="46"/>
+      <c r="BB70" s="46"/>
+      <c r="BC70" s="46"/>
+      <c r="BD70" s="46"/>
+      <c r="BE70" s="46"/>
+      <c r="BF70" s="51"/>
+      <c r="BG70" s="52"/>
+      <c r="BH70" s="46"/>
+      <c r="BI70" s="46"/>
+      <c r="BJ70" s="46"/>
+      <c r="BK70" s="50"/>
+      <c r="BL70" s="29"/>
+      <c r="BM70" s="29"/>
+      <c r="BN70" s="49"/>
+      <c r="BO70" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21228" windowHeight="7548"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="501">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1421,94 +1431,130 @@
     <t>3</t>
   </si>
   <si>
+    <t>20210810</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1</t>
+  </si>
+  <si>
+    <t>20210901</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_67</t>
+  </si>
+  <si>
+    <t>W1-W2-W3-W4-W5-W6-W1-Tri- DR</t>
+  </si>
+  <si>
+    <t>~1022</t>
+  </si>
+  <si>
+    <t>3.2.2-r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.0-r </t>
+  </si>
+  <si>
+    <t>pld of sea024</t>
+  </si>
+  <si>
+    <t>20210914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17.0-r </t>
+  </si>
+  <si>
+    <t>AZMP fall 2021</t>
+  </si>
+  <si>
+    <t>20210928</t>
+  </si>
+  <si>
+    <t>20210929</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1-please</t>
+  </si>
+  <si>
+    <t>1, flexible for hurricane</t>
+  </si>
+  <si>
+    <t>~1024</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_69</t>
+  </si>
+  <si>
+    <t>pld of sea032 with rinko and minifluo, changed sampling rate for hurricane Larry, noticed weird GPCTD data from DO at dive 181 and from other properties at dive 232. corrosion is the best hypothesis. Pld off at bb01 to go to bonavista bay. Corrosion confirmed on GPCTD bulkhead connector.</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_70</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_97</t>
+  </si>
+  <si>
+    <t>20211005</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_65</t>
+  </si>
+  <si>
+    <t>With legato and ecopuck. Science profile accoustique 1400, ctd and ecopuck 338 plus 13 x 2h drift. The ctd and eco sampling was not consistent, sometime being forgotten to be turned on and sometime sampling at 100% instead of 20%</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20211020</t>
+  </si>
+  <si>
+    <t>20211025</t>
+  </si>
+  <si>
+    <t>20211027</t>
+  </si>
+  <si>
+    <t>C&amp;P/Mammals zodiac</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-Tri3-Tri2-Tri1-...-DR</t>
+  </si>
+  <si>
+    <t>pld of sea032 with sea021 ctd 0184, had to add 2 foams for ballasting and was still a bit heavy due to SBE DO sensor, recovered in Trinity bay</t>
+  </si>
+  <si>
+    <t>First mission after water leak and front tap change. Only one week because of budget restriction. Antenna base broken on recovery.</t>
+  </si>
+  <si>
+    <t>GL1-GL2-NSC-Tri- DR</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>20210810</t>
-  </si>
-  <si>
-    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1</t>
-  </si>
-  <si>
-    <t>20210901</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_67</t>
-  </si>
-  <si>
-    <t>C&amp;P/</t>
-  </si>
-  <si>
-    <t>W1-W2-W3-W4-W5-W6-W1-Tri- DR</t>
-  </si>
-  <si>
-    <t>~1022</t>
-  </si>
-  <si>
-    <t>3.2.2-r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.0-r </t>
-  </si>
-  <si>
-    <t>Sigma-T/</t>
-  </si>
-  <si>
-    <t>pld of sea024</t>
-  </si>
-  <si>
-    <t>20210914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17.0-r </t>
-  </si>
-  <si>
-    <t>AZMP fall 2021</t>
-  </si>
-  <si>
-    <t>First mission after water leak and front tap change.</t>
-  </si>
-  <si>
-    <t>20210928</t>
-  </si>
-  <si>
-    <t>20210929</t>
-  </si>
-  <si>
-    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-BB1-please</t>
-  </si>
-  <si>
-    <t>1, flexible for hurricane</t>
-  </si>
-  <si>
-    <t>~1024</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_69</t>
-  </si>
-  <si>
-    <t>pld of sea032 with rinko and minifluo, changed sampling rate for hurricane Larry, noticed weird GPCTD data from DO at dive 181 and from other properties at dive 232. corrosion is the best hypothesis. Pld off at bb01 to go to bonavista bay. Corrosion confirmed on GPCTD bulkhead connector.</t>
-  </si>
-  <si>
-    <t>pld of sea032 with sea021 ctd 0184, had to add 2 foams for ballasting and was still a bit heavy due to SBE DO sensor</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA022_70</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA019_97</t>
-  </si>
-  <si>
-    <t>20211005</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA032_65</t>
-  </si>
-  <si>
-    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1.5-Tri3-Tri2-Tri1-DR</t>
-  </si>
-  <si>
-    <t>With legato and ecopuck. Science profile accoustique 1400, ctd and ecopuck 338 plus 13 x 2h drift. The ctd and eco sampling was not consistent, sometime being forgotten to be turned on and sometime sampling at 100% instead of 20%</t>
+    <t>as of November 2021</t>
+  </si>
+  <si>
+    <t>corrosion, cleaned</t>
+  </si>
+  <si>
+    <t>sent for refurbish 2021</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA019_103</t>
+  </si>
+  <si>
+    <t>3.4.0-r</t>
+  </si>
+  <si>
+    <t>2.18.0-r</t>
+  </si>
+  <si>
+    <t>Glider SEA019, with PLD and Ecopuck of SEA021, with GPCTD of SEA019.</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,6 +1667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,7 +1841,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,9 +2000,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,9 +2026,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2061,13 +2107,49 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2380,10 +2462,10 @@
   <dimension ref="A1:BO70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BO37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BI39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO60" sqref="BO60"/>
+      <selection pane="bottomRight" activeCell="BI59" sqref="BI59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,9 +2495,9 @@
     <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="89" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" style="89" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="87" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="87" customWidth="1"/>
     <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
@@ -2425,22 +2507,22 @@
     <col min="36" max="36" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.77734375" style="90" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="90" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="90" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" style="90" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="88" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="88" customWidth="1"/>
     <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11.77734375" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" style="90" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="90" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="90" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" style="90" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.21875" style="90" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="88" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="88" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="88" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="88" customWidth="1"/>
     <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
     <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
     <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
@@ -2458,7 +2540,7 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>438</v>
       </c>
       <c r="F1" s="24"/>
@@ -2512,26 +2594,26 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="1:67" s="73" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="76" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2540,22 +2622,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="76" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2573,28 +2655,28 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="80" t="s">
+      <c r="V2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="W2" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="80" t="s">
+      <c r="X2" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="80" t="s">
+      <c r="Y2" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="80" t="s">
+      <c r="Z2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="80" t="s">
+      <c r="AA2" s="78" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="80" t="s">
+      <c r="AB2" s="78" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="80" t="s">
+      <c r="AC2" s="78" t="s">
         <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
@@ -2609,106 +2691,106 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="80" t="s">
+      <c r="AH2" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="80" t="s">
+      <c r="AI2" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AJ2" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="81" t="s">
+      <c r="AK2" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="83" t="s">
+      <c r="AL2" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="82" t="s">
+      <c r="AM2" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="82" t="s">
+      <c r="AN2" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="83" t="s">
+      <c r="AO2" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="83" t="s">
+      <c r="AP2" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="AQ2" s="82" t="s">
+      <c r="AQ2" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="AR2" s="82" t="s">
+      <c r="AR2" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="82" t="s">
+      <c r="AS2" s="80" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="82" t="s">
+      <c r="AT2" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="83" t="s">
+      <c r="AU2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="82" t="s">
+      <c r="AV2" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="84" t="s">
+      <c r="AW2" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="AX2" s="82" t="s">
+      <c r="AX2" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="82" t="s">
+      <c r="AY2" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="AZ2" s="82" t="s">
+      <c r="AZ2" s="80" t="s">
         <v>354</v>
       </c>
-      <c r="BA2" s="82" t="s">
+      <c r="BA2" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="82" t="s">
+      <c r="BB2" s="80" t="s">
         <v>357</v>
       </c>
-      <c r="BC2" s="82" t="s">
+      <c r="BC2" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="82" t="s">
+      <c r="BD2" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="82" t="s">
+      <c r="BE2" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="BF2" s="85" t="s">
+      <c r="BF2" s="83" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="82" t="s">
+      <c r="BH2" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="82" t="s">
+      <c r="BI2" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="82" t="s">
+      <c r="BJ2" s="80" t="s">
         <v>229</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="86" t="s">
+      <c r="BL2" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="86" t="s">
+      <c r="BM2" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="87" t="s">
+      <c r="BN2" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="88" t="s">
+      <c r="BO2" s="86" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2725,7 +2807,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="101">
+      <c r="E3" s="99">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -2883,10 +2965,10 @@
       </c>
     </row>
     <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94">
+      <c r="A4" s="92">
         <v>2</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2895,7 +2977,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="100">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -3065,7 +3147,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="100">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3237,7 +3319,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="100">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3408,7 +3490,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="100">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3580,7 +3662,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="100">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3750,7 +3832,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="100">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -3920,7 +4002,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="100">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -4090,7 +4172,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="100">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4260,7 +4342,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="100">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4434,7 +4516,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="100">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4606,7 +4688,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="100">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -4776,7 +4858,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="100">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -4950,7 +5032,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="100">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -5092,7 +5174,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="104" t="s">
+      <c r="BJ16" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -5110,10 +5192,10 @@
       </c>
     </row>
     <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="96">
+      <c r="A17" s="94">
         <v>13</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5122,7 +5204,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="100">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5263,7 +5345,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="104" t="s">
+      <c r="BJ17" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5293,7 +5375,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="100">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5464,7 +5546,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="100">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5693,7 +5775,7 @@
       <c r="BO20" s="21"/>
     </row>
     <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92">
+      <c r="A21" s="90">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5705,7 +5787,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="100">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -5846,7 +5928,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="104" t="s">
+      <c r="BJ21" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -5864,7 +5946,7 @@
       </c>
     </row>
     <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92">
+      <c r="A22" s="90">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -5876,7 +5958,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="100">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -6018,7 +6100,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="104" t="s">
+      <c r="BJ22" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -6048,7 +6130,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="100">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6190,7 +6272,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="104" t="s">
+      <c r="BJ23" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6220,7 +6302,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="100">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6362,7 +6444,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="104" t="s">
+      <c r="BJ24" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6392,7 +6474,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="100">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6562,7 +6644,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="100">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6701,7 +6783,7 @@
       <c r="BI26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="104" t="s">
+      <c r="BJ26" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -6731,7 +6813,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="100">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -6874,7 +6956,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="104" t="s">
+      <c r="BJ27" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -6904,7 +6986,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="100">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -7073,7 +7155,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="102">
+      <c r="E29" s="100">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7215,7 +7297,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="104" t="s">
+      <c r="BJ29" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7245,7 +7327,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="102">
+      <c r="E30" s="100">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7402,7 +7484,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="102">
+      <c r="E31" s="100">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7544,7 +7626,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="104" t="s">
+      <c r="BJ31" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7574,7 +7656,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="102">
+      <c r="E32" s="100">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7715,7 +7797,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="104" t="s">
+      <c r="BJ32" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -7733,10 +7815,10 @@
       </c>
     </row>
     <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="94">
+      <c r="A33" s="92">
         <v>14</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="91" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -7745,7 +7827,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="100">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -7891,7 +7973,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="104" t="s">
+      <c r="BJ33" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -8065,7 +8147,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="100">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8207,7 +8289,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="104" t="s">
+      <c r="BJ36" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8237,7 +8319,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="102">
+      <c r="E37" s="100">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8255,10 +8337,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="62">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="63">
+      <c r="L37" s="62">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8378,7 +8460,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="104" t="s">
+      <c r="BJ37" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8410,7 +8492,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="102">
+      <c r="E38" s="100">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8428,10 +8510,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="63">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="64">
+      <c r="L38" s="63">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8539,7 +8621,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="104" t="s">
+      <c r="BJ38" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8571,7 +8653,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="102">
+      <c r="E39" s="100">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8745,7 +8827,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="102">
+      <c r="E40" s="100">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -8919,7 +9001,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="102">
+      <c r="E41" s="100">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -8937,10 +9019,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="63">
+      <c r="K41" s="62">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="63">
+      <c r="L41" s="62">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -9093,7 +9175,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="102">
+      <c r="E42" s="100">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9242,7 +9324,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="104" t="s">
+      <c r="BJ42" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9274,7 +9356,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="100">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9362,7 +9444,7 @@
       <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AK43" s="74">
+      <c r="AK43" s="72">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
@@ -9386,13 +9468,13 @@
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="70" t="s">
+      <c r="AU43" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="71">
+      <c r="AV43" s="70">
         <v>42723</v>
       </c>
-      <c r="AW43" s="73" t="s">
+      <c r="AW43" s="71" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9409,13 +9491,13 @@
       <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BH43" s="69" t="s">
+      <c r="BH43" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="69" t="s">
+      <c r="BI43" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="104" t="s">
+      <c r="BJ43" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9445,7 +9527,7 @@
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="117">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9602,10 +9684,10 @@
       </c>
     </row>
     <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="96">
+      <c r="A45" s="94">
         <v>10</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="93" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -9614,7 +9696,7 @@
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="117">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -9704,7 +9786,7 @@
       <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AK45" s="74">
+      <c r="AK45" s="72">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
@@ -9736,7 +9818,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="97" t="s">
+      <c r="AW45" s="95" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -9787,7 +9869,7 @@
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="117">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -9896,9 +9978,9 @@
       <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AR46" s="91"/>
-      <c r="AS46" s="91"/>
-      <c r="AT46" s="91"/>
+      <c r="AR46" s="89"/>
+      <c r="AS46" s="89"/>
+      <c r="AT46" s="89"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -9908,14 +9990,14 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="91"/>
-      <c r="AY46" s="91"/>
-      <c r="AZ46" s="91"/>
-      <c r="BA46" s="91"/>
-      <c r="BB46" s="91"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
+      <c r="AX46" s="89"/>
+      <c r="AY46" s="89"/>
+      <c r="AZ46" s="89"/>
+      <c r="BA46" s="89"/>
+      <c r="BB46" s="89"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="96"/>
+      <c r="BE46" s="96"/>
       <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
@@ -9928,7 +10010,7 @@
       <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ46" s="22" t="s">
+      <c r="BJ46" s="116" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
@@ -9958,7 +10040,7 @@
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="117">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10080,11 +10162,11 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="91"/>
-      <c r="AY47" s="91"/>
-      <c r="AZ47" s="91"/>
-      <c r="BA47" s="91"/>
-      <c r="BB47" s="91"/>
+      <c r="AX47" s="89"/>
+      <c r="AY47" s="89"/>
+      <c r="AZ47" s="89"/>
+      <c r="BA47" s="89"/>
+      <c r="BB47" s="89"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
@@ -10100,7 +10182,7 @@
       <c r="BI47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BJ47" s="22" t="s">
+      <c r="BJ47" s="116" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
@@ -10130,7 +10212,7 @@
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="117">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10236,7 +10318,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="100">
+      <c r="AQ48" s="98">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10251,11 +10333,11 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="91"/>
-      <c r="AY48" s="91"/>
-      <c r="AZ48" s="91"/>
-      <c r="BA48" s="91"/>
-      <c r="BB48" s="91"/>
+      <c r="AX48" s="89"/>
+      <c r="AY48" s="89"/>
+      <c r="AZ48" s="89"/>
+      <c r="BA48" s="89"/>
+      <c r="BB48" s="89"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
@@ -10271,7 +10353,7 @@
       <c r="BI48" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ48" s="22" t="s">
+      <c r="BJ48" s="116" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
@@ -10301,7 +10383,7 @@
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="117">
         <v>60</v>
       </c>
       <c r="F49" s="14">
@@ -10442,7 +10524,7 @@
       <c r="BI49" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ49" s="22" t="s">
+      <c r="BJ49" s="116" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
@@ -10472,7 +10554,7 @@
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="117">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10597,14 +10679,14 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="99" t="s">
+      <c r="AW50" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="91"/>
-      <c r="AY50" s="91"/>
-      <c r="AZ50" s="91"/>
-      <c r="BA50" s="91"/>
-      <c r="BB50" s="91"/>
+      <c r="AX50" s="89"/>
+      <c r="AY50" s="89"/>
+      <c r="AZ50" s="89"/>
+      <c r="BA50" s="89"/>
+      <c r="BB50" s="89"/>
       <c r="BC50" s="15" t="s">
         <v>416</v>
       </c>
@@ -10654,7 +10736,7 @@
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="117">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -10760,7 +10842,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="100">
+      <c r="AQ51" s="98">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -10775,11 +10857,11 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="91"/>
-      <c r="AY51" s="91"/>
-      <c r="AZ51" s="91"/>
-      <c r="BA51" s="91"/>
-      <c r="BB51" s="91"/>
+      <c r="AX51" s="89"/>
+      <c r="AY51" s="89"/>
+      <c r="AZ51" s="89"/>
+      <c r="BA51" s="89"/>
+      <c r="BB51" s="89"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
@@ -10795,7 +10877,7 @@
       <c r="BI51" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ51" s="22" t="s">
+      <c r="BJ51" s="116" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
@@ -10825,7 +10907,7 @@
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="117">
         <v>62</v>
       </c>
       <c r="F52" s="14">
@@ -10966,7 +11048,7 @@
       <c r="BI52" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ52" s="22" t="s">
+      <c r="BJ52" s="116" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
@@ -10991,12 +11073,12 @@
         <v>450</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="117">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11033,7 +11115,7 @@
         <v>-50.2</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R53" s="2">
         <v>20</v>
@@ -11121,7 +11203,7 @@
       <c r="AV53" s="16">
         <v>42859</v>
       </c>
-      <c r="AW53" s="99" t="s">
+      <c r="AW53" s="97" t="s">
         <v>168</v>
       </c>
       <c r="AX53" s="15"/>
@@ -11170,10 +11252,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>35</v>
@@ -11188,7 +11270,7 @@
         <v>130</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I54" s="2">
         <v>28.9</v>
@@ -11215,7 +11297,7 @@
         <v>-49.41</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R54" s="2">
         <v>27</v>
@@ -11233,7 +11315,7 @@
         <v>37</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="X54" s="18" t="s">
         <v>188</v>
@@ -11302,7 +11384,7 @@
       <c r="AV54" s="16">
         <v>42859</v>
       </c>
-      <c r="AW54" s="99" t="s">
+      <c r="AW54" s="97" t="s">
         <v>168</v>
       </c>
       <c r="AX54" s="15"/>
@@ -11343,7 +11425,7 @@
         <v>215</v>
       </c>
       <c r="BO54" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11351,10 +11433,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>44</v>
@@ -11369,7 +11451,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I55" s="2">
         <v>29.1</v>
@@ -11436,16 +11518,16 @@
         <v>3</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AH55" s="18">
         <v>20210420</v>
       </c>
       <c r="AI55" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ55" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AK55" s="14">
         <v>32</v>
@@ -11465,7 +11547,7 @@
       <c r="AP55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ55" s="100">
+      <c r="AQ55" s="98">
         <v>20210105</v>
       </c>
       <c r="AR55" s="22"/>
@@ -11480,11 +11562,11 @@
       <c r="AW55" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX55" s="91"/>
-      <c r="AY55" s="91"/>
-      <c r="AZ55" s="91"/>
-      <c r="BA55" s="91"/>
-      <c r="BB55" s="91"/>
+      <c r="AX55" s="89"/>
+      <c r="AY55" s="89"/>
+      <c r="AZ55" s="89"/>
+      <c r="BA55" s="89"/>
+      <c r="BB55" s="89"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
@@ -11504,7 +11586,7 @@
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="BL55" s="14" t="s">
         <v>211</v>
@@ -11516,7 +11598,7 @@
         <v>203</v>
       </c>
       <c r="BO55" s="21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11524,10 +11606,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>53</v>
@@ -11542,7 +11624,7 @@
         <v>218</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I56" s="2">
         <v>29.2</v>
@@ -11569,7 +11651,7 @@
         <v>-62.65</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="R56" s="2">
         <v>21</v>
@@ -11611,16 +11693,16 @@
         <v>2</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AH56" s="18">
         <v>20210527</v>
       </c>
       <c r="AI56" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ56" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AK56" s="14">
         <v>58</v>
@@ -11677,7 +11759,7 @@
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="BL56" s="14" t="s">
         <v>299</v>
@@ -11689,7 +11771,7 @@
         <v>203</v>
       </c>
       <c r="BO56" s="21" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11697,9 +11779,11 @@
         <v>12</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C57" s="20"/>
+        <v>472</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>487</v>
+      </c>
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
@@ -11713,23 +11797,48 @@
         <v>130</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="105" t="s">
-        <v>487</v>
-      </c>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="I57" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="J57" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="K57" s="14">
+        <v>48.725900000000003</v>
+      </c>
+      <c r="L57" s="14">
+        <v>-52.991100000000003</v>
+      </c>
+      <c r="M57" s="18">
+        <v>47.65</v>
+      </c>
+      <c r="N57" s="18">
+        <v>-53.63</v>
+      </c>
+      <c r="O57" s="18">
+        <v>50.14</v>
+      </c>
+      <c r="P57" s="18">
+        <v>-50.21</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="R57" s="2">
+        <v>28</v>
+      </c>
+      <c r="S57" s="2">
+        <v>814</v>
+      </c>
+      <c r="T57" s="2">
+        <v>644</v>
+      </c>
+      <c r="U57" s="2">
+        <f>644+5</f>
+        <v>649</v>
+      </c>
       <c r="V57" s="18" t="s">
         <v>38</v>
       </c>
@@ -11750,11 +11859,17 @@
       <c r="AC57" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>0</v>
+      </c>
       <c r="AG57" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AH57" s="18">
         <v>20210421</v>
@@ -11774,7 +11889,7 @@
       <c r="AM57" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="AN57" s="91" t="s">
+      <c r="AN57" s="22" t="s">
         <v>168</v>
       </c>
       <c r="AO57" s="20" t="s">
@@ -11801,7 +11916,7 @@
       <c r="AV57" s="16">
         <v>42859</v>
       </c>
-      <c r="AW57" s="99" t="s">
+      <c r="AW57" s="97" t="s">
         <v>168</v>
       </c>
       <c r="AX57" s="22"/>
@@ -11839,18 +11954,22 @@
         <v>212</v>
       </c>
       <c r="BN57" s="18" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="BO57" s="21" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
@@ -11864,23 +11983,48 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="105" t="s">
-        <v>434</v>
-      </c>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="I58" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="K58" s="14">
+        <v>44.517899999999997</v>
+      </c>
+      <c r="L58" s="14">
+        <v>-63.400599999999997</v>
+      </c>
+      <c r="M58" s="18">
+        <v>43.99</v>
+      </c>
+      <c r="N58" s="18">
+        <v>-63.41</v>
+      </c>
+      <c r="O58" s="18">
+        <v>44.52</v>
+      </c>
+      <c r="P58" s="18">
+        <v>-63.05</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="R58" s="2">
+        <v>5</v>
+      </c>
+      <c r="S58" s="2">
+        <v>131</v>
+      </c>
+      <c r="T58" s="2">
+        <v>250</v>
+      </c>
+      <c r="U58" s="2">
+        <f>250+13</f>
+        <v>263</v>
+      </c>
       <c r="V58" s="18" t="s">
         <v>36</v>
       </c>
@@ -11897,9 +12041,15 @@
       <c r="AA58" s="18"/>
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
+      <c r="AD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>0</v>
+      </c>
       <c r="AG58" s="2">
         <v>1022.5</v>
       </c>
@@ -11907,10 +12057,10 @@
         <v>20210922</v>
       </c>
       <c r="AI58" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AK58" s="14">
         <v>33</v>
@@ -11959,14 +12109,14 @@
       <c r="BG58" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH58" s="60" t="s">
-        <v>283</v>
+      <c r="BH58" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="BI58" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ58" s="91" t="s">
-        <v>345</v>
+        <v>329</v>
+      </c>
+      <c r="BJ58" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="BK58" s="2"/>
       <c r="BL58" s="14" t="s">
@@ -11976,79 +12126,144 @@
         <v>212</v>
       </c>
       <c r="BN58" s="18" t="s">
-        <v>469</v>
+        <v>203</v>
       </c>
       <c r="BO58" s="21" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="37"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="37"/>
-      <c r="AK59" s="35"/>
-      <c r="AL59" s="34"/>
-      <c r="AM59" s="38"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="38"/>
-      <c r="AR59" s="38"/>
-      <c r="AS59" s="38"/>
-      <c r="AT59" s="38"/>
-      <c r="AU59" s="34"/>
-      <c r="AV59" s="72"/>
-      <c r="AW59" s="38"/>
-      <c r="AX59" s="38"/>
-      <c r="AY59" s="38"/>
-      <c r="AZ59" s="38"/>
-      <c r="BA59" s="38"/>
-      <c r="BB59" s="38"/>
-      <c r="BC59" s="38"/>
-      <c r="BD59" s="38"/>
-      <c r="BE59" s="38"/>
-      <c r="BF59" s="34"/>
-      <c r="BG59" s="48"/>
-      <c r="BH59" s="38"/>
-      <c r="BI59" s="38"/>
-      <c r="BJ59" s="38"/>
-      <c r="BK59" s="3"/>
-      <c r="BL59" s="35"/>
-      <c r="BM59" s="35"/>
-      <c r="BN59" s="37"/>
-      <c r="BO59" s="43"/>
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>14</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="109">
+        <v>105</v>
+      </c>
+      <c r="F59" s="14">
+        <v>4800925</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="111" t="s">
+        <v>497</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W59" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X59" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y59" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2">
+        <v>1024.8</v>
+      </c>
+      <c r="AH59" s="110">
+        <v>20220111</v>
+      </c>
+      <c r="AI59" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="AJ59" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="AK59" s="109">
+        <v>33</v>
+      </c>
+      <c r="AL59" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM59" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN59" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO59" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ59" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="22"/>
+      <c r="AT59" s="22"/>
+      <c r="AU59" s="112">
+        <v>4551</v>
+      </c>
+      <c r="AV59" s="113">
+        <v>42691</v>
+      </c>
+      <c r="AW59" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX59" s="22"/>
+      <c r="AY59" s="22"/>
+      <c r="AZ59" s="22"/>
+      <c r="BA59" s="22"/>
+      <c r="BB59" s="22"/>
+      <c r="BC59" s="22"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG59" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI59" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ59" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM59" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN59" s="18"/>
+      <c r="BO59" s="21" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="60" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="53" t="s">
@@ -12068,7 +12283,7 @@
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="107"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -12098,9 +12313,9 @@
       <c r="AR60" s="38"/>
       <c r="AS60" s="38"/>
       <c r="AT60" s="38"/>
-      <c r="AU60" s="34"/>
-      <c r="AV60" s="38"/>
-      <c r="AW60" s="38"/>
+      <c r="AU60" s="114"/>
+      <c r="AV60" s="115"/>
+      <c r="AW60" s="115"/>
       <c r="AX60" s="38"/>
       <c r="AY60" s="38"/>
       <c r="AZ60" s="38"/>
@@ -12179,7 +12394,9 @@
       <c r="BE61" s="38"/>
       <c r="BF61" s="34"/>
       <c r="BG61" s="48"/>
-      <c r="BH61" s="38"/>
+      <c r="BH61" s="105" t="s">
+        <v>494</v>
+      </c>
       <c r="BI61" s="38"/>
       <c r="BJ61" s="38"/>
       <c r="BK61" s="3"/>
@@ -12247,18 +12464,20 @@
       <c r="BE62" s="38"/>
       <c r="BF62" s="34"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="68" t="s">
+      <c r="BH62" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="BI62" s="68" t="s">
+      <c r="BI62" s="67" t="s">
         <v>331</v>
       </c>
       <c r="BJ62" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="BK62" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="BK62" s="3">
+        <v>3.53</v>
+      </c>
       <c r="BL62" s="35">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="BM62" s="35"/>
       <c r="BN62" s="37"/>
@@ -12323,20 +12542,20 @@
       <c r="BE63" s="40"/>
       <c r="BF63" s="41"/>
       <c r="BG63" s="42"/>
-      <c r="BH63" s="62" t="s">
+      <c r="BH63" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="BI63" s="62" t="s">
+      <c r="BI63" s="108" t="s">
         <v>282</v>
       </c>
       <c r="BJ63" s="40" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="BK63" s="3">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="BL63" s="35">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="BM63" s="35"/>
       <c r="BN63" s="37"/>
@@ -12401,22 +12620,24 @@
       <c r="BE64" s="40"/>
       <c r="BF64" s="41"/>
       <c r="BG64" s="42"/>
-      <c r="BH64" s="67" t="s">
+      <c r="BH64" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="BI64" s="68" t="s">
+      <c r="BI64" s="67" t="s">
         <v>330</v>
       </c>
       <c r="BJ64" s="38" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="BK64" s="3">
         <v>3.3</v>
       </c>
       <c r="BL64" s="35">
-        <v>64</v>
-      </c>
-      <c r="BM64" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="BM64" s="35" t="s">
+        <v>495</v>
+      </c>
       <c r="BN64" s="37"/>
       <c r="BO64" s="43"/>
     </row>
@@ -12479,20 +12700,20 @@
       <c r="BE65" s="46"/>
       <c r="BF65" s="51"/>
       <c r="BG65" s="52"/>
-      <c r="BH65" s="66" t="s">
+      <c r="BH65" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="BI65" s="66" t="s">
+      <c r="BI65" s="65" t="s">
         <v>329</v>
       </c>
       <c r="BJ65" s="46" t="s">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="BK65" s="50">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="BL65" s="29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BM65" s="29"/>
       <c r="BN65" s="49"/>
@@ -12557,22 +12778,24 @@
       <c r="BE66" s="46"/>
       <c r="BF66" s="51"/>
       <c r="BG66" s="52"/>
-      <c r="BH66" s="106" t="s">
+      <c r="BH66" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="BI66" s="107" t="s">
+      <c r="BI66" s="104" t="s">
         <v>291</v>
       </c>
       <c r="BJ66" s="46" t="s">
         <v>458</v>
       </c>
       <c r="BK66" s="50">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="BL66" s="29">
         <v>43</v>
       </c>
-      <c r="BM66" s="29"/>
+      <c r="BM66" s="106" t="s">
+        <v>496</v>
+      </c>
       <c r="BN66" s="49"/>
       <c r="BO66" s="30"/>
     </row>
@@ -12638,7 +12861,7 @@
       <c r="BH67" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="BI67" s="65" t="s">
+      <c r="BI67" s="64" t="s">
         <v>119</v>
       </c>
       <c r="BJ67" s="46"/>
@@ -12867,6 +13090,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12879,5 +13103,6 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B513A3-94A8-48C0-B242-F6C2F9A22CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15396"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="508">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1461,9 +1462,6 @@
     <t>20210914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17.0-r </t>
-  </si>
-  <si>
     <t>AZMP fall 2021</t>
   </si>
   <si>
@@ -1545,22 +1543,46 @@
     <t>sent for refurbish 2021</t>
   </si>
   <si>
-    <t>GLI2022_SEA019_103</t>
-  </si>
-  <si>
-    <t>3.4.0-r</t>
-  </si>
-  <si>
-    <t>2.18.0-r</t>
-  </si>
-  <si>
-    <t>Glider SEA019, with PLD and Ecopuck of SEA021, with GPCTD of SEA019.</t>
+    <t>GLI2022_SEA019_105</t>
+  </si>
+  <si>
+    <t>2.18.1-r GPCTD DO</t>
+  </si>
+  <si>
+    <t>2.17.0-r legato fast file</t>
+  </si>
+  <si>
+    <t>in IN odis</t>
+  </si>
+  <si>
+    <t>3.4.0-r ballast &amp; DR</t>
+  </si>
+  <si>
+    <t>Glider SEA019, with PLD and Ecopuck of SEA021, with GPCTD of SEA019. New firmware upgrade with auto ballast adjustement, deadreckoning and no ym anymore. DO sensor stopped working properly mid mission. Huge ballast issue, glider ejected dropweight, dominion recovered in bad conditions and broke antenna.</t>
+  </si>
+  <si>
+    <t>20220201</t>
+  </si>
+  <si>
+    <t>20220214</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL2-GL1-TR1</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA024_72</t>
+  </si>
+  <si>
+    <t>20220113</t>
+  </si>
+  <si>
+    <t>20220205</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -1841,7 +1863,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,37 +2141,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2161,6 +2162,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8E8E8"/>
+      <color rgb="FFE0E0E0"/>
+      <color rgb="FFDEDEDE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2248,6 +2256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2283,6 +2308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2458,14 +2500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BO73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BI39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AC51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI59" sqref="BI59"/>
+      <selection pane="bottomRight" activeCell="AI63" sqref="AI63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,7 +2546,7 @@
     <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
     <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.33203125" style="88" bestFit="1" customWidth="1"/>
@@ -2539,7 +2581,9 @@
     <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="D1" s="108" t="s">
+        <v>499</v>
+      </c>
       <c r="E1" s="101" t="s">
         <v>438</v>
       </c>
@@ -9527,7 +9571,7 @@
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="117">
+      <c r="E44" s="100">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9696,7 +9740,7 @@
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="117">
+      <c r="E45" s="100">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -9869,7 +9913,7 @@
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="117">
+      <c r="E46" s="100">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -10010,7 +10054,7 @@
       <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ46" s="116" t="s">
+      <c r="BJ46" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
@@ -10040,7 +10084,7 @@
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="117">
+      <c r="E47" s="100">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10182,7 +10226,7 @@
       <c r="BI47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BJ47" s="116" t="s">
+      <c r="BJ47" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
@@ -10212,7 +10256,7 @@
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="117">
+      <c r="E48" s="100">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10353,7 +10397,7 @@
       <c r="BI48" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ48" s="116" t="s">
+      <c r="BJ48" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
@@ -10383,7 +10427,7 @@
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="117">
+      <c r="E49" s="100">
         <v>60</v>
       </c>
       <c r="F49" s="14">
@@ -10524,7 +10568,7 @@
       <c r="BI49" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ49" s="116" t="s">
+      <c r="BJ49" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
@@ -10554,7 +10598,7 @@
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="117">
+      <c r="E50" s="100">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10736,7 +10780,7 @@
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="117">
+      <c r="E51" s="100">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -10877,7 +10921,7 @@
       <c r="BI51" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ51" s="116" t="s">
+      <c r="BJ51" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
@@ -10907,7 +10951,7 @@
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="117">
+      <c r="E52" s="100">
         <v>62</v>
       </c>
       <c r="F52" s="14">
@@ -11048,7 +11092,7 @@
       <c r="BI52" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ52" s="116" t="s">
+      <c r="BJ52" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
@@ -11078,7 +11122,7 @@
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="117">
+      <c r="E53" s="100">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11255,12 +11299,12 @@
         <v>461</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="100">
         <v>67</v>
       </c>
       <c r="F54" s="14">
@@ -11297,7 +11341,7 @@
         <v>-49.41</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R54" s="2">
         <v>27</v>
@@ -11315,7 +11359,7 @@
         <v>37</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="X54" s="18" t="s">
         <v>188</v>
@@ -11425,7 +11469,7 @@
         <v>215</v>
       </c>
       <c r="BO54" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11436,12 +11480,12 @@
         <v>468</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="100">
         <v>70</v>
       </c>
       <c r="F55" s="14">
@@ -11451,7 +11495,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I55" s="2">
         <v>29.1</v>
@@ -11582,11 +11626,11 @@
       <c r="BI55" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ55" s="22" t="s">
+      <c r="BJ55" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BL55" s="14" t="s">
         <v>211</v>
@@ -11609,12 +11653,12 @@
         <v>468</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="100">
         <v>65</v>
       </c>
       <c r="F56" s="14">
@@ -11624,7 +11668,7 @@
         <v>218</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I56" s="2">
         <v>29.2</v>
@@ -11755,11 +11799,11 @@
       <c r="BI56" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ56" s="22" t="s">
+      <c r="BJ56" s="102" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BL56" s="14" t="s">
         <v>299</v>
@@ -11771,7 +11815,7 @@
         <v>203</v>
       </c>
       <c r="BO56" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11779,15 +11823,15 @@
         <v>12</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="100">
         <v>69</v>
       </c>
       <c r="F57" s="14">
@@ -11797,7 +11841,7 @@
         <v>130</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I57" s="2">
         <v>28.9</v>
@@ -11824,7 +11868,7 @@
         <v>-50.21</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R57" s="2">
         <v>28</v>
@@ -11869,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AH57" s="18">
         <v>20210421</v>
@@ -11954,10 +11998,10 @@
         <v>212</v>
       </c>
       <c r="BN57" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="BO57" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11965,15 +12009,15 @@
         <v>13</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>486</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="100">
         <v>97</v>
       </c>
       <c r="F58" s="14">
@@ -11983,7 +12027,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12010,7 +12054,7 @@
         <v>-63.05</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R58" s="2">
         <v>5</v>
@@ -12060,7 +12104,7 @@
         <v>465</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="AK58" s="14">
         <v>33</v>
@@ -12115,7 +12159,7 @@
       <c r="BI58" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="BJ58" s="22" t="s">
+      <c r="BJ58" s="102" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
@@ -12129,19 +12173,23 @@
         <v>203</v>
       </c>
       <c r="BO58" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>503</v>
+      </c>
       <c r="D59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="109">
+      <c r="E59" s="14">
         <v>105</v>
       </c>
       <c r="F59" s="14">
@@ -12150,22 +12198,48 @@
       <c r="G59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="111" t="s">
-        <v>497</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="H59" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="I59" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="K59" s="14">
+        <v>44.517899999999997</v>
+      </c>
+      <c r="L59" s="14">
+        <v>-63.405000000000001</v>
+      </c>
+      <c r="M59" s="18">
+        <v>43.47</v>
+      </c>
+      <c r="N59" s="18">
+        <v>-63.72</v>
+      </c>
+      <c r="O59" s="18">
+        <v>44.52</v>
+      </c>
+      <c r="P59" s="18">
+        <v>-62.45</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="R59" s="2">
+        <v>13</v>
+      </c>
+      <c r="S59" s="2">
+        <v>309</v>
+      </c>
+      <c r="T59" s="2">
+        <v>596</v>
+      </c>
+      <c r="U59" s="2">
+        <v>753</v>
+      </c>
       <c r="V59" s="18" t="s">
         <v>36</v>
       </c>
@@ -12182,23 +12256,29 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
+      <c r="AD59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>10</v>
+      </c>
       <c r="AG59" s="2">
         <v>1024.8</v>
       </c>
-      <c r="AH59" s="110">
-        <v>20220111</v>
+      <c r="AH59" s="18">
+        <v>20220117</v>
       </c>
       <c r="AI59" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="AJ59" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="AK59" s="109">
-        <v>33</v>
+        <v>500</v>
+      </c>
+      <c r="AJ59" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK59" s="14">
+        <v>29</v>
       </c>
       <c r="AL59" s="20" t="s">
         <v>69</v>
@@ -12221,11 +12301,11 @@
       <c r="AR59" s="22"/>
       <c r="AS59" s="22"/>
       <c r="AT59" s="22"/>
-      <c r="AU59" s="112">
-        <v>4551</v>
-      </c>
-      <c r="AV59" s="113">
-        <v>42691</v>
+      <c r="AU59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV59" s="16">
+        <v>42711</v>
       </c>
       <c r="AW59" s="22" t="s">
         <v>168</v>
@@ -12260,83 +12340,159 @@
       <c r="BM59" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN59" s="18"/>
+      <c r="BN59" s="18" t="s">
+        <v>400</v>
+      </c>
       <c r="BO59" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="107"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-      <c r="AJ60" s="37"/>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="38"/>
-      <c r="AN60" s="38"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="38"/>
-      <c r="AR60" s="38"/>
-      <c r="AS60" s="38"/>
-      <c r="AT60" s="38"/>
-      <c r="AU60" s="114"/>
-      <c r="AV60" s="115"/>
-      <c r="AW60" s="115"/>
-      <c r="AX60" s="38"/>
-      <c r="AY60" s="38"/>
-      <c r="AZ60" s="38"/>
-      <c r="BA60" s="38"/>
-      <c r="BB60" s="38"/>
-      <c r="BC60" s="38"/>
-      <c r="BD60" s="38"/>
-      <c r="BE60" s="38"/>
-      <c r="BF60" s="34"/>
-      <c r="BG60" s="48"/>
-      <c r="BH60" s="38"/>
-      <c r="BI60" s="38"/>
-      <c r="BJ60" s="38"/>
-      <c r="BK60" s="3"/>
-      <c r="BL60" s="35"/>
-      <c r="BM60" s="35"/>
-      <c r="BN60" s="37"/>
-      <c r="BO60" s="43"/>
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="110"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="14">
+        <v>72</v>
+      </c>
+      <c r="F60" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
+      <c r="P60" s="111"/>
+      <c r="Q60" s="112"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="112"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="112"/>
+      <c r="V60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="X60" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y60" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z60" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD60" s="112"/>
+      <c r="AE60" s="112"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH60" s="18">
+        <v>20220224</v>
+      </c>
+      <c r="AI60" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ60" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK60" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL60" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM60" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO60" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP60" s="20"/>
+      <c r="AQ60" s="22"/>
+      <c r="AR60" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS60" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="AT60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU60" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV60" s="16">
+        <v>42859</v>
+      </c>
+      <c r="AW60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX60" s="22"/>
+      <c r="AY60" s="22"/>
+      <c r="AZ60" s="22"/>
+      <c r="BA60" s="22"/>
+      <c r="BB60" s="22"/>
+      <c r="BC60" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD60" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF60" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG60" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH60" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI60" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ60" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK60" s="2"/>
+      <c r="BL60" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM60" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN60" s="18"/>
+      <c r="BO60" s="21" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="34"/>
+      <c r="B61" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C61" s="34"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -12394,14 +12550,12 @@
       <c r="BE61" s="38"/>
       <c r="BF61" s="34"/>
       <c r="BG61" s="48"/>
-      <c r="BH61" s="105" t="s">
-        <v>494</v>
-      </c>
-      <c r="BI61" s="38"/>
-      <c r="BJ61" s="38"/>
-      <c r="BK61" s="3"/>
-      <c r="BL61" s="35"/>
-      <c r="BM61" s="35"/>
+      <c r="BH61" s="109"/>
+      <c r="BI61" s="109"/>
+      <c r="BJ61" s="109"/>
+      <c r="BK61" s="109"/>
+      <c r="BL61" s="109"/>
+      <c r="BM61" s="109"/>
       <c r="BN61" s="37"/>
       <c r="BO61" s="43"/>
     </row>
@@ -12464,22 +12618,12 @@
       <c r="BE62" s="38"/>
       <c r="BF62" s="34"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI62" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ62" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK62" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="BL62" s="35">
-        <v>84</v>
-      </c>
-      <c r="BM62" s="35"/>
+      <c r="BH62" s="109"/>
+      <c r="BI62" s="109"/>
+      <c r="BJ62" s="109"/>
+      <c r="BK62" s="109"/>
+      <c r="BL62" s="109"/>
+      <c r="BM62" s="109"/>
       <c r="BN62" s="37"/>
       <c r="BO62" s="43"/>
     </row>
@@ -12542,22 +12686,12 @@
       <c r="BE63" s="40"/>
       <c r="BF63" s="41"/>
       <c r="BG63" s="42"/>
-      <c r="BH63" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI63" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ63" s="40" t="s">
-        <v>484</v>
-      </c>
-      <c r="BK63" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="BL63" s="35">
-        <v>174</v>
-      </c>
-      <c r="BM63" s="35"/>
+      <c r="BH63" s="109"/>
+      <c r="BI63" s="109"/>
+      <c r="BJ63" s="109"/>
+      <c r="BK63" s="109"/>
+      <c r="BL63" s="109"/>
+      <c r="BM63" s="109"/>
       <c r="BN63" s="37"/>
       <c r="BO63" s="43"/>
     </row>
@@ -12596,7 +12730,9 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="37"/>
       <c r="AI64" s="37"/>
-      <c r="AJ64" s="37"/>
+      <c r="AJ64" s="37" t="s">
+        <v>497</v>
+      </c>
       <c r="AK64" s="35"/>
       <c r="AL64" s="34"/>
       <c r="AM64" s="38"/>
@@ -12620,24 +12756,12 @@
       <c r="BE64" s="40"/>
       <c r="BF64" s="41"/>
       <c r="BG64" s="42"/>
-      <c r="BH64" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI64" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ64" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK64" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BL64" s="35">
-        <v>85</v>
-      </c>
-      <c r="BM64" s="35" t="s">
-        <v>495</v>
-      </c>
+      <c r="BH64" s="109"/>
+      <c r="BI64" s="109"/>
+      <c r="BJ64" s="109"/>
+      <c r="BK64" s="109"/>
+      <c r="BL64" s="109"/>
+      <c r="BM64" s="109"/>
       <c r="BN64" s="37"/>
       <c r="BO64" s="43"/>
     </row>
@@ -12700,22 +12824,6 @@
       <c r="BE65" s="46"/>
       <c r="BF65" s="51"/>
       <c r="BG65" s="52"/>
-      <c r="BH65" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI65" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ65" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="BK65" s="50">
-        <v>3.16</v>
-      </c>
-      <c r="BL65" s="29">
-        <v>25</v>
-      </c>
-      <c r="BM65" s="29"/>
       <c r="BN65" s="49"/>
       <c r="BO65" s="30"/>
     </row>
@@ -12778,24 +12886,14 @@
       <c r="BE66" s="46"/>
       <c r="BF66" s="51"/>
       <c r="BG66" s="52"/>
-      <c r="BH66" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI66" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ66" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="BK66" s="50">
-        <v>2.64</v>
-      </c>
-      <c r="BL66" s="29">
-        <v>43</v>
-      </c>
-      <c r="BM66" s="106" t="s">
-        <v>496</v>
-      </c>
+      <c r="BH66" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="BI66" s="38"/>
+      <c r="BJ66" s="38"/>
+      <c r="BK66" s="3"/>
+      <c r="BL66" s="35"/>
+      <c r="BM66" s="35"/>
       <c r="BN66" s="49"/>
       <c r="BO66" s="30"/>
     </row>
@@ -12858,16 +12956,22 @@
       <c r="BE67" s="46"/>
       <c r="BF67" s="51"/>
       <c r="BG67" s="52"/>
-      <c r="BH67" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI67" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ67" s="46"/>
-      <c r="BK67" s="50"/>
-      <c r="BL67" s="29"/>
-      <c r="BM67" s="29"/>
+      <c r="BH67" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI67" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ67" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK67" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="BL67" s="35">
+        <v>84</v>
+      </c>
+      <c r="BM67" s="35"/>
       <c r="BN67" s="49"/>
       <c r="BO67" s="30"/>
     </row>
@@ -12930,12 +13034,22 @@
       <c r="BE68" s="46"/>
       <c r="BF68" s="51"/>
       <c r="BG68" s="52"/>
-      <c r="BH68" s="46"/>
-      <c r="BI68" s="46"/>
-      <c r="BJ68" s="46"/>
-      <c r="BK68" s="50"/>
-      <c r="BL68" s="29"/>
-      <c r="BM68" s="29"/>
+      <c r="BH68" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI68" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ68" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="BK68" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="BL68" s="35">
+        <v>174</v>
+      </c>
+      <c r="BM68" s="35"/>
       <c r="BN68" s="49"/>
       <c r="BO68" s="30"/>
     </row>
@@ -12998,12 +13112,24 @@
       <c r="BE69" s="46"/>
       <c r="BF69" s="51"/>
       <c r="BG69" s="52"/>
-      <c r="BH69" s="46"/>
-      <c r="BI69" s="46"/>
-      <c r="BJ69" s="46"/>
-      <c r="BK69" s="50"/>
-      <c r="BL69" s="29"/>
-      <c r="BM69" s="29"/>
+      <c r="BH69" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI69" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ69" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK69" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BL69" s="35">
+        <v>85</v>
+      </c>
+      <c r="BM69" s="35" t="s">
+        <v>494</v>
+      </c>
       <c r="BN69" s="49"/>
       <c r="BO69" s="30"/>
     </row>
@@ -13066,14 +13192,64 @@
       <c r="BE70" s="46"/>
       <c r="BF70" s="51"/>
       <c r="BG70" s="52"/>
-      <c r="BH70" s="46"/>
-      <c r="BI70" s="46"/>
-      <c r="BJ70" s="46"/>
-      <c r="BK70" s="50"/>
-      <c r="BL70" s="29"/>
+      <c r="BH70" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI70" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ70" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK70" s="50">
+        <v>3.16</v>
+      </c>
+      <c r="BL70" s="29">
+        <v>25</v>
+      </c>
       <c r="BM70" s="29"/>
       <c r="BN70" s="49"/>
       <c r="BO70" s="30"/>
+    </row>
+    <row r="71" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BH71" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI71" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ71" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK71" s="50">
+        <v>2.64</v>
+      </c>
+      <c r="BL71" s="29">
+        <v>43</v>
+      </c>
+      <c r="BM71" s="106" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BH72" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI72" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ72" s="46"/>
+      <c r="BK72" s="50"/>
+      <c r="BL72" s="29"/>
+      <c r="BM72" s="29"/>
+    </row>
+    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BH73" s="46"/>
+      <c r="BI73" s="46"/>
+      <c r="BJ73" s="46"/>
+      <c r="BK73" s="50"/>
+      <c r="BL73" s="29"/>
+      <c r="BM73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13082,7 +13258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13095,7 +13271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BelzileM\Documents\Gliders\Rdata\pilotingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B513A3-94A8-48C0-B242-F6C2F9A22CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F154A4-80E4-494E-90AE-8BA22405E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="516">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1577,6 +1577,30 @@
   </si>
   <si>
     <t>20220205</t>
+  </si>
+  <si>
+    <t>20220324</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-HL6-GL3-GL2-GL1-NSC-Tri- DR</t>
+  </si>
+  <si>
+    <t>3.2.1-r</t>
+  </si>
+  <si>
+    <t>AZMP spring 2022</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_81</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Sigma-T</t>
+  </si>
+  <si>
+    <t>GPCTD of SEA024, firmware upgraded but not using auto-ballast</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1695,6 +1719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1893,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,11 +2176,56 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2501,13 +2576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO73"/>
+  <dimension ref="A1:BO75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AC51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AI51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI63" sqref="AI63"/>
+      <selection pane="bottomRight" activeCell="AP65" sqref="AP65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12348,8 +12423,15 @@
       </c>
     </row>
     <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="110"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="90">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20220303</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>508</v>
+      </c>
       <c r="D60" s="14" t="s">
         <v>35</v>
       </c>
@@ -12365,19 +12447,45 @@
       <c r="H60" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="111"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
-      <c r="P60" s="111"/>
-      <c r="Q60" s="112"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="112"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="112"/>
+      <c r="I60" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="K60" s="14">
+        <v>44.515300000000003</v>
+      </c>
+      <c r="L60" s="14">
+        <v>-63.437600000000003</v>
+      </c>
+      <c r="M60" s="18">
+        <v>42.82</v>
+      </c>
+      <c r="N60" s="18">
+        <v>-63.44</v>
+      </c>
+      <c r="O60" s="18">
+        <v>44.53</v>
+      </c>
+      <c r="P60" s="18">
+        <v>-61.72</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R60" s="2">
+        <v>21</v>
+      </c>
+      <c r="S60" s="2">
+        <v>556</v>
+      </c>
+      <c r="T60" s="2">
+        <v>1207</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1338</v>
+      </c>
       <c r="V60" s="18" t="s">
         <v>36</v>
       </c>
@@ -12398,9 +12506,15 @@
       <c r="AC60" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="AD60" s="112"/>
-      <c r="AE60" s="112"/>
-      <c r="AF60" s="2"/>
+      <c r="AD60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>1</v>
+      </c>
       <c r="AG60" s="2">
         <v>1024</v>
       </c>
@@ -12408,7 +12522,7 @@
         <v>20220224</v>
       </c>
       <c r="AI60" s="18" t="s">
-        <v>412</v>
+        <v>510</v>
       </c>
       <c r="AJ60" s="18" t="s">
         <v>398</v>
@@ -12477,29 +12591,48 @@
       <c r="BJ60" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="BK60" s="2"/>
+      <c r="BK60" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="BL60" s="14" t="s">
         <v>211</v>
       </c>
       <c r="BM60" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="BN60" s="18"/>
+      <c r="BN60" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="BO60" s="21" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="53" t="s">
-        <v>99</v>
+      <c r="A61" s="23">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3">
+        <v>20220406</v>
       </c>
       <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="3"/>
+      <c r="D61" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="35">
+        <v>81</v>
+      </c>
+      <c r="F61" s="35">
+        <v>4800993</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="I61" s="3">
+        <v>29.1</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
@@ -12512,10 +12645,18 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
+      <c r="V61" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W61" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="X61" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y61" s="37" t="s">
+        <v>188</v>
+      </c>
       <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
       <c r="AB61" s="37"/>
@@ -12525,110 +12666,153 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="37"/>
-      <c r="AI61" s="37"/>
-      <c r="AJ61" s="37"/>
-      <c r="AK61" s="35"/>
-      <c r="AL61" s="34"/>
+      <c r="AI61" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ61" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK61" s="125">
+        <v>30</v>
+      </c>
+      <c r="AL61" s="122" t="s">
+        <v>76</v>
+      </c>
       <c r="AM61" s="38"/>
-      <c r="AN61" s="38"/>
-      <c r="AO61" s="34"/>
-      <c r="AP61" s="34"/>
-      <c r="AQ61" s="38"/>
+      <c r="AN61" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO61" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP61" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ61" s="127">
+        <v>20210105</v>
+      </c>
       <c r="AR61" s="38"/>
       <c r="AS61" s="38"/>
       <c r="AT61" s="38"/>
-      <c r="AU61" s="34"/>
-      <c r="AV61" s="38"/>
-      <c r="AW61" s="38"/>
+      <c r="AU61" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV61" s="123">
+        <v>42723</v>
+      </c>
+      <c r="AW61" s="124" t="s">
+        <v>169</v>
+      </c>
       <c r="AX61" s="38"/>
       <c r="AY61" s="38"/>
       <c r="AZ61" s="38"/>
       <c r="BA61" s="38"/>
       <c r="BB61" s="38"/>
       <c r="BC61" s="38"/>
-      <c r="BD61" s="38"/>
+      <c r="BD61" s="40"/>
       <c r="BE61" s="38"/>
-      <c r="BF61" s="34"/>
-      <c r="BG61" s="48"/>
-      <c r="BH61" s="109"/>
-      <c r="BI61" s="109"/>
-      <c r="BJ61" s="109"/>
-      <c r="BK61" s="109"/>
-      <c r="BL61" s="109"/>
-      <c r="BM61" s="109"/>
-      <c r="BN61" s="37"/>
-      <c r="BO61" s="43"/>
+      <c r="BF61" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG61" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH61" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI61" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ61" s="38"/>
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM61" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN61" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="BO61" s="43" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
-      <c r="AJ62" s="37"/>
-      <c r="AK62" s="35"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="38"/>
-      <c r="AN62" s="38"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="38"/>
-      <c r="AR62" s="38"/>
-      <c r="AS62" s="38"/>
-      <c r="AT62" s="38"/>
-      <c r="AU62" s="34"/>
-      <c r="AV62" s="38"/>
-      <c r="AW62" s="38"/>
-      <c r="AX62" s="38"/>
-      <c r="AY62" s="38"/>
-      <c r="AZ62" s="38"/>
-      <c r="BA62" s="38"/>
-      <c r="BB62" s="38"/>
-      <c r="BC62" s="38"/>
-      <c r="BD62" s="38"/>
-      <c r="BE62" s="38"/>
-      <c r="BF62" s="34"/>
-      <c r="BG62" s="48"/>
-      <c r="BH62" s="109"/>
-      <c r="BI62" s="109"/>
-      <c r="BJ62" s="109"/>
-      <c r="BK62" s="109"/>
-      <c r="BL62" s="109"/>
-      <c r="BM62" s="109"/>
-      <c r="BN62" s="37"/>
-      <c r="BO62" s="43"/>
+    <row r="62" spans="1:67" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="110">
+        <v>2</v>
+      </c>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="114"/>
+      <c r="W62" s="114"/>
+      <c r="X62" s="114"/>
+      <c r="Y62" s="114"/>
+      <c r="Z62" s="114"/>
+      <c r="AA62" s="114"/>
+      <c r="AB62" s="114"/>
+      <c r="AC62" s="114"/>
+      <c r="AD62" s="111"/>
+      <c r="AE62" s="111"/>
+      <c r="AF62" s="111"/>
+      <c r="AG62" s="111"/>
+      <c r="AH62" s="114"/>
+      <c r="AI62" s="114"/>
+      <c r="AJ62" s="114"/>
+      <c r="AK62" s="113"/>
+      <c r="AL62" s="112"/>
+      <c r="AM62" s="116"/>
+      <c r="AN62" s="116"/>
+      <c r="AO62" s="112"/>
+      <c r="AP62" s="112"/>
+      <c r="AQ62" s="116"/>
+      <c r="AR62" s="116"/>
+      <c r="AS62" s="116"/>
+      <c r="AT62" s="116"/>
+      <c r="AU62" s="112"/>
+      <c r="AV62" s="117"/>
+      <c r="AW62" s="116"/>
+      <c r="AX62" s="116"/>
+      <c r="AY62" s="116"/>
+      <c r="AZ62" s="116"/>
+      <c r="BA62" s="116"/>
+      <c r="BB62" s="116"/>
+      <c r="BC62" s="116"/>
+      <c r="BD62" s="118"/>
+      <c r="BE62" s="116"/>
+      <c r="BF62" s="119"/>
+      <c r="BG62" s="120"/>
+      <c r="BH62" s="118"/>
+      <c r="BI62" s="116"/>
+      <c r="BJ62" s="116"/>
+      <c r="BK62" s="111"/>
+      <c r="BL62" s="113"/>
+      <c r="BM62" s="113"/>
+      <c r="BN62" s="114"/>
+      <c r="BO62" s="121"/>
     </row>
     <row r="63" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="34"/>
+      <c r="B63" s="53" t="s">
+        <v>99</v>
+      </c>
       <c r="C63" s="34"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -12675,17 +12859,17 @@
       <c r="AT63" s="38"/>
       <c r="AU63" s="34"/>
       <c r="AV63" s="38"/>
-      <c r="AW63" s="40"/>
+      <c r="AW63" s="38"/>
       <c r="AX63" s="38"/>
       <c r="AY63" s="38"/>
       <c r="AZ63" s="38"/>
       <c r="BA63" s="38"/>
       <c r="BB63" s="38"/>
-      <c r="BC63" s="40"/>
-      <c r="BD63" s="40"/>
-      <c r="BE63" s="40"/>
-      <c r="BF63" s="41"/>
-      <c r="BG63" s="42"/>
+      <c r="BC63" s="38"/>
+      <c r="BD63" s="38"/>
+      <c r="BE63" s="38"/>
+      <c r="BF63" s="34"/>
+      <c r="BG63" s="48"/>
       <c r="BH63" s="109"/>
       <c r="BI63" s="109"/>
       <c r="BJ63" s="109"/>
@@ -12730,9 +12914,7 @@
       <c r="AG64" s="3"/>
       <c r="AH64" s="37"/>
       <c r="AI64" s="37"/>
-      <c r="AJ64" s="37" t="s">
-        <v>497</v>
-      </c>
+      <c r="AJ64" s="37"/>
       <c r="AK64" s="35"/>
       <c r="AL64" s="34"/>
       <c r="AM64" s="38"/>
@@ -12745,17 +12927,17 @@
       <c r="AT64" s="38"/>
       <c r="AU64" s="34"/>
       <c r="AV64" s="38"/>
-      <c r="AW64" s="40"/>
+      <c r="AW64" s="38"/>
       <c r="AX64" s="38"/>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
       <c r="BA64" s="38"/>
       <c r="BB64" s="38"/>
-      <c r="BC64" s="40"/>
-      <c r="BD64" s="40"/>
-      <c r="BE64" s="40"/>
-      <c r="BF64" s="41"/>
-      <c r="BG64" s="42"/>
+      <c r="BC64" s="38"/>
+      <c r="BD64" s="38"/>
+      <c r="BE64" s="38"/>
+      <c r="BF64" s="34"/>
+      <c r="BG64" s="48"/>
       <c r="BH64" s="109"/>
       <c r="BI64" s="109"/>
       <c r="BJ64" s="109"/>
@@ -12786,46 +12968,52 @@
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
-      <c r="AG65" s="50"/>
-      <c r="AH65" s="49"/>
-      <c r="AI65" s="49"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="29"/>
-      <c r="AL65" s="51"/>
-      <c r="AM65" s="46"/>
-      <c r="AN65" s="46"/>
-      <c r="AO65" s="51"/>
-      <c r="AP65" s="51"/>
-      <c r="AQ65" s="46"/>
-      <c r="AR65" s="46"/>
-      <c r="AS65" s="46"/>
-      <c r="AT65" s="46"/>
-      <c r="AU65" s="51"/>
-      <c r="AV65" s="46"/>
-      <c r="AW65" s="46"/>
-      <c r="AX65" s="46"/>
-      <c r="AY65" s="46"/>
-      <c r="AZ65" s="46"/>
-      <c r="BA65" s="46"/>
-      <c r="BB65" s="46"/>
-      <c r="BC65" s="46"/>
-      <c r="BD65" s="46"/>
-      <c r="BE65" s="46"/>
-      <c r="BF65" s="51"/>
-      <c r="BG65" s="52"/>
-      <c r="BN65" s="49"/>
-      <c r="BO65" s="30"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="37"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="34"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="38"/>
+      <c r="AS65" s="38"/>
+      <c r="AT65" s="38"/>
+      <c r="AU65" s="34"/>
+      <c r="AV65" s="38"/>
+      <c r="AW65" s="40"/>
+      <c r="AX65" s="38"/>
+      <c r="AY65" s="38"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="38"/>
+      <c r="BB65" s="38"/>
+      <c r="BC65" s="40"/>
+      <c r="BD65" s="40"/>
+      <c r="BE65" s="40"/>
+      <c r="BF65" s="41"/>
+      <c r="BG65" s="42"/>
+      <c r="BH65" s="109"/>
+      <c r="BI65" s="109"/>
+      <c r="BJ65" s="109"/>
+      <c r="BK65" s="109"/>
+      <c r="BL65" s="109"/>
+      <c r="BM65" s="109"/>
+      <c r="BN65" s="37"/>
+      <c r="BO65" s="43"/>
     </row>
     <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="34"/>
@@ -12848,54 +13036,52 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="50"/>
-      <c r="AH66" s="49"/>
-      <c r="AI66" s="49"/>
-      <c r="AJ66" s="49"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="51"/>
-      <c r="AM66" s="46"/>
-      <c r="AN66" s="46"/>
-      <c r="AO66" s="51"/>
-      <c r="AP66" s="51"/>
-      <c r="AQ66" s="46"/>
-      <c r="AR66" s="46"/>
-      <c r="AS66" s="46"/>
-      <c r="AT66" s="46"/>
-      <c r="AU66" s="51"/>
-      <c r="AV66" s="46"/>
-      <c r="AW66" s="46"/>
-      <c r="AX66" s="46"/>
-      <c r="AY66" s="46"/>
-      <c r="AZ66" s="46"/>
-      <c r="BA66" s="46"/>
-      <c r="BB66" s="46"/>
-      <c r="BC66" s="46"/>
-      <c r="BD66" s="46"/>
-      <c r="BE66" s="46"/>
-      <c r="BF66" s="51"/>
-      <c r="BG66" s="52"/>
-      <c r="BH66" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="BI66" s="38"/>
-      <c r="BJ66" s="38"/>
-      <c r="BK66" s="3"/>
-      <c r="BL66" s="35"/>
-      <c r="BM66" s="35"/>
-      <c r="BN66" s="49"/>
-      <c r="BO66" s="30"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="34"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="34"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="38"/>
+      <c r="AS66" s="38"/>
+      <c r="AT66" s="38"/>
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="38"/>
+      <c r="AW66" s="40"/>
+      <c r="AX66" s="38"/>
+      <c r="AY66" s="38"/>
+      <c r="AZ66" s="38"/>
+      <c r="BA66" s="38"/>
+      <c r="BB66" s="38"/>
+      <c r="BC66" s="40"/>
+      <c r="BD66" s="40"/>
+      <c r="BE66" s="40"/>
+      <c r="BF66" s="41"/>
+      <c r="BG66" s="42"/>
+      <c r="BH66" s="109"/>
+      <c r="BI66" s="109"/>
+      <c r="BJ66" s="109"/>
+      <c r="BK66" s="109"/>
+      <c r="BL66" s="109"/>
+      <c r="BM66" s="109"/>
+      <c r="BN66" s="37"/>
+      <c r="BO66" s="43"/>
     </row>
     <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="34"/>
@@ -12956,22 +13142,6 @@
       <c r="BE67" s="46"/>
       <c r="BF67" s="51"/>
       <c r="BG67" s="52"/>
-      <c r="BH67" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI67" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ67" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK67" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="BL67" s="35">
-        <v>84</v>
-      </c>
-      <c r="BM67" s="35"/>
       <c r="BN67" s="49"/>
       <c r="BO67" s="30"/>
     </row>
@@ -13034,21 +13204,13 @@
       <c r="BE68" s="46"/>
       <c r="BF68" s="51"/>
       <c r="BG68" s="52"/>
-      <c r="BH68" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI68" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ68" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK68" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="BL68" s="35">
-        <v>174</v>
-      </c>
+      <c r="BH68" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="BI68" s="38"/>
+      <c r="BJ68" s="38"/>
+      <c r="BK68" s="3"/>
+      <c r="BL68" s="35"/>
       <c r="BM68" s="35"/>
       <c r="BN68" s="49"/>
       <c r="BO68" s="30"/>
@@ -13112,24 +13274,22 @@
       <c r="BE69" s="46"/>
       <c r="BF69" s="51"/>
       <c r="BG69" s="52"/>
-      <c r="BH69" s="66" t="s">
-        <v>95</v>
+      <c r="BH69" s="67" t="s">
+        <v>98</v>
       </c>
       <c r="BI69" s="67" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BJ69" s="38" t="s">
         <v>482</v>
       </c>
       <c r="BK69" s="3">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="BL69" s="35">
-        <v>85</v>
-      </c>
-      <c r="BM69" s="35" t="s">
-        <v>494</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="BM69" s="35"/>
       <c r="BN69" s="49"/>
       <c r="BO69" s="30"/>
     </row>
@@ -13192,64 +13352,222 @@
       <c r="BE70" s="46"/>
       <c r="BF70" s="51"/>
       <c r="BG70" s="52"/>
-      <c r="BH70" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI70" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="BJ70" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="BK70" s="50">
-        <v>3.16</v>
-      </c>
-      <c r="BL70" s="29">
-        <v>25</v>
-      </c>
-      <c r="BM70" s="29"/>
+      <c r="BH70" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI70" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ70" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="BK70" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="BL70" s="35">
+        <v>174</v>
+      </c>
+      <c r="BM70" s="35"/>
       <c r="BN70" s="49"/>
       <c r="BO70" s="30"/>
     </row>
-    <row r="71" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH71" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI71" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ71" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="BK71" s="50">
-        <v>2.64</v>
-      </c>
-      <c r="BL71" s="29">
-        <v>43</v>
-      </c>
-      <c r="BM71" s="106" t="s">
-        <v>495</v>
-      </c>
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="49"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="49"/>
+      <c r="AK71" s="29"/>
+      <c r="AL71" s="51"/>
+      <c r="AM71" s="46"/>
+      <c r="AN71" s="46"/>
+      <c r="AO71" s="51"/>
+      <c r="AP71" s="51"/>
+      <c r="AQ71" s="46"/>
+      <c r="AR71" s="46"/>
+      <c r="AS71" s="46"/>
+      <c r="AT71" s="46"/>
+      <c r="AU71" s="51"/>
+      <c r="AV71" s="46"/>
+      <c r="AW71" s="46"/>
+      <c r="AX71" s="46"/>
+      <c r="AY71" s="46"/>
+      <c r="AZ71" s="46"/>
+      <c r="BA71" s="46"/>
+      <c r="BB71" s="46"/>
+      <c r="BC71" s="46"/>
+      <c r="BD71" s="46"/>
+      <c r="BE71" s="46"/>
+      <c r="BF71" s="51"/>
+      <c r="BG71" s="52"/>
+      <c r="BH71" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI71" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ71" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK71" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BL71" s="35">
+        <v>85</v>
+      </c>
+      <c r="BM71" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN71" s="49"/>
+      <c r="BO71" s="30"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH72" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI72" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="BJ72" s="46"/>
-      <c r="BK72" s="50"/>
-      <c r="BL72" s="29"/>
+    <row r="72" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="49"/>
+      <c r="AK72" s="29"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="46"/>
+      <c r="AN72" s="46"/>
+      <c r="AO72" s="51"/>
+      <c r="AP72" s="51"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="46"/>
+      <c r="AS72" s="46"/>
+      <c r="AT72" s="46"/>
+      <c r="AU72" s="51"/>
+      <c r="AV72" s="46"/>
+      <c r="AW72" s="46"/>
+      <c r="AX72" s="46"/>
+      <c r="AY72" s="46"/>
+      <c r="AZ72" s="46"/>
+      <c r="BA72" s="46"/>
+      <c r="BB72" s="46"/>
+      <c r="BC72" s="46"/>
+      <c r="BD72" s="46"/>
+      <c r="BE72" s="46"/>
+      <c r="BF72" s="51"/>
+      <c r="BG72" s="52"/>
+      <c r="BH72" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI72" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ72" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK72" s="50">
+        <v>3.16</v>
+      </c>
+      <c r="BL72" s="29">
+        <v>25</v>
+      </c>
       <c r="BM72" s="29"/>
+      <c r="BN72" s="49"/>
+      <c r="BO72" s="30"/>
     </row>
     <row r="73" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH73" s="46"/>
-      <c r="BI73" s="46"/>
-      <c r="BJ73" s="46"/>
-      <c r="BK73" s="50"/>
-      <c r="BL73" s="29"/>
-      <c r="BM73" s="29"/>
+      <c r="BH73" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI73" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ73" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK73" s="50">
+        <v>2.64</v>
+      </c>
+      <c r="BL73" s="29">
+        <v>43</v>
+      </c>
+      <c r="BM73" s="106" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BH74" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI74" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ74" s="46"/>
+      <c r="BK74" s="50"/>
+      <c r="BL74" s="29"/>
+      <c r="BM74" s="29"/>
+    </row>
+    <row r="75" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BH75" s="46"/>
+      <c r="BI75" s="46"/>
+      <c r="BJ75" s="46"/>
+      <c r="BK75" s="50"/>
+      <c r="BL75" s="29"/>
+      <c r="BM75" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F154A4-80E4-494E-90AE-8BA22405E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0363C0-0F70-4941-9B73-EB93D0776430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25035" yWindow="1635" windowWidth="24735" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="520">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1597,10 +1597,22 @@
     <t>3.4.0</t>
   </si>
   <si>
-    <t>Sigma-T</t>
-  </si>
-  <si>
     <t>GPCTD of SEA024, firmware upgraded but not using auto-ballast</t>
+  </si>
+  <si>
+    <t>20220429</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-TRI-DR</t>
+  </si>
+  <si>
+    <t>2.19.1-r</t>
+  </si>
+  <si>
+    <t>Chris Beck</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_87</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1905,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,9 +2023,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2209,24 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2576,90 +2567,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO75"/>
+  <dimension ref="A1:BO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AI51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP65" sqref="AP65"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="65.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="87" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="87" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" style="87" customWidth="1"/>
-    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" style="86" customWidth="1"/>
+    <col min="28" max="28" width="20.54296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.54296875" style="86" customWidth="1"/>
+    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.77734375" style="88" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="88" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="88" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" style="88" customWidth="1"/>
-    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.77734375" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" style="88" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="88" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="88" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" style="88" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.21875" style="88" customWidth="1"/>
-    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.36328125" style="87" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="87" customWidth="1"/>
+    <col min="45" max="45" width="12.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.81640625" style="87" customWidth="1"/>
+    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.81640625" style="87" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="87" customWidth="1"/>
+    <col min="53" max="53" width="14.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1796875" style="87" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.1796875" style="87" customWidth="1"/>
+    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.5546875" style="4" customWidth="1"/>
-    <col min="66" max="66" width="16.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.88671875" customWidth="1"/>
+    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.1796875" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>438</v>
       </c>
       <c r="F1" s="24"/>
@@ -2713,26 +2703,26 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="73" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2741,22 +2731,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2774,28 +2764,28 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="78" t="s">
+      <c r="X2" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="78" t="s">
+      <c r="Y2" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="77" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="77" t="s">
         <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
@@ -2810,110 +2800,110 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="78" t="s">
+      <c r="AH2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="78" t="s">
+      <c r="AI2" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="78" t="s">
+      <c r="AJ2" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="79" t="s">
+      <c r="AK2" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="81" t="s">
+      <c r="AL2" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="80" t="s">
+      <c r="AM2" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="80" t="s">
+      <c r="AN2" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="81" t="s">
+      <c r="AO2" s="80" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="81" t="s">
+      <c r="AP2" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="AQ2" s="80" t="s">
+      <c r="AQ2" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="AR2" s="80" t="s">
+      <c r="AR2" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="80" t="s">
+      <c r="AS2" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="80" t="s">
+      <c r="AT2" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="81" t="s">
+      <c r="AU2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="80" t="s">
+      <c r="AV2" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="82" t="s">
+      <c r="AW2" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="AX2" s="80" t="s">
+      <c r="AX2" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="80" t="s">
+      <c r="AY2" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="AZ2" s="80" t="s">
+      <c r="AZ2" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="BA2" s="80" t="s">
+      <c r="BA2" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="80" t="s">
+      <c r="BB2" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="BC2" s="80" t="s">
+      <c r="BC2" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="80" t="s">
+      <c r="BD2" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="80" t="s">
+      <c r="BE2" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="BF2" s="83" t="s">
+      <c r="BF2" s="82" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="80" t="s">
+      <c r="BH2" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="80" t="s">
+      <c r="BI2" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="80" t="s">
+      <c r="BJ2" s="79" t="s">
         <v>229</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="84" t="s">
+      <c r="BL2" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="84" t="s">
+      <c r="BM2" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="85" t="s">
+      <c r="BN2" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="86" t="s">
+      <c r="BO2" s="85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2926,7 +2916,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="98">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -3083,11 +3073,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="91">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3096,7 +3086,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="99">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -3253,7 +3243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3266,7 +3256,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="99">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3425,7 +3415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3438,7 +3428,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="99">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3596,7 +3586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3609,7 +3599,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3768,7 +3758,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3781,7 +3771,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="99">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3938,7 +3928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -3951,7 +3941,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="99">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -4108,7 +4098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4121,7 +4111,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="99">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -4274,11 +4264,11 @@
       <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="BO10" s="57" t="s">
+      <c r="BO10" s="56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4291,7 +4281,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="99">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4444,11 +4434,11 @@
       <c r="BN11" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO11" s="57" t="s">
+      <c r="BO11" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4461,7 +4451,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="99">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4618,11 +4608,11 @@
       <c r="BN12" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO12" s="57" t="s">
+      <c r="BO12" s="56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4635,7 +4625,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="99">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4790,11 +4780,11 @@
       <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="BO13" s="58" t="s">
+      <c r="BO13" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4807,7 +4797,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="99">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -4964,7 +4954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -4977,7 +4967,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="99">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -5138,7 +5128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5151,7 +5141,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="99">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -5293,7 +5283,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="102" t="s">
+      <c r="BJ16" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -5310,11 +5300,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="94">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="93">
         <v>13</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5323,7 +5313,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="99">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5464,7 +5454,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="102" t="s">
+      <c r="BJ17" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5481,7 +5471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5494,7 +5484,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="99">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5652,7 +5642,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5665,7 +5655,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="99">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5779,7 +5769,7 @@
       <c r="AV19" s="16">
         <v>42691</v>
       </c>
-      <c r="AW19" s="59" t="s">
+      <c r="AW19" s="58" t="s">
         <v>168</v>
       </c>
       <c r="AX19" s="15"/>
@@ -5796,10 +5786,10 @@
       <c r="BG19" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH19" s="60" t="s">
+      <c r="BH19" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="BI19" s="60" t="s">
+      <c r="BI19" s="59" t="s">
         <v>119</v>
       </c>
       <c r="BJ19" s="22"/>
@@ -5817,8 +5807,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="20"/>
@@ -5881,7 +5871,7 @@
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
       <c r="BF20" s="20"/>
-      <c r="BG20" s="55"/>
+      <c r="BG20" s="54"/>
       <c r="BH20" s="22"/>
       <c r="BI20" s="22"/>
       <c r="BJ20" s="22"/>
@@ -5893,8 +5883,8 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="90">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="89">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5906,7 +5896,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="99">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -6047,7 +6037,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="102" t="s">
+      <c r="BJ21" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -6064,8 +6054,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="90">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="89">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -6077,7 +6067,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="99">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -6219,7 +6209,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="102" t="s">
+      <c r="BJ22" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -6236,7 +6226,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6249,7 +6239,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="99">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6391,7 +6381,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="102" t="s">
+      <c r="BJ23" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6408,7 +6398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6421,7 +6411,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="99">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6563,7 +6553,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="102" t="s">
+      <c r="BJ24" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6580,7 +6570,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6593,7 +6583,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="99">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6605,10 +6595,10 @@
       <c r="H25" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="60">
         <v>29</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="60">
         <v>26</v>
       </c>
       <c r="K25" s="14">
@@ -6746,11 +6736,11 @@
       <c r="BN25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="BO25" s="56" t="s">
+      <c r="BO25" s="55" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6763,7 +6753,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E26" s="99">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6896,13 +6886,13 @@
       <c r="BG26" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH26" s="60" t="s">
+      <c r="BH26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="BI26" s="60" t="s">
+      <c r="BI26" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="102" t="s">
+      <c r="BJ26" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -6919,7 +6909,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -6932,7 +6922,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="99">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -7075,7 +7065,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="102" t="s">
+      <c r="BJ27" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -7092,7 +7082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7105,7 +7095,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="99">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -7257,11 +7247,11 @@
       <c r="BN28" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="BO28" s="56" t="s">
+      <c r="BO28" s="55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7274,7 +7264,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="99">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7407,7 +7397,7 @@
       <c r="BF29" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG29" s="55" t="s">
+      <c r="BG29" s="54" t="s">
         <v>174</v>
       </c>
       <c r="BH29" s="15" t="s">
@@ -7416,7 +7406,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="102" t="s">
+      <c r="BJ29" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7433,7 +7423,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7446,7 +7436,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="99">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7566,7 +7556,7 @@
       <c r="BF30" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG30" s="55" t="s">
+      <c r="BG30" s="54" t="s">
         <v>174</v>
       </c>
       <c r="BH30" s="22" t="s">
@@ -7590,7 +7580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7603,7 +7593,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="99">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7745,7 +7735,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="102" t="s">
+      <c r="BJ31" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7762,7 +7752,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7775,7 +7765,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="99">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7916,7 +7906,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="102" t="s">
+      <c r="BJ32" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -7933,11 +7923,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="91">
         <v>14</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -7946,7 +7936,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="99">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -8092,7 +8082,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="102" t="s">
+      <c r="BJ33" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -8109,7 +8099,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -8181,7 +8171,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -8253,7 +8243,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8266,7 +8256,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="99">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8408,7 +8398,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="102" t="s">
+      <c r="BJ36" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8425,7 +8415,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8438,7 +8428,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="99">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8456,10 +8446,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="61">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="61">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8579,7 +8569,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="102" t="s">
+      <c r="BJ37" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8598,7 +8588,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8611,7 +8601,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E38" s="99">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8629,10 +8619,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="62">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="63">
+      <c r="L38" s="62">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8740,7 +8730,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="102" t="s">
+      <c r="BJ38" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8759,7 +8749,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8772,7 +8762,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="99">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8933,7 +8923,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -8946,7 +8936,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="99">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -9107,7 +9097,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9120,7 +9110,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="99">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -9138,10 +9128,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="61">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="62">
+      <c r="L41" s="61">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -9281,7 +9271,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9294,7 +9284,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="99">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9443,7 +9433,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="102" t="s">
+      <c r="BJ42" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9462,7 +9452,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9475,7 +9465,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="99">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9563,7 +9553,7 @@
       <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AK43" s="72">
+      <c r="AK43" s="71">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
@@ -9587,13 +9577,13 @@
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="69" t="s">
+      <c r="AU43" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="70">
+      <c r="AV43" s="69">
         <v>42723</v>
       </c>
-      <c r="AW43" s="71" t="s">
+      <c r="AW43" s="70" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9610,13 +9600,13 @@
       <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BH43" s="68" t="s">
+      <c r="BH43" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="68" t="s">
+      <c r="BI43" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="102" t="s">
+      <c r="BJ43" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9633,7 +9623,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9646,7 +9636,7 @@
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="99">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9802,11 +9792,11 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="94">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="93">
         <v>10</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="92" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -9815,7 +9805,7 @@
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="99">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -9905,7 +9895,7 @@
       <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AK45" s="72">
+      <c r="AK45" s="71">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
@@ -9937,7 +9927,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="95" t="s">
+      <c r="AW45" s="94" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -9975,7 +9965,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -9988,7 +9978,7 @@
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E46" s="99">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -10097,9 +10087,9 @@
       <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AR46" s="89"/>
-      <c r="AS46" s="89"/>
-      <c r="AT46" s="89"/>
+      <c r="AR46" s="88"/>
+      <c r="AS46" s="88"/>
+      <c r="AT46" s="88"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -10109,14 +10099,14 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="89"/>
-      <c r="AY46" s="89"/>
-      <c r="AZ46" s="89"/>
-      <c r="BA46" s="89"/>
-      <c r="BB46" s="89"/>
-      <c r="BC46" s="96"/>
-      <c r="BD46" s="96"/>
-      <c r="BE46" s="96"/>
+      <c r="AX46" s="88"/>
+      <c r="AY46" s="88"/>
+      <c r="AZ46" s="88"/>
+      <c r="BA46" s="88"/>
+      <c r="BB46" s="88"/>
+      <c r="BC46" s="95"/>
+      <c r="BD46" s="95"/>
+      <c r="BE46" s="95"/>
       <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
@@ -10129,7 +10119,7 @@
       <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ46" s="102" t="s">
+      <c r="BJ46" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
@@ -10146,7 +10136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10159,7 +10149,7 @@
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="100">
+      <c r="E47" s="99">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10281,11 +10271,11 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="89"/>
-      <c r="AY47" s="89"/>
-      <c r="AZ47" s="89"/>
-      <c r="BA47" s="89"/>
-      <c r="BB47" s="89"/>
+      <c r="AX47" s="88"/>
+      <c r="AY47" s="88"/>
+      <c r="AZ47" s="88"/>
+      <c r="BA47" s="88"/>
+      <c r="BB47" s="88"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
@@ -10295,13 +10285,13 @@
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH47" s="60" t="s">
+      <c r="BH47" s="59" t="s">
         <v>283</v>
       </c>
       <c r="BI47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BJ47" s="102" t="s">
+      <c r="BJ47" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
@@ -10318,7 +10308,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10331,7 +10321,7 @@
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E48" s="99">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10437,7 +10427,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="98">
+      <c r="AQ48" s="97">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10452,11 +10442,11 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="89"/>
-      <c r="AY48" s="89"/>
-      <c r="AZ48" s="89"/>
-      <c r="BA48" s="89"/>
-      <c r="BB48" s="89"/>
+      <c r="AX48" s="88"/>
+      <c r="AY48" s="88"/>
+      <c r="AZ48" s="88"/>
+      <c r="BA48" s="88"/>
+      <c r="BB48" s="88"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
@@ -10472,7 +10462,7 @@
       <c r="BI48" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ48" s="102" t="s">
+      <c r="BJ48" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
@@ -10489,7 +10479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10502,7 +10492,7 @@
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="100">
+      <c r="E49" s="99">
         <v>60</v>
       </c>
       <c r="F49" s="14">
@@ -10643,7 +10633,7 @@
       <c r="BI49" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ49" s="102" t="s">
+      <c r="BJ49" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
@@ -10660,7 +10650,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10673,7 +10663,7 @@
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="100">
+      <c r="E50" s="99">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10798,14 +10788,14 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="97" t="s">
+      <c r="AW50" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="89"/>
-      <c r="AY50" s="89"/>
-      <c r="AZ50" s="89"/>
-      <c r="BA50" s="89"/>
-      <c r="BB50" s="89"/>
+      <c r="AX50" s="88"/>
+      <c r="AY50" s="88"/>
+      <c r="AZ50" s="88"/>
+      <c r="BA50" s="88"/>
+      <c r="BB50" s="88"/>
       <c r="BC50" s="15" t="s">
         <v>416</v>
       </c>
@@ -10842,7 +10832,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -10855,7 +10845,7 @@
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="99">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -10961,7 +10951,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="98">
+      <c r="AQ51" s="97">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -10976,11 +10966,11 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="89"/>
-      <c r="AY51" s="89"/>
-      <c r="AZ51" s="89"/>
-      <c r="BA51" s="89"/>
-      <c r="BB51" s="89"/>
+      <c r="AX51" s="88"/>
+      <c r="AY51" s="88"/>
+      <c r="AZ51" s="88"/>
+      <c r="BA51" s="88"/>
+      <c r="BB51" s="88"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
@@ -10996,7 +10986,7 @@
       <c r="BI51" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ51" s="102" t="s">
+      <c r="BJ51" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
@@ -11013,7 +11003,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11026,7 +11016,7 @@
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="100">
+      <c r="E52" s="99">
         <v>62</v>
       </c>
       <c r="F52" s="14">
@@ -11167,7 +11157,7 @@
       <c r="BI52" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ52" s="102" t="s">
+      <c r="BJ52" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
@@ -11184,7 +11174,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11197,7 +11187,7 @@
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="100">
+      <c r="E53" s="99">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11322,7 +11312,7 @@
       <c r="AV53" s="16">
         <v>42859</v>
       </c>
-      <c r="AW53" s="97" t="s">
+      <c r="AW53" s="96" t="s">
         <v>168</v>
       </c>
       <c r="AX53" s="15"/>
@@ -11366,7 +11356,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11379,7 +11369,7 @@
       <c r="D54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="100">
+      <c r="E54" s="99">
         <v>67</v>
       </c>
       <c r="F54" s="14">
@@ -11503,7 +11493,7 @@
       <c r="AV54" s="16">
         <v>42859</v>
       </c>
-      <c r="AW54" s="97" t="s">
+      <c r="AW54" s="96" t="s">
         <v>168</v>
       </c>
       <c r="AX54" s="15"/>
@@ -11547,7 +11537,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11560,7 +11550,7 @@
       <c r="D55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="100">
+      <c r="E55" s="99">
         <v>70</v>
       </c>
       <c r="F55" s="14">
@@ -11666,7 +11656,7 @@
       <c r="AP55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ55" s="98">
+      <c r="AQ55" s="97">
         <v>20210105</v>
       </c>
       <c r="AR55" s="22"/>
@@ -11681,11 +11671,11 @@
       <c r="AW55" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX55" s="89"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="89"/>
-      <c r="BA55" s="89"/>
-      <c r="BB55" s="89"/>
+      <c r="AX55" s="88"/>
+      <c r="AY55" s="88"/>
+      <c r="AZ55" s="88"/>
+      <c r="BA55" s="88"/>
+      <c r="BB55" s="88"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
@@ -11701,7 +11691,7 @@
       <c r="BI55" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ55" s="102" t="s">
+      <c r="BJ55" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
@@ -11720,7 +11710,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11733,7 +11723,7 @@
       <c r="D56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="100">
+      <c r="E56" s="99">
         <v>65</v>
       </c>
       <c r="F56" s="14">
@@ -11874,7 +11864,7 @@
       <c r="BI56" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ56" s="102" t="s">
+      <c r="BJ56" s="101" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
@@ -11893,7 +11883,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -11906,7 +11896,7 @@
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="100">
+      <c r="E57" s="99">
         <v>69</v>
       </c>
       <c r="F57" s="14">
@@ -12035,7 +12025,7 @@
       <c r="AV57" s="16">
         <v>42859</v>
       </c>
-      <c r="AW57" s="97" t="s">
+      <c r="AW57" s="96" t="s">
         <v>168</v>
       </c>
       <c r="AX57" s="22"/>
@@ -12079,7 +12069,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12092,7 +12082,7 @@
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="100">
+      <c r="E58" s="99">
         <v>97</v>
       </c>
       <c r="F58" s="14">
@@ -12234,7 +12224,7 @@
       <c r="BI58" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="BJ58" s="102" t="s">
+      <c r="BJ58" s="101" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
@@ -12251,7 +12241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12422,8 +12412,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="90">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="89">
         <v>15</v>
       </c>
       <c r="B60" s="2">
@@ -12607,14 +12597,16 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <v>1</v>
       </c>
       <c r="B61" s="3">
         <v>20220406</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
       </c>
@@ -12633,18 +12625,42 @@
       <c r="I61" s="3">
         <v>29.1</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
+      <c r="J61" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="K61" s="35">
+        <v>44.379300000000001</v>
+      </c>
+      <c r="L61" s="35">
+        <v>-63.331299999999999</v>
+      </c>
+      <c r="M61" s="37">
+        <v>42.47</v>
+      </c>
+      <c r="N61" s="37">
+        <v>-63.41</v>
+      </c>
+      <c r="O61" s="37">
+        <v>44.51</v>
+      </c>
+      <c r="P61" s="37">
+        <v>-61.44</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="R61" s="3">
+        <v>23</v>
+      </c>
+      <c r="S61" s="3">
+        <v>584.76</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1124</v>
+      </c>
+      <c r="U61" s="3">
+        <v>1333</v>
+      </c>
       <c r="V61" s="37" t="s">
         <v>36</v>
       </c>
@@ -12661,47 +12677,59 @@
       <c r="AA61" s="37"/>
       <c r="AB61" s="37"/>
       <c r="AC61" s="37"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="37"/>
+      <c r="AD61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>1024.7</v>
+      </c>
+      <c r="AH61" s="37">
+        <v>20220331</v>
+      </c>
       <c r="AI61" s="37" t="s">
         <v>513</v>
       </c>
       <c r="AJ61" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="AK61" s="125">
+      <c r="AK61" s="71">
         <v>30</v>
       </c>
-      <c r="AL61" s="122" t="s">
+      <c r="AL61" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AM61" s="38"/>
-      <c r="AN61" s="126" t="s">
+      <c r="AM61" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN61" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="AO61" s="122" t="s">
+      <c r="AO61" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AP61" s="122" t="s">
+      <c r="AP61" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AQ61" s="127">
+      <c r="AQ61" s="49">
         <v>20210105</v>
       </c>
       <c r="AR61" s="38"/>
       <c r="AS61" s="38"/>
       <c r="AT61" s="38"/>
-      <c r="AU61" s="122" t="s">
+      <c r="AU61" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AV61" s="123">
+      <c r="AV61" s="39">
         <v>42723</v>
       </c>
-      <c r="AW61" s="124" t="s">
-        <v>169</v>
+      <c r="AW61" s="40" t="s">
+        <v>168</v>
       </c>
       <c r="AX61" s="38"/>
       <c r="AY61" s="38"/>
@@ -12732,154 +12760,228 @@
         <v>212</v>
       </c>
       <c r="BN61" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO61" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="BO61" s="43" t="s">
-        <v>515</v>
-      </c>
     </row>
-    <row r="62" spans="1:67" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="110">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="111"/>
-      <c r="T62" s="111"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="114"/>
-      <c r="W62" s="114"/>
-      <c r="X62" s="114"/>
-      <c r="Y62" s="114"/>
-      <c r="Z62" s="114"/>
-      <c r="AA62" s="114"/>
-      <c r="AB62" s="114"/>
-      <c r="AC62" s="114"/>
-      <c r="AD62" s="111"/>
-      <c r="AE62" s="111"/>
-      <c r="AF62" s="111"/>
-      <c r="AG62" s="111"/>
-      <c r="AH62" s="114"/>
-      <c r="AI62" s="114"/>
-      <c r="AJ62" s="114"/>
-      <c r="AK62" s="113"/>
-      <c r="AL62" s="112"/>
-      <c r="AM62" s="116"/>
-      <c r="AN62" s="116"/>
-      <c r="AO62" s="112"/>
-      <c r="AP62" s="112"/>
-      <c r="AQ62" s="116"/>
-      <c r="AR62" s="116"/>
-      <c r="AS62" s="116"/>
-      <c r="AT62" s="116"/>
-      <c r="AU62" s="112"/>
-      <c r="AV62" s="117"/>
-      <c r="AW62" s="116"/>
-      <c r="AX62" s="116"/>
-      <c r="AY62" s="116"/>
-      <c r="AZ62" s="116"/>
-      <c r="BA62" s="116"/>
-      <c r="BB62" s="116"/>
-      <c r="BC62" s="116"/>
-      <c r="BD62" s="118"/>
-      <c r="BE62" s="116"/>
-      <c r="BF62" s="119"/>
-      <c r="BG62" s="120"/>
-      <c r="BH62" s="118"/>
-      <c r="BI62" s="116"/>
-      <c r="BJ62" s="116"/>
-      <c r="BK62" s="111"/>
-      <c r="BL62" s="113"/>
-      <c r="BM62" s="113"/>
-      <c r="BN62" s="114"/>
-      <c r="BO62" s="121"/>
+      <c r="B62" s="49">
+        <v>20220907</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="35">
+        <v>87</v>
+      </c>
+      <c r="F62" s="35">
+        <v>4800993</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="I62" s="110">
+        <v>29.2</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3">
+        <v>1021.9</v>
+      </c>
+      <c r="AH62" s="37">
+        <v>20220902</v>
+      </c>
+      <c r="AI62" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ62" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK62" s="35">
+        <v>30</v>
+      </c>
+      <c r="AL62" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM62" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN62" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO62" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP62" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ62" s="49">
+        <v>20210105</v>
+      </c>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV62" s="39">
+        <v>42723</v>
+      </c>
+      <c r="AW62" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG62" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH62" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI62" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ62" s="108"/>
+      <c r="BK62" s="108"/>
+      <c r="BL62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM62" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN62" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="37"/>
-      <c r="AB63" s="37"/>
-      <c r="AC63" s="37"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="37"/>
-      <c r="AI63" s="37"/>
-      <c r="AJ63" s="37"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="38"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="34"/>
-      <c r="AP63" s="34"/>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="38"/>
-      <c r="AS63" s="38"/>
-      <c r="AT63" s="38"/>
-      <c r="AU63" s="34"/>
-      <c r="AV63" s="38"/>
-      <c r="AW63" s="38"/>
-      <c r="AX63" s="38"/>
-      <c r="AY63" s="38"/>
-      <c r="AZ63" s="38"/>
-      <c r="BA63" s="38"/>
-      <c r="BB63" s="38"/>
-      <c r="BC63" s="38"/>
-      <c r="BD63" s="38"/>
-      <c r="BE63" s="38"/>
-      <c r="BF63" s="34"/>
-      <c r="BG63" s="48"/>
-      <c r="BH63" s="109"/>
-      <c r="BI63" s="109"/>
-      <c r="BJ63" s="109"/>
-      <c r="BK63" s="109"/>
-      <c r="BL63" s="109"/>
-      <c r="BM63" s="109"/>
-      <c r="BN63" s="37"/>
-      <c r="BO63" s="43"/>
+    <row r="63" spans="1:67" s="109" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="109">
+        <v>3</v>
+      </c>
+      <c r="B63" s="110"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="112">
+        <v>72</v>
+      </c>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="113"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="110"/>
+      <c r="T63" s="110"/>
+      <c r="U63" s="114"/>
+      <c r="V63" s="113"/>
+      <c r="W63" s="113"/>
+      <c r="X63" s="113"/>
+      <c r="Y63" s="113"/>
+      <c r="Z63" s="113"/>
+      <c r="AA63" s="113"/>
+      <c r="AB63" s="113"/>
+      <c r="AC63" s="113"/>
+      <c r="AD63" s="110"/>
+      <c r="AE63" s="110"/>
+      <c r="AF63" s="110"/>
+      <c r="AG63" s="110">
+        <v>1024</v>
+      </c>
+      <c r="AH63" s="113">
+        <v>20220506</v>
+      </c>
+      <c r="AI63" s="113" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ63" s="113" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK63" s="112"/>
+      <c r="AL63" s="111"/>
+      <c r="AM63" s="115"/>
+      <c r="AN63" s="115"/>
+      <c r="AO63" s="111"/>
+      <c r="AP63" s="111"/>
+      <c r="AQ63" s="115"/>
+      <c r="AR63" s="115"/>
+      <c r="AS63" s="115"/>
+      <c r="AT63" s="115"/>
+      <c r="AU63" s="111"/>
+      <c r="AV63" s="116"/>
+      <c r="AW63" s="115"/>
+      <c r="AX63" s="115"/>
+      <c r="AY63" s="115"/>
+      <c r="AZ63" s="115"/>
+      <c r="BA63" s="115"/>
+      <c r="BB63" s="115"/>
+      <c r="BC63" s="115"/>
+      <c r="BD63" s="117"/>
+      <c r="BE63" s="115"/>
+      <c r="BF63" s="118"/>
+      <c r="BG63" s="119"/>
+      <c r="BH63" s="117"/>
+      <c r="BI63" s="115"/>
+      <c r="BJ63" s="115"/>
+      <c r="BK63" s="110"/>
+      <c r="BL63" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM63" s="112" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN63" s="113"/>
+      <c r="BO63" s="120"/>
     </row>
-    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
@@ -12927,27 +13029,27 @@
       <c r="AT64" s="38"/>
       <c r="AU64" s="34"/>
       <c r="AV64" s="38"/>
-      <c r="AW64" s="38"/>
+      <c r="AW64" s="40"/>
       <c r="AX64" s="38"/>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
       <c r="BA64" s="38"/>
       <c r="BB64" s="38"/>
-      <c r="BC64" s="38"/>
-      <c r="BD64" s="38"/>
-      <c r="BE64" s="38"/>
-      <c r="BF64" s="34"/>
-      <c r="BG64" s="48"/>
-      <c r="BH64" s="109"/>
-      <c r="BI64" s="109"/>
-      <c r="BJ64" s="109"/>
-      <c r="BK64" s="109"/>
-      <c r="BL64" s="109"/>
-      <c r="BM64" s="109"/>
+      <c r="BC64" s="40"/>
+      <c r="BD64" s="40"/>
+      <c r="BE64" s="40"/>
+      <c r="BF64" s="41"/>
+      <c r="BG64" s="42"/>
+      <c r="BH64" s="108"/>
+      <c r="BI64" s="108"/>
+      <c r="BJ64" s="108"/>
+      <c r="BK64" s="108"/>
+      <c r="BL64" s="108"/>
+      <c r="BM64" s="108"/>
       <c r="BN64" s="37"/>
       <c r="BO64" s="43"/>
     </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="35"/>
@@ -13006,17 +13108,19 @@
       <c r="BE65" s="40"/>
       <c r="BF65" s="41"/>
       <c r="BG65" s="42"/>
-      <c r="BH65" s="109"/>
-      <c r="BI65" s="109"/>
-      <c r="BJ65" s="109"/>
-      <c r="BK65" s="109"/>
-      <c r="BL65" s="109"/>
-      <c r="BM65" s="109"/>
+      <c r="BH65" s="108"/>
+      <c r="BI65" s="108"/>
+      <c r="BJ65" s="108"/>
+      <c r="BK65" s="108"/>
+      <c r="BL65" s="108"/>
+      <c r="BM65" s="108"/>
       <c r="BN65" s="37"/>
       <c r="BO65" s="43"/>
     </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="34"/>
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="52" t="s">
+        <v>99</v>
+      </c>
       <c r="C66" s="34"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -13036,54 +13140,48 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="37"/>
-      <c r="AB66" s="37"/>
-      <c r="AC66" s="37"/>
+      <c r="V66" s="48"/>
+      <c r="W66" s="48"/>
+      <c r="X66" s="48"/>
+      <c r="Y66" s="48"/>
+      <c r="Z66" s="48"/>
+      <c r="AA66" s="48"/>
+      <c r="AB66" s="48"/>
+      <c r="AC66" s="48"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="37"/>
-      <c r="AI66" s="37"/>
-      <c r="AJ66" s="37"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="38"/>
-      <c r="AN66" s="38"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="38"/>
-      <c r="AR66" s="38"/>
-      <c r="AS66" s="38"/>
-      <c r="AT66" s="38"/>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="38"/>
-      <c r="AW66" s="40"/>
-      <c r="AX66" s="38"/>
-      <c r="AY66" s="38"/>
-      <c r="AZ66" s="38"/>
-      <c r="BA66" s="38"/>
-      <c r="BB66" s="38"/>
-      <c r="BC66" s="40"/>
-      <c r="BD66" s="40"/>
-      <c r="BE66" s="40"/>
-      <c r="BF66" s="41"/>
-      <c r="BG66" s="42"/>
-      <c r="BH66" s="109"/>
-      <c r="BI66" s="109"/>
-      <c r="BJ66" s="109"/>
-      <c r="BK66" s="109"/>
-      <c r="BL66" s="109"/>
-      <c r="BM66" s="109"/>
-      <c r="BN66" s="37"/>
-      <c r="BO66" s="43"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="48"/>
+      <c r="AI66" s="48"/>
+      <c r="AJ66" s="48"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="50"/>
+      <c r="AM66" s="46"/>
+      <c r="AN66" s="46"/>
+      <c r="AO66" s="50"/>
+      <c r="AP66" s="50"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="46"/>
+      <c r="AS66" s="46"/>
+      <c r="AT66" s="46"/>
+      <c r="AU66" s="50"/>
+      <c r="AV66" s="46"/>
+      <c r="AW66" s="46"/>
+      <c r="AX66" s="46"/>
+      <c r="AY66" s="46"/>
+      <c r="AZ66" s="46"/>
+      <c r="BA66" s="46"/>
+      <c r="BB66" s="46"/>
+      <c r="BC66" s="46"/>
+      <c r="BD66" s="46"/>
+      <c r="BE66" s="46"/>
+      <c r="BF66" s="50"/>
+      <c r="BG66" s="51"/>
+      <c r="BN66" s="48"/>
+      <c r="BO66" s="30"/>
     </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="35"/>
@@ -13104,32 +13202,32 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="48"/>
+      <c r="Z67" s="48"/>
+      <c r="AA67" s="48"/>
+      <c r="AB67" s="48"/>
+      <c r="AC67" s="48"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="50"/>
-      <c r="AH67" s="49"/>
-      <c r="AI67" s="49"/>
-      <c r="AJ67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="48"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
       <c r="AK67" s="29"/>
-      <c r="AL67" s="51"/>
+      <c r="AL67" s="50"/>
       <c r="AM67" s="46"/>
       <c r="AN67" s="46"/>
-      <c r="AO67" s="51"/>
-      <c r="AP67" s="51"/>
+      <c r="AO67" s="50"/>
+      <c r="AP67" s="50"/>
       <c r="AQ67" s="46"/>
       <c r="AR67" s="46"/>
       <c r="AS67" s="46"/>
       <c r="AT67" s="46"/>
-      <c r="AU67" s="51"/>
+      <c r="AU67" s="50"/>
       <c r="AV67" s="46"/>
       <c r="AW67" s="46"/>
       <c r="AX67" s="46"/>
@@ -13140,12 +13238,20 @@
       <c r="BC67" s="46"/>
       <c r="BD67" s="46"/>
       <c r="BE67" s="46"/>
-      <c r="BF67" s="51"/>
-      <c r="BG67" s="52"/>
-      <c r="BN67" s="49"/>
+      <c r="BF67" s="50"/>
+      <c r="BG67" s="51"/>
+      <c r="BH67" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="BI67" s="38"/>
+      <c r="BJ67" s="38"/>
+      <c r="BK67" s="3"/>
+      <c r="BL67" s="35"/>
+      <c r="BM67" s="35"/>
+      <c r="BN67" s="48"/>
       <c r="BO67" s="30"/>
     </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -13166,32 +13272,32 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="48"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
-      <c r="AG68" s="50"/>
-      <c r="AH68" s="49"/>
-      <c r="AI68" s="49"/>
-      <c r="AJ68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="48"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
       <c r="AK68" s="29"/>
-      <c r="AL68" s="51"/>
+      <c r="AL68" s="50"/>
       <c r="AM68" s="46"/>
       <c r="AN68" s="46"/>
-      <c r="AO68" s="51"/>
-      <c r="AP68" s="51"/>
+      <c r="AO68" s="50"/>
+      <c r="AP68" s="50"/>
       <c r="AQ68" s="46"/>
       <c r="AR68" s="46"/>
       <c r="AS68" s="46"/>
       <c r="AT68" s="46"/>
-      <c r="AU68" s="51"/>
+      <c r="AU68" s="50"/>
       <c r="AV68" s="46"/>
       <c r="AW68" s="46"/>
       <c r="AX68" s="46"/>
@@ -13202,20 +13308,28 @@
       <c r="BC68" s="46"/>
       <c r="BD68" s="46"/>
       <c r="BE68" s="46"/>
-      <c r="BF68" s="51"/>
-      <c r="BG68" s="52"/>
-      <c r="BH68" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="BI68" s="38"/>
-      <c r="BJ68" s="38"/>
-      <c r="BK68" s="3"/>
-      <c r="BL68" s="35"/>
+      <c r="BF68" s="50"/>
+      <c r="BG68" s="51"/>
+      <c r="BH68" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI68" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ68" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK68" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="BL68" s="35">
+        <v>84</v>
+      </c>
       <c r="BM68" s="35"/>
-      <c r="BN68" s="49"/>
+      <c r="BN68" s="48"/>
       <c r="BO68" s="30"/>
     </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
@@ -13236,32 +13350,32 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="49"/>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
       <c r="AK69" s="29"/>
-      <c r="AL69" s="51"/>
+      <c r="AL69" s="50"/>
       <c r="AM69" s="46"/>
       <c r="AN69" s="46"/>
-      <c r="AO69" s="51"/>
-      <c r="AP69" s="51"/>
+      <c r="AO69" s="50"/>
+      <c r="AP69" s="50"/>
       <c r="AQ69" s="46"/>
       <c r="AR69" s="46"/>
       <c r="AS69" s="46"/>
       <c r="AT69" s="46"/>
-      <c r="AU69" s="51"/>
+      <c r="AU69" s="50"/>
       <c r="AV69" s="46"/>
       <c r="AW69" s="46"/>
       <c r="AX69" s="46"/>
@@ -13272,28 +13386,28 @@
       <c r="BC69" s="46"/>
       <c r="BD69" s="46"/>
       <c r="BE69" s="46"/>
-      <c r="BF69" s="51"/>
-      <c r="BG69" s="52"/>
-      <c r="BH69" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI69" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ69" s="38" t="s">
-        <v>482</v>
+      <c r="BF69" s="50"/>
+      <c r="BG69" s="51"/>
+      <c r="BH69" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI69" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ69" s="40" t="s">
+        <v>483</v>
       </c>
       <c r="BK69" s="3">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="BL69" s="35">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="BM69" s="35"/>
-      <c r="BN69" s="49"/>
+      <c r="BN69" s="48"/>
       <c r="BO69" s="30"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13314,32 +13428,32 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="48"/>
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="50"/>
-      <c r="AH70" s="49"/>
-      <c r="AI70" s="49"/>
-      <c r="AJ70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
       <c r="AK70" s="29"/>
-      <c r="AL70" s="51"/>
+      <c r="AL70" s="50"/>
       <c r="AM70" s="46"/>
       <c r="AN70" s="46"/>
-      <c r="AO70" s="51"/>
-      <c r="AP70" s="51"/>
+      <c r="AO70" s="50"/>
+      <c r="AP70" s="50"/>
       <c r="AQ70" s="46"/>
       <c r="AR70" s="46"/>
       <c r="AS70" s="46"/>
       <c r="AT70" s="46"/>
-      <c r="AU70" s="51"/>
+      <c r="AU70" s="50"/>
       <c r="AV70" s="46"/>
       <c r="AW70" s="46"/>
       <c r="AX70" s="46"/>
@@ -13350,28 +13464,30 @@
       <c r="BC70" s="46"/>
       <c r="BD70" s="46"/>
       <c r="BE70" s="46"/>
-      <c r="BF70" s="51"/>
-      <c r="BG70" s="52"/>
-      <c r="BH70" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI70" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ70" s="40" t="s">
-        <v>483</v>
+      <c r="BF70" s="50"/>
+      <c r="BG70" s="51"/>
+      <c r="BH70" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI70" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ70" s="38" t="s">
+        <v>482</v>
       </c>
       <c r="BK70" s="3">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="BL70" s="35">
-        <v>174</v>
-      </c>
-      <c r="BM70" s="35"/>
-      <c r="BN70" s="49"/>
+        <v>85</v>
+      </c>
+      <c r="BM70" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN70" s="48"/>
       <c r="BO70" s="30"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13392,32 +13508,32 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="49"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="49"/>
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="49"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="48"/>
+      <c r="X71" s="48"/>
+      <c r="Y71" s="48"/>
+      <c r="Z71" s="48"/>
+      <c r="AA71" s="48"/>
+      <c r="AB71" s="48"/>
+      <c r="AC71" s="48"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="50"/>
-      <c r="AH71" s="49"/>
-      <c r="AI71" s="49"/>
-      <c r="AJ71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="48"/>
+      <c r="AI71" s="48"/>
+      <c r="AJ71" s="48"/>
       <c r="AK71" s="29"/>
-      <c r="AL71" s="51"/>
+      <c r="AL71" s="50"/>
       <c r="AM71" s="46"/>
       <c r="AN71" s="46"/>
-      <c r="AO71" s="51"/>
-      <c r="AP71" s="51"/>
+      <c r="AO71" s="50"/>
+      <c r="AP71" s="50"/>
       <c r="AQ71" s="46"/>
       <c r="AR71" s="46"/>
       <c r="AS71" s="46"/>
       <c r="AT71" s="46"/>
-      <c r="AU71" s="51"/>
+      <c r="AU71" s="50"/>
       <c r="AV71" s="46"/>
       <c r="AW71" s="46"/>
       <c r="AX71" s="46"/>
@@ -13428,146 +13544,66 @@
       <c r="BC71" s="46"/>
       <c r="BD71" s="46"/>
       <c r="BE71" s="46"/>
-      <c r="BF71" s="51"/>
-      <c r="BG71" s="52"/>
-      <c r="BH71" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI71" s="67" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ71" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK71" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BL71" s="35">
-        <v>85</v>
-      </c>
-      <c r="BM71" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="BN71" s="49"/>
+      <c r="BF71" s="50"/>
+      <c r="BG71" s="51"/>
+      <c r="BH71" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI71" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ71" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="BK71" s="49">
+        <v>3.16</v>
+      </c>
+      <c r="BL71" s="29">
+        <v>25</v>
+      </c>
+      <c r="BM71" s="29"/>
+      <c r="BN71" s="48"/>
       <c r="BO71" s="30"/>
     </row>
-    <row r="72" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="49"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="50"/>
-      <c r="AH72" s="49"/>
-      <c r="AI72" s="49"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="29"/>
-      <c r="AL72" s="51"/>
-      <c r="AM72" s="46"/>
-      <c r="AN72" s="46"/>
-      <c r="AO72" s="51"/>
-      <c r="AP72" s="51"/>
-      <c r="AQ72" s="46"/>
-      <c r="AR72" s="46"/>
-      <c r="AS72" s="46"/>
-      <c r="AT72" s="46"/>
-      <c r="AU72" s="51"/>
-      <c r="AV72" s="46"/>
-      <c r="AW72" s="46"/>
-      <c r="AX72" s="46"/>
-      <c r="AY72" s="46"/>
-      <c r="AZ72" s="46"/>
-      <c r="BA72" s="46"/>
-      <c r="BB72" s="46"/>
-      <c r="BC72" s="46"/>
-      <c r="BD72" s="46"/>
-      <c r="BE72" s="46"/>
-      <c r="BF72" s="51"/>
-      <c r="BG72" s="52"/>
-      <c r="BH72" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI72" s="65" t="s">
-        <v>329</v>
+    <row r="72" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH72" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI72" s="103" t="s">
+        <v>291</v>
       </c>
       <c r="BJ72" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="BK72" s="50">
-        <v>3.16</v>
+        <v>458</v>
+      </c>
+      <c r="BK72" s="49">
+        <v>2.64</v>
       </c>
       <c r="BL72" s="29">
-        <v>25</v>
-      </c>
-      <c r="BM72" s="29"/>
-      <c r="BN72" s="49"/>
-      <c r="BO72" s="30"/>
+        <v>43</v>
+      </c>
+      <c r="BM72" s="105" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH73" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="BI73" s="104" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ73" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="BK73" s="50">
-        <v>2.64</v>
-      </c>
-      <c r="BL73" s="29">
-        <v>43</v>
-      </c>
-      <c r="BM73" s="106" t="s">
-        <v>495</v>
-      </c>
+    <row r="73" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH73" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI73" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ73" s="46"/>
+      <c r="BK73" s="49"/>
+      <c r="BL73" s="29"/>
+      <c r="BM73" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH74" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="BI74" s="64" t="s">
-        <v>119</v>
-      </c>
+    <row r="74" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH74" s="46"/>
+      <c r="BI74" s="46"/>
       <c r="BJ74" s="46"/>
-      <c r="BK74" s="50"/>
+      <c r="BK74" s="49"/>
       <c r="BL74" s="29"/>
       <c r="BM74" s="29"/>
-    </row>
-    <row r="75" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH75" s="46"/>
-      <c r="BI75" s="46"/>
-      <c r="BJ75" s="46"/>
-      <c r="BK75" s="50"/>
-      <c r="BL75" s="29"/>
-      <c r="BM75" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13581,7 +13617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13594,7 +13630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0363C0-0F70-4941-9B73-EB93D0776430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D8918-271A-4B9F-A0D6-C1C66994A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25035" yWindow="1635" windowWidth="24735" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2573,77 +2573,77 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="65.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="86" customWidth="1"/>
-    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="86" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="86" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="87" customWidth="1"/>
-    <col min="45" max="45" width="12.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="87" customWidth="1"/>
-    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.81640625" style="87" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" style="87" customWidth="1"/>
-    <col min="53" max="53" width="14.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1796875" style="87" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.1796875" style="87" customWidth="1"/>
-    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="87" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="87" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.88671875" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="87" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="87" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="87" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="87" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.1796875" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.90625" customWidth="1"/>
+    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.21875" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.88671875" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="107" t="s">
@@ -2703,7 +2703,7 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="93">
         <v>13</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="89">
         <v>3</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="89">
         <v>3</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="91">
         <v>14</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="93">
         <v>10</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="89">
         <v>15</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>2</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>44</v>
       </c>
       <c r="E62" s="35">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="35">
         <v>4800993</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:67" s="109" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="109">
         <v>3</v>
       </c>
@@ -12981,7 +12981,7 @@
       <c r="BN63" s="113"/>
       <c r="BO63" s="120"/>
     </row>
-    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="35"/>
@@ -13049,7 +13049,7 @@
       <c r="BN64" s="37"/>
       <c r="BO64" s="43"/>
     </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="35"/>
@@ -13117,7 +13117,7 @@
       <c r="BN65" s="37"/>
       <c r="BO65" s="43"/>
     </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="52" t="s">
         <v>99</v>
       </c>
@@ -13181,7 +13181,7 @@
       <c r="BN66" s="48"/>
       <c r="BO66" s="30"/>
     </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="35"/>
@@ -13251,7 +13251,7 @@
       <c r="BN67" s="48"/>
       <c r="BO67" s="30"/>
     </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -13329,7 +13329,7 @@
       <c r="BN68" s="48"/>
       <c r="BO68" s="30"/>
     </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
@@ -13407,7 +13407,7 @@
       <c r="BN69" s="48"/>
       <c r="BO69" s="30"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13487,7 +13487,7 @@
       <c r="BN70" s="48"/>
       <c r="BO70" s="30"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13565,7 +13565,7 @@
       <c r="BN71" s="48"/>
       <c r="BO71" s="30"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH72" s="102" t="s">
         <v>283</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH73" s="46" t="s">
         <v>328</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="BL73" s="29"/>
       <c r="BM73" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH74" s="46"/>
       <c r="BI74" s="46"/>
       <c r="BJ74" s="46"/>
@@ -13617,7 +13617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13630,7 +13630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D8918-271A-4B9F-A0D6-C1C66994A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83981D9D-40AF-48CB-A770-093E29063AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25350" yWindow="1860" windowWidth="23700" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="531">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1612,7 +1612,40 @@
     <t>Chris Beck</t>
   </si>
   <si>
-    <t>GLI2022_SEA022_87</t>
+    <t>GLI2022_SEA032_73</t>
+  </si>
+  <si>
+    <t>20220929</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-DR</t>
+  </si>
+  <si>
+    <t>20221005</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_88</t>
+  </si>
+  <si>
+    <t>BBn1.5-BBn2-BBn3-BBn4-BBn5-BBn6-BBn5-BBn4-BBn3-BBn2-BBn1-Tri3-Tri2.5-Tri2-Tri0.5-DR</t>
+  </si>
+  <si>
+    <t>2.20.0</t>
+  </si>
+  <si>
+    <t>20220210</t>
+  </si>
+  <si>
+    <t>210185</t>
+  </si>
+  <si>
+    <t>20230109</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_</t>
+  </si>
+  <si>
+    <t>21u1787</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1737,6 +1770,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,7 +1944,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,20 +2224,20 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,6 +2257,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2570,80 +2641,80 @@
   <dimension ref="A1:BO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BA51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="BH64" sqref="BH64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.90625" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" style="86" customWidth="1"/>
-    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" style="86" customWidth="1"/>
+    <col min="28" max="28" width="20.54296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.54296875" style="86" customWidth="1"/>
+    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="87" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" style="87" customWidth="1"/>
-    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.88671875" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" style="87" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="87" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" style="87" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.21875" style="87" customWidth="1"/>
-    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.36328125" style="87" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="87" customWidth="1"/>
+    <col min="45" max="45" width="12.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.81640625" style="87" customWidth="1"/>
+    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.81640625" style="87" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="87" customWidth="1"/>
+    <col min="53" max="53" width="14.81640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1796875" style="87" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.1796875" style="87" customWidth="1"/>
+    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.21875" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.88671875" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.88671875" customWidth="1"/>
+    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.90625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="107" t="s">
@@ -2703,7 +2774,7 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
@@ -2903,7 +2974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3073,7 +3144,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -3243,7 +3314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3415,7 +3486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3586,7 +3657,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3758,7 +3829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3928,7 +3999,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4098,7 +4169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4268,7 +4339,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4438,7 +4509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4612,7 +4683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4784,7 +4855,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4954,7 +5025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5128,7 +5199,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5300,7 +5371,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="93">
         <v>13</v>
       </c>
@@ -5471,7 +5542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5642,7 +5713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5807,7 +5878,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
@@ -5883,7 +5954,7 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="89">
         <v>3</v>
       </c>
@@ -6054,7 +6125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="89">
         <v>3</v>
       </c>
@@ -6226,7 +6297,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6398,7 +6469,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6570,7 +6641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6740,7 +6811,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6909,7 +6980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -7082,7 +7153,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7251,7 +7322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7423,7 +7494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7580,7 +7651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7752,7 +7823,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7923,7 +7994,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="91">
         <v>14</v>
       </c>
@@ -8099,7 +8170,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -8171,7 +8242,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -8243,7 +8314,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8415,7 +8486,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8588,7 +8659,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8749,7 +8820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8923,7 +8994,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9097,7 +9168,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9271,7 +9342,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9452,7 +9523,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9623,7 +9694,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9792,7 +9863,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="93">
         <v>10</v>
       </c>
@@ -9965,7 +10036,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10136,7 +10207,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10308,7 +10379,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10479,7 +10550,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10650,7 +10721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10832,7 +10903,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -11003,7 +11074,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11174,7 +11245,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11356,7 +11427,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11537,7 +11608,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11710,7 +11781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11883,7 +11954,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -12069,7 +12140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12241,7 +12312,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12412,7 +12483,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="89">
         <v>15</v>
       </c>
@@ -12597,7 +12668,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12766,14 +12837,16 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="23">
         <v>2</v>
       </c>
       <c r="B62" s="49">
-        <v>20220907</v>
-      </c>
-      <c r="C62" s="34"/>
+        <v>20220908</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>520</v>
+      </c>
       <c r="D62" s="35" t="s">
         <v>44</v>
       </c>
@@ -12787,34 +12860,72 @@
         <v>15</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="I62" s="110">
+        <v>523</v>
+      </c>
+      <c r="I62" s="109">
         <v>29.2</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
+      <c r="J62" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="K62" s="35">
+        <v>44.378300000000003</v>
+      </c>
+      <c r="L62" s="35">
+        <v>-63.333199999999998</v>
+      </c>
+      <c r="M62" s="37">
+        <v>42.47</v>
+      </c>
+      <c r="N62" s="37">
+        <v>-63.33</v>
+      </c>
+      <c r="O62" s="37">
+        <v>44.37</v>
+      </c>
+      <c r="P62" s="37">
+        <v>-61.44</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="R62" s="3">
+        <v>21</v>
+      </c>
+      <c r="S62" s="3">
+        <v>596.82000000000005</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1098</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1091</v>
+      </c>
+      <c r="V62" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="W62" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="X62" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y62" s="37" t="s">
+        <v>188</v>
+      </c>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
       <c r="AB62" s="37"/>
       <c r="AC62" s="37"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
       <c r="AG62" s="3">
         <v>1021.9</v>
       </c>
@@ -12824,7 +12935,7 @@
       <c r="AI62" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="AJ62" s="113" t="s">
+      <c r="AJ62" s="110" t="s">
         <v>517</v>
       </c>
       <c r="AK62" s="35">
@@ -12880,7 +12991,9 @@
       <c r="BI62" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="BJ62" s="108"/>
+      <c r="BJ62" s="108">
+        <v>200206</v>
+      </c>
       <c r="BK62" s="108"/>
       <c r="BL62" s="3" t="s">
         <v>211</v>
@@ -12893,163 +13006,310 @@
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="109">
+    <row r="63" spans="1:67" s="111" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="111">
         <v>3</v>
       </c>
-      <c r="B63" s="110"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="112" t="s">
+      <c r="B63" s="109">
+        <v>20220915</v>
+      </c>
+      <c r="C63" s="112" t="s">
+        <v>522</v>
+      </c>
+      <c r="D63" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="112">
-        <v>72</v>
-      </c>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112" t="s">
+      <c r="E63" s="113">
+        <v>73</v>
+      </c>
+      <c r="F63" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G63" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="113"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="110"/>
-      <c r="R63" s="110"/>
-      <c r="S63" s="110"/>
-      <c r="T63" s="110"/>
-      <c r="U63" s="114"/>
-      <c r="V63" s="113"/>
-      <c r="W63" s="113"/>
-      <c r="X63" s="113"/>
-      <c r="Y63" s="113"/>
-      <c r="Z63" s="113"/>
-      <c r="AA63" s="113"/>
-      <c r="AB63" s="113"/>
-      <c r="AC63" s="113"/>
-      <c r="AD63" s="110"/>
-      <c r="AE63" s="110"/>
-      <c r="AF63" s="110"/>
-      <c r="AG63" s="110">
+      <c r="H63" s="110" t="s">
+        <v>519</v>
+      </c>
+      <c r="I63" s="114">
+        <v>29.2</v>
+      </c>
+      <c r="J63" s="109">
+        <v>25.5</v>
+      </c>
+      <c r="K63" s="113">
+        <v>48.731299999999997</v>
+      </c>
+      <c r="L63" s="113">
+        <v>-52.952100000000002</v>
+      </c>
+      <c r="M63" s="110">
+        <v>47.76</v>
+      </c>
+      <c r="N63" s="110">
+        <v>-53.68</v>
+      </c>
+      <c r="O63" s="110">
+        <v>49.97</v>
+      </c>
+      <c r="P63" s="110">
+        <v>-50.68</v>
+      </c>
+      <c r="Q63" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="R63" s="109">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="S63" s="109">
+        <v>599.05999999999995</v>
+      </c>
+      <c r="T63" s="109">
+        <v>528</v>
+      </c>
+      <c r="U63" s="109">
+        <v>1056</v>
+      </c>
+      <c r="V63" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="W63" s="110">
+        <v>1</v>
+      </c>
+      <c r="X63" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y63" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z63" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA63" s="110"/>
+      <c r="AB63" s="110"/>
+      <c r="AC63" s="110"/>
+      <c r="AD63" s="109">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="109">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="109">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="109">
         <v>1024</v>
       </c>
-      <c r="AH63" s="113">
+      <c r="AH63" s="110">
         <v>20220506</v>
       </c>
-      <c r="AI63" s="113" t="s">
+      <c r="AI63" s="110" t="s">
         <v>513</v>
       </c>
-      <c r="AJ63" s="113" t="s">
+      <c r="AJ63" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="AK63" s="112"/>
-      <c r="AL63" s="111"/>
-      <c r="AM63" s="115"/>
-      <c r="AN63" s="115"/>
-      <c r="AO63" s="111"/>
-      <c r="AP63" s="111"/>
+      <c r="AK63" s="113">
+        <v>42</v>
+      </c>
+      <c r="AL63" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM63" s="115" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN63" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO63" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP63" s="112"/>
       <c r="AQ63" s="115"/>
-      <c r="AR63" s="115"/>
-      <c r="AS63" s="115"/>
-      <c r="AT63" s="115"/>
-      <c r="AU63" s="111"/>
-      <c r="AV63" s="116"/>
-      <c r="AW63" s="115"/>
+      <c r="AR63" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS63" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="AT63" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU63" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV63" s="116">
+        <v>42799</v>
+      </c>
+      <c r="AW63" s="115" t="s">
+        <v>168</v>
+      </c>
       <c r="AX63" s="115"/>
       <c r="AY63" s="115"/>
       <c r="AZ63" s="115"/>
       <c r="BA63" s="115"/>
       <c r="BB63" s="115"/>
-      <c r="BC63" s="115"/>
-      <c r="BD63" s="117"/>
-      <c r="BE63" s="115"/>
-      <c r="BF63" s="118"/>
-      <c r="BG63" s="119"/>
-      <c r="BH63" s="117"/>
-      <c r="BI63" s="115"/>
+      <c r="BC63" s="115" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD63" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE63" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF63" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG63" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH63" s="117" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI63" s="115" t="s">
+        <v>291</v>
+      </c>
       <c r="BJ63" s="115"/>
-      <c r="BK63" s="110"/>
-      <c r="BL63" s="112" t="s">
+      <c r="BK63" s="109"/>
+      <c r="BL63" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="BM63" s="112" t="s">
+      <c r="BM63" s="113" t="s">
         <v>518</v>
       </c>
-      <c r="BN63" s="113"/>
+      <c r="BN63" s="110" t="s">
+        <v>215</v>
+      </c>
       <c r="BO63" s="120"/>
     </row>
-    <row r="64" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="37"/>
-      <c r="AJ64" s="37"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="34"/>
-      <c r="AP64" s="34"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="38"/>
-      <c r="AS64" s="38"/>
-      <c r="AT64" s="38"/>
-      <c r="AU64" s="34"/>
-      <c r="AV64" s="38"/>
-      <c r="AW64" s="40"/>
-      <c r="AX64" s="38"/>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="40"/>
-      <c r="BD64" s="40"/>
-      <c r="BE64" s="40"/>
-      <c r="BF64" s="41"/>
-      <c r="BG64" s="42"/>
-      <c r="BH64" s="108"/>
-      <c r="BI64" s="108"/>
-      <c r="BJ64" s="108"/>
-      <c r="BK64" s="108"/>
-      <c r="BL64" s="108"/>
-      <c r="BM64" s="108"/>
-      <c r="BN64" s="37"/>
-      <c r="BO64" s="43"/>
+    <row r="64" spans="1:67" s="121" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123">
+        <v>4800926</v>
+      </c>
+      <c r="G64" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="124" t="s">
+        <v>529</v>
+      </c>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="123"/>
+      <c r="M64" s="124"/>
+      <c r="N64" s="124"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="124"/>
+      <c r="Q64" s="125"/>
+      <c r="R64" s="125"/>
+      <c r="S64" s="125"/>
+      <c r="T64" s="125"/>
+      <c r="U64" s="125"/>
+      <c r="V64" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="X64" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y64" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z64" s="124"/>
+      <c r="AA64" s="124"/>
+      <c r="AB64" s="124">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="124"/>
+      <c r="AD64" s="125"/>
+      <c r="AE64" s="125"/>
+      <c r="AF64" s="125"/>
+      <c r="AG64" s="125"/>
+      <c r="AH64" s="124"/>
+      <c r="AI64" s="124" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ64" s="124" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK64" s="123">
+        <v>29</v>
+      </c>
+      <c r="AL64" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM64" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN64" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO64" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP64" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ64" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR64" s="126"/>
+      <c r="AS64" s="126"/>
+      <c r="AT64" s="126"/>
+      <c r="AU64" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV64" s="132">
+        <v>42711</v>
+      </c>
+      <c r="AW64" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX64" s="126"/>
+      <c r="AY64" s="126"/>
+      <c r="AZ64" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA64" s="126" t="s">
+        <v>528</v>
+      </c>
+      <c r="BB64" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC64" s="127"/>
+      <c r="BD64" s="127"/>
+      <c r="BE64" s="127"/>
+      <c r="BF64" s="128" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG64" s="129" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH64" s="130"/>
+      <c r="BI64" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="BJ64" s="130"/>
+      <c r="BK64" s="130"/>
+      <c r="BL64" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM64" s="125" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN64" s="124"/>
+      <c r="BO64" s="131"/>
     </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="35"/>
@@ -13117,7 +13377,7 @@
       <c r="BN65" s="37"/>
       <c r="BO65" s="43"/>
     </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="52" t="s">
         <v>99</v>
       </c>
@@ -13181,7 +13441,7 @@
       <c r="BN66" s="48"/>
       <c r="BO66" s="30"/>
     </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="35"/>
@@ -13251,7 +13511,7 @@
       <c r="BN67" s="48"/>
       <c r="BO67" s="30"/>
     </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -13329,7 +13589,7 @@
       <c r="BN68" s="48"/>
       <c r="BO68" s="30"/>
     </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
@@ -13407,7 +13667,7 @@
       <c r="BN69" s="48"/>
       <c r="BO69" s="30"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13487,7 +13747,7 @@
       <c r="BN70" s="48"/>
       <c r="BO70" s="30"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13565,7 +13825,7 @@
       <c r="BN71" s="48"/>
       <c r="BO71" s="30"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:67" x14ac:dyDescent="0.35">
       <c r="BH72" s="102" t="s">
         <v>283</v>
       </c>
@@ -13585,7 +13845,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:67" x14ac:dyDescent="0.35">
       <c r="BH73" s="46" t="s">
         <v>328</v>
       </c>
@@ -13597,7 +13857,7 @@
       <c r="BL73" s="29"/>
       <c r="BM73" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:67" x14ac:dyDescent="0.35">
       <c r="BH74" s="46"/>
       <c r="BI74" s="46"/>
       <c r="BJ74" s="46"/>
@@ -13617,7 +13877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13630,7 +13890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83981D9D-40AF-48CB-A770-093E29063AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54473AF5-71BC-4018-9F13-8341FC9548B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="1860" windowWidth="23700" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2641,80 +2641,80 @@
   <dimension ref="A1:BO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BA51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BG51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH64" sqref="BH64"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="78.90625" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.88671875" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="86" customWidth="1"/>
-    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="86" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="86" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="87" customWidth="1"/>
-    <col min="45" max="45" width="12.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="87" customWidth="1"/>
-    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.81640625" style="87" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" style="87" customWidth="1"/>
-    <col min="53" max="53" width="14.81640625" style="87" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1796875" style="87" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.1796875" style="87" customWidth="1"/>
-    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="87" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="87" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.88671875" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="87" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="87" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="87" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="87" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="87" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.90625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.90625" customWidth="1"/>
+    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.88671875" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.88671875" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="107" t="s">
@@ -2774,7 +2774,7 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="93">
         <v>13</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="89">
         <v>3</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="89">
         <v>3</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="91">
         <v>14</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="93">
         <v>10</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="89">
         <v>15</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>2</v>
       </c>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="111" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:67" s="111" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="111">
         <v>3</v>
       </c>
@@ -13183,13 +13183,15 @@
       </c>
       <c r="BO63" s="120"/>
     </row>
-    <row r="64" spans="1:67" s="121" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:67" s="121" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="122"/>
       <c r="C64" s="122"/>
       <c r="D64" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="123"/>
+      <c r="E64" s="123">
+        <v>69</v>
+      </c>
       <c r="F64" s="123">
         <v>4800926</v>
       </c>
@@ -13309,7 +13311,7 @@
       <c r="BN64" s="124"/>
       <c r="BO64" s="131"/>
     </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="35"/>
@@ -13377,7 +13379,7 @@
       <c r="BN65" s="37"/>
       <c r="BO65" s="43"/>
     </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="52" t="s">
         <v>99</v>
       </c>
@@ -13441,7 +13443,7 @@
       <c r="BN66" s="48"/>
       <c r="BO66" s="30"/>
     </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="35"/>
@@ -13511,7 +13513,7 @@
       <c r="BN67" s="48"/>
       <c r="BO67" s="30"/>
     </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -13589,7 +13591,7 @@
       <c r="BN68" s="48"/>
       <c r="BO68" s="30"/>
     </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
@@ -13667,7 +13669,7 @@
       <c r="BN69" s="48"/>
       <c r="BO69" s="30"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13747,7 +13749,7 @@
       <c r="BN70" s="48"/>
       <c r="BO70" s="30"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13825,7 +13827,7 @@
       <c r="BN71" s="48"/>
       <c r="BO71" s="30"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH72" s="102" t="s">
         <v>283</v>
       </c>
@@ -13845,7 +13847,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH73" s="46" t="s">
         <v>328</v>
       </c>
@@ -13857,7 +13859,7 @@
       <c r="BL73" s="29"/>
       <c r="BM73" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
       <c r="BH74" s="46"/>
       <c r="BI74" s="46"/>
       <c r="BJ74" s="46"/>
@@ -13877,7 +13879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13890,7 +13892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54473AF5-71BC-4018-9F13-8341FC9548B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D09B470-D75F-440C-AA78-3A6B7940FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2641,10 +2641,10 @@
   <dimension ref="A1:BO74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BG51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AL51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="AQ65" sqref="AQ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13262,7 +13262,7 @@
         <v>72</v>
       </c>
       <c r="AQ64" s="126" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="AR64" s="126"/>
       <c r="AS64" s="126"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\pilotingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D09B470-D75F-440C-AA78-3A6B7940FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88214733-3FAE-488D-912E-30754A2E5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="541">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1642,10 +1642,40 @@
     <t>20230109</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_</t>
-  </si>
-  <si>
     <t>21u1787</t>
+  </si>
+  <si>
+    <t>20230223</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_69</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA024_75</t>
+  </si>
+  <si>
+    <t>5-Mar-17</t>
+  </si>
+  <si>
+    <t>20230314</t>
+  </si>
+  <si>
+    <t>DR-GL1-GL2-GL3- GL2-GL1-NSC-North-DR-DR25mContour</t>
+  </si>
+  <si>
+    <t>20230217</t>
+  </si>
+  <si>
+    <t>Eastcom/</t>
+  </si>
+  <si>
+    <t>Laura on deployment with Dal, Chris land pilot.</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_91</t>
+  </si>
+  <si>
+    <t>20221221</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,7 +1805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,7 +1980,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,16 +2099,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2258,7 +2285,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2274,22 +2306,44 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2638,89 +2692,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO74"/>
+  <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AL51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AT51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ65" sqref="AQ65"/>
+      <selection pane="bottomRight" activeCell="AV63" sqref="AV63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="78.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.90625" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.77734375" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" style="86" customWidth="1"/>
-    <col min="28" max="28" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.5546875" style="86" customWidth="1"/>
-    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" style="83" customWidth="1"/>
+    <col min="28" max="28" width="20.54296875" style="83" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.54296875" style="83" customWidth="1"/>
+    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6640625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.33203125" style="87" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.77734375" style="87" customWidth="1"/>
-    <col min="45" max="45" width="12.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" style="87" customWidth="1"/>
-    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.88671875" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.77734375" style="87" customWidth="1"/>
-    <col min="52" max="52" width="11.77734375" style="87" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="87" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" style="87" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.21875" style="87" customWidth="1"/>
-    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.36328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.81640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="84" customWidth="1"/>
+    <col min="45" max="45" width="12.81640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.81640625" style="84" customWidth="1"/>
+    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.81640625" style="84" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="84" customWidth="1"/>
+    <col min="53" max="53" width="14.81640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1796875" style="84" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.1796875" style="84" customWidth="1"/>
+    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.88671875" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.88671875" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.88671875" customWidth="1"/>
+    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.90625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="104" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="97" t="s">
         <v>438</v>
       </c>
       <c r="F1" s="24"/>
@@ -2774,26 +2828,26 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="73" t="s">
+    <row r="2" spans="1:67" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="72" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2802,22 +2856,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2835,28 +2889,28 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="77" t="s">
+      <c r="V2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="W2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="77" t="s">
+      <c r="X2" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="77" t="s">
+      <c r="Y2" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="Z2" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA2" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="77" t="s">
+      <c r="AB2" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AC2" s="74" t="s">
         <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
@@ -2871,110 +2925,110 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="77" t="s">
+      <c r="AH2" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="77" t="s">
+      <c r="AI2" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="77" t="s">
+      <c r="AJ2" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AK2" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AL2" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="79" t="s">
+      <c r="AM2" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="79" t="s">
+      <c r="AN2" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="80" t="s">
+      <c r="AO2" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="80" t="s">
+      <c r="AP2" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="AQ2" s="79" t="s">
+      <c r="AQ2" s="76" t="s">
         <v>351</v>
       </c>
-      <c r="AR2" s="79" t="s">
+      <c r="AR2" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="79" t="s">
+      <c r="AS2" s="76" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="79" t="s">
+      <c r="AT2" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="80" t="s">
+      <c r="AU2" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="79" t="s">
+      <c r="AV2" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="81" t="s">
+      <c r="AW2" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="AX2" s="79" t="s">
+      <c r="AX2" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="79" t="s">
+      <c r="AY2" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="AZ2" s="79" t="s">
+      <c r="AZ2" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="BA2" s="79" t="s">
+      <c r="BA2" s="76" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="79" t="s">
+      <c r="BB2" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="BC2" s="79" t="s">
+      <c r="BC2" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="79" t="s">
+      <c r="BD2" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="79" t="s">
+      <c r="BE2" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="BF2" s="82" t="s">
+      <c r="BF2" s="79" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="79" t="s">
+      <c r="BH2" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="79" t="s">
+      <c r="BI2" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="79" t="s">
+      <c r="BJ2" s="76" t="s">
         <v>229</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="83" t="s">
+      <c r="BL2" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="83" t="s">
+      <c r="BM2" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="84" t="s">
+      <c r="BN2" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="85" t="s">
+      <c r="BO2" s="82" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2987,7 +3041,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="95">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -3144,11 +3198,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="88">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3157,7 +3211,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="96">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -3314,7 +3368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3327,7 +3381,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="96">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3486,7 +3540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3499,7 +3553,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="96">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3657,7 +3711,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3670,7 +3724,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="96">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3829,7 +3883,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -3842,7 +3896,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="96">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -3999,7 +4053,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4012,7 +4066,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="96">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -4169,7 +4223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4182,7 +4236,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="96">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -4335,11 +4389,11 @@
       <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="BO10" s="56" t="s">
+      <c r="BO10" s="53" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4352,7 +4406,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="96">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4505,11 +4559,11 @@
       <c r="BN11" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO11" s="56" t="s">
+      <c r="BO11" s="53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4522,7 +4576,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="96">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4679,11 +4733,11 @@
       <c r="BN12" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO12" s="56" t="s">
+      <c r="BO12" s="53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4696,7 +4750,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="96">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4851,11 +4905,11 @@
       <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="BO13" s="57" t="s">
+      <c r="BO13" s="54" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -4868,7 +4922,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="96">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -5025,7 +5079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5038,7 +5092,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="96">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -5199,7 +5253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5212,7 +5266,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="96">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -5354,7 +5408,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="101" t="s">
+      <c r="BJ16" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -5371,11 +5425,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="90">
         <v>13</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5384,7 +5438,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="96">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5525,7 +5579,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="101" t="s">
+      <c r="BJ17" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5542,7 +5596,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5555,7 +5609,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="96">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5713,7 +5767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5726,7 +5780,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="96">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5840,7 +5894,7 @@
       <c r="AV19" s="16">
         <v>42691</v>
       </c>
-      <c r="AW19" s="58" t="s">
+      <c r="AW19" s="55" t="s">
         <v>168</v>
       </c>
       <c r="AX19" s="15"/>
@@ -5857,10 +5911,10 @@
       <c r="BG19" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH19" s="59" t="s">
+      <c r="BH19" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="BI19" s="59" t="s">
+      <c r="BI19" s="56" t="s">
         <v>119</v>
       </c>
       <c r="BJ19" s="22"/>
@@ -5878,8 +5932,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="50" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="20"/>
@@ -5942,7 +5996,7 @@
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
       <c r="BF20" s="20"/>
-      <c r="BG20" s="54"/>
+      <c r="BG20" s="51"/>
       <c r="BH20" s="22"/>
       <c r="BI20" s="22"/>
       <c r="BJ20" s="22"/>
@@ -5954,8 +6008,8 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="86">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5967,7 +6021,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="96">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -6108,7 +6162,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="101" t="s">
+      <c r="BJ21" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -6125,8 +6179,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="86">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -6138,7 +6192,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="96">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -6280,7 +6334,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="101" t="s">
+      <c r="BJ22" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -6297,7 +6351,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6310,7 +6364,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="96">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6452,7 +6506,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="101" t="s">
+      <c r="BJ23" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6469,7 +6523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6482,7 +6536,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="96">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6624,7 +6678,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="101" t="s">
+      <c r="BJ24" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6641,7 +6695,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6654,7 +6708,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="96">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6666,10 +6720,10 @@
       <c r="H25" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="57">
         <v>29</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="57">
         <v>26</v>
       </c>
       <c r="K25" s="14">
@@ -6807,11 +6861,11 @@
       <c r="BN25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="BO25" s="55" t="s">
+      <c r="BO25" s="52" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -6824,7 +6878,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="96">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -6957,13 +7011,13 @@
       <c r="BG26" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH26" s="59" t="s">
+      <c r="BH26" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="BI26" s="59" t="s">
+      <c r="BI26" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="101" t="s">
+      <c r="BJ26" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -6980,7 +7034,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -6993,7 +7047,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="96">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -7136,7 +7190,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="101" t="s">
+      <c r="BJ27" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -7153,7 +7207,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7166,7 +7220,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="96">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -7318,11 +7372,11 @@
       <c r="BN28" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="BO28" s="55" t="s">
+      <c r="BO28" s="52" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7335,7 +7389,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="96">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7468,7 +7522,7 @@
       <c r="BF29" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG29" s="54" t="s">
+      <c r="BG29" s="51" t="s">
         <v>174</v>
       </c>
       <c r="BH29" s="15" t="s">
@@ -7477,7 +7531,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="101" t="s">
+      <c r="BJ29" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7494,7 +7548,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7507,7 +7561,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E30" s="96">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7627,7 +7681,7 @@
       <c r="BF30" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG30" s="54" t="s">
+      <c r="BG30" s="51" t="s">
         <v>174</v>
       </c>
       <c r="BH30" s="22" t="s">
@@ -7651,7 +7705,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7664,7 +7718,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="96">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7806,7 +7860,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="101" t="s">
+      <c r="BJ31" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7823,7 +7877,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -7836,7 +7890,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="96">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -7977,7 +8031,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="101" t="s">
+      <c r="BJ32" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -7994,11 +8048,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="91">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="88">
         <v>14</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="87" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -8007,7 +8061,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="96">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -8153,7 +8207,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="101" t="s">
+      <c r="BJ33" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -8170,7 +8224,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
         <v>284</v>
       </c>
@@ -8242,7 +8296,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="47" t="s">
         <v>285</v>
       </c>
@@ -8314,7 +8368,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8327,7 +8381,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="96">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8469,7 +8523,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="101" t="s">
+      <c r="BJ36" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8486,7 +8540,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8499,7 +8553,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="96">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8517,10 +8571,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="58">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="61">
+      <c r="L37" s="58">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8640,7 +8694,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="101" t="s">
+      <c r="BJ37" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8659,7 +8713,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8672,7 +8726,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="96">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8690,10 +8744,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="59">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="59">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8801,7 +8855,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="101" t="s">
+      <c r="BJ38" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8820,7 +8874,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -8833,7 +8887,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="96">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -8994,7 +9048,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9007,7 +9061,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="99">
+      <c r="E40" s="96">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -9168,7 +9222,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9181,7 +9235,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="99">
+      <c r="E41" s="96">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -9199,10 +9253,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="61">
+      <c r="K41" s="58">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="61">
+      <c r="L41" s="58">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -9342,7 +9396,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9355,7 +9409,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="96">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9504,7 +9558,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="101" t="s">
+      <c r="BJ42" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9523,7 +9577,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9536,7 +9590,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="99">
+      <c r="E43" s="96">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9624,7 +9678,7 @@
       <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AK43" s="71">
+      <c r="AK43" s="68">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
@@ -9648,13 +9702,13 @@
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="68" t="s">
+      <c r="AU43" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="69">
+      <c r="AV43" s="66">
         <v>42723</v>
       </c>
-      <c r="AW43" s="70" t="s">
+      <c r="AW43" s="67" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9671,13 +9725,13 @@
       <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BH43" s="67" t="s">
+      <c r="BH43" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="67" t="s">
+      <c r="BI43" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="101" t="s">
+      <c r="BJ43" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9694,7 +9748,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9707,7 +9761,7 @@
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="99">
+      <c r="E44" s="96">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9863,11 +9917,11 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="93">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="90">
         <v>10</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="89" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -9876,7 +9930,7 @@
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="96">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -9966,7 +10020,7 @@
       <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AK45" s="71">
+      <c r="AK45" s="68">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
@@ -9998,7 +10052,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="94" t="s">
+      <c r="AW45" s="91" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -10036,7 +10090,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10049,7 +10103,7 @@
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="96">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -10158,9 +10212,9 @@
       <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="88"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="85"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -10170,14 +10224,14 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="88"/>
-      <c r="AY46" s="88"/>
-      <c r="AZ46" s="88"/>
-      <c r="BA46" s="88"/>
-      <c r="BB46" s="88"/>
-      <c r="BC46" s="95"/>
-      <c r="BD46" s="95"/>
-      <c r="BE46" s="95"/>
+      <c r="AX46" s="85"/>
+      <c r="AY46" s="85"/>
+      <c r="AZ46" s="85"/>
+      <c r="BA46" s="85"/>
+      <c r="BB46" s="85"/>
+      <c r="BC46" s="92"/>
+      <c r="BD46" s="92"/>
+      <c r="BE46" s="92"/>
       <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
@@ -10190,7 +10244,7 @@
       <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ46" s="101" t="s">
+      <c r="BJ46" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
@@ -10207,7 +10261,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10220,7 +10274,7 @@
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="99">
+      <c r="E47" s="96">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10342,11 +10396,11 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="88"/>
-      <c r="AY47" s="88"/>
-      <c r="AZ47" s="88"/>
-      <c r="BA47" s="88"/>
-      <c r="BB47" s="88"/>
+      <c r="AX47" s="85"/>
+      <c r="AY47" s="85"/>
+      <c r="AZ47" s="85"/>
+      <c r="BA47" s="85"/>
+      <c r="BB47" s="85"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
@@ -10356,13 +10410,13 @@
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH47" s="59" t="s">
+      <c r="BH47" s="56" t="s">
         <v>283</v>
       </c>
       <c r="BI47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BJ47" s="101" t="s">
+      <c r="BJ47" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
@@ -10379,7 +10433,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10392,7 +10446,7 @@
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="96">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10498,7 +10552,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="97">
+      <c r="AQ48" s="94">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10513,11 +10567,11 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
+      <c r="AX48" s="85"/>
+      <c r="AY48" s="85"/>
+      <c r="AZ48" s="85"/>
+      <c r="BA48" s="85"/>
+      <c r="BB48" s="85"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
@@ -10533,7 +10587,7 @@
       <c r="BI48" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ48" s="101" t="s">
+      <c r="BJ48" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
@@ -10550,7 +10604,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10563,7 +10617,7 @@
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="99">
+      <c r="E49" s="96">
         <v>60</v>
       </c>
       <c r="F49" s="14">
@@ -10704,7 +10758,7 @@
       <c r="BI49" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ49" s="101" t="s">
+      <c r="BJ49" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
@@ -10721,7 +10775,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10734,7 +10788,7 @@
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="96">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10859,14 +10913,14 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="96" t="s">
+      <c r="AW50" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="88"/>
-      <c r="AY50" s="88"/>
-      <c r="AZ50" s="88"/>
-      <c r="BA50" s="88"/>
-      <c r="BB50" s="88"/>
+      <c r="AX50" s="85"/>
+      <c r="AY50" s="85"/>
+      <c r="AZ50" s="85"/>
+      <c r="BA50" s="85"/>
+      <c r="BB50" s="85"/>
       <c r="BC50" s="15" t="s">
         <v>416</v>
       </c>
@@ -10903,7 +10957,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -10916,7 +10970,7 @@
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="96">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -11022,7 +11076,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="97">
+      <c r="AQ51" s="94">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -11037,11 +11091,11 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="88"/>
-      <c r="AY51" s="88"/>
-      <c r="AZ51" s="88"/>
-      <c r="BA51" s="88"/>
-      <c r="BB51" s="88"/>
+      <c r="AX51" s="85"/>
+      <c r="AY51" s="85"/>
+      <c r="AZ51" s="85"/>
+      <c r="BA51" s="85"/>
+      <c r="BB51" s="85"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
@@ -11057,7 +11111,7 @@
       <c r="BI51" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ51" s="101" t="s">
+      <c r="BJ51" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
@@ -11074,7 +11128,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11087,7 +11141,7 @@
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="96">
         <v>62</v>
       </c>
       <c r="F52" s="14">
@@ -11228,7 +11282,7 @@
       <c r="BI52" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ52" s="101" t="s">
+      <c r="BJ52" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
@@ -11245,7 +11299,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11258,7 +11312,7 @@
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="96">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11383,7 +11437,7 @@
       <c r="AV53" s="16">
         <v>42859</v>
       </c>
-      <c r="AW53" s="96" t="s">
+      <c r="AW53" s="93" t="s">
         <v>168</v>
       </c>
       <c r="AX53" s="15"/>
@@ -11427,7 +11481,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11440,7 +11494,7 @@
       <c r="D54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="96">
         <v>67</v>
       </c>
       <c r="F54" s="14">
@@ -11564,7 +11618,7 @@
       <c r="AV54" s="16">
         <v>42859</v>
       </c>
-      <c r="AW54" s="96" t="s">
+      <c r="AW54" s="93" t="s">
         <v>168</v>
       </c>
       <c r="AX54" s="15"/>
@@ -11608,7 +11662,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11621,7 +11675,7 @@
       <c r="D55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="96">
         <v>70</v>
       </c>
       <c r="F55" s="14">
@@ -11727,7 +11781,7 @@
       <c r="AP55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ55" s="97">
+      <c r="AQ55" s="94">
         <v>20210105</v>
       </c>
       <c r="AR55" s="22"/>
@@ -11742,11 +11796,11 @@
       <c r="AW55" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX55" s="88"/>
-      <c r="AY55" s="88"/>
-      <c r="AZ55" s="88"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="88"/>
+      <c r="AX55" s="85"/>
+      <c r="AY55" s="85"/>
+      <c r="AZ55" s="85"/>
+      <c r="BA55" s="85"/>
+      <c r="BB55" s="85"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
@@ -11762,7 +11816,7 @@
       <c r="BI55" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ55" s="101" t="s">
+      <c r="BJ55" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
@@ -11781,7 +11835,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -11794,7 +11848,7 @@
       <c r="D56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="96">
         <v>65</v>
       </c>
       <c r="F56" s="14">
@@ -11935,7 +11989,7 @@
       <c r="BI56" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ56" s="101" t="s">
+      <c r="BJ56" s="98" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
@@ -11954,7 +12008,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -11967,7 +12021,7 @@
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="96">
         <v>69</v>
       </c>
       <c r="F57" s="14">
@@ -12096,7 +12150,7 @@
       <c r="AV57" s="16">
         <v>42859</v>
       </c>
-      <c r="AW57" s="96" t="s">
+      <c r="AW57" s="93" t="s">
         <v>168</v>
       </c>
       <c r="AX57" s="22"/>
@@ -12140,7 +12194,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12153,7 +12207,7 @@
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="96">
         <v>97</v>
       </c>
       <c r="F58" s="14">
@@ -12295,7 +12349,7 @@
       <c r="BI58" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="BJ58" s="101" t="s">
+      <c r="BJ58" s="98" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
@@ -12312,7 +12366,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12483,8 +12537,8 @@
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="86">
         <v>15</v>
       </c>
       <c r="B60" s="2">
@@ -12668,7 +12722,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12769,7 +12823,7 @@
       <c r="AJ61" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="AK61" s="71">
+      <c r="AK61" s="68">
         <v>30</v>
       </c>
       <c r="AL61" s="34" t="s">
@@ -12787,7 +12841,7 @@
       <c r="AP61" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AQ61" s="49">
+      <c r="AQ61" s="48">
         <v>20210105</v>
       </c>
       <c r="AR61" s="38"/>
@@ -12837,11 +12891,11 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>20220908</v>
       </c>
       <c r="C62" s="34" t="s">
@@ -12862,7 +12916,7 @@
       <c r="H62" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="I62" s="109">
+      <c r="I62" s="106">
         <v>29.2</v>
       </c>
       <c r="J62" s="3">
@@ -12935,7 +12989,7 @@
       <c r="AI62" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="AJ62" s="110" t="s">
+      <c r="AJ62" s="107" t="s">
         <v>517</v>
       </c>
       <c r="AK62" s="35">
@@ -12956,7 +13010,7 @@
       <c r="AP62" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AQ62" s="49">
+      <c r="AQ62" s="48">
         <v>20210105</v>
       </c>
       <c r="AR62" s="38"/>
@@ -12991,10 +13045,10 @@
       <c r="BI62" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="BJ62" s="108">
+      <c r="BJ62" s="105">
         <v>200206</v>
       </c>
-      <c r="BK62" s="108"/>
+      <c r="BK62" s="105"/>
       <c r="BL62" s="3" t="s">
         <v>211</v>
       </c>
@@ -13006,126 +13060,126 @@
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="111">
+    <row r="63" spans="1:67" s="108" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="108">
         <v>3</v>
       </c>
-      <c r="B63" s="109">
+      <c r="B63" s="106">
         <v>20220915</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C63" s="109" t="s">
         <v>522</v>
       </c>
-      <c r="D63" s="113" t="s">
+      <c r="D63" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="113">
+      <c r="E63" s="110">
         <v>73</v>
       </c>
       <c r="F63" s="14">
         <v>4800937</v>
       </c>
-      <c r="G63" s="113" t="s">
+      <c r="G63" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="110" t="s">
+      <c r="H63" s="107" t="s">
         <v>519</v>
       </c>
-      <c r="I63" s="114">
+      <c r="I63" s="111">
         <v>29.2</v>
       </c>
-      <c r="J63" s="109">
+      <c r="J63" s="106">
         <v>25.5</v>
       </c>
-      <c r="K63" s="113">
+      <c r="K63" s="110">
         <v>48.731299999999997</v>
       </c>
-      <c r="L63" s="113">
+      <c r="L63" s="110">
         <v>-52.952100000000002</v>
       </c>
-      <c r="M63" s="110">
+      <c r="M63" s="107">
         <v>47.76</v>
       </c>
-      <c r="N63" s="110">
+      <c r="N63" s="107">
         <v>-53.68</v>
       </c>
-      <c r="O63" s="110">
+      <c r="O63" s="107">
         <v>49.97</v>
       </c>
-      <c r="P63" s="110">
+      <c r="P63" s="107">
         <v>-50.68</v>
       </c>
-      <c r="Q63" s="109" t="s">
+      <c r="Q63" s="106" t="s">
         <v>524</v>
       </c>
-      <c r="R63" s="109">
+      <c r="R63" s="106">
         <v>20.100000000000001</v>
       </c>
-      <c r="S63" s="109">
+      <c r="S63" s="106">
         <v>599.05999999999995</v>
       </c>
-      <c r="T63" s="109">
+      <c r="T63" s="106">
         <v>528</v>
       </c>
-      <c r="U63" s="109">
+      <c r="U63" s="106">
         <v>1056</v>
       </c>
-      <c r="V63" s="110" t="s">
+      <c r="V63" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="W63" s="110">
+      <c r="W63" s="107">
         <v>1</v>
       </c>
-      <c r="X63" s="110" t="s">
+      <c r="X63" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="Y63" s="110" t="s">
+      <c r="Y63" s="107" t="s">
         <v>188</v>
       </c>
       <c r="Z63" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AA63" s="110"/>
-      <c r="AB63" s="110"/>
-      <c r="AC63" s="110"/>
-      <c r="AD63" s="109">
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="106">
         <v>0</v>
       </c>
-      <c r="AE63" s="109">
+      <c r="AE63" s="106">
         <v>0</v>
       </c>
-      <c r="AF63" s="109">
+      <c r="AF63" s="106">
         <v>0</v>
       </c>
-      <c r="AG63" s="109">
+      <c r="AG63" s="106">
         <v>1024</v>
       </c>
-      <c r="AH63" s="110">
+      <c r="AH63" s="107">
         <v>20220506</v>
       </c>
-      <c r="AI63" s="110" t="s">
+      <c r="AI63" s="107" t="s">
         <v>513</v>
       </c>
-      <c r="AJ63" s="110" t="s">
+      <c r="AJ63" s="107" t="s">
         <v>517</v>
       </c>
-      <c r="AK63" s="113">
+      <c r="AK63" s="110">
         <v>42</v>
       </c>
-      <c r="AL63" s="112" t="s">
+      <c r="AL63" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="AM63" s="115" t="s">
+      <c r="AM63" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="AN63" s="115" t="s">
+      <c r="AN63" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="AO63" s="112" t="s">
+      <c r="AO63" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AP63" s="112"/>
-      <c r="AQ63" s="115"/>
+      <c r="AP63" s="109"/>
+      <c r="AQ63" s="112"/>
       <c r="AR63" s="22" t="s">
         <v>87</v>
       </c>
@@ -13135,254 +13189,357 @@
       <c r="AT63" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AU63" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV63" s="116">
-        <v>42799</v>
-      </c>
-      <c r="AW63" s="115" t="s">
+      <c r="AU63" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV63" s="113">
+        <v>42723</v>
+      </c>
+      <c r="AW63" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="AX63" s="115"/>
-      <c r="AY63" s="115"/>
-      <c r="AZ63" s="115"/>
-      <c r="BA63" s="115"/>
-      <c r="BB63" s="115"/>
-      <c r="BC63" s="115" t="s">
+      <c r="AX63" s="112"/>
+      <c r="AY63" s="112"/>
+      <c r="AZ63" s="112"/>
+      <c r="BA63" s="112"/>
+      <c r="BB63" s="112"/>
+      <c r="BC63" s="112" t="s">
         <v>416</v>
       </c>
-      <c r="BD63" s="117" t="s">
+      <c r="BD63" s="114" t="s">
         <v>417</v>
       </c>
-      <c r="BE63" s="115" t="s">
+      <c r="BE63" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="BF63" s="118" t="s">
+      <c r="BF63" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="BG63" s="119" t="s">
+      <c r="BG63" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="BH63" s="117" t="s">
+      <c r="BH63" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="BI63" s="115" t="s">
+      <c r="BI63" s="112" t="s">
         <v>291</v>
       </c>
-      <c r="BJ63" s="115"/>
-      <c r="BK63" s="109"/>
-      <c r="BL63" s="113" t="s">
+      <c r="BJ63" s="112"/>
+      <c r="BK63" s="106"/>
+      <c r="BL63" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="BM63" s="113" t="s">
+      <c r="BM63" s="110" t="s">
         <v>518</v>
       </c>
-      <c r="BN63" s="110" t="s">
+      <c r="BN63" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="BO63" s="120"/>
+      <c r="BO63" s="117"/>
     </row>
-    <row r="64" spans="1:67" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123" t="s">
+    <row r="64" spans="1:67" s="108" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="108">
+        <v>4</v>
+      </c>
+      <c r="B64" s="109" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>534</v>
+      </c>
+      <c r="D64" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="123">
+      <c r="E64" s="110">
         <v>69</v>
       </c>
-      <c r="F64" s="123">
+      <c r="F64" s="110">
         <v>4800926</v>
       </c>
-      <c r="G64" s="123" t="s">
+      <c r="G64" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="124" t="s">
+      <c r="H64" s="107" t="s">
+        <v>531</v>
+      </c>
+      <c r="I64" s="106">
+        <v>29.2</v>
+      </c>
+      <c r="J64" s="106">
+        <v>25.1</v>
+      </c>
+      <c r="K64" s="110">
+        <v>44.519300000000001</v>
+      </c>
+      <c r="L64" s="110">
+        <v>-63.410800000000002</v>
+      </c>
+      <c r="M64" s="107">
+        <v>43.039700000000003</v>
+      </c>
+      <c r="N64" s="107">
+        <v>-63.24</v>
+      </c>
+      <c r="O64" s="107">
+        <v>44.546199999999999</v>
+      </c>
+      <c r="P64" s="107">
+        <v>-62.02</v>
+      </c>
+      <c r="Q64" s="106" t="s">
+        <v>535</v>
+      </c>
+      <c r="R64" s="106">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="S64" s="106">
+        <v>452.05</v>
+      </c>
+      <c r="T64" s="106">
+        <v>1239</v>
+      </c>
+      <c r="U64" s="106">
+        <v>2478</v>
+      </c>
+      <c r="V64" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="W64" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="X64" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y64" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="107"/>
+      <c r="AB64" s="107">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="107"/>
+      <c r="AD64" s="106">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="106">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="106">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="106">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH64" s="107">
+        <v>20230208</v>
+      </c>
+      <c r="AI64" s="107" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ64" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK64" s="110">
+        <v>29</v>
+      </c>
+      <c r="AL64" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM64" s="112" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN64" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO64" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP64" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ64" s="112" t="s">
+        <v>502</v>
+      </c>
+      <c r="AR64" s="112"/>
+      <c r="AS64" s="112"/>
+      <c r="AT64" s="112"/>
+      <c r="AU64" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV64" s="113">
+        <v>42711</v>
+      </c>
+      <c r="AW64" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX64" s="112"/>
+      <c r="AY64" s="112"/>
+      <c r="AZ64" s="112" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA64" s="112" t="s">
+        <v>528</v>
+      </c>
+      <c r="BB64" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC64" s="114"/>
+      <c r="BD64" s="114"/>
+      <c r="BE64" s="114"/>
+      <c r="BF64" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG64" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH64" s="106">
+        <v>240201</v>
+      </c>
+      <c r="BI64" s="106" t="s">
         <v>529</v>
       </c>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="123"/>
-      <c r="L64" s="123"/>
-      <c r="M64" s="124"/>
-      <c r="N64" s="124"/>
-      <c r="O64" s="124"/>
-      <c r="P64" s="124"/>
-      <c r="Q64" s="125"/>
-      <c r="R64" s="125"/>
-      <c r="S64" s="125"/>
-      <c r="T64" s="125"/>
-      <c r="U64" s="125"/>
-      <c r="V64" s="124" t="s">
-        <v>36</v>
-      </c>
-      <c r="W64" s="124" t="s">
-        <v>235</v>
-      </c>
-      <c r="X64" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y64" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z64" s="124"/>
-      <c r="AA64" s="124"/>
-      <c r="AB64" s="124">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="124"/>
-      <c r="AD64" s="125"/>
-      <c r="AE64" s="125"/>
-      <c r="AF64" s="125"/>
-      <c r="AG64" s="125"/>
-      <c r="AH64" s="124"/>
-      <c r="AI64" s="124" t="s">
+      <c r="BJ64" s="140">
+        <v>200206</v>
+      </c>
+      <c r="BK64" s="140"/>
+      <c r="BL64" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM64" s="106" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN64" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO64" s="117"/>
+    </row>
+    <row r="65" spans="2:67" s="139" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="129" t="s">
+        <v>536</v>
+      </c>
+      <c r="C65" s="129"/>
+      <c r="D65" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="130">
+        <v>91</v>
+      </c>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="131" t="s">
+        <v>539</v>
+      </c>
+      <c r="I65" s="132">
+        <v>29.2</v>
+      </c>
+      <c r="J65" s="132"/>
+      <c r="K65" s="130">
+        <v>44.3795</v>
+      </c>
+      <c r="L65" s="130">
+        <v>-63.360300000000002</v>
+      </c>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="131"/>
+      <c r="P65" s="131"/>
+      <c r="Q65" s="132"/>
+      <c r="R65" s="132"/>
+      <c r="S65" s="132"/>
+      <c r="T65" s="132"/>
+      <c r="U65" s="132"/>
+      <c r="V65" s="131"/>
+      <c r="W65" s="131"/>
+      <c r="X65" s="131"/>
+      <c r="Y65" s="131"/>
+      <c r="Z65" s="131"/>
+      <c r="AA65" s="131"/>
+      <c r="AB65" s="131"/>
+      <c r="AC65" s="131"/>
+      <c r="AD65" s="132"/>
+      <c r="AE65" s="132"/>
+      <c r="AF65" s="132"/>
+      <c r="AG65" s="132">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH65" s="131">
+        <v>20230308</v>
+      </c>
+      <c r="AI65" s="131" t="s">
         <v>513</v>
       </c>
-      <c r="AJ64" s="124" t="s">
+      <c r="AJ65" s="131" t="s">
         <v>525</v>
       </c>
-      <c r="AK64" s="123">
-        <v>29</v>
-      </c>
-      <c r="AL64" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM64" s="126" t="s">
+      <c r="AK65" s="130">
+        <v>30</v>
+      </c>
+      <c r="AL65" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM65" s="133" t="s">
         <v>526</v>
       </c>
-      <c r="AN64" s="126" t="s">
+      <c r="AN65" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="AO64" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP64" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ64" s="126" t="s">
-        <v>502</v>
-      </c>
-      <c r="AR64" s="126"/>
-      <c r="AS64" s="126"/>
-      <c r="AT64" s="126"/>
-      <c r="AU64" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV64" s="132">
-        <v>42711</v>
-      </c>
-      <c r="AW64" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX64" s="126"/>
-      <c r="AY64" s="126"/>
-      <c r="AZ64" s="126" t="s">
-        <v>527</v>
-      </c>
-      <c r="BA64" s="126" t="s">
-        <v>528</v>
-      </c>
-      <c r="BB64" s="126" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC64" s="127"/>
-      <c r="BD64" s="127"/>
-      <c r="BE64" s="127"/>
-      <c r="BF64" s="128" t="s">
+      <c r="AO65" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP65" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ65" s="133" t="s">
+        <v>540</v>
+      </c>
+      <c r="AR65" s="133"/>
+      <c r="AS65" s="133"/>
+      <c r="AT65" s="133"/>
+      <c r="AU65" s="129"/>
+      <c r="AV65" s="133"/>
+      <c r="AW65" s="134"/>
+      <c r="AX65" s="133"/>
+      <c r="AY65" s="133"/>
+      <c r="AZ65" s="133"/>
+      <c r="BA65" s="133"/>
+      <c r="BB65" s="133"/>
+      <c r="BC65" s="134"/>
+      <c r="BD65" s="134"/>
+      <c r="BE65" s="134"/>
+      <c r="BF65" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="BG64" s="129" t="s">
+      <c r="BG65" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="BH64" s="130"/>
-      <c r="BI64" s="125" t="s">
-        <v>530</v>
-      </c>
-      <c r="BJ64" s="130"/>
-      <c r="BK64" s="130"/>
-      <c r="BL64" s="125" t="s">
+      <c r="BH65" s="132">
+        <v>162640</v>
+      </c>
+      <c r="BI65" s="132" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ65" s="132">
+        <v>201189</v>
+      </c>
+      <c r="BK65" s="137"/>
+      <c r="BL65" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="BM64" s="125" t="s">
+      <c r="BM65" s="132" t="s">
         <v>518</v>
       </c>
-      <c r="BN64" s="124"/>
-      <c r="BO64" s="131"/>
+      <c r="BN65" s="131" t="s">
+        <v>537</v>
+      </c>
+      <c r="BO65" s="138" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="65" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="38"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="38"/>
-      <c r="AR65" s="38"/>
-      <c r="AS65" s="38"/>
-      <c r="AT65" s="38"/>
-      <c r="AU65" s="34"/>
-      <c r="AV65" s="38"/>
-      <c r="AW65" s="40"/>
-      <c r="AX65" s="38"/>
-      <c r="AY65" s="38"/>
-      <c r="AZ65" s="38"/>
-      <c r="BA65" s="38"/>
-      <c r="BB65" s="38"/>
-      <c r="BC65" s="40"/>
-      <c r="BD65" s="40"/>
-      <c r="BE65" s="40"/>
-      <c r="BF65" s="41"/>
-      <c r="BG65" s="42"/>
-      <c r="BH65" s="108"/>
-      <c r="BI65" s="108"/>
-      <c r="BJ65" s="108"/>
-      <c r="BK65" s="108"/>
-      <c r="BL65" s="108"/>
-      <c r="BM65" s="108"/>
-      <c r="BN65" s="37"/>
-      <c r="BO65" s="43"/>
-    </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="52" t="s">
-        <v>99</v>
-      </c>
+    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="49"/>
       <c r="C66" s="34"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -13402,118 +13559,186 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="48"/>
-      <c r="AC66" s="48"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="48"/>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="48"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="50"/>
-      <c r="AM66" s="46"/>
-      <c r="AN66" s="46"/>
-      <c r="AO66" s="50"/>
-      <c r="AP66" s="50"/>
-      <c r="AQ66" s="46"/>
-      <c r="AR66" s="46"/>
-      <c r="AS66" s="46"/>
-      <c r="AT66" s="46"/>
-      <c r="AU66" s="50"/>
-      <c r="AV66" s="46"/>
-      <c r="AW66" s="46"/>
-      <c r="AX66" s="46"/>
-      <c r="AY66" s="46"/>
-      <c r="AZ66" s="46"/>
-      <c r="BA66" s="46"/>
-      <c r="BB66" s="46"/>
-      <c r="BC66" s="46"/>
-      <c r="BD66" s="46"/>
-      <c r="BE66" s="46"/>
-      <c r="BF66" s="50"/>
-      <c r="BG66" s="51"/>
-      <c r="BN66" s="48"/>
-      <c r="BO66" s="30"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="34"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="34"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="38"/>
+      <c r="AS66" s="38"/>
+      <c r="AT66" s="38"/>
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="38"/>
+      <c r="AW66" s="38"/>
+      <c r="AX66" s="38"/>
+      <c r="AY66" s="38"/>
+      <c r="AZ66" s="38"/>
+      <c r="BA66" s="38"/>
+      <c r="BB66" s="38"/>
+      <c r="BC66" s="38"/>
+      <c r="BD66" s="38"/>
+      <c r="BE66" s="38"/>
+      <c r="BF66" s="34"/>
+      <c r="BG66" s="119"/>
+      <c r="BH66" s="105"/>
+      <c r="BI66" s="105"/>
+      <c r="BJ66" s="105"/>
+      <c r="BK66" s="105"/>
+      <c r="BL66" s="105"/>
+      <c r="BM66" s="105"/>
+      <c r="BN66" s="37"/>
+      <c r="BO66" s="43"/>
     </row>
-    <row r="67" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="48"/>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="48"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="48"/>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="48"/>
-      <c r="AK67" s="29"/>
-      <c r="AL67" s="50"/>
-      <c r="AM67" s="46"/>
-      <c r="AN67" s="46"/>
-      <c r="AO67" s="50"/>
-      <c r="AP67" s="50"/>
-      <c r="AQ67" s="46"/>
-      <c r="AR67" s="46"/>
-      <c r="AS67" s="46"/>
-      <c r="AT67" s="46"/>
-      <c r="AU67" s="50"/>
-      <c r="AV67" s="46"/>
-      <c r="AW67" s="46"/>
-      <c r="AX67" s="46"/>
-      <c r="AY67" s="46"/>
-      <c r="AZ67" s="46"/>
-      <c r="BA67" s="46"/>
-      <c r="BB67" s="46"/>
-      <c r="BC67" s="46"/>
-      <c r="BD67" s="46"/>
-      <c r="BE67" s="46"/>
-      <c r="BF67" s="50"/>
-      <c r="BG67" s="51"/>
-      <c r="BH67" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="BI67" s="38"/>
-      <c r="BJ67" s="38"/>
-      <c r="BK67" s="3"/>
-      <c r="BL67" s="35"/>
-      <c r="BM67" s="35"/>
-      <c r="BN67" s="48"/>
-      <c r="BO67" s="30"/>
+    <row r="67" spans="2:67" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="121">
+        <v>75</v>
+      </c>
+      <c r="F67" s="121">
+        <v>4800994</v>
+      </c>
+      <c r="G67" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="122" t="s">
+        <v>532</v>
+      </c>
+      <c r="I67" s="123"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="121"/>
+      <c r="L67" s="121"/>
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="123"/>
+      <c r="T67" s="123"/>
+      <c r="U67" s="123"/>
+      <c r="V67" s="122"/>
+      <c r="W67" s="122">
+        <v>1</v>
+      </c>
+      <c r="X67" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y67" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="122"/>
+      <c r="AB67" s="122"/>
+      <c r="AC67" s="122"/>
+      <c r="AD67" s="123"/>
+      <c r="AE67" s="123"/>
+      <c r="AF67" s="123"/>
+      <c r="AG67" s="123">
+        <v>1024</v>
+      </c>
+      <c r="AH67" s="122">
+        <v>20230228</v>
+      </c>
+      <c r="AI67" s="122" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ67" s="122" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK67" s="121">
+        <v>42</v>
+      </c>
+      <c r="AL67" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM67" s="124" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN67" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO67" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP67" s="120"/>
+      <c r="AQ67" s="124"/>
+      <c r="AR67" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS67" s="124" t="s">
+        <v>507</v>
+      </c>
+      <c r="AT67" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU67" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV67" s="124" t="s">
+        <v>533</v>
+      </c>
+      <c r="AW67" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX67" s="124"/>
+      <c r="AY67" s="124"/>
+      <c r="AZ67" s="124"/>
+      <c r="BA67" s="124"/>
+      <c r="BB67" s="124"/>
+      <c r="BC67" s="124" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD67" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE67" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF67" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG67" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH67" s="123">
+        <v>162642</v>
+      </c>
+      <c r="BI67" s="123" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ67" s="126"/>
+      <c r="BK67" s="126"/>
+      <c r="BL67" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM67" s="123" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN67" s="122"/>
+      <c r="BO67" s="127"/>
     </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="35"/>
@@ -13534,65 +13759,57 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-      <c r="AK68" s="29"/>
-      <c r="AL68" s="50"/>
-      <c r="AM68" s="46"/>
-      <c r="AN68" s="46"/>
-      <c r="AO68" s="50"/>
-      <c r="AP68" s="50"/>
-      <c r="AQ68" s="46"/>
-      <c r="AR68" s="46"/>
-      <c r="AS68" s="46"/>
-      <c r="AT68" s="46"/>
-      <c r="AU68" s="50"/>
-      <c r="AV68" s="46"/>
-      <c r="AW68" s="46"/>
-      <c r="AX68" s="46"/>
-      <c r="AY68" s="46"/>
-      <c r="AZ68" s="46"/>
-      <c r="BA68" s="46"/>
-      <c r="BB68" s="46"/>
-      <c r="BC68" s="46"/>
-      <c r="BD68" s="46"/>
-      <c r="BE68" s="46"/>
-      <c r="BF68" s="50"/>
-      <c r="BG68" s="51"/>
-      <c r="BH68" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI68" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ68" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK68" s="3">
-        <v>3.53</v>
-      </c>
-      <c r="BL68" s="35">
-        <v>84</v>
-      </c>
-      <c r="BM68" s="35"/>
-      <c r="BN68" s="48"/>
-      <c r="BO68" s="30"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" s="37"/>
+      <c r="AJ68" s="37"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="34"/>
+      <c r="AM68" s="38"/>
+      <c r="AN68" s="38"/>
+      <c r="AO68" s="34"/>
+      <c r="AP68" s="34"/>
+      <c r="AQ68" s="38"/>
+      <c r="AR68" s="38"/>
+      <c r="AS68" s="38"/>
+      <c r="AT68" s="38"/>
+      <c r="AU68" s="34"/>
+      <c r="AV68" s="38"/>
+      <c r="AW68" s="38"/>
+      <c r="AX68" s="38"/>
+      <c r="AY68" s="38"/>
+      <c r="AZ68" s="38"/>
+      <c r="BA68" s="38"/>
+      <c r="BB68" s="38"/>
+      <c r="BC68" s="38"/>
+      <c r="BD68" s="38"/>
+      <c r="BE68" s="38"/>
+      <c r="BF68" s="34"/>
+      <c r="BG68" s="119"/>
+      <c r="BH68" s="105"/>
+      <c r="BI68" s="105"/>
+      <c r="BJ68" s="105"/>
+      <c r="BK68" s="105"/>
+      <c r="BL68" s="105"/>
+      <c r="BM68" s="105"/>
+      <c r="BN68" s="37"/>
+      <c r="BO68" s="43"/>
     </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="34"/>
+    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="118" t="s">
+        <v>99</v>
+      </c>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -13612,64 +13829,54 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
-      <c r="X69" s="48"/>
-      <c r="Y69" s="48"/>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="48"/>
-      <c r="AK69" s="29"/>
-      <c r="AL69" s="50"/>
-      <c r="AM69" s="46"/>
-      <c r="AN69" s="46"/>
-      <c r="AO69" s="50"/>
-      <c r="AP69" s="50"/>
-      <c r="AQ69" s="46"/>
-      <c r="AR69" s="46"/>
-      <c r="AS69" s="46"/>
-      <c r="AT69" s="46"/>
-      <c r="AU69" s="50"/>
-      <c r="AV69" s="46"/>
-      <c r="AW69" s="46"/>
-      <c r="AX69" s="46"/>
-      <c r="AY69" s="46"/>
-      <c r="AZ69" s="46"/>
-      <c r="BA69" s="46"/>
-      <c r="BB69" s="46"/>
-      <c r="BC69" s="46"/>
-      <c r="BD69" s="46"/>
-      <c r="BE69" s="46"/>
-      <c r="BF69" s="50"/>
-      <c r="BG69" s="51"/>
-      <c r="BH69" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="BI69" s="106" t="s">
-        <v>282</v>
-      </c>
-      <c r="BJ69" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK69" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="BL69" s="35">
-        <v>174</v>
-      </c>
-      <c r="BM69" s="35"/>
-      <c r="BN69" s="48"/>
-      <c r="BO69" s="30"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="34"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="34"/>
+      <c r="AP69" s="34"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="38"/>
+      <c r="AT69" s="38"/>
+      <c r="AU69" s="34"/>
+      <c r="AV69" s="38"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="38"/>
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="38"/>
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="34"/>
+      <c r="BG69" s="119"/>
+      <c r="BH69" s="105"/>
+      <c r="BI69" s="105"/>
+      <c r="BJ69" s="105"/>
+      <c r="BK69" s="105"/>
+      <c r="BL69" s="105"/>
+      <c r="BM69" s="105"/>
+      <c r="BN69" s="37"/>
+      <c r="BO69" s="43"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -13690,66 +13897,54 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="48"/>
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="48"/>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="29"/>
-      <c r="AL70" s="50"/>
-      <c r="AM70" s="46"/>
-      <c r="AN70" s="46"/>
-      <c r="AO70" s="50"/>
-      <c r="AP70" s="50"/>
-      <c r="AQ70" s="46"/>
-      <c r="AR70" s="46"/>
-      <c r="AS70" s="46"/>
-      <c r="AT70" s="46"/>
-      <c r="AU70" s="50"/>
-      <c r="AV70" s="46"/>
-      <c r="AW70" s="46"/>
-      <c r="AX70" s="46"/>
-      <c r="AY70" s="46"/>
-      <c r="AZ70" s="46"/>
-      <c r="BA70" s="46"/>
-      <c r="BB70" s="46"/>
-      <c r="BC70" s="46"/>
-      <c r="BD70" s="46"/>
-      <c r="BE70" s="46"/>
-      <c r="BF70" s="50"/>
-      <c r="BG70" s="51"/>
-      <c r="BH70" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI70" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ70" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK70" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BL70" s="35">
-        <v>85</v>
-      </c>
-      <c r="BM70" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="BN70" s="48"/>
-      <c r="BO70" s="30"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" s="37"/>
+      <c r="AJ70" s="37"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="34"/>
+      <c r="AM70" s="38"/>
+      <c r="AN70" s="38"/>
+      <c r="AO70" s="34"/>
+      <c r="AP70" s="34"/>
+      <c r="AQ70" s="38"/>
+      <c r="AR70" s="38"/>
+      <c r="AS70" s="38"/>
+      <c r="AT70" s="38"/>
+      <c r="AU70" s="34"/>
+      <c r="AV70" s="38"/>
+      <c r="AW70" s="38"/>
+      <c r="AX70" s="38"/>
+      <c r="AY70" s="38"/>
+      <c r="AZ70" s="38"/>
+      <c r="BA70" s="38"/>
+      <c r="BB70" s="38"/>
+      <c r="BC70" s="38"/>
+      <c r="BD70" s="38"/>
+      <c r="BE70" s="38"/>
+      <c r="BF70" s="34"/>
+      <c r="BG70" s="119"/>
+      <c r="BH70" s="105"/>
+      <c r="BI70" s="105"/>
+      <c r="BJ70" s="105"/>
+      <c r="BK70" s="105"/>
+      <c r="BL70" s="105"/>
+      <c r="BM70" s="105"/>
+      <c r="BN70" s="37"/>
+      <c r="BO70" s="43"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -13770,102 +13965,176 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="48"/>
-      <c r="X71" s="48"/>
-      <c r="Y71" s="48"/>
-      <c r="Z71" s="48"/>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="48"/>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="48"/>
-      <c r="AK71" s="29"/>
-      <c r="AL71" s="50"/>
-      <c r="AM71" s="46"/>
-      <c r="AN71" s="46"/>
-      <c r="AO71" s="50"/>
-      <c r="AP71" s="50"/>
-      <c r="AQ71" s="46"/>
-      <c r="AR71" s="46"/>
-      <c r="AS71" s="46"/>
-      <c r="AT71" s="46"/>
-      <c r="AU71" s="50"/>
-      <c r="AV71" s="46"/>
-      <c r="AW71" s="46"/>
-      <c r="AX71" s="46"/>
-      <c r="AY71" s="46"/>
-      <c r="AZ71" s="46"/>
-      <c r="BA71" s="46"/>
-      <c r="BB71" s="46"/>
-      <c r="BC71" s="46"/>
-      <c r="BD71" s="46"/>
-      <c r="BE71" s="46"/>
-      <c r="BF71" s="50"/>
-      <c r="BG71" s="51"/>
-      <c r="BH71" s="64" t="s">
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="37"/>
+      <c r="AJ71" s="37"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="38"/>
+      <c r="AN71" s="38"/>
+      <c r="AO71" s="34"/>
+      <c r="AP71" s="34"/>
+      <c r="AQ71" s="38"/>
+      <c r="AR71" s="38"/>
+      <c r="AS71" s="38"/>
+      <c r="AT71" s="38"/>
+      <c r="AU71" s="34"/>
+      <c r="AV71" s="38"/>
+      <c r="AW71" s="38"/>
+      <c r="AX71" s="38"/>
+      <c r="AY71" s="38"/>
+      <c r="AZ71" s="38"/>
+      <c r="BA71" s="38"/>
+      <c r="BB71" s="38"/>
+      <c r="BC71" s="38"/>
+      <c r="BD71" s="38"/>
+      <c r="BE71" s="38"/>
+      <c r="BF71" s="34"/>
+      <c r="BG71" s="119"/>
+      <c r="BH71" s="105"/>
+      <c r="BI71" s="105"/>
+      <c r="BJ71" s="105"/>
+      <c r="BK71" s="105"/>
+      <c r="BL71" s="105"/>
+      <c r="BM71" s="105"/>
+      <c r="BN71" s="37"/>
+      <c r="BO71" s="43"/>
+    </row>
+    <row r="78" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH78" s="101" t="s">
+        <v>493</v>
+      </c>
+      <c r="BI78" s="38"/>
+      <c r="BJ78" s="38"/>
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="35"/>
+      <c r="BM78" s="35"/>
+    </row>
+    <row r="79" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH79" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI79" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ79" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK79" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="BL79" s="35">
+        <v>84</v>
+      </c>
+      <c r="BM79" s="35"/>
+    </row>
+    <row r="80" spans="2:67" x14ac:dyDescent="0.35">
+      <c r="BH80" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI80" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="BJ80" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="BK80" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="BL80" s="35">
+        <v>174</v>
+      </c>
+      <c r="BM80" s="35"/>
+    </row>
+    <row r="81" spans="60:65" x14ac:dyDescent="0.35">
+      <c r="BH81" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI81" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ81" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK81" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="BL81" s="35">
+        <v>85</v>
+      </c>
+      <c r="BM81" s="35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="60:65" x14ac:dyDescent="0.35">
+      <c r="BH82" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="BI71" s="64" t="s">
+      <c r="BI82" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="BJ71" s="46" t="s">
+      <c r="BJ82" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="BK71" s="49">
+      <c r="BK82" s="48">
         <v>3.16</v>
       </c>
-      <c r="BL71" s="29">
+      <c r="BL82" s="29">
         <v>25</v>
       </c>
-      <c r="BM71" s="29"/>
-      <c r="BN71" s="48"/>
-      <c r="BO71" s="30"/>
+      <c r="BM82" s="29"/>
     </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH72" s="102" t="s">
+    <row r="83" spans="60:65" x14ac:dyDescent="0.35">
+      <c r="BH83" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="BI72" s="103" t="s">
+      <c r="BI83" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="BJ72" s="46" t="s">
+      <c r="BJ83" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="BK72" s="49">
+      <c r="BK83" s="48">
         <v>2.64</v>
       </c>
-      <c r="BL72" s="29">
+      <c r="BL83" s="29">
         <v>43</v>
       </c>
-      <c r="BM72" s="105" t="s">
+      <c r="BM83" s="102" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH73" s="46" t="s">
+    <row r="84" spans="60:65" x14ac:dyDescent="0.35">
+      <c r="BH84" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="BI73" s="63" t="s">
+      <c r="BI84" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BJ73" s="46"/>
-      <c r="BK73" s="49"/>
-      <c r="BL73" s="29"/>
-      <c r="BM73" s="29"/>
+      <c r="BJ84" s="46"/>
+      <c r="BK84" s="48"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
     </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="BH74" s="46"/>
-      <c r="BI74" s="46"/>
-      <c r="BJ74" s="46"/>
-      <c r="BK74" s="49"/>
-      <c r="BL74" s="29"/>
-      <c r="BM74" s="29"/>
+    <row r="85" spans="60:65" x14ac:dyDescent="0.35">
+      <c r="BH85" s="46"/>
+      <c r="BI85" s="46"/>
+      <c r="BJ85" s="46"/>
+      <c r="BK85" s="48"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13879,7 +14148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13892,7 +14161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88214733-3FAE-488D-912E-30754A2E5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86704A-3DD2-4E92-9F30-64C550DF58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="545">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1666,16 +1666,28 @@
     <t>20230217</t>
   </si>
   <si>
-    <t>Eastcom/</t>
-  </si>
-  <si>
     <t>Laura on deployment with Dal, Chris land pilot.</t>
   </si>
   <si>
     <t>GLI2023_SEA022_91</t>
   </si>
   <si>
+    <t>19-Dec-16</t>
+  </si>
+  <si>
     <t>20221221</t>
+  </si>
+  <si>
+    <t>12/7/2016</t>
+  </si>
+  <si>
+    <t>20230411</t>
+  </si>
+  <si>
+    <t>Tri-GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-DR</t>
+  </si>
+  <si>
+    <t>Sigma-T/</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1811,7 +1823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,7 +1998,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,9 +2119,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2314,6 +2329,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2329,6 +2349,9 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2342,8 +2365,29 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2695,10 +2739,10 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AT51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AR54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV63" sqref="AV63"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2727,9 +2771,9 @@
     <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="83" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="83" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="83" customWidth="1"/>
+    <col min="27" max="27" width="20.54296875" style="82" customWidth="1"/>
+    <col min="28" max="28" width="20.54296875" style="82" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.54296875" style="82" customWidth="1"/>
     <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
@@ -2739,22 +2783,22 @@
     <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
     <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" style="84" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.36328125" style="83" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.81640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="84" customWidth="1"/>
-    <col min="45" max="45" width="12.81640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="84" customWidth="1"/>
+    <col min="43" max="43" width="16.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="83" customWidth="1"/>
+    <col min="45" max="45" width="12.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.81640625" style="83" customWidth="1"/>
     <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.81640625" style="84" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" style="84" customWidth="1"/>
-    <col min="53" max="53" width="14.81640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1796875" style="84" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.1796875" style="84" customWidth="1"/>
+    <col min="50" max="51" width="12.81640625" style="83" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="83" customWidth="1"/>
+    <col min="53" max="53" width="14.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.1796875" style="83" customWidth="1"/>
     <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
     <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
     <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
@@ -2771,10 +2815,10 @@
     <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>438</v>
       </c>
       <c r="F1" s="24"/>
@@ -2828,26 +2872,26 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+    <row r="2" spans="1:67" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="71" t="s">
         <v>244</v>
       </c>
       <c r="I2" s="31" t="s">
@@ -2856,22 +2900,22 @@
       <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="71" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2889,28 +2933,28 @@
       <c r="U2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="74" t="s">
+      <c r="V2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="74" t="s">
+      <c r="W2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="Y2" s="74" t="s">
+      <c r="Y2" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="AA2" s="74" t="s">
+      <c r="AA2" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="AB2" s="74" t="s">
+      <c r="AB2" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="73" t="s">
         <v>410</v>
       </c>
       <c r="AD2" s="32" t="s">
@@ -2925,106 +2969,106 @@
       <c r="AG2" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="74" t="s">
+      <c r="AH2" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="74" t="s">
+      <c r="AI2" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="74" t="s">
+      <c r="AJ2" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="77" t="s">
+      <c r="AL2" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="76" t="s">
+      <c r="AM2" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="AN2" s="76" t="s">
+      <c r="AN2" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="AO2" s="77" t="s">
+      <c r="AO2" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="77" t="s">
+      <c r="AP2" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="AQ2" s="76" t="s">
+      <c r="AQ2" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="AR2" s="76" t="s">
+      <c r="AR2" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="76" t="s">
+      <c r="AS2" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="AT2" s="76" t="s">
+      <c r="AT2" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="AU2" s="77" t="s">
+      <c r="AU2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="76" t="s">
+      <c r="AV2" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="AW2" s="78" t="s">
+      <c r="AW2" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="AX2" s="76" t="s">
+      <c r="AX2" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="AY2" s="76" t="s">
+      <c r="AY2" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="AZ2" s="76" t="s">
+      <c r="AZ2" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="BA2" s="76" t="s">
+      <c r="BA2" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="76" t="s">
+      <c r="BB2" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="BC2" s="76" t="s">
+      <c r="BC2" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="76" t="s">
+      <c r="BD2" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="BE2" s="76" t="s">
+      <c r="BE2" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="BF2" s="79" t="s">
+      <c r="BF2" s="78" t="s">
         <v>171</v>
       </c>
       <c r="BG2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="BH2" s="76" t="s">
+      <c r="BH2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="76" t="s">
+      <c r="BI2" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="BJ2" s="76" t="s">
+      <c r="BJ2" s="75" t="s">
         <v>229</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="BL2" s="80" t="s">
+      <c r="BL2" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="BM2" s="80" t="s">
+      <c r="BM2" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="BN2" s="81" t="s">
+      <c r="BN2" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="82" t="s">
+      <c r="BO2" s="81" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3041,7 +3085,7 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="94">
         <v>36</v>
       </c>
       <c r="F3" s="11">
@@ -3199,10 +3243,10 @@
       </c>
     </row>
     <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="88">
+      <c r="A4" s="87">
         <v>2</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -3211,7 +3255,7 @@
       <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="95">
         <v>43</v>
       </c>
       <c r="F4" s="11">
@@ -3381,7 +3425,7 @@
       <c r="D5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <v>30</v>
       </c>
       <c r="F5" s="35">
@@ -3553,7 +3597,7 @@
       <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="95">
         <v>49</v>
       </c>
       <c r="F6" s="45">
@@ -3724,7 +3768,7 @@
       <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="95">
         <v>33</v>
       </c>
       <c r="F7" s="35">
@@ -3896,7 +3940,7 @@
       <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="96">
+      <c r="E8" s="95">
         <v>25</v>
       </c>
       <c r="F8" s="35">
@@ -4066,7 +4110,7 @@
       <c r="D9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="95">
         <v>32</v>
       </c>
       <c r="F9" s="35">
@@ -4236,7 +4280,7 @@
       <c r="D10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="95">
         <v>54</v>
       </c>
       <c r="F10" s="35">
@@ -4389,7 +4433,7 @@
       <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="BO10" s="53" t="s">
+      <c r="BO10" s="52" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4406,7 +4450,7 @@
       <c r="D11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="96">
+      <c r="E11" s="95">
         <v>32</v>
       </c>
       <c r="F11" s="35">
@@ -4559,7 +4603,7 @@
       <c r="BN11" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO11" s="53" t="s">
+      <c r="BO11" s="52" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4576,7 +4620,7 @@
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="95">
         <v>26</v>
       </c>
       <c r="F12" s="35">
@@ -4733,7 +4777,7 @@
       <c r="BN12" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO12" s="53" t="s">
+      <c r="BO12" s="52" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4750,7 +4794,7 @@
       <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="95">
         <v>34</v>
       </c>
       <c r="F13" s="35">
@@ -4905,7 +4949,7 @@
       <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="BO13" s="54" t="s">
+      <c r="BO13" s="53" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4922,7 +4966,7 @@
       <c r="D14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="95">
         <v>39</v>
       </c>
       <c r="F14" s="35">
@@ -5092,7 +5136,7 @@
       <c r="D15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="95">
         <v>30</v>
       </c>
       <c r="F15" s="35">
@@ -5266,7 +5310,7 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="95">
         <v>49</v>
       </c>
       <c r="F16" s="35">
@@ -5408,7 +5452,7 @@
       <c r="BI16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ16" s="98" t="s">
+      <c r="BJ16" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK16" s="3"/>
@@ -5426,10 +5470,10 @@
       </c>
     </row>
     <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="90">
+      <c r="A17" s="89">
         <v>13</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -5438,7 +5482,7 @@
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="95">
         <v>58</v>
       </c>
       <c r="F17" s="35">
@@ -5579,7 +5623,7 @@
       <c r="BI17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="BJ17" s="98" t="s">
+      <c r="BJ17" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK17" s="3"/>
@@ -5609,7 +5653,7 @@
       <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="95">
         <v>51</v>
       </c>
       <c r="F18" s="14">
@@ -5780,7 +5824,7 @@
       <c r="D19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="96">
+      <c r="E19" s="95">
         <v>60</v>
       </c>
       <c r="F19" s="14">
@@ -5894,7 +5938,7 @@
       <c r="AV19" s="16">
         <v>42691</v>
       </c>
-      <c r="AW19" s="55" t="s">
+      <c r="AW19" s="54" t="s">
         <v>168</v>
       </c>
       <c r="AX19" s="15"/>
@@ -5911,10 +5955,10 @@
       <c r="BG19" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH19" s="56" t="s">
+      <c r="BH19" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BI19" s="56" t="s">
+      <c r="BI19" s="55" t="s">
         <v>119</v>
       </c>
       <c r="BJ19" s="22"/>
@@ -5933,7 +5977,7 @@
       </c>
     </row>
     <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="20"/>
@@ -5996,7 +6040,7 @@
       <c r="BD20" s="22"/>
       <c r="BE20" s="22"/>
       <c r="BF20" s="20"/>
-      <c r="BG20" s="51"/>
+      <c r="BG20" s="50"/>
       <c r="BH20" s="22"/>
       <c r="BI20" s="22"/>
       <c r="BJ20" s="22"/>
@@ -6009,7 +6053,7 @@
       <c r="BO20" s="21"/>
     </row>
     <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86">
+      <c r="A21" s="85">
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -6021,7 +6065,7 @@
       <c r="D21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="95">
         <v>38</v>
       </c>
       <c r="F21" s="14">
@@ -6162,7 +6206,7 @@
       <c r="BI21" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ21" s="98" t="s">
+      <c r="BJ21" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK21" s="2"/>
@@ -6180,7 +6224,7 @@
       </c>
     </row>
     <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="86">
+      <c r="A22" s="85">
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -6192,7 +6236,7 @@
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="95">
         <v>35</v>
       </c>
       <c r="F22" s="14">
@@ -6334,7 +6378,7 @@
       <c r="BI22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ22" s="98" t="s">
+      <c r="BJ22" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK22" s="2"/>
@@ -6364,7 +6408,7 @@
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="95">
         <v>44</v>
       </c>
       <c r="F23" s="14">
@@ -6506,7 +6550,7 @@
       <c r="BI23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ23" s="98" t="s">
+      <c r="BJ23" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK23" s="2"/>
@@ -6536,7 +6580,7 @@
       <c r="D24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="95">
         <v>46</v>
       </c>
       <c r="F24" s="14">
@@ -6678,7 +6722,7 @@
       <c r="BI24" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ24" s="98" t="s">
+      <c r="BJ24" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK24" s="2"/>
@@ -6708,7 +6752,7 @@
       <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="96">
+      <c r="E25" s="95">
         <v>40</v>
       </c>
       <c r="F25" s="14">
@@ -6720,10 +6764,10 @@
       <c r="H25" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="56">
         <v>29</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="56">
         <v>26</v>
       </c>
       <c r="K25" s="14">
@@ -6861,7 +6905,7 @@
       <c r="BN25" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="BO25" s="52" t="s">
+      <c r="BO25" s="51" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6878,7 +6922,7 @@
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="96">
+      <c r="E26" s="95">
         <v>54</v>
       </c>
       <c r="F26" s="14">
@@ -7011,13 +7055,13 @@
       <c r="BG26" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="BH26" s="56" t="s">
+      <c r="BH26" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="BI26" s="56" t="s">
+      <c r="BI26" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="BJ26" s="98" t="s">
+      <c r="BJ26" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK26" s="2"/>
@@ -7047,7 +7091,7 @@
       <c r="D27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="96">
+      <c r="E27" s="95">
         <v>48</v>
       </c>
       <c r="F27" s="14">
@@ -7190,7 +7234,7 @@
       <c r="BI27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ27" s="98" t="s">
+      <c r="BJ27" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK27" s="2"/>
@@ -7220,7 +7264,7 @@
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="95">
         <v>43</v>
       </c>
       <c r="F28" s="14">
@@ -7372,7 +7416,7 @@
       <c r="BN28" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="BO28" s="52" t="s">
+      <c r="BO28" s="51" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7389,7 +7433,7 @@
       <c r="D29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="95">
         <v>72</v>
       </c>
       <c r="F29" s="14">
@@ -7522,7 +7566,7 @@
       <c r="BF29" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG29" s="51" t="s">
+      <c r="BG29" s="50" t="s">
         <v>174</v>
       </c>
       <c r="BH29" s="15" t="s">
@@ -7531,7 +7575,7 @@
       <c r="BI29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="BJ29" s="98" t="s">
+      <c r="BJ29" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK29" s="2"/>
@@ -7561,7 +7605,7 @@
       <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="96">
+      <c r="E30" s="95">
         <v>43</v>
       </c>
       <c r="F30" s="14">
@@ -7681,7 +7725,7 @@
       <c r="BF30" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BG30" s="51" t="s">
+      <c r="BG30" s="50" t="s">
         <v>174</v>
       </c>
       <c r="BH30" s="22" t="s">
@@ -7718,7 +7762,7 @@
       <c r="D31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="96">
+      <c r="E31" s="95">
         <v>45</v>
       </c>
       <c r="F31" s="14">
@@ -7860,7 +7904,7 @@
       <c r="BI31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="BJ31" s="98" t="s">
+      <c r="BJ31" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK31" s="2"/>
@@ -7890,7 +7934,7 @@
       <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="95">
         <v>76</v>
       </c>
       <c r="F32" s="14">
@@ -8031,7 +8075,7 @@
       <c r="BI32" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="BJ32" s="98" t="s">
+      <c r="BJ32" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK32" s="2"/>
@@ -8049,10 +8093,10 @@
       </c>
     </row>
     <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="88">
+      <c r="A33" s="87">
         <v>14</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -8061,7 +8105,7 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="96">
+      <c r="E33" s="95">
         <v>53</v>
       </c>
       <c r="F33" s="14">
@@ -8207,7 +8251,7 @@
       <c r="BI33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BJ33" s="98" t="s">
+      <c r="BJ33" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK33" s="2"/>
@@ -8381,7 +8425,7 @@
       <c r="D36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="96">
+      <c r="E36" s="95">
         <v>78</v>
       </c>
       <c r="F36" s="35">
@@ -8523,7 +8567,7 @@
       <c r="BI36" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ36" s="98" t="s">
+      <c r="BJ36" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK36" s="3"/>
@@ -8553,7 +8597,7 @@
       <c r="D37" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="96">
+      <c r="E37" s="95">
         <v>50</v>
       </c>
       <c r="F37" s="35">
@@ -8571,10 +8615,10 @@
       <c r="J37" s="3">
         <v>26.1</v>
       </c>
-      <c r="K37" s="58">
+      <c r="K37" s="57">
         <v>44.4803</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="57">
         <v>-63.425199999999997</v>
       </c>
       <c r="M37" s="37">
@@ -8694,7 +8738,7 @@
       <c r="BI37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="BJ37" s="98" t="s">
+      <c r="BJ37" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
@@ -8726,7 +8770,7 @@
       <c r="D38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="96">
+      <c r="E38" s="95">
         <v>46</v>
       </c>
       <c r="F38" s="35">
@@ -8744,10 +8788,10 @@
       <c r="J38" s="3">
         <v>26.3</v>
       </c>
-      <c r="K38" s="59">
+      <c r="K38" s="58">
         <v>44.477899999999998</v>
       </c>
-      <c r="L38" s="59">
+      <c r="L38" s="58">
         <v>-63.423400000000001</v>
       </c>
       <c r="M38" s="37">
@@ -8855,7 +8899,7 @@
       <c r="BI38" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ38" s="98" t="s">
+      <c r="BJ38" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
@@ -8887,7 +8931,7 @@
       <c r="D39" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="96">
+      <c r="E39" s="95">
         <v>58</v>
       </c>
       <c r="F39" s="35">
@@ -9061,7 +9105,7 @@
       <c r="D40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="96">
+      <c r="E40" s="95">
         <v>60</v>
       </c>
       <c r="F40" s="35">
@@ -9235,7 +9279,7 @@
       <c r="D41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="96">
+      <c r="E41" s="95">
         <v>61</v>
       </c>
       <c r="F41" s="35">
@@ -9253,10 +9297,10 @@
       <c r="J41" s="3">
         <v>25.3</v>
       </c>
-      <c r="K41" s="58">
+      <c r="K41" s="57">
         <v>48.7239</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="57">
         <v>-52.982300000000002</v>
       </c>
       <c r="M41" s="37">
@@ -9409,7 +9453,7 @@
       <c r="D42" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="96">
+      <c r="E42" s="95">
         <v>84</v>
       </c>
       <c r="F42" s="35">
@@ -9558,7 +9602,7 @@
       <c r="BI42" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="BJ42" s="98" t="s">
+      <c r="BJ42" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
@@ -9590,7 +9634,7 @@
       <c r="D43" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="96">
+      <c r="E43" s="95">
         <v>51</v>
       </c>
       <c r="F43" s="35">
@@ -9678,7 +9722,7 @@
       <c r="AJ43" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="AK43" s="68">
+      <c r="AK43" s="67">
         <v>30</v>
       </c>
       <c r="AL43" s="34" t="s">
@@ -9702,13 +9746,13 @@
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
-      <c r="AU43" s="65" t="s">
+      <c r="AU43" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AV43" s="66">
+      <c r="AV43" s="65">
         <v>42723</v>
       </c>
-      <c r="AW43" s="67" t="s">
+      <c r="AW43" s="66" t="s">
         <v>168</v>
       </c>
       <c r="AX43" s="38"/>
@@ -9725,13 +9769,13 @@
       <c r="BG43" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="BH43" s="64" t="s">
+      <c r="BH43" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="BI43" s="64" t="s">
+      <c r="BI43" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="BJ43" s="98" t="s">
+      <c r="BJ43" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
@@ -9761,7 +9805,7 @@
       <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="95">
         <v>57</v>
       </c>
       <c r="F44" s="35">
@@ -9918,10 +9962,10 @@
       </c>
     </row>
     <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="90">
+      <c r="A45" s="89">
         <v>10</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="88" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -9930,7 +9974,7 @@
       <c r="D45" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="96">
+      <c r="E45" s="95">
         <v>64</v>
       </c>
       <c r="F45" s="35">
@@ -10020,7 +10064,7 @@
       <c r="AJ45" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="AK45" s="68">
+      <c r="AK45" s="67">
         <v>42</v>
       </c>
       <c r="AL45" s="34" t="s">
@@ -10052,7 +10096,7 @@
       <c r="AV45" s="39">
         <v>42859</v>
       </c>
-      <c r="AW45" s="91" t="s">
+      <c r="AW45" s="90" t="s">
         <v>168</v>
       </c>
       <c r="AX45" s="38"/>
@@ -10103,7 +10147,7 @@
       <c r="D46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="96">
+      <c r="E46" s="95">
         <v>59</v>
       </c>
       <c r="F46" s="14">
@@ -10212,9 +10256,9 @@
       <c r="AQ46" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
+      <c r="AR46" s="84"/>
+      <c r="AS46" s="84"/>
+      <c r="AT46" s="84"/>
       <c r="AU46" s="20" t="s">
         <v>74</v>
       </c>
@@ -10224,14 +10268,14 @@
       <c r="AW46" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="85"/>
-      <c r="BA46" s="85"/>
-      <c r="BB46" s="85"/>
-      <c r="BC46" s="92"/>
-      <c r="BD46" s="92"/>
-      <c r="BE46" s="92"/>
+      <c r="AX46" s="84"/>
+      <c r="AY46" s="84"/>
+      <c r="AZ46" s="84"/>
+      <c r="BA46" s="84"/>
+      <c r="BB46" s="84"/>
+      <c r="BC46" s="91"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="91"/>
       <c r="BF46" s="10" t="s">
         <v>236</v>
       </c>
@@ -10244,7 +10288,7 @@
       <c r="BI46" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ46" s="98" t="s">
+      <c r="BJ46" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
@@ -10274,7 +10318,7 @@
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="96">
+      <c r="E47" s="95">
         <v>94</v>
       </c>
       <c r="F47" s="14">
@@ -10396,11 +10440,11 @@
       <c r="AW47" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AX47" s="85"/>
-      <c r="AY47" s="85"/>
-      <c r="AZ47" s="85"/>
-      <c r="BA47" s="85"/>
-      <c r="BB47" s="85"/>
+      <c r="AX47" s="84"/>
+      <c r="AY47" s="84"/>
+      <c r="AZ47" s="84"/>
+      <c r="BA47" s="84"/>
+      <c r="BB47" s="84"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
@@ -10410,13 +10454,13 @@
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH47" s="56" t="s">
+      <c r="BH47" s="55" t="s">
         <v>283</v>
       </c>
       <c r="BI47" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="BJ47" s="98" t="s">
+      <c r="BJ47" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
@@ -10446,7 +10490,7 @@
       <c r="D48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="96">
+      <c r="E48" s="95">
         <v>66</v>
       </c>
       <c r="F48" s="14">
@@ -10552,7 +10596,7 @@
       <c r="AP48" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ48" s="94">
+      <c r="AQ48" s="93">
         <v>20210105</v>
       </c>
       <c r="AR48" s="22"/>
@@ -10567,11 +10611,11 @@
       <c r="AW48" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX48" s="85"/>
-      <c r="AY48" s="85"/>
-      <c r="AZ48" s="85"/>
-      <c r="BA48" s="85"/>
-      <c r="BB48" s="85"/>
+      <c r="AX48" s="84"/>
+      <c r="AY48" s="84"/>
+      <c r="AZ48" s="84"/>
+      <c r="BA48" s="84"/>
+      <c r="BB48" s="84"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
@@ -10587,7 +10631,7 @@
       <c r="BI48" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ48" s="98" t="s">
+      <c r="BJ48" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
@@ -10617,7 +10661,7 @@
       <c r="D49" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="96">
+      <c r="E49" s="95">
         <v>60</v>
       </c>
       <c r="F49" s="14">
@@ -10758,7 +10802,7 @@
       <c r="BI49" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ49" s="98" t="s">
+      <c r="BJ49" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
@@ -10788,7 +10832,7 @@
       <c r="D50" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="95">
         <v>63</v>
       </c>
       <c r="F50" s="14">
@@ -10913,14 +10957,14 @@
       <c r="AV50" s="16">
         <v>42859</v>
       </c>
-      <c r="AW50" s="93" t="s">
+      <c r="AW50" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="AX50" s="85"/>
-      <c r="AY50" s="85"/>
-      <c r="AZ50" s="85"/>
-      <c r="BA50" s="85"/>
-      <c r="BB50" s="85"/>
+      <c r="AX50" s="84"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="84"/>
+      <c r="BB50" s="84"/>
       <c r="BC50" s="15" t="s">
         <v>416</v>
       </c>
@@ -10970,7 +11014,7 @@
       <c r="D51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="96">
+      <c r="E51" s="95">
         <v>68</v>
       </c>
       <c r="F51" s="14">
@@ -11076,7 +11120,7 @@
       <c r="AP51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ51" s="94">
+      <c r="AQ51" s="93">
         <v>20210105</v>
       </c>
       <c r="AR51" s="22"/>
@@ -11091,11 +11135,11 @@
       <c r="AW51" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX51" s="85"/>
-      <c r="AY51" s="85"/>
-      <c r="AZ51" s="85"/>
-      <c r="BA51" s="85"/>
-      <c r="BB51" s="85"/>
+      <c r="AX51" s="84"/>
+      <c r="AY51" s="84"/>
+      <c r="AZ51" s="84"/>
+      <c r="BA51" s="84"/>
+      <c r="BB51" s="84"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
@@ -11111,7 +11155,7 @@
       <c r="BI51" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ51" s="98" t="s">
+      <c r="BJ51" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
@@ -11141,7 +11185,7 @@
       <c r="D52" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="96">
+      <c r="E52" s="95">
         <v>62</v>
       </c>
       <c r="F52" s="14">
@@ -11282,7 +11326,7 @@
       <c r="BI52" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ52" s="98" t="s">
+      <c r="BJ52" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
@@ -11312,7 +11356,7 @@
       <c r="D53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="96">
+      <c r="E53" s="95">
         <v>65</v>
       </c>
       <c r="F53" s="14">
@@ -11437,7 +11481,7 @@
       <c r="AV53" s="16">
         <v>42859</v>
       </c>
-      <c r="AW53" s="93" t="s">
+      <c r="AW53" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX53" s="15"/>
@@ -11494,7 +11538,7 @@
       <c r="D54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="96">
+      <c r="E54" s="95">
         <v>67</v>
       </c>
       <c r="F54" s="14">
@@ -11618,7 +11662,7 @@
       <c r="AV54" s="16">
         <v>42859</v>
       </c>
-      <c r="AW54" s="93" t="s">
+      <c r="AW54" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX54" s="15"/>
@@ -11675,7 +11719,7 @@
       <c r="D55" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="96">
+      <c r="E55" s="95">
         <v>70</v>
       </c>
       <c r="F55" s="14">
@@ -11781,7 +11825,7 @@
       <c r="AP55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="AQ55" s="94">
+      <c r="AQ55" s="93">
         <v>20210105</v>
       </c>
       <c r="AR55" s="22"/>
@@ -11796,11 +11840,11 @@
       <c r="AW55" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AX55" s="85"/>
-      <c r="AY55" s="85"/>
-      <c r="AZ55" s="85"/>
-      <c r="BA55" s="85"/>
-      <c r="BB55" s="85"/>
+      <c r="AX55" s="84"/>
+      <c r="AY55" s="84"/>
+      <c r="AZ55" s="84"/>
+      <c r="BA55" s="84"/>
+      <c r="BB55" s="84"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
@@ -11816,7 +11860,7 @@
       <c r="BI55" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="BJ55" s="98" t="s">
+      <c r="BJ55" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
@@ -11848,7 +11892,7 @@
       <c r="D56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="96">
+      <c r="E56" s="95">
         <v>65</v>
       </c>
       <c r="F56" s="14">
@@ -11989,7 +12033,7 @@
       <c r="BI56" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="BJ56" s="98" t="s">
+      <c r="BJ56" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
@@ -12021,7 +12065,7 @@
       <c r="D57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="96">
+      <c r="E57" s="95">
         <v>69</v>
       </c>
       <c r="F57" s="14">
@@ -12150,7 +12194,7 @@
       <c r="AV57" s="16">
         <v>42859</v>
       </c>
-      <c r="AW57" s="93" t="s">
+      <c r="AW57" s="92" t="s">
         <v>168</v>
       </c>
       <c r="AX57" s="22"/>
@@ -12207,7 +12251,7 @@
       <c r="D58" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="96">
+      <c r="E58" s="95">
         <v>97</v>
       </c>
       <c r="F58" s="14">
@@ -12349,7 +12393,7 @@
       <c r="BI58" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="BJ58" s="98" t="s">
+      <c r="BJ58" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
@@ -12538,7 +12582,7 @@
       </c>
     </row>
     <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="86">
+      <c r="A60" s="85">
         <v>15</v>
       </c>
       <c r="B60" s="2">
@@ -12823,7 +12867,7 @@
       <c r="AJ61" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="AK61" s="68">
+      <c r="AK61" s="67">
         <v>30</v>
       </c>
       <c r="AL61" s="34" t="s">
@@ -12891,295 +12935,295 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="23">
+    <row r="62" spans="1:67" s="129" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="129">
         <v>2</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="130">
         <v>20220908</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="131" t="s">
         <v>520</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="132">
         <v>88</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="132">
         <v>4800993</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="133" t="s">
         <v>523</v>
       </c>
-      <c r="I62" s="106">
+      <c r="I62" s="134">
         <v>29.2</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="134">
         <v>25.4</v>
       </c>
-      <c r="K62" s="35">
+      <c r="K62" s="132">
         <v>44.378300000000003</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="132">
         <v>-63.333199999999998</v>
       </c>
-      <c r="M62" s="37">
+      <c r="M62" s="133">
         <v>42.47</v>
       </c>
-      <c r="N62" s="37">
+      <c r="N62" s="133">
         <v>-63.33</v>
       </c>
-      <c r="O62" s="37">
+      <c r="O62" s="133">
         <v>44.37</v>
       </c>
-      <c r="P62" s="37">
+      <c r="P62" s="133">
         <v>-61.44</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" s="134" t="s">
         <v>521</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="134">
         <v>21</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="134">
         <v>596.82000000000005</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="134">
         <v>1098</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="134">
         <v>1091</v>
       </c>
-      <c r="V62" s="37" t="s">
+      <c r="V62" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="W62" s="37" t="s">
+      <c r="W62" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="X62" s="37" t="s">
+      <c r="X62" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="Y62" s="37" t="s">
+      <c r="Y62" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="3">
+      <c r="Z62" s="133"/>
+      <c r="AA62" s="133"/>
+      <c r="AB62" s="133"/>
+      <c r="AC62" s="133"/>
+      <c r="AD62" s="134">
         <v>0</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AE62" s="134">
         <v>0</v>
       </c>
-      <c r="AF62" s="3">
+      <c r="AF62" s="134">
         <v>0</v>
       </c>
-      <c r="AG62" s="3">
+      <c r="AG62" s="134">
         <v>1021.9</v>
       </c>
-      <c r="AH62" s="37">
+      <c r="AH62" s="133">
         <v>20220902</v>
       </c>
-      <c r="AI62" s="37" t="s">
+      <c r="AI62" s="133" t="s">
         <v>513</v>
       </c>
-      <c r="AJ62" s="107" t="s">
+      <c r="AJ62" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="AK62" s="35">
+      <c r="AK62" s="132">
         <v>30</v>
       </c>
-      <c r="AL62" s="34" t="s">
+      <c r="AL62" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="AM62" s="38" t="s">
+      <c r="AM62" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="AN62" s="38" t="s">
+      <c r="AN62" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="AO62" s="34" t="s">
+      <c r="AO62" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="AP62" s="34" t="s">
+      <c r="AP62" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="AQ62" s="48">
+      <c r="AQ62" s="130">
         <v>20210105</v>
       </c>
-      <c r="AR62" s="38"/>
-      <c r="AS62" s="38"/>
-      <c r="AT62" s="38"/>
-      <c r="AU62" s="34" t="s">
+      <c r="AR62" s="135"/>
+      <c r="AS62" s="135"/>
+      <c r="AT62" s="135"/>
+      <c r="AU62" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="AV62" s="39">
+      <c r="AV62" s="136">
         <v>42723</v>
       </c>
-      <c r="AW62" s="40" t="s">
+      <c r="AW62" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="AX62" s="38"/>
-      <c r="AY62" s="38"/>
-      <c r="AZ62" s="38"/>
-      <c r="BA62" s="38"/>
-      <c r="BB62" s="38"/>
-      <c r="BC62" s="38"/>
-      <c r="BD62" s="38"/>
-      <c r="BE62" s="38"/>
-      <c r="BF62" s="41" t="s">
+      <c r="AX62" s="135"/>
+      <c r="AY62" s="135"/>
+      <c r="AZ62" s="135"/>
+      <c r="BA62" s="135"/>
+      <c r="BB62" s="135"/>
+      <c r="BC62" s="135"/>
+      <c r="BD62" s="135"/>
+      <c r="BE62" s="135"/>
+      <c r="BF62" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="BG62" s="42" t="s">
+      <c r="BG62" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="BH62" s="40" t="s">
+      <c r="BH62" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="BI62" s="38" t="s">
+      <c r="BI62" s="135" t="s">
         <v>330</v>
       </c>
-      <c r="BJ62" s="105">
+      <c r="BJ62" s="140">
         <v>200206</v>
       </c>
-      <c r="BK62" s="105"/>
-      <c r="BL62" s="3" t="s">
+      <c r="BK62" s="140"/>
+      <c r="BL62" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="BM62" s="3" t="s">
+      <c r="BM62" s="134" t="s">
         <v>518</v>
       </c>
-      <c r="BN62" s="37" t="s">
+      <c r="BN62" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="BO62" s="43"/>
+      <c r="BO62" s="141"/>
     </row>
-    <row r="63" spans="1:67" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="108">
+    <row r="63" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="107">
         <v>3</v>
       </c>
-      <c r="B63" s="106">
+      <c r="B63" s="105">
         <v>20220915</v>
       </c>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="110">
+      <c r="E63" s="109">
         <v>73</v>
       </c>
       <c r="F63" s="14">
         <v>4800937</v>
       </c>
-      <c r="G63" s="110" t="s">
+      <c r="G63" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="107" t="s">
+      <c r="H63" s="106" t="s">
         <v>519</v>
       </c>
-      <c r="I63" s="111">
+      <c r="I63" s="110">
         <v>29.2</v>
       </c>
-      <c r="J63" s="106">
+      <c r="J63" s="105">
         <v>25.5</v>
       </c>
-      <c r="K63" s="110">
+      <c r="K63" s="109">
         <v>48.731299999999997</v>
       </c>
-      <c r="L63" s="110">
+      <c r="L63" s="109">
         <v>-52.952100000000002</v>
       </c>
-      <c r="M63" s="107">
+      <c r="M63" s="106">
         <v>47.76</v>
       </c>
-      <c r="N63" s="107">
+      <c r="N63" s="106">
         <v>-53.68</v>
       </c>
-      <c r="O63" s="107">
+      <c r="O63" s="106">
         <v>49.97</v>
       </c>
-      <c r="P63" s="107">
+      <c r="P63" s="106">
         <v>-50.68</v>
       </c>
-      <c r="Q63" s="106" t="s">
+      <c r="Q63" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="R63" s="106">
+      <c r="R63" s="105">
         <v>20.100000000000001</v>
       </c>
-      <c r="S63" s="106">
+      <c r="S63" s="105">
         <v>599.05999999999995</v>
       </c>
-      <c r="T63" s="106">
+      <c r="T63" s="105">
         <v>528</v>
       </c>
-      <c r="U63" s="106">
+      <c r="U63" s="105">
         <v>1056</v>
       </c>
-      <c r="V63" s="107" t="s">
+      <c r="V63" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="W63" s="107">
+      <c r="W63" s="106">
         <v>1</v>
       </c>
-      <c r="X63" s="107" t="s">
+      <c r="X63" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="Y63" s="107" t="s">
+      <c r="Y63" s="106" t="s">
         <v>188</v>
       </c>
       <c r="Z63" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AA63" s="107"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="107"/>
-      <c r="AD63" s="106">
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="106"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="105">
         <v>0</v>
       </c>
-      <c r="AE63" s="106">
+      <c r="AE63" s="105">
         <v>0</v>
       </c>
-      <c r="AF63" s="106">
+      <c r="AF63" s="105">
         <v>0</v>
       </c>
-      <c r="AG63" s="106">
+      <c r="AG63" s="105">
         <v>1024</v>
       </c>
-      <c r="AH63" s="107">
+      <c r="AH63" s="106">
         <v>20220506</v>
       </c>
-      <c r="AI63" s="107" t="s">
+      <c r="AI63" s="106" t="s">
         <v>513</v>
       </c>
-      <c r="AJ63" s="107" t="s">
+      <c r="AJ63" s="106" t="s">
         <v>517</v>
       </c>
-      <c r="AK63" s="110">
+      <c r="AK63" s="109">
         <v>42</v>
       </c>
-      <c r="AL63" s="109" t="s">
+      <c r="AL63" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="AM63" s="112" t="s">
+      <c r="AM63" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="AN63" s="112" t="s">
+      <c r="AN63" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="AO63" s="109" t="s">
+      <c r="AO63" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="AP63" s="109"/>
-      <c r="AQ63" s="112"/>
+      <c r="AP63" s="108"/>
+      <c r="AQ63" s="111"/>
       <c r="AR63" s="22" t="s">
         <v>87</v>
       </c>
@@ -13189,554 +13233,654 @@
       <c r="AT63" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AU63" s="109" t="s">
+      <c r="AU63" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="AV63" s="113">
+      <c r="AV63" s="112">
         <v>42723</v>
       </c>
-      <c r="AW63" s="112" t="s">
+      <c r="AW63" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="AX63" s="112"/>
-      <c r="AY63" s="112"/>
-      <c r="AZ63" s="112"/>
-      <c r="BA63" s="112"/>
-      <c r="BB63" s="112"/>
-      <c r="BC63" s="112" t="s">
+      <c r="AX63" s="111"/>
+      <c r="AY63" s="111"/>
+      <c r="AZ63" s="111"/>
+      <c r="BA63" s="111"/>
+      <c r="BB63" s="111"/>
+      <c r="BC63" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="BD63" s="114" t="s">
+      <c r="BD63" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="BE63" s="112" t="s">
+      <c r="BE63" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="BF63" s="115" t="s">
+      <c r="BF63" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="BG63" s="116" t="s">
+      <c r="BG63" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="BH63" s="114" t="s">
+      <c r="BH63" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="BI63" s="112" t="s">
+      <c r="BI63" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="BJ63" s="112"/>
-      <c r="BK63" s="106"/>
-      <c r="BL63" s="110" t="s">
+      <c r="BJ63" s="111"/>
+      <c r="BK63" s="105"/>
+      <c r="BL63" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="BM63" s="110" t="s">
+      <c r="BM63" s="109" t="s">
         <v>518</v>
       </c>
-      <c r="BN63" s="107" t="s">
+      <c r="BN63" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="BO63" s="117"/>
+      <c r="BO63" s="116"/>
     </row>
-    <row r="64" spans="1:67" s="108" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="108">
+    <row r="64" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="107">
         <v>4</v>
       </c>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="C64" s="109" t="s">
+      <c r="C64" s="108" t="s">
         <v>534</v>
       </c>
-      <c r="D64" s="110" t="s">
+      <c r="D64" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="110">
+      <c r="E64" s="109">
         <v>69</v>
       </c>
-      <c r="F64" s="110">
+      <c r="F64" s="109">
         <v>4800926</v>
       </c>
-      <c r="G64" s="110" t="s">
+      <c r="G64" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="107" t="s">
+      <c r="H64" s="106" t="s">
         <v>531</v>
       </c>
-      <c r="I64" s="106">
+      <c r="I64" s="105">
         <v>29.2</v>
       </c>
-      <c r="J64" s="106">
+      <c r="J64" s="105">
         <v>25.1</v>
       </c>
-      <c r="K64" s="110">
+      <c r="K64" s="109">
         <v>44.519300000000001</v>
       </c>
-      <c r="L64" s="110">
+      <c r="L64" s="109">
         <v>-63.410800000000002</v>
       </c>
-      <c r="M64" s="107">
+      <c r="M64" s="106">
         <v>43.039700000000003</v>
       </c>
-      <c r="N64" s="107">
+      <c r="N64" s="106">
         <v>-63.24</v>
       </c>
-      <c r="O64" s="107">
+      <c r="O64" s="106">
         <v>44.546199999999999</v>
       </c>
-      <c r="P64" s="107">
+      <c r="P64" s="106">
         <v>-62.02</v>
       </c>
-      <c r="Q64" s="106" t="s">
+      <c r="Q64" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="R64" s="106">
+      <c r="R64" s="105">
         <v>18.899999999999999</v>
       </c>
-      <c r="S64" s="106">
+      <c r="S64" s="105">
         <v>452.05</v>
       </c>
-      <c r="T64" s="106">
+      <c r="T64" s="105">
         <v>1239</v>
       </c>
-      <c r="U64" s="106">
+      <c r="U64" s="105">
         <v>2478</v>
       </c>
-      <c r="V64" s="107" t="s">
+      <c r="V64" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="W64" s="107" t="s">
+      <c r="W64" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="X64" s="107" t="s">
+      <c r="X64" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="Y64" s="107" t="s">
+      <c r="Y64" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="Z64" s="107"/>
-      <c r="AA64" s="107"/>
-      <c r="AB64" s="107">
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106">
         <v>1</v>
       </c>
-      <c r="AC64" s="107"/>
-      <c r="AD64" s="106">
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="105">
         <v>0</v>
       </c>
-      <c r="AE64" s="106">
+      <c r="AE64" s="105">
         <v>0</v>
       </c>
-      <c r="AF64" s="106">
+      <c r="AF64" s="105">
         <v>0</v>
       </c>
-      <c r="AG64" s="106">
+      <c r="AG64" s="105">
         <v>1024.9000000000001</v>
       </c>
-      <c r="AH64" s="107">
+      <c r="AH64" s="106">
         <v>20230208</v>
       </c>
-      <c r="AI64" s="107" t="s">
+      <c r="AI64" s="106" t="s">
         <v>513</v>
       </c>
-      <c r="AJ64" s="107" t="s">
+      <c r="AJ64" s="106" t="s">
         <v>525</v>
       </c>
-      <c r="AK64" s="110">
+      <c r="AK64" s="109">
         <v>29</v>
       </c>
-      <c r="AL64" s="109" t="s">
+      <c r="AL64" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="AM64" s="112" t="s">
+      <c r="AM64" s="111" t="s">
         <v>526</v>
       </c>
-      <c r="AN64" s="112" t="s">
+      <c r="AN64" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="AO64" s="109" t="s">
+      <c r="AO64" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="AP64" s="109" t="s">
+      <c r="AP64" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="AQ64" s="112" t="s">
+      <c r="AQ64" s="111" t="s">
         <v>502</v>
       </c>
-      <c r="AR64" s="112"/>
-      <c r="AS64" s="112"/>
-      <c r="AT64" s="112"/>
-      <c r="AU64" s="109" t="s">
+      <c r="AR64" s="111"/>
+      <c r="AS64" s="111"/>
+      <c r="AT64" s="111"/>
+      <c r="AU64" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="AV64" s="113">
+      <c r="AV64" s="112">
         <v>42711</v>
       </c>
-      <c r="AW64" s="114" t="s">
+      <c r="AW64" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="AX64" s="112"/>
-      <c r="AY64" s="112"/>
-      <c r="AZ64" s="112" t="s">
+      <c r="AX64" s="111"/>
+      <c r="AY64" s="111"/>
+      <c r="AZ64" s="111" t="s">
         <v>527</v>
       </c>
-      <c r="BA64" s="112" t="s">
+      <c r="BA64" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="BB64" s="112" t="s">
+      <c r="BB64" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="BC64" s="114"/>
-      <c r="BD64" s="114"/>
-      <c r="BE64" s="114"/>
-      <c r="BF64" s="115" t="s">
+      <c r="BC64" s="113"/>
+      <c r="BD64" s="113"/>
+      <c r="BE64" s="113"/>
+      <c r="BF64" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="BG64" s="116" t="s">
+      <c r="BG64" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="BH64" s="106">
-        <v>240201</v>
-      </c>
-      <c r="BI64" s="106" t="s">
+      <c r="BH64" s="105">
+        <v>201383</v>
+      </c>
+      <c r="BI64" s="105" t="s">
         <v>529</v>
       </c>
-      <c r="BJ64" s="140">
+      <c r="BJ64" s="128">
         <v>200206</v>
       </c>
-      <c r="BK64" s="140"/>
-      <c r="BL64" s="106" t="s">
+      <c r="BK64" s="128"/>
+      <c r="BL64" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="BM64" s="106" t="s">
+      <c r="BM64" s="105" t="s">
         <v>518</v>
       </c>
-      <c r="BN64" s="107" t="s">
+      <c r="BN64" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="BO64" s="117"/>
+      <c r="BO64" s="116"/>
     </row>
-    <row r="65" spans="2:67" s="139" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="129" t="s">
+    <row r="65" spans="2:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="130" t="s">
+      <c r="C65" s="108" t="s">
+        <v>542</v>
+      </c>
+      <c r="D65" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="130">
+      <c r="E65" s="109">
         <v>91</v>
       </c>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130" t="s">
+      <c r="F65" s="109">
+        <v>4800993</v>
+      </c>
+      <c r="G65" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="131" t="s">
+      <c r="H65" s="106" t="s">
+        <v>538</v>
+      </c>
+      <c r="I65" s="105">
+        <v>29.2</v>
+      </c>
+      <c r="J65" s="105">
+        <v>24.6</v>
+      </c>
+      <c r="K65" s="109">
+        <v>44.3795</v>
+      </c>
+      <c r="L65" s="109">
+        <v>-63.360300000000002</v>
+      </c>
+      <c r="M65" s="106">
+        <v>42.45</v>
+      </c>
+      <c r="N65" s="106">
+        <v>-63.36</v>
+      </c>
+      <c r="O65" s="106">
+        <v>44.52</v>
+      </c>
+      <c r="P65" s="106">
+        <v>-61.41</v>
+      </c>
+      <c r="Q65" s="105" t="s">
+        <v>543</v>
+      </c>
+      <c r="R65" s="105">
+        <v>24.9</v>
+      </c>
+      <c r="S65" s="105">
+        <v>666.07</v>
+      </c>
+      <c r="T65" s="105">
+        <v>1182</v>
+      </c>
+      <c r="U65" s="105">
+        <v>1872</v>
+      </c>
+      <c r="V65" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="X65" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y65" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="106"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="105">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="105">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="105">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="105">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH65" s="106">
+        <v>20230308</v>
+      </c>
+      <c r="AI65" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ65" s="106" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK65" s="109">
+        <v>30</v>
+      </c>
+      <c r="AL65" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM65" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN65" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO65" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP65" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ65" s="111" t="s">
+        <v>540</v>
+      </c>
+      <c r="AR65" s="111"/>
+      <c r="AS65" s="111"/>
+      <c r="AT65" s="111"/>
+      <c r="AU65" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV65" s="111" t="s">
         <v>539</v>
       </c>
-      <c r="I65" s="132">
+      <c r="AW65" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="AX65" s="111"/>
+      <c r="AY65" s="111"/>
+      <c r="AZ65" s="111"/>
+      <c r="BA65" s="111"/>
+      <c r="BB65" s="111"/>
+      <c r="BC65" s="113"/>
+      <c r="BD65" s="113"/>
+      <c r="BE65" s="113"/>
+      <c r="BF65" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG65" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH65" s="105">
+        <v>162640</v>
+      </c>
+      <c r="BI65" s="105" t="s">
+        <v>331</v>
+      </c>
+      <c r="BJ65" s="105">
+        <v>201189</v>
+      </c>
+      <c r="BK65" s="128"/>
+      <c r="BL65" s="105" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM65" s="105" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN65" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO65" s="116" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="2:67" s="150" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="142" t="s">
+        <v>542</v>
+      </c>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="143">
+        <v>71</v>
+      </c>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="144"/>
+      <c r="I66" s="145">
         <v>29.2</v>
       </c>
-      <c r="J65" s="132"/>
-      <c r="K65" s="130">
-        <v>44.3795</v>
-      </c>
-      <c r="L65" s="130">
-        <v>-63.360300000000002</v>
-      </c>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="131"/>
-      <c r="P65" s="131"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
-      <c r="U65" s="132"/>
-      <c r="V65" s="131"/>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="131"/>
-      <c r="Z65" s="131"/>
-      <c r="AA65" s="131"/>
-      <c r="AB65" s="131"/>
-      <c r="AC65" s="131"/>
-      <c r="AD65" s="132"/>
-      <c r="AE65" s="132"/>
-      <c r="AF65" s="132"/>
-      <c r="AG65" s="132">
-        <v>1024.9000000000001</v>
-      </c>
-      <c r="AH65" s="131">
-        <v>20230308</v>
-      </c>
-      <c r="AI65" s="131" t="s">
+      <c r="J66" s="145"/>
+      <c r="K66" s="143">
+        <v>44.492899999999999</v>
+      </c>
+      <c r="L66" s="143">
+        <v>-63.385300000000001</v>
+      </c>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+      <c r="O66" s="144"/>
+      <c r="P66" s="144"/>
+      <c r="Q66" s="145"/>
+      <c r="R66" s="145"/>
+      <c r="S66" s="145"/>
+      <c r="T66" s="145"/>
+      <c r="U66" s="145"/>
+      <c r="V66" s="144"/>
+      <c r="W66" s="144"/>
+      <c r="X66" s="144"/>
+      <c r="Y66" s="144"/>
+      <c r="Z66" s="144"/>
+      <c r="AA66" s="144"/>
+      <c r="AB66" s="144"/>
+      <c r="AC66" s="144"/>
+      <c r="AD66" s="145"/>
+      <c r="AE66" s="145"/>
+      <c r="AF66" s="145"/>
+      <c r="AG66" s="145"/>
+      <c r="AH66" s="144"/>
+      <c r="AI66" s="144"/>
+      <c r="AJ66" s="144" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK66" s="143">
+        <v>29</v>
+      </c>
+      <c r="AL66" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM66" s="146" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN66" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO66" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP66" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ66" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="AR66" s="146"/>
+      <c r="AS66" s="146"/>
+      <c r="AT66" s="146"/>
+      <c r="AU66" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV66" s="146" t="s">
+        <v>541</v>
+      </c>
+      <c r="AW66" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="AX66" s="146"/>
+      <c r="AY66" s="146"/>
+      <c r="AZ66" s="146" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA66" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="BB66" s="146"/>
+      <c r="BC66" s="146"/>
+      <c r="BD66" s="146"/>
+      <c r="BE66" s="146"/>
+      <c r="BF66" s="142" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG66" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH66" s="145">
+        <v>201383</v>
+      </c>
+      <c r="BI66" s="145" t="s">
+        <v>529</v>
+      </c>
+      <c r="BJ66" s="148">
+        <v>200206</v>
+      </c>
+      <c r="BK66" s="148"/>
+      <c r="BL66" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM66" s="145" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN66" s="144" t="s">
+        <v>544</v>
+      </c>
+      <c r="BO66" s="149"/>
+    </row>
+    <row r="67" spans="2:67" s="127" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="120">
+        <v>75</v>
+      </c>
+      <c r="F67" s="120">
+        <v>4800994</v>
+      </c>
+      <c r="G67" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="121" t="s">
+        <v>532</v>
+      </c>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120"/>
+      <c r="M67" s="121"/>
+      <c r="N67" s="121"/>
+      <c r="O67" s="121"/>
+      <c r="P67" s="121"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="121"/>
+      <c r="W67" s="121">
+        <v>1</v>
+      </c>
+      <c r="X67" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y67" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" s="121"/>
+      <c r="AA67" s="121"/>
+      <c r="AB67" s="121"/>
+      <c r="AC67" s="121"/>
+      <c r="AD67" s="122"/>
+      <c r="AE67" s="122"/>
+      <c r="AF67" s="122"/>
+      <c r="AG67" s="122">
+        <v>1024</v>
+      </c>
+      <c r="AH67" s="121">
+        <v>20230228</v>
+      </c>
+      <c r="AI67" s="121" t="s">
         <v>513</v>
       </c>
-      <c r="AJ65" s="131" t="s">
+      <c r="AJ67" s="121" t="s">
         <v>525</v>
       </c>
-      <c r="AK65" s="130">
-        <v>30</v>
-      </c>
-      <c r="AL65" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM65" s="133" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN65" s="133" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO65" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP65" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ65" s="133" t="s">
-        <v>540</v>
-      </c>
-      <c r="AR65" s="133"/>
-      <c r="AS65" s="133"/>
-      <c r="AT65" s="133"/>
-      <c r="AU65" s="129"/>
-      <c r="AV65" s="133"/>
-      <c r="AW65" s="134"/>
-      <c r="AX65" s="133"/>
-      <c r="AY65" s="133"/>
-      <c r="AZ65" s="133"/>
-      <c r="BA65" s="133"/>
-      <c r="BB65" s="133"/>
-      <c r="BC65" s="134"/>
-      <c r="BD65" s="134"/>
-      <c r="BE65" s="134"/>
-      <c r="BF65" s="135" t="s">
+      <c r="AK67" s="120">
+        <v>42</v>
+      </c>
+      <c r="AL67" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM67" s="123" t="s">
+        <v>506</v>
+      </c>
+      <c r="AN67" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO67" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP67" s="119"/>
+      <c r="AQ67" s="123"/>
+      <c r="AR67" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS67" s="123" t="s">
+        <v>507</v>
+      </c>
+      <c r="AT67" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU67" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV67" s="123" t="s">
+        <v>533</v>
+      </c>
+      <c r="AW67" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX67" s="123"/>
+      <c r="AY67" s="123"/>
+      <c r="AZ67" s="123"/>
+      <c r="BA67" s="123"/>
+      <c r="BB67" s="123"/>
+      <c r="BC67" s="123" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD67" s="123" t="s">
+        <v>417</v>
+      </c>
+      <c r="BE67" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF67" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="BG65" s="136" t="s">
+      <c r="BG67" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="BH65" s="132">
-        <v>162640</v>
-      </c>
-      <c r="BI65" s="132" t="s">
-        <v>331</v>
-      </c>
-      <c r="BJ65" s="132">
-        <v>201189</v>
-      </c>
-      <c r="BK65" s="137"/>
-      <c r="BL65" s="132" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM65" s="132" t="s">
+      <c r="BH67" s="122">
+        <v>162642</v>
+      </c>
+      <c r="BI67" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ67" s="125"/>
+      <c r="BK67" s="125"/>
+      <c r="BL67" s="122" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM67" s="122" t="s">
         <v>518</v>
       </c>
-      <c r="BN65" s="131" t="s">
-        <v>537</v>
-      </c>
-      <c r="BO65" s="138" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="66" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="49"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="37"/>
-      <c r="AB66" s="37"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="37"/>
-      <c r="AI66" s="37"/>
-      <c r="AJ66" s="37"/>
-      <c r="AK66" s="35"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="38"/>
-      <c r="AN66" s="38"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="34"/>
-      <c r="AQ66" s="38"/>
-      <c r="AR66" s="38"/>
-      <c r="AS66" s="38"/>
-      <c r="AT66" s="38"/>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="38"/>
-      <c r="AW66" s="38"/>
-      <c r="AX66" s="38"/>
-      <c r="AY66" s="38"/>
-      <c r="AZ66" s="38"/>
-      <c r="BA66" s="38"/>
-      <c r="BB66" s="38"/>
-      <c r="BC66" s="38"/>
-      <c r="BD66" s="38"/>
-      <c r="BE66" s="38"/>
-      <c r="BF66" s="34"/>
-      <c r="BG66" s="119"/>
-      <c r="BH66" s="105"/>
-      <c r="BI66" s="105"/>
-      <c r="BJ66" s="105"/>
-      <c r="BK66" s="105"/>
-      <c r="BL66" s="105"/>
-      <c r="BM66" s="105"/>
-      <c r="BN66" s="37"/>
-      <c r="BO66" s="43"/>
-    </row>
-    <row r="67" spans="2:67" s="128" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="121" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="121">
-        <v>75</v>
-      </c>
-      <c r="F67" s="121">
-        <v>4800994</v>
-      </c>
-      <c r="G67" s="121" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="122" t="s">
-        <v>532</v>
-      </c>
-      <c r="I67" s="123"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="121"/>
-      <c r="L67" s="121"/>
-      <c r="M67" s="122"/>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122"/>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="123"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="123"/>
-      <c r="V67" s="122"/>
-      <c r="W67" s="122">
-        <v>1</v>
-      </c>
-      <c r="X67" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y67" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z67" s="122"/>
-      <c r="AA67" s="122"/>
-      <c r="AB67" s="122"/>
-      <c r="AC67" s="122"/>
-      <c r="AD67" s="123"/>
-      <c r="AE67" s="123"/>
-      <c r="AF67" s="123"/>
-      <c r="AG67" s="123">
-        <v>1024</v>
-      </c>
-      <c r="AH67" s="122">
-        <v>20230228</v>
-      </c>
-      <c r="AI67" s="122" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ67" s="122" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK67" s="121">
-        <v>42</v>
-      </c>
-      <c r="AL67" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM67" s="124" t="s">
-        <v>506</v>
-      </c>
-      <c r="AN67" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO67" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP67" s="120"/>
-      <c r="AQ67" s="124"/>
-      <c r="AR67" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS67" s="124" t="s">
-        <v>507</v>
-      </c>
-      <c r="AT67" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU67" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV67" s="124" t="s">
-        <v>533</v>
-      </c>
-      <c r="AW67" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX67" s="124"/>
-      <c r="AY67" s="124"/>
-      <c r="AZ67" s="124"/>
-      <c r="BA67" s="124"/>
-      <c r="BB67" s="124"/>
-      <c r="BC67" s="124" t="s">
-        <v>416</v>
-      </c>
-      <c r="BD67" s="124" t="s">
-        <v>417</v>
-      </c>
-      <c r="BE67" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF67" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG67" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH67" s="123">
-        <v>162642</v>
-      </c>
-      <c r="BI67" s="123" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ67" s="126"/>
-      <c r="BK67" s="126"/>
-      <c r="BL67" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM67" s="123" t="s">
-        <v>518</v>
-      </c>
-      <c r="BN67" s="122"/>
-      <c r="BO67" s="127"/>
+      <c r="BN67" s="121"/>
+      <c r="BO67" s="126"/>
     </row>
     <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34"/>
@@ -13796,18 +13940,18 @@
       <c r="BD68" s="38"/>
       <c r="BE68" s="38"/>
       <c r="BF68" s="34"/>
-      <c r="BG68" s="119"/>
-      <c r="BH68" s="105"/>
-      <c r="BI68" s="105"/>
-      <c r="BJ68" s="105"/>
-      <c r="BK68" s="105"/>
-      <c r="BL68" s="105"/>
-      <c r="BM68" s="105"/>
+      <c r="BG68" s="118"/>
+      <c r="BH68" s="104"/>
+      <c r="BI68" s="104"/>
+      <c r="BJ68" s="104"/>
+      <c r="BK68" s="104"/>
+      <c r="BL68" s="104"/>
+      <c r="BM68" s="104"/>
       <c r="BN68" s="37"/>
       <c r="BO68" s="43"/>
     </row>
     <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="117" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="34"/>
@@ -13866,13 +14010,13 @@
       <c r="BD69" s="38"/>
       <c r="BE69" s="38"/>
       <c r="BF69" s="34"/>
-      <c r="BG69" s="119"/>
-      <c r="BH69" s="105"/>
-      <c r="BI69" s="105"/>
-      <c r="BJ69" s="105"/>
-      <c r="BK69" s="105"/>
-      <c r="BL69" s="105"/>
-      <c r="BM69" s="105"/>
+      <c r="BG69" s="118"/>
+      <c r="BH69" s="104"/>
+      <c r="BI69" s="104"/>
+      <c r="BJ69" s="104"/>
+      <c r="BK69" s="104"/>
+      <c r="BL69" s="104"/>
+      <c r="BM69" s="104"/>
       <c r="BN69" s="37"/>
       <c r="BO69" s="43"/>
     </row>
@@ -13934,13 +14078,13 @@
       <c r="BD70" s="38"/>
       <c r="BE70" s="38"/>
       <c r="BF70" s="34"/>
-      <c r="BG70" s="119"/>
-      <c r="BH70" s="105"/>
-      <c r="BI70" s="105"/>
-      <c r="BJ70" s="105"/>
-      <c r="BK70" s="105"/>
-      <c r="BL70" s="105"/>
-      <c r="BM70" s="105"/>
+      <c r="BG70" s="118"/>
+      <c r="BH70" s="104"/>
+      <c r="BI70" s="104"/>
+      <c r="BJ70" s="104"/>
+      <c r="BK70" s="104"/>
+      <c r="BL70" s="104"/>
+      <c r="BM70" s="104"/>
       <c r="BN70" s="37"/>
       <c r="BO70" s="43"/>
     </row>
@@ -14002,18 +14146,18 @@
       <c r="BD71" s="38"/>
       <c r="BE71" s="38"/>
       <c r="BF71" s="34"/>
-      <c r="BG71" s="119"/>
-      <c r="BH71" s="105"/>
-      <c r="BI71" s="105"/>
-      <c r="BJ71" s="105"/>
-      <c r="BK71" s="105"/>
-      <c r="BL71" s="105"/>
-      <c r="BM71" s="105"/>
+      <c r="BG71" s="118"/>
+      <c r="BH71" s="104"/>
+      <c r="BI71" s="104"/>
+      <c r="BJ71" s="104"/>
+      <c r="BK71" s="104"/>
+      <c r="BL71" s="104"/>
+      <c r="BM71" s="104"/>
       <c r="BN71" s="37"/>
       <c r="BO71" s="43"/>
     </row>
     <row r="78" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH78" s="101" t="s">
+      <c r="BH78" s="100" t="s">
         <v>493</v>
       </c>
       <c r="BI78" s="38"/>
@@ -14023,10 +14167,10 @@
       <c r="BM78" s="35"/>
     </row>
     <row r="79" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH79" s="63" t="s">
+      <c r="BH79" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="BI79" s="63" t="s">
+      <c r="BI79" s="62" t="s">
         <v>331</v>
       </c>
       <c r="BJ79" s="38" t="s">
@@ -14041,10 +14185,10 @@
       <c r="BM79" s="35"/>
     </row>
     <row r="80" spans="2:67" x14ac:dyDescent="0.35">
-      <c r="BH80" s="103" t="s">
+      <c r="BH80" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="BI80" s="103" t="s">
+      <c r="BI80" s="102" t="s">
         <v>282</v>
       </c>
       <c r="BJ80" s="40" t="s">
@@ -14059,10 +14203,10 @@
       <c r="BM80" s="35"/>
     </row>
     <row r="81" spans="60:65" x14ac:dyDescent="0.35">
-      <c r="BH81" s="62" t="s">
+      <c r="BH81" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="BI81" s="63" t="s">
+      <c r="BI81" s="62" t="s">
         <v>330</v>
       </c>
       <c r="BJ81" s="38" t="s">
@@ -14079,10 +14223,10 @@
       </c>
     </row>
     <row r="82" spans="60:65" x14ac:dyDescent="0.35">
-      <c r="BH82" s="61" t="s">
+      <c r="BH82" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="BI82" s="61" t="s">
+      <c r="BI82" s="60" t="s">
         <v>329</v>
       </c>
       <c r="BJ82" s="46" t="s">
@@ -14097,10 +14241,10 @@
       <c r="BM82" s="29"/>
     </row>
     <row r="83" spans="60:65" x14ac:dyDescent="0.35">
-      <c r="BH83" s="99" t="s">
+      <c r="BH83" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="BI83" s="100" t="s">
+      <c r="BI83" s="99" t="s">
         <v>291</v>
       </c>
       <c r="BJ83" s="46" t="s">
@@ -14112,7 +14256,7 @@
       <c r="BL83" s="29">
         <v>43</v>
       </c>
-      <c r="BM83" s="102" t="s">
+      <c r="BM83" s="101" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14120,7 +14264,7 @@
       <c r="BH84" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="BI84" s="60" t="s">
+      <c r="BI84" s="59" t="s">
         <v>119</v>
       </c>
       <c r="BJ84" s="46"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE86704A-3DD2-4E92-9F30-64C550DF58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063F61A-5BD5-44AC-A6C0-1A60EBF38F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="556">
   <si>
     <t>Deployment date</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>Deploy lon</t>
-  </si>
-  <si>
-    <t>Dave Hebert</t>
   </si>
   <si>
     <t>Melany Belzile</t>
@@ -1651,9 +1648,6 @@
     <t>GLI2023_SEA021_69</t>
   </si>
   <si>
-    <t>GLI2023_SEA024_75</t>
-  </si>
-  <si>
     <t>5-Mar-17</t>
   </si>
   <si>
@@ -1663,9 +1657,6 @@
     <t>DR-GL1-GL2-GL3- GL2-GL1-NSC-North-DR-DR25mContour</t>
   </si>
   <si>
-    <t>20230217</t>
-  </si>
-  <si>
     <t>Laura on deployment with Dal, Chris land pilot.</t>
   </si>
   <si>
@@ -1678,16 +1669,58 @@
     <t>20221221</t>
   </si>
   <si>
-    <t>12/7/2016</t>
-  </si>
-  <si>
     <t>20230411</t>
   </si>
   <si>
     <t>Tri-GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-DR</t>
   </si>
   <si>
-    <t>Sigma-T/</t>
+    <t>20230317</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA032_</t>
+  </si>
+  <si>
+    <t>satelite??</t>
+  </si>
+  <si>
+    <t>20320508</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_71</t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-TRI-HL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.0-r  </t>
+  </si>
+  <si>
+    <t>2.20.0-r</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20220221</t>
+  </si>
+  <si>
+    <t>AFAP(1/16)</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA024_</t>
+  </si>
+  <si>
+    <t>20230226</t>
+  </si>
+  <si>
+    <t>2.21.0-r</t>
+  </si>
+  <si>
+    <t>20230121</t>
+  </si>
+  <si>
+    <t>10?</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1812,24 +1845,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2013,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,88 +2321,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2739,34 +2677,33 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AR54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BM55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
+      <selection pane="bottomRight" activeCell="BL68" sqref="BL68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="7" style="7" customWidth="1"/>
     <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="78.90625" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" customWidth="1"/>
     <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
@@ -2776,16 +2713,16 @@
     <col min="29" max="29" width="20.54296875" style="82" customWidth="1"/>
     <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.6328125" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" style="83" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.54296875" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.453125" style="83" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16.81640625" style="83" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11.81640625" style="83" customWidth="1"/>
@@ -2793,7 +2730,7 @@
     <col min="46" max="46" width="12.81640625" style="83" customWidth="1"/>
     <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.90625" style="6" customWidth="1"/>
+    <col min="49" max="49" width="17.81640625" style="6" customWidth="1"/>
     <col min="50" max="51" width="12.81640625" style="83" customWidth="1"/>
     <col min="52" max="52" width="11.81640625" style="83" customWidth="1"/>
     <col min="53" max="53" width="14.81640625" style="83" bestFit="1" customWidth="1"/>
@@ -2806,20 +2743,20 @@
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.90625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.90625" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.90625" customWidth="1"/>
+    <col min="65" max="65" width="28.81640625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.81640625" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -2886,13 +2823,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>4</v>
@@ -2940,7 +2877,7 @@
         <v>40</v>
       </c>
       <c r="X2" s="73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="73" t="s">
         <v>113</v>
@@ -2949,13 +2886,13 @@
         <v>116</v>
       </c>
       <c r="AA2" s="73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB2" s="73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AC2" s="73" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>55</v>
@@ -2982,64 +2919,64 @@
         <v>122</v>
       </c>
       <c r="AL2" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM2" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN2" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO2" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="AM2" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN2" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="AO2" s="76" t="s">
+      <c r="AP2" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ2" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="76" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ2" s="75" t="s">
-        <v>351</v>
-      </c>
       <c r="AR2" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS2" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="AS2" s="75" t="s">
-        <v>356</v>
-      </c>
       <c r="AT2" s="75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AU2" s="76" t="s">
         <v>68</v>
       </c>
       <c r="AV2" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AW2" s="77" t="s">
         <v>167</v>
       </c>
       <c r="AX2" s="75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AY2" s="75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AZ2" s="75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BA2" s="75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BB2" s="75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BC2" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="BD2" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="BD2" s="75" t="s">
+      <c r="BE2" s="75" t="s">
         <v>414</v>
-      </c>
-      <c r="BE2" s="75" t="s">
-        <v>415</v>
       </c>
       <c r="BF2" s="78" t="s">
         <v>171</v>
@@ -3054,7 +2991,7 @@
         <v>93</v>
       </c>
       <c r="BJ2" s="75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BK2" s="32" t="s">
         <v>41</v>
@@ -3095,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3181,7 +3118,7 @@
         <v>69</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN3" s="15" t="s">
         <v>169</v>
@@ -3193,7 +3130,7 @@
         <v>71</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
@@ -3216,7 +3153,7 @@
       <c r="BD3" s="15"/>
       <c r="BE3" s="15"/>
       <c r="BF3" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG3" s="17" t="s">
         <v>173</v>
@@ -3230,16 +3167,16 @@
       <c r="BJ3" s="15"/>
       <c r="BK3" s="13"/>
       <c r="BL3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM3" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM3" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN3" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO3" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3265,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3351,7 +3288,7 @@
         <v>69</v>
       </c>
       <c r="AM4" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN4" s="15" t="s">
         <v>169</v>
@@ -3363,7 +3300,7 @@
         <v>71</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
@@ -3386,7 +3323,7 @@
       <c r="BD4" s="15"/>
       <c r="BE4" s="15"/>
       <c r="BF4" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG4" s="17" t="s">
         <v>173</v>
@@ -3400,10 +3337,10 @@
       <c r="BJ4" s="15"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM4" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM4" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN4" s="18" t="s">
         <v>204</v>
@@ -3435,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -3521,7 +3458,7 @@
         <v>75</v>
       </c>
       <c r="AM5" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN5" s="40" t="s">
         <v>169</v>
@@ -3533,7 +3470,7 @@
         <v>72</v>
       </c>
       <c r="AQ5" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR5" s="40"/>
       <c r="AS5" s="40"/>
@@ -3556,10 +3493,10 @@
       <c r="BD5" s="40"/>
       <c r="BE5" s="40"/>
       <c r="BF5" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG5" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH5" s="40" t="s">
         <v>95</v>
@@ -3572,10 +3509,10 @@
         <v>42</v>
       </c>
       <c r="BL5" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM5" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM5" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN5" s="37" t="s">
         <v>203</v>
@@ -3607,7 +3544,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -3694,7 +3631,7 @@
         <v>69</v>
       </c>
       <c r="AM6" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN6" s="40" t="s">
         <v>169</v>
@@ -3706,7 +3643,7 @@
         <v>71</v>
       </c>
       <c r="AQ6" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR6" s="40"/>
       <c r="AS6" s="40"/>
@@ -3729,10 +3666,10 @@
       <c r="BD6" s="40"/>
       <c r="BE6" s="40"/>
       <c r="BF6" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG6" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH6" s="40" t="s">
         <v>95</v>
@@ -3743,16 +3680,16 @@
       <c r="BJ6" s="40"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM6" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM6" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN6" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO6" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -3778,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -3864,7 +3801,7 @@
         <v>75</v>
       </c>
       <c r="AM7" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN7" s="40" t="s">
         <v>169</v>
@@ -3876,7 +3813,7 @@
         <v>72</v>
       </c>
       <c r="AQ7" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AR7" s="40"/>
       <c r="AS7" s="40"/>
@@ -3899,10 +3836,10 @@
       <c r="BD7" s="40"/>
       <c r="BE7" s="40"/>
       <c r="BF7" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG7" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH7" s="40" t="s">
         <v>95</v>
@@ -3915,16 +3852,16 @@
         <v>43</v>
       </c>
       <c r="BL7" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM7" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM7" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN7" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO7" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -3950,7 +3887,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -4036,7 +3973,7 @@
         <v>76</v>
       </c>
       <c r="AM8" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN8" s="40" t="s">
         <v>169</v>
@@ -4048,7 +3985,7 @@
         <v>78</v>
       </c>
       <c r="AQ8" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR8" s="40"/>
       <c r="AS8" s="40"/>
@@ -4071,10 +4008,10 @@
       <c r="BD8" s="40"/>
       <c r="BE8" s="40"/>
       <c r="BF8" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG8" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH8" s="40" t="s">
         <v>96</v>
@@ -4085,16 +4022,16 @@
       <c r="BJ8" s="40"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM8" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM8" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN8" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO8" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -4120,7 +4057,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4206,7 +4143,7 @@
         <v>81</v>
       </c>
       <c r="AM9" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN9" s="38" t="s">
         <v>169</v>
@@ -4218,7 +4155,7 @@
         <v>83</v>
       </c>
       <c r="AQ9" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR9" s="38"/>
       <c r="AS9" s="38"/>
@@ -4241,10 +4178,10 @@
       <c r="BD9" s="40"/>
       <c r="BE9" s="40"/>
       <c r="BF9" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG9" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH9" s="40" t="s">
         <v>95</v>
@@ -4255,10 +4192,10 @@
       <c r="BJ9" s="40"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM9" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM9" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN9" s="37" t="s">
         <v>203</v>
@@ -4290,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4376,7 +4313,7 @@
         <v>69</v>
       </c>
       <c r="AM10" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN10" s="40" t="s">
         <v>169</v>
@@ -4388,7 +4325,7 @@
         <v>71</v>
       </c>
       <c r="AQ10" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
@@ -4411,10 +4348,10 @@
       <c r="BD10" s="40"/>
       <c r="BE10" s="40"/>
       <c r="BF10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG10" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH10" s="40" t="s">
         <v>96</v>
@@ -4425,16 +4362,16 @@
       <c r="BJ10" s="40"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM10" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM10" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN10" s="37" t="s">
         <v>207</v>
       </c>
       <c r="BO10" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -4460,7 +4397,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -4546,7 +4483,7 @@
         <v>76</v>
       </c>
       <c r="AM11" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN11" s="38" t="s">
         <v>169</v>
@@ -4581,10 +4518,10 @@
       <c r="BD11" s="40"/>
       <c r="BE11" s="40"/>
       <c r="BF11" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG11" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH11" s="40" t="s">
         <v>96</v>
@@ -4595,10 +4532,10 @@
       <c r="BJ11" s="40"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM11" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM11" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN11" s="37" t="s">
         <v>203</v>
@@ -4630,7 +4567,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -4718,7 +4655,7 @@
         <v>84</v>
       </c>
       <c r="AM12" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN12" s="38" t="s">
         <v>169</v>
@@ -4732,10 +4669,10 @@
         <v>87</v>
       </c>
       <c r="AS12" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AT12" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU12" s="34" t="s">
         <v>86</v>
@@ -4755,10 +4692,10 @@
       <c r="BD12" s="40"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG12" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH12" s="40" t="s">
         <v>95</v>
@@ -4769,10 +4706,10 @@
       <c r="BJ12" s="40"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM12" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM12" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN12" s="37" t="s">
         <v>203</v>
@@ -4804,7 +4741,7 @@
         <v>130</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -4890,7 +4827,7 @@
         <v>81</v>
       </c>
       <c r="AM13" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN13" s="38" t="s">
         <v>169</v>
@@ -4902,7 +4839,7 @@
         <v>83</v>
       </c>
       <c r="AQ13" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AR13" s="38"/>
       <c r="AS13" s="38"/>
@@ -4925,10 +4862,10 @@
       <c r="BD13" s="40"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG13" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH13" s="38" t="s">
         <v>98</v>
@@ -4941,16 +4878,16 @@
         <v>67</v>
       </c>
       <c r="BL13" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM13" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN13" s="37" t="s">
         <v>205</v>
       </c>
       <c r="BO13" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -4976,7 +4913,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -5062,7 +4999,7 @@
         <v>75</v>
       </c>
       <c r="AM14" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN14" s="38" t="s">
         <v>169</v>
@@ -5074,7 +5011,7 @@
         <v>72</v>
       </c>
       <c r="AQ14" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR14" s="38"/>
       <c r="AS14" s="38"/>
@@ -5097,10 +5034,10 @@
       <c r="BD14" s="40"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG14" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH14" s="40" t="s">
         <v>96</v>
@@ -5111,10 +5048,10 @@
       <c r="BJ14" s="40"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM14" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM14" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN14" s="37" t="s">
         <v>203</v>
@@ -5146,7 +5083,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5234,7 +5171,7 @@
         <v>84</v>
       </c>
       <c r="AM15" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN15" s="38" t="s">
         <v>169</v>
@@ -5248,10 +5185,10 @@
         <v>87</v>
       </c>
       <c r="AS15" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU15" s="34" t="s">
         <v>86</v>
@@ -5271,10 +5208,10 @@
       <c r="BD15" s="40"/>
       <c r="BE15" s="40"/>
       <c r="BF15" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG15" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH15" s="40" t="s">
         <v>96</v>
@@ -5285,16 +5222,16 @@
       <c r="BJ15" s="40"/>
       <c r="BK15" s="3"/>
       <c r="BL15" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM15" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM15" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN15" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO15" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5257,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5406,7 +5343,7 @@
         <v>75</v>
       </c>
       <c r="AM16" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN16" s="38" t="s">
         <v>169</v>
@@ -5418,7 +5355,7 @@
         <v>72</v>
       </c>
       <c r="AQ16" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR16" s="38"/>
       <c r="AS16" s="38"/>
@@ -5441,10 +5378,10 @@
       <c r="BD16" s="40"/>
       <c r="BE16" s="40"/>
       <c r="BF16" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG16" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH16" s="38" t="s">
         <v>98</v>
@@ -5457,16 +5394,16 @@
       </c>
       <c r="BK16" s="3"/>
       <c r="BL16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM16" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM16" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN16" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO16" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5492,7 +5429,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -5577,7 +5514,7 @@
         <v>69</v>
       </c>
       <c r="AM17" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN17" s="40" t="s">
         <v>169</v>
@@ -5589,7 +5526,7 @@
         <v>71</v>
       </c>
       <c r="AQ17" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AR17" s="40"/>
       <c r="AS17" s="40"/>
@@ -5612,10 +5549,10 @@
       <c r="BD17" s="40"/>
       <c r="BE17" s="40"/>
       <c r="BF17" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG17" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH17" s="40" t="s">
         <v>95</v>
@@ -5628,10 +5565,10 @@
       </c>
       <c r="BK17" s="3"/>
       <c r="BL17" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM17" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM17" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN17" s="37" t="s">
         <v>203</v>
@@ -5663,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -5748,7 +5685,7 @@
         <v>75</v>
       </c>
       <c r="AM18" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN18" s="22" t="s">
         <v>169</v>
@@ -5760,7 +5697,7 @@
         <v>72</v>
       </c>
       <c r="AQ18" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR18" s="22"/>
       <c r="AS18" s="22"/>
@@ -5783,10 +5720,10 @@
       <c r="BD18" s="15"/>
       <c r="BE18" s="15"/>
       <c r="BF18" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG18" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH18" s="22" t="s">
         <v>98</v>
@@ -5799,10 +5736,10 @@
         <v>121</v>
       </c>
       <c r="BL18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM18" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM18" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN18" s="18" t="s">
         <v>203</v>
@@ -5834,7 +5771,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -5915,7 +5852,7 @@
         <v>69</v>
       </c>
       <c r="AM19" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN19" s="15" t="s">
         <v>168</v>
@@ -5927,7 +5864,7 @@
         <v>71</v>
       </c>
       <c r="AQ19" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
@@ -5950,10 +5887,10 @@
       <c r="BD19" s="15"/>
       <c r="BE19" s="15"/>
       <c r="BF19" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG19" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH19" s="55" t="s">
         <v>118</v>
@@ -5964,10 +5901,10 @@
       <c r="BJ19" s="22"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM19" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BN19" s="18" t="s">
         <v>203</v>
@@ -6075,7 +6012,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I21" s="2">
         <v>29.3</v>
@@ -6160,7 +6097,7 @@
         <v>81</v>
       </c>
       <c r="AM21" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN21" s="22" t="s">
         <v>168</v>
@@ -6172,7 +6109,7 @@
         <v>83</v>
       </c>
       <c r="AQ21" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR21" s="22"/>
       <c r="AS21" s="22"/>
@@ -6195,10 +6132,10 @@
       <c r="BD21" s="15"/>
       <c r="BE21" s="15"/>
       <c r="BF21" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG21" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH21" s="22" t="s">
         <v>98</v>
@@ -6211,16 +6148,16 @@
       </c>
       <c r="BK21" s="2"/>
       <c r="BL21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM21" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN21" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO21" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -6246,7 +6183,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6332,7 +6269,7 @@
         <v>76</v>
       </c>
       <c r="AM22" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN22" s="22" t="s">
         <v>169</v>
@@ -6367,10 +6304,10 @@
       <c r="BD22" s="15"/>
       <c r="BE22" s="15"/>
       <c r="BF22" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG22" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH22" s="22" t="s">
         <v>98</v>
@@ -6383,10 +6320,10 @@
       </c>
       <c r="BK22" s="2"/>
       <c r="BL22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM22" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM22" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN22" s="18" t="s">
         <v>203</v>
@@ -6418,7 +6355,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -6504,7 +6441,7 @@
         <v>81</v>
       </c>
       <c r="AM23" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN23" s="22" t="s">
         <v>168</v>
@@ -6516,7 +6453,7 @@
         <v>83</v>
       </c>
       <c r="AQ23" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR23" s="22"/>
       <c r="AS23" s="22"/>
@@ -6539,10 +6476,10 @@
       <c r="BD23" s="15"/>
       <c r="BE23" s="15"/>
       <c r="BF23" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG23" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH23" s="22" t="s">
         <v>98</v>
@@ -6555,10 +6492,10 @@
       </c>
       <c r="BK23" s="2"/>
       <c r="BL23" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM23" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM23" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN23" s="18" t="s">
         <v>203</v>
@@ -6590,7 +6527,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="2">
         <v>29.2</v>
@@ -6676,7 +6613,7 @@
         <v>81</v>
       </c>
       <c r="AM24" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN24" s="22" t="s">
         <v>168</v>
@@ -6688,7 +6625,7 @@
         <v>83</v>
       </c>
       <c r="AQ24" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR24" s="22"/>
       <c r="AS24" s="22"/>
@@ -6711,10 +6648,10 @@
       <c r="BD24" s="15"/>
       <c r="BE24" s="15"/>
       <c r="BF24" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG24" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH24" s="22" t="s">
         <v>98</v>
@@ -6727,10 +6664,10 @@
       </c>
       <c r="BK24" s="2"/>
       <c r="BL24" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BM24" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN24" s="18" t="s">
         <v>208</v>
@@ -6762,7 +6699,7 @@
         <v>159</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="56">
         <v>29</v>
@@ -6848,7 +6785,7 @@
         <v>75</v>
       </c>
       <c r="AM25" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN25" s="22" t="s">
         <v>169</v>
@@ -6860,7 +6797,7 @@
         <v>72</v>
       </c>
       <c r="AQ25" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR25" s="22"/>
       <c r="AS25" s="22"/>
@@ -6883,10 +6820,10 @@
       <c r="BD25" s="15"/>
       <c r="BE25" s="15"/>
       <c r="BF25" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG25" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH25" s="15" t="s">
         <v>95</v>
@@ -6897,16 +6834,16 @@
       <c r="BJ25" s="22"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM25" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM25" s="14" t="s">
-        <v>217</v>
-      </c>
       <c r="BN25" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BO25" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -6932,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -7019,7 +6956,7 @@
         <v>84</v>
       </c>
       <c r="AM26" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN26" s="22" t="s">
         <v>168</v>
@@ -7050,10 +6987,10 @@
       <c r="BD26" s="15"/>
       <c r="BE26" s="15"/>
       <c r="BF26" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG26" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH26" s="55" t="s">
         <v>118</v>
@@ -7066,10 +7003,10 @@
       </c>
       <c r="BK26" s="2"/>
       <c r="BL26" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM26" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM26" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN26" s="18" t="s">
         <v>206</v>
@@ -7101,7 +7038,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7188,7 +7125,7 @@
         <v>81</v>
       </c>
       <c r="AM27" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AN27" s="22" t="s">
         <v>168</v>
@@ -7200,7 +7137,7 @@
         <v>83</v>
       </c>
       <c r="AQ27" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AR27" s="22"/>
       <c r="AS27" s="22"/>
@@ -7223,10 +7160,10 @@
       <c r="BD27" s="15"/>
       <c r="BE27" s="15"/>
       <c r="BF27" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG27" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH27" s="22" t="s">
         <v>98</v>
@@ -7239,10 +7176,10 @@
       </c>
       <c r="BK27" s="2"/>
       <c r="BL27" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM27" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM27" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN27" s="18" t="s">
         <v>206</v>
@@ -7274,7 +7211,7 @@
         <v>130</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -7359,7 +7296,7 @@
         <v>75</v>
       </c>
       <c r="AM28" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN28" s="22" t="s">
         <v>169</v>
@@ -7371,7 +7308,7 @@
         <v>72</v>
       </c>
       <c r="AQ28" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR28" s="22"/>
       <c r="AS28" s="22"/>
@@ -7394,10 +7331,10 @@
       <c r="BD28" s="15"/>
       <c r="BE28" s="15"/>
       <c r="BF28" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG28" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH28" s="15" t="s">
         <v>95</v>
@@ -7408,16 +7345,16 @@
       <c r="BJ28" s="22"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM28" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM28" s="14" t="s">
-        <v>217</v>
-      </c>
       <c r="BN28" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO28" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7443,7 +7380,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -7529,7 +7466,7 @@
         <v>69</v>
       </c>
       <c r="AM29" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN29" s="22" t="s">
         <v>168</v>
@@ -7541,7 +7478,7 @@
         <v>71</v>
       </c>
       <c r="AQ29" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR29" s="15"/>
       <c r="AS29" s="15"/>
@@ -7564,7 +7501,7 @@
       <c r="BD29" s="15"/>
       <c r="BE29" s="15"/>
       <c r="BF29" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG29" s="50" t="s">
         <v>174</v>
@@ -7580,10 +7517,10 @@
       </c>
       <c r="BK29" s="2"/>
       <c r="BL29" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM29" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM29" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN29" s="18" t="s">
         <v>203</v>
@@ -7612,10 +7549,10 @@
         <v>4800937</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I30" s="2">
         <v>29.2</v>
@@ -7654,7 +7591,7 @@
         <v>949</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V30" s="18" t="s">
         <v>36</v>
@@ -7711,7 +7648,7 @@
       <c r="AV30" s="16"/>
       <c r="AW30" s="15"/>
       <c r="AX30" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY30" s="22" t="s">
         <v>169</v>
@@ -7723,7 +7660,7 @@
       <c r="BD30" s="15"/>
       <c r="BE30" s="15"/>
       <c r="BF30" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG30" s="50" t="s">
         <v>174</v>
@@ -7737,10 +7674,10 @@
       <c r="BJ30" s="22"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM30" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM30" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN30" s="18" t="s">
         <v>203</v>
@@ -7772,7 +7709,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" s="2">
         <v>29.1</v>
@@ -7858,7 +7795,7 @@
         <v>76</v>
       </c>
       <c r="AM31" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN31" s="22" t="s">
         <v>168</v>
@@ -7870,7 +7807,7 @@
         <v>78</v>
       </c>
       <c r="AQ31" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22"/>
@@ -7893,10 +7830,10 @@
       <c r="BD31" s="15"/>
       <c r="BE31" s="15"/>
       <c r="BF31" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG31" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH31" s="15" t="s">
         <v>95</v>
@@ -7909,10 +7846,10 @@
       </c>
       <c r="BK31" s="2"/>
       <c r="BL31" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM31" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM31" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN31" s="18" t="s">
         <v>203</v>
@@ -7926,10 +7863,10 @@
         <v>13</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>13</v>
@@ -7944,7 +7881,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I32" s="2">
         <v>29.2</v>
@@ -7971,7 +7908,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R32" s="2">
         <v>21</v>
@@ -7986,10 +7923,10 @@
         <v>725</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>188</v>
@@ -8017,10 +7954,10 @@
         <v>20190906</v>
       </c>
       <c r="AI32" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK32" s="14">
         <v>33</v>
@@ -8029,10 +7966,10 @@
         <v>69</v>
       </c>
       <c r="AM32" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN32" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO32" s="10" t="s">
         <v>70</v>
@@ -8041,7 +7978,7 @@
         <v>71</v>
       </c>
       <c r="AQ32" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
@@ -8064,10 +8001,10 @@
       <c r="BD32" s="15"/>
       <c r="BE32" s="15"/>
       <c r="BF32" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG32" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH32" s="22" t="s">
         <v>118</v>
@@ -8080,16 +8017,16 @@
       </c>
       <c r="BK32" s="2"/>
       <c r="BL32" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM32" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM32" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN32" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO32" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8097,10 +8034,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>44</v>
@@ -8115,7 +8052,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I33" s="2">
         <v>29</v>
@@ -8142,7 +8079,7 @@
         <v>-61.93</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R33" s="2">
         <v>16</v>
@@ -8176,7 +8113,7 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE33" s="2">
         <v>5</v>
@@ -8191,10 +8128,10 @@
         <v>20200227</v>
       </c>
       <c r="AI33" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ33" s="18" t="s">
-        <v>221</v>
       </c>
       <c r="AK33" s="14">
         <v>42</v>
@@ -8203,7 +8140,7 @@
         <v>84</v>
       </c>
       <c r="AM33" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN33" s="22" t="s">
         <v>168</v>
@@ -8217,10 +8154,10 @@
         <v>87</v>
       </c>
       <c r="AS33" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT33" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU33" s="20" t="s">
         <v>86</v>
@@ -8240,10 +8177,10 @@
       <c r="BD33" s="15"/>
       <c r="BE33" s="15"/>
       <c r="BF33" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG33" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH33" s="15" t="s">
         <v>95</v>
@@ -8256,21 +8193,21 @@
       </c>
       <c r="BK33" s="2"/>
       <c r="BL33" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM33" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM33" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO33" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="BO33" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -8342,7 +8279,7 @@
     </row>
     <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="35"/>
@@ -8417,10 +8354,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>13</v>
@@ -8435,7 +8372,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I36" s="3">
         <v>29.1</v>
@@ -8462,7 +8399,7 @@
         <v>-61.84</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R36" s="3">
         <v>18</v>
@@ -8478,10 +8415,10 @@
         <v>1186</v>
       </c>
       <c r="V36" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="W36" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="W36" s="37" t="s">
-        <v>297</v>
       </c>
       <c r="X36" s="37" t="s">
         <v>188</v>
@@ -8494,7 +8431,7 @@
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE36" s="3">
         <v>7</v>
@@ -8509,10 +8446,10 @@
         <v>20190906</v>
       </c>
       <c r="AI36" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ36" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ36" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK36" s="35">
         <v>33</v>
@@ -8521,7 +8458,7 @@
         <v>69</v>
       </c>
       <c r="AM36" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN36" s="38" t="s">
         <v>168</v>
@@ -8533,7 +8470,7 @@
         <v>71</v>
       </c>
       <c r="AQ36" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AR36" s="40"/>
       <c r="AS36" s="40"/>
@@ -8556,10 +8493,10 @@
       <c r="BD36" s="40"/>
       <c r="BE36" s="40"/>
       <c r="BF36" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG36" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH36" s="38" t="s">
         <v>98</v>
@@ -8572,16 +8509,16 @@
       </c>
       <c r="BK36" s="3"/>
       <c r="BL36" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM36" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM36" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN36" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO36" s="43" t="s">
         <v>302</v>
-      </c>
-      <c r="BO36" s="43" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8589,10 +8526,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>35</v>
@@ -8607,7 +8544,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I37" s="3">
         <v>29.3</v>
@@ -8634,7 +8571,7 @@
         <v>-61.43</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R37" s="3">
         <v>21</v>
@@ -8649,10 +8586,10 @@
         <v>924</v>
       </c>
       <c r="V37" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W37" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X37" s="37" t="s">
         <v>188</v>
@@ -8665,7 +8602,7 @@
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE37" s="3">
         <v>5</v>
@@ -8680,10 +8617,10 @@
         <v>20190509</v>
       </c>
       <c r="AI37" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ37" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK37" s="35">
         <v>32</v>
@@ -8692,10 +8629,10 @@
         <v>76</v>
       </c>
       <c r="AM37" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN37" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO37" s="34" t="s">
         <v>77</v>
@@ -8704,7 +8641,7 @@
         <v>78</v>
       </c>
       <c r="AQ37" s="38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AR37" s="38"/>
       <c r="AS37" s="38"/>
@@ -8727,10 +8664,10 @@
       <c r="BD37" s="40"/>
       <c r="BE37" s="40"/>
       <c r="BF37" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG37" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH37" s="38" t="s">
         <v>98</v>
@@ -8742,19 +8679,19 @@
         <v>139</v>
       </c>
       <c r="BK37" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BL37" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM37" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM37" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN37" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO37" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8762,10 +8699,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>53</v>
@@ -8777,10 +8714,10 @@
         <v>4800937</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I38" s="3">
         <v>29.2</v>
@@ -8807,7 +8744,7 @@
         <v>-62.81</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R38" s="3">
         <v>21</v>
@@ -8819,7 +8756,7 @@
         <v>1035</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V38" s="37" t="s">
         <v>36</v>
@@ -8840,7 +8777,7 @@
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE38" s="3">
         <v>3</v>
@@ -8855,10 +8792,10 @@
         <v>20190906</v>
       </c>
       <c r="AI38" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ38" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK38" s="35">
         <v>58</v>
@@ -8876,7 +8813,7 @@
       <c r="AV38" s="39"/>
       <c r="AW38" s="38"/>
       <c r="AX38" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY38" s="40" t="s">
         <v>169</v>
@@ -8888,34 +8825,34 @@
       <c r="BD38" s="40"/>
       <c r="BE38" s="40"/>
       <c r="BF38" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG38" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH38" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI38" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BJ38" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK38" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BL38" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM38" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN38" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO38" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8923,10 +8860,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
@@ -8941,7 +8878,7 @@
         <v>130</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I39" s="3">
         <v>28.5</v>
@@ -8968,7 +8905,7 @@
         <v>-50.08</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R39" s="3">
         <v>25</v>
@@ -9002,7 +8939,7 @@
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AE39" s="3">
         <v>4</v>
@@ -9017,10 +8954,10 @@
         <v>20200227</v>
       </c>
       <c r="AI39" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ39" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ39" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK39" s="35">
         <v>42</v>
@@ -9029,7 +8966,7 @@
         <v>84</v>
       </c>
       <c r="AM39" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN39" s="38" t="s">
         <v>168</v>
@@ -9043,10 +8980,10 @@
         <v>87</v>
       </c>
       <c r="AS39" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT39" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU39" s="34" t="s">
         <v>86</v>
@@ -9066,30 +9003,30 @@
       <c r="BD39" s="40"/>
       <c r="BE39" s="40"/>
       <c r="BF39" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG39" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH39" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI39" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ39" s="38"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM39" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN39" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BO39" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9097,10 +9034,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>44</v>
@@ -9115,7 +9052,7 @@
         <v>130</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9142,7 +9079,7 @@
         <v>-49.29</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R40" s="3">
         <v>26</v>
@@ -9176,7 +9113,7 @@
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE40" s="3">
         <v>8</v>
@@ -9191,10 +9128,10 @@
         <v>20200227</v>
       </c>
       <c r="AI40" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ40" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ40" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK40" s="35">
         <v>42</v>
@@ -9203,7 +9140,7 @@
         <v>84</v>
       </c>
       <c r="AM40" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN40" s="38" t="s">
         <v>168</v>
@@ -9217,10 +9154,10 @@
         <v>87</v>
       </c>
       <c r="AS40" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT40" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU40" s="34" t="s">
         <v>86</v>
@@ -9240,30 +9177,30 @@
       <c r="BD40" s="40"/>
       <c r="BE40" s="40"/>
       <c r="BF40" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG40" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI40" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ40" s="38"/>
       <c r="BK40" s="3"/>
       <c r="BL40" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM40" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN40" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO40" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9271,10 +9208,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>44</v>
@@ -9289,7 +9226,7 @@
         <v>130</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -9316,7 +9253,7 @@
         <v>-49.75</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R41" s="3">
         <v>21</v>
@@ -9332,7 +9269,7 @@
         <v>858</v>
       </c>
       <c r="V41" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W41" s="37">
         <v>1</v>
@@ -9350,7 +9287,7 @@
       <c r="AB41" s="37"/>
       <c r="AC41" s="37"/>
       <c r="AD41" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE41" s="3">
         <v>7</v>
@@ -9365,10 +9302,10 @@
         <v>20200227</v>
       </c>
       <c r="AI41" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ41" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="AJ41" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="AK41" s="35">
         <v>42</v>
@@ -9377,7 +9314,7 @@
         <v>84</v>
       </c>
       <c r="AM41" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN41" s="38" t="s">
         <v>168</v>
@@ -9391,10 +9328,10 @@
         <v>87</v>
       </c>
       <c r="AS41" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AT41" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU41" s="34" t="s">
         <v>86</v>
@@ -9414,30 +9351,30 @@
       <c r="BD41" s="40"/>
       <c r="BE41" s="40"/>
       <c r="BF41" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG41" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH41" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI41" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ41" s="38"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM41" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN41" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO41" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9445,10 +9382,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>13</v>
@@ -9463,7 +9400,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I42" s="3">
         <v>29.1</v>
@@ -9490,7 +9427,7 @@
         <v>-61.69</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R42" s="3">
         <v>18</v>
@@ -9505,10 +9442,10 @@
         <v>742</v>
       </c>
       <c r="V42" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W42" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X42" s="37" t="s">
         <v>188</v>
@@ -9519,7 +9456,7 @@
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
       <c r="AB42" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC42" s="37"/>
       <c r="AD42" s="3">
@@ -9538,10 +9475,10 @@
         <v>20200914</v>
       </c>
       <c r="AI42" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AJ42" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK42" s="35">
         <v>33</v>
@@ -9550,10 +9487,10 @@
         <v>75</v>
       </c>
       <c r="AM42" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN42" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO42" s="34" t="s">
         <v>73</v>
@@ -9562,7 +9499,7 @@
         <v>72</v>
       </c>
       <c r="AQ42" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR42" s="40"/>
       <c r="AS42" s="40"/>
@@ -9579,10 +9516,10 @@
       <c r="AX42" s="40"/>
       <c r="AY42" s="40"/>
       <c r="AZ42" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA42" s="40" t="s">
         <v>388</v>
-      </c>
-      <c r="BA42" s="40" t="s">
-        <v>389</v>
       </c>
       <c r="BB42" s="40" t="s">
         <v>168</v>
@@ -9591,34 +9528,34 @@
       <c r="BD42" s="40"/>
       <c r="BE42" s="40"/>
       <c r="BF42" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG42" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH42" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI42" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BJ42" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK42" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BL42" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM42" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM42" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN42" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO42" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9626,10 +9563,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>53</v>
@@ -9644,7 +9581,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I43" s="3">
         <v>29.2</v>
@@ -9671,13 +9608,13 @@
         <v>-61.64</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R43" s="3">
         <v>20</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T43" s="3">
         <v>1080</v>
@@ -9686,10 +9623,10 @@
         <v>819</v>
       </c>
       <c r="V43" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W43" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X43" s="37" t="s">
         <v>188</v>
@@ -9708,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="AF43" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG43" s="3">
         <v>1023.5</v>
@@ -9717,10 +9654,10 @@
         <v>20200914</v>
       </c>
       <c r="AI43" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AJ43" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK43" s="67">
         <v>30</v>
@@ -9729,10 +9666,10 @@
         <v>75</v>
       </c>
       <c r="AM43" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN43" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO43" s="34" t="s">
         <v>73</v>
@@ -9741,7 +9678,7 @@
         <v>72</v>
       </c>
       <c r="AQ43" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR43" s="38"/>
       <c r="AS43" s="38"/>
@@ -9764,32 +9701,32 @@
       <c r="BD43" s="40"/>
       <c r="BE43" s="40"/>
       <c r="BF43" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG43" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH43" s="63" t="s">
         <v>118</v>
       </c>
       <c r="BI43" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BJ43" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK43" s="3"/>
       <c r="BL43" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM43" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM43" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN43" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO43" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9797,10 +9734,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>24</v>
@@ -9815,7 +9752,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -9842,7 +9779,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R44" s="3">
         <v>23</v>
@@ -9860,7 +9797,7 @@
         <v>36</v>
       </c>
       <c r="W44" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X44" s="37" t="s">
         <v>188</v>
@@ -9873,7 +9810,7 @@
       <c r="AB44" s="37"/>
       <c r="AC44" s="37"/>
       <c r="AD44" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE44" s="3">
         <v>6</v>
@@ -9888,10 +9825,10 @@
         <v>20210112</v>
       </c>
       <c r="AI44" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ44" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK44" s="35">
         <v>29</v>
@@ -9900,10 +9837,10 @@
         <v>75</v>
       </c>
       <c r="AM44" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO44" s="34" t="s">
         <v>73</v>
@@ -9912,7 +9849,7 @@
         <v>72</v>
       </c>
       <c r="AQ44" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR44" s="38"/>
       <c r="AS44" s="38"/>
@@ -9935,30 +9872,30 @@
       <c r="BD44" s="40"/>
       <c r="BE44" s="40"/>
       <c r="BF44" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG44" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH44" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BI44" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ44" s="38"/>
       <c r="BK44" s="3"/>
       <c r="BL44" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM44" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM44" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN44" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO44" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9966,10 +9903,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>44</v>
@@ -9984,7 +9921,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I45" s="3">
         <v>29.1</v>
@@ -10011,7 +9948,7 @@
         <v>-61.52</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R45" s="3">
         <v>21</v>
@@ -10029,7 +9966,7 @@
         <v>36</v>
       </c>
       <c r="W45" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X45" s="37" t="s">
         <v>188</v>
@@ -10044,7 +9981,7 @@
       <c r="AB45" s="37"/>
       <c r="AC45" s="37"/>
       <c r="AD45" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE45" s="3">
         <v>1</v>
@@ -10059,10 +9996,10 @@
         <v>20210302</v>
       </c>
       <c r="AI45" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ45" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK45" s="67">
         <v>42</v>
@@ -10071,7 +10008,7 @@
         <v>84</v>
       </c>
       <c r="AM45" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN45" s="38" t="s">
         <v>168</v>
@@ -10085,7 +10022,7 @@
         <v>87</v>
       </c>
       <c r="AS45" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT45" s="38" t="s">
         <v>168</v>
@@ -10108,30 +10045,30 @@
       <c r="BD45" s="40"/>
       <c r="BE45" s="40"/>
       <c r="BF45" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG45" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH45" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BI45" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ45" s="38"/>
       <c r="BK45" s="3"/>
       <c r="BL45" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM45" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="BM45" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="BN45" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="BO45" s="43" t="s">
         <v>404</v>
-      </c>
-      <c r="BO45" s="43" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10139,10 +10076,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>24</v>
@@ -10157,7 +10094,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10184,7 +10121,7 @@
         <v>-61.49</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R46" s="2">
         <v>22</v>
@@ -10202,7 +10139,7 @@
         <v>36</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X46" s="18" t="s">
         <v>188</v>
@@ -10230,10 +10167,10 @@
         <v>20210112</v>
       </c>
       <c r="AI46" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AJ46" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK46" s="14">
         <v>29</v>
@@ -10242,10 +10179,10 @@
         <v>75</v>
       </c>
       <c r="AM46" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN46" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO46" s="20" t="s">
         <v>73</v>
@@ -10254,7 +10191,7 @@
         <v>72</v>
       </c>
       <c r="AQ46" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR46" s="84"/>
       <c r="AS46" s="84"/>
@@ -10277,32 +10214,32 @@
       <c r="BD46" s="91"/>
       <c r="BE46" s="91"/>
       <c r="BF46" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG46" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH46" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI46" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ46" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK46" s="2"/>
       <c r="BL46" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM46" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM46" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN46" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO46" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10310,10 +10247,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
@@ -10328,7 +10265,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I47" s="2">
         <v>29.1</v>
@@ -10355,7 +10292,7 @@
         <v>-62.67</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R47" s="2">
         <v>4</v>
@@ -10374,7 +10311,7 @@
         <v>36</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X47" s="18" t="s">
         <v>188</v>
@@ -10402,10 +10339,10 @@
         <v>20210420</v>
       </c>
       <c r="AI47" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ47" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK47" s="14">
         <v>33</v>
@@ -10414,10 +10351,10 @@
         <v>69</v>
       </c>
       <c r="AM47" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN47" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO47" s="10" t="s">
         <v>70</v>
@@ -10426,7 +10363,7 @@
         <v>71</v>
       </c>
       <c r="AQ47" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR47" s="22"/>
       <c r="AS47" s="22"/>
@@ -10449,32 +10386,32 @@
       <c r="BD47" s="15"/>
       <c r="BE47" s="15"/>
       <c r="BF47" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG47" s="17" t="s">
         <v>174</v>
       </c>
       <c r="BH47" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI47" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BJ47" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK47" s="2"/>
       <c r="BL47" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM47" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM47" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN47" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="BO47" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="BO47" s="21" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10482,10 +10419,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>44</v>
@@ -10500,7 +10437,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I48" s="2">
         <v>29</v>
@@ -10527,7 +10464,7 @@
         <v>-61.41</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R48" s="2">
         <v>21</v>
@@ -10545,7 +10482,7 @@
         <v>36</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X48" s="18" t="s">
         <v>188</v>
@@ -10573,10 +10510,10 @@
         <v>20210420</v>
       </c>
       <c r="AI48" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ48" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK48" s="14">
         <v>32</v>
@@ -10585,10 +10522,10 @@
         <v>76</v>
       </c>
       <c r="AM48" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN48" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO48" s="20" t="s">
         <v>77</v>
@@ -10620,32 +10557,32 @@
       <c r="BD48" s="15"/>
       <c r="BE48" s="15"/>
       <c r="BF48" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG48" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH48" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI48" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ48" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK48" s="2"/>
       <c r="BL48" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM48" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM48" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN48" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO48" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10653,10 +10590,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>53</v>
@@ -10668,10 +10605,10 @@
         <v>4800937</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I49" s="2">
         <v>29.2</v>
@@ -10698,7 +10635,7 @@
         <v>-62.85</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R49" s="2">
         <v>14</v>
@@ -10710,13 +10647,13 @@
         <v>486</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V49" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X49" s="18"/>
       <c r="Y49" s="18" t="s">
@@ -10746,10 +10683,10 @@
         <v>20210527</v>
       </c>
       <c r="AI49" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ49" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK49" s="14">
         <v>58</v>
@@ -10773,16 +10710,16 @@
         <v>168</v>
       </c>
       <c r="AX49" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY49" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ49" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA49" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA49" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB49" s="15" t="s">
         <v>168</v>
@@ -10791,32 +10728,32 @@
       <c r="BD49" s="15"/>
       <c r="BE49" s="15"/>
       <c r="BF49" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG49" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH49" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI49" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ49" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK49" s="2"/>
       <c r="BL49" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM49" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN49" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO49" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10824,10 +10761,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>35</v>
@@ -10842,7 +10779,7 @@
         <v>130</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I50" s="2">
         <v>28.9</v>
@@ -10869,7 +10806,7 @@
         <v>-52.69</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R50" s="2">
         <v>9</v>
@@ -10902,7 +10839,7 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD50" s="2">
         <v>0</v>
@@ -10920,10 +10857,10 @@
         <v>20210421</v>
       </c>
       <c r="AI50" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ50" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK50" s="14">
         <v>42</v>
@@ -10932,7 +10869,7 @@
         <v>84</v>
       </c>
       <c r="AM50" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN50" s="22" t="s">
         <v>168</v>
@@ -10946,7 +10883,7 @@
         <v>87</v>
       </c>
       <c r="AS50" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT50" s="22" t="s">
         <v>168</v>
@@ -10966,16 +10903,16 @@
       <c r="BA50" s="84"/>
       <c r="BB50" s="84"/>
       <c r="BC50" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD50" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD50" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE50" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF50" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG50" s="17" t="s">
         <v>174</v>
@@ -10984,21 +10921,21 @@
         <v>98</v>
       </c>
       <c r="BI50" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="2"/>
       <c r="BL50" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM50" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN50" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BO50" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11006,10 +10943,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>44</v>
@@ -11024,7 +10961,7 @@
         <v>15</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I51" s="2">
         <v>29.1</v>
@@ -11051,7 +10988,7 @@
         <v>-61.4</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R51" s="2">
         <v>22</v>
@@ -11069,7 +11006,7 @@
         <v>36</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X51" s="18" t="s">
         <v>188</v>
@@ -11091,16 +11028,16 @@
         <v>2</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH51" s="18">
         <v>20210420</v>
       </c>
       <c r="AI51" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ51" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK51" s="14">
         <v>32</v>
@@ -11109,10 +11046,10 @@
         <v>76</v>
       </c>
       <c r="AM51" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN51" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO51" s="20" t="s">
         <v>77</v>
@@ -11144,32 +11081,32 @@
       <c r="BD51" s="15"/>
       <c r="BE51" s="15"/>
       <c r="BF51" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG51" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH51" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI51" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ51" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK51" s="2"/>
       <c r="BL51" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM51" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM51" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN51" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO51" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11177,10 +11114,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>53</v>
@@ -11192,10 +11129,10 @@
         <v>4800937</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I52" s="2">
         <v>29.2</v>
@@ -11222,7 +11159,7 @@
         <v>-62.68</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R52" s="2">
         <v>22</v>
@@ -11234,13 +11171,13 @@
         <v>808</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V52" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W52" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X52" s="18"/>
       <c r="Y52" s="18" t="s">
@@ -11264,16 +11201,16 @@
         <v>2</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH52" s="18">
         <v>20210527</v>
       </c>
       <c r="AI52" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK52" s="14">
         <v>58</v>
@@ -11297,16 +11234,16 @@
         <v>168</v>
       </c>
       <c r="AX52" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY52" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ52" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA52" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA52" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB52" s="15" t="s">
         <v>168</v>
@@ -11315,32 +11252,32 @@
       <c r="BD52" s="15"/>
       <c r="BE52" s="15"/>
       <c r="BF52" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG52" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH52" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI52" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ52" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK52" s="2"/>
       <c r="BL52" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM52" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN52" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO52" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11348,10 +11285,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
@@ -11366,7 +11303,7 @@
         <v>130</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I53" s="2">
         <v>28.8</v>
@@ -11393,7 +11330,7 @@
         <v>-50.2</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R53" s="2">
         <v>20</v>
@@ -11426,7 +11363,7 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="18"/>
       <c r="AC53" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD53" s="2">
         <v>0</v>
@@ -11444,10 +11381,10 @@
         <v>20210421</v>
       </c>
       <c r="AI53" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK53" s="14">
         <v>42</v>
@@ -11456,7 +11393,7 @@
         <v>84</v>
       </c>
       <c r="AM53" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN53" s="22" t="s">
         <v>168</v>
@@ -11470,7 +11407,7 @@
         <v>87</v>
       </c>
       <c r="AS53" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT53" s="22" t="s">
         <v>168</v>
@@ -11490,16 +11427,16 @@
       <c r="BA53" s="15"/>
       <c r="BB53" s="15"/>
       <c r="BC53" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD53" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD53" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE53" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF53" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG53" s="17" t="s">
         <v>174</v>
@@ -11508,21 +11445,21 @@
         <v>98</v>
       </c>
       <c r="BI53" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ53" s="22"/>
       <c r="BK53" s="2"/>
       <c r="BL53" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM53" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN53" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO53" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11530,10 +11467,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>35</v>
@@ -11548,7 +11485,7 @@
         <v>130</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I54" s="2">
         <v>28.9</v>
@@ -11575,7 +11512,7 @@
         <v>-49.41</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R54" s="2">
         <v>27</v>
@@ -11593,7 +11530,7 @@
         <v>37</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X54" s="18" t="s">
         <v>188</v>
@@ -11607,7 +11544,7 @@
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
       <c r="AC54" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD54" s="2">
         <v>1</v>
@@ -11625,10 +11562,10 @@
         <v>20210421</v>
       </c>
       <c r="AI54" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ54" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK54" s="14">
         <v>42</v>
@@ -11637,7 +11574,7 @@
         <v>84</v>
       </c>
       <c r="AM54" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN54" s="22" t="s">
         <v>168</v>
@@ -11651,7 +11588,7 @@
         <v>87</v>
       </c>
       <c r="AS54" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT54" s="22" t="s">
         <v>168</v>
@@ -11671,16 +11608,16 @@
       <c r="BA54" s="15"/>
       <c r="BB54" s="15"/>
       <c r="BC54" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD54" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD54" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE54" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF54" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG54" s="17" t="s">
         <v>174</v>
@@ -11689,21 +11626,21 @@
         <v>98</v>
       </c>
       <c r="BI54" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ54" s="22"/>
       <c r="BK54" s="2"/>
       <c r="BL54" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM54" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN54" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO54" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11711,10 +11648,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>44</v>
@@ -11729,7 +11666,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I55" s="2">
         <v>29.1</v>
@@ -11756,7 +11693,7 @@
         <v>-61.53</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R55" s="2">
         <v>21</v>
@@ -11774,7 +11711,7 @@
         <v>36</v>
       </c>
       <c r="W55" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X55" s="18" t="s">
         <v>188</v>
@@ -11796,16 +11733,16 @@
         <v>3</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH55" s="18">
         <v>20210420</v>
       </c>
       <c r="AI55" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="AJ55" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="AK55" s="14">
         <v>32</v>
@@ -11814,10 +11751,10 @@
         <v>76</v>
       </c>
       <c r="AM55" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN55" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO55" s="20" t="s">
         <v>77</v>
@@ -11849,34 +11786,34 @@
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
       <c r="BF55" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG55" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH55" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BI55" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ55" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BL55" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM55" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM55" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN55" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO55" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11884,10 +11821,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>53</v>
@@ -11899,10 +11836,10 @@
         <v>4800937</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I56" s="2">
         <v>29.2</v>
@@ -11929,7 +11866,7 @@
         <v>-62.65</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R56" s="2">
         <v>21</v>
@@ -11941,13 +11878,13 @@
         <v>700</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V56" s="18" t="s">
         <v>36</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X56" s="18"/>
       <c r="Y56" s="18" t="s">
@@ -11971,16 +11908,16 @@
         <v>2</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH56" s="18">
         <v>20210527</v>
       </c>
       <c r="AI56" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="AJ56" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="AK56" s="14">
         <v>58</v>
@@ -12004,16 +11941,16 @@
         <v>168</v>
       </c>
       <c r="AX56" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AY56" s="15" t="s">
         <v>169</v>
       </c>
       <c r="AZ56" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA56" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="BA56" s="15" t="s">
-        <v>389</v>
       </c>
       <c r="BB56" s="15" t="s">
         <v>168</v>
@@ -12022,34 +11959,34 @@
       <c r="BD56" s="15"/>
       <c r="BE56" s="15"/>
       <c r="BF56" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG56" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH56" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BI56" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ56" s="97" t="s">
         <v>139</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BL56" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BM56" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN56" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO56" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12057,10 +11994,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>35</v>
@@ -12075,7 +12012,7 @@
         <v>130</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I57" s="2">
         <v>28.9</v>
@@ -12102,7 +12039,7 @@
         <v>-50.21</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R57" s="2">
         <v>28</v>
@@ -12135,7 +12072,7 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
       <c r="AC57" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD57" s="2">
         <v>0</v>
@@ -12147,16 +12084,16 @@
         <v>0</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH57" s="18">
         <v>20210421</v>
       </c>
       <c r="AI57" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK57" s="14">
         <v>42</v>
@@ -12165,7 +12102,7 @@
         <v>75</v>
       </c>
       <c r="AM57" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN57" s="22" t="s">
         <v>168</v>
@@ -12177,13 +12114,13 @@
         <v>72</v>
       </c>
       <c r="AQ57" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AR57" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AS57" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT57" s="22" t="s">
         <v>168</v>
@@ -12203,16 +12140,16 @@
       <c r="BA57" s="22"/>
       <c r="BB57" s="22"/>
       <c r="BC57" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD57" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD57" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE57" s="15" t="s">
         <v>168</v>
       </c>
       <c r="BF57" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG57" s="17" t="s">
         <v>174</v>
@@ -12221,21 +12158,21 @@
         <v>98</v>
       </c>
       <c r="BI57" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ57" s="22"/>
       <c r="BK57" s="2"/>
       <c r="BL57" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM57" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BN57" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BO57" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12243,10 +12180,10 @@
         <v>13</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>484</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>485</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
@@ -12261,7 +12198,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12288,7 +12225,7 @@
         <v>-63.05</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R58" s="2">
         <v>5</v>
@@ -12307,7 +12244,7 @@
         <v>36</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X58" s="18" t="s">
         <v>188</v>
@@ -12335,10 +12272,10 @@
         <v>20210922</v>
       </c>
       <c r="AI58" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK58" s="14">
         <v>33</v>
@@ -12347,10 +12284,10 @@
         <v>69</v>
       </c>
       <c r="AM58" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN58" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO58" s="10" t="s">
         <v>70</v>
@@ -12359,7 +12296,7 @@
         <v>71</v>
       </c>
       <c r="AQ58" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR58" s="22"/>
       <c r="AS58" s="22"/>
@@ -12382,7 +12319,7 @@
       <c r="BD58" s="15"/>
       <c r="BE58" s="15"/>
       <c r="BF58" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG58" s="17" t="s">
         <v>174</v>
@@ -12391,23 +12328,23 @@
         <v>118</v>
       </c>
       <c r="BI58" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BJ58" s="97" t="s">
         <v>140</v>
       </c>
       <c r="BK58" s="2"/>
       <c r="BL58" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM58" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM58" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN58" s="18" t="s">
         <v>203</v>
       </c>
       <c r="BO58" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12415,10 +12352,10 @@
         <v>14</v>
       </c>
       <c r="B59" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="20" t="s">
         <v>502</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>503</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>13</v>
@@ -12433,7 +12370,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -12460,7 +12397,7 @@
         <v>-62.45</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R59" s="2">
         <v>13</v>
@@ -12478,7 +12415,7 @@
         <v>36</v>
       </c>
       <c r="W59" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X59" s="18" t="s">
         <v>188</v>
@@ -12506,10 +12443,10 @@
         <v>20220117</v>
       </c>
       <c r="AI59" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK59" s="14">
         <v>29</v>
@@ -12518,10 +12455,10 @@
         <v>69</v>
       </c>
       <c r="AM59" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN59" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO59" s="10" t="s">
         <v>70</v>
@@ -12530,7 +12467,7 @@
         <v>71</v>
       </c>
       <c r="AQ59" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR59" s="22"/>
       <c r="AS59" s="22"/>
@@ -12553,7 +12490,7 @@
       <c r="BD59" s="22"/>
       <c r="BE59" s="22"/>
       <c r="BF59" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG59" s="17" t="s">
         <v>174</v>
@@ -12562,23 +12499,23 @@
         <v>95</v>
       </c>
       <c r="BI59" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ59" s="22" t="s">
         <v>140</v>
       </c>
       <c r="BK59" s="2"/>
       <c r="BL59" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM59" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="BM59" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="BN59" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO59" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12589,7 +12526,7 @@
         <v>20220303</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>35</v>
@@ -12604,7 +12541,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I60" s="2">
         <v>29.1</v>
@@ -12631,7 +12568,7 @@
         <v>-61.72</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R60" s="2">
         <v>21</v>
@@ -12649,7 +12586,7 @@
         <v>36</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X60" s="18" t="s">
         <v>188</v>
@@ -12663,7 +12600,7 @@
       <c r="AA60" s="18"/>
       <c r="AB60" s="18"/>
       <c r="AC60" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AD60" s="2">
         <v>2</v>
@@ -12681,10 +12618,10 @@
         <v>20220224</v>
       </c>
       <c r="AI60" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ60" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AK60" s="14">
         <v>42</v>
@@ -12693,7 +12630,7 @@
         <v>84</v>
       </c>
       <c r="AM60" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN60" s="22" t="s">
         <v>168</v>
@@ -12707,7 +12644,7 @@
         <v>87</v>
       </c>
       <c r="AS60" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AT60" s="22" t="s">
         <v>168</v>
@@ -12727,16 +12664,16 @@
       <c r="BA60" s="22"/>
       <c r="BB60" s="22"/>
       <c r="BC60" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD60" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="BD60" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="BE60" s="22" t="s">
         <v>168</v>
       </c>
       <c r="BF60" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG60" s="17" t="s">
         <v>174</v>
@@ -12745,25 +12682,25 @@
         <v>95</v>
       </c>
       <c r="BI60" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ60" s="22" t="s">
         <v>139</v>
       </c>
       <c r="BK60" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BL60" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM60" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="BM60" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="BN60" s="18" t="s">
         <v>208</v>
       </c>
       <c r="BO60" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -12774,7 +12711,7 @@
         <v>20220406</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -12789,7 +12726,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I61" s="3">
         <v>29.1</v>
@@ -12816,7 +12753,7 @@
         <v>-61.44</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R61" s="3">
         <v>23</v>
@@ -12834,7 +12771,7 @@
         <v>36</v>
       </c>
       <c r="W61" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X61" s="37" t="s">
         <v>188</v>
@@ -12862,10 +12799,10 @@
         <v>20220331</v>
       </c>
       <c r="AI61" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK61" s="67">
         <v>30</v>
@@ -12874,10 +12811,10 @@
         <v>76</v>
       </c>
       <c r="AM61" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN61" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO61" s="34" t="s">
         <v>77</v>
@@ -12909,7 +12846,7 @@
       <c r="BD61" s="40"/>
       <c r="BE61" s="38"/>
       <c r="BF61" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG61" s="42" t="s">
         <v>174</v>
@@ -12918,191 +12855,193 @@
         <v>95</v>
       </c>
       <c r="BI61" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ61" s="38"/>
+        <v>329</v>
+      </c>
+      <c r="BJ61" s="121" t="s">
+        <v>139</v>
+      </c>
       <c r="BK61" s="3"/>
       <c r="BL61" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM61" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="BM61" s="35" t="s">
-        <v>212</v>
       </c>
       <c r="BN61" s="37" t="s">
         <v>203</v>
       </c>
       <c r="BO61" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="129">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23">
         <v>2</v>
       </c>
-      <c r="B62" s="130">
+      <c r="B62" s="48">
         <v>20220908</v>
       </c>
-      <c r="C62" s="131" t="s">
+      <c r="C62" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="35">
+        <v>88</v>
+      </c>
+      <c r="F62" s="35">
+        <v>4800993</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="I62" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="J62" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="K62" s="35">
+        <v>44.378300000000003</v>
+      </c>
+      <c r="L62" s="35">
+        <v>-63.333199999999998</v>
+      </c>
+      <c r="M62" s="37">
+        <v>42.47</v>
+      </c>
+      <c r="N62" s="37">
+        <v>-63.33</v>
+      </c>
+      <c r="O62" s="37">
+        <v>44.37</v>
+      </c>
+      <c r="P62" s="37">
+        <v>-61.44</v>
+      </c>
+      <c r="Q62" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D62" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="132">
-        <v>88</v>
-      </c>
-      <c r="F62" s="132">
-        <v>4800993</v>
-      </c>
-      <c r="G62" s="132" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="I62" s="134">
-        <v>29.2</v>
-      </c>
-      <c r="J62" s="134">
-        <v>25.4</v>
-      </c>
-      <c r="K62" s="132">
-        <v>44.378300000000003</v>
-      </c>
-      <c r="L62" s="132">
-        <v>-63.333199999999998</v>
-      </c>
-      <c r="M62" s="133">
-        <v>42.47</v>
-      </c>
-      <c r="N62" s="133">
-        <v>-63.33</v>
-      </c>
-      <c r="O62" s="133">
-        <v>44.37</v>
-      </c>
-      <c r="P62" s="133">
-        <v>-61.44</v>
-      </c>
-      <c r="Q62" s="134" t="s">
-        <v>521</v>
-      </c>
-      <c r="R62" s="134">
+      <c r="R62" s="3">
         <v>21</v>
       </c>
-      <c r="S62" s="134">
+      <c r="S62" s="3">
         <v>596.82000000000005</v>
       </c>
-      <c r="T62" s="134">
+      <c r="T62" s="3">
         <v>1098</v>
       </c>
-      <c r="U62" s="134">
+      <c r="U62" s="3">
         <v>1091</v>
       </c>
-      <c r="V62" s="133" t="s">
+      <c r="V62" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="W62" s="133" t="s">
+      <c r="W62" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="X62" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y62" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>1021.9</v>
+      </c>
+      <c r="AH62" s="37">
+        <v>20220902</v>
+      </c>
+      <c r="AI62" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ62" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK62" s="35">
+        <v>30</v>
+      </c>
+      <c r="AL62" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM62" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN62" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO62" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP62" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ62" s="48">
+        <v>20210105</v>
+      </c>
+      <c r="AR62" s="38"/>
+      <c r="AS62" s="38"/>
+      <c r="AT62" s="38"/>
+      <c r="AU62" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV62" s="39">
+        <v>42723</v>
+      </c>
+      <c r="AW62" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="X62" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y62" s="133" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z62" s="133"/>
-      <c r="AA62" s="133"/>
-      <c r="AB62" s="133"/>
-      <c r="AC62" s="133"/>
-      <c r="AD62" s="134">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="134">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="134">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="134">
-        <v>1021.9</v>
-      </c>
-      <c r="AH62" s="133">
-        <v>20220902</v>
-      </c>
-      <c r="AI62" s="133" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ62" s="133" t="s">
+      <c r="BG62" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH62" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI62" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ62" s="104">
+        <v>200206</v>
+      </c>
+      <c r="BK62" s="104"/>
+      <c r="BL62" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM62" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="AK62" s="132">
-        <v>30</v>
-      </c>
-      <c r="AL62" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM62" s="135" t="s">
-        <v>429</v>
-      </c>
-      <c r="AN62" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO62" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP62" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ62" s="130">
-        <v>20210105</v>
-      </c>
-      <c r="AR62" s="135"/>
-      <c r="AS62" s="135"/>
-      <c r="AT62" s="135"/>
-      <c r="AU62" s="131" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV62" s="136">
-        <v>42723</v>
-      </c>
-      <c r="AW62" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX62" s="135"/>
-      <c r="AY62" s="135"/>
-      <c r="AZ62" s="135"/>
-      <c r="BA62" s="135"/>
-      <c r="BB62" s="135"/>
-      <c r="BC62" s="135"/>
-      <c r="BD62" s="135"/>
-      <c r="BE62" s="135"/>
-      <c r="BF62" s="138" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG62" s="139" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH62" s="137" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI62" s="135" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ62" s="140">
-        <v>200206</v>
-      </c>
-      <c r="BK62" s="140"/>
-      <c r="BL62" s="134" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM62" s="134" t="s">
-        <v>518</v>
-      </c>
-      <c r="BN62" s="133" t="s">
+      <c r="BN62" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="BO62" s="141"/>
+      <c r="BO62" s="43"/>
     </row>
     <row r="63" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="107">
@@ -13112,7 +13051,7 @@
         <v>20220915</v>
       </c>
       <c r="C63" s="108" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D63" s="109" t="s">
         <v>53</v>
@@ -13120,14 +13059,14 @@
       <c r="E63" s="109">
         <v>73</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="35">
         <v>4800937</v>
       </c>
       <c r="G63" s="109" t="s">
         <v>130</v>
       </c>
       <c r="H63" s="106" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I63" s="110">
         <v>29.2</v>
@@ -13154,7 +13093,7 @@
         <v>-50.68</v>
       </c>
       <c r="Q63" s="105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R63" s="105">
         <v>20.100000000000001</v>
@@ -13180,12 +13119,14 @@
       <c r="Y63" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="Z63" s="18" t="s">
+      <c r="Z63" s="37" t="s">
         <v>188</v>
       </c>
       <c r="AA63" s="106"/>
       <c r="AB63" s="106"/>
-      <c r="AC63" s="106"/>
+      <c r="AC63" s="37" t="s">
+        <v>410</v>
+      </c>
       <c r="AD63" s="105">
         <v>0</v>
       </c>
@@ -13202,10 +13143,10 @@
         <v>20220506</v>
       </c>
       <c r="AI63" s="106" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ63" s="106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AK63" s="109">
         <v>42</v>
@@ -13214,7 +13155,7 @@
         <v>84</v>
       </c>
       <c r="AM63" s="111" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN63" s="111" t="s">
         <v>168</v>
@@ -13224,20 +13165,20 @@
       </c>
       <c r="AP63" s="108"/>
       <c r="AQ63" s="111"/>
-      <c r="AR63" s="22" t="s">
+      <c r="AR63" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AS63" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="AT63" s="22" t="s">
+      <c r="AS63" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT63" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AU63" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV63" s="112">
-        <v>42723</v>
+      <c r="AU63" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV63" s="39">
+        <v>42859</v>
       </c>
       <c r="AW63" s="111" t="s">
         <v>168</v>
@@ -13248,36 +13189,36 @@
       <c r="BA63" s="111"/>
       <c r="BB63" s="111"/>
       <c r="BC63" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD63" s="113" t="s">
         <v>416</v>
-      </c>
-      <c r="BD63" s="113" t="s">
-        <v>417</v>
       </c>
       <c r="BE63" s="111" t="s">
         <v>168</v>
       </c>
       <c r="BF63" s="114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG63" s="115" t="s">
         <v>174</v>
       </c>
       <c r="BH63" s="113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI63" s="111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BJ63" s="111"/>
       <c r="BK63" s="105"/>
       <c r="BL63" s="109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM63" s="109" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BN63" s="106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BO63" s="116"/>
     </row>
@@ -13286,10 +13227,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="108" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C64" s="108" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D64" s="109" t="s">
         <v>24</v>
@@ -13304,7 +13245,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="106" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I64" s="105">
         <v>29.2</v>
@@ -13331,7 +13272,7 @@
         <v>-62.02</v>
       </c>
       <c r="Q64" s="105" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R64" s="105">
         <v>18.899999999999999</v>
@@ -13349,7 +13290,7 @@
         <v>36</v>
       </c>
       <c r="W64" s="106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X64" s="106" t="s">
         <v>188</v>
@@ -13359,8 +13300,8 @@
       </c>
       <c r="Z64" s="106"/>
       <c r="AA64" s="106"/>
-      <c r="AB64" s="106">
-        <v>1</v>
+      <c r="AB64" s="106" t="s">
+        <v>550</v>
       </c>
       <c r="AC64" s="106"/>
       <c r="AD64" s="105">
@@ -13379,10 +13320,10 @@
         <v>20230208</v>
       </c>
       <c r="AI64" s="106" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ64" s="106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AK64" s="109">
         <v>29</v>
@@ -13391,10 +13332,10 @@
         <v>75</v>
       </c>
       <c r="AM64" s="111" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN64" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO64" s="108" t="s">
         <v>73</v>
@@ -13403,7 +13344,7 @@
         <v>72</v>
       </c>
       <c r="AQ64" s="111" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="AR64" s="111"/>
       <c r="AS64" s="111"/>
@@ -13420,19 +13361,19 @@
       <c r="AX64" s="111"/>
       <c r="AY64" s="111"/>
       <c r="AZ64" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA64" s="111" t="s">
         <v>527</v>
       </c>
-      <c r="BA64" s="111" t="s">
-        <v>528</v>
-      </c>
       <c r="BB64" s="111" t="s">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="BC64" s="113"/>
       <c r="BD64" s="113"/>
       <c r="BE64" s="113"/>
       <c r="BF64" s="114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG64" s="115" t="s">
         <v>174</v>
@@ -13441,29 +13382,32 @@
         <v>201383</v>
       </c>
       <c r="BI64" s="105" t="s">
-        <v>529</v>
-      </c>
-      <c r="BJ64" s="128">
+        <v>528</v>
+      </c>
+      <c r="BJ64" s="119">
         <v>200206</v>
       </c>
-      <c r="BK64" s="128"/>
+      <c r="BK64" s="119"/>
       <c r="BL64" s="105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM64" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BN64" s="106" t="s">
         <v>203</v>
       </c>
       <c r="BO64" s="116"/>
     </row>
-    <row r="65" spans="2:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="107">
+        <v>5</v>
+      </c>
       <c r="B65" s="108" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C65" s="108" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>44</v>
@@ -13478,7 +13422,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="106" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I65" s="105">
         <v>29.2</v>
@@ -13505,7 +13449,7 @@
         <v>-61.41</v>
       </c>
       <c r="Q65" s="105" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R65" s="105">
         <v>24.9</v>
@@ -13523,7 +13467,7 @@
         <v>36</v>
       </c>
       <c r="W65" s="106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X65" s="106" t="s">
         <v>188</v>
@@ -13551,10 +13495,10 @@
         <v>20230308</v>
       </c>
       <c r="AI65" s="106" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AJ65" s="106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AK65" s="109">
         <v>30</v>
@@ -13563,10 +13507,10 @@
         <v>81</v>
       </c>
       <c r="AM65" s="111" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN65" s="111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO65" s="108" t="s">
         <v>82</v>
@@ -13575,7 +13519,7 @@
         <v>83</v>
       </c>
       <c r="AQ65" s="111" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AR65" s="111"/>
       <c r="AS65" s="111"/>
@@ -13584,10 +13528,10 @@
         <v>80</v>
       </c>
       <c r="AV65" s="111" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW65" s="113" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AX65" s="111"/>
       <c r="AY65" s="111"/>
@@ -13598,7 +13542,7 @@
       <c r="BD65" s="113"/>
       <c r="BE65" s="113"/>
       <c r="BF65" s="114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BG65" s="115" t="s">
         <v>174</v>
@@ -13607,350 +13551,458 @@
         <v>162640</v>
       </c>
       <c r="BI65" s="105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ65" s="105">
         <v>201189</v>
       </c>
-      <c r="BK65" s="128"/>
+      <c r="BK65" s="119"/>
       <c r="BL65" s="105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BM65" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BN65" s="106" t="s">
         <v>208</v>
       </c>
       <c r="BO65" s="116" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="66" spans="2:67" s="150" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="142" t="s">
+    <row r="66" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>1</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="14">
+        <v>71</v>
+      </c>
+      <c r="F66" s="14">
+        <v>4800926</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="I66" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="K66" s="14">
+        <v>44.492899999999999</v>
+      </c>
+      <c r="L66" s="14">
+        <v>-63.385300000000001</v>
+      </c>
+      <c r="M66" s="18">
+        <v>42.5</v>
+      </c>
+      <c r="N66" s="18">
+        <v>-63.39</v>
+      </c>
+      <c r="O66" s="18">
+        <v>44.5</v>
+      </c>
+      <c r="P66" s="18">
+        <v>-61.43</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R66" s="2">
+        <v>27</v>
+      </c>
+      <c r="S66" s="2">
+        <v>629</v>
+      </c>
+      <c r="T66" s="2">
+        <v>1235</v>
+      </c>
+      <c r="U66" s="2">
+        <f>1181*2+1</f>
+        <v>2363</v>
+      </c>
+      <c r="V66" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W66" s="18">
+        <v>1</v>
+      </c>
+      <c r="X66" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y66" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="18"/>
+      <c r="AB66" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>1024.9000000000001</v>
+      </c>
+      <c r="AH66" s="18">
+        <v>20230330</v>
+      </c>
+      <c r="AI66" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ66" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK66" s="14">
+        <v>29</v>
+      </c>
+      <c r="AL66" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM66" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN66" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO66" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP66" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ66" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="22"/>
+      <c r="AU66" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV66" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW66" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX66" s="22"/>
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA66" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="BB66" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG66" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH66" s="2">
+        <v>201383</v>
+      </c>
+      <c r="BI66" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="BJ66" s="120">
+        <v>200206</v>
+      </c>
+      <c r="BK66" s="120"/>
+      <c r="BL66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM66" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN66" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO66" s="21"/>
+    </row>
+    <row r="67" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14">
+        <v>4800994</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18">
+        <v>1</v>
+      </c>
+      <c r="X67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y67" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z67" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA67" s="18"/>
+      <c r="AB67" s="18"/>
+      <c r="AC67" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2">
+        <v>1024</v>
+      </c>
+      <c r="AH67" s="18">
+        <v>20230228</v>
+      </c>
+      <c r="AI67" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ67" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="AK67" s="14">
+        <v>42</v>
+      </c>
+      <c r="AL67" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM67" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP67" s="20"/>
+      <c r="AQ67" s="22"/>
+      <c r="AR67" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS67" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU67" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV67" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="AW67" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="AX67" s="22"/>
+      <c r="AY67" s="22"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD67" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE67" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF67" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG67" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>162642</v>
+      </c>
+      <c r="BI67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ67" s="120"/>
+      <c r="BK67" s="120" t="s">
         <v>542</v>
       </c>
-      <c r="C66" s="142"/>
-      <c r="D66" s="143" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="143">
-        <v>71</v>
-      </c>
-      <c r="F66" s="143"/>
-      <c r="G66" s="143" t="s">
+      <c r="BL67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM67" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="BN67" s="18"/>
+      <c r="BO67" s="21"/>
+    </row>
+    <row r="68" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14">
+        <v>4800937</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="144"/>
-      <c r="I66" s="145">
-        <v>29.2</v>
-      </c>
-      <c r="J66" s="145"/>
-      <c r="K66" s="143">
-        <v>44.492899999999999</v>
-      </c>
-      <c r="L66" s="143">
-        <v>-63.385300000000001</v>
-      </c>
-      <c r="M66" s="144"/>
-      <c r="N66" s="144"/>
-      <c r="O66" s="144"/>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="145"/>
-      <c r="R66" s="145"/>
-      <c r="S66" s="145"/>
-      <c r="T66" s="145"/>
-      <c r="U66" s="145"/>
-      <c r="V66" s="144"/>
-      <c r="W66" s="144"/>
-      <c r="X66" s="144"/>
-      <c r="Y66" s="144"/>
-      <c r="Z66" s="144"/>
-      <c r="AA66" s="144"/>
-      <c r="AB66" s="144"/>
-      <c r="AC66" s="144"/>
-      <c r="AD66" s="145"/>
-      <c r="AE66" s="145"/>
-      <c r="AF66" s="145"/>
-      <c r="AG66" s="145"/>
-      <c r="AH66" s="144"/>
-      <c r="AI66" s="144"/>
-      <c r="AJ66" s="144" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK66" s="143">
-        <v>29</v>
-      </c>
-      <c r="AL66" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM66" s="146" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN66" s="146" t="s">
-        <v>219</v>
-      </c>
-      <c r="AO66" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP66" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ66" s="146" t="s">
-        <v>502</v>
-      </c>
-      <c r="AR66" s="146"/>
-      <c r="AS66" s="146"/>
-      <c r="AT66" s="146"/>
-      <c r="AU66" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV66" s="146" t="s">
+      <c r="H68" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="AW66" s="146" t="s">
-        <v>482</v>
-      </c>
-      <c r="AX66" s="146"/>
-      <c r="AY66" s="146"/>
-      <c r="AZ66" s="146" t="s">
-        <v>527</v>
-      </c>
-      <c r="BA66" s="146" t="s">
-        <v>528</v>
-      </c>
-      <c r="BB66" s="146"/>
-      <c r="BC66" s="146"/>
-      <c r="BD66" s="146"/>
-      <c r="BE66" s="146"/>
-      <c r="BF66" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG66" s="147" t="s">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W68" s="18">
+        <v>1</v>
+      </c>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="18"/>
+      <c r="AB68" s="18"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2">
+        <v>1024.25</v>
+      </c>
+      <c r="AH68" s="18">
+        <v>202305</v>
+      </c>
+      <c r="AI68" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ68" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK68" s="14">
+        <v>32</v>
+      </c>
+      <c r="AL68" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM68" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN68" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO68" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP68" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ68" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV68" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AW68" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG68" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH66" s="145">
-        <v>201383</v>
-      </c>
-      <c r="BI66" s="145" t="s">
-        <v>529</v>
-      </c>
-      <c r="BJ66" s="148">
-        <v>200206</v>
-      </c>
-      <c r="BK66" s="148"/>
-      <c r="BL66" s="145" t="s">
+      <c r="BH68" s="120"/>
+      <c r="BI68" s="120"/>
+      <c r="BJ68" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK68" s="120"/>
+      <c r="BL68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BM66" s="145" t="s">
-        <v>518</v>
-      </c>
-      <c r="BN66" s="144" t="s">
-        <v>544</v>
-      </c>
-      <c r="BO66" s="149"/>
+      <c r="BN68" s="18"/>
+      <c r="BO68" s="21"/>
     </row>
-    <row r="67" spans="2:67" s="127" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="120">
-        <v>75</v>
-      </c>
-      <c r="F67" s="120">
-        <v>4800994</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="121" t="s">
-        <v>532</v>
-      </c>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120"/>
-      <c r="M67" s="121"/>
-      <c r="N67" s="121"/>
-      <c r="O67" s="121"/>
-      <c r="P67" s="121"/>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="122"/>
-      <c r="S67" s="122"/>
-      <c r="T67" s="122"/>
-      <c r="U67" s="122"/>
-      <c r="V67" s="121"/>
-      <c r="W67" s="121">
-        <v>1</v>
-      </c>
-      <c r="X67" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y67" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z67" s="121"/>
-      <c r="AA67" s="121"/>
-      <c r="AB67" s="121"/>
-      <c r="AC67" s="121"/>
-      <c r="AD67" s="122"/>
-      <c r="AE67" s="122"/>
-      <c r="AF67" s="122"/>
-      <c r="AG67" s="122">
-        <v>1024</v>
-      </c>
-      <c r="AH67" s="121">
-        <v>20230228</v>
-      </c>
-      <c r="AI67" s="121" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ67" s="121" t="s">
-        <v>525</v>
-      </c>
-      <c r="AK67" s="120">
-        <v>42</v>
-      </c>
-      <c r="AL67" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM67" s="123" t="s">
-        <v>506</v>
-      </c>
-      <c r="AN67" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO67" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP67" s="119"/>
-      <c r="AQ67" s="123"/>
-      <c r="AR67" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS67" s="123" t="s">
-        <v>507</v>
-      </c>
-      <c r="AT67" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU67" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV67" s="123" t="s">
-        <v>533</v>
-      </c>
-      <c r="AW67" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX67" s="123"/>
-      <c r="AY67" s="123"/>
-      <c r="AZ67" s="123"/>
-      <c r="BA67" s="123"/>
-      <c r="BB67" s="123"/>
-      <c r="BC67" s="123" t="s">
-        <v>416</v>
-      </c>
-      <c r="BD67" s="123" t="s">
-        <v>417</v>
-      </c>
-      <c r="BE67" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF67" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG67" s="124" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH67" s="122">
-        <v>162642</v>
-      </c>
-      <c r="BI67" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ67" s="125"/>
-      <c r="BK67" s="125"/>
-      <c r="BL67" s="122" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM67" s="122" t="s">
-        <v>518</v>
-      </c>
-      <c r="BN67" s="121"/>
-      <c r="BO67" s="126"/>
-    </row>
-    <row r="68" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="37"/>
-      <c r="AB68" s="37"/>
-      <c r="AC68" s="37"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="37"/>
-      <c r="AI68" s="37"/>
-      <c r="AJ68" s="37"/>
-      <c r="AK68" s="35"/>
-      <c r="AL68" s="34"/>
-      <c r="AM68" s="38"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="34"/>
-      <c r="AP68" s="34"/>
-      <c r="AQ68" s="38"/>
-      <c r="AR68" s="38"/>
-      <c r="AS68" s="38"/>
-      <c r="AT68" s="38"/>
-      <c r="AU68" s="34"/>
-      <c r="AV68" s="38"/>
-      <c r="AW68" s="38"/>
-      <c r="AX68" s="38"/>
-      <c r="AY68" s="38"/>
-      <c r="AZ68" s="38"/>
-      <c r="BA68" s="38"/>
-      <c r="BB68" s="38"/>
-      <c r="BC68" s="38"/>
-      <c r="BD68" s="38"/>
-      <c r="BE68" s="38"/>
-      <c r="BF68" s="34"/>
-      <c r="BG68" s="118"/>
-      <c r="BH68" s="104"/>
-      <c r="BI68" s="104"/>
-      <c r="BJ68" s="104"/>
-      <c r="BK68" s="104"/>
-      <c r="BL68" s="104"/>
-      <c r="BM68" s="104"/>
-      <c r="BN68" s="37"/>
-      <c r="BO68" s="43"/>
-    </row>
-    <row r="69" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="117" t="s">
         <v>99</v>
       </c>
@@ -14020,7 +14072,7 @@
       <c r="BN69" s="37"/>
       <c r="BO69" s="43"/>
     </row>
-    <row r="70" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
@@ -14088,7 +14140,7 @@
       <c r="BN70" s="37"/>
       <c r="BO70" s="43"/>
     </row>
-    <row r="71" spans="2:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -14156,9 +14208,9 @@
       <c r="BN71" s="37"/>
       <c r="BO71" s="43"/>
     </row>
-    <row r="78" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.35">
       <c r="BH78" s="100" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BI78" s="38"/>
       <c r="BJ78" s="38"/>
@@ -14166,15 +14218,15 @@
       <c r="BL78" s="35"/>
       <c r="BM78" s="35"/>
     </row>
-    <row r="79" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.35">
       <c r="BH79" s="62" t="s">
         <v>98</v>
       </c>
       <c r="BI79" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BJ79" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BK79" s="3">
         <v>3.53</v>
@@ -14184,15 +14236,15 @@
       </c>
       <c r="BM79" s="35"/>
     </row>
-    <row r="80" spans="2:67" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="BH80" s="102" t="s">
         <v>96</v>
       </c>
       <c r="BI80" s="102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BJ80" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BK80" s="3">
         <v>3.28</v>
@@ -14207,10 +14259,10 @@
         <v>95</v>
       </c>
       <c r="BI81" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BJ81" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="BK81" s="3">
         <v>3.3</v>
@@ -14219,7 +14271,7 @@
         <v>85</v>
       </c>
       <c r="BM81" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="60:65" x14ac:dyDescent="0.35">
@@ -14227,10 +14279,10 @@
         <v>118</v>
       </c>
       <c r="BI82" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BJ82" s="46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BK82" s="48">
         <v>3.16</v>
@@ -14242,13 +14294,13 @@
     </row>
     <row r="83" spans="60:65" x14ac:dyDescent="0.35">
       <c r="BH83" s="98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BI83" s="99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BJ83" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BK83" s="48">
         <v>2.64</v>
@@ -14257,12 +14309,12 @@
         <v>43</v>
       </c>
       <c r="BM83" s="101" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="60:65" x14ac:dyDescent="0.35">
       <c r="BH84" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BI84" s="59" t="s">
         <v>119</v>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063F61A-5BD5-44AC-A6C0-1A60EBF38F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF89BBF-B742-4DD2-965B-B57A40BB4801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="950" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="559">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1678,9 +1678,6 @@
     <t>20230317</t>
   </si>
   <si>
-    <t>GLI2023_SEA032_</t>
-  </si>
-  <si>
     <t>satelite??</t>
   </si>
   <si>
@@ -1721,6 +1718,18 @@
   </si>
   <si>
     <t>10?</t>
+  </si>
+  <si>
+    <t>20230523</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA032_79</t>
+  </si>
+  <si>
+    <t>Sigma-T/</t>
+  </si>
+  <si>
+    <t>There were a few dives were the GPCTD DO was bad on the shelf break.</t>
   </si>
 </sst>
 </file>
@@ -2315,15 +2324,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2677,10 +2686,10 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BM55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AO64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL68" sqref="BL68"/>
+      <selection pane="bottomRight" activeCell="BO69" sqref="BO69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12857,7 +12866,7 @@
       <c r="BI61" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="BJ61" s="121" t="s">
+      <c r="BJ61" s="120" t="s">
         <v>139</v>
       </c>
       <c r="BK61" s="3"/>
@@ -13301,7 +13310,7 @@
       <c r="Z64" s="106"/>
       <c r="AA64" s="106"/>
       <c r="AB64" s="106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AC64" s="106"/>
       <c r="AD64" s="105">
@@ -13344,7 +13353,7 @@
         <v>72</v>
       </c>
       <c r="AQ64" s="111" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AR64" s="111"/>
       <c r="AS64" s="111"/>
@@ -13384,10 +13393,10 @@
       <c r="BI64" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="BJ64" s="119">
+      <c r="BJ64" s="118">
         <v>200206</v>
       </c>
-      <c r="BK64" s="119"/>
+      <c r="BK64" s="118"/>
       <c r="BL64" s="105" t="s">
         <v>212</v>
       </c>
@@ -13556,7 +13565,7 @@
       <c r="BJ65" s="105">
         <v>201189</v>
       </c>
-      <c r="BK65" s="119"/>
+      <c r="BK65" s="118"/>
       <c r="BL65" s="105" t="s">
         <v>212</v>
       </c>
@@ -13578,7 +13587,7 @@
         <v>538</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>24</v>
@@ -13593,7 +13602,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -13620,7 +13629,7 @@
         <v>-61.43</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R66" s="2">
         <v>27</v>
@@ -13632,8 +13641,8 @@
         <v>1235</v>
       </c>
       <c r="U66" s="2">
-        <f>1181*2+1</f>
-        <v>2363</v>
+        <f>1183*2+2</f>
+        <v>2368</v>
       </c>
       <c r="V66" s="18" t="s">
         <v>36</v>
@@ -13650,7 +13659,7 @@
       <c r="Z66" s="18"/>
       <c r="AA66" s="18"/>
       <c r="AB66" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AC66" s="18"/>
       <c r="AD66" s="2">
@@ -13669,10 +13678,10 @@
         <v>20230330</v>
       </c>
       <c r="AI66" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="AJ66" s="18" t="s">
         <v>546</v>
-      </c>
-      <c r="AJ66" s="18" t="s">
-        <v>547</v>
       </c>
       <c r="AK66" s="14">
         <v>29</v>
@@ -13693,7 +13702,7 @@
         <v>72</v>
       </c>
       <c r="AQ66" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AR66" s="22"/>
       <c r="AS66" s="22"/>
@@ -13705,7 +13714,7 @@
         <v>42711</v>
       </c>
       <c r="AW66" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AX66" s="22"/>
       <c r="AY66" s="22"/>
@@ -13733,10 +13742,10 @@
       <c r="BI66" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="BJ66" s="120">
+      <c r="BJ66" s="119">
         <v>200206</v>
       </c>
-      <c r="BK66" s="120"/>
+      <c r="BK66" s="119"/>
       <c r="BL66" s="2" t="s">
         <v>212</v>
       </c>
@@ -13762,7 +13771,7 @@
         <v>130</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -13843,7 +13852,7 @@
         <v>531</v>
       </c>
       <c r="AW67" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AX67" s="22"/>
       <c r="AY67" s="22"/>
@@ -13871,9 +13880,9 @@
       <c r="BI67" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="BJ67" s="120"/>
-      <c r="BK67" s="120" t="s">
-        <v>542</v>
+      <c r="BJ67" s="119"/>
+      <c r="BK67" s="119" t="s">
+        <v>541</v>
       </c>
       <c r="BL67" s="2" t="s">
         <v>216</v>
@@ -13885,12 +13894,16 @@
       <c r="BO67" s="21"/>
     </row>
     <row r="68" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>555</v>
+      </c>
       <c r="C68" s="20"/>
       <c r="D68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="14">
+        <v>79</v>
+      </c>
       <c r="F68" s="14">
         <v>4800937</v>
       </c>
@@ -13898,9 +13911,11 @@
         <v>15</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="I68" s="2">
+        <v>29.2</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
@@ -13919,8 +13934,12 @@
       <c r="W68" s="18">
         <v>1</v>
       </c>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
+      <c r="X68" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y68" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="Z68" s="18"/>
       <c r="AA68" s="18"/>
       <c r="AB68" s="18"/>
@@ -13935,10 +13954,10 @@
         <v>202305</v>
       </c>
       <c r="AI68" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AJ68" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AK68" s="14">
         <v>32</v>
@@ -13947,7 +13966,7 @@
         <v>76</v>
       </c>
       <c r="AM68" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN68" s="22" t="s">
         <v>218</v>
@@ -13959,7 +13978,7 @@
         <v>78</v>
       </c>
       <c r="AQ68" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AR68" s="22"/>
       <c r="AS68" s="22"/>
@@ -13971,7 +13990,7 @@
         <v>42711</v>
       </c>
       <c r="AW68" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AX68" s="22"/>
       <c r="AY68" s="22"/>
@@ -13987,93 +14006,101 @@
       <c r="BG68" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="BH68" s="120"/>
-      <c r="BI68" s="120"/>
+      <c r="BH68" s="119"/>
+      <c r="BI68" s="119"/>
       <c r="BJ68" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="BK68" s="120"/>
+      <c r="BK68" s="119"/>
       <c r="BL68" s="2" t="s">
         <v>212</v>
       </c>
       <c r="BM68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BN68" s="18"/>
-      <c r="BO68" s="21"/>
+      <c r="BN68" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="BO68" s="21" t="s">
+        <v>558</v>
+      </c>
     </row>
-    <row r="69" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="37"/>
-      <c r="AB69" s="37"/>
-      <c r="AC69" s="37"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="37"/>
-      <c r="AI69" s="37"/>
-      <c r="AJ69" s="37"/>
-      <c r="AK69" s="35"/>
-      <c r="AL69" s="34"/>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="34"/>
-      <c r="AP69" s="34"/>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="38"/>
-      <c r="AT69" s="38"/>
-      <c r="AU69" s="34"/>
-      <c r="AV69" s="38"/>
-      <c r="AW69" s="38"/>
-      <c r="AX69" s="38"/>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="38"/>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="38"/>
-      <c r="BE69" s="38"/>
-      <c r="BF69" s="34"/>
-      <c r="BG69" s="118"/>
-      <c r="BH69" s="104"/>
-      <c r="BI69" s="104"/>
-      <c r="BJ69" s="104"/>
-      <c r="BK69" s="104"/>
-      <c r="BL69" s="104"/>
-      <c r="BM69" s="104"/>
-      <c r="BN69" s="37"/>
-      <c r="BO69" s="43"/>
+    <row r="69" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="121"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="18"/>
+      <c r="AB69" s="18"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2">
+        <v>1023.75</v>
+      </c>
+      <c r="AH69" s="18"/>
+      <c r="AI69" s="18"/>
+      <c r="AJ69" s="18"/>
+      <c r="AK69" s="14"/>
+      <c r="AL69" s="20"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="20"/>
+      <c r="AP69" s="20"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="20"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="20"/>
+      <c r="BG69" s="50"/>
+      <c r="BH69" s="119"/>
+      <c r="BI69" s="119"/>
+      <c r="BJ69" s="119"/>
+      <c r="BK69" s="119"/>
+      <c r="BL69" s="119"/>
+      <c r="BM69" s="119"/>
+      <c r="BN69" s="18"/>
+      <c r="BO69" s="21"/>
     </row>
     <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="34"/>
+      <c r="B70" s="121" t="s">
+        <v>99</v>
+      </c>
       <c r="C70" s="34"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -14130,7 +14157,7 @@
       <c r="BD70" s="38"/>
       <c r="BE70" s="38"/>
       <c r="BF70" s="34"/>
-      <c r="BG70" s="118"/>
+      <c r="BG70" s="117"/>
       <c r="BH70" s="104"/>
       <c r="BI70" s="104"/>
       <c r="BJ70" s="104"/>
@@ -14198,7 +14225,7 @@
       <c r="BD71" s="38"/>
       <c r="BE71" s="38"/>
       <c r="BF71" s="34"/>
-      <c r="BG71" s="118"/>
+      <c r="BG71" s="117"/>
       <c r="BH71" s="104"/>
       <c r="BI71" s="104"/>
       <c r="BJ71" s="104"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF89BBF-B742-4DD2-965B-B57A40BB4801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66FC01-BB66-4C06-88EC-F4BE1EAD3F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="950" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="564">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1730,6 +1731,21 @@
   </si>
   <si>
     <t>There were a few dives were the GPCTD DO was bad on the shelf break.</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_93</t>
+  </si>
+  <si>
+    <t>3.5.3-r dataSplitSurf</t>
+  </si>
+  <si>
+    <t>20211222</t>
+  </si>
+  <si>
+    <t>20220219</t>
+  </si>
+  <si>
+    <t>First mission with nav firmware 3.5.3 where data file now split at surface and not 10m from surface, with auto ballast improvement option.</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2038,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,6 +2349,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2686,7 +2705,7 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AO64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BO64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BO69" sqref="BO69"/>
@@ -13515,7 +13534,7 @@
       <c r="AL65" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="AM65" s="111" t="s">
+      <c r="AM65" s="122" t="s">
         <v>525</v>
       </c>
       <c r="AN65" s="111" t="s">
@@ -13527,7 +13546,7 @@
       <c r="AP65" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="AQ65" s="111" t="s">
+      <c r="AQ65" s="122" t="s">
         <v>537</v>
       </c>
       <c r="AR65" s="111"/>
@@ -14019,7 +14038,7 @@
         <v>211</v>
       </c>
       <c r="BN68" s="18" t="s">
-        <v>557</v>
+        <v>203</v>
       </c>
       <c r="BO68" s="21" t="s">
         <v>558</v>
@@ -14031,10 +14050,18 @@
       <c r="D69" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="18"/>
+      <c r="E69" s="14">
+        <v>93</v>
+      </c>
+      <c r="F69" s="14">
+        <v>4800993</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>559</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="14"/>
@@ -14048,10 +14075,18 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
+      <c r="V69" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W69" s="18">
+        <v>1</v>
+      </c>
+      <c r="X69" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y69" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
       <c r="AB69" s="18"/>
@@ -14063,15 +14098,31 @@
         <v>1023.75</v>
       </c>
       <c r="AH69" s="18"/>
-      <c r="AI69" s="18"/>
+      <c r="AI69" s="18" t="s">
+        <v>560</v>
+      </c>
       <c r="AJ69" s="18"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="20"/>
-      <c r="AM69" s="22"/>
-      <c r="AN69" s="22"/>
-      <c r="AO69" s="20"/>
-      <c r="AP69" s="20"/>
-      <c r="AQ69" s="22"/>
+      <c r="AK69" s="14">
+        <v>30</v>
+      </c>
+      <c r="AL69" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM69" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="AN69" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO69" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP69" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ69" s="22" t="s">
+        <v>561</v>
+      </c>
       <c r="AR69" s="22"/>
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
@@ -14086,16 +14137,28 @@
       <c r="BC69" s="22"/>
       <c r="BD69" s="22"/>
       <c r="BE69" s="22"/>
-      <c r="BF69" s="20"/>
-      <c r="BG69" s="50"/>
+      <c r="BF69" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG69" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="BH69" s="119"/>
       <c r="BI69" s="119"/>
       <c r="BJ69" s="119"/>
       <c r="BK69" s="119"/>
-      <c r="BL69" s="119"/>
-      <c r="BM69" s="119"/>
-      <c r="BN69" s="18"/>
-      <c r="BO69" s="21"/>
+      <c r="BL69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN69" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="BO69" s="21" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="121" t="s">

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66FC01-BB66-4C06-88EC-F4BE1EAD3F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF4F6AD-5277-49ED-BFD0-624923DDA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2705,79 +2704,79 @@
   <dimension ref="A1:BO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BO64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO69" sqref="BO69"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="4" customWidth="1"/>
     <col min="5" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
     <col min="13" max="13" width="7" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="78.81640625" customWidth="1"/>
-    <col min="18" max="18" width="8.1796875" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="78.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="82" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="82" customWidth="1"/>
-    <col min="30" max="30" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="82" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="82" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.54296875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.453125" style="83" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="83" customWidth="1"/>
-    <col min="45" max="45" width="12.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="83" customWidth="1"/>
-    <col min="47" max="47" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.81640625" style="6" customWidth="1"/>
-    <col min="50" max="51" width="12.81640625" style="83" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" style="83" customWidth="1"/>
-    <col min="53" max="53" width="14.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1796875" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.1796875" style="83" customWidth="1"/>
-    <col min="58" max="58" width="11.81640625" style="5" customWidth="1"/>
-    <col min="59" max="59" width="11.81640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5546875" style="7" customWidth="1"/>
+    <col min="37" max="37" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.44140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" style="83" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="83" customWidth="1"/>
+    <col min="47" max="47" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.77734375" style="6" customWidth="1"/>
+    <col min="50" max="51" width="12.77734375" style="83" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="83" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.21875" style="83" customWidth="1"/>
+    <col min="58" max="58" width="11.77734375" style="5" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" customWidth="1"/>
     <col min="62" max="62" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="28.81640625" style="4" customWidth="1"/>
-    <col min="66" max="66" width="24.81640625" style="7" customWidth="1"/>
-    <col min="67" max="67" width="116.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.81640625" customWidth="1"/>
+    <col min="63" max="63" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.77734375" style="4" customWidth="1"/>
+    <col min="66" max="66" width="24.77734375" style="7" customWidth="1"/>
+    <col min="67" max="67" width="116.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="103" t="s">
@@ -2837,7 +2836,7 @@
       <c r="BN1" s="25"/>
       <c r="BO1" s="30"/>
     </row>
-    <row r="2" spans="1:67" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:67" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87">
         <v>2</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="89">
         <v>13</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
         <v>135</v>
       </c>
@@ -6017,7 +6016,7 @@
       </c>
       <c r="BO20" s="21"/>
     </row>
-    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85">
         <v>3</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85">
         <v>3</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:67" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="87">
         <v>14</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>283</v>
       </c>
@@ -8305,7 +8304,7 @@
       <c r="BN34" s="37"/>
       <c r="BO34" s="43"/>
     </row>
-    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>284</v>
       </c>
@@ -8377,7 +8376,7 @@
       <c r="BN35" s="37"/>
       <c r="BO35" s="43"/>
     </row>
-    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9231,7 +9230,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:67" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="89">
         <v>10</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10442,7 +10441,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12375,7 +12374,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12546,7 +12545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="85">
         <v>15</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>2</v>
       </c>
@@ -13071,7 +13070,7 @@
       </c>
       <c r="BO62" s="43"/>
     </row>
-    <row r="63" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="107">
         <v>3</v>
       </c>
@@ -13250,7 +13249,7 @@
       </c>
       <c r="BO63" s="116"/>
     </row>
-    <row r="64" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="107">
         <v>4</v>
       </c>
@@ -13427,7 +13426,7 @@
       </c>
       <c r="BO64" s="116"/>
     </row>
-    <row r="65" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:67" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="107">
         <v>5</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>1</v>
       </c>
@@ -13776,13 +13775,15 @@
       </c>
       <c r="BO66" s="21"/>
     </row>
-    <row r="67" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
       <c r="D67" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="14">
+        <v>77</v>
+      </c>
       <c r="F67" s="14">
         <v>4800994</v>
       </c>
@@ -13912,7 +13913,7 @@
       <c r="BN67" s="18"/>
       <c r="BO67" s="21"/>
     </row>
-    <row r="68" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="20" t="s">
         <v>555</v>
       </c>
@@ -14044,7 +14045,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="69" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="121"/>
       <c r="C69" s="20"/>
       <c r="D69" s="14" t="s">
@@ -14160,7 +14161,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="121" t="s">
         <v>99</v>
       </c>
@@ -14230,7 +14231,7 @@
       <c r="BN70" s="37"/>
       <c r="BO70" s="43"/>
     </row>
-    <row r="71" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:67" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="35"/>
@@ -14298,7 +14299,7 @@
       <c r="BN71" s="37"/>
       <c r="BO71" s="43"/>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.3">
       <c r="BH78" s="100" t="s">
         <v>492</v>
       </c>
@@ -14308,7 +14309,7 @@
       <c r="BL78" s="35"/>
       <c r="BM78" s="35"/>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.3">
       <c r="BH79" s="62" t="s">
         <v>98</v>
       </c>
@@ -14326,7 +14327,7 @@
       </c>
       <c r="BM79" s="35"/>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.3">
       <c r="BH80" s="102" t="s">
         <v>96</v>
       </c>
@@ -14344,7 +14345,7 @@
       </c>
       <c r="BM80" s="35"/>
     </row>
-    <row r="81" spans="60:65" x14ac:dyDescent="0.35">
+    <row r="81" spans="60:65" x14ac:dyDescent="0.3">
       <c r="BH81" s="61" t="s">
         <v>95</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="60:65" x14ac:dyDescent="0.35">
+    <row r="82" spans="60:65" x14ac:dyDescent="0.3">
       <c r="BH82" s="60" t="s">
         <v>118</v>
       </c>
@@ -14382,7 +14383,7 @@
       </c>
       <c r="BM82" s="29"/>
     </row>
-    <row r="83" spans="60:65" x14ac:dyDescent="0.35">
+    <row r="83" spans="60:65" x14ac:dyDescent="0.3">
       <c r="BH83" s="98" t="s">
         <v>282</v>
       </c>
@@ -14402,7 +14403,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="84" spans="60:65" x14ac:dyDescent="0.35">
+    <row r="84" spans="60:65" x14ac:dyDescent="0.3">
       <c r="BH84" s="46" t="s">
         <v>327</v>
       </c>
@@ -14414,7 +14415,7 @@
       <c r="BL84" s="29"/>
       <c r="BM84" s="29"/>
     </row>
-    <row r="85" spans="60:65" x14ac:dyDescent="0.35">
+    <row r="85" spans="60:65" x14ac:dyDescent="0.3">
       <c r="BH85" s="46"/>
       <c r="BI85" s="46"/>
       <c r="BJ85" s="46"/>
@@ -14434,7 +14435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14447,7 +14448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC5FDFB-9A1F-4BB5-B1E2-B0976F0EFB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C7B084-DB10-4891-9680-C5EFE0AA08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="599">
   <si>
     <t>Deployment date</t>
   </si>
@@ -1841,10 +1840,16 @@
     <t>C&amp;P (Roughwater 9.11)/DFO-Pelagics (Narry Face)</t>
   </si>
   <si>
-    <t>20220417</t>
-  </si>
-  <si>
-    <t>20220427</t>
+    <t>3.5.3-r</t>
+  </si>
+  <si>
+    <t>AZMP??</t>
+  </si>
+  <si>
+    <t>GPCTD of SEA022, glider just repaied by alseamar (bladder and linear)</t>
+  </si>
+  <si>
+    <t>CDOM okay?</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2459,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2491,6 +2495,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2842,10 +2847,10 @@
   <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AL59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AM59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL73" sqref="AL73"/>
+      <selection pane="bottomRight" activeCell="AP70" sqref="AP70:AR70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12586,7 +12591,7 @@
       <c r="D59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="126">
+      <c r="E59" s="125">
         <v>105</v>
       </c>
       <c r="F59" s="14">
@@ -12728,7 +12733,7 @@
       <c r="BJ59" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="BK59" s="127" t="s">
+      <c r="BK59" s="126" t="s">
         <v>139</v>
       </c>
       <c r="BL59" s="2"/>
@@ -12758,7 +12763,7 @@
       <c r="D60" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="126">
+      <c r="E60" s="125">
         <v>72</v>
       </c>
       <c r="F60" s="14">
@@ -12912,7 +12917,7 @@
       <c r="BJ60" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="BK60" s="127" t="s">
+      <c r="BK60" s="126" t="s">
         <v>138</v>
       </c>
       <c r="BL60" s="2" t="s">
@@ -12944,7 +12949,7 @@
       <c r="D61" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="126">
+      <c r="E61" s="125">
         <v>81</v>
       </c>
       <c r="F61" s="35">
@@ -13086,7 +13091,7 @@
       <c r="BJ61" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="BK61" s="128">
+      <c r="BK61" s="127">
         <v>200206</v>
       </c>
       <c r="BL61" s="3"/>
@@ -13116,7 +13121,7 @@
       <c r="D62" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="126">
+      <c r="E62" s="125">
         <v>88</v>
       </c>
       <c r="F62" s="35">
@@ -13288,7 +13293,7 @@
       <c r="D63" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="126">
+      <c r="E63" s="125">
         <v>73</v>
       </c>
       <c r="F63" s="35">
@@ -14443,10 +14448,10 @@
       <c r="AI69" s="18">
         <v>20230228</v>
       </c>
-      <c r="AJ69" s="141" t="s">
+      <c r="AJ69" s="140" t="s">
         <v>584</v>
       </c>
-      <c r="AK69" s="141" t="s">
+      <c r="AK69" s="140" t="s">
         <v>534</v>
       </c>
       <c r="AL69" s="14">
@@ -14532,10 +14537,14 @@
         <v>13</v>
       </c>
       <c r="E70" s="14">
-        <v>119</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="F70" s="14">
+        <v>4800925</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="H70" s="18"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -14551,10 +14560,18 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
+      <c r="W70" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X70" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z70" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="AA70" s="18"/>
       <c r="AB70" s="18"/>
       <c r="AC70" s="18"/>
@@ -14562,37 +14579,51 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="18"/>
-      <c r="AJ70" s="18"/>
-      <c r="AK70" s="18"/>
+      <c r="AH70" s="2">
+        <v>1022</v>
+      </c>
+      <c r="AI70" s="18">
+        <v>20230705</v>
+      </c>
+      <c r="AJ70" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK70" s="18" t="s">
+        <v>538</v>
+      </c>
       <c r="AL70" s="14">
         <v>33</v>
       </c>
       <c r="AM70" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AN70" s="22" t="s">
-        <v>595</v>
+        <v>520</v>
       </c>
       <c r="AO70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AP70" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ70" s="10" t="s">
-        <v>71</v>
+      <c r="AP70" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ70" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="AR70" s="22" t="s">
-        <v>596</v>
+        <v>499</v>
       </c>
       <c r="AS70" s="22"/>
       <c r="AT70" s="22"/>
       <c r="AU70" s="22"/>
-      <c r="AV70" s="20"/>
-      <c r="AW70" s="22"/>
-      <c r="AX70" s="22"/>
+      <c r="AV70" s="10">
+        <v>4551</v>
+      </c>
+      <c r="AW70" s="16">
+        <v>42691</v>
+      </c>
+      <c r="AX70" s="22" t="s">
+        <v>535</v>
+      </c>
       <c r="AY70" s="22"/>
       <c r="AZ70" s="22"/>
       <c r="BA70" s="22"/>
@@ -14601,22 +14632,44 @@
       <c r="BD70" s="22"/>
       <c r="BE70" s="22"/>
       <c r="BF70" s="22"/>
-      <c r="BG70" s="20"/>
-      <c r="BH70" s="50"/>
-      <c r="BI70" s="125"/>
-      <c r="BJ70" s="106"/>
-      <c r="BK70" s="106"/>
-      <c r="BL70" s="106"/>
-      <c r="BM70" s="106"/>
-      <c r="BN70" s="106"/>
+      <c r="BG70" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="BH70" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI70" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ70" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK70" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL70" s="149" t="s">
+        <v>596</v>
+      </c>
+      <c r="BM70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN70" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="BO70" s="18"/>
-      <c r="BP70" s="21"/>
+      <c r="BP70" s="21" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="71" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="14">
+        <v>80</v>
+      </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="18"/>
@@ -14672,489 +14725,499 @@
       <c r="BF71" s="22"/>
       <c r="BG71" s="20"/>
       <c r="BH71" s="50"/>
-      <c r="BI71" s="125"/>
-      <c r="BJ71" s="106"/>
+      <c r="BI71" s="50">
+        <v>201383</v>
+      </c>
+      <c r="BJ71" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="BK71" s="106"/>
       <c r="BL71" s="106"/>
-      <c r="BM71" s="106"/>
-      <c r="BN71" s="106"/>
+      <c r="BM71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BN71" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="BO71" s="18"/>
-      <c r="BP71" s="21"/>
+      <c r="BP71" s="21" t="s">
+        <v>598</v>
+      </c>
     </row>
-    <row r="72" spans="1:68" s="142" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="143"/>
-      <c r="C72" s="143"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="143"/>
-      <c r="F72" s="143"/>
-      <c r="G72" s="143"/>
-      <c r="H72" s="144"/>
-      <c r="I72" s="145"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="143"/>
-      <c r="L72" s="143"/>
-      <c r="M72" s="145"/>
-      <c r="N72" s="144"/>
-      <c r="O72" s="144"/>
-      <c r="P72" s="144"/>
-      <c r="Q72" s="144"/>
-      <c r="R72" s="145"/>
-      <c r="S72" s="145"/>
-      <c r="T72" s="145"/>
-      <c r="U72" s="145"/>
-      <c r="V72" s="145"/>
-      <c r="W72" s="144"/>
-      <c r="X72" s="144"/>
-      <c r="Y72" s="144"/>
-      <c r="Z72" s="144"/>
-      <c r="AA72" s="144"/>
-      <c r="AB72" s="144"/>
-      <c r="AC72" s="144"/>
-      <c r="AD72" s="144"/>
-      <c r="AE72" s="145"/>
-      <c r="AF72" s="145"/>
-      <c r="AG72" s="145"/>
-      <c r="AH72" s="145"/>
-      <c r="AI72" s="144"/>
-      <c r="AJ72" s="144"/>
-      <c r="AK72" s="144"/>
-      <c r="AL72" s="143"/>
-      <c r="AM72" s="146"/>
-      <c r="AN72" s="147"/>
-      <c r="AO72" s="147"/>
-      <c r="AP72" s="146"/>
-      <c r="AQ72" s="146"/>
-      <c r="AR72" s="147"/>
-      <c r="AS72" s="147"/>
-      <c r="AT72" s="147"/>
-      <c r="AU72" s="147"/>
-      <c r="AV72" s="146"/>
-      <c r="AW72" s="147"/>
-      <c r="AX72" s="147"/>
-      <c r="AY72" s="147"/>
-      <c r="AZ72" s="147"/>
-      <c r="BA72" s="147"/>
-      <c r="BB72" s="147"/>
-      <c r="BC72" s="147"/>
-      <c r="BD72" s="147"/>
-      <c r="BE72" s="147"/>
-      <c r="BF72" s="147"/>
-      <c r="BG72" s="146"/>
-      <c r="BH72" s="148"/>
-      <c r="BI72" s="147"/>
-      <c r="BJ72" s="147"/>
-      <c r="BK72" s="147"/>
-      <c r="BL72" s="145"/>
-      <c r="BM72" s="143"/>
-      <c r="BN72" s="143"/>
-      <c r="BO72" s="144"/>
-      <c r="BP72" s="149"/>
+    <row r="72" spans="1:68" s="141" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="143"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="142"/>
+      <c r="L72" s="142"/>
+      <c r="M72" s="144"/>
+      <c r="N72" s="143"/>
+      <c r="O72" s="143"/>
+      <c r="P72" s="143"/>
+      <c r="Q72" s="143"/>
+      <c r="R72" s="144"/>
+      <c r="S72" s="144"/>
+      <c r="T72" s="144"/>
+      <c r="U72" s="144"/>
+      <c r="V72" s="144"/>
+      <c r="W72" s="143"/>
+      <c r="X72" s="143"/>
+      <c r="Y72" s="143"/>
+      <c r="Z72" s="143"/>
+      <c r="AA72" s="143"/>
+      <c r="AB72" s="143"/>
+      <c r="AC72" s="143"/>
+      <c r="AD72" s="143"/>
+      <c r="AE72" s="144"/>
+      <c r="AF72" s="144"/>
+      <c r="AG72" s="144"/>
+      <c r="AH72" s="144"/>
+      <c r="AI72" s="143"/>
+      <c r="AJ72" s="143"/>
+      <c r="AK72" s="143"/>
+      <c r="AL72" s="142"/>
+      <c r="AM72" s="145"/>
+      <c r="AN72" s="146"/>
+      <c r="AO72" s="146"/>
+      <c r="AP72" s="145"/>
+      <c r="AQ72" s="145"/>
+      <c r="AR72" s="146"/>
+      <c r="AS72" s="146"/>
+      <c r="AT72" s="146"/>
+      <c r="AU72" s="146"/>
+      <c r="AV72" s="145"/>
+      <c r="AW72" s="146"/>
+      <c r="AX72" s="146"/>
+      <c r="AY72" s="146"/>
+      <c r="AZ72" s="146"/>
+      <c r="BA72" s="146"/>
+      <c r="BB72" s="146"/>
+      <c r="BC72" s="146"/>
+      <c r="BD72" s="146"/>
+      <c r="BE72" s="146"/>
+      <c r="BF72" s="146"/>
+      <c r="BG72" s="145"/>
+      <c r="BH72" s="147"/>
+      <c r="BI72" s="146"/>
+      <c r="BJ72" s="146"/>
+      <c r="BK72" s="146"/>
+      <c r="BL72" s="144"/>
+      <c r="BM72" s="142"/>
+      <c r="BN72" s="142"/>
+      <c r="BO72" s="143"/>
+      <c r="BP72" s="148"/>
     </row>
-    <row r="73" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="136"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="136"/>
-      <c r="N73" s="135"/>
-      <c r="O73" s="135"/>
-      <c r="P73" s="135"/>
-      <c r="Q73" s="135"/>
-      <c r="R73" s="136"/>
-      <c r="S73" s="136"/>
-      <c r="T73" s="136"/>
-      <c r="U73" s="136"/>
-      <c r="V73" s="136"/>
-      <c r="W73" s="135"/>
-      <c r="X73" s="135"/>
-      <c r="Y73" s="135"/>
-      <c r="Z73" s="135"/>
-      <c r="AA73" s="135"/>
-      <c r="AB73" s="135"/>
-      <c r="AC73" s="135"/>
-      <c r="AD73" s="135"/>
-      <c r="AE73" s="136"/>
-      <c r="AF73" s="136"/>
-      <c r="AG73" s="136"/>
-      <c r="AH73" s="136"/>
-      <c r="AI73" s="135"/>
-      <c r="AJ73" s="135"/>
-      <c r="AK73" s="135"/>
-      <c r="AL73" s="134"/>
-      <c r="AM73" s="137"/>
-      <c r="AN73" s="138"/>
-      <c r="AO73" s="138"/>
-      <c r="AP73" s="137"/>
-      <c r="AQ73" s="137"/>
-      <c r="AR73" s="138"/>
-      <c r="AS73" s="138"/>
-      <c r="AT73" s="138"/>
-      <c r="AU73" s="138"/>
-      <c r="AV73" s="137"/>
-      <c r="AW73" s="138"/>
-      <c r="AX73" s="138"/>
-      <c r="AY73" s="138"/>
-      <c r="AZ73" s="138"/>
-      <c r="BA73" s="138"/>
-      <c r="BB73" s="138"/>
-      <c r="BC73" s="138"/>
-      <c r="BD73" s="138"/>
-      <c r="BE73" s="138"/>
-      <c r="BF73" s="138"/>
-      <c r="BG73" s="137"/>
-      <c r="BH73" s="139"/>
-      <c r="BI73" s="138"/>
-      <c r="BJ73" s="138"/>
-      <c r="BK73" s="138"/>
-      <c r="BL73" s="136"/>
-      <c r="BM73" s="134"/>
-      <c r="BN73" s="134"/>
-      <c r="BO73" s="135"/>
-      <c r="BP73" s="140"/>
+    <row r="73" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="133"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="133"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="134"/>
+      <c r="P73" s="134"/>
+      <c r="Q73" s="134"/>
+      <c r="R73" s="135"/>
+      <c r="S73" s="135"/>
+      <c r="T73" s="135"/>
+      <c r="U73" s="135"/>
+      <c r="V73" s="135"/>
+      <c r="W73" s="134"/>
+      <c r="X73" s="134"/>
+      <c r="Y73" s="134"/>
+      <c r="Z73" s="134"/>
+      <c r="AA73" s="134"/>
+      <c r="AB73" s="134"/>
+      <c r="AC73" s="134"/>
+      <c r="AD73" s="134"/>
+      <c r="AE73" s="135"/>
+      <c r="AF73" s="135"/>
+      <c r="AG73" s="135"/>
+      <c r="AH73" s="135"/>
+      <c r="AI73" s="134"/>
+      <c r="AJ73" s="134"/>
+      <c r="AK73" s="134"/>
+      <c r="AL73" s="133"/>
+      <c r="AM73" s="136"/>
+      <c r="AN73" s="137"/>
+      <c r="AO73" s="137"/>
+      <c r="AP73" s="136"/>
+      <c r="AQ73" s="136"/>
+      <c r="AR73" s="137"/>
+      <c r="AS73" s="137"/>
+      <c r="AT73" s="137"/>
+      <c r="AU73" s="137"/>
+      <c r="AV73" s="136"/>
+      <c r="AW73" s="137"/>
+      <c r="AX73" s="137"/>
+      <c r="AY73" s="137"/>
+      <c r="AZ73" s="137"/>
+      <c r="BA73" s="137"/>
+      <c r="BB73" s="137"/>
+      <c r="BC73" s="137"/>
+      <c r="BD73" s="137"/>
+      <c r="BE73" s="137"/>
+      <c r="BF73" s="137"/>
+      <c r="BG73" s="136"/>
+      <c r="BH73" s="138"/>
+      <c r="BI73" s="137"/>
+      <c r="BJ73" s="137"/>
+      <c r="BK73" s="137"/>
+      <c r="BL73" s="135"/>
+      <c r="BM73" s="133"/>
+      <c r="BN73" s="133"/>
+      <c r="BO73" s="134"/>
+      <c r="BP73" s="139"/>
     </row>
-    <row r="74" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="134"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="136"/>
-      <c r="J74" s="136"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="136"/>
-      <c r="N74" s="135"/>
-      <c r="O74" s="135"/>
-      <c r="P74" s="135"/>
-      <c r="Q74" s="135"/>
-      <c r="R74" s="136"/>
-      <c r="S74" s="136"/>
-      <c r="T74" s="136"/>
-      <c r="U74" s="136"/>
-      <c r="V74" s="136"/>
-      <c r="W74" s="135"/>
-      <c r="X74" s="135"/>
-      <c r="Y74" s="135"/>
-      <c r="Z74" s="135"/>
-      <c r="AA74" s="135"/>
-      <c r="AB74" s="135"/>
-      <c r="AC74" s="135"/>
-      <c r="AD74" s="135"/>
-      <c r="AE74" s="136"/>
-      <c r="AF74" s="136"/>
-      <c r="AG74" s="136"/>
-      <c r="AH74" s="136"/>
-      <c r="AI74" s="135"/>
-      <c r="AJ74" s="135"/>
-      <c r="AK74" s="135"/>
-      <c r="AL74" s="134"/>
-      <c r="AM74" s="137"/>
-      <c r="AN74" s="138"/>
-      <c r="AO74" s="138"/>
-      <c r="AP74" s="137"/>
-      <c r="AQ74" s="137"/>
-      <c r="AR74" s="138"/>
-      <c r="AS74" s="138"/>
-      <c r="AT74" s="138"/>
-      <c r="AU74" s="138"/>
-      <c r="AV74" s="137"/>
-      <c r="AW74" s="138"/>
-      <c r="AX74" s="138"/>
-      <c r="AY74" s="138"/>
-      <c r="AZ74" s="138"/>
-      <c r="BA74" s="138"/>
-      <c r="BB74" s="138"/>
-      <c r="BC74" s="138"/>
-      <c r="BD74" s="138"/>
-      <c r="BE74" s="138"/>
-      <c r="BF74" s="138"/>
-      <c r="BG74" s="137"/>
-      <c r="BH74" s="139"/>
-      <c r="BI74" s="138"/>
-      <c r="BJ74" s="138"/>
-      <c r="BK74" s="138"/>
-      <c r="BL74" s="136"/>
-      <c r="BM74" s="134"/>
-      <c r="BN74" s="134"/>
-      <c r="BO74" s="135"/>
-      <c r="BP74" s="140"/>
+    <row r="74" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="133"/>
+      <c r="C74" s="133"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="133"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="135"/>
+      <c r="J74" s="135"/>
+      <c r="K74" s="133"/>
+      <c r="L74" s="133"/>
+      <c r="M74" s="135"/>
+      <c r="N74" s="134"/>
+      <c r="O74" s="134"/>
+      <c r="P74" s="134"/>
+      <c r="Q74" s="134"/>
+      <c r="R74" s="135"/>
+      <c r="S74" s="135"/>
+      <c r="T74" s="135"/>
+      <c r="U74" s="135"/>
+      <c r="V74" s="135"/>
+      <c r="W74" s="134"/>
+      <c r="X74" s="134"/>
+      <c r="Y74" s="134"/>
+      <c r="Z74" s="134"/>
+      <c r="AA74" s="134"/>
+      <c r="AB74" s="134"/>
+      <c r="AC74" s="134"/>
+      <c r="AD74" s="134"/>
+      <c r="AE74" s="135"/>
+      <c r="AF74" s="135"/>
+      <c r="AG74" s="135"/>
+      <c r="AH74" s="135"/>
+      <c r="AI74" s="134"/>
+      <c r="AJ74" s="134"/>
+      <c r="AK74" s="134"/>
+      <c r="AL74" s="133"/>
+      <c r="AM74" s="136"/>
+      <c r="AN74" s="137"/>
+      <c r="AO74" s="137"/>
+      <c r="AP74" s="136"/>
+      <c r="AQ74" s="136"/>
+      <c r="AR74" s="137"/>
+      <c r="AS74" s="137"/>
+      <c r="AT74" s="137"/>
+      <c r="AU74" s="137"/>
+      <c r="AV74" s="136"/>
+      <c r="AW74" s="137"/>
+      <c r="AX74" s="137"/>
+      <c r="AY74" s="137"/>
+      <c r="AZ74" s="137"/>
+      <c r="BA74" s="137"/>
+      <c r="BB74" s="137"/>
+      <c r="BC74" s="137"/>
+      <c r="BD74" s="137"/>
+      <c r="BE74" s="137"/>
+      <c r="BF74" s="137"/>
+      <c r="BG74" s="136"/>
+      <c r="BH74" s="138"/>
+      <c r="BI74" s="137"/>
+      <c r="BJ74" s="137"/>
+      <c r="BK74" s="137"/>
+      <c r="BL74" s="135"/>
+      <c r="BM74" s="133"/>
+      <c r="BN74" s="133"/>
+      <c r="BO74" s="134"/>
+      <c r="BP74" s="139"/>
     </row>
-    <row r="75" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="134"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="136"/>
-      <c r="J75" s="136"/>
-      <c r="K75" s="134"/>
-      <c r="L75" s="134"/>
-      <c r="M75" s="136"/>
-      <c r="N75" s="135"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="135"/>
-      <c r="Q75" s="135"/>
-      <c r="R75" s="136"/>
-      <c r="S75" s="136"/>
-      <c r="T75" s="136"/>
-      <c r="U75" s="136"/>
-      <c r="V75" s="136"/>
-      <c r="W75" s="135"/>
-      <c r="X75" s="135"/>
-      <c r="Y75" s="135"/>
-      <c r="Z75" s="135"/>
-      <c r="AA75" s="135"/>
-      <c r="AB75" s="135"/>
-      <c r="AC75" s="135"/>
-      <c r="AD75" s="135"/>
-      <c r="AE75" s="136"/>
-      <c r="AF75" s="136"/>
-      <c r="AG75" s="136"/>
-      <c r="AH75" s="136"/>
-      <c r="AI75" s="135"/>
-      <c r="AJ75" s="135"/>
-      <c r="AK75" s="135"/>
-      <c r="AL75" s="134"/>
-      <c r="AM75" s="137"/>
-      <c r="AN75" s="138"/>
-      <c r="AO75" s="138"/>
-      <c r="AP75" s="137"/>
-      <c r="AQ75" s="137"/>
-      <c r="AR75" s="138"/>
-      <c r="AS75" s="138"/>
-      <c r="AT75" s="138"/>
-      <c r="AU75" s="138"/>
-      <c r="AV75" s="137"/>
-      <c r="AW75" s="138"/>
-      <c r="AX75" s="138"/>
-      <c r="AY75" s="138"/>
-      <c r="AZ75" s="138"/>
-      <c r="BA75" s="138"/>
-      <c r="BB75" s="138"/>
-      <c r="BC75" s="138"/>
-      <c r="BD75" s="138"/>
-      <c r="BE75" s="138"/>
-      <c r="BF75" s="138"/>
-      <c r="BG75" s="137"/>
-      <c r="BH75" s="139"/>
-      <c r="BI75" s="138"/>
-      <c r="BJ75" s="138"/>
-      <c r="BK75" s="138"/>
-      <c r="BL75" s="136"/>
-      <c r="BM75" s="134"/>
-      <c r="BN75" s="134"/>
-      <c r="BO75" s="135"/>
-      <c r="BP75" s="140"/>
+    <row r="75" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="133"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="133"/>
+      <c r="G75" s="133"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="135"/>
+      <c r="J75" s="135"/>
+      <c r="K75" s="133"/>
+      <c r="L75" s="133"/>
+      <c r="M75" s="135"/>
+      <c r="N75" s="134"/>
+      <c r="O75" s="134"/>
+      <c r="P75" s="134"/>
+      <c r="Q75" s="134"/>
+      <c r="R75" s="135"/>
+      <c r="S75" s="135"/>
+      <c r="T75" s="135"/>
+      <c r="U75" s="135"/>
+      <c r="V75" s="135"/>
+      <c r="W75" s="134"/>
+      <c r="X75" s="134"/>
+      <c r="Y75" s="134"/>
+      <c r="Z75" s="134"/>
+      <c r="AA75" s="134"/>
+      <c r="AB75" s="134"/>
+      <c r="AC75" s="134"/>
+      <c r="AD75" s="134"/>
+      <c r="AE75" s="135"/>
+      <c r="AF75" s="135"/>
+      <c r="AG75" s="135"/>
+      <c r="AH75" s="135"/>
+      <c r="AI75" s="134"/>
+      <c r="AJ75" s="134"/>
+      <c r="AK75" s="134"/>
+      <c r="AL75" s="133"/>
+      <c r="AM75" s="136"/>
+      <c r="AN75" s="137"/>
+      <c r="AO75" s="137"/>
+      <c r="AP75" s="136"/>
+      <c r="AQ75" s="136"/>
+      <c r="AR75" s="137"/>
+      <c r="AS75" s="137"/>
+      <c r="AT75" s="137"/>
+      <c r="AU75" s="137"/>
+      <c r="AV75" s="136"/>
+      <c r="AW75" s="137"/>
+      <c r="AX75" s="137"/>
+      <c r="AY75" s="137"/>
+      <c r="AZ75" s="137"/>
+      <c r="BA75" s="137"/>
+      <c r="BB75" s="137"/>
+      <c r="BC75" s="137"/>
+      <c r="BD75" s="137"/>
+      <c r="BE75" s="137"/>
+      <c r="BF75" s="137"/>
+      <c r="BG75" s="136"/>
+      <c r="BH75" s="138"/>
+      <c r="BI75" s="137"/>
+      <c r="BJ75" s="137"/>
+      <c r="BK75" s="137"/>
+      <c r="BL75" s="135"/>
+      <c r="BM75" s="133"/>
+      <c r="BN75" s="133"/>
+      <c r="BO75" s="134"/>
+      <c r="BP75" s="139"/>
     </row>
-    <row r="76" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="134"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="136"/>
-      <c r="J76" s="136"/>
-      <c r="K76" s="134"/>
-      <c r="L76" s="134"/>
-      <c r="M76" s="136"/>
-      <c r="N76" s="135"/>
-      <c r="O76" s="135"/>
-      <c r="P76" s="135"/>
-      <c r="Q76" s="135"/>
-      <c r="R76" s="136"/>
-      <c r="S76" s="136"/>
-      <c r="T76" s="136"/>
-      <c r="U76" s="136"/>
-      <c r="V76" s="136"/>
-      <c r="W76" s="135"/>
-      <c r="X76" s="135"/>
-      <c r="Y76" s="135"/>
-      <c r="Z76" s="135"/>
-      <c r="AA76" s="135"/>
-      <c r="AB76" s="135"/>
-      <c r="AC76" s="135"/>
-      <c r="AD76" s="135"/>
-      <c r="AE76" s="136"/>
-      <c r="AF76" s="136"/>
-      <c r="AG76" s="136"/>
-      <c r="AH76" s="136"/>
-      <c r="AI76" s="135"/>
-      <c r="AJ76" s="135"/>
-      <c r="AK76" s="135"/>
-      <c r="AL76" s="134"/>
-      <c r="AM76" s="137"/>
-      <c r="AN76" s="138"/>
-      <c r="AO76" s="138"/>
-      <c r="AP76" s="137"/>
-      <c r="AQ76" s="137"/>
-      <c r="AR76" s="138"/>
-      <c r="AS76" s="138"/>
-      <c r="AT76" s="138"/>
-      <c r="AU76" s="138"/>
-      <c r="AV76" s="137"/>
-      <c r="AW76" s="138"/>
-      <c r="AX76" s="138"/>
-      <c r="AY76" s="138"/>
-      <c r="AZ76" s="138"/>
-      <c r="BA76" s="138"/>
-      <c r="BB76" s="138"/>
-      <c r="BC76" s="138"/>
-      <c r="BD76" s="138"/>
-      <c r="BE76" s="138"/>
-      <c r="BF76" s="138"/>
-      <c r="BG76" s="137"/>
-      <c r="BH76" s="139"/>
-      <c r="BI76" s="138"/>
-      <c r="BJ76" s="138"/>
-      <c r="BK76" s="138"/>
-      <c r="BL76" s="136"/>
-      <c r="BM76" s="134"/>
-      <c r="BN76" s="134"/>
-      <c r="BO76" s="135"/>
-      <c r="BP76" s="140"/>
+    <row r="76" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="133"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="134"/>
+      <c r="I76" s="135"/>
+      <c r="J76" s="135"/>
+      <c r="K76" s="133"/>
+      <c r="L76" s="133"/>
+      <c r="M76" s="135"/>
+      <c r="N76" s="134"/>
+      <c r="O76" s="134"/>
+      <c r="P76" s="134"/>
+      <c r="Q76" s="134"/>
+      <c r="R76" s="135"/>
+      <c r="S76" s="135"/>
+      <c r="T76" s="135"/>
+      <c r="U76" s="135"/>
+      <c r="V76" s="135"/>
+      <c r="W76" s="134"/>
+      <c r="X76" s="134"/>
+      <c r="Y76" s="134"/>
+      <c r="Z76" s="134"/>
+      <c r="AA76" s="134"/>
+      <c r="AB76" s="134"/>
+      <c r="AC76" s="134"/>
+      <c r="AD76" s="134"/>
+      <c r="AE76" s="135"/>
+      <c r="AF76" s="135"/>
+      <c r="AG76" s="135"/>
+      <c r="AH76" s="135"/>
+      <c r="AI76" s="134"/>
+      <c r="AJ76" s="134"/>
+      <c r="AK76" s="134"/>
+      <c r="AL76" s="133"/>
+      <c r="AM76" s="136"/>
+      <c r="AN76" s="137"/>
+      <c r="AO76" s="137"/>
+      <c r="AP76" s="136"/>
+      <c r="AQ76" s="136"/>
+      <c r="AR76" s="137"/>
+      <c r="AS76" s="137"/>
+      <c r="AT76" s="137"/>
+      <c r="AU76" s="137"/>
+      <c r="AV76" s="136"/>
+      <c r="AW76" s="137"/>
+      <c r="AX76" s="137"/>
+      <c r="AY76" s="137"/>
+      <c r="AZ76" s="137"/>
+      <c r="BA76" s="137"/>
+      <c r="BB76" s="137"/>
+      <c r="BC76" s="137"/>
+      <c r="BD76" s="137"/>
+      <c r="BE76" s="137"/>
+      <c r="BF76" s="137"/>
+      <c r="BG76" s="136"/>
+      <c r="BH76" s="138"/>
+      <c r="BI76" s="137"/>
+      <c r="BJ76" s="137"/>
+      <c r="BK76" s="137"/>
+      <c r="BL76" s="135"/>
+      <c r="BM76" s="133"/>
+      <c r="BN76" s="133"/>
+      <c r="BO76" s="134"/>
+      <c r="BP76" s="139"/>
     </row>
-    <row r="77" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="134"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="134"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="136"/>
-      <c r="J77" s="136"/>
-      <c r="K77" s="134"/>
-      <c r="L77" s="134"/>
-      <c r="M77" s="136"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="135"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="136"/>
-      <c r="S77" s="136"/>
-      <c r="T77" s="136"/>
-      <c r="U77" s="136"/>
-      <c r="V77" s="136"/>
-      <c r="W77" s="135"/>
-      <c r="X77" s="135"/>
-      <c r="Y77" s="135"/>
-      <c r="Z77" s="135"/>
-      <c r="AA77" s="135"/>
-      <c r="AB77" s="135"/>
-      <c r="AC77" s="135"/>
-      <c r="AD77" s="135"/>
-      <c r="AE77" s="136"/>
-      <c r="AF77" s="136"/>
-      <c r="AG77" s="136"/>
-      <c r="AH77" s="136"/>
-      <c r="AI77" s="135"/>
-      <c r="AJ77" s="135"/>
-      <c r="AK77" s="135"/>
-      <c r="AL77" s="134"/>
-      <c r="AM77" s="137"/>
-      <c r="AN77" s="138"/>
-      <c r="AO77" s="138"/>
-      <c r="AP77" s="137"/>
-      <c r="AQ77" s="137"/>
-      <c r="AR77" s="138"/>
-      <c r="AS77" s="138"/>
-      <c r="AT77" s="138"/>
-      <c r="AU77" s="138"/>
-      <c r="AV77" s="137"/>
-      <c r="AW77" s="138"/>
-      <c r="AX77" s="138"/>
-      <c r="AY77" s="138"/>
-      <c r="AZ77" s="138"/>
-      <c r="BA77" s="138"/>
-      <c r="BB77" s="138"/>
-      <c r="BC77" s="138"/>
-      <c r="BD77" s="138"/>
-      <c r="BE77" s="138"/>
-      <c r="BF77" s="138"/>
-      <c r="BG77" s="137"/>
-      <c r="BH77" s="139"/>
-      <c r="BI77" s="138"/>
-      <c r="BJ77" s="138"/>
-      <c r="BK77" s="138"/>
-      <c r="BL77" s="136"/>
-      <c r="BM77" s="134"/>
-      <c r="BN77" s="134"/>
-      <c r="BO77" s="135"/>
-      <c r="BP77" s="140"/>
+    <row r="77" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="133"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="133"/>
+      <c r="F77" s="133"/>
+      <c r="G77" s="133"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="135"/>
+      <c r="K77" s="133"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="134"/>
+      <c r="O77" s="134"/>
+      <c r="P77" s="134"/>
+      <c r="Q77" s="134"/>
+      <c r="R77" s="135"/>
+      <c r="S77" s="135"/>
+      <c r="T77" s="135"/>
+      <c r="U77" s="135"/>
+      <c r="V77" s="135"/>
+      <c r="W77" s="134"/>
+      <c r="X77" s="134"/>
+      <c r="Y77" s="134"/>
+      <c r="Z77" s="134"/>
+      <c r="AA77" s="134"/>
+      <c r="AB77" s="134"/>
+      <c r="AC77" s="134"/>
+      <c r="AD77" s="134"/>
+      <c r="AE77" s="135"/>
+      <c r="AF77" s="135"/>
+      <c r="AG77" s="135"/>
+      <c r="AH77" s="135"/>
+      <c r="AI77" s="134"/>
+      <c r="AJ77" s="134"/>
+      <c r="AK77" s="134"/>
+      <c r="AL77" s="133"/>
+      <c r="AM77" s="136"/>
+      <c r="AN77" s="137"/>
+      <c r="AO77" s="137"/>
+      <c r="AP77" s="136"/>
+      <c r="AQ77" s="136"/>
+      <c r="AR77" s="137"/>
+      <c r="AS77" s="137"/>
+      <c r="AT77" s="137"/>
+      <c r="AU77" s="137"/>
+      <c r="AV77" s="136"/>
+      <c r="AW77" s="137"/>
+      <c r="AX77" s="137"/>
+      <c r="AY77" s="137"/>
+      <c r="AZ77" s="137"/>
+      <c r="BA77" s="137"/>
+      <c r="BB77" s="137"/>
+      <c r="BC77" s="137"/>
+      <c r="BD77" s="137"/>
+      <c r="BE77" s="137"/>
+      <c r="BF77" s="137"/>
+      <c r="BG77" s="136"/>
+      <c r="BH77" s="138"/>
+      <c r="BI77" s="137"/>
+      <c r="BJ77" s="137"/>
+      <c r="BK77" s="137"/>
+      <c r="BL77" s="135"/>
+      <c r="BM77" s="133"/>
+      <c r="BN77" s="133"/>
+      <c r="BO77" s="134"/>
+      <c r="BP77" s="139"/>
     </row>
-    <row r="78" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="134"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="134"/>
-      <c r="L78" s="134"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="135"/>
-      <c r="Q78" s="135"/>
-      <c r="R78" s="136"/>
-      <c r="S78" s="136"/>
-      <c r="T78" s="136"/>
-      <c r="U78" s="136"/>
-      <c r="V78" s="136"/>
-      <c r="W78" s="135"/>
-      <c r="X78" s="135"/>
-      <c r="Y78" s="135"/>
-      <c r="Z78" s="135"/>
-      <c r="AA78" s="135"/>
-      <c r="AB78" s="135"/>
-      <c r="AC78" s="135"/>
-      <c r="AD78" s="135"/>
-      <c r="AE78" s="136"/>
-      <c r="AF78" s="136"/>
-      <c r="AG78" s="136"/>
-      <c r="AH78" s="136"/>
-      <c r="AI78" s="135"/>
-      <c r="AJ78" s="135"/>
-      <c r="AK78" s="135"/>
-      <c r="AL78" s="134"/>
-      <c r="AM78" s="137"/>
-      <c r="AN78" s="138"/>
-      <c r="AO78" s="138"/>
-      <c r="AP78" s="137"/>
-      <c r="AQ78" s="137"/>
-      <c r="AR78" s="138"/>
-      <c r="AS78" s="138"/>
-      <c r="AT78" s="138"/>
-      <c r="AU78" s="138"/>
-      <c r="AV78" s="137"/>
-      <c r="AW78" s="138"/>
-      <c r="AX78" s="138"/>
-      <c r="AY78" s="138"/>
-      <c r="AZ78" s="138"/>
-      <c r="BA78" s="138"/>
-      <c r="BB78" s="138"/>
-      <c r="BC78" s="138"/>
-      <c r="BD78" s="138"/>
-      <c r="BE78" s="138"/>
-      <c r="BF78" s="138"/>
-      <c r="BG78" s="137"/>
-      <c r="BH78" s="139"/>
+    <row r="78" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="133"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="135"/>
+      <c r="J78" s="135"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="134"/>
+      <c r="Q78" s="134"/>
+      <c r="R78" s="135"/>
+      <c r="S78" s="135"/>
+      <c r="T78" s="135"/>
+      <c r="U78" s="135"/>
+      <c r="V78" s="135"/>
+      <c r="W78" s="134"/>
+      <c r="X78" s="134"/>
+      <c r="Y78" s="134"/>
+      <c r="Z78" s="134"/>
+      <c r="AA78" s="134"/>
+      <c r="AB78" s="134"/>
+      <c r="AC78" s="134"/>
+      <c r="AD78" s="134"/>
+      <c r="AE78" s="135"/>
+      <c r="AF78" s="135"/>
+      <c r="AG78" s="135"/>
+      <c r="AH78" s="135"/>
+      <c r="AI78" s="134"/>
+      <c r="AJ78" s="134"/>
+      <c r="AK78" s="134"/>
+      <c r="AL78" s="133"/>
+      <c r="AM78" s="136"/>
+      <c r="AN78" s="137"/>
+      <c r="AO78" s="137"/>
+      <c r="AP78" s="136"/>
+      <c r="AQ78" s="136"/>
+      <c r="AR78" s="137"/>
+      <c r="AS78" s="137"/>
+      <c r="AT78" s="137"/>
+      <c r="AU78" s="137"/>
+      <c r="AV78" s="136"/>
+      <c r="AW78" s="137"/>
+      <c r="AX78" s="137"/>
+      <c r="AY78" s="137"/>
+      <c r="AZ78" s="137"/>
+      <c r="BA78" s="137"/>
+      <c r="BB78" s="137"/>
+      <c r="BC78" s="137"/>
+      <c r="BD78" s="137"/>
+      <c r="BE78" s="137"/>
+      <c r="BF78" s="137"/>
+      <c r="BG78" s="136"/>
+      <c r="BH78" s="138"/>
       <c r="BI78" s="100" t="s">
         <v>491</v>
       </c>
@@ -15163,69 +15226,69 @@
       <c r="BL78" s="3"/>
       <c r="BM78" s="35"/>
       <c r="BN78" s="35"/>
-      <c r="BO78" s="135"/>
-      <c r="BP78" s="140"/>
+      <c r="BO78" s="134"/>
+      <c r="BP78" s="139"/>
     </row>
-    <row r="79" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="134"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="134"/>
-      <c r="E79" s="134"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="136"/>
-      <c r="J79" s="136"/>
-      <c r="K79" s="134"/>
-      <c r="L79" s="134"/>
-      <c r="M79" s="136"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="135"/>
-      <c r="Q79" s="135"/>
-      <c r="R79" s="136"/>
-      <c r="S79" s="136"/>
-      <c r="T79" s="136"/>
-      <c r="U79" s="136"/>
-      <c r="V79" s="136"/>
-      <c r="W79" s="135"/>
-      <c r="X79" s="135"/>
-      <c r="Y79" s="135"/>
-      <c r="Z79" s="135"/>
-      <c r="AA79" s="135"/>
-      <c r="AB79" s="135"/>
-      <c r="AC79" s="135"/>
-      <c r="AD79" s="135"/>
-      <c r="AE79" s="136"/>
-      <c r="AF79" s="136"/>
-      <c r="AG79" s="136"/>
-      <c r="AH79" s="136"/>
-      <c r="AI79" s="135"/>
-      <c r="AJ79" s="135"/>
-      <c r="AK79" s="135"/>
-      <c r="AL79" s="134"/>
-      <c r="AM79" s="137"/>
-      <c r="AN79" s="138"/>
-      <c r="AO79" s="138"/>
-      <c r="AP79" s="137"/>
-      <c r="AQ79" s="137"/>
-      <c r="AR79" s="138"/>
-      <c r="AS79" s="138"/>
-      <c r="AT79" s="138"/>
-      <c r="AU79" s="138"/>
-      <c r="AV79" s="137"/>
-      <c r="AW79" s="138"/>
-      <c r="AX79" s="138"/>
-      <c r="AY79" s="138"/>
-      <c r="AZ79" s="138"/>
-      <c r="BA79" s="138"/>
-      <c r="BB79" s="138"/>
-      <c r="BC79" s="138"/>
-      <c r="BD79" s="138"/>
-      <c r="BE79" s="138"/>
-      <c r="BF79" s="138"/>
-      <c r="BG79" s="137"/>
-      <c r="BH79" s="139"/>
+    <row r="79" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="133"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="133"/>
+      <c r="L79" s="133"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="134"/>
+      <c r="O79" s="134"/>
+      <c r="P79" s="134"/>
+      <c r="Q79" s="134"/>
+      <c r="R79" s="135"/>
+      <c r="S79" s="135"/>
+      <c r="T79" s="135"/>
+      <c r="U79" s="135"/>
+      <c r="V79" s="135"/>
+      <c r="W79" s="134"/>
+      <c r="X79" s="134"/>
+      <c r="Y79" s="134"/>
+      <c r="Z79" s="134"/>
+      <c r="AA79" s="134"/>
+      <c r="AB79" s="134"/>
+      <c r="AC79" s="134"/>
+      <c r="AD79" s="134"/>
+      <c r="AE79" s="135"/>
+      <c r="AF79" s="135"/>
+      <c r="AG79" s="135"/>
+      <c r="AH79" s="135"/>
+      <c r="AI79" s="134"/>
+      <c r="AJ79" s="134"/>
+      <c r="AK79" s="134"/>
+      <c r="AL79" s="133"/>
+      <c r="AM79" s="136"/>
+      <c r="AN79" s="137"/>
+      <c r="AO79" s="137"/>
+      <c r="AP79" s="136"/>
+      <c r="AQ79" s="136"/>
+      <c r="AR79" s="137"/>
+      <c r="AS79" s="137"/>
+      <c r="AT79" s="137"/>
+      <c r="AU79" s="137"/>
+      <c r="AV79" s="136"/>
+      <c r="AW79" s="137"/>
+      <c r="AX79" s="137"/>
+      <c r="AY79" s="137"/>
+      <c r="AZ79" s="137"/>
+      <c r="BA79" s="137"/>
+      <c r="BB79" s="137"/>
+      <c r="BC79" s="137"/>
+      <c r="BD79" s="137"/>
+      <c r="BE79" s="137"/>
+      <c r="BF79" s="137"/>
+      <c r="BG79" s="136"/>
+      <c r="BH79" s="138"/>
       <c r="BI79" s="62" t="s">
         <v>98</v>
       </c>
@@ -15242,19 +15305,19 @@
         <v>84</v>
       </c>
       <c r="BN79" s="35"/>
-      <c r="BO79" s="135"/>
-      <c r="BP79" s="140"/>
+      <c r="BO79" s="134"/>
+      <c r="BP79" s="139"/>
     </row>
-    <row r="80" spans="1:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="130"/>
-      <c r="C80" s="130"/>
-      <c r="D80" s="130"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="130"/>
-      <c r="G80" s="130"/>
+    <row r="80" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="129"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="129"/>
+      <c r="G80" s="129"/>
       <c r="H80" s="82"/>
-      <c r="K80" s="130"/>
-      <c r="L80" s="130"/>
+      <c r="K80" s="129"/>
+      <c r="L80" s="129"/>
       <c r="N80" s="82"/>
       <c r="O80" s="82"/>
       <c r="P80" s="82"/>
@@ -15270,17 +15333,17 @@
       <c r="AI80" s="82"/>
       <c r="AJ80" s="82"/>
       <c r="AK80" s="82"/>
-      <c r="AL80" s="130"/>
-      <c r="AM80" s="131"/>
+      <c r="AL80" s="129"/>
+      <c r="AM80" s="130"/>
       <c r="AN80" s="83"/>
       <c r="AO80" s="83"/>
-      <c r="AP80" s="131"/>
-      <c r="AQ80" s="131"/>
+      <c r="AP80" s="130"/>
+      <c r="AQ80" s="130"/>
       <c r="AR80" s="83"/>
       <c r="AS80" s="83"/>
       <c r="AT80" s="83"/>
       <c r="AU80" s="83"/>
-      <c r="AV80" s="131"/>
+      <c r="AV80" s="130"/>
       <c r="AW80" s="83"/>
       <c r="AX80" s="83"/>
       <c r="AY80" s="83"/>
@@ -15291,8 +15354,8 @@
       <c r="BD80" s="83"/>
       <c r="BE80" s="83"/>
       <c r="BF80" s="83"/>
-      <c r="BG80" s="131"/>
-      <c r="BH80" s="132"/>
+      <c r="BG80" s="130"/>
+      <c r="BH80" s="131"/>
       <c r="BI80" s="102" t="s">
         <v>96</v>
       </c>
@@ -15310,18 +15373,18 @@
       </c>
       <c r="BN80" s="45"/>
       <c r="BO80" s="82"/>
-      <c r="BP80" s="133"/>
+      <c r="BP80" s="132"/>
     </row>
-    <row r="81" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="130"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
+    <row r="81" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="129"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="129"/>
+      <c r="E81" s="129"/>
+      <c r="F81" s="129"/>
+      <c r="G81" s="129"/>
       <c r="H81" s="82"/>
-      <c r="K81" s="130"/>
-      <c r="L81" s="130"/>
+      <c r="K81" s="129"/>
+      <c r="L81" s="129"/>
       <c r="N81" s="82"/>
       <c r="O81" s="82"/>
       <c r="P81" s="82"/>
@@ -15337,17 +15400,17 @@
       <c r="AI81" s="82"/>
       <c r="AJ81" s="82"/>
       <c r="AK81" s="82"/>
-      <c r="AL81" s="130"/>
-      <c r="AM81" s="131"/>
+      <c r="AL81" s="129"/>
+      <c r="AM81" s="130"/>
       <c r="AN81" s="83"/>
       <c r="AO81" s="83"/>
-      <c r="AP81" s="131"/>
-      <c r="AQ81" s="131"/>
+      <c r="AP81" s="130"/>
+      <c r="AQ81" s="130"/>
       <c r="AR81" s="83"/>
       <c r="AS81" s="83"/>
       <c r="AT81" s="83"/>
       <c r="AU81" s="83"/>
-      <c r="AV81" s="131"/>
+      <c r="AV81" s="130"/>
       <c r="AW81" s="83"/>
       <c r="AX81" s="83"/>
       <c r="AY81" s="83"/>
@@ -15358,8 +15421,8 @@
       <c r="BD81" s="83"/>
       <c r="BE81" s="83"/>
       <c r="BF81" s="83"/>
-      <c r="BG81" s="131"/>
-      <c r="BH81" s="132"/>
+      <c r="BG81" s="130"/>
+      <c r="BH81" s="131"/>
       <c r="BI81" s="61" t="s">
         <v>95</v>
       </c>
@@ -15379,18 +15442,18 @@
         <v>492</v>
       </c>
       <c r="BO81" s="82"/>
-      <c r="BP81" s="133"/>
+      <c r="BP81" s="132"/>
     </row>
-    <row r="82" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="130"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="130"/>
-      <c r="E82" s="130"/>
-      <c r="F82" s="130"/>
-      <c r="G82" s="130"/>
+    <row r="82" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="129"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
       <c r="H82" s="82"/>
-      <c r="K82" s="130"/>
-      <c r="L82" s="130"/>
+      <c r="K82" s="129"/>
+      <c r="L82" s="129"/>
       <c r="N82" s="82"/>
       <c r="O82" s="82"/>
       <c r="P82" s="82"/>
@@ -15406,17 +15469,17 @@
       <c r="AI82" s="82"/>
       <c r="AJ82" s="82"/>
       <c r="AK82" s="82"/>
-      <c r="AL82" s="130"/>
-      <c r="AM82" s="131"/>
+      <c r="AL82" s="129"/>
+      <c r="AM82" s="130"/>
       <c r="AN82" s="83"/>
       <c r="AO82" s="83"/>
-      <c r="AP82" s="131"/>
-      <c r="AQ82" s="131"/>
+      <c r="AP82" s="130"/>
+      <c r="AQ82" s="130"/>
       <c r="AR82" s="83"/>
       <c r="AS82" s="83"/>
       <c r="AT82" s="83"/>
       <c r="AU82" s="83"/>
-      <c r="AV82" s="131"/>
+      <c r="AV82" s="130"/>
       <c r="AW82" s="83"/>
       <c r="AX82" s="83"/>
       <c r="AY82" s="83"/>
@@ -15427,8 +15490,8 @@
       <c r="BD82" s="83"/>
       <c r="BE82" s="83"/>
       <c r="BF82" s="83"/>
-      <c r="BG82" s="131"/>
-      <c r="BH82" s="132"/>
+      <c r="BG82" s="130"/>
+      <c r="BH82" s="131"/>
       <c r="BI82" s="60" t="s">
         <v>117</v>
       </c>
@@ -15446,18 +15509,18 @@
       </c>
       <c r="BN82" s="29"/>
       <c r="BO82" s="82"/>
-      <c r="BP82" s="133"/>
+      <c r="BP82" s="132"/>
     </row>
-    <row r="83" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="130"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="130"/>
-      <c r="E83" s="130"/>
-      <c r="F83" s="130"/>
-      <c r="G83" s="130"/>
+    <row r="83" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
       <c r="H83" s="82"/>
-      <c r="K83" s="130"/>
-      <c r="L83" s="130"/>
+      <c r="K83" s="129"/>
+      <c r="L83" s="129"/>
       <c r="N83" s="82"/>
       <c r="O83" s="82"/>
       <c r="P83" s="82"/>
@@ -15473,17 +15536,17 @@
       <c r="AI83" s="82"/>
       <c r="AJ83" s="82"/>
       <c r="AK83" s="82"/>
-      <c r="AL83" s="130"/>
-      <c r="AM83" s="131"/>
+      <c r="AL83" s="129"/>
+      <c r="AM83" s="130"/>
       <c r="AN83" s="83"/>
       <c r="AO83" s="83"/>
-      <c r="AP83" s="131"/>
-      <c r="AQ83" s="131"/>
+      <c r="AP83" s="130"/>
+      <c r="AQ83" s="130"/>
       <c r="AR83" s="83"/>
       <c r="AS83" s="83"/>
       <c r="AT83" s="83"/>
       <c r="AU83" s="83"/>
-      <c r="AV83" s="131"/>
+      <c r="AV83" s="130"/>
       <c r="AW83" s="83"/>
       <c r="AX83" s="83"/>
       <c r="AY83" s="83"/>
@@ -15494,8 +15557,8 @@
       <c r="BD83" s="83"/>
       <c r="BE83" s="83"/>
       <c r="BF83" s="83"/>
-      <c r="BG83" s="131"/>
-      <c r="BH83" s="132"/>
+      <c r="BG83" s="130"/>
+      <c r="BH83" s="131"/>
       <c r="BI83" s="98" t="s">
         <v>281</v>
       </c>
@@ -15515,18 +15578,18 @@
         <v>493</v>
       </c>
       <c r="BO83" s="82"/>
-      <c r="BP83" s="133"/>
+      <c r="BP83" s="132"/>
     </row>
-    <row r="84" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="130"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
-      <c r="F84" s="130"/>
-      <c r="G84" s="130"/>
+    <row r="84" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="129"/>
       <c r="H84" s="82"/>
-      <c r="K84" s="130"/>
-      <c r="L84" s="130"/>
+      <c r="K84" s="129"/>
+      <c r="L84" s="129"/>
       <c r="N84" s="82"/>
       <c r="O84" s="82"/>
       <c r="P84" s="82"/>
@@ -15542,17 +15605,17 @@
       <c r="AI84" s="82"/>
       <c r="AJ84" s="82"/>
       <c r="AK84" s="82"/>
-      <c r="AL84" s="130"/>
-      <c r="AM84" s="131"/>
+      <c r="AL84" s="129"/>
+      <c r="AM84" s="130"/>
       <c r="AN84" s="83"/>
       <c r="AO84" s="83"/>
-      <c r="AP84" s="131"/>
-      <c r="AQ84" s="131"/>
+      <c r="AP84" s="130"/>
+      <c r="AQ84" s="130"/>
       <c r="AR84" s="83"/>
       <c r="AS84" s="83"/>
       <c r="AT84" s="83"/>
       <c r="AU84" s="83"/>
-      <c r="AV84" s="131"/>
+      <c r="AV84" s="130"/>
       <c r="AW84" s="83"/>
       <c r="AX84" s="83"/>
       <c r="AY84" s="83"/>
@@ -15563,8 +15626,8 @@
       <c r="BD84" s="83"/>
       <c r="BE84" s="83"/>
       <c r="BF84" s="83"/>
-      <c r="BG84" s="131"/>
-      <c r="BH84" s="132"/>
+      <c r="BG84" s="130"/>
+      <c r="BH84" s="131"/>
       <c r="BI84" s="46" t="s">
         <v>326</v>
       </c>
@@ -15576,18 +15639,18 @@
       <c r="BM84" s="29"/>
       <c r="BN84" s="29"/>
       <c r="BO84" s="82"/>
-      <c r="BP84" s="133"/>
+      <c r="BP84" s="132"/>
     </row>
-    <row r="85" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="130"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="130"/>
-      <c r="F85" s="130"/>
-      <c r="G85" s="130"/>
+    <row r="85" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="129"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="129"/>
+      <c r="G85" s="129"/>
       <c r="H85" s="82"/>
-      <c r="K85" s="130"/>
-      <c r="L85" s="130"/>
+      <c r="K85" s="129"/>
+      <c r="L85" s="129"/>
       <c r="N85" s="82"/>
       <c r="O85" s="82"/>
       <c r="P85" s="82"/>
@@ -15603,17 +15666,17 @@
       <c r="AI85" s="82"/>
       <c r="AJ85" s="82"/>
       <c r="AK85" s="82"/>
-      <c r="AL85" s="130"/>
-      <c r="AM85" s="131"/>
+      <c r="AL85" s="129"/>
+      <c r="AM85" s="130"/>
       <c r="AN85" s="83"/>
       <c r="AO85" s="83"/>
-      <c r="AP85" s="131"/>
-      <c r="AQ85" s="131"/>
+      <c r="AP85" s="130"/>
+      <c r="AQ85" s="130"/>
       <c r="AR85" s="83"/>
       <c r="AS85" s="83"/>
       <c r="AT85" s="83"/>
       <c r="AU85" s="83"/>
-      <c r="AV85" s="131"/>
+      <c r="AV85" s="130"/>
       <c r="AW85" s="83"/>
       <c r="AX85" s="83"/>
       <c r="AY85" s="83"/>
@@ -15624,8 +15687,8 @@
       <c r="BD85" s="83"/>
       <c r="BE85" s="83"/>
       <c r="BF85" s="83"/>
-      <c r="BG85" s="131"/>
-      <c r="BH85" s="132"/>
+      <c r="BG85" s="130"/>
+      <c r="BH85" s="131"/>
       <c r="BI85" s="46"/>
       <c r="BJ85" s="46"/>
       <c r="BK85" s="46"/>
@@ -15633,18 +15696,18 @@
       <c r="BM85" s="29"/>
       <c r="BN85" s="29"/>
       <c r="BO85" s="82"/>
-      <c r="BP85" s="133"/>
+      <c r="BP85" s="132"/>
     </row>
-    <row r="86" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="130"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
-      <c r="F86" s="130"/>
-      <c r="G86" s="130"/>
+    <row r="86" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="129"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="129"/>
       <c r="H86" s="82"/>
-      <c r="K86" s="130"/>
-      <c r="L86" s="130"/>
+      <c r="K86" s="129"/>
+      <c r="L86" s="129"/>
       <c r="N86" s="82"/>
       <c r="O86" s="82"/>
       <c r="P86" s="82"/>
@@ -15660,17 +15723,17 @@
       <c r="AI86" s="82"/>
       <c r="AJ86" s="82"/>
       <c r="AK86" s="82"/>
-      <c r="AL86" s="130"/>
-      <c r="AM86" s="131"/>
+      <c r="AL86" s="129"/>
+      <c r="AM86" s="130"/>
       <c r="AN86" s="83"/>
       <c r="AO86" s="83"/>
-      <c r="AP86" s="131"/>
-      <c r="AQ86" s="131"/>
+      <c r="AP86" s="130"/>
+      <c r="AQ86" s="130"/>
       <c r="AR86" s="83"/>
       <c r="AS86" s="83"/>
       <c r="AT86" s="83"/>
       <c r="AU86" s="83"/>
-      <c r="AV86" s="131"/>
+      <c r="AV86" s="130"/>
       <c r="AW86" s="83"/>
       <c r="AX86" s="83"/>
       <c r="AY86" s="83"/>
@@ -15681,26 +15744,26 @@
       <c r="BD86" s="83"/>
       <c r="BE86" s="83"/>
       <c r="BF86" s="83"/>
-      <c r="BG86" s="131"/>
-      <c r="BH86" s="132"/>
+      <c r="BG86" s="130"/>
+      <c r="BH86" s="131"/>
       <c r="BI86" s="83"/>
       <c r="BJ86" s="83"/>
       <c r="BK86" s="83"/>
-      <c r="BM86" s="130"/>
-      <c r="BN86" s="130"/>
+      <c r="BM86" s="129"/>
+      <c r="BN86" s="129"/>
       <c r="BO86" s="82"/>
-      <c r="BP86" s="133"/>
+      <c r="BP86" s="132"/>
     </row>
-    <row r="87" spans="2:68" s="129" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="130"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="130"/>
-      <c r="F87" s="130"/>
-      <c r="G87" s="130"/>
+    <row r="87" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="129"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
+      <c r="E87" s="129"/>
+      <c r="F87" s="129"/>
+      <c r="G87" s="129"/>
       <c r="H87" s="82"/>
-      <c r="K87" s="130"/>
-      <c r="L87" s="130"/>
+      <c r="K87" s="129"/>
+      <c r="L87" s="129"/>
       <c r="N87" s="82"/>
       <c r="O87" s="82"/>
       <c r="P87" s="82"/>
@@ -15716,17 +15779,17 @@
       <c r="AI87" s="82"/>
       <c r="AJ87" s="82"/>
       <c r="AK87" s="82"/>
-      <c r="AL87" s="130"/>
-      <c r="AM87" s="131"/>
+      <c r="AL87" s="129"/>
+      <c r="AM87" s="130"/>
       <c r="AN87" s="83"/>
       <c r="AO87" s="83"/>
-      <c r="AP87" s="131"/>
-      <c r="AQ87" s="131"/>
+      <c r="AP87" s="130"/>
+      <c r="AQ87" s="130"/>
       <c r="AR87" s="83"/>
       <c r="AS87" s="83"/>
       <c r="AT87" s="83"/>
       <c r="AU87" s="83"/>
-      <c r="AV87" s="131"/>
+      <c r="AV87" s="130"/>
       <c r="AW87" s="83"/>
       <c r="AX87" s="83"/>
       <c r="AY87" s="83"/>
@@ -15737,15 +15800,15 @@
       <c r="BD87" s="83"/>
       <c r="BE87" s="83"/>
       <c r="BF87" s="83"/>
-      <c r="BG87" s="131"/>
-      <c r="BH87" s="132"/>
+      <c r="BG87" s="130"/>
+      <c r="BH87" s="131"/>
       <c r="BI87" s="83"/>
       <c r="BJ87" s="83"/>
       <c r="BK87" s="83"/>
-      <c r="BM87" s="130"/>
-      <c r="BN87" s="130"/>
+      <c r="BM87" s="129"/>
+      <c r="BN87" s="129"/>
       <c r="BO87" s="82"/>
-      <c r="BP87" s="133"/>
+      <c r="BP87" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laytonc\Documents\GitHub\pilotingApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C7B084-DB10-4891-9680-C5EFE0AA08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF06A0B-F6C0-4020-9608-2631A6AB166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="228" windowWidth="15576" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2847,81 +2847,81 @@
   <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AM59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AW59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP70" sqref="AP70:AR70"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="3" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="7" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="78.81640625" customWidth="1"/>
-    <col min="19" max="19" width="8.1796875" customWidth="1"/>
-    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="78.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.21875" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.81640625" customWidth="1"/>
-    <col min="23" max="23" width="11.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="11.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.54296875" style="82" customWidth="1"/>
-    <col min="29" max="29" width="20.54296875" style="82" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.54296875" style="82" customWidth="1"/>
-    <col min="31" max="31" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5546875" style="82" customWidth="1"/>
+    <col min="29" max="29" width="20.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5546875" style="82" customWidth="1"/>
+    <col min="31" max="31" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.54296875" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.453125" style="83" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.81640625" style="83" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.81640625" style="83" customWidth="1"/>
-    <col min="48" max="48" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.81640625" style="6" customWidth="1"/>
-    <col min="51" max="52" width="12.81640625" style="83" customWidth="1"/>
-    <col min="53" max="53" width="11.81640625" style="83" customWidth="1"/>
-    <col min="54" max="54" width="14.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.1796875" style="83" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="15.1796875" style="83" customWidth="1"/>
-    <col min="59" max="59" width="11.81640625" style="5" customWidth="1"/>
-    <col min="60" max="60" width="11.81640625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.81640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5546875" style="7" customWidth="1"/>
+    <col min="38" max="38" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.44140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.77734375" style="83" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" style="83" customWidth="1"/>
+    <col min="48" max="48" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.77734375" style="6" customWidth="1"/>
+    <col min="51" max="52" width="12.77734375" style="83" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" style="83" customWidth="1"/>
+    <col min="54" max="54" width="14.77734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="15.21875" style="83" customWidth="1"/>
+    <col min="59" max="59" width="11.77734375" style="5" customWidth="1"/>
+    <col min="60" max="60" width="11.77734375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.77734375" style="6" customWidth="1"/>
     <col min="63" max="63" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="25.7265625" style="7" customWidth="1"/>
-    <col min="68" max="68" width="116.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.81640625" customWidth="1"/>
+    <col min="67" max="67" width="25.77734375" style="7" customWidth="1"/>
+    <col min="68" max="68" width="116.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="103" t="s">
@@ -2981,7 +2981,7 @@
       <c r="BO1" s="25"/>
       <c r="BP1" s="30"/>
     </row>
-    <row r="2" spans="1:68" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:68" s="68" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87">
         <v>2</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>1</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>9</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="89">
         <v>13</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
         <v>134</v>
       </c>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="BP20" s="21"/>
     </row>
-    <row r="21" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="85">
         <v>3</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="85">
         <v>3</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>5</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>7</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>8</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>9</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>10</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>11</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>12</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>13</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:68" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="87">
         <v>14</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>282</v>
       </c>
@@ -8484,7 +8484,7 @@
       <c r="BO34" s="37"/>
       <c r="BP34" s="43"/>
     </row>
-    <row r="35" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>283</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="BO35" s="37"/>
       <c r="BP35" s="43"/>
     </row>
-    <row r="36" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>1</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>3</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>6</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>7</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>8</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>9</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="89">
         <v>10</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>2</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>3</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>4</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="50" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>5</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>6</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>8</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>9</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>10</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>11</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>12</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="58" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>13</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="59" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>14</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="60" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="85">
         <v>15</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>1</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>2</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="63" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>3</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="BP63" s="43"/>
     </row>
-    <row r="64" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>4</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68">
         <v>5</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>1</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>2</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>3</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="69" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>4</v>
       </c>
@@ -14530,14 +14530,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="70" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="107"/>
       <c r="C70" s="20"/>
       <c r="D70" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F70" s="14">
         <v>4800925</v>
@@ -14661,7 +14661,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="71" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="14" t="s">
@@ -14744,7 +14744,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:68" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:68" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="142"/>
       <c r="C72" s="142"/>
       <c r="D72" s="142"/>
@@ -14813,7 +14813,7 @@
       <c r="BO72" s="143"/>
       <c r="BP72" s="148"/>
     </row>
-    <row r="73" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="133"/>
       <c r="C73" s="133"/>
       <c r="D73" s="133"/>
@@ -14882,7 +14882,7 @@
       <c r="BO73" s="134"/>
       <c r="BP73" s="139"/>
     </row>
-    <row r="74" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="133"/>
       <c r="C74" s="133"/>
       <c r="D74" s="133"/>
@@ -14951,7 +14951,7 @@
       <c r="BO74" s="134"/>
       <c r="BP74" s="139"/>
     </row>
-    <row r="75" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="133"/>
       <c r="C75" s="133"/>
       <c r="D75" s="133"/>
@@ -15020,7 +15020,7 @@
       <c r="BO75" s="134"/>
       <c r="BP75" s="139"/>
     </row>
-    <row r="76" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="133"/>
       <c r="C76" s="133"/>
       <c r="D76" s="133"/>
@@ -15089,7 +15089,7 @@
       <c r="BO76" s="134"/>
       <c r="BP76" s="139"/>
     </row>
-    <row r="77" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="133"/>
       <c r="C77" s="133"/>
       <c r="D77" s="133"/>
@@ -15158,7 +15158,7 @@
       <c r="BO77" s="134"/>
       <c r="BP77" s="139"/>
     </row>
-    <row r="78" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="133"/>
       <c r="C78" s="133"/>
       <c r="D78" s="133"/>
@@ -15229,7 +15229,7 @@
       <c r="BO78" s="134"/>
       <c r="BP78" s="139"/>
     </row>
-    <row r="79" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="133"/>
       <c r="C79" s="133"/>
       <c r="D79" s="133"/>
@@ -15308,7 +15308,7 @@
       <c r="BO79" s="134"/>
       <c r="BP79" s="139"/>
     </row>
-    <row r="80" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="129"/>
       <c r="C80" s="129"/>
       <c r="D80" s="129"/>
@@ -15375,7 +15375,7 @@
       <c r="BO80" s="82"/>
       <c r="BP80" s="132"/>
     </row>
-    <row r="81" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="129"/>
       <c r="C81" s="129"/>
       <c r="D81" s="129"/>
@@ -15444,7 +15444,7 @@
       <c r="BO81" s="82"/>
       <c r="BP81" s="132"/>
     </row>
-    <row r="82" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="129"/>
       <c r="C82" s="129"/>
       <c r="D82" s="129"/>
@@ -15511,7 +15511,7 @@
       <c r="BO82" s="82"/>
       <c r="BP82" s="132"/>
     </row>
-    <row r="83" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="129"/>
       <c r="C83" s="129"/>
       <c r="D83" s="129"/>
@@ -15580,7 +15580,7 @@
       <c r="BO83" s="82"/>
       <c r="BP83" s="132"/>
     </row>
-    <row r="84" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="129"/>
       <c r="C84" s="129"/>
       <c r="D84" s="129"/>
@@ -15641,7 +15641,7 @@
       <c r="BO84" s="82"/>
       <c r="BP84" s="132"/>
     </row>
-    <row r="85" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="129"/>
       <c r="C85" s="129"/>
       <c r="D85" s="129"/>
@@ -15698,7 +15698,7 @@
       <c r="BO85" s="82"/>
       <c r="BP85" s="132"/>
     </row>
-    <row r="86" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="129"/>
       <c r="C86" s="129"/>
       <c r="D86" s="129"/>
@@ -15754,7 +15754,7 @@
       <c r="BO86" s="82"/>
       <c r="BP86" s="132"/>
     </row>
-    <row r="87" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:68" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="129"/>
       <c r="C87" s="129"/>
       <c r="D87" s="129"/>
@@ -15824,17 +15824,17 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="117" t="s">
         <v>555</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="114" t="s">
         <v>19</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="121" t="s">
         <v>123</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>179</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="121" t="s">
         <v>240</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="121" t="s">
         <v>312</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>422</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>500</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="111"/>
     </row>
   </sheetData>
@@ -16002,7 +16002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE956247-D8A0-4BBB-8FEB-1EDDEA4AE1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48AFC7-75C1-42B3-A7B0-1764F28D63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="680">
   <si>
     <t>Deployment date</t>
   </si>
@@ -761,96 +760,6 @@
     <t>Cruise Name</t>
   </si>
   <si>
-    <t>GLI2018_SEA019_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_44</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_36</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA024_25</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA022_32</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA024_32</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA032_26</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA022_34</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA032_30</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_49</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_58</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_51</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_60</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_38</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_35</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_46</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_30</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_49</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_33</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_54</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_39</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA032_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_40</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_54</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_48</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_72</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA019_76</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA022_53</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_45</t>
-  </si>
-  <si>
     <t>Ecopuck cal date</t>
   </si>
   <si>
@@ -887,9 +796,6 @@
     <t>20200618</t>
   </si>
   <si>
-    <t>GLI2020_SEA019_78</t>
-  </si>
-  <si>
     <t>Burned wire, attached</t>
   </si>
   <si>
@@ -905,15 +811,9 @@
     <t>v2.8.1-r deadReck</t>
   </si>
   <si>
-    <t>GLI2020_SEA032_46</t>
-  </si>
-  <si>
     <t>now have dead reckoning, warm up FLBBCD max 10s</t>
   </si>
   <si>
-    <t>GLI2020_SEA024_50</t>
-  </si>
-  <si>
     <t>both to up</t>
   </si>
   <si>
@@ -950,9 +850,6 @@
     <t>20200724</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_58</t>
-  </si>
-  <si>
     <t>20200727</t>
   </si>
   <si>
@@ -974,9 +871,6 @@
     <t>20200820</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_60</t>
-  </si>
-  <si>
     <t>TRI1-2-3-4-BB2-4-7-10-11-10-7-4-2-1 and/or WP from path planning (Nicolai)</t>
   </si>
   <si>
@@ -998,18 +892,12 @@
     <t>20200916</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_61</t>
-  </si>
-  <si>
     <t>16+</t>
   </si>
   <si>
     <t>20200928</t>
   </si>
   <si>
-    <t>GLI2020_SEA019_84</t>
-  </si>
-  <si>
     <t>dummy</t>
   </si>
   <si>
@@ -1040,9 +928,6 @@
     <t>20201016</t>
   </si>
   <si>
-    <t>GLI2020_SEA032_51</t>
-  </si>
-  <si>
     <t>20201020</t>
   </si>
   <si>
@@ -1211,9 +1096,6 @@
     <t>New battery, new release, auto pitch mission. Weird altimeter hits at surface. Struggled with NSC on the way out and bad weather on the way back, both delaying the progress forward by several days.</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_64</t>
-  </si>
-  <si>
     <t>20210310</t>
   </si>
   <si>
@@ -1241,18 +1123,9 @@
     <t>Bearcat/Sigma-T</t>
   </si>
   <si>
-    <t xml:space="preserve">Altimeter hits at surface, masked 2058 in day 2. </t>
-  </si>
-  <si>
     <t>20210407</t>
   </si>
   <si>
-    <t>GLI2021_SEA021_57</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA021_59</t>
-  </si>
-  <si>
     <t>3.2.1-r altiFix</t>
   </si>
   <si>
@@ -1295,9 +1168,6 @@
     <t>20210507</t>
   </si>
   <si>
-    <t>GLI2021_SEA019_94</t>
-  </si>
-  <si>
     <t>20210511</t>
   </si>
   <si>
@@ -1319,15 +1189,6 @@
     <t>20210531</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_66</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA032_60</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_63</t>
-  </si>
-  <si>
     <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-Tri- DR</t>
   </si>
   <si>
@@ -1361,12 +1222,6 @@
     <t>Mammals zodiac/Mammals zodiac</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_68</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA032_62</t>
-  </si>
-  <si>
     <t>~1023</t>
   </si>
   <si>
@@ -1377,9 +1232,6 @@
   </si>
   <si>
     <t>20210721</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_65</t>
   </si>
   <si>
     <t>pld of sea032 with rinko and minifluo</t>
@@ -1430,9 +1282,6 @@
     <t>20210901</t>
   </si>
   <si>
-    <t>GLI2021_SEA024_67</t>
-  </si>
-  <si>
     <t>W1-W2-W3-W4-W5-W6-W1-Tri- DR</t>
   </si>
   <si>
@@ -1469,24 +1318,12 @@
     <t>~1024</t>
   </si>
   <si>
-    <t>GLI2021_SEA024_69</t>
-  </si>
-  <si>
     <t>pld of sea032 with rinko and minifluo, changed sampling rate for hurricane Larry, noticed weird GPCTD data from DO at dive 181 and from other properties at dive 232. corrosion is the best hypothesis. Pld off at bb01 to go to bonavista bay. Corrosion confirmed on GPCTD bulkhead connector.</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_70</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA019_97</t>
-  </si>
-  <si>
     <t>20211005</t>
   </si>
   <si>
-    <t>GLI2021_SEA032_65</t>
-  </si>
-  <si>
     <t>With legato and ecopuck. Science profile accoustique 1400, ctd and ecopuck 338 plus 13 x 2h drift. The ctd and eco sampling was not consistent, sometime being forgotten to be turned on and sometime sampling at 100% instead of 20%</t>
   </si>
   <si>
@@ -1541,9 +1378,6 @@
     <t>GL1-GL2-GL2-GL1-TR1</t>
   </si>
   <si>
-    <t>GLI2022_SEA024_72</t>
-  </si>
-  <si>
     <t>20220113</t>
   </si>
   <si>
@@ -1562,9 +1396,6 @@
     <t>AZMP spring 2022</t>
   </si>
   <si>
-    <t>GLI2022_SEA022_81</t>
-  </si>
-  <si>
     <t>GPCTD of SEA024, firmware upgraded but not using auto-ballast</t>
   </si>
   <si>
@@ -1580,9 +1411,6 @@
     <t>Chris Beck</t>
   </si>
   <si>
-    <t>GLI2022_SEA032_73</t>
-  </si>
-  <si>
     <t>20220929</t>
   </si>
   <si>
@@ -1592,9 +1420,6 @@
     <t>20221005</t>
   </si>
   <si>
-    <t>GLI2022_SEA022_88</t>
-  </si>
-  <si>
     <t>20220210</t>
   </si>
   <si>
@@ -1610,15 +1435,9 @@
     <t>20230223</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_69</t>
-  </si>
-  <si>
     <t>20230314</t>
   </si>
   <si>
-    <t>GLI2023_SEA022_91</t>
-  </si>
-  <si>
     <t>19-Dec-16</t>
   </si>
   <si>
@@ -1628,9 +1447,6 @@
     <t>20230317</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_71</t>
-  </si>
-  <si>
     <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-TRI-HL2</t>
   </si>
   <si>
@@ -1658,12 +1474,6 @@
     <t>20230523</t>
   </si>
   <si>
-    <t>GLI2023_SEA032_79</t>
-  </si>
-  <si>
-    <t>GLI2023_SEA022_93</t>
-  </si>
-  <si>
     <t>3.5.3-r dataSplitSurf</t>
   </si>
   <si>
@@ -1691,9 +1501,6 @@
     <t>20230621</t>
   </si>
   <si>
-    <t>GLI2023_SEA024_77</t>
-  </si>
-  <si>
     <t>Ship</t>
   </si>
   <si>
@@ -1826,27 +1633,12 @@
     <t>22u3742</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
     <t>3.51</t>
   </si>
   <si>
     <t>9k</t>
   </si>
   <si>
-    <t>50k</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
     <t>14k</t>
   </si>
   <si>
@@ -1868,9 +1660,6 @@
     <t>20230908</t>
   </si>
   <si>
-    <t xml:space="preserve"> test of new piloting command?</t>
-  </si>
-  <si>
     <t>With spare pld (initially on SEA024). There were a few dives were the GPCTD DO was bad on the shelf break. Did 2 drifts at the end and did not get easy drift ballast value, human error. Nose very damaged during mission but no alarms, possible submarine hit.</t>
   </si>
   <si>
@@ -1886,16 +1675,424 @@
     <t>chris double check configs and new battery duet</t>
   </si>
   <si>
-    <t>and rinko or GPCTD and Pablo</t>
-  </si>
-  <si>
     <t>AZMP fall 2023</t>
   </si>
   <si>
     <t>20230928</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_74</t>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-HL2</t>
+  </si>
+  <si>
+    <t>182V2018036</t>
+  </si>
+  <si>
+    <t>182V2018043</t>
+  </si>
+  <si>
+    <t>182V2019058</t>
+  </si>
+  <si>
+    <t>182V2019060</t>
+  </si>
+  <si>
+    <t>182V2018049</t>
+  </si>
+  <si>
+    <t>182V2018054</t>
+  </si>
+  <si>
+    <t>18000002018030</t>
+  </si>
+  <si>
+    <t>18000002018033</t>
+  </si>
+  <si>
+    <t>18000002019049</t>
+  </si>
+  <si>
+    <t>18000002019051</t>
+  </si>
+  <si>
+    <t>18000002018039</t>
+  </si>
+  <si>
+    <t>deploy date</t>
+  </si>
+  <si>
+    <t>recov date</t>
+  </si>
+  <si>
+    <t>glider</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>18X02018025</t>
+  </si>
+  <si>
+    <t>18X02018032</t>
+  </si>
+  <si>
+    <t>18GV2018026</t>
+  </si>
+  <si>
+    <t>18GV2019030</t>
+  </si>
+  <si>
+    <t>18GV2019043</t>
+  </si>
+  <si>
+    <t>18000002019054</t>
+  </si>
+  <si>
+    <t>182V2019072</t>
+  </si>
+  <si>
+    <t>18X02019035</t>
+  </si>
+  <si>
+    <t>18X02019040</t>
+  </si>
+  <si>
+    <t>18X02019043</t>
+  </si>
+  <si>
+    <t>18X02019045</t>
+  </si>
+  <si>
+    <t>18XZ2018032</t>
+  </si>
+  <si>
+    <t>18XZ2018034</t>
+  </si>
+  <si>
+    <t>18XZ2019038</t>
+  </si>
+  <si>
+    <t>18XZ2019044</t>
+  </si>
+  <si>
+    <t>18XZ2019046</t>
+  </si>
+  <si>
+    <t>18XZ2019048</t>
+  </si>
+  <si>
+    <t>182V2020076</t>
+  </si>
+  <si>
+    <t>182V2020078</t>
+  </si>
+  <si>
+    <t>182V2020084</t>
+  </si>
+  <si>
+    <t>18XZ2020053</t>
+  </si>
+  <si>
+    <t>18XZ2020058</t>
+  </si>
+  <si>
+    <t>18XZ2020060</t>
+  </si>
+  <si>
+    <t>18XZ2020061</t>
+  </si>
+  <si>
+    <t>18GV2020046</t>
+  </si>
+  <si>
+    <t>18GV2020051</t>
+  </si>
+  <si>
+    <t>18X02020050</t>
+  </si>
+  <si>
+    <t>18000002021057</t>
+  </si>
+  <si>
+    <t>18000002021059</t>
+  </si>
+  <si>
+    <t>18XZ2021064</t>
+  </si>
+  <si>
+    <t>18XZ2021066</t>
+  </si>
+  <si>
+    <t>18XZ2021070</t>
+  </si>
+  <si>
+    <t>182V2021094</t>
+  </si>
+  <si>
+    <t>182V2021097</t>
+  </si>
+  <si>
+    <t>18XZ2021068</t>
+  </si>
+  <si>
+    <t>18GV2021060</t>
+  </si>
+  <si>
+    <t>18GV2021062</t>
+  </si>
+  <si>
+    <t>18GV2021065</t>
+  </si>
+  <si>
+    <t>18X02021063</t>
+  </si>
+  <si>
+    <t>18X02021065</t>
+  </si>
+  <si>
+    <t>18X02021067</t>
+  </si>
+  <si>
+    <t>18X02021069</t>
+  </si>
+  <si>
+    <t>182V2022105</t>
+  </si>
+  <si>
+    <t>18XZ2022081</t>
+  </si>
+  <si>
+    <t>18XZ2022088</t>
+  </si>
+  <si>
+    <t>18X02022072</t>
+  </si>
+  <si>
+    <t>18GV2022073</t>
+  </si>
+  <si>
+    <t>23u3507</t>
+  </si>
+  <si>
+    <t>23u3508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test of new piloting command, mission with legato but post processing required for saltbladder cal done after, buoyancy limited to -410 and 465 due to config files comments.</t>
+  </si>
+  <si>
+    <t>next one to go?</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_036</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_043</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_030</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_049</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_033</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA024_025</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA022_032</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_054</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA024_032</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA032_026</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA022_034</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_039</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA032_030</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_049</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_058</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_051</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_060</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_038</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_035</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_044</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_046</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_040</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_054</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_048</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_043</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_072</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA032_043</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_045</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_076</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_053</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_078</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA024_050</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_046</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_058</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_060</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_061</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_084</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_051</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_057</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_064</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_059</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_094</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_066</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_060</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_063</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_068</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_062</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_065</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_067</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_070</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_065</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_069</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_097</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA024_072</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_081</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_088</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA032_073</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_069</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_091</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_071</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA032_079</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_093</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA024_077</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_074</t>
+  </si>
+  <si>
+    <t>20231115</t>
+  </si>
+  <si>
+    <t>GLI2024_SEA021_076</t>
+  </si>
+  <si>
+    <t>3.6.1-r backseat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 point rinko cal. Altimeter hits at surface, masked 2058 in day 2. </t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-…</t>
+  </si>
+  <si>
+    <t>3.06</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +2103,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,6 +2162,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2199,7 +2404,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2488,10 +2693,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -2508,23 +2709,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,8 +2722,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2544,7 +2760,22 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2885,13 +3116,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:CW85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AX58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BP67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA70" sqref="BA70:BB70"/>
+      <selection pane="bottomRight" activeCell="BK71" sqref="BK71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2966,10 +3197,10 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="95" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -3057,7 +3288,7 @@
         <v>208</v>
       </c>
       <c r="M2" s="99" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>7</v>
@@ -3093,7 +3324,7 @@
         <v>40</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>112</v>
@@ -3102,13 +3333,13 @@
         <v>115</v>
       </c>
       <c r="AB2" s="68" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="AC2" s="68" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="AD2" s="68" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="32" t="s">
         <v>55</v>
@@ -3135,64 +3366,64 @@
         <v>121</v>
       </c>
       <c r="AM2" s="71" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="AN2" s="70" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="AO2" s="70" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="AP2" s="71" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="AQ2" s="71" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="AR2" s="70" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="AS2" s="70" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="AT2" s="70" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="AU2" s="70" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="AV2" s="71" t="s">
         <v>68</v>
       </c>
       <c r="AW2" s="70" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AX2" s="72" t="s">
         <v>165</v>
       </c>
       <c r="AY2" s="70" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="AZ2" s="70" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="BA2" s="70" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="BB2" s="70" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="BC2" s="70" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="BD2" s="70" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="BE2" s="70" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="BF2" s="70" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="BG2" s="73" t="s">
         <v>169</v>
@@ -3248,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>245</v>
+        <v>610</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3335,7 +3566,7 @@
         <v>69</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO3" s="15" t="s">
         <v>167</v>
@@ -3347,7 +3578,7 @@
         <v>71</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15"/>
@@ -3419,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>242</v>
+        <v>611</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3506,7 +3737,7 @@
         <v>69</v>
       </c>
       <c r="AN4" s="15" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO4" s="15" t="s">
         <v>167</v>
@@ -3518,7 +3749,7 @@
         <v>71</v>
       </c>
       <c r="AR4" s="15" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
@@ -3590,7 +3821,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>259</v>
+        <v>612</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -3677,7 +3908,7 @@
         <v>75</v>
       </c>
       <c r="AN5" s="40" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="AO5" s="40" t="s">
         <v>167</v>
@@ -3689,7 +3920,7 @@
         <v>72</v>
       </c>
       <c r="AR5" s="40" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="AS5" s="40"/>
       <c r="AT5" s="40"/>
@@ -3715,7 +3946,7 @@
         <v>234</v>
       </c>
       <c r="BH5" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI5" s="40" t="s">
         <v>95</v>
@@ -3763,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>260</v>
+        <v>613</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -3851,7 +4082,7 @@
         <v>69</v>
       </c>
       <c r="AN6" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO6" s="40" t="s">
         <v>167</v>
@@ -3863,7 +4094,7 @@
         <v>71</v>
       </c>
       <c r="AR6" s="40" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS6" s="40"/>
       <c r="AT6" s="40"/>
@@ -3889,7 +4120,7 @@
         <v>234</v>
       </c>
       <c r="BH6" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI6" s="40" t="s">
         <v>95</v>
@@ -3935,7 +4166,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>261</v>
+        <v>614</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -4022,7 +4253,7 @@
         <v>75</v>
       </c>
       <c r="AN7" s="40" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="AO7" s="40" t="s">
         <v>167</v>
@@ -4034,7 +4265,7 @@
         <v>72</v>
       </c>
       <c r="AR7" s="40" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="AS7" s="40"/>
       <c r="AT7" s="40"/>
@@ -4060,7 +4291,7 @@
         <v>234</v>
       </c>
       <c r="BH7" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI7" s="40" t="s">
         <v>95</v>
@@ -4108,7 +4339,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>246</v>
+        <v>615</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -4195,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AN8" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO8" s="40" t="s">
         <v>167</v>
@@ -4207,7 +4438,7 @@
         <v>78</v>
       </c>
       <c r="AR8" s="40" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="AS8" s="40"/>
       <c r="AT8" s="40"/>
@@ -4233,7 +4464,7 @@
         <v>234</v>
       </c>
       <c r="BH8" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI8" s="40" t="s">
         <v>96</v>
@@ -4279,7 +4510,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>247</v>
+        <v>616</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4366,7 +4597,7 @@
         <v>81</v>
       </c>
       <c r="AN9" s="38" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="AO9" s="38" t="s">
         <v>167</v>
@@ -4378,7 +4609,7 @@
         <v>83</v>
       </c>
       <c r="AR9" s="38" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="AS9" s="38"/>
       <c r="AT9" s="38"/>
@@ -4404,7 +4635,7 @@
         <v>234</v>
       </c>
       <c r="BH9" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI9" s="40" t="s">
         <v>95</v>
@@ -4450,7 +4681,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>262</v>
+        <v>617</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4537,7 +4768,7 @@
         <v>69</v>
       </c>
       <c r="AN10" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO10" s="40" t="s">
         <v>167</v>
@@ -4549,7 +4780,7 @@
         <v>71</v>
       </c>
       <c r="AR10" s="40" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS10" s="40"/>
       <c r="AT10" s="40"/>
@@ -4575,7 +4806,7 @@
         <v>234</v>
       </c>
       <c r="BH10" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI10" s="40" t="s">
         <v>96</v>
@@ -4621,7 +4852,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>248</v>
+        <v>618</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -4708,7 +4939,7 @@
         <v>76</v>
       </c>
       <c r="AN11" s="38" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="AO11" s="38" t="s">
         <v>167</v>
@@ -4746,7 +4977,7 @@
         <v>234</v>
       </c>
       <c r="BH11" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI11" s="40" t="s">
         <v>96</v>
@@ -4792,7 +5023,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>249</v>
+        <v>619</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -4881,7 +5112,7 @@
         <v>84</v>
       </c>
       <c r="AN12" s="38" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO12" s="38" t="s">
         <v>167</v>
@@ -4895,10 +5126,10 @@
         <v>87</v>
       </c>
       <c r="AT12" s="38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AU12" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV12" s="34" t="s">
         <v>86</v>
@@ -4921,7 +5152,7 @@
         <v>234</v>
       </c>
       <c r="BH12" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI12" s="40" t="s">
         <v>95</v>
@@ -4967,7 +5198,7 @@
         <v>129</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -5054,7 +5285,7 @@
         <v>81</v>
       </c>
       <c r="AN13" s="38" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="AO13" s="38" t="s">
         <v>167</v>
@@ -5066,7 +5297,7 @@
         <v>83</v>
       </c>
       <c r="AR13" s="38" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
@@ -5092,7 +5323,7 @@
         <v>234</v>
       </c>
       <c r="BH13" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI13" s="38" t="s">
         <v>98</v>
@@ -5114,7 +5345,7 @@
         <v>203</v>
       </c>
       <c r="BP13" s="52" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -5140,7 +5371,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>263</v>
+        <v>621</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -5227,7 +5458,7 @@
         <v>75</v>
       </c>
       <c r="AN14" s="38" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO14" s="38" t="s">
         <v>167</v>
@@ -5239,7 +5470,7 @@
         <v>72</v>
       </c>
       <c r="AR14" s="38" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
@@ -5265,7 +5496,7 @@
         <v>234</v>
       </c>
       <c r="BH14" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI14" s="40" t="s">
         <v>96</v>
@@ -5311,7 +5542,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>251</v>
+        <v>622</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5400,7 +5631,7 @@
         <v>84</v>
       </c>
       <c r="AN15" s="38" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO15" s="38" t="s">
         <v>167</v>
@@ -5414,10 +5645,10 @@
         <v>87</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AU15" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV15" s="34" t="s">
         <v>86</v>
@@ -5440,7 +5671,7 @@
         <v>234</v>
       </c>
       <c r="BH15" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI15" s="40" t="s">
         <v>96</v>
@@ -5486,7 +5717,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>252</v>
+        <v>623</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5573,7 +5804,7 @@
         <v>75</v>
       </c>
       <c r="AN16" s="38" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO16" s="38" t="s">
         <v>167</v>
@@ -5585,7 +5816,7 @@
         <v>72</v>
       </c>
       <c r="AR16" s="38" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
@@ -5611,7 +5842,7 @@
         <v>234</v>
       </c>
       <c r="BH16" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI16" s="38" t="s">
         <v>98</v>
@@ -5659,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>253</v>
+        <v>624</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -5745,7 +5976,7 @@
         <v>69</v>
       </c>
       <c r="AN17" s="40" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="AO17" s="40" t="s">
         <v>167</v>
@@ -5757,7 +5988,7 @@
         <v>71</v>
       </c>
       <c r="AR17" s="40" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="AS17" s="40"/>
       <c r="AT17" s="40"/>
@@ -5783,7 +6014,7 @@
         <v>234</v>
       </c>
       <c r="BH17" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI17" s="40" t="s">
         <v>95</v>
@@ -5831,7 +6062,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>254</v>
+        <v>625</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -5917,7 +6148,7 @@
         <v>75</v>
       </c>
       <c r="AN18" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="22" t="s">
         <v>167</v>
@@ -5929,7 +6160,7 @@
         <v>72</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS18" s="22"/>
       <c r="AT18" s="22"/>
@@ -5955,7 +6186,7 @@
         <v>234</v>
       </c>
       <c r="BH18" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI18" s="22" t="s">
         <v>98</v>
@@ -6003,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>255</v>
+        <v>626</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -6085,7 +6316,7 @@
         <v>69</v>
       </c>
       <c r="AN19" s="15" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="AO19" s="15" t="s">
         <v>166</v>
@@ -6097,7 +6328,7 @@
         <v>71</v>
       </c>
       <c r="AR19" s="15" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -6123,7 +6354,7 @@
         <v>234</v>
       </c>
       <c r="BH19" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI19" s="54" t="s">
         <v>117</v>
@@ -6169,7 +6400,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>256</v>
+        <v>627</v>
       </c>
       <c r="I20" s="2">
         <v>29.3</v>
@@ -6255,7 +6486,7 @@
         <v>81</v>
       </c>
       <c r="AN20" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO20" s="22" t="s">
         <v>166</v>
@@ -6267,7 +6498,7 @@
         <v>83</v>
       </c>
       <c r="AR20" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
@@ -6293,7 +6524,7 @@
         <v>234</v>
       </c>
       <c r="BH20" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI20" s="22" t="s">
         <v>98</v>
@@ -6341,7 +6572,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>257</v>
+        <v>628</v>
       </c>
       <c r="I21" s="2">
         <v>29.2</v>
@@ -6428,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AN21" s="22" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="AO21" s="22" t="s">
         <v>167</v>
@@ -6466,7 +6697,7 @@
         <v>234</v>
       </c>
       <c r="BH21" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI21" s="22" t="s">
         <v>98</v>
@@ -6514,7 +6745,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>244</v>
+        <v>629</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6601,7 +6832,7 @@
         <v>81</v>
       </c>
       <c r="AN22" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO22" s="22" t="s">
         <v>166</v>
@@ -6613,7 +6844,7 @@
         <v>83</v>
       </c>
       <c r="AR22" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS22" s="22"/>
       <c r="AT22" s="22"/>
@@ -6639,7 +6870,7 @@
         <v>234</v>
       </c>
       <c r="BH22" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI22" s="22" t="s">
         <v>98</v>
@@ -6687,7 +6918,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>258</v>
+        <v>630</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -6774,7 +7005,7 @@
         <v>81</v>
       </c>
       <c r="AN23" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO23" s="22" t="s">
         <v>166</v>
@@ -6786,7 +7017,7 @@
         <v>83</v>
       </c>
       <c r="AR23" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
@@ -6812,7 +7043,7 @@
         <v>234</v>
       </c>
       <c r="BH23" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI23" s="22" t="s">
         <v>98</v>
@@ -6860,7 +7091,7 @@
         <v>157</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>265</v>
+        <v>631</v>
       </c>
       <c r="I24" s="55">
         <v>29</v>
@@ -6947,7 +7178,7 @@
         <v>75</v>
       </c>
       <c r="AN24" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO24" s="22" t="s">
         <v>167</v>
@@ -6959,7 +7190,7 @@
         <v>72</v>
       </c>
       <c r="AR24" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS24" s="22"/>
       <c r="AT24" s="22"/>
@@ -6985,7 +7216,7 @@
         <v>234</v>
       </c>
       <c r="BH24" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI24" s="15" t="s">
         <v>95</v>
@@ -7005,7 +7236,7 @@
         <v>213</v>
       </c>
       <c r="BP24" s="50" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7031,7 +7262,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>266</v>
+        <v>632</v>
       </c>
       <c r="I25" s="2">
         <v>29.2</v>
@@ -7119,7 +7350,7 @@
         <v>84</v>
       </c>
       <c r="AN25" s="22" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO25" s="22" t="s">
         <v>166</v>
@@ -7153,7 +7384,7 @@
         <v>234</v>
       </c>
       <c r="BH25" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI25" s="54" t="s">
         <v>117</v>
@@ -7201,7 +7432,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>267</v>
+        <v>633</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -7289,7 +7520,7 @@
         <v>81</v>
       </c>
       <c r="AN26" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO26" s="22" t="s">
         <v>166</v>
@@ -7301,7 +7532,7 @@
         <v>83</v>
       </c>
       <c r="AR26" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS26" s="22"/>
       <c r="AT26" s="22"/>
@@ -7327,7 +7558,7 @@
         <v>234</v>
       </c>
       <c r="BH26" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI26" s="22" t="s">
         <v>98</v>
@@ -7375,7 +7606,7 @@
         <v>129</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>243</v>
+        <v>634</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7461,7 +7692,7 @@
         <v>75</v>
       </c>
       <c r="AN27" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO27" s="22" t="s">
         <v>167</v>
@@ -7473,7 +7704,7 @@
         <v>72</v>
       </c>
       <c r="AR27" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS27" s="22"/>
       <c r="AT27" s="22"/>
@@ -7499,7 +7730,7 @@
         <v>234</v>
       </c>
       <c r="BH27" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI27" s="15" t="s">
         <v>95</v>
@@ -7519,7 +7750,7 @@
         <v>212</v>
       </c>
       <c r="BP27" s="50" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7545,7 +7776,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>268</v>
+        <v>635</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -7632,7 +7863,7 @@
         <v>69</v>
       </c>
       <c r="AN28" s="22" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO28" s="22" t="s">
         <v>166</v>
@@ -7644,7 +7875,7 @@
         <v>71</v>
       </c>
       <c r="AR28" s="22" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS28" s="15"/>
       <c r="AT28" s="15"/>
@@ -7718,7 +7949,7 @@
         <v>215</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>264</v>
+        <v>636</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -7758,7 +7989,7 @@
         <v>949</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="W29" s="18" t="s">
         <v>36</v>
@@ -7815,7 +8046,7 @@
       <c r="AW29" s="16"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="22" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ29" s="22" t="s">
         <v>167</v>
@@ -7876,7 +8107,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>271</v>
+        <v>637</v>
       </c>
       <c r="I30" s="2">
         <v>29.1</v>
@@ -7963,7 +8194,7 @@
         <v>76</v>
       </c>
       <c r="AN30" s="22" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="AO30" s="22" t="s">
         <v>166</v>
@@ -7975,7 +8206,7 @@
         <v>78</v>
       </c>
       <c r="AR30" s="22" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="AS30" s="22"/>
       <c r="AT30" s="22"/>
@@ -8001,7 +8232,7 @@
         <v>234</v>
       </c>
       <c r="BH30" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI30" s="15" t="s">
         <v>95</v>
@@ -8049,7 +8280,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>269</v>
+        <v>638</v>
       </c>
       <c r="I31" s="2">
         <v>29.2</v>
@@ -8123,7 +8354,7 @@
         <v>20190906</v>
       </c>
       <c r="AJ31" s="18" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AK31" s="18" t="s">
         <v>218</v>
@@ -8135,7 +8366,7 @@
         <v>69</v>
       </c>
       <c r="AN31" s="22" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO31" s="22" t="s">
         <v>216</v>
@@ -8147,7 +8378,7 @@
         <v>71</v>
       </c>
       <c r="AR31" s="22" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -8173,7 +8404,7 @@
         <v>234</v>
       </c>
       <c r="BH31" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI31" s="22" t="s">
         <v>117</v>
@@ -8221,7 +8452,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>270</v>
+        <v>639</v>
       </c>
       <c r="I32" s="2">
         <v>29</v>
@@ -8310,7 +8541,7 @@
         <v>84</v>
       </c>
       <c r="AN32" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO32" s="22" t="s">
         <v>166</v>
@@ -8324,10 +8555,10 @@
         <v>87</v>
       </c>
       <c r="AT32" s="22" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU32" s="22" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV32" s="20" t="s">
         <v>86</v>
@@ -8350,7 +8581,7 @@
         <v>233</v>
       </c>
       <c r="BH32" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI32" s="15" t="s">
         <v>95</v>
@@ -8377,7 +8608,7 @@
     </row>
     <row r="33" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="47" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
@@ -8450,7 +8681,7 @@
     </row>
     <row r="34" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -8526,10 +8757,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>13</v>
@@ -8544,7 +8775,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>284</v>
+        <v>640</v>
       </c>
       <c r="I35" s="3">
         <v>29.1</v>
@@ -8572,7 +8803,7 @@
         <v>-61.84</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="S35" s="3">
         <v>18</v>
@@ -8588,10 +8819,10 @@
         <v>1186</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="X35" s="37" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="Y35" s="37" t="s">
         <v>186</v>
@@ -8604,7 +8835,7 @@
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
       <c r="AE35" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AF35" s="3">
         <v>7</v>
@@ -8631,7 +8862,7 @@
         <v>69</v>
       </c>
       <c r="AN35" s="38" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO35" s="38" t="s">
         <v>166</v>
@@ -8643,7 +8874,7 @@
         <v>71</v>
       </c>
       <c r="AR35" s="38" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS35" s="40"/>
       <c r="AT35" s="40"/>
@@ -8669,7 +8900,7 @@
         <v>234</v>
       </c>
       <c r="BH35" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI35" s="38" t="s">
         <v>98</v>
@@ -8688,10 +8919,10 @@
         <v>209</v>
       </c>
       <c r="BO35" s="37" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="BP35" s="43" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8699,10 +8930,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>35</v>
@@ -8717,7 +8948,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>292</v>
+        <v>641</v>
       </c>
       <c r="I36" s="3">
         <v>29.3</v>
@@ -8745,7 +8976,7 @@
         <v>-61.43</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="S36" s="3">
         <v>21</v>
@@ -8776,7 +9007,7 @@
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="3" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AF36" s="3">
         <v>5</v>
@@ -8791,10 +9022,10 @@
         <v>20190509</v>
       </c>
       <c r="AJ36" s="37" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AK36" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL36" s="35">
         <v>32</v>
@@ -8803,7 +9034,7 @@
         <v>76</v>
       </c>
       <c r="AN36" s="38" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="AO36" s="38" t="s">
         <v>216</v>
@@ -8815,7 +9046,7 @@
         <v>78</v>
       </c>
       <c r="AR36" s="38" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="AS36" s="38"/>
       <c r="AT36" s="38"/>
@@ -8841,7 +9072,7 @@
         <v>234</v>
       </c>
       <c r="BH36" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI36" s="38" t="s">
         <v>98</v>
@@ -8853,7 +9084,7 @@
         <v>137</v>
       </c>
       <c r="BL36" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="BM36" s="35" t="s">
         <v>210</v>
@@ -8865,7 +9096,7 @@
         <v>201</v>
       </c>
       <c r="BP36" s="43" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8873,10 +9104,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>53</v>
@@ -8891,7 +9122,7 @@
         <v>215</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>290</v>
+        <v>642</v>
       </c>
       <c r="I37" s="3">
         <v>29.2</v>
@@ -8919,7 +9150,7 @@
         <v>-62.81</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="S37" s="3">
         <v>21</v>
@@ -8931,7 +9162,7 @@
         <v>1035</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="W37" s="37" t="s">
         <v>36</v>
@@ -8952,7 +9183,7 @@
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
       <c r="AE37" s="3" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AF37" s="3">
         <v>3</v>
@@ -8967,10 +9198,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ37" s="37" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AK37" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL37" s="35">
         <v>58</v>
@@ -8988,7 +9219,7 @@
       <c r="AW37" s="39"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="40" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ37" s="40" t="s">
         <v>167</v>
@@ -9003,22 +9234,22 @@
         <v>234</v>
       </c>
       <c r="BH37" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI37" s="46" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ37" s="38" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK37" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL37" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="BM37" s="35" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN37" s="35" t="s">
         <v>209</v>
@@ -9027,7 +9258,7 @@
         <v>201</v>
       </c>
       <c r="BP37" s="43" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9035,10 +9266,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>44</v>
@@ -9053,7 +9284,7 @@
         <v>129</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>305</v>
+        <v>643</v>
       </c>
       <c r="I38" s="3">
         <v>28.5</v>
@@ -9081,7 +9312,7 @@
         <v>-50.08</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="S38" s="3">
         <v>25</v>
@@ -9115,7 +9346,7 @@
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
       <c r="AE38" s="3" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AF38" s="3">
         <v>4</v>
@@ -9142,7 +9373,7 @@
         <v>84</v>
       </c>
       <c r="AN38" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO38" s="38" t="s">
         <v>166</v>
@@ -9156,10 +9387,10 @@
         <v>87</v>
       </c>
       <c r="AT38" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU38" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV38" s="34" t="s">
         <v>86</v>
@@ -9182,13 +9413,13 @@
         <v>233</v>
       </c>
       <c r="BH38" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI38" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ38" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK38" s="38"/>
       <c r="BL38" s="3"/>
@@ -9199,10 +9430,10 @@
         <v>209</v>
       </c>
       <c r="BO38" s="37" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="BP38" s="43" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9210,10 +9441,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
@@ -9228,7 +9459,7 @@
         <v>129</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I39" s="3">
         <v>29.1</v>
@@ -9256,7 +9487,7 @@
         <v>-49.29</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="S39" s="3">
         <v>26</v>
@@ -9290,7 +9521,7 @@
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="3" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="AF39" s="3">
         <v>8</v>
@@ -9317,7 +9548,7 @@
         <v>84</v>
       </c>
       <c r="AN39" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO39" s="38" t="s">
         <v>166</v>
@@ -9331,10 +9562,10 @@
         <v>87</v>
       </c>
       <c r="AT39" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU39" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV39" s="34" t="s">
         <v>86</v>
@@ -9357,13 +9588,13 @@
         <v>233</v>
       </c>
       <c r="BH39" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI39" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ39" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK39" s="38"/>
       <c r="BL39" s="3"/>
@@ -9377,7 +9608,7 @@
         <v>212</v>
       </c>
       <c r="BP39" s="43" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9385,10 +9616,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>44</v>
@@ -9403,7 +9634,7 @@
         <v>129</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9431,7 +9662,7 @@
         <v>-49.75</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="S40" s="3">
         <v>21</v>
@@ -9465,7 +9696,7 @@
       <c r="AC40" s="37"/>
       <c r="AD40" s="37"/>
       <c r="AE40" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AF40" s="3">
         <v>7</v>
@@ -9492,7 +9723,7 @@
         <v>84</v>
       </c>
       <c r="AN40" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO40" s="38" t="s">
         <v>166</v>
@@ -9506,10 +9737,10 @@
         <v>87</v>
       </c>
       <c r="AT40" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU40" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV40" s="34" t="s">
         <v>86</v>
@@ -9532,13 +9763,13 @@
         <v>233</v>
       </c>
       <c r="BH40" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ40" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK40" s="38"/>
       <c r="BL40" s="3"/>
@@ -9552,7 +9783,7 @@
         <v>212</v>
       </c>
       <c r="BP40" s="43" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9560,10 +9791,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>13</v>
@@ -9578,7 +9809,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>324</v>
+        <v>646</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -9606,7 +9837,7 @@
         <v>-61.69</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="S41" s="3">
         <v>18</v>
@@ -9635,7 +9866,7 @@
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
       <c r="AC41" s="37" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="AD41" s="37"/>
       <c r="AE41" s="3">
@@ -9654,10 +9885,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ41" s="37" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AK41" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL41" s="35">
         <v>33</v>
@@ -9666,7 +9897,7 @@
         <v>75</v>
       </c>
       <c r="AN41" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO41" s="38" t="s">
         <v>216</v>
@@ -9678,7 +9909,7 @@
         <v>72</v>
       </c>
       <c r="AR41" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS41" s="40"/>
       <c r="AT41" s="40"/>
@@ -9695,10 +9926,10 @@
       <c r="AY41" s="40"/>
       <c r="AZ41" s="40"/>
       <c r="BA41" s="40" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB41" s="40" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC41" s="40" t="s">
         <v>166</v>
@@ -9710,19 +9941,19 @@
         <v>234</v>
       </c>
       <c r="BH41" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI41" s="46" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ41" s="38" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK41" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL41" s="3" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="BM41" s="35" t="s">
         <v>210</v>
@@ -9734,7 +9965,7 @@
         <v>201</v>
       </c>
       <c r="BP41" s="43" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9742,10 +9973,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>53</v>
@@ -9760,7 +9991,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="I42" s="3">
         <v>29.2</v>
@@ -9788,13 +10019,13 @@
         <v>-61.64</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="S42" s="3">
         <v>20</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="U42" s="3">
         <v>1080</v>
@@ -9825,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="AG42" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="AH42" s="3">
         <v>1023.5</v>
@@ -9834,10 +10065,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ42" s="37" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AK42" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL42" s="62">
         <v>30</v>
@@ -9846,7 +10077,7 @@
         <v>75</v>
       </c>
       <c r="AN42" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO42" s="38" t="s">
         <v>216</v>
@@ -9858,7 +10089,7 @@
         <v>72</v>
       </c>
       <c r="AR42" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
@@ -9884,13 +10115,13 @@
         <v>234</v>
       </c>
       <c r="BH42" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI42" s="58" t="s">
         <v>117</v>
       </c>
       <c r="BJ42" s="58" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="BK42" s="92" t="s">
         <v>138</v>
@@ -9906,7 +10137,7 @@
         <v>201</v>
       </c>
       <c r="BP42" s="43" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9914,10 +10145,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>24</v>
@@ -9932,7 +10163,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>404</v>
+        <v>648</v>
       </c>
       <c r="I43" s="3">
         <v>29.1</v>
@@ -9960,7 +10191,7 @@
         <v>-61.53</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="S43" s="3">
         <v>23</v>
@@ -10006,10 +10237,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ43" s="37" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AK43" s="37" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL43" s="35">
         <v>29</v>
@@ -10018,7 +10249,7 @@
         <v>75</v>
       </c>
       <c r="AN43" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO43" s="38" t="s">
         <v>216</v>
@@ -10030,7 +10261,7 @@
         <v>72</v>
       </c>
       <c r="AR43" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
@@ -10056,13 +10287,13 @@
         <v>233</v>
       </c>
       <c r="BH43" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI43" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ43" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK43" s="38"/>
       <c r="BL43" s="3"/>
@@ -10073,10 +10304,10 @@
         <v>209</v>
       </c>
       <c r="BO43" s="37" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP43" s="43" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10084,10 +10315,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>44</v>
@@ -10102,7 +10333,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>392</v>
+        <v>649</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -10130,7 +10361,7 @@
         <v>-61.52</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="S44" s="3">
         <v>21</v>
@@ -10163,7 +10394,7 @@
       <c r="AC44" s="37"/>
       <c r="AD44" s="37"/>
       <c r="AE44" s="3" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AF44" s="3">
         <v>1</v>
@@ -10178,10 +10409,10 @@
         <v>20210302</v>
       </c>
       <c r="AJ44" s="37" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AK44" s="37" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL44" s="62">
         <v>42</v>
@@ -10190,7 +10421,7 @@
         <v>84</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO44" s="38" t="s">
         <v>166</v>
@@ -10204,7 +10435,7 @@
         <v>87</v>
       </c>
       <c r="AT44" s="38" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU44" s="38" t="s">
         <v>166</v>
@@ -10230,13 +10461,13 @@
         <v>233</v>
       </c>
       <c r="BH44" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI44" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BJ44" s="38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK44" s="38"/>
       <c r="BL44" s="3"/>
@@ -10247,10 +10478,10 @@
         <v>209</v>
       </c>
       <c r="BO44" s="37" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="BP44" s="43" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10258,10 +10489,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>24</v>
@@ -10276,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>405</v>
+        <v>650</v>
       </c>
       <c r="I45" s="2">
         <v>29.1</v>
@@ -10304,7 +10535,7 @@
         <v>-61.49</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="S45" s="2">
         <v>22</v>
@@ -10350,10 +10581,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ45" s="18" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="AK45" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL45" s="14">
         <v>29</v>
@@ -10362,7 +10593,7 @@
         <v>75</v>
       </c>
       <c r="AN45" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO45" s="22" t="s">
         <v>216</v>
@@ -10374,7 +10605,7 @@
         <v>72</v>
       </c>
       <c r="AR45" s="22" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS45" s="79"/>
       <c r="AT45" s="79"/>
@@ -10400,13 +10631,13 @@
         <v>233</v>
       </c>
       <c r="BH45" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI45" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ45" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK45" s="92" t="s">
         <v>138</v>
@@ -10422,7 +10653,7 @@
         <v>201</v>
       </c>
       <c r="BP45" s="21" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10430,10 +10661,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -10448,7 +10679,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>420</v>
+        <v>651</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10476,7 +10707,7 @@
         <v>-62.67</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="S46" s="2">
         <v>4</v>
@@ -10523,10 +10754,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ46" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK46" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL46" s="14">
         <v>33</v>
@@ -10535,7 +10766,7 @@
         <v>69</v>
       </c>
       <c r="AN46" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO46" s="22" t="s">
         <v>216</v>
@@ -10547,7 +10778,7 @@
         <v>71</v>
       </c>
       <c r="AR46" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS46" s="22"/>
       <c r="AT46" s="22"/>
@@ -10576,10 +10807,10 @@
         <v>172</v>
       </c>
       <c r="BI46" s="54" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ46" s="22" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK46" s="92" t="s">
         <v>137</v>
@@ -10592,10 +10823,10 @@
         <v>209</v>
       </c>
       <c r="BO46" s="18" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="BP46" s="21" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10603,10 +10834,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>44</v>
@@ -10621,7 +10852,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>428</v>
+        <v>652</v>
       </c>
       <c r="I47" s="2">
         <v>29</v>
@@ -10649,7 +10880,7 @@
         <v>-61.41</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S47" s="2">
         <v>21</v>
@@ -10695,10 +10926,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ47" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK47" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL47" s="14">
         <v>32</v>
@@ -10707,7 +10938,7 @@
         <v>76</v>
       </c>
       <c r="AN47" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO47" s="22" t="s">
         <v>216</v>
@@ -10745,13 +10976,13 @@
         <v>233</v>
       </c>
       <c r="BH47" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI47" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ47" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK47" s="92" t="s">
         <v>138</v>
@@ -10767,7 +10998,7 @@
         <v>201</v>
       </c>
       <c r="BP47" s="21" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10775,10 +11006,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>53</v>
@@ -10793,7 +11024,7 @@
         <v>215</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>429</v>
+        <v>653</v>
       </c>
       <c r="I48" s="2">
         <v>29.2</v>
@@ -10821,7 +11052,7 @@
         <v>-62.85</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="S48" s="2">
         <v>14</v>
@@ -10833,13 +11064,13 @@
         <v>486</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W48" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y48" s="18"/>
       <c r="Z48" s="18" t="s">
@@ -10869,10 +11100,10 @@
         <v>20210527</v>
       </c>
       <c r="AJ48" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK48" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL48" s="14">
         <v>58</v>
@@ -10896,16 +11127,16 @@
         <v>166</v>
       </c>
       <c r="AY48" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ48" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA48" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB48" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC48" s="15" t="s">
         <v>166</v>
@@ -10917,20 +11148,20 @@
         <v>234</v>
       </c>
       <c r="BH48" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI48" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ48" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK48" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL48" s="2"/>
       <c r="BM48" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN48" s="14" t="s">
         <v>209</v>
@@ -10939,7 +11170,7 @@
         <v>201</v>
       </c>
       <c r="BP48" s="21" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10947,10 +11178,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>35</v>
@@ -10965,7 +11196,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>430</v>
+        <v>654</v>
       </c>
       <c r="I49" s="2">
         <v>28.9</v>
@@ -10993,7 +11224,7 @@
         <v>-52.69</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S49" s="2">
         <v>9</v>
@@ -11026,7 +11257,7 @@
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
       <c r="AD49" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE49" s="2">
         <v>0</v>
@@ -11044,10 +11275,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ49" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK49" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL49" s="14">
         <v>42</v>
@@ -11056,7 +11287,7 @@
         <v>84</v>
       </c>
       <c r="AN49" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO49" s="22" t="s">
         <v>166</v>
@@ -11070,7 +11301,7 @@
         <v>87</v>
       </c>
       <c r="AT49" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU49" s="22" t="s">
         <v>166</v>
@@ -11090,10 +11321,10 @@
       <c r="BB49" s="79"/>
       <c r="BC49" s="79"/>
       <c r="BD49" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE49" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF49" s="15" t="s">
         <v>166</v>
@@ -11108,7 +11339,7 @@
         <v>98</v>
       </c>
       <c r="BJ49" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK49" s="22"/>
       <c r="BL49" s="2"/>
@@ -11119,10 +11350,10 @@
         <v>209</v>
       </c>
       <c r="BO49" s="18" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="BP49" s="21" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11130,10 +11361,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>44</v>
@@ -11148,7 +11379,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>442</v>
+        <v>655</v>
       </c>
       <c r="I50" s="2">
         <v>29.1</v>
@@ -11176,7 +11407,7 @@
         <v>-61.4</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S50" s="2">
         <v>22</v>
@@ -11216,16 +11447,16 @@
         <v>2</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="AI50" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ50" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK50" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL50" s="14">
         <v>32</v>
@@ -11234,7 +11465,7 @@
         <v>76</v>
       </c>
       <c r="AN50" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO50" s="22" t="s">
         <v>216</v>
@@ -11272,13 +11503,13 @@
         <v>233</v>
       </c>
       <c r="BH50" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI50" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ50" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK50" s="92" t="s">
         <v>138</v>
@@ -11291,10 +11522,10 @@
         <v>209</v>
       </c>
       <c r="BO50" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP50" s="21" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11302,10 +11533,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>53</v>
@@ -11320,7 +11551,7 @@
         <v>215</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>443</v>
+        <v>656</v>
       </c>
       <c r="I51" s="2">
         <v>29.2</v>
@@ -11348,7 +11579,7 @@
         <v>-62.68</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="S51" s="2">
         <v>22</v>
@@ -11360,13 +11591,13 @@
         <v>808</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W51" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y51" s="18"/>
       <c r="Z51" s="18" t="s">
@@ -11390,16 +11621,16 @@
         <v>2</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="AI51" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ51" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK51" s="18" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="AL51" s="14">
         <v>58</v>
@@ -11423,16 +11654,16 @@
         <v>166</v>
       </c>
       <c r="AY51" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ51" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA51" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB51" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC51" s="15" t="s">
         <v>166</v>
@@ -11444,29 +11675,29 @@
         <v>234</v>
       </c>
       <c r="BH51" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI51" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ51" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK51" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL51" s="2"/>
       <c r="BM51" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN51" s="14" t="s">
         <v>209</v>
       </c>
       <c r="BO51" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP51" s="21" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11474,10 +11705,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>35</v>
@@ -11492,7 +11723,7 @@
         <v>129</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>448</v>
+        <v>657</v>
       </c>
       <c r="I52" s="2">
         <v>28.8</v>
@@ -11520,7 +11751,7 @@
         <v>-50.2</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="S52" s="2">
         <v>20</v>
@@ -11553,7 +11784,7 @@
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE52" s="2">
         <v>0</v>
@@ -11571,10 +11802,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK52" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL52" s="14">
         <v>42</v>
@@ -11583,7 +11814,7 @@
         <v>84</v>
       </c>
       <c r="AN52" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO52" s="22" t="s">
         <v>166</v>
@@ -11597,7 +11828,7 @@
         <v>87</v>
       </c>
       <c r="AT52" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU52" s="22" t="s">
         <v>166</v>
@@ -11617,10 +11848,10 @@
       <c r="BB52" s="15"/>
       <c r="BC52" s="15"/>
       <c r="BD52" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE52" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF52" s="15" t="s">
         <v>166</v>
@@ -11635,7 +11866,7 @@
         <v>98</v>
       </c>
       <c r="BJ52" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK52" s="22"/>
       <c r="BL52" s="2"/>
@@ -11649,7 +11880,7 @@
         <v>212</v>
       </c>
       <c r="BP52" s="21" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11657,10 +11888,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
@@ -11675,7 +11906,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
       <c r="I53" s="2">
         <v>28.9</v>
@@ -11703,7 +11934,7 @@
         <v>-49.41</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="S53" s="2">
         <v>27</v>
@@ -11721,7 +11952,7 @@
         <v>37</v>
       </c>
       <c r="X53" s="18" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="Y53" s="18" t="s">
         <v>186</v>
@@ -11735,7 +11966,7 @@
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
       <c r="AD53" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE53" s="2">
         <v>1</v>
@@ -11753,10 +11984,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK53" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL53" s="14">
         <v>42</v>
@@ -11765,7 +11996,7 @@
         <v>84</v>
       </c>
       <c r="AN53" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO53" s="22" t="s">
         <v>166</v>
@@ -11779,7 +12010,7 @@
         <v>87</v>
       </c>
       <c r="AT53" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU53" s="22" t="s">
         <v>166</v>
@@ -11799,10 +12030,10 @@
       <c r="BB53" s="15"/>
       <c r="BC53" s="15"/>
       <c r="BD53" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE53" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF53" s="15" t="s">
         <v>166</v>
@@ -11817,7 +12048,7 @@
         <v>98</v>
       </c>
       <c r="BJ53" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK53" s="22"/>
       <c r="BL53" s="2"/>
@@ -11831,7 +12062,7 @@
         <v>212</v>
       </c>
       <c r="BP53" s="21" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11839,10 +12070,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>44</v>
@@ -11857,7 +12088,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>473</v>
+        <v>659</v>
       </c>
       <c r="I54" s="2">
         <v>29.1</v>
@@ -11885,7 +12116,7 @@
         <v>-61.53</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S54" s="2">
         <v>21</v>
@@ -11925,16 +12156,16 @@
         <v>3</v>
       </c>
       <c r="AH54" s="2" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AI54" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ54" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK54" s="18" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="AL54" s="14">
         <v>32</v>
@@ -11943,7 +12174,7 @@
         <v>76</v>
       </c>
       <c r="AN54" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO54" s="22" t="s">
         <v>216</v>
@@ -11981,19 +12212,19 @@
         <v>233</v>
       </c>
       <c r="BH54" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI54" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ54" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK54" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL54" s="2" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="BM54" s="14" t="s">
         <v>210</v>
@@ -12005,7 +12236,7 @@
         <v>201</v>
       </c>
       <c r="BP54" s="21" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12013,10 +12244,10 @@
         <v>11</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
@@ -12031,7 +12262,7 @@
         <v>215</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>476</v>
+        <v>660</v>
       </c>
       <c r="I55" s="2">
         <v>29.2</v>
@@ -12059,7 +12290,7 @@
         <v>-62.65</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="S55" s="2">
         <v>21</v>
@@ -12071,13 +12302,13 @@
         <v>700</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W55" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X55" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y55" s="18"/>
       <c r="Z55" s="18" t="s">
@@ -12101,16 +12332,16 @@
         <v>2</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AI55" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ55" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK55" s="18" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="AL55" s="14">
         <v>58</v>
@@ -12134,16 +12365,16 @@
         <v>166</v>
       </c>
       <c r="AY55" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ55" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA55" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB55" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC55" s="15" t="s">
         <v>166</v>
@@ -12155,22 +12386,22 @@
         <v>234</v>
       </c>
       <c r="BH55" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI55" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ55" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK55" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL55" s="2" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="BM55" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN55" s="14" t="s">
         <v>209</v>
@@ -12179,7 +12410,7 @@
         <v>201</v>
       </c>
       <c r="BP55" s="21" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12187,10 +12418,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>35</v>
@@ -12205,7 +12436,7 @@
         <v>129</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>471</v>
+        <v>661</v>
       </c>
       <c r="I56" s="2">
         <v>28.9</v>
@@ -12233,7 +12464,7 @@
         <v>-50.21</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="S56" s="2">
         <v>28</v>
@@ -12266,7 +12497,7 @@
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
       <c r="AD56" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE56" s="2">
         <v>0</v>
@@ -12278,16 +12509,16 @@
         <v>0</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AI56" s="18">
         <v>20210421</v>
       </c>
       <c r="AJ56" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK56" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL56" s="14">
         <v>42</v>
@@ -12296,7 +12527,7 @@
         <v>75</v>
       </c>
       <c r="AN56" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO56" s="22" t="s">
         <v>166</v>
@@ -12308,13 +12539,13 @@
         <v>72</v>
       </c>
       <c r="AR56" s="22" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS56" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AT56" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU56" s="22" t="s">
         <v>166</v>
@@ -12334,10 +12565,10 @@
       <c r="BB56" s="22"/>
       <c r="BC56" s="22"/>
       <c r="BD56" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE56" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF56" s="15" t="s">
         <v>166</v>
@@ -12352,7 +12583,7 @@
         <v>98</v>
       </c>
       <c r="BJ56" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK56" s="22"/>
       <c r="BL56" s="2"/>
@@ -12363,10 +12594,10 @@
         <v>209</v>
       </c>
       <c r="BO56" s="18" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="BP56" s="21" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12374,10 +12605,10 @@
         <v>13</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>13</v>
@@ -12392,7 +12623,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>474</v>
+        <v>662</v>
       </c>
       <c r="I57" s="2">
         <v>29.1</v>
@@ -12420,7 +12651,7 @@
         <v>-63.05</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="S57" s="2">
         <v>5</v>
@@ -12467,10 +12698,10 @@
         <v>20210922</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK57" s="18" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="AL57" s="14">
         <v>33</v>
@@ -12479,7 +12710,7 @@
         <v>69</v>
       </c>
       <c r="AN57" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO57" s="22" t="s">
         <v>216</v>
@@ -12491,7 +12722,7 @@
         <v>71</v>
       </c>
       <c r="AR57" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS57" s="22"/>
       <c r="AT57" s="22"/>
@@ -12523,7 +12754,7 @@
         <v>117</v>
       </c>
       <c r="BJ57" s="22" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="BK57" s="92" t="s">
         <v>138</v>
@@ -12539,7 +12770,7 @@
         <v>201</v>
       </c>
       <c r="BP57" s="21" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12547,10 +12778,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
@@ -12565,7 +12796,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12593,7 +12824,7 @@
         <v>-62.45</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="S58" s="2">
         <v>13</v>
@@ -12639,10 +12870,10 @@
         <v>20220117</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="AK58" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL58" s="14">
         <v>29</v>
@@ -12651,7 +12882,7 @@
         <v>69</v>
       </c>
       <c r="AN58" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO58" s="22" t="s">
         <v>216</v>
@@ -12663,7 +12894,7 @@
         <v>71</v>
       </c>
       <c r="AR58" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS58" s="22"/>
       <c r="AT58" s="22"/>
@@ -12695,9 +12926,9 @@
         <v>95</v>
       </c>
       <c r="BJ58" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK58" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK58" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL58" s="2"/>
@@ -12708,10 +12939,10 @@
         <v>209</v>
       </c>
       <c r="BO58" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP58" s="21" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12722,7 +12953,7 @@
         <v>20220303</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>35</v>
@@ -12737,7 +12968,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>495</v>
+        <v>663</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -12765,7 +12996,7 @@
         <v>-61.72</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="S59" s="2">
         <v>21</v>
@@ -12797,7 +13028,7 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE59" s="2">
         <v>2</v>
@@ -12815,10 +13046,10 @@
         <v>20220224</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="AK59" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL59" s="14">
         <v>42</v>
@@ -12827,7 +13058,7 @@
         <v>84</v>
       </c>
       <c r="AN59" s="22" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO59" s="22" t="s">
         <v>166</v>
@@ -12841,7 +13072,7 @@
         <v>87</v>
       </c>
       <c r="AT59" s="22" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU59" s="22" t="s">
         <v>166</v>
@@ -12861,10 +13092,10 @@
       <c r="BB59" s="22"/>
       <c r="BC59" s="22"/>
       <c r="BD59" s="22" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE59" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF59" s="22" t="s">
         <v>166</v>
@@ -12879,13 +13110,13 @@
         <v>95</v>
       </c>
       <c r="BJ59" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK59" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK59" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL59" s="2" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="BM59" s="14" t="s">
         <v>210</v>
@@ -12897,7 +13128,7 @@
         <v>206</v>
       </c>
       <c r="BP59" s="21" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -12908,7 +13139,7 @@
         <v>20220406</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>44</v>
@@ -12923,7 +13154,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>502</v>
+        <v>664</v>
       </c>
       <c r="I60" s="3">
         <v>29.1</v>
@@ -12951,7 +13182,7 @@
         <v>-61.44</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="S60" s="3">
         <v>23</v>
@@ -12997,10 +13228,10 @@
         <v>20220331</v>
       </c>
       <c r="AJ60" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK60" s="37" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="AL60" s="62">
         <v>30</v>
@@ -13009,7 +13240,7 @@
         <v>76</v>
       </c>
       <c r="AN60" s="38" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO60" s="38" t="s">
         <v>216</v>
@@ -13053,9 +13284,9 @@
         <v>95</v>
       </c>
       <c r="BJ60" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK60" s="117">
+        <v>290</v>
+      </c>
+      <c r="BK60" s="141">
         <v>200206</v>
       </c>
       <c r="BL60" s="3"/>
@@ -13069,7 +13300,7 @@
         <v>201</v>
       </c>
       <c r="BP60" s="43" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13080,7 +13311,7 @@
         <v>20220908</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -13095,7 +13326,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>512</v>
+        <v>665</v>
       </c>
       <c r="I61" s="3">
         <v>29</v>
@@ -13123,7 +13354,7 @@
         <v>-61.43</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="S61" s="3">
         <v>21</v>
@@ -13169,10 +13400,10 @@
         <v>20220902</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK61" s="37" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="AL61" s="35">
         <v>30</v>
@@ -13181,7 +13412,7 @@
         <v>76</v>
       </c>
       <c r="AN61" s="38" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO61" s="38" t="s">
         <v>216</v>
@@ -13225,23 +13456,23 @@
         <v>95</v>
       </c>
       <c r="BJ61" s="38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK61" s="96" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="BL61" s="96"/>
       <c r="BM61" s="35" t="s">
         <v>210</v>
       </c>
       <c r="BN61" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO61" s="37" t="s">
         <v>201</v>
       </c>
       <c r="BP61" s="43" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13252,7 +13483,7 @@
         <v>20220915</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>53</v>
@@ -13267,7 +13498,7 @@
         <v>129</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="I62" s="48">
         <v>29.1</v>
@@ -13295,7 +13526,7 @@
         <v>-50.76</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="S62" s="3">
         <v>20</v>
@@ -13327,7 +13558,7 @@
       <c r="AB62" s="37"/>
       <c r="AC62" s="37"/>
       <c r="AD62" s="37" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE62" s="3">
         <v>0</v>
@@ -13345,10 +13576,10 @@
         <v>20220506</v>
       </c>
       <c r="AJ62" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK62" s="37" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="AL62" s="35">
         <v>42</v>
@@ -13357,7 +13588,7 @@
         <v>84</v>
       </c>
       <c r="AN62" s="38" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO62" s="38" t="s">
         <v>166</v>
@@ -13371,7 +13602,7 @@
         <v>87</v>
       </c>
       <c r="AT62" s="38" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU62" s="38" t="s">
         <v>166</v>
@@ -13391,10 +13622,10 @@
       <c r="BB62" s="38"/>
       <c r="BC62" s="38"/>
       <c r="BD62" s="38" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE62" s="40" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF62" s="38" t="s">
         <v>166</v>
@@ -13406,10 +13637,10 @@
         <v>172</v>
       </c>
       <c r="BI62" s="40" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="BK62" s="38"/>
       <c r="BL62" s="3"/>
@@ -13417,7 +13648,7 @@
         <v>214</v>
       </c>
       <c r="BN62" s="35" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO62" s="37" t="s">
         <v>212</v>
@@ -13429,15 +13660,15 @@
         <v>4</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="90">
         <v>69</v>
       </c>
       <c r="F63" s="35">
@@ -13447,7 +13678,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>518</v>
+        <v>667</v>
       </c>
       <c r="I63" s="3">
         <v>29.2</v>
@@ -13475,7 +13706,7 @@
         <v>-61.98</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="S63" s="3">
         <v>19</v>
@@ -13504,7 +13735,7 @@
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
       <c r="AC63" s="37" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="AD63" s="37"/>
       <c r="AE63" s="3">
@@ -13523,10 +13754,10 @@
         <v>20230208</v>
       </c>
       <c r="AJ63" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK63" s="37" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL63" s="35">
         <v>29</v>
@@ -13535,7 +13766,7 @@
         <v>75</v>
       </c>
       <c r="AN63" s="38" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO63" s="38" t="s">
         <v>216</v>
@@ -13547,7 +13778,7 @@
         <v>72</v>
       </c>
       <c r="AR63" s="38" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS63" s="38"/>
       <c r="AT63" s="38"/>
@@ -13559,18 +13790,18 @@
         <v>42711</v>
       </c>
       <c r="AX63" s="40" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY63" s="38"/>
       <c r="AZ63" s="38"/>
       <c r="BA63" s="38" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB63" s="38" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="BC63" s="38" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="BD63" s="40"/>
       <c r="BE63" s="40"/>
@@ -13585,9 +13816,9 @@
         <v>201383</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK63" s="96">
+        <v>458</v>
+      </c>
+      <c r="BK63" s="141">
         <v>200206</v>
       </c>
       <c r="BL63" s="96"/>
@@ -13595,13 +13826,13 @@
         <v>210</v>
       </c>
       <c r="BN63" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO63" s="37" t="s">
         <v>201</v>
       </c>
       <c r="BP63" s="43" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13609,15 +13840,15 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="90">
         <v>91</v>
       </c>
       <c r="F64" s="35">
@@ -13627,7 +13858,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>520</v>
+        <v>668</v>
       </c>
       <c r="I64" s="3">
         <v>29.2</v>
@@ -13655,7 +13886,7 @@
         <v>-61.4</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="S64" s="3">
         <v>25</v>
@@ -13701,10 +13932,10 @@
         <v>20230308</v>
       </c>
       <c r="AJ64" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL64" s="35">
         <v>30</v>
@@ -13713,7 +13944,7 @@
         <v>81</v>
       </c>
       <c r="AN64" s="38" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="AO64" s="38" t="s">
         <v>216</v>
@@ -13725,7 +13956,7 @@
         <v>83</v>
       </c>
       <c r="AR64" s="38" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="AS64" s="38"/>
       <c r="AT64" s="38"/>
@@ -13734,10 +13965,10 @@
         <v>80</v>
       </c>
       <c r="AW64" s="38" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AX64" s="40" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
@@ -13757,9 +13988,9 @@
         <v>162640</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK64" s="3">
+        <v>291</v>
+      </c>
+      <c r="BK64" s="142">
         <v>201189</v>
       </c>
       <c r="BL64" s="96"/>
@@ -13767,29 +13998,29 @@
         <v>210</v>
       </c>
       <c r="BN64" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO64" s="37" t="s">
         <v>206</v>
       </c>
       <c r="BP64" s="43" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>1</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="90">
         <v>71</v>
       </c>
       <c r="F65" s="14">
@@ -13799,7 +14030,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>524</v>
+        <v>669</v>
       </c>
       <c r="I65" s="2">
         <v>29.2</v>
@@ -13827,7 +14058,7 @@
         <v>-61.43</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="S65" s="2">
         <v>27</v>
@@ -13857,7 +14088,7 @@
       <c r="AA65" s="18"/>
       <c r="AB65" s="18"/>
       <c r="AC65" s="18" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="2">
@@ -13876,10 +14107,10 @@
         <v>20230330</v>
       </c>
       <c r="AJ65" s="18" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="AK65" s="18" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL65" s="14">
         <v>29</v>
@@ -13888,7 +14119,7 @@
         <v>75</v>
       </c>
       <c r="AN65" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO65" s="22" t="s">
         <v>216</v>
@@ -13900,7 +14131,7 @@
         <v>72</v>
       </c>
       <c r="AR65" s="22" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS65" s="22"/>
       <c r="AT65" s="22"/>
@@ -13912,18 +14143,18 @@
         <v>42711</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY65" s="22"/>
       <c r="AZ65" s="22"/>
       <c r="BA65" s="22" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB65" s="22" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="BC65" s="22" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="BD65" s="22"/>
       <c r="BE65" s="22"/>
@@ -13938,41 +14169,41 @@
         <v>201383</v>
       </c>
       <c r="BJ65" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK65" s="98">
+        <v>458</v>
+      </c>
+      <c r="BK65" s="141">
         <v>200206</v>
       </c>
       <c r="BL65" s="98" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="BM65" s="2" t="s">
         <v>210</v>
       </c>
       <c r="BN65" s="2" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO65" s="18" t="s">
         <v>201</v>
       </c>
       <c r="BP65" s="21" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="90">
         <v>79</v>
       </c>
       <c r="F66" s="14">
@@ -13982,7 +14213,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>534</v>
+        <v>670</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -14010,7 +14241,7 @@
         <v>-61.49</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="S66" s="2">
         <v>21</v>
@@ -14057,10 +14288,10 @@
         <v>20230510</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="AK66" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL66" s="14">
         <v>32</v>
@@ -14069,7 +14300,7 @@
         <v>76</v>
       </c>
       <c r="AN66" s="22" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="AO66" s="22" t="s">
         <v>216</v>
@@ -14081,7 +14312,7 @@
         <v>78</v>
       </c>
       <c r="AR66" s="22" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -14093,7 +14324,7 @@
         <v>42711</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY66" s="22"/>
       <c r="AZ66" s="22"/>
@@ -14113,13 +14344,13 @@
         <v>162640</v>
       </c>
       <c r="BJ66" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK66" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK66" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL66" s="98" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="BM66" s="2" t="s">
         <v>210</v>
@@ -14131,23 +14362,23 @@
         <v>201</v>
       </c>
       <c r="BP66" s="21" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="67" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>3</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="90">
         <v>93</v>
       </c>
       <c r="F67" s="14">
@@ -14157,7 +14388,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>535</v>
+        <v>671</v>
       </c>
       <c r="I67" s="2">
         <v>29.2</v>
@@ -14187,7 +14418,7 @@
         <v>-61.43</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="S67" s="2">
         <v>28</v>
@@ -14234,10 +14465,10 @@
         <v>20230531</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL67" s="14">
         <v>30</v>
@@ -14246,7 +14477,7 @@
         <v>81</v>
       </c>
       <c r="AN67" s="22" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="AO67" s="22" t="s">
         <v>216</v>
@@ -14258,7 +14489,7 @@
         <v>83</v>
       </c>
       <c r="AR67" s="22" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -14267,10 +14498,10 @@
         <v>80</v>
       </c>
       <c r="AW67" s="22" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY67" s="22"/>
       <c r="AZ67" s="22"/>
@@ -14290,10 +14521,10 @@
         <v>201383</v>
       </c>
       <c r="BJ67" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK67" s="98" t="s">
         <v>516</v>
-      </c>
-      <c r="BK67" s="98" t="s">
-        <v>580</v>
       </c>
       <c r="BL67" s="98"/>
       <c r="BM67" s="2" t="s">
@@ -14303,26 +14534,26 @@
         <v>209</v>
       </c>
       <c r="BO67" s="18" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="BP67" s="21" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="68" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>4</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>544</v>
+        <v>481</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="90">
         <v>77</v>
       </c>
       <c r="F68" s="14">
@@ -14332,7 +14563,7 @@
         <v>129</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>545</v>
+        <v>672</v>
       </c>
       <c r="I68" s="2">
         <v>29.2</v>
@@ -14362,7 +14593,7 @@
         <v>-50.16</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="S68" s="2">
         <v>27</v>
@@ -14395,7 +14626,7 @@
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
       <c r="AD68" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE68" s="2">
         <v>0</v>
@@ -14412,11 +14643,11 @@
       <c r="AI68" s="18">
         <v>20230228</v>
       </c>
-      <c r="AJ68" s="130" t="s">
-        <v>576</v>
-      </c>
-      <c r="AK68" s="130" t="s">
-        <v>527</v>
+      <c r="AJ68" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK68" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="AL68" s="14">
         <v>42</v>
@@ -14425,7 +14656,7 @@
         <v>84</v>
       </c>
       <c r="AN68" s="22" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO68" s="22" t="s">
         <v>166</v>
@@ -14439,7 +14670,7 @@
         <v>87</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU68" s="22" t="s">
         <v>166</v>
@@ -14451,7 +14682,7 @@
         <v>42859</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="22"/>
@@ -14459,10 +14690,10 @@
       <c r="BB68" s="22"/>
       <c r="BC68" s="22"/>
       <c r="BD68" s="22" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE68" s="22" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF68" s="22" t="s">
         <v>166</v>
@@ -14477,7 +14708,7 @@
         <v>162642</v>
       </c>
       <c r="BJ68" s="2" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK68" s="98"/>
       <c r="BL68" s="98"/>
@@ -14488,26 +14719,26 @@
         <v>209</v>
       </c>
       <c r="BO68" s="18" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="BP68" s="21" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="69" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>5</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="90">
         <v>121</v>
       </c>
       <c r="F69" s="14">
@@ -14517,24 +14748,51 @@
         <v>15</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
+        <v>536</v>
+      </c>
+      <c r="I69" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="K69" s="133">
+        <v>44.374400000000001</v>
+      </c>
+      <c r="L69" s="132">
+        <v>-63.338299999999997</v>
+      </c>
+      <c r="M69" s="101">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="N69" s="18">
+        <v>42.47</v>
+      </c>
+      <c r="O69" s="18">
+        <v>-63.45</v>
+      </c>
+      <c r="P69" s="18">
+        <v>44.51</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>-61.46</v>
+      </c>
       <c r="R69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="S69" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" s="2">
+        <v>556</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1029</v>
+      </c>
+      <c r="V69" s="2">
+        <f>U69*2</f>
+        <v>2058</v>
+      </c>
       <c r="W69" s="18" t="s">
         <v>36</v>
       </c>
@@ -14551,8 +14809,12 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
       <c r="AD69" s="18"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
+      <c r="AE69" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>3</v>
+      </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2">
         <v>1022</v>
@@ -14561,10 +14823,10 @@
         <v>20230705</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="AK69" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL69" s="14">
         <v>33</v>
@@ -14573,7 +14835,7 @@
         <v>75</v>
       </c>
       <c r="AN69" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO69" s="22" t="s">
         <v>216</v>
@@ -14585,7 +14847,7 @@
         <v>72</v>
       </c>
       <c r="AR69" s="22" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
@@ -14597,7 +14859,7 @@
         <v>42691</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY69" s="22"/>
       <c r="AZ69" s="22"/>
@@ -14617,13 +14879,13 @@
         <v>98</v>
       </c>
       <c r="BJ69" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK69" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK69" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL69" s="98" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="BM69" s="2" t="s">
         <v>210</v>
@@ -14635,21 +14897,23 @@
         <v>201</v>
       </c>
       <c r="BP69" s="21" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="70" spans="1:68" s="131" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="131">
+    <row r="70" spans="1:101" s="88" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="134">
         <v>6</v>
       </c>
       <c r="B70" s="14">
         <v>20230928</v>
       </c>
-      <c r="C70" s="132"/>
+      <c r="C70" s="14">
+        <v>20231018</v>
+      </c>
       <c r="D70" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="90">
         <v>74</v>
       </c>
       <c r="F70" s="14">
@@ -14659,24 +14923,51 @@
         <v>15</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="144">
+        <v>673</v>
+      </c>
+      <c r="I70" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="K70" s="14">
+        <v>44.386699999999998</v>
+      </c>
+      <c r="L70" s="14">
+        <v>-63.359099999999998</v>
+      </c>
+      <c r="M70" s="101">
         <v>0.57152777777777775</v>
       </c>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="134"/>
+      <c r="N70" s="18">
+        <v>42.46</v>
+      </c>
+      <c r="O70" s="18">
+        <v>-63.37</v>
+      </c>
+      <c r="P70" s="18">
+        <v>44.39</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>-61.4</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="S70" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" s="2">
+        <v>543</v>
+      </c>
+      <c r="U70" s="2">
+        <v>854</v>
+      </c>
+      <c r="V70" s="2">
+        <f>U70*2</f>
+        <v>1708</v>
+      </c>
       <c r="W70" s="18" t="s">
         <v>36</v>
       </c>
@@ -14689,26 +14980,32 @@
       <c r="Z70" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="AA70" s="133"/>
-      <c r="AB70" s="133"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
       <c r="AC70" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD70" s="133"/>
-      <c r="AE70" s="134"/>
-      <c r="AF70" s="134"/>
-      <c r="AG70" s="134"/>
-      <c r="AH70" s="142">
+        <v>468</v>
+      </c>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH70" s="2">
         <v>1022.5</v>
       </c>
       <c r="AI70" s="18">
         <v>20230918</v>
       </c>
       <c r="AJ70" s="18" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="AK70" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL70" s="14">
         <v>29</v>
@@ -14717,7 +15014,7 @@
         <v>75</v>
       </c>
       <c r="AN70" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO70" s="22" t="s">
         <v>216</v>
@@ -14729,11 +15026,11 @@
         <v>72</v>
       </c>
       <c r="AR70" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="AS70" s="135"/>
-      <c r="AT70" s="135"/>
-      <c r="AU70" s="135"/>
+        <v>438</v>
+      </c>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
       <c r="AV70" s="20" t="s">
         <v>74</v>
       </c>
@@ -14741,22 +15038,22 @@
         <v>42711</v>
       </c>
       <c r="AX70" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="AY70" s="135"/>
-      <c r="AZ70" s="135"/>
+        <v>467</v>
+      </c>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
       <c r="BA70" s="22" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB70" s="22" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
       <c r="BC70" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="BD70" s="135"/>
-      <c r="BE70" s="135"/>
-      <c r="BF70" s="135"/>
+        <v>424</v>
+      </c>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
       <c r="BG70" s="20" t="s">
         <v>233</v>
       </c>
@@ -14764,537 +15061,679 @@
         <v>172</v>
       </c>
       <c r="BI70" s="22" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="BJ70" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="BK70" s="143" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK70" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="BL70" s="136"/>
+      <c r="BL70" s="2"/>
       <c r="BM70" s="2" t="s">
         <v>210</v>
       </c>
       <c r="BN70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BO70" s="133"/>
+      <c r="BO70" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="BP70" s="21" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="71" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="123"/>
-      <c r="M71" s="125"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="125"/>
-      <c r="S71" s="125"/>
-      <c r="T71" s="125"/>
-      <c r="U71" s="125"/>
-      <c r="V71" s="125"/>
-      <c r="W71" s="124"/>
-      <c r="X71" s="124"/>
-      <c r="Y71" s="124"/>
-      <c r="Z71" s="124"/>
-      <c r="AA71" s="124"/>
-      <c r="AB71" s="124"/>
-      <c r="AC71" s="124"/>
-      <c r="AD71" s="124"/>
-      <c r="AE71" s="125"/>
-      <c r="AF71" s="125"/>
-      <c r="AG71" s="125"/>
-      <c r="AH71" s="125"/>
-      <c r="AI71" s="124"/>
-      <c r="AJ71" s="124"/>
-      <c r="AK71" s="124"/>
-      <c r="AL71" s="123"/>
-      <c r="AM71" s="126"/>
-      <c r="AN71" s="127"/>
-      <c r="AO71" s="127"/>
-      <c r="AP71" s="126"/>
-      <c r="AQ71" s="126"/>
-      <c r="AR71" s="127"/>
-      <c r="AS71" s="127"/>
-      <c r="AT71" s="127"/>
-      <c r="AU71" s="127"/>
-      <c r="AV71" s="126"/>
-      <c r="AW71" s="127"/>
-      <c r="AX71" s="127"/>
-      <c r="AY71" s="127"/>
-      <c r="AZ71" s="127"/>
-      <c r="BA71" s="127"/>
-      <c r="BB71" s="127"/>
-      <c r="BC71" s="127"/>
-      <c r="BD71" s="127"/>
-      <c r="BE71" s="127"/>
-      <c r="BF71" s="127"/>
-      <c r="BG71" s="126"/>
-      <c r="BH71" s="128"/>
-      <c r="BI71" s="127"/>
-      <c r="BJ71" s="127"/>
-      <c r="BK71" s="127"/>
-      <c r="BL71" s="125" t="s">
-        <v>610</v>
-      </c>
-      <c r="BM71" s="123"/>
-      <c r="BN71" s="123"/>
-      <c r="BO71" s="124"/>
-      <c r="BP71" s="129"/>
+    <row r="71" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="134">
+        <v>7</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="14">
+        <v>76</v>
+      </c>
+      <c r="F71" s="14">
+        <v>4800926</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X71" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z71" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
+      <c r="AC71" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2">
+        <v>1024.8</v>
+      </c>
+      <c r="AI71" s="18">
+        <v>20240131</v>
+      </c>
+      <c r="AJ71" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AK71" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL71" s="14">
+        <v>29</v>
+      </c>
+      <c r="AM71" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN71" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO71" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP71" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ71" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR71" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS71" s="22"/>
+      <c r="AT71" s="22"/>
+      <c r="AU71" s="22"/>
+      <c r="AV71" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW71" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AX71" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY71" s="22"/>
+      <c r="AZ71" s="22"/>
+      <c r="BA71" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB71" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="BC71" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="BD71" s="22"/>
+      <c r="BE71" s="22"/>
+      <c r="BF71" s="22"/>
+      <c r="BG71" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH71" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI71" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="BJ71" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK71" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL71" s="2"/>
+      <c r="BM71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO71" s="18"/>
+      <c r="BP71" s="143"/>
+      <c r="BQ71" s="88"/>
+      <c r="BR71" s="88"/>
+      <c r="BS71" s="88"/>
+      <c r="BT71" s="88"/>
+      <c r="BU71" s="88"/>
+      <c r="BV71" s="88"/>
+      <c r="BW71" s="88"/>
+      <c r="BX71" s="88"/>
+      <c r="BY71" s="88"/>
+      <c r="BZ71" s="88"/>
+      <c r="CA71" s="88"/>
+      <c r="CB71" s="88"/>
+      <c r="CC71" s="88"/>
+      <c r="CD71" s="88"/>
+      <c r="CE71" s="88"/>
+      <c r="CF71" s="88"/>
+      <c r="CG71" s="88"/>
+      <c r="CH71" s="88"/>
+      <c r="CI71" s="88"/>
+      <c r="CJ71" s="88"/>
+      <c r="CK71" s="88"/>
+      <c r="CL71" s="88"/>
+      <c r="CM71" s="88"/>
+      <c r="CN71" s="88"/>
+      <c r="CO71" s="88"/>
+      <c r="CP71" s="88"/>
+      <c r="CQ71" s="88"/>
+      <c r="CR71" s="88"/>
+      <c r="CS71" s="88"/>
+      <c r="CT71" s="88"/>
+      <c r="CU71" s="88"/>
+      <c r="CV71" s="88"/>
+      <c r="CW71" s="88"/>
     </row>
-    <row r="72" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="125"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="123"/>
-      <c r="M72" s="125"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="124"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="125"/>
-      <c r="S72" s="125"/>
-      <c r="T72" s="125"/>
-      <c r="U72" s="125"/>
-      <c r="V72" s="125"/>
-      <c r="W72" s="124"/>
-      <c r="X72" s="124"/>
-      <c r="Y72" s="124"/>
-      <c r="Z72" s="124"/>
-      <c r="AA72" s="124"/>
-      <c r="AB72" s="124"/>
-      <c r="AC72" s="124"/>
-      <c r="AD72" s="124"/>
-      <c r="AE72" s="125"/>
-      <c r="AF72" s="125"/>
-      <c r="AG72" s="125"/>
-      <c r="AH72" s="125"/>
-      <c r="AI72" s="124"/>
-      <c r="AJ72" s="124"/>
-      <c r="AK72" s="124"/>
-      <c r="AL72" s="123"/>
-      <c r="AM72" s="126"/>
-      <c r="AN72" s="127"/>
-      <c r="AO72" s="127"/>
-      <c r="AP72" s="126"/>
-      <c r="AQ72" s="126"/>
-      <c r="AR72" s="127"/>
-      <c r="AS72" s="127"/>
-      <c r="AT72" s="127"/>
-      <c r="AU72" s="127"/>
-      <c r="AV72" s="126"/>
-      <c r="AW72" s="127"/>
-      <c r="AX72" s="127"/>
-      <c r="AY72" s="127"/>
-      <c r="AZ72" s="127"/>
-      <c r="BA72" s="127"/>
-      <c r="BB72" s="127"/>
-      <c r="BC72" s="127"/>
-      <c r="BD72" s="127"/>
-      <c r="BE72" s="127"/>
-      <c r="BF72" s="127"/>
-      <c r="BG72" s="126"/>
-      <c r="BH72" s="128"/>
-      <c r="BI72" s="127"/>
-      <c r="BJ72" s="127"/>
-      <c r="BK72" s="127"/>
-      <c r="BL72" s="125"/>
-      <c r="BM72" s="123"/>
-      <c r="BN72" s="123"/>
-      <c r="BO72" s="124"/>
-      <c r="BP72" s="129"/>
+    <row r="72" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="134">
+        <v>8</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="22"/>
+      <c r="AO72" s="22"/>
+      <c r="AP72" s="20"/>
+      <c r="AQ72" s="20"/>
+      <c r="AR72" s="22"/>
+      <c r="AS72" s="22"/>
+      <c r="AT72" s="22"/>
+      <c r="AU72" s="22"/>
+      <c r="AV72" s="20"/>
+      <c r="AW72" s="22"/>
+      <c r="AX72" s="22"/>
+      <c r="AY72" s="22"/>
+      <c r="AZ72" s="22"/>
+      <c r="BA72" s="22"/>
+      <c r="BB72" s="22"/>
+      <c r="BC72" s="22"/>
+      <c r="BD72" s="22"/>
+      <c r="BE72" s="22"/>
+      <c r="BF72" s="22"/>
+      <c r="BG72" s="20"/>
+      <c r="BH72" s="49"/>
+      <c r="BI72" s="22"/>
+      <c r="BJ72" s="22"/>
+      <c r="BK72" s="22"/>
+      <c r="BL72" s="2"/>
+      <c r="BM72" s="14"/>
+      <c r="BN72" s="14"/>
+      <c r="BO72" s="18"/>
+      <c r="BP72" s="143"/>
+      <c r="BQ72" s="88"/>
+      <c r="BR72" s="88"/>
+      <c r="BS72" s="88"/>
+      <c r="BT72" s="88"/>
+      <c r="BU72" s="88"/>
+      <c r="BV72" s="88"/>
+      <c r="BW72" s="88"/>
+      <c r="BX72" s="88"/>
+      <c r="BY72" s="88"/>
+      <c r="BZ72" s="88"/>
+      <c r="CA72" s="88"/>
+      <c r="CB72" s="88"/>
+      <c r="CC72" s="88"/>
+      <c r="CD72" s="88"/>
+      <c r="CE72" s="88"/>
+      <c r="CF72" s="88"/>
+      <c r="CG72" s="88"/>
+      <c r="CH72" s="88"/>
+      <c r="CI72" s="88"/>
+      <c r="CJ72" s="88"/>
+      <c r="CK72" s="88"/>
+      <c r="CL72" s="88"/>
+      <c r="CM72" s="88"/>
+      <c r="CN72" s="88"/>
+      <c r="CO72" s="88"/>
+      <c r="CP72" s="88"/>
+      <c r="CQ72" s="88"/>
+      <c r="CR72" s="88"/>
+      <c r="CS72" s="88"/>
+      <c r="CT72" s="88"/>
+      <c r="CU72" s="88"/>
+      <c r="CV72" s="88"/>
+      <c r="CW72" s="88"/>
     </row>
-    <row r="73" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="125"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="125"/>
-      <c r="S73" s="125"/>
-      <c r="T73" s="125"/>
-      <c r="U73" s="125"/>
-      <c r="V73" s="125"/>
-      <c r="W73" s="124"/>
-      <c r="X73" s="124"/>
-      <c r="Y73" s="124"/>
-      <c r="Z73" s="124"/>
-      <c r="AA73" s="124"/>
-      <c r="AB73" s="124"/>
-      <c r="AC73" s="124"/>
-      <c r="AD73" s="124"/>
-      <c r="AE73" s="125"/>
-      <c r="AF73" s="125"/>
-      <c r="AG73" s="125"/>
-      <c r="AH73" s="125"/>
-      <c r="AI73" s="124"/>
-      <c r="AJ73" s="124"/>
-      <c r="AK73" s="124"/>
-      <c r="AL73" s="123"/>
-      <c r="AM73" s="126"/>
-      <c r="AN73" s="127"/>
-      <c r="AO73" s="127"/>
-      <c r="AP73" s="126"/>
-      <c r="AQ73" s="126"/>
-      <c r="AR73" s="127"/>
-      <c r="AS73" s="127"/>
-      <c r="AT73" s="127"/>
-      <c r="AU73" s="127"/>
-      <c r="AV73" s="126"/>
-      <c r="AW73" s="127"/>
-      <c r="AX73" s="127"/>
-      <c r="AY73" s="127"/>
-      <c r="AZ73" s="127"/>
-      <c r="BA73" s="127"/>
-      <c r="BB73" s="127"/>
-      <c r="BC73" s="127"/>
-      <c r="BD73" s="127"/>
-      <c r="BE73" s="127"/>
-      <c r="BF73" s="127"/>
-      <c r="BG73" s="126"/>
-      <c r="BH73" s="128"/>
-      <c r="BI73" s="127"/>
-      <c r="BJ73" s="127"/>
-      <c r="BK73" s="127" t="s">
-        <v>609</v>
-      </c>
-      <c r="BL73" s="125"/>
-      <c r="BM73" s="123"/>
-      <c r="BN73" s="123"/>
-      <c r="BO73" s="124"/>
-      <c r="BP73" s="129"/>
+    <row r="73" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="37"/>
+      <c r="AJ73" s="37"/>
+      <c r="AK73" s="37"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="34"/>
+      <c r="AN73" s="38"/>
+      <c r="AO73" s="38"/>
+      <c r="AP73" s="34"/>
+      <c r="AQ73" s="34"/>
+      <c r="AR73" s="38"/>
+      <c r="AS73" s="38"/>
+      <c r="AT73" s="38"/>
+      <c r="AU73" s="38"/>
+      <c r="AV73" s="34"/>
+      <c r="AW73" s="38"/>
+      <c r="AX73" s="38"/>
+      <c r="AY73" s="38"/>
+      <c r="AZ73" s="38"/>
+      <c r="BA73" s="38"/>
+      <c r="BB73" s="38"/>
+      <c r="BC73" s="38"/>
+      <c r="BD73" s="38"/>
+      <c r="BE73" s="38"/>
+      <c r="BF73" s="38"/>
+      <c r="BG73" s="34"/>
+      <c r="BH73" s="97"/>
+      <c r="BI73" s="38"/>
+      <c r="BJ73" s="38"/>
+      <c r="BK73" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="35"/>
+      <c r="BN73" s="35"/>
+      <c r="BO73" s="37"/>
+      <c r="BP73" s="144"/>
     </row>
-    <row r="74" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="123"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
-      <c r="K74" s="123"/>
-      <c r="L74" s="123"/>
-      <c r="M74" s="125"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="124"/>
-      <c r="R74" s="125"/>
-      <c r="S74" s="125"/>
-      <c r="T74" s="125"/>
-      <c r="U74" s="125"/>
-      <c r="V74" s="125"/>
-      <c r="W74" s="124"/>
-      <c r="X74" s="124"/>
-      <c r="Y74" s="124"/>
-      <c r="Z74" s="124"/>
-      <c r="AA74" s="124"/>
-      <c r="AB74" s="124"/>
-      <c r="AC74" s="124"/>
-      <c r="AD74" s="124"/>
-      <c r="AE74" s="125"/>
-      <c r="AF74" s="125"/>
-      <c r="AG74" s="125"/>
-      <c r="AH74" s="125"/>
-      <c r="AI74" s="124"/>
-      <c r="AJ74" s="124"/>
-      <c r="AK74" s="124"/>
-      <c r="AL74" s="123"/>
-      <c r="AM74" s="126"/>
-      <c r="AN74" s="127"/>
-      <c r="AO74" s="127"/>
-      <c r="AP74" s="126"/>
-      <c r="AQ74" s="126"/>
-      <c r="AR74" s="127"/>
-      <c r="AS74" s="127"/>
-      <c r="AT74" s="127"/>
-      <c r="AU74" s="127"/>
-      <c r="AV74" s="126"/>
-      <c r="AW74" s="127"/>
-      <c r="AX74" s="127"/>
-      <c r="AY74" s="127"/>
-      <c r="AZ74" s="127"/>
-      <c r="BA74" s="127"/>
-      <c r="BB74" s="127"/>
-      <c r="BC74" s="127"/>
-      <c r="BD74" s="127"/>
-      <c r="BE74" s="127"/>
-      <c r="BF74" s="127"/>
-      <c r="BG74" s="126"/>
-      <c r="BH74" s="128"/>
-      <c r="BI74" s="127"/>
-      <c r="BJ74" s="127"/>
-      <c r="BK74" s="127"/>
-      <c r="BL74" s="125"/>
-      <c r="BM74" s="123"/>
-      <c r="BN74" s="123"/>
-      <c r="BO74" s="124"/>
-      <c r="BP74" s="129"/>
+    <row r="74" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="37"/>
+      <c r="AJ74" s="37"/>
+      <c r="AK74" s="37"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="34"/>
+      <c r="AN74" s="38"/>
+      <c r="AO74" s="38"/>
+      <c r="AP74" s="34"/>
+      <c r="AQ74" s="34"/>
+      <c r="AR74" s="38"/>
+      <c r="AS74" s="38"/>
+      <c r="AT74" s="38"/>
+      <c r="AU74" s="38"/>
+      <c r="AV74" s="34"/>
+      <c r="AW74" s="38"/>
+      <c r="AX74" s="38"/>
+      <c r="AY74" s="38"/>
+      <c r="AZ74" s="38"/>
+      <c r="BA74" s="38"/>
+      <c r="BB74" s="38"/>
+      <c r="BC74" s="38"/>
+      <c r="BD74" s="38"/>
+      <c r="BE74" s="38"/>
+      <c r="BF74" s="38"/>
+      <c r="BG74" s="34"/>
+      <c r="BH74" s="97"/>
+      <c r="BI74" s="38"/>
+      <c r="BJ74" s="38"/>
+      <c r="BK74" s="38"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="35"/>
+      <c r="BN74" s="35"/>
+      <c r="BO74" s="37"/>
+      <c r="BP74" s="144"/>
     </row>
-    <row r="75" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="123"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="123"/>
-      <c r="L75" s="123"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="124"/>
-      <c r="O75" s="124"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="124"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
-      <c r="U75" s="125"/>
-      <c r="V75" s="125"/>
-      <c r="W75" s="124"/>
-      <c r="X75" s="124"/>
-      <c r="Y75" s="124"/>
-      <c r="Z75" s="124"/>
-      <c r="AA75" s="124"/>
-      <c r="AB75" s="124"/>
-      <c r="AC75" s="124"/>
-      <c r="AD75" s="124"/>
-      <c r="AE75" s="125"/>
-      <c r="AF75" s="125"/>
-      <c r="AG75" s="125"/>
-      <c r="AH75" s="125"/>
-      <c r="AI75" s="124"/>
-      <c r="AJ75" s="124"/>
-      <c r="AK75" s="124"/>
-      <c r="AL75" s="123"/>
-      <c r="AM75" s="126"/>
-      <c r="AN75" s="127"/>
-      <c r="AO75" s="127"/>
-      <c r="AP75" s="126"/>
-      <c r="AQ75" s="126"/>
-      <c r="AR75" s="127"/>
-      <c r="AS75" s="127"/>
-      <c r="AT75" s="127"/>
-      <c r="AU75" s="127"/>
-      <c r="AV75" s="126"/>
-      <c r="AW75" s="127"/>
-      <c r="AX75" s="127"/>
-      <c r="AY75" s="127"/>
-      <c r="AZ75" s="127"/>
-      <c r="BA75" s="127"/>
-      <c r="BB75" s="127"/>
-      <c r="BC75" s="127"/>
-      <c r="BD75" s="127"/>
-      <c r="BE75" s="127"/>
-      <c r="BF75" s="127"/>
-      <c r="BG75" s="126"/>
-      <c r="BH75" s="128"/>
-      <c r="BI75" s="127"/>
-      <c r="BJ75" s="127"/>
-      <c r="BK75" s="127"/>
-      <c r="BL75" s="125"/>
-      <c r="BM75" s="123"/>
-      <c r="BN75" s="123"/>
-      <c r="BO75" s="124"/>
-      <c r="BP75" s="129"/>
+    <row r="75" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="121"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="121"/>
+      <c r="L75" s="121"/>
+      <c r="M75" s="123"/>
+      <c r="N75" s="122"/>
+      <c r="O75" s="122"/>
+      <c r="P75" s="122"/>
+      <c r="Q75" s="122"/>
+      <c r="R75" s="123"/>
+      <c r="S75" s="123"/>
+      <c r="T75" s="123"/>
+      <c r="U75" s="123"/>
+      <c r="V75" s="123"/>
+      <c r="W75" s="122"/>
+      <c r="X75" s="122"/>
+      <c r="Y75" s="122"/>
+      <c r="Z75" s="122"/>
+      <c r="AA75" s="122"/>
+      <c r="AB75" s="122"/>
+      <c r="AC75" s="122"/>
+      <c r="AD75" s="122"/>
+      <c r="AE75" s="123"/>
+      <c r="AF75" s="123"/>
+      <c r="AG75" s="123"/>
+      <c r="AH75" s="123"/>
+      <c r="AI75" s="122"/>
+      <c r="AJ75" s="122"/>
+      <c r="AK75" s="122"/>
+      <c r="AL75" s="121"/>
+      <c r="AM75" s="124"/>
+      <c r="AN75" s="125"/>
+      <c r="AO75" s="125"/>
+      <c r="AP75" s="124"/>
+      <c r="AQ75" s="124"/>
+      <c r="AR75" s="125"/>
+      <c r="AS75" s="125"/>
+      <c r="AT75" s="125"/>
+      <c r="AU75" s="125"/>
+      <c r="AV75" s="124"/>
+      <c r="AW75" s="125"/>
+      <c r="AX75" s="125"/>
+      <c r="AY75" s="125"/>
+      <c r="AZ75" s="125"/>
+      <c r="BA75" s="125"/>
+      <c r="BB75" s="125"/>
+      <c r="BC75" s="125"/>
+      <c r="BD75" s="125"/>
+      <c r="BE75" s="125"/>
+      <c r="BF75" s="125"/>
+      <c r="BG75" s="124"/>
+      <c r="BH75" s="126"/>
+      <c r="BI75" s="125"/>
+      <c r="BJ75" s="125"/>
+      <c r="BK75" s="125"/>
+      <c r="BL75" s="123"/>
+      <c r="BM75" s="121"/>
+      <c r="BN75" s="121"/>
+      <c r="BO75" s="122"/>
+      <c r="BP75" s="127"/>
     </row>
-    <row r="76" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="123"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123"/>
-      <c r="M76" s="125"/>
-      <c r="N76" s="124"/>
-      <c r="O76" s="124"/>
-      <c r="P76" s="124"/>
-      <c r="Q76" s="124"/>
-      <c r="R76" s="125"/>
-      <c r="S76" s="125"/>
-      <c r="T76" s="125"/>
-      <c r="U76" s="125"/>
-      <c r="V76" s="125"/>
-      <c r="W76" s="124"/>
-      <c r="X76" s="124"/>
-      <c r="Y76" s="124"/>
-      <c r="Z76" s="124"/>
-      <c r="AA76" s="124"/>
-      <c r="AB76" s="124"/>
-      <c r="AC76" s="124"/>
-      <c r="AD76" s="124"/>
-      <c r="AE76" s="125"/>
-      <c r="AF76" s="125"/>
-      <c r="AG76" s="125"/>
-      <c r="AH76" s="125"/>
-      <c r="AI76" s="124"/>
-      <c r="AJ76" s="124"/>
-      <c r="AK76" s="124"/>
-      <c r="AL76" s="123"/>
-      <c r="AM76" s="126"/>
-      <c r="AN76" s="127"/>
-      <c r="AO76" s="127"/>
-      <c r="AP76" s="126"/>
-      <c r="AQ76" s="126"/>
-      <c r="AR76" s="127"/>
-      <c r="AS76" s="127"/>
-      <c r="AT76" s="127"/>
-      <c r="AU76" s="127"/>
-      <c r="AV76" s="126"/>
-      <c r="AW76" s="127"/>
-      <c r="AX76" s="127"/>
-      <c r="AY76" s="127"/>
-      <c r="AZ76" s="127"/>
-      <c r="BA76" s="127"/>
-      <c r="BB76" s="127"/>
-      <c r="BC76" s="127"/>
-      <c r="BD76" s="127"/>
-      <c r="BE76" s="127"/>
-      <c r="BF76" s="127"/>
-      <c r="BG76" s="126"/>
-      <c r="BH76" s="128"/>
+    <row r="76" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="121"/>
+      <c r="L76" s="121"/>
+      <c r="M76" s="123"/>
+      <c r="N76" s="122"/>
+      <c r="O76" s="122"/>
+      <c r="P76" s="122"/>
+      <c r="Q76" s="122"/>
+      <c r="R76" s="123"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="123"/>
+      <c r="U76" s="123"/>
+      <c r="V76" s="123"/>
+      <c r="W76" s="122"/>
+      <c r="X76" s="122"/>
+      <c r="Y76" s="122"/>
+      <c r="Z76" s="122"/>
+      <c r="AA76" s="122"/>
+      <c r="AB76" s="122"/>
+      <c r="AC76" s="122"/>
+      <c r="AD76" s="122"/>
+      <c r="AE76" s="123"/>
+      <c r="AF76" s="123"/>
+      <c r="AG76" s="123"/>
+      <c r="AH76" s="123"/>
+      <c r="AI76" s="122"/>
+      <c r="AJ76" s="122"/>
+      <c r="AK76" s="122"/>
+      <c r="AL76" s="121"/>
+      <c r="AM76" s="124"/>
+      <c r="AN76" s="125"/>
+      <c r="AO76" s="125"/>
+      <c r="AP76" s="124"/>
+      <c r="AQ76" s="124"/>
+      <c r="AR76" s="125"/>
+      <c r="AS76" s="125"/>
+      <c r="AT76" s="125"/>
+      <c r="AU76" s="125"/>
+      <c r="AV76" s="124"/>
+      <c r="AW76" s="125"/>
+      <c r="AX76" s="125"/>
+      <c r="AY76" s="125"/>
+      <c r="AZ76" s="125"/>
+      <c r="BA76" s="125"/>
+      <c r="BB76" s="125"/>
+      <c r="BC76" s="125"/>
+      <c r="BD76" s="125"/>
+      <c r="BE76" s="125"/>
+      <c r="BF76" s="125"/>
+      <c r="BG76" s="124"/>
+      <c r="BH76" s="126"/>
       <c r="BI76" s="93"/>
       <c r="BJ76" s="93" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="BK76" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="BL76" s="141" t="s">
-        <v>601</v>
+        <v>531</v>
+      </c>
+      <c r="BL76" s="131" t="s">
+        <v>532</v>
       </c>
       <c r="BM76" s="35"/>
       <c r="BN76" s="35"/>
-      <c r="BO76" s="124"/>
-      <c r="BP76" s="129"/>
+      <c r="BO76" s="122"/>
+      <c r="BP76" s="127"/>
     </row>
-    <row r="77" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="123"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
-      <c r="G77" s="123"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="123"/>
-      <c r="L77" s="123"/>
-      <c r="M77" s="125"/>
-      <c r="N77" s="124"/>
-      <c r="O77" s="124"/>
-      <c r="P77" s="124"/>
-      <c r="Q77" s="124"/>
-      <c r="R77" s="125"/>
-      <c r="S77" s="125"/>
-      <c r="T77" s="125"/>
-      <c r="U77" s="125"/>
-      <c r="V77" s="125"/>
-      <c r="W77" s="124"/>
-      <c r="X77" s="124"/>
-      <c r="Y77" s="124"/>
-      <c r="Z77" s="124"/>
-      <c r="AA77" s="124"/>
-      <c r="AB77" s="124"/>
-      <c r="AC77" s="124"/>
-      <c r="AD77" s="124"/>
-      <c r="AE77" s="125"/>
-      <c r="AF77" s="125"/>
-      <c r="AG77" s="125"/>
-      <c r="AH77" s="125"/>
-      <c r="AI77" s="124"/>
-      <c r="AJ77" s="124"/>
-      <c r="AK77" s="124"/>
-      <c r="AL77" s="123"/>
-      <c r="AM77" s="126"/>
-      <c r="AN77" s="127"/>
-      <c r="AO77" s="127"/>
-      <c r="AP77" s="126"/>
-      <c r="AQ77" s="126"/>
-      <c r="AR77" s="127"/>
-      <c r="AS77" s="127"/>
-      <c r="AT77" s="127"/>
-      <c r="AU77" s="127"/>
-      <c r="AV77" s="126"/>
-      <c r="AW77" s="127"/>
-      <c r="AX77" s="127"/>
-      <c r="AY77" s="127"/>
-      <c r="AZ77" s="127"/>
-      <c r="BA77" s="127"/>
-      <c r="BB77" s="127"/>
-      <c r="BC77" s="127"/>
-      <c r="BD77" s="127"/>
-      <c r="BE77" s="127"/>
-      <c r="BF77" s="127"/>
-      <c r="BG77" s="126"/>
-      <c r="BH77" s="137"/>
+    <row r="77" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="123"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="123"/>
+      <c r="N77" s="122"/>
+      <c r="O77" s="122"/>
+      <c r="P77" s="122"/>
+      <c r="Q77" s="122"/>
+      <c r="R77" s="123"/>
+      <c r="S77" s="123"/>
+      <c r="T77" s="123"/>
+      <c r="U77" s="123"/>
+      <c r="V77" s="123"/>
+      <c r="W77" s="122"/>
+      <c r="X77" s="122"/>
+      <c r="Y77" s="122"/>
+      <c r="Z77" s="122"/>
+      <c r="AA77" s="122"/>
+      <c r="AB77" s="122"/>
+      <c r="AC77" s="122"/>
+      <c r="AD77" s="122"/>
+      <c r="AE77" s="123"/>
+      <c r="AF77" s="123"/>
+      <c r="AG77" s="123"/>
+      <c r="AH77" s="123"/>
+      <c r="AI77" s="122"/>
+      <c r="AJ77" s="122"/>
+      <c r="AK77" s="122"/>
+      <c r="AL77" s="121"/>
+      <c r="AM77" s="124"/>
+      <c r="AN77" s="125"/>
+      <c r="AO77" s="125"/>
+      <c r="AP77" s="124"/>
+      <c r="AQ77" s="124"/>
+      <c r="AR77" s="125"/>
+      <c r="AS77" s="125"/>
+      <c r="AT77" s="125"/>
+      <c r="AU77" s="125"/>
+      <c r="AV77" s="124"/>
+      <c r="AW77" s="125"/>
+      <c r="AX77" s="125"/>
+      <c r="AY77" s="125"/>
+      <c r="AZ77" s="125"/>
+      <c r="BA77" s="125"/>
+      <c r="BB77" s="125"/>
+      <c r="BC77" s="125"/>
+      <c r="BD77" s="125"/>
+      <c r="BE77" s="125"/>
+      <c r="BF77" s="125"/>
+      <c r="BG77" s="124"/>
+      <c r="BH77" s="128"/>
       <c r="BI77" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BJ77" s="38" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK77" s="38" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="BL77" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="BM77" s="138"/>
+        <v>527</v>
+      </c>
+      <c r="BM77" s="129"/>
       <c r="BN77" s="35"/>
-      <c r="BO77" s="124"/>
-      <c r="BP77" s="129"/>
+      <c r="BO77" s="122"/>
+      <c r="BP77" s="127"/>
     </row>
-    <row r="78" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="119"/>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="119"/>
-      <c r="G78" s="119"/>
+    <row r="78" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
       <c r="H78" s="77"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="117"/>
       <c r="N78" s="77"/>
       <c r="O78" s="77"/>
       <c r="P78" s="77"/>
@@ -15310,17 +15749,17 @@
       <c r="AI78" s="77"/>
       <c r="AJ78" s="77"/>
       <c r="AK78" s="77"/>
-      <c r="AL78" s="119"/>
-      <c r="AM78" s="120"/>
+      <c r="AL78" s="117"/>
+      <c r="AM78" s="118"/>
       <c r="AN78" s="78"/>
       <c r="AO78" s="78"/>
-      <c r="AP78" s="120"/>
-      <c r="AQ78" s="120"/>
+      <c r="AP78" s="118"/>
+      <c r="AQ78" s="118"/>
       <c r="AR78" s="78"/>
       <c r="AS78" s="78"/>
       <c r="AT78" s="78"/>
       <c r="AU78" s="78"/>
-      <c r="AV78" s="120"/>
+      <c r="AV78" s="118"/>
       <c r="AW78" s="78"/>
       <c r="AX78" s="78"/>
       <c r="AY78" s="78"/>
@@ -15331,35 +15770,31 @@
       <c r="BD78" s="78"/>
       <c r="BE78" s="78"/>
       <c r="BF78" s="78"/>
-      <c r="BG78" s="120"/>
-      <c r="BH78" s="121"/>
-      <c r="BI78" s="140" t="s">
+      <c r="BG78" s="118"/>
+      <c r="BH78" s="119"/>
+      <c r="BI78" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="BJ78" s="140" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK78" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="BL78" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="BM78" s="139"/>
+      <c r="BJ78" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="BK78" s="38"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="130"/>
       <c r="BN78" s="45"/>
       <c r="BO78" s="77"/>
-      <c r="BP78" s="122"/>
+      <c r="BP78" s="120"/>
     </row>
-    <row r="79" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="119"/>
-      <c r="C79" s="119"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
+    <row r="79" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="77"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="119"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="117"/>
       <c r="N79" s="77"/>
       <c r="O79" s="77"/>
       <c r="P79" s="77"/>
@@ -15375,17 +15810,17 @@
       <c r="AI79" s="77"/>
       <c r="AJ79" s="77"/>
       <c r="AK79" s="77"/>
-      <c r="AL79" s="119"/>
-      <c r="AM79" s="120"/>
+      <c r="AL79" s="117"/>
+      <c r="AM79" s="118"/>
       <c r="AN79" s="78"/>
       <c r="AO79" s="78"/>
-      <c r="AP79" s="120"/>
-      <c r="AQ79" s="120"/>
+      <c r="AP79" s="118"/>
+      <c r="AQ79" s="118"/>
       <c r="AR79" s="78"/>
       <c r="AS79" s="78"/>
       <c r="AT79" s="78"/>
       <c r="AU79" s="78"/>
-      <c r="AV79" s="120"/>
+      <c r="AV79" s="118"/>
       <c r="AW79" s="78"/>
       <c r="AX79" s="78"/>
       <c r="AY79" s="78"/>
@@ -15396,35 +15831,31 @@
       <c r="BD79" s="78"/>
       <c r="BE79" s="78"/>
       <c r="BF79" s="78"/>
-      <c r="BG79" s="120"/>
-      <c r="BH79" s="121"/>
-      <c r="BI79" s="140" t="s">
+      <c r="BG79" s="118"/>
+      <c r="BH79" s="119"/>
+      <c r="BI79" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="BJ79" s="140" t="s">
-        <v>326</v>
-      </c>
-      <c r="BK79" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="BL79" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="BM79" s="138"/>
+      <c r="BJ79" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="BK79" s="38"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="129"/>
       <c r="BN79" s="35"/>
       <c r="BO79" s="77"/>
-      <c r="BP79" s="122"/>
+      <c r="BP79" s="120"/>
     </row>
-    <row r="80" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="119"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="119"/>
-      <c r="G80" s="119"/>
+    <row r="80" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
       <c r="H80" s="77"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="119"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="117"/>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
       <c r="P80" s="77"/>
@@ -15440,17 +15871,17 @@
       <c r="AI80" s="77"/>
       <c r="AJ80" s="77"/>
       <c r="AK80" s="77"/>
-      <c r="AL80" s="119"/>
-      <c r="AM80" s="120"/>
+      <c r="AL80" s="117"/>
+      <c r="AM80" s="118"/>
       <c r="AN80" s="78"/>
       <c r="AO80" s="78"/>
-      <c r="AP80" s="120"/>
-      <c r="AQ80" s="120"/>
+      <c r="AP80" s="118"/>
+      <c r="AQ80" s="118"/>
       <c r="AR80" s="78"/>
       <c r="AS80" s="78"/>
       <c r="AT80" s="78"/>
       <c r="AU80" s="78"/>
-      <c r="AV80" s="120"/>
+      <c r="AV80" s="118"/>
       <c r="AW80" s="78"/>
       <c r="AX80" s="78"/>
       <c r="AY80" s="78"/>
@@ -15461,35 +15892,37 @@
       <c r="BD80" s="78"/>
       <c r="BE80" s="78"/>
       <c r="BF80" s="78"/>
-      <c r="BG80" s="120"/>
-      <c r="BH80" s="121"/>
-      <c r="BI80" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="BJ80" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK80" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="BL80" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="BM80" s="29"/>
+      <c r="BG80" s="118"/>
+      <c r="BH80" s="119"/>
+      <c r="BI80" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ80" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK80" s="145" t="s">
+        <v>679</v>
+      </c>
+      <c r="BL80" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="BM80" s="147" t="s">
+        <v>609</v>
+      </c>
       <c r="BN80" s="29"/>
       <c r="BO80" s="77"/>
-      <c r="BP80" s="122"/>
+      <c r="BP80" s="120"/>
     </row>
-    <row r="81" spans="2:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="119"/>
-      <c r="C81" s="119"/>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="119"/>
-      <c r="G81" s="119"/>
+    <row r="81" spans="2:68" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
       <c r="H81" s="77"/>
-      <c r="K81" s="119"/>
-      <c r="L81" s="119"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="117"/>
       <c r="N81" s="77"/>
       <c r="O81" s="77"/>
       <c r="P81" s="77"/>
@@ -15505,17 +15938,17 @@
       <c r="AI81" s="77"/>
       <c r="AJ81" s="77"/>
       <c r="AK81" s="77"/>
-      <c r="AL81" s="119"/>
-      <c r="AM81" s="120"/>
+      <c r="AL81" s="117"/>
+      <c r="AM81" s="118"/>
       <c r="AN81" s="78"/>
       <c r="AO81" s="78"/>
-      <c r="AP81" s="120"/>
-      <c r="AQ81" s="120"/>
+      <c r="AP81" s="118"/>
+      <c r="AQ81" s="118"/>
       <c r="AR81" s="78"/>
       <c r="AS81" s="78"/>
       <c r="AT81" s="78"/>
       <c r="AU81" s="78"/>
-      <c r="AV81" s="120"/>
+      <c r="AV81" s="118"/>
       <c r="AW81" s="78"/>
       <c r="AX81" s="78"/>
       <c r="AY81" s="78"/>
@@ -15526,35 +15959,35 @@
       <c r="BD81" s="78"/>
       <c r="BE81" s="78"/>
       <c r="BF81" s="78"/>
-      <c r="BG81" s="120"/>
-      <c r="BH81" s="121"/>
+      <c r="BG81" s="118"/>
+      <c r="BH81" s="119"/>
       <c r="BI81" s="38" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="BJ81" s="38" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="BK81" s="38" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="BL81" s="3" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="BM81" s="29"/>
       <c r="BN81" s="94"/>
       <c r="BO81" s="77"/>
-      <c r="BP81" s="122"/>
+      <c r="BP81" s="120"/>
     </row>
-    <row r="82" spans="2:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
-      <c r="F82" s="119"/>
-      <c r="G82" s="119"/>
+    <row r="82" spans="2:68" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="117"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
       <c r="H82" s="77"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="119"/>
+      <c r="K82" s="117"/>
+      <c r="L82" s="117"/>
       <c r="N82" s="77"/>
       <c r="O82" s="77"/>
       <c r="P82" s="77"/>
@@ -15570,17 +16003,17 @@
       <c r="AI82" s="77"/>
       <c r="AJ82" s="77"/>
       <c r="AK82" s="77"/>
-      <c r="AL82" s="119"/>
-      <c r="AM82" s="120"/>
+      <c r="AL82" s="117"/>
+      <c r="AM82" s="118"/>
       <c r="AN82" s="78"/>
       <c r="AO82" s="78"/>
-      <c r="AP82" s="120"/>
-      <c r="AQ82" s="120"/>
+      <c r="AP82" s="118"/>
+      <c r="AQ82" s="118"/>
       <c r="AR82" s="78"/>
       <c r="AS82" s="78"/>
       <c r="AT82" s="78"/>
       <c r="AU82" s="78"/>
-      <c r="AV82" s="120"/>
+      <c r="AV82" s="118"/>
       <c r="AW82" s="78"/>
       <c r="AX82" s="78"/>
       <c r="AY82" s="78"/>
@@ -15591,10 +16024,10 @@
       <c r="BD82" s="78"/>
       <c r="BE82" s="78"/>
       <c r="BF82" s="78"/>
-      <c r="BG82" s="120"/>
-      <c r="BH82" s="121"/>
+      <c r="BG82" s="118"/>
+      <c r="BH82" s="119"/>
       <c r="BI82" s="38" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="BJ82" s="38" t="s">
         <v>118</v>
@@ -15604,18 +16037,18 @@
       <c r="BM82" s="29"/>
       <c r="BN82" s="29"/>
       <c r="BO82" s="77"/>
-      <c r="BP82" s="122"/>
+      <c r="BP82" s="120"/>
     </row>
-    <row r="83" spans="2:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="119"/>
-      <c r="G83" s="119"/>
+    <row r="83" spans="2:68" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
       <c r="H83" s="77"/>
-      <c r="K83" s="119"/>
-      <c r="L83" s="119"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
       <c r="N83" s="77"/>
       <c r="O83" s="77"/>
       <c r="P83" s="77"/>
@@ -15631,17 +16064,17 @@
       <c r="AI83" s="77"/>
       <c r="AJ83" s="77"/>
       <c r="AK83" s="77"/>
-      <c r="AL83" s="119"/>
-      <c r="AM83" s="120"/>
+      <c r="AL83" s="117"/>
+      <c r="AM83" s="118"/>
       <c r="AN83" s="78"/>
       <c r="AO83" s="78"/>
-      <c r="AP83" s="120"/>
-      <c r="AQ83" s="120"/>
+      <c r="AP83" s="118"/>
+      <c r="AQ83" s="118"/>
       <c r="AR83" s="78"/>
       <c r="AS83" s="78"/>
       <c r="AT83" s="78"/>
       <c r="AU83" s="78"/>
-      <c r="AV83" s="120"/>
+      <c r="AV83" s="118"/>
       <c r="AW83" s="78"/>
       <c r="AX83" s="78"/>
       <c r="AY83" s="78"/>
@@ -15652,8 +16085,8 @@
       <c r="BD83" s="78"/>
       <c r="BE83" s="78"/>
       <c r="BF83" s="78"/>
-      <c r="BG83" s="120"/>
-      <c r="BH83" s="121"/>
+      <c r="BG83" s="118"/>
+      <c r="BH83" s="119"/>
       <c r="BI83" s="46"/>
       <c r="BJ83" s="46"/>
       <c r="BK83" s="46"/>
@@ -15661,18 +16094,18 @@
       <c r="BM83" s="29"/>
       <c r="BN83" s="29"/>
       <c r="BO83" s="77"/>
-      <c r="BP83" s="122"/>
+      <c r="BP83" s="120"/>
     </row>
-    <row r="84" spans="2:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="119"/>
-      <c r="C84" s="119"/>
-      <c r="D84" s="119"/>
-      <c r="E84" s="119"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
+    <row r="84" spans="2:68" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="117"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
       <c r="H84" s="77"/>
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
+      <c r="K84" s="117"/>
+      <c r="L84" s="117"/>
       <c r="N84" s="77"/>
       <c r="O84" s="77"/>
       <c r="P84" s="77"/>
@@ -15688,17 +16121,17 @@
       <c r="AI84" s="77"/>
       <c r="AJ84" s="77"/>
       <c r="AK84" s="77"/>
-      <c r="AL84" s="119"/>
-      <c r="AM84" s="120"/>
+      <c r="AL84" s="117"/>
+      <c r="AM84" s="118"/>
       <c r="AN84" s="78"/>
       <c r="AO84" s="78"/>
-      <c r="AP84" s="120"/>
-      <c r="AQ84" s="120"/>
+      <c r="AP84" s="118"/>
+      <c r="AQ84" s="118"/>
       <c r="AR84" s="78"/>
       <c r="AS84" s="78"/>
       <c r="AT84" s="78"/>
       <c r="AU84" s="78"/>
-      <c r="AV84" s="120"/>
+      <c r="AV84" s="118"/>
       <c r="AW84" s="78"/>
       <c r="AX84" s="78"/>
       <c r="AY84" s="78"/>
@@ -15709,26 +16142,26 @@
       <c r="BD84" s="78"/>
       <c r="BE84" s="78"/>
       <c r="BF84" s="78"/>
-      <c r="BG84" s="120"/>
-      <c r="BH84" s="121"/>
+      <c r="BG84" s="118"/>
+      <c r="BH84" s="119"/>
       <c r="BI84" s="78"/>
       <c r="BJ84" s="78"/>
       <c r="BK84" s="78"/>
-      <c r="BM84" s="119"/>
-      <c r="BN84" s="119"/>
+      <c r="BM84" s="117"/>
+      <c r="BN84" s="117"/>
       <c r="BO84" s="77"/>
-      <c r="BP84" s="122"/>
+      <c r="BP84" s="120"/>
     </row>
-    <row r="85" spans="2:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="119"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="119"/>
-      <c r="E85" s="119"/>
-      <c r="F85" s="119"/>
-      <c r="G85" s="119"/>
+    <row r="85" spans="2:68" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="117"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
       <c r="H85" s="77"/>
-      <c r="K85" s="119"/>
-      <c r="L85" s="119"/>
+      <c r="K85" s="117"/>
+      <c r="L85" s="117"/>
       <c r="N85" s="77"/>
       <c r="O85" s="77"/>
       <c r="P85" s="77"/>
@@ -15744,17 +16177,17 @@
       <c r="AI85" s="77"/>
       <c r="AJ85" s="77"/>
       <c r="AK85" s="77"/>
-      <c r="AL85" s="119"/>
-      <c r="AM85" s="120"/>
+      <c r="AL85" s="117"/>
+      <c r="AM85" s="118"/>
       <c r="AN85" s="78"/>
       <c r="AO85" s="78"/>
-      <c r="AP85" s="120"/>
-      <c r="AQ85" s="120"/>
+      <c r="AP85" s="118"/>
+      <c r="AQ85" s="118"/>
       <c r="AR85" s="78"/>
       <c r="AS85" s="78"/>
       <c r="AT85" s="78"/>
       <c r="AU85" s="78"/>
-      <c r="AV85" s="120"/>
+      <c r="AV85" s="118"/>
       <c r="AW85" s="78"/>
       <c r="AX85" s="78"/>
       <c r="AY85" s="78"/>
@@ -15765,15 +16198,15 @@
       <c r="BD85" s="78"/>
       <c r="BE85" s="78"/>
       <c r="BF85" s="78"/>
-      <c r="BG85" s="120"/>
-      <c r="BH85" s="121"/>
+      <c r="BG85" s="118"/>
+      <c r="BH85" s="119"/>
       <c r="BI85" s="78"/>
       <c r="BJ85" s="78"/>
       <c r="BK85" s="78"/>
-      <c r="BM85" s="119"/>
-      <c r="BN85" s="119"/>
+      <c r="BM85" s="117"/>
+      <c r="BN85" s="117"/>
       <c r="BO85" s="77"/>
-      <c r="BP85" s="122"/>
+      <c r="BP85" s="120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15801,19 +16234,19 @@
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="108" t="s">
-        <v>547</v>
+        <v>483</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>567</v>
+        <v>503</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="E4" s="110" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -15821,7 +16254,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
       <c r="C5" s="111">
         <v>40</v>
@@ -15830,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>549</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -15838,7 +16271,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -15847,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>553</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -15855,7 +16288,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="C7" s="115">
         <v>10</v>
@@ -15864,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="114" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -15872,7 +16305,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="C8" s="3">
         <v>85</v>
@@ -15881,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -15889,24 +16322,24 @@
         <v>239</v>
       </c>
       <c r="B9" s="113" t="s">
-        <v>555</v>
+        <v>491</v>
       </c>
       <c r="C9" s="115">
         <v>15</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="112" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="C10" s="115">
         <v>7</v>
@@ -15915,15 +16348,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>565</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -15932,24 +16365,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>566</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -15963,12 +16396,1063 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="138" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>555</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="45">
+        <v>36</v>
+      </c>
+      <c r="F2" s="137" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="35">
+        <v>43</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="35">
+        <v>30</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="35">
+        <v>49</v>
+      </c>
+      <c r="F5" s="135" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="35">
+        <v>33</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="35">
+        <v>25</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="35">
+        <v>32</v>
+      </c>
+      <c r="F8" s="135" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="35">
+        <v>54</v>
+      </c>
+      <c r="F9" s="135" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="35">
+        <v>32</v>
+      </c>
+      <c r="F10" s="135" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="35">
+        <v>26</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="35">
+        <v>34</v>
+      </c>
+      <c r="F12" s="135" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="35">
+        <v>39</v>
+      </c>
+      <c r="F13" s="135" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="136"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="35">
+        <v>30</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="35">
+        <v>49</v>
+      </c>
+      <c r="F16" s="135" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="35">
+        <v>58</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="35">
+        <v>51</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="35">
+        <v>60</v>
+      </c>
+      <c r="F19" s="137" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="35">
+        <v>38</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="35">
+        <v>35</v>
+      </c>
+      <c r="F21" s="135" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="35">
+        <v>44</v>
+      </c>
+      <c r="F22" s="135" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="35">
+        <v>46</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="35">
+        <v>40</v>
+      </c>
+      <c r="F24" s="135" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="35">
+        <v>54</v>
+      </c>
+      <c r="F25" s="135" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="35">
+        <v>48</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="35">
+        <v>43</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="35">
+        <v>72</v>
+      </c>
+      <c r="F28" s="137" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="35">
+        <v>43</v>
+      </c>
+      <c r="F29" s="135" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="35">
+        <v>45</v>
+      </c>
+      <c r="F30" s="135" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="136"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="35">
+        <v>76</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="35">
+        <v>53</v>
+      </c>
+      <c r="F33" s="135" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="35">
+        <v>78</v>
+      </c>
+      <c r="F34" s="137" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="35">
+        <v>50</v>
+      </c>
+      <c r="F35" s="135" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="35">
+        <v>46</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="35">
+        <v>58</v>
+      </c>
+      <c r="F37" s="135" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="35">
+        <v>60</v>
+      </c>
+      <c r="F38" s="135" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="35">
+        <v>61</v>
+      </c>
+      <c r="F39" s="135" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="35">
+        <v>84</v>
+      </c>
+      <c r="F40" s="137" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="35">
+        <v>51</v>
+      </c>
+      <c r="F41" s="135" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="136"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="35">
+        <v>57</v>
+      </c>
+      <c r="F43" s="135" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="35">
+        <v>64</v>
+      </c>
+      <c r="F44" s="135" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="35">
+        <v>59</v>
+      </c>
+      <c r="F45" s="135" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="35">
+        <v>94</v>
+      </c>
+      <c r="F46" s="137" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="35">
+        <v>66</v>
+      </c>
+      <c r="F47" s="135" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="35">
+        <v>60</v>
+      </c>
+      <c r="F48" s="135" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="35">
+        <v>63</v>
+      </c>
+      <c r="F49" s="135" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="35">
+        <v>68</v>
+      </c>
+      <c r="F50" s="135" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="35">
+        <v>62</v>
+      </c>
+      <c r="F51" s="135" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="35">
+        <v>65</v>
+      </c>
+      <c r="F52" s="135" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="35">
+        <v>67</v>
+      </c>
+      <c r="F53" s="135" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="35">
+        <v>70</v>
+      </c>
+      <c r="F54" s="135" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="35">
+        <v>65</v>
+      </c>
+      <c r="F55" s="135" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="35">
+        <v>69</v>
+      </c>
+      <c r="F56" s="135" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="35">
+        <v>97</v>
+      </c>
+      <c r="F57" s="137" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="136"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="35">
+        <v>105</v>
+      </c>
+      <c r="F59" s="137" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="3">
+        <v>20220303</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="35">
+        <v>72</v>
+      </c>
+      <c r="F60" s="135" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="3">
+        <v>20220406</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="35">
+        <v>81</v>
+      </c>
+      <c r="F61" s="135" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="3">
+        <v>20220908</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="35">
+        <v>88</v>
+      </c>
+      <c r="F62" s="135" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="3">
+        <v>20220915</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="35">
+        <v>73</v>
+      </c>
+      <c r="F63" s="135" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H$2=B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$2:$F$63=$H$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48AFC7-75C1-42B3-A7B0-1764F28D63D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25A30D4-2900-4D9D-9B57-3CBBA1B460DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3119,10 +3119,10 @@
   <dimension ref="A1:CW85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BP67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK71" sqref="BK71"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15093,7 +15093,7 @@
         <v>24</v>
       </c>
       <c r="E71" s="14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F71" s="14">
         <v>4800926</v>

--- a/GliderMission.xlsx
+++ b/GliderMission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ent.dfo-mpo.ca\atlshares\MARFIS\Shares\OSD_Common\Gliders\MISSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE956247-D8A0-4BBB-8FEB-1EDDEA4AE1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAB570F-B269-4120-A44B-1D8EA8E9603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10910" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="682">
   <si>
     <t>Deployment date</t>
   </si>
@@ -761,96 +760,6 @@
     <t>Cruise Name</t>
   </si>
   <si>
-    <t>GLI2018_SEA019_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_44</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_36</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA024_25</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA022_32</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA024_32</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA032_26</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA022_34</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA032_30</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_49</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_58</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_51</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_60</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_38</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_35</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_46</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_30</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_49</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_33</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA019_54</t>
-  </si>
-  <si>
-    <t>GLI2018_SEA021_39</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA032_43</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_40</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA021_54</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA022_48</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA019_72</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA019_76</t>
-  </si>
-  <si>
-    <t>GLI2020_SEA022_53</t>
-  </si>
-  <si>
-    <t>GLI2019_SEA024_45</t>
-  </si>
-  <si>
     <t>Ecopuck cal date</t>
   </si>
   <si>
@@ -887,9 +796,6 @@
     <t>20200618</t>
   </si>
   <si>
-    <t>GLI2020_SEA019_78</t>
-  </si>
-  <si>
     <t>Burned wire, attached</t>
   </si>
   <si>
@@ -905,15 +811,9 @@
     <t>v2.8.1-r deadReck</t>
   </si>
   <si>
-    <t>GLI2020_SEA032_46</t>
-  </si>
-  <si>
     <t>now have dead reckoning, warm up FLBBCD max 10s</t>
   </si>
   <si>
-    <t>GLI2020_SEA024_50</t>
-  </si>
-  <si>
     <t>both to up</t>
   </si>
   <si>
@@ -950,9 +850,6 @@
     <t>20200724</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_58</t>
-  </si>
-  <si>
     <t>20200727</t>
   </si>
   <si>
@@ -974,9 +871,6 @@
     <t>20200820</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_60</t>
-  </si>
-  <si>
     <t>TRI1-2-3-4-BB2-4-7-10-11-10-7-4-2-1 and/or WP from path planning (Nicolai)</t>
   </si>
   <si>
@@ -998,18 +892,12 @@
     <t>20200916</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_61</t>
-  </si>
-  <si>
     <t>16+</t>
   </si>
   <si>
     <t>20200928</t>
   </si>
   <si>
-    <t>GLI2020_SEA019_84</t>
-  </si>
-  <si>
     <t>dummy</t>
   </si>
   <si>
@@ -1040,9 +928,6 @@
     <t>20201016</t>
   </si>
   <si>
-    <t>GLI2020_SEA032_51</t>
-  </si>
-  <si>
     <t>20201020</t>
   </si>
   <si>
@@ -1211,9 +1096,6 @@
     <t>New battery, new release, auto pitch mission. Weird altimeter hits at surface. Struggled with NSC on the way out and bad weather on the way back, both delaying the progress forward by several days.</t>
   </si>
   <si>
-    <t>GLI2020_SEA022_64</t>
-  </si>
-  <si>
     <t>20210310</t>
   </si>
   <si>
@@ -1241,18 +1123,9 @@
     <t>Bearcat/Sigma-T</t>
   </si>
   <si>
-    <t xml:space="preserve">Altimeter hits at surface, masked 2058 in day 2. </t>
-  </si>
-  <si>
     <t>20210407</t>
   </si>
   <si>
-    <t>GLI2021_SEA021_57</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA021_59</t>
-  </si>
-  <si>
     <t>3.2.1-r altiFix</t>
   </si>
   <si>
@@ -1295,9 +1168,6 @@
     <t>20210507</t>
   </si>
   <si>
-    <t>GLI2021_SEA019_94</t>
-  </si>
-  <si>
     <t>20210511</t>
   </si>
   <si>
@@ -1319,15 +1189,6 @@
     <t>20210531</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_66</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA032_60</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_63</t>
-  </si>
-  <si>
     <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-NSC-Tri- DR</t>
   </si>
   <si>
@@ -1361,12 +1222,6 @@
     <t>Mammals zodiac/Mammals zodiac</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_68</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA032_62</t>
-  </si>
-  <si>
     <t>~1023</t>
   </si>
   <si>
@@ -1377,9 +1232,6 @@
   </si>
   <si>
     <t>20210721</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA024_65</t>
   </si>
   <si>
     <t>pld of sea032 with rinko and minifluo</t>
@@ -1430,9 +1282,6 @@
     <t>20210901</t>
   </si>
   <si>
-    <t>GLI2021_SEA024_67</t>
-  </si>
-  <si>
     <t>W1-W2-W3-W4-W5-W6-W1-Tri- DR</t>
   </si>
   <si>
@@ -1469,24 +1318,12 @@
     <t>~1024</t>
   </si>
   <si>
-    <t>GLI2021_SEA024_69</t>
-  </si>
-  <si>
     <t>pld of sea032 with rinko and minifluo, changed sampling rate for hurricane Larry, noticed weird GPCTD data from DO at dive 181 and from other properties at dive 232. corrosion is the best hypothesis. Pld off at bb01 to go to bonavista bay. Corrosion confirmed on GPCTD bulkhead connector.</t>
   </si>
   <si>
-    <t>GLI2021_SEA022_70</t>
-  </si>
-  <si>
-    <t>GLI2021_SEA019_97</t>
-  </si>
-  <si>
     <t>20211005</t>
   </si>
   <si>
-    <t>GLI2021_SEA032_65</t>
-  </si>
-  <si>
     <t>With legato and ecopuck. Science profile accoustique 1400, ctd and ecopuck 338 plus 13 x 2h drift. The ctd and eco sampling was not consistent, sometime being forgotten to be turned on and sometime sampling at 100% instead of 20%</t>
   </si>
   <si>
@@ -1541,9 +1378,6 @@
     <t>GL1-GL2-GL2-GL1-TR1</t>
   </si>
   <si>
-    <t>GLI2022_SEA024_72</t>
-  </si>
-  <si>
     <t>20220113</t>
   </si>
   <si>
@@ -1562,9 +1396,6 @@
     <t>AZMP spring 2022</t>
   </si>
   <si>
-    <t>GLI2022_SEA022_81</t>
-  </si>
-  <si>
     <t>GPCTD of SEA024, firmware upgraded but not using auto-ballast</t>
   </si>
   <si>
@@ -1580,9 +1411,6 @@
     <t>Chris Beck</t>
   </si>
   <si>
-    <t>GLI2022_SEA032_73</t>
-  </si>
-  <si>
     <t>20220929</t>
   </si>
   <si>
@@ -1592,9 +1420,6 @@
     <t>20221005</t>
   </si>
   <si>
-    <t>GLI2022_SEA022_88</t>
-  </si>
-  <si>
     <t>20220210</t>
   </si>
   <si>
@@ -1610,15 +1435,9 @@
     <t>20230223</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_69</t>
-  </si>
-  <si>
     <t>20230314</t>
   </si>
   <si>
-    <t>GLI2023_SEA022_91</t>
-  </si>
-  <si>
     <t>19-Dec-16</t>
   </si>
   <si>
@@ -1628,9 +1447,6 @@
     <t>20230317</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_71</t>
-  </si>
-  <si>
     <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-TRI-HL2</t>
   </si>
   <si>
@@ -1658,12 +1474,6 @@
     <t>20230523</t>
   </si>
   <si>
-    <t>GLI2023_SEA032_79</t>
-  </si>
-  <si>
-    <t>GLI2023_SEA022_93</t>
-  </si>
-  <si>
     <t>3.5.3-r dataSplitSurf</t>
   </si>
   <si>
@@ -1691,9 +1501,6 @@
     <t>20230621</t>
   </si>
   <si>
-    <t>GLI2023_SEA024_77</t>
-  </si>
-  <si>
     <t>Ship</t>
   </si>
   <si>
@@ -1826,27 +1633,12 @@
     <t>22u3742</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
     <t>3.51</t>
   </si>
   <si>
     <t>9k</t>
   </si>
   <si>
-    <t>50k</t>
-  </si>
-  <si>
-    <t>2k</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
     <t>14k</t>
   </si>
   <si>
@@ -1868,9 +1660,6 @@
     <t>20230908</t>
   </si>
   <si>
-    <t xml:space="preserve"> test of new piloting command?</t>
-  </si>
-  <si>
     <t>With spare pld (initially on SEA024). There were a few dives were the GPCTD DO was bad on the shelf break. Did 2 drifts at the end and did not get easy drift ballast value, human error. Nose very damaged during mission but no alarms, possible submarine hit.</t>
   </si>
   <si>
@@ -1886,16 +1675,430 @@
     <t>chris double check configs and new battery duet</t>
   </si>
   <si>
-    <t>and rinko or GPCTD and Pablo</t>
-  </si>
-  <si>
     <t>AZMP fall 2023</t>
   </si>
   <si>
     <t>20230928</t>
   </si>
   <si>
-    <t>GLI2023_SEA021_74</t>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-HL2</t>
+  </si>
+  <si>
+    <t>182V2018036</t>
+  </si>
+  <si>
+    <t>182V2018043</t>
+  </si>
+  <si>
+    <t>182V2019058</t>
+  </si>
+  <si>
+    <t>182V2019060</t>
+  </si>
+  <si>
+    <t>182V2018049</t>
+  </si>
+  <si>
+    <t>182V2018054</t>
+  </si>
+  <si>
+    <t>18000002018030</t>
+  </si>
+  <si>
+    <t>18000002018033</t>
+  </si>
+  <si>
+    <t>18000002019049</t>
+  </si>
+  <si>
+    <t>18000002019051</t>
+  </si>
+  <si>
+    <t>18000002018039</t>
+  </si>
+  <si>
+    <t>deploy date</t>
+  </si>
+  <si>
+    <t>recov date</t>
+  </si>
+  <si>
+    <t>glider</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>18X02018025</t>
+  </si>
+  <si>
+    <t>18X02018032</t>
+  </si>
+  <si>
+    <t>18GV2018026</t>
+  </si>
+  <si>
+    <t>18GV2019030</t>
+  </si>
+  <si>
+    <t>18GV2019043</t>
+  </si>
+  <si>
+    <t>18000002019054</t>
+  </si>
+  <si>
+    <t>182V2019072</t>
+  </si>
+  <si>
+    <t>18X02019035</t>
+  </si>
+  <si>
+    <t>18X02019040</t>
+  </si>
+  <si>
+    <t>18X02019043</t>
+  </si>
+  <si>
+    <t>18X02019045</t>
+  </si>
+  <si>
+    <t>18XZ2018032</t>
+  </si>
+  <si>
+    <t>18XZ2018034</t>
+  </si>
+  <si>
+    <t>18XZ2019038</t>
+  </si>
+  <si>
+    <t>18XZ2019044</t>
+  </si>
+  <si>
+    <t>18XZ2019046</t>
+  </si>
+  <si>
+    <t>18XZ2019048</t>
+  </si>
+  <si>
+    <t>182V2020076</t>
+  </si>
+  <si>
+    <t>182V2020078</t>
+  </si>
+  <si>
+    <t>182V2020084</t>
+  </si>
+  <si>
+    <t>18XZ2020053</t>
+  </si>
+  <si>
+    <t>18XZ2020058</t>
+  </si>
+  <si>
+    <t>18XZ2020060</t>
+  </si>
+  <si>
+    <t>18XZ2020061</t>
+  </si>
+  <si>
+    <t>18GV2020046</t>
+  </si>
+  <si>
+    <t>18GV2020051</t>
+  </si>
+  <si>
+    <t>18X02020050</t>
+  </si>
+  <si>
+    <t>18000002021057</t>
+  </si>
+  <si>
+    <t>18000002021059</t>
+  </si>
+  <si>
+    <t>18XZ2021064</t>
+  </si>
+  <si>
+    <t>18XZ2021066</t>
+  </si>
+  <si>
+    <t>18XZ2021070</t>
+  </si>
+  <si>
+    <t>182V2021094</t>
+  </si>
+  <si>
+    <t>182V2021097</t>
+  </si>
+  <si>
+    <t>18XZ2021068</t>
+  </si>
+  <si>
+    <t>18GV2021060</t>
+  </si>
+  <si>
+    <t>18GV2021062</t>
+  </si>
+  <si>
+    <t>18GV2021065</t>
+  </si>
+  <si>
+    <t>18X02021063</t>
+  </si>
+  <si>
+    <t>18X02021065</t>
+  </si>
+  <si>
+    <t>18X02021067</t>
+  </si>
+  <si>
+    <t>18X02021069</t>
+  </si>
+  <si>
+    <t>182V2022105</t>
+  </si>
+  <si>
+    <t>18XZ2022081</t>
+  </si>
+  <si>
+    <t>18XZ2022088</t>
+  </si>
+  <si>
+    <t>18X02022072</t>
+  </si>
+  <si>
+    <t>18GV2022073</t>
+  </si>
+  <si>
+    <t>23u3507</t>
+  </si>
+  <si>
+    <t>23u3508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test of new piloting command, mission with legato but post processing required for saltbladder cal done after, buoyancy limited to -410 and 465 due to config files comments.</t>
+  </si>
+  <si>
+    <t>next one to go?</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_036</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_043</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_030</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_049</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_033</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA024_025</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA022_032</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA019_054</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA024_032</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA032_026</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA022_034</t>
+  </si>
+  <si>
+    <t>GLI2018_SEA021_039</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA032_030</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_049</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_058</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_051</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_060</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_038</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_035</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_044</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_046</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_040</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA021_054</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA022_048</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_043</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA019_072</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA032_043</t>
+  </si>
+  <si>
+    <t>GLI2019_SEA024_045</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_076</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_053</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_078</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA024_050</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_046</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_058</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_060</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA022_061</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA019_084</t>
+  </si>
+  <si>
+    <t>GLI2020_SEA032_051</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_057</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_064</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA021_059</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_094</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_066</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_060</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_063</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_068</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_062</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_065</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_067</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA022_070</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA032_065</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA024_069</t>
+  </si>
+  <si>
+    <t>GLI2021_SEA019_097</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA024_072</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_081</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA022_088</t>
+  </si>
+  <si>
+    <t>GLI2022_SEA032_073</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_069</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_091</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_071</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA032_079</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA022_093</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA024_077</t>
+  </si>
+  <si>
+    <t>GLI2023_SEA021_074</t>
+  </si>
+  <si>
+    <t>20231115</t>
+  </si>
+  <si>
+    <t>GLI2024_SEA021_076</t>
+  </si>
+  <si>
+    <t>3.6.1-r backseat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 point rinko cal. Altimeter hits at surface, masked 2058 in day 2. </t>
+  </si>
+  <si>
+    <t>GL1-GL2-GL3-GL7-GL3-GL2-GL1-…</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>20230929</t>
+  </si>
+  <si>
+    <t>20231011</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +2109,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,6 +2168,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2199,7 +2410,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2488,10 +2699,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
@@ -2508,23 +2715,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2533,8 +2728,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2544,7 +2766,22 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2885,13 +3122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:CW85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AX58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AM63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA70" sqref="BA70:BB70"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2966,10 +3203,10 @@
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="95" t="s">
-        <v>490</v>
+        <v>436</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -3057,7 +3294,7 @@
         <v>208</v>
       </c>
       <c r="M2" s="99" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>7</v>
@@ -3093,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>112</v>
@@ -3102,13 +3339,13 @@
         <v>115</v>
       </c>
       <c r="AB2" s="68" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="AC2" s="68" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="AD2" s="68" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="32" t="s">
         <v>55</v>
@@ -3135,64 +3372,64 @@
         <v>121</v>
       </c>
       <c r="AM2" s="71" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="AN2" s="70" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="AO2" s="70" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="AP2" s="71" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="AQ2" s="71" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="AR2" s="70" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="AS2" s="70" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="AT2" s="70" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="AU2" s="70" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="AV2" s="71" t="s">
         <v>68</v>
       </c>
       <c r="AW2" s="70" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="AX2" s="72" t="s">
         <v>165</v>
       </c>
       <c r="AY2" s="70" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="AZ2" s="70" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="BA2" s="70" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="BB2" s="70" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="BC2" s="70" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="BD2" s="70" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="BE2" s="70" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="BF2" s="70" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="BG2" s="73" t="s">
         <v>169</v>
@@ -3248,7 +3485,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>245</v>
+        <v>610</v>
       </c>
       <c r="I3" s="13">
         <v>29.2</v>
@@ -3335,7 +3572,7 @@
         <v>69</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO3" s="15" t="s">
         <v>167</v>
@@ -3347,7 +3584,7 @@
         <v>71</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15"/>
@@ -3419,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>242</v>
+        <v>611</v>
       </c>
       <c r="I4" s="2">
         <v>29.2</v>
@@ -3506,7 +3743,7 @@
         <v>69</v>
       </c>
       <c r="AN4" s="15" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO4" s="15" t="s">
         <v>167</v>
@@ -3518,7 +3755,7 @@
         <v>71</v>
       </c>
       <c r="AR4" s="15" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
@@ -3590,7 +3827,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>259</v>
+        <v>612</v>
       </c>
       <c r="I5" s="3">
         <v>29.2</v>
@@ -3677,7 +3914,7 @@
         <v>75</v>
       </c>
       <c r="AN5" s="40" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="AO5" s="40" t="s">
         <v>167</v>
@@ -3689,7 +3926,7 @@
         <v>72</v>
       </c>
       <c r="AR5" s="40" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="AS5" s="40"/>
       <c r="AT5" s="40"/>
@@ -3715,7 +3952,7 @@
         <v>234</v>
       </c>
       <c r="BH5" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI5" s="40" t="s">
         <v>95</v>
@@ -3763,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>260</v>
+        <v>613</v>
       </c>
       <c r="I6" s="3">
         <v>29.2</v>
@@ -3851,7 +4088,7 @@
         <v>69</v>
       </c>
       <c r="AN6" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO6" s="40" t="s">
         <v>167</v>
@@ -3863,7 +4100,7 @@
         <v>71</v>
       </c>
       <c r="AR6" s="40" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS6" s="40"/>
       <c r="AT6" s="40"/>
@@ -3889,7 +4126,7 @@
         <v>234</v>
       </c>
       <c r="BH6" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI6" s="40" t="s">
         <v>95</v>
@@ -3935,7 +4172,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>261</v>
+        <v>614</v>
       </c>
       <c r="I7" s="3">
         <v>29.2</v>
@@ -4022,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="AN7" s="40" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="AO7" s="40" t="s">
         <v>167</v>
@@ -4034,7 +4271,7 @@
         <v>72</v>
       </c>
       <c r="AR7" s="40" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="AS7" s="40"/>
       <c r="AT7" s="40"/>
@@ -4060,7 +4297,7 @@
         <v>234</v>
       </c>
       <c r="BH7" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI7" s="40" t="s">
         <v>95</v>
@@ -4108,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>246</v>
+        <v>615</v>
       </c>
       <c r="I8" s="3">
         <v>29.2</v>
@@ -4195,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="AN8" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO8" s="40" t="s">
         <v>167</v>
@@ -4207,7 +4444,7 @@
         <v>78</v>
       </c>
       <c r="AR8" s="40" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="AS8" s="40"/>
       <c r="AT8" s="40"/>
@@ -4233,7 +4470,7 @@
         <v>234</v>
       </c>
       <c r="BH8" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI8" s="40" t="s">
         <v>96</v>
@@ -4279,7 +4516,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>247</v>
+        <v>616</v>
       </c>
       <c r="I9" s="3">
         <v>29.3</v>
@@ -4366,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="AN9" s="38" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="AO9" s="38" t="s">
         <v>167</v>
@@ -4378,7 +4615,7 @@
         <v>83</v>
       </c>
       <c r="AR9" s="38" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="AS9" s="38"/>
       <c r="AT9" s="38"/>
@@ -4404,7 +4641,7 @@
         <v>234</v>
       </c>
       <c r="BH9" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI9" s="40" t="s">
         <v>95</v>
@@ -4450,7 +4687,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>262</v>
+        <v>617</v>
       </c>
       <c r="I10" s="3">
         <v>29.2</v>
@@ -4537,7 +4774,7 @@
         <v>69</v>
       </c>
       <c r="AN10" s="40" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="AO10" s="40" t="s">
         <v>167</v>
@@ -4549,7 +4786,7 @@
         <v>71</v>
       </c>
       <c r="AR10" s="40" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="AS10" s="40"/>
       <c r="AT10" s="40"/>
@@ -4575,7 +4812,7 @@
         <v>234</v>
       </c>
       <c r="BH10" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI10" s="40" t="s">
         <v>96</v>
@@ -4621,7 +4858,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>248</v>
+        <v>618</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>62</v>
@@ -4708,7 +4945,7 @@
         <v>76</v>
       </c>
       <c r="AN11" s="38" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="AO11" s="38" t="s">
         <v>167</v>
@@ -4746,7 +4983,7 @@
         <v>234</v>
       </c>
       <c r="BH11" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI11" s="40" t="s">
         <v>96</v>
@@ -4792,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>249</v>
+        <v>619</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>62</v>
@@ -4881,7 +5118,7 @@
         <v>84</v>
       </c>
       <c r="AN12" s="38" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO12" s="38" t="s">
         <v>167</v>
@@ -4895,10 +5132,10 @@
         <v>87</v>
       </c>
       <c r="AT12" s="38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AU12" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV12" s="34" t="s">
         <v>86</v>
@@ -4921,7 +5158,7 @@
         <v>234</v>
       </c>
       <c r="BH12" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI12" s="40" t="s">
         <v>95</v>
@@ -4967,7 +5204,7 @@
         <v>129</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="I13" s="3">
         <v>29.2</v>
@@ -5054,7 +5291,7 @@
         <v>81</v>
       </c>
       <c r="AN13" s="38" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="AO13" s="38" t="s">
         <v>167</v>
@@ -5066,7 +5303,7 @@
         <v>83</v>
       </c>
       <c r="AR13" s="38" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="AS13" s="38"/>
       <c r="AT13" s="38"/>
@@ -5092,7 +5329,7 @@
         <v>234</v>
       </c>
       <c r="BH13" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI13" s="38" t="s">
         <v>98</v>
@@ -5114,7 +5351,7 @@
         <v>203</v>
       </c>
       <c r="BP13" s="52" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -5140,7 +5377,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>263</v>
+        <v>621</v>
       </c>
       <c r="I14" s="3">
         <v>29.1</v>
@@ -5227,7 +5464,7 @@
         <v>75</v>
       </c>
       <c r="AN14" s="38" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO14" s="38" t="s">
         <v>167</v>
@@ -5239,7 +5476,7 @@
         <v>72</v>
       </c>
       <c r="AR14" s="38" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS14" s="38"/>
       <c r="AT14" s="38"/>
@@ -5265,7 +5502,7 @@
         <v>234</v>
       </c>
       <c r="BH14" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI14" s="40" t="s">
         <v>96</v>
@@ -5311,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>251</v>
+        <v>622</v>
       </c>
       <c r="I15" s="3">
         <v>29.2</v>
@@ -5400,7 +5637,7 @@
         <v>84</v>
       </c>
       <c r="AN15" s="38" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO15" s="38" t="s">
         <v>167</v>
@@ -5414,10 +5651,10 @@
         <v>87</v>
       </c>
       <c r="AT15" s="38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="AU15" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV15" s="34" t="s">
         <v>86</v>
@@ -5440,7 +5677,7 @@
         <v>234</v>
       </c>
       <c r="BH15" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI15" s="40" t="s">
         <v>96</v>
@@ -5486,7 +5723,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>252</v>
+        <v>623</v>
       </c>
       <c r="I16" s="3">
         <v>29.2</v>
@@ -5573,7 +5810,7 @@
         <v>75</v>
       </c>
       <c r="AN16" s="38" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO16" s="38" t="s">
         <v>167</v>
@@ -5585,7 +5822,7 @@
         <v>72</v>
       </c>
       <c r="AR16" s="38" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS16" s="38"/>
       <c r="AT16" s="38"/>
@@ -5611,7 +5848,7 @@
         <v>234</v>
       </c>
       <c r="BH16" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI16" s="38" t="s">
         <v>98</v>
@@ -5659,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>253</v>
+        <v>624</v>
       </c>
       <c r="I17" s="3">
         <v>29.2</v>
@@ -5745,7 +5982,7 @@
         <v>69</v>
       </c>
       <c r="AN17" s="40" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="AO17" s="40" t="s">
         <v>167</v>
@@ -5757,7 +5994,7 @@
         <v>71</v>
       </c>
       <c r="AR17" s="40" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="AS17" s="40"/>
       <c r="AT17" s="40"/>
@@ -5783,7 +6020,7 @@
         <v>234</v>
       </c>
       <c r="BH17" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI17" s="40" t="s">
         <v>95</v>
@@ -5831,7 +6068,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>254</v>
+        <v>625</v>
       </c>
       <c r="I18" s="2">
         <v>29.2</v>
@@ -5917,7 +6154,7 @@
         <v>75</v>
       </c>
       <c r="AN18" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="22" t="s">
         <v>167</v>
@@ -5929,7 +6166,7 @@
         <v>72</v>
       </c>
       <c r="AR18" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS18" s="22"/>
       <c r="AT18" s="22"/>
@@ -5955,7 +6192,7 @@
         <v>234</v>
       </c>
       <c r="BH18" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI18" s="22" t="s">
         <v>98</v>
@@ -6003,7 +6240,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>255</v>
+        <v>626</v>
       </c>
       <c r="I19" s="2">
         <v>29.1</v>
@@ -6085,7 +6322,7 @@
         <v>69</v>
       </c>
       <c r="AN19" s="15" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="AO19" s="15" t="s">
         <v>166</v>
@@ -6097,7 +6334,7 @@
         <v>71</v>
       </c>
       <c r="AR19" s="15" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15"/>
@@ -6123,7 +6360,7 @@
         <v>234</v>
       </c>
       <c r="BH19" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI19" s="54" t="s">
         <v>117</v>
@@ -6169,7 +6406,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>256</v>
+        <v>627</v>
       </c>
       <c r="I20" s="2">
         <v>29.3</v>
@@ -6255,7 +6492,7 @@
         <v>81</v>
       </c>
       <c r="AN20" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO20" s="22" t="s">
         <v>166</v>
@@ -6267,7 +6504,7 @@
         <v>83</v>
       </c>
       <c r="AR20" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
@@ -6293,7 +6530,7 @@
         <v>234</v>
       </c>
       <c r="BH20" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI20" s="22" t="s">
         <v>98</v>
@@ -6341,7 +6578,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>257</v>
+        <v>628</v>
       </c>
       <c r="I21" s="2">
         <v>29.2</v>
@@ -6428,7 +6665,7 @@
         <v>76</v>
       </c>
       <c r="AN21" s="22" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="AO21" s="22" t="s">
         <v>167</v>
@@ -6466,7 +6703,7 @@
         <v>234</v>
       </c>
       <c r="BH21" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI21" s="22" t="s">
         <v>98</v>
@@ -6514,7 +6751,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>244</v>
+        <v>629</v>
       </c>
       <c r="I22" s="2">
         <v>29.2</v>
@@ -6601,7 +6838,7 @@
         <v>81</v>
       </c>
       <c r="AN22" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO22" s="22" t="s">
         <v>166</v>
@@ -6613,7 +6850,7 @@
         <v>83</v>
       </c>
       <c r="AR22" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS22" s="22"/>
       <c r="AT22" s="22"/>
@@ -6639,7 +6876,7 @@
         <v>234</v>
       </c>
       <c r="BH22" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI22" s="22" t="s">
         <v>98</v>
@@ -6687,7 +6924,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>258</v>
+        <v>630</v>
       </c>
       <c r="I23" s="2">
         <v>29.2</v>
@@ -6774,7 +7011,7 @@
         <v>81</v>
       </c>
       <c r="AN23" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO23" s="22" t="s">
         <v>166</v>
@@ -6786,7 +7023,7 @@
         <v>83</v>
       </c>
       <c r="AR23" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS23" s="22"/>
       <c r="AT23" s="22"/>
@@ -6812,7 +7049,7 @@
         <v>234</v>
       </c>
       <c r="BH23" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI23" s="22" t="s">
         <v>98</v>
@@ -6860,7 +7097,7 @@
         <v>157</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>265</v>
+        <v>631</v>
       </c>
       <c r="I24" s="55">
         <v>29</v>
@@ -6947,7 +7184,7 @@
         <v>75</v>
       </c>
       <c r="AN24" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO24" s="22" t="s">
         <v>167</v>
@@ -6959,7 +7196,7 @@
         <v>72</v>
       </c>
       <c r="AR24" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS24" s="22"/>
       <c r="AT24" s="22"/>
@@ -6985,7 +7222,7 @@
         <v>234</v>
       </c>
       <c r="BH24" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI24" s="15" t="s">
         <v>95</v>
@@ -7005,7 +7242,7 @@
         <v>213</v>
       </c>
       <c r="BP24" s="50" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7031,7 +7268,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>266</v>
+        <v>632</v>
       </c>
       <c r="I25" s="2">
         <v>29.2</v>
@@ -7119,7 +7356,7 @@
         <v>84</v>
       </c>
       <c r="AN25" s="22" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="AO25" s="22" t="s">
         <v>166</v>
@@ -7153,7 +7390,7 @@
         <v>234</v>
       </c>
       <c r="BH25" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI25" s="54" t="s">
         <v>117</v>
@@ -7201,7 +7438,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>267</v>
+        <v>633</v>
       </c>
       <c r="I26" s="2">
         <v>29.2</v>
@@ -7289,7 +7526,7 @@
         <v>81</v>
       </c>
       <c r="AN26" s="22" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="AO26" s="22" t="s">
         <v>166</v>
@@ -7301,7 +7538,7 @@
         <v>83</v>
       </c>
       <c r="AR26" s="22" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AS26" s="22"/>
       <c r="AT26" s="22"/>
@@ -7327,7 +7564,7 @@
         <v>234</v>
       </c>
       <c r="BH26" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI26" s="22" t="s">
         <v>98</v>
@@ -7375,7 +7612,7 @@
         <v>129</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>243</v>
+        <v>634</v>
       </c>
       <c r="I27" s="2">
         <v>29.2</v>
@@ -7461,7 +7698,7 @@
         <v>75</v>
       </c>
       <c r="AN27" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="AO27" s="22" t="s">
         <v>167</v>
@@ -7473,7 +7710,7 @@
         <v>72</v>
       </c>
       <c r="AR27" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="AS27" s="22"/>
       <c r="AT27" s="22"/>
@@ -7499,7 +7736,7 @@
         <v>234</v>
       </c>
       <c r="BH27" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI27" s="15" t="s">
         <v>95</v>
@@ -7519,7 +7756,7 @@
         <v>212</v>
       </c>
       <c r="BP27" s="50" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -7545,7 +7782,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>268</v>
+        <v>635</v>
       </c>
       <c r="I28" s="2">
         <v>29.2</v>
@@ -7632,7 +7869,7 @@
         <v>69</v>
       </c>
       <c r="AN28" s="22" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO28" s="22" t="s">
         <v>166</v>
@@ -7644,7 +7881,7 @@
         <v>71</v>
       </c>
       <c r="AR28" s="22" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS28" s="15"/>
       <c r="AT28" s="15"/>
@@ -7718,7 +7955,7 @@
         <v>215</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>264</v>
+        <v>636</v>
       </c>
       <c r="I29" s="2">
         <v>29.2</v>
@@ -7758,7 +7995,7 @@
         <v>949</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="W29" s="18" t="s">
         <v>36</v>
@@ -7815,7 +8052,7 @@
       <c r="AW29" s="16"/>
       <c r="AX29" s="15"/>
       <c r="AY29" s="22" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ29" s="22" t="s">
         <v>167</v>
@@ -7876,7 +8113,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>271</v>
+        <v>637</v>
       </c>
       <c r="I30" s="2">
         <v>29.1</v>
@@ -7963,7 +8200,7 @@
         <v>76</v>
       </c>
       <c r="AN30" s="22" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="AO30" s="22" t="s">
         <v>166</v>
@@ -7975,7 +8212,7 @@
         <v>78</v>
       </c>
       <c r="AR30" s="22" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="AS30" s="22"/>
       <c r="AT30" s="22"/>
@@ -8001,7 +8238,7 @@
         <v>234</v>
       </c>
       <c r="BH30" s="17" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI30" s="15" t="s">
         <v>95</v>
@@ -8049,7 +8286,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>269</v>
+        <v>638</v>
       </c>
       <c r="I31" s="2">
         <v>29.2</v>
@@ -8123,7 +8360,7 @@
         <v>20190906</v>
       </c>
       <c r="AJ31" s="18" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="AK31" s="18" t="s">
         <v>218</v>
@@ -8135,7 +8372,7 @@
         <v>69</v>
       </c>
       <c r="AN31" s="22" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO31" s="22" t="s">
         <v>216</v>
@@ -8147,7 +8384,7 @@
         <v>71</v>
       </c>
       <c r="AR31" s="22" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS31" s="15"/>
       <c r="AT31" s="15"/>
@@ -8173,7 +8410,7 @@
         <v>234</v>
       </c>
       <c r="BH31" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI31" s="22" t="s">
         <v>117</v>
@@ -8221,7 +8458,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>270</v>
+        <v>639</v>
       </c>
       <c r="I32" s="2">
         <v>29</v>
@@ -8310,7 +8547,7 @@
         <v>84</v>
       </c>
       <c r="AN32" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO32" s="22" t="s">
         <v>166</v>
@@ -8324,10 +8561,10 @@
         <v>87</v>
       </c>
       <c r="AT32" s="22" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU32" s="22" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV32" s="20" t="s">
         <v>86</v>
@@ -8350,7 +8587,7 @@
         <v>233</v>
       </c>
       <c r="BH32" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI32" s="15" t="s">
         <v>95</v>
@@ -8377,7 +8614,7 @@
     </row>
     <row r="33" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="47" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
@@ -8450,7 +8687,7 @@
     </row>
     <row r="34" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="47" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
@@ -8526,10 +8763,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>13</v>
@@ -8544,7 +8781,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>284</v>
+        <v>640</v>
       </c>
       <c r="I35" s="3">
         <v>29.1</v>
@@ -8572,7 +8809,7 @@
         <v>-61.84</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="S35" s="3">
         <v>18</v>
@@ -8588,10 +8825,10 @@
         <v>1186</v>
       </c>
       <c r="W35" s="37" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="X35" s="37" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="Y35" s="37" t="s">
         <v>186</v>
@@ -8604,7 +8841,7 @@
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
       <c r="AE35" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AF35" s="3">
         <v>7</v>
@@ -8631,7 +8868,7 @@
         <v>69</v>
       </c>
       <c r="AN35" s="38" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="AO35" s="38" t="s">
         <v>166</v>
@@ -8643,7 +8880,7 @@
         <v>71</v>
       </c>
       <c r="AR35" s="38" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="AS35" s="40"/>
       <c r="AT35" s="40"/>
@@ -8669,7 +8906,7 @@
         <v>234</v>
       </c>
       <c r="BH35" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI35" s="38" t="s">
         <v>98</v>
@@ -8688,10 +8925,10 @@
         <v>209</v>
       </c>
       <c r="BO35" s="37" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="BP35" s="43" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8699,10 +8936,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>35</v>
@@ -8717,7 +8954,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>292</v>
+        <v>641</v>
       </c>
       <c r="I36" s="3">
         <v>29.3</v>
@@ -8745,7 +8982,7 @@
         <v>-61.43</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="S36" s="3">
         <v>21</v>
@@ -8776,7 +9013,7 @@
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="3" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AF36" s="3">
         <v>5</v>
@@ -8791,10 +9028,10 @@
         <v>20190509</v>
       </c>
       <c r="AJ36" s="37" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AK36" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL36" s="35">
         <v>32</v>
@@ -8803,7 +9040,7 @@
         <v>76</v>
       </c>
       <c r="AN36" s="38" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="AO36" s="38" t="s">
         <v>216</v>
@@ -8815,7 +9052,7 @@
         <v>78</v>
       </c>
       <c r="AR36" s="38" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="AS36" s="38"/>
       <c r="AT36" s="38"/>
@@ -8841,7 +9078,7 @@
         <v>234</v>
       </c>
       <c r="BH36" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BI36" s="38" t="s">
         <v>98</v>
@@ -8853,7 +9090,7 @@
         <v>137</v>
       </c>
       <c r="BL36" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="BM36" s="35" t="s">
         <v>210</v>
@@ -8865,7 +9102,7 @@
         <v>201</v>
       </c>
       <c r="BP36" s="43" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -8873,10 +9110,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>53</v>
@@ -8891,7 +9128,7 @@
         <v>215</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>290</v>
+        <v>642</v>
       </c>
       <c r="I37" s="3">
         <v>29.2</v>
@@ -8919,7 +9156,7 @@
         <v>-62.81</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="S37" s="3">
         <v>21</v>
@@ -8931,7 +9168,7 @@
         <v>1035</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="W37" s="37" t="s">
         <v>36</v>
@@ -8952,7 +9189,7 @@
       <c r="AC37" s="37"/>
       <c r="AD37" s="37"/>
       <c r="AE37" s="3" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AF37" s="3">
         <v>3</v>
@@ -8967,10 +9204,10 @@
         <v>20190906</v>
       </c>
       <c r="AJ37" s="37" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AK37" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL37" s="35">
         <v>58</v>
@@ -8988,7 +9225,7 @@
       <c r="AW37" s="39"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="40" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ37" s="40" t="s">
         <v>167</v>
@@ -9003,22 +9240,22 @@
         <v>234</v>
       </c>
       <c r="BH37" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI37" s="46" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ37" s="38" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK37" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL37" s="3" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="BM37" s="35" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN37" s="35" t="s">
         <v>209</v>
@@ -9027,7 +9264,7 @@
         <v>201</v>
       </c>
       <c r="BP37" s="43" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9035,10 +9272,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>44</v>
@@ -9053,7 +9290,7 @@
         <v>129</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>305</v>
+        <v>643</v>
       </c>
       <c r="I38" s="3">
         <v>28.5</v>
@@ -9081,7 +9318,7 @@
         <v>-50.08</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="S38" s="3">
         <v>25</v>
@@ -9115,7 +9352,7 @@
       <c r="AC38" s="37"/>
       <c r="AD38" s="37"/>
       <c r="AE38" s="3" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AF38" s="3">
         <v>4</v>
@@ -9142,7 +9379,7 @@
         <v>84</v>
       </c>
       <c r="AN38" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO38" s="38" t="s">
         <v>166</v>
@@ -9156,10 +9393,10 @@
         <v>87</v>
       </c>
       <c r="AT38" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU38" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV38" s="34" t="s">
         <v>86</v>
@@ -9182,13 +9419,13 @@
         <v>233</v>
       </c>
       <c r="BH38" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI38" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ38" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK38" s="38"/>
       <c r="BL38" s="3"/>
@@ -9199,10 +9436,10 @@
         <v>209</v>
       </c>
       <c r="BO38" s="37" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="BP38" s="43" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9210,10 +9447,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>44</v>
@@ -9228,7 +9465,7 @@
         <v>129</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>313</v>
+        <v>644</v>
       </c>
       <c r="I39" s="3">
         <v>29.1</v>
@@ -9256,7 +9493,7 @@
         <v>-49.29</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="S39" s="3">
         <v>26</v>
@@ -9290,7 +9527,7 @@
       <c r="AC39" s="37"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="3" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="AF39" s="3">
         <v>8</v>
@@ -9317,7 +9554,7 @@
         <v>84</v>
       </c>
       <c r="AN39" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO39" s="38" t="s">
         <v>166</v>
@@ -9331,10 +9568,10 @@
         <v>87</v>
       </c>
       <c r="AT39" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU39" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV39" s="34" t="s">
         <v>86</v>
@@ -9357,13 +9594,13 @@
         <v>233</v>
       </c>
       <c r="BH39" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI39" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ39" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK39" s="38"/>
       <c r="BL39" s="3"/>
@@ -9377,7 +9614,7 @@
         <v>212</v>
       </c>
       <c r="BP39" s="43" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9385,10 +9622,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>44</v>
@@ -9403,7 +9640,7 @@
         <v>129</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="I40" s="3">
         <v>29.1</v>
@@ -9431,7 +9668,7 @@
         <v>-49.75</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="S40" s="3">
         <v>21</v>
@@ -9465,7 +9702,7 @@
       <c r="AC40" s="37"/>
       <c r="AD40" s="37"/>
       <c r="AE40" s="3" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AF40" s="3">
         <v>7</v>
@@ -9492,7 +9729,7 @@
         <v>84</v>
       </c>
       <c r="AN40" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO40" s="38" t="s">
         <v>166</v>
@@ -9506,10 +9743,10 @@
         <v>87</v>
       </c>
       <c r="AT40" s="38" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AU40" s="38" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AV40" s="34" t="s">
         <v>86</v>
@@ -9532,13 +9769,13 @@
         <v>233</v>
       </c>
       <c r="BH40" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ40" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK40" s="38"/>
       <c r="BL40" s="3"/>
@@ -9552,7 +9789,7 @@
         <v>212</v>
       </c>
       <c r="BP40" s="43" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9560,10 +9797,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>13</v>
@@ -9578,7 +9815,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>324</v>
+        <v>646</v>
       </c>
       <c r="I41" s="3">
         <v>29.1</v>
@@ -9606,7 +9843,7 @@
         <v>-61.69</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="S41" s="3">
         <v>18</v>
@@ -9635,7 +9872,7 @@
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
       <c r="AC41" s="37" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="AD41" s="37"/>
       <c r="AE41" s="3">
@@ -9654,10 +9891,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ41" s="37" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="AK41" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL41" s="35">
         <v>33</v>
@@ -9666,7 +9903,7 @@
         <v>75</v>
       </c>
       <c r="AN41" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO41" s="38" t="s">
         <v>216</v>
@@ -9678,7 +9915,7 @@
         <v>72</v>
       </c>
       <c r="AR41" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS41" s="40"/>
       <c r="AT41" s="40"/>
@@ -9695,10 +9932,10 @@
       <c r="AY41" s="40"/>
       <c r="AZ41" s="40"/>
       <c r="BA41" s="40" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB41" s="40" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC41" s="40" t="s">
         <v>166</v>
@@ -9710,19 +9947,19 @@
         <v>234</v>
       </c>
       <c r="BH41" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI41" s="46" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ41" s="38" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK41" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL41" s="3" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="BM41" s="35" t="s">
         <v>210</v>
@@ -9734,7 +9971,7 @@
         <v>201</v>
       </c>
       <c r="BP41" s="43" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -9742,10 +9979,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>53</v>
@@ -9760,7 +9997,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="I42" s="3">
         <v>29.2</v>
@@ -9788,13 +10025,13 @@
         <v>-61.64</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="S42" s="3">
         <v>20</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="U42" s="3">
         <v>1080</v>
@@ -9825,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="AG42" s="3" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="AH42" s="3">
         <v>1023.5</v>
@@ -9834,10 +10071,10 @@
         <v>20200914</v>
       </c>
       <c r="AJ42" s="37" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AK42" s="37" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AL42" s="62">
         <v>30</v>
@@ -9846,7 +10083,7 @@
         <v>75</v>
       </c>
       <c r="AN42" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO42" s="38" t="s">
         <v>216</v>
@@ -9858,7 +10095,7 @@
         <v>72</v>
       </c>
       <c r="AR42" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS42" s="38"/>
       <c r="AT42" s="38"/>
@@ -9884,13 +10121,13 @@
         <v>234</v>
       </c>
       <c r="BH42" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI42" s="58" t="s">
         <v>117</v>
       </c>
       <c r="BJ42" s="58" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="BK42" s="92" t="s">
         <v>138</v>
@@ -9906,7 +10143,7 @@
         <v>201</v>
       </c>
       <c r="BP42" s="43" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9914,10 +10151,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>24</v>
@@ -9932,7 +10169,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>404</v>
+        <v>648</v>
       </c>
       <c r="I43" s="3">
         <v>29.1</v>
@@ -9960,7 +10197,7 @@
         <v>-61.53</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="S43" s="3">
         <v>23</v>
@@ -10006,10 +10243,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ43" s="37" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AK43" s="37" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL43" s="35">
         <v>29</v>
@@ -10018,7 +10255,7 @@
         <v>75</v>
       </c>
       <c r="AN43" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO43" s="38" t="s">
         <v>216</v>
@@ -10030,7 +10267,7 @@
         <v>72</v>
       </c>
       <c r="AR43" s="38" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS43" s="38"/>
       <c r="AT43" s="38"/>
@@ -10056,13 +10293,13 @@
         <v>233</v>
       </c>
       <c r="BH43" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI43" s="40" t="s">
         <v>96</v>
       </c>
       <c r="BJ43" s="40" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK43" s="38"/>
       <c r="BL43" s="3"/>
@@ -10073,10 +10310,10 @@
         <v>209</v>
       </c>
       <c r="BO43" s="37" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP43" s="43" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:68" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10084,10 +10321,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>44</v>
@@ -10102,7 +10339,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>392</v>
+        <v>649</v>
       </c>
       <c r="I44" s="3">
         <v>29.1</v>
@@ -10130,7 +10367,7 @@
         <v>-61.52</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="S44" s="3">
         <v>21</v>
@@ -10163,7 +10400,7 @@
       <c r="AC44" s="37"/>
       <c r="AD44" s="37"/>
       <c r="AE44" s="3" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="AF44" s="3">
         <v>1</v>
@@ -10178,10 +10415,10 @@
         <v>20210302</v>
       </c>
       <c r="AJ44" s="37" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AK44" s="37" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL44" s="62">
         <v>42</v>
@@ -10190,7 +10427,7 @@
         <v>84</v>
       </c>
       <c r="AN44" s="38" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO44" s="38" t="s">
         <v>166</v>
@@ -10204,7 +10441,7 @@
         <v>87</v>
       </c>
       <c r="AT44" s="38" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU44" s="38" t="s">
         <v>166</v>
@@ -10230,13 +10467,13 @@
         <v>233</v>
       </c>
       <c r="BH44" s="42" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI44" s="40" t="s">
         <v>95</v>
       </c>
       <c r="BJ44" s="38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK44" s="38"/>
       <c r="BL44" s="3"/>
@@ -10247,10 +10484,10 @@
         <v>209</v>
       </c>
       <c r="BO44" s="37" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="BP44" s="43" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10258,10 +10495,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>24</v>
@@ -10276,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>405</v>
+        <v>650</v>
       </c>
       <c r="I45" s="2">
         <v>29.1</v>
@@ -10304,7 +10541,7 @@
         <v>-61.49</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="S45" s="2">
         <v>22</v>
@@ -10350,10 +10587,10 @@
         <v>20210112</v>
       </c>
       <c r="AJ45" s="18" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="AK45" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL45" s="14">
         <v>29</v>
@@ -10362,7 +10599,7 @@
         <v>75</v>
       </c>
       <c r="AN45" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO45" s="22" t="s">
         <v>216</v>
@@ -10374,7 +10611,7 @@
         <v>72</v>
       </c>
       <c r="AR45" s="22" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS45" s="79"/>
       <c r="AT45" s="79"/>
@@ -10400,13 +10637,13 @@
         <v>233</v>
       </c>
       <c r="BH45" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI45" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ45" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK45" s="92" t="s">
         <v>138</v>
@@ -10422,7 +10659,7 @@
         <v>201</v>
       </c>
       <c r="BP45" s="21" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10430,10 +10667,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -10448,7 +10685,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>420</v>
+        <v>651</v>
       </c>
       <c r="I46" s="2">
         <v>29.1</v>
@@ -10476,7 +10713,7 @@
         <v>-62.67</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="S46" s="2">
         <v>4</v>
@@ -10523,10 +10760,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ46" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK46" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL46" s="14">
         <v>33</v>
@@ -10535,7 +10772,7 @@
         <v>69</v>
       </c>
       <c r="AN46" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO46" s="22" t="s">
         <v>216</v>
@@ -10547,7 +10784,7 @@
         <v>71</v>
       </c>
       <c r="AR46" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS46" s="22"/>
       <c r="AT46" s="22"/>
@@ -10576,10 +10813,10 @@
         <v>172</v>
       </c>
       <c r="BI46" s="54" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ46" s="22" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="BK46" s="92" t="s">
         <v>137</v>
@@ -10592,10 +10829,10 @@
         <v>209</v>
       </c>
       <c r="BO46" s="18" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="BP46" s="21" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10603,10 +10840,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>44</v>
@@ -10621,7 +10858,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>428</v>
+        <v>652</v>
       </c>
       <c r="I47" s="2">
         <v>29</v>
@@ -10649,7 +10886,7 @@
         <v>-61.41</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S47" s="2">
         <v>21</v>
@@ -10695,10 +10932,10 @@
         <v>20210420</v>
       </c>
       <c r="AJ47" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK47" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL47" s="14">
         <v>32</v>
@@ -10707,7 +10944,7 @@
         <v>76</v>
       </c>
       <c r="AN47" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO47" s="22" t="s">
         <v>216</v>
@@ -10745,13 +10982,13 @@
         <v>233</v>
       </c>
       <c r="BH47" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI47" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ47" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK47" s="92" t="s">
         <v>138</v>
@@ -10767,7 +11004,7 @@
         <v>201</v>
       </c>
       <c r="BP47" s="21" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10775,10 +11012,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>53</v>
@@ -10793,7 +11030,7 @@
         <v>215</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>429</v>
+        <v>653</v>
       </c>
       <c r="I48" s="2">
         <v>29.2</v>
@@ -10821,7 +11058,7 @@
         <v>-62.85</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="S48" s="2">
         <v>14</v>
@@ -10833,13 +11070,13 @@
         <v>486</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W48" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X48" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y48" s="18"/>
       <c r="Z48" s="18" t="s">
@@ -10869,10 +11106,10 @@
         <v>20210527</v>
       </c>
       <c r="AJ48" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK48" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL48" s="14">
         <v>58</v>
@@ -10896,16 +11133,16 @@
         <v>166</v>
       </c>
       <c r="AY48" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ48" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA48" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB48" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC48" s="15" t="s">
         <v>166</v>
@@ -10917,20 +11154,20 @@
         <v>234</v>
       </c>
       <c r="BH48" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI48" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ48" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK48" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL48" s="2"/>
       <c r="BM48" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN48" s="14" t="s">
         <v>209</v>
@@ -10939,7 +11176,7 @@
         <v>201</v>
       </c>
       <c r="BP48" s="21" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -10947,10 +11184,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>35</v>
@@ -10965,7 +11202,7 @@
         <v>129</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>430</v>
+        <v>654</v>
       </c>
       <c r="I49" s="2">
         <v>28.9</v>
@@ -10993,7 +11230,7 @@
         <v>-52.69</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="S49" s="2">
         <v>9</v>
@@ -11026,7 +11263,7 @@
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
       <c r="AD49" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE49" s="2">
         <v>0</v>
@@ -11044,10 +11281,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ49" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK49" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL49" s="14">
         <v>42</v>
@@ -11056,7 +11293,7 @@
         <v>84</v>
       </c>
       <c r="AN49" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO49" s="22" t="s">
         <v>166</v>
@@ -11070,7 +11307,7 @@
         <v>87</v>
       </c>
       <c r="AT49" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU49" s="22" t="s">
         <v>166</v>
@@ -11090,10 +11327,10 @@
       <c r="BB49" s="79"/>
       <c r="BC49" s="79"/>
       <c r="BD49" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE49" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF49" s="15" t="s">
         <v>166</v>
@@ -11108,7 +11345,7 @@
         <v>98</v>
       </c>
       <c r="BJ49" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK49" s="22"/>
       <c r="BL49" s="2"/>
@@ -11119,10 +11356,10 @@
         <v>209</v>
       </c>
       <c r="BO49" s="18" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="BP49" s="21" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11130,10 +11367,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>44</v>
@@ -11148,7 +11385,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>442</v>
+        <v>655</v>
       </c>
       <c r="I50" s="2">
         <v>29.1</v>
@@ -11176,7 +11413,7 @@
         <v>-61.4</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S50" s="2">
         <v>22</v>
@@ -11216,16 +11453,16 @@
         <v>2</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="AI50" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ50" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK50" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL50" s="14">
         <v>32</v>
@@ -11234,7 +11471,7 @@
         <v>76</v>
       </c>
       <c r="AN50" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO50" s="22" t="s">
         <v>216</v>
@@ -11272,13 +11509,13 @@
         <v>233</v>
       </c>
       <c r="BH50" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI50" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ50" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK50" s="92" t="s">
         <v>138</v>
@@ -11291,10 +11528,10 @@
         <v>209</v>
       </c>
       <c r="BO50" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP50" s="21" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11302,10 +11539,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>53</v>
@@ -11320,7 +11557,7 @@
         <v>215</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>443</v>
+        <v>656</v>
       </c>
       <c r="I51" s="2">
         <v>29.2</v>
@@ -11348,7 +11585,7 @@
         <v>-62.68</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="S51" s="2">
         <v>22</v>
@@ -11360,13 +11597,13 @@
         <v>808</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W51" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X51" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y51" s="18"/>
       <c r="Z51" s="18" t="s">
@@ -11390,16 +11627,16 @@
         <v>2</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="AI51" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ51" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK51" s="18" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="AL51" s="14">
         <v>58</v>
@@ -11423,16 +11660,16 @@
         <v>166</v>
       </c>
       <c r="AY51" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ51" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA51" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB51" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC51" s="15" t="s">
         <v>166</v>
@@ -11444,29 +11681,29 @@
         <v>234</v>
       </c>
       <c r="BH51" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI51" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ51" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK51" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL51" s="2"/>
       <c r="BM51" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN51" s="14" t="s">
         <v>209</v>
       </c>
       <c r="BO51" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP51" s="21" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11474,10 +11711,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>35</v>
@@ -11492,7 +11729,7 @@
         <v>129</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>448</v>
+        <v>657</v>
       </c>
       <c r="I52" s="2">
         <v>28.8</v>
@@ -11520,7 +11757,7 @@
         <v>-50.2</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="S52" s="2">
         <v>20</v>
@@ -11553,7 +11790,7 @@
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE52" s="2">
         <v>0</v>
@@ -11571,10 +11808,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ52" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK52" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL52" s="14">
         <v>42</v>
@@ -11583,7 +11820,7 @@
         <v>84</v>
       </c>
       <c r="AN52" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO52" s="22" t="s">
         <v>166</v>
@@ -11597,7 +11834,7 @@
         <v>87</v>
       </c>
       <c r="AT52" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU52" s="22" t="s">
         <v>166</v>
@@ -11617,10 +11854,10 @@
       <c r="BB52" s="15"/>
       <c r="BC52" s="15"/>
       <c r="BD52" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE52" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF52" s="15" t="s">
         <v>166</v>
@@ -11635,7 +11872,7 @@
         <v>98</v>
       </c>
       <c r="BJ52" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK52" s="22"/>
       <c r="BL52" s="2"/>
@@ -11649,7 +11886,7 @@
         <v>212</v>
       </c>
       <c r="BP52" s="21" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11657,10 +11894,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>35</v>
@@ -11675,7 +11912,7 @@
         <v>129</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
       <c r="I53" s="2">
         <v>28.9</v>
@@ -11703,7 +11940,7 @@
         <v>-49.41</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="S53" s="2">
         <v>27</v>
@@ -11721,7 +11958,7 @@
         <v>37</v>
       </c>
       <c r="X53" s="18" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="Y53" s="18" t="s">
         <v>186</v>
@@ -11735,7 +11972,7 @@
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
       <c r="AD53" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE53" s="2">
         <v>1</v>
@@ -11753,10 +11990,10 @@
         <v>20210421</v>
       </c>
       <c r="AJ53" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK53" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL53" s="14">
         <v>42</v>
@@ -11765,7 +12002,7 @@
         <v>84</v>
       </c>
       <c r="AN53" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO53" s="22" t="s">
         <v>166</v>
@@ -11779,7 +12016,7 @@
         <v>87</v>
       </c>
       <c r="AT53" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU53" s="22" t="s">
         <v>166</v>
@@ -11799,10 +12036,10 @@
       <c r="BB53" s="15"/>
       <c r="BC53" s="15"/>
       <c r="BD53" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE53" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF53" s="15" t="s">
         <v>166</v>
@@ -11817,7 +12054,7 @@
         <v>98</v>
       </c>
       <c r="BJ53" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK53" s="22"/>
       <c r="BL53" s="2"/>
@@ -11831,7 +12068,7 @@
         <v>212</v>
       </c>
       <c r="BP53" s="21" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -11839,10 +12076,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>44</v>
@@ -11857,7 +12094,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>473</v>
+        <v>659</v>
       </c>
       <c r="I54" s="2">
         <v>29.1</v>
@@ -11885,7 +12122,7 @@
         <v>-61.53</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="S54" s="2">
         <v>21</v>
@@ -11925,16 +12162,16 @@
         <v>3</v>
       </c>
       <c r="AH54" s="2" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AI54" s="18">
         <v>20210420</v>
       </c>
       <c r="AJ54" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK54" s="18" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="AL54" s="14">
         <v>32</v>
@@ -11943,7 +12180,7 @@
         <v>76</v>
       </c>
       <c r="AN54" s="22" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO54" s="22" t="s">
         <v>216</v>
@@ -11981,19 +12218,19 @@
         <v>233</v>
       </c>
       <c r="BH54" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI54" s="15" t="s">
         <v>95</v>
       </c>
       <c r="BJ54" s="22" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK54" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL54" s="2" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="BM54" s="14" t="s">
         <v>210</v>
@@ -12005,7 +12242,7 @@
         <v>201</v>
       </c>
       <c r="BP54" s="21" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12013,10 +12250,10 @@
         <v>11</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>53</v>
@@ -12031,7 +12268,7 @@
         <v>215</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>476</v>
+        <v>660</v>
       </c>
       <c r="I55" s="2">
         <v>29.2</v>
@@ -12059,7 +12296,7 @@
         <v>-62.65</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="S55" s="2">
         <v>21</v>
@@ -12071,13 +12308,13 @@
         <v>700</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="W55" s="18" t="s">
         <v>36</v>
       </c>
       <c r="X55" s="18" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="Y55" s="18"/>
       <c r="Z55" s="18" t="s">
@@ -12101,16 +12338,16 @@
         <v>2</v>
       </c>
       <c r="AH55" s="2" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AI55" s="18">
         <v>20210527</v>
       </c>
       <c r="AJ55" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK55" s="18" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="AL55" s="14">
         <v>58</v>
@@ -12134,16 +12371,16 @@
         <v>166</v>
       </c>
       <c r="AY55" s="15" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AZ55" s="15" t="s">
         <v>167</v>
       </c>
       <c r="BA55" s="15" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="BB55" s="15" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="BC55" s="15" t="s">
         <v>166</v>
@@ -12155,22 +12392,22 @@
         <v>234</v>
       </c>
       <c r="BH55" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="BI55" s="15" t="s">
         <v>96</v>
       </c>
       <c r="BJ55" s="15" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK55" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL55" s="2" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="BM55" s="14" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BN55" s="14" t="s">
         <v>209</v>
@@ -12179,7 +12416,7 @@
         <v>201</v>
       </c>
       <c r="BP55" s="21" t="s">
-        <v>477</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12187,10 +12424,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>35</v>
@@ -12205,7 +12442,7 @@
         <v>129</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>471</v>
+        <v>661</v>
       </c>
       <c r="I56" s="2">
         <v>28.9</v>
@@ -12233,7 +12470,7 @@
         <v>-50.21</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="S56" s="2">
         <v>28</v>
@@ -12266,7 +12503,7 @@
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
       <c r="AD56" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE56" s="2">
         <v>0</v>
@@ -12278,16 +12515,16 @@
         <v>0</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="AI56" s="18">
         <v>20210421</v>
       </c>
       <c r="AJ56" s="18" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="AK56" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL56" s="14">
         <v>42</v>
@@ -12296,7 +12533,7 @@
         <v>75</v>
       </c>
       <c r="AN56" s="22" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="AO56" s="22" t="s">
         <v>166</v>
@@ -12308,13 +12545,13 @@
         <v>72</v>
       </c>
       <c r="AR56" s="22" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AS56" s="22" t="s">
         <v>87</v>
       </c>
       <c r="AT56" s="22" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AU56" s="22" t="s">
         <v>166</v>
@@ -12334,10 +12571,10 @@
       <c r="BB56" s="22"/>
       <c r="BC56" s="22"/>
       <c r="BD56" s="15" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE56" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF56" s="15" t="s">
         <v>166</v>
@@ -12352,7 +12589,7 @@
         <v>98</v>
       </c>
       <c r="BJ56" s="15" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK56" s="22"/>
       <c r="BL56" s="2"/>
@@ -12363,10 +12600,10 @@
         <v>209</v>
       </c>
       <c r="BO56" s="18" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="BP56" s="21" t="s">
-        <v>484</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12374,10 +12611,10 @@
         <v>13</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>13</v>
@@ -12392,7 +12629,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>474</v>
+        <v>662</v>
       </c>
       <c r="I57" s="2">
         <v>29.1</v>
@@ -12420,7 +12657,7 @@
         <v>-63.05</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="S57" s="2">
         <v>5</v>
@@ -12467,10 +12704,10 @@
         <v>20210922</v>
       </c>
       <c r="AJ57" s="18" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AK57" s="18" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="AL57" s="14">
         <v>33</v>
@@ -12479,7 +12716,7 @@
         <v>69</v>
       </c>
       <c r="AN57" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO57" s="22" t="s">
         <v>216</v>
@@ -12491,7 +12728,7 @@
         <v>71</v>
       </c>
       <c r="AR57" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS57" s="22"/>
       <c r="AT57" s="22"/>
@@ -12523,7 +12760,7 @@
         <v>117</v>
       </c>
       <c r="BJ57" s="22" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="BK57" s="92" t="s">
         <v>138</v>
@@ -12539,7 +12776,7 @@
         <v>201</v>
       </c>
       <c r="BP57" s="21" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12547,10 +12784,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>13</v>
@@ -12565,7 +12802,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="I58" s="2">
         <v>29.1</v>
@@ -12593,7 +12830,7 @@
         <v>-62.45</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="S58" s="2">
         <v>13</v>
@@ -12639,10 +12876,10 @@
         <v>20220117</v>
       </c>
       <c r="AJ58" s="18" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="AK58" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL58" s="14">
         <v>29</v>
@@ -12651,7 +12888,7 @@
         <v>69</v>
       </c>
       <c r="AN58" s="22" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="AO58" s="22" t="s">
         <v>216</v>
@@ -12663,7 +12900,7 @@
         <v>71</v>
       </c>
       <c r="AR58" s="22" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="AS58" s="22"/>
       <c r="AT58" s="22"/>
@@ -12695,9 +12932,9 @@
         <v>95</v>
       </c>
       <c r="BJ58" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK58" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK58" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL58" s="2"/>
@@ -12708,10 +12945,10 @@
         <v>209</v>
       </c>
       <c r="BO58" s="18" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="BP58" s="21" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -12722,7 +12959,7 @@
         <v>20220303</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>35</v>
@@ -12737,7 +12974,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>495</v>
+        <v>663</v>
       </c>
       <c r="I59" s="2">
         <v>29.1</v>
@@ -12765,7 +13002,7 @@
         <v>-61.72</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="S59" s="2">
         <v>21</v>
@@ -12797,7 +13034,7 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
       <c r="AD59" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE59" s="2">
         <v>2</v>
@@ -12815,10 +13052,10 @@
         <v>20220224</v>
       </c>
       <c r="AJ59" s="18" t="s">
-        <v>500</v>
+        <v>445</v>
       </c>
       <c r="AK59" s="18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="AL59" s="14">
         <v>42</v>
@@ -12827,7 +13064,7 @@
         <v>84</v>
       </c>
       <c r="AN59" s="22" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO59" s="22" t="s">
         <v>166</v>
@@ -12841,7 +13078,7 @@
         <v>87</v>
       </c>
       <c r="AT59" s="22" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU59" s="22" t="s">
         <v>166</v>
@@ -12861,10 +13098,10 @@
       <c r="BB59" s="22"/>
       <c r="BC59" s="22"/>
       <c r="BD59" s="22" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE59" s="15" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF59" s="22" t="s">
         <v>166</v>
@@ -12879,13 +13116,13 @@
         <v>95</v>
       </c>
       <c r="BJ59" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK59" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK59" s="92" t="s">
         <v>137</v>
       </c>
       <c r="BL59" s="2" t="s">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="BM59" s="14" t="s">
         <v>210</v>
@@ -12897,7 +13134,7 @@
         <v>206</v>
       </c>
       <c r="BP59" s="21" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -12908,7 +13145,7 @@
         <v>20220406</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>44</v>
@@ -12923,7 +13160,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>502</v>
+        <v>664</v>
       </c>
       <c r="I60" s="3">
         <v>29.1</v>
@@ -12951,7 +13188,7 @@
         <v>-61.44</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="S60" s="3">
         <v>23</v>
@@ -12997,10 +13234,10 @@
         <v>20220331</v>
       </c>
       <c r="AJ60" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK60" s="37" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="AL60" s="62">
         <v>30</v>
@@ -13009,7 +13246,7 @@
         <v>76</v>
       </c>
       <c r="AN60" s="38" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO60" s="38" t="s">
         <v>216</v>
@@ -13053,9 +13290,9 @@
         <v>95</v>
       </c>
       <c r="BJ60" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK60" s="117">
+        <v>290</v>
+      </c>
+      <c r="BK60" s="141">
         <v>200206</v>
       </c>
       <c r="BL60" s="3"/>
@@ -13069,7 +13306,7 @@
         <v>201</v>
       </c>
       <c r="BP60" s="43" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13080,7 +13317,7 @@
         <v>20220908</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>44</v>
@@ -13095,7 +13332,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>512</v>
+        <v>665</v>
       </c>
       <c r="I61" s="3">
         <v>29</v>
@@ -13123,7 +13360,7 @@
         <v>-61.43</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="S61" s="3">
         <v>21</v>
@@ -13169,10 +13406,10 @@
         <v>20220902</v>
       </c>
       <c r="AJ61" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK61" s="37" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="AL61" s="35">
         <v>30</v>
@@ -13181,7 +13418,7 @@
         <v>76</v>
       </c>
       <c r="AN61" s="38" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="AO61" s="38" t="s">
         <v>216</v>
@@ -13225,23 +13462,23 @@
         <v>95</v>
       </c>
       <c r="BJ61" s="38" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK61" s="96" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="BL61" s="96"/>
       <c r="BM61" s="35" t="s">
         <v>210</v>
       </c>
       <c r="BN61" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO61" s="37" t="s">
         <v>201</v>
       </c>
       <c r="BP61" s="43" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13252,7 +13489,7 @@
         <v>20220915</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="D62" s="35" t="s">
         <v>53</v>
@@ -13267,7 +13504,7 @@
         <v>129</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="I62" s="48">
         <v>29.1</v>
@@ -13295,7 +13532,7 @@
         <v>-50.76</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="S62" s="3">
         <v>20</v>
@@ -13327,7 +13564,7 @@
       <c r="AB62" s="37"/>
       <c r="AC62" s="37"/>
       <c r="AD62" s="37" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE62" s="3">
         <v>0</v>
@@ -13345,10 +13582,10 @@
         <v>20220506</v>
       </c>
       <c r="AJ62" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK62" s="37" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="AL62" s="35">
         <v>42</v>
@@ -13357,7 +13594,7 @@
         <v>84</v>
       </c>
       <c r="AN62" s="38" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO62" s="38" t="s">
         <v>166</v>
@@ -13371,7 +13608,7 @@
         <v>87</v>
       </c>
       <c r="AT62" s="38" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU62" s="38" t="s">
         <v>166</v>
@@ -13391,10 +13628,10 @@
       <c r="BB62" s="38"/>
       <c r="BC62" s="38"/>
       <c r="BD62" s="38" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE62" s="40" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF62" s="38" t="s">
         <v>166</v>
@@ -13406,10 +13643,10 @@
         <v>172</v>
       </c>
       <c r="BI62" s="40" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="BK62" s="38"/>
       <c r="BL62" s="3"/>
@@ -13417,7 +13654,7 @@
         <v>214</v>
       </c>
       <c r="BN62" s="35" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO62" s="37" t="s">
         <v>212</v>
@@ -13429,15 +13666,15 @@
         <v>4</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="90">
         <v>69</v>
       </c>
       <c r="F63" s="35">
@@ -13447,7 +13684,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>518</v>
+        <v>667</v>
       </c>
       <c r="I63" s="3">
         <v>29.2</v>
@@ -13475,7 +13712,7 @@
         <v>-61.98</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="S63" s="3">
         <v>19</v>
@@ -13504,7 +13741,7 @@
       <c r="AA63" s="37"/>
       <c r="AB63" s="37"/>
       <c r="AC63" s="37" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="AD63" s="37"/>
       <c r="AE63" s="3">
@@ -13523,10 +13760,10 @@
         <v>20230208</v>
       </c>
       <c r="AJ63" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK63" s="37" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL63" s="35">
         <v>29</v>
@@ -13535,7 +13772,7 @@
         <v>75</v>
       </c>
       <c r="AN63" s="38" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO63" s="38" t="s">
         <v>216</v>
@@ -13547,7 +13784,7 @@
         <v>72</v>
       </c>
       <c r="AR63" s="38" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS63" s="38"/>
       <c r="AT63" s="38"/>
@@ -13559,18 +13796,18 @@
         <v>42711</v>
       </c>
       <c r="AX63" s="40" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY63" s="38"/>
       <c r="AZ63" s="38"/>
       <c r="BA63" s="38" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB63" s="38" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="BC63" s="38" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="BD63" s="40"/>
       <c r="BE63" s="40"/>
@@ -13585,9 +13822,9 @@
         <v>201383</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK63" s="96">
+        <v>458</v>
+      </c>
+      <c r="BK63" s="141">
         <v>200206</v>
       </c>
       <c r="BL63" s="96"/>
@@ -13595,13 +13832,13 @@
         <v>210</v>
       </c>
       <c r="BN63" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO63" s="37" t="s">
         <v>201</v>
       </c>
       <c r="BP63" s="43" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:68" s="23" customFormat="1" x14ac:dyDescent="0.35">
@@ -13609,15 +13846,15 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="90">
         <v>91</v>
       </c>
       <c r="F64" s="35">
@@ -13627,7 +13864,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>520</v>
+        <v>668</v>
       </c>
       <c r="I64" s="3">
         <v>29.2</v>
@@ -13655,7 +13892,7 @@
         <v>-61.4</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="S64" s="3">
         <v>25</v>
@@ -13701,10 +13938,10 @@
         <v>20230308</v>
       </c>
       <c r="AJ64" s="37" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL64" s="35">
         <v>30</v>
@@ -13713,7 +13950,7 @@
         <v>81</v>
       </c>
       <c r="AN64" s="38" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="AO64" s="38" t="s">
         <v>216</v>
@@ -13725,7 +13962,7 @@
         <v>83</v>
       </c>
       <c r="AR64" s="38" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="AS64" s="38"/>
       <c r="AT64" s="38"/>
@@ -13734,10 +13971,10 @@
         <v>80</v>
       </c>
       <c r="AW64" s="38" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AX64" s="40" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY64" s="38"/>
       <c r="AZ64" s="38"/>
@@ -13757,9 +13994,9 @@
         <v>162640</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK64" s="3">
+        <v>291</v>
+      </c>
+      <c r="BK64" s="142">
         <v>201189</v>
       </c>
       <c r="BL64" s="96"/>
@@ -13767,29 +14004,29 @@
         <v>210</v>
       </c>
       <c r="BN64" s="3" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO64" s="37" t="s">
         <v>206</v>
       </c>
       <c r="BP64" s="43" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>1</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="90">
         <v>71</v>
       </c>
       <c r="F65" s="14">
@@ -13799,7 +14036,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>524</v>
+        <v>669</v>
       </c>
       <c r="I65" s="2">
         <v>29.2</v>
@@ -13827,7 +14064,7 @@
         <v>-61.43</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="S65" s="2">
         <v>27</v>
@@ -13857,7 +14094,7 @@
       <c r="AA65" s="18"/>
       <c r="AB65" s="18"/>
       <c r="AC65" s="18" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="AD65" s="18"/>
       <c r="AE65" s="2">
@@ -13876,10 +14113,10 @@
         <v>20230330</v>
       </c>
       <c r="AJ65" s="18" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="AK65" s="18" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="AL65" s="14">
         <v>29</v>
@@ -13888,7 +14125,7 @@
         <v>75</v>
       </c>
       <c r="AN65" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO65" s="22" t="s">
         <v>216</v>
@@ -13900,7 +14137,7 @@
         <v>72</v>
       </c>
       <c r="AR65" s="22" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS65" s="22"/>
       <c r="AT65" s="22"/>
@@ -13912,18 +14149,18 @@
         <v>42711</v>
       </c>
       <c r="AX65" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY65" s="22"/>
       <c r="AZ65" s="22"/>
       <c r="BA65" s="22" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB65" s="22" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="BC65" s="22" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="BD65" s="22"/>
       <c r="BE65" s="22"/>
@@ -13938,41 +14175,41 @@
         <v>201383</v>
       </c>
       <c r="BJ65" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK65" s="98">
+        <v>458</v>
+      </c>
+      <c r="BK65" s="141">
         <v>200206</v>
       </c>
       <c r="BL65" s="98" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="BM65" s="2" t="s">
         <v>210</v>
       </c>
       <c r="BN65" s="2" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="BO65" s="18" t="s">
         <v>201</v>
       </c>
       <c r="BP65" s="21" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>2</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="90">
         <v>79</v>
       </c>
       <c r="F66" s="14">
@@ -13982,7 +14219,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>534</v>
+        <v>670</v>
       </c>
       <c r="I66" s="2">
         <v>29.2</v>
@@ -14010,7 +14247,7 @@
         <v>-61.49</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="S66" s="2">
         <v>21</v>
@@ -14057,10 +14294,10 @@
         <v>20230510</v>
       </c>
       <c r="AJ66" s="18" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="AK66" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL66" s="14">
         <v>32</v>
@@ -14069,7 +14306,7 @@
         <v>76</v>
       </c>
       <c r="AN66" s="22" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="AO66" s="22" t="s">
         <v>216</v>
@@ -14081,7 +14318,7 @@
         <v>78</v>
       </c>
       <c r="AR66" s="22" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="AS66" s="22"/>
       <c r="AT66" s="22"/>
@@ -14093,7 +14330,7 @@
         <v>42711</v>
       </c>
       <c r="AX66" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY66" s="22"/>
       <c r="AZ66" s="22"/>
@@ -14113,13 +14350,13 @@
         <v>162640</v>
       </c>
       <c r="BJ66" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK66" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK66" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL66" s="98" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="BM66" s="2" t="s">
         <v>210</v>
@@ -14131,23 +14368,23 @@
         <v>201</v>
       </c>
       <c r="BP66" s="21" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="67" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>3</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="90">
         <v>93</v>
       </c>
       <c r="F67" s="14">
@@ -14157,7 +14394,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>535</v>
+        <v>671</v>
       </c>
       <c r="I67" s="2">
         <v>29.2</v>
@@ -14187,7 +14424,7 @@
         <v>-61.43</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="S67" s="2">
         <v>28</v>
@@ -14234,10 +14471,10 @@
         <v>20230531</v>
       </c>
       <c r="AJ67" s="18" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL67" s="14">
         <v>30</v>
@@ -14246,7 +14483,7 @@
         <v>81</v>
       </c>
       <c r="AN67" s="22" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="AO67" s="22" t="s">
         <v>216</v>
@@ -14258,7 +14495,7 @@
         <v>83</v>
       </c>
       <c r="AR67" s="22" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="AS67" s="22"/>
       <c r="AT67" s="22"/>
@@ -14267,10 +14504,10 @@
         <v>80</v>
       </c>
       <c r="AW67" s="22" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AX67" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY67" s="22"/>
       <c r="AZ67" s="22"/>
@@ -14290,10 +14527,10 @@
         <v>201383</v>
       </c>
       <c r="BJ67" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK67" s="98" t="s">
         <v>516</v>
-      </c>
-      <c r="BK67" s="98" t="s">
-        <v>580</v>
       </c>
       <c r="BL67" s="98"/>
       <c r="BM67" s="2" t="s">
@@ -14303,26 +14540,26 @@
         <v>209</v>
       </c>
       <c r="BO67" s="18" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="BP67" s="21" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="68" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>4</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>544</v>
+        <v>481</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="90">
         <v>77</v>
       </c>
       <c r="F68" s="14">
@@ -14332,7 +14569,7 @@
         <v>129</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>545</v>
+        <v>672</v>
       </c>
       <c r="I68" s="2">
         <v>29.2</v>
@@ -14362,7 +14599,7 @@
         <v>-50.16</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="S68" s="2">
         <v>27</v>
@@ -14395,7 +14632,7 @@
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
       <c r="AD68" s="18" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="AE68" s="2">
         <v>0</v>
@@ -14412,11 +14649,11 @@
       <c r="AI68" s="18">
         <v>20230228</v>
       </c>
-      <c r="AJ68" s="130" t="s">
-        <v>576</v>
-      </c>
-      <c r="AK68" s="130" t="s">
-        <v>527</v>
+      <c r="AJ68" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK68" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="AL68" s="14">
         <v>42</v>
@@ -14425,7 +14662,7 @@
         <v>84</v>
       </c>
       <c r="AN68" s="22" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="AO68" s="22" t="s">
         <v>166</v>
@@ -14439,7 +14676,7 @@
         <v>87</v>
       </c>
       <c r="AT68" s="22" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="AU68" s="22" t="s">
         <v>166</v>
@@ -14451,7 +14688,7 @@
         <v>42859</v>
       </c>
       <c r="AX68" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY68" s="22"/>
       <c r="AZ68" s="22"/>
@@ -14459,10 +14696,10 @@
       <c r="BB68" s="22"/>
       <c r="BC68" s="22"/>
       <c r="BD68" s="22" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="BE68" s="22" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="BF68" s="22" t="s">
         <v>166</v>
@@ -14477,7 +14714,7 @@
         <v>162642</v>
       </c>
       <c r="BJ68" s="2" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="BK68" s="98"/>
       <c r="BL68" s="98"/>
@@ -14488,26 +14725,26 @@
         <v>209</v>
       </c>
       <c r="BO68" s="18" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="BP68" s="21" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="69" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:101" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>5</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="90">
         <v>121</v>
       </c>
       <c r="F69" s="14">
@@ -14517,24 +14754,51 @@
         <v>15</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
+        <v>536</v>
+      </c>
+      <c r="I69" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="K69" s="133">
+        <v>44.374400000000001</v>
+      </c>
+      <c r="L69" s="132">
+        <v>-63.338299999999997</v>
+      </c>
+      <c r="M69" s="101">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="N69" s="18">
+        <v>42.47</v>
+      </c>
+      <c r="O69" s="18">
+        <v>-63.45</v>
+      </c>
+      <c r="P69" s="18">
+        <v>44.51</v>
+      </c>
+      <c r="Q69" s="18">
+        <v>-61.46</v>
+      </c>
       <c r="R69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="S69" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" s="2">
+        <v>556</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1029</v>
+      </c>
+      <c r="V69" s="2">
+        <f>U69*2</f>
+        <v>2058</v>
+      </c>
       <c r="W69" s="18" t="s">
         <v>36</v>
       </c>
@@ -14551,8 +14815,12 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
       <c r="AD69" s="18"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
+      <c r="AE69" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>3</v>
+      </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2">
         <v>1022</v>
@@ -14561,10 +14829,10 @@
         <v>20230705</v>
       </c>
       <c r="AJ69" s="18" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="AK69" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL69" s="14">
         <v>33</v>
@@ -14573,7 +14841,7 @@
         <v>75</v>
       </c>
       <c r="AN69" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO69" s="22" t="s">
         <v>216</v>
@@ -14585,7 +14853,7 @@
         <v>72</v>
       </c>
       <c r="AR69" s="22" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="AS69" s="22"/>
       <c r="AT69" s="22"/>
@@ -14597,7 +14865,7 @@
         <v>42691</v>
       </c>
       <c r="AX69" s="22" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="AY69" s="22"/>
       <c r="AZ69" s="22"/>
@@ -14617,13 +14885,13 @@
         <v>98</v>
       </c>
       <c r="BJ69" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="BK69" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="BK69" s="92" t="s">
         <v>138</v>
       </c>
       <c r="BL69" s="98" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
       <c r="BM69" s="2" t="s">
         <v>210</v>
@@ -14635,21 +14903,23 @@
         <v>201</v>
       </c>
       <c r="BP69" s="21" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="70" spans="1:68" s="131" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="131">
+    <row r="70" spans="1:101" s="88" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="134">
         <v>6</v>
       </c>
       <c r="B70" s="14">
         <v>20230928</v>
       </c>
-      <c r="C70" s="132"/>
+      <c r="C70" s="14">
+        <v>20231018</v>
+      </c>
       <c r="D70" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="90">
         <v>74</v>
       </c>
       <c r="F70" s="14">
@@ -14659,24 +14929,51 @@
         <v>15</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="I70" s="134"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="144">
+        <v>673</v>
+      </c>
+      <c r="I70" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="K70" s="14">
+        <v>44.386699999999998</v>
+      </c>
+      <c r="L70" s="14">
+        <v>-63.359099999999998</v>
+      </c>
+      <c r="M70" s="101">
         <v>0.57152777777777775</v>
       </c>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="134"/>
+      <c r="N70" s="18">
+        <v>42.46</v>
+      </c>
+      <c r="O70" s="18">
+        <v>-63.37</v>
+      </c>
+      <c r="P70" s="18">
+        <v>44.39</v>
+      </c>
+      <c r="Q70" s="18">
+        <v>-61.4</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="S70" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" s="2">
+        <v>543</v>
+      </c>
+      <c r="U70" s="2">
+        <v>854</v>
+      </c>
+      <c r="V70" s="2">
+        <f>U70*2</f>
+        <v>1708</v>
+      </c>
       <c r="W70" s="18" t="s">
         <v>36</v>
       </c>
@@ -14689,26 +14986,32 @@
       <c r="Z70" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="AA70" s="133"/>
-      <c r="AB70" s="133"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
       <c r="AC70" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD70" s="133"/>
-      <c r="AE70" s="134"/>
-      <c r="AF70" s="134"/>
-      <c r="AG70" s="134"/>
-      <c r="AH70" s="142">
+        <v>468</v>
+      </c>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH70" s="2">
         <v>1022.5</v>
       </c>
       <c r="AI70" s="18">
         <v>20230918</v>
       </c>
       <c r="AJ70" s="18" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="AK70" s="18" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="AL70" s="14">
         <v>29</v>
@@ -14717,7 +15020,7 @@
         <v>75</v>
       </c>
       <c r="AN70" s="22" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="AO70" s="22" t="s">
         <v>216</v>
@@ -14729,11 +15032,11 @@
         <v>72</v>
       </c>
       <c r="AR70" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="AS70" s="135"/>
-      <c r="AT70" s="135"/>
-      <c r="AU70" s="135"/>
+        <v>438</v>
+      </c>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
       <c r="AV70" s="20" t="s">
         <v>74</v>
       </c>
@@ -14741,22 +15044,22 @@
         <v>42711</v>
       </c>
       <c r="AX70" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="AY70" s="135"/>
-      <c r="AZ70" s="135"/>
+        <v>467</v>
+      </c>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
       <c r="BA70" s="22" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="BB70" s="22" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
       <c r="BC70" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="BD70" s="135"/>
-      <c r="BE70" s="135"/>
-      <c r="BF70" s="135"/>
+        <v>424</v>
+      </c>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
       <c r="BG70" s="20" t="s">
         <v>233</v>
       </c>
@@ -14764,537 +15067,687 @@
         <v>172</v>
       </c>
       <c r="BI70" s="22" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="BJ70" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="BK70" s="143" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK70" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="BL70" s="136"/>
+      <c r="BL70" s="2"/>
       <c r="BM70" s="2" t="s">
         <v>210</v>
       </c>
       <c r="BN70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BO70" s="133"/>
+      <c r="BO70" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="BP70" s="21" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="71" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="123"/>
-      <c r="M71" s="125"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="125"/>
-      <c r="S71" s="125"/>
-      <c r="T71" s="125"/>
-      <c r="U71" s="125"/>
-      <c r="V71" s="125"/>
-      <c r="W71" s="124"/>
-      <c r="X71" s="124"/>
-      <c r="Y71" s="124"/>
-      <c r="Z71" s="124"/>
-      <c r="AA71" s="124"/>
-      <c r="AB71" s="124"/>
-      <c r="AC71" s="124"/>
-      <c r="AD71" s="124"/>
-      <c r="AE71" s="125"/>
-      <c r="AF71" s="125"/>
-      <c r="AG71" s="125"/>
-      <c r="AH71" s="125"/>
-      <c r="AI71" s="124"/>
-      <c r="AJ71" s="124"/>
-      <c r="AK71" s="124"/>
-      <c r="AL71" s="123"/>
-      <c r="AM71" s="126"/>
-      <c r="AN71" s="127"/>
-      <c r="AO71" s="127"/>
-      <c r="AP71" s="126"/>
-      <c r="AQ71" s="126"/>
-      <c r="AR71" s="127"/>
-      <c r="AS71" s="127"/>
-      <c r="AT71" s="127"/>
-      <c r="AU71" s="127"/>
-      <c r="AV71" s="126"/>
-      <c r="AW71" s="127"/>
-      <c r="AX71" s="127"/>
-      <c r="AY71" s="127"/>
-      <c r="AZ71" s="127"/>
-      <c r="BA71" s="127"/>
-      <c r="BB71" s="127"/>
-      <c r="BC71" s="127"/>
-      <c r="BD71" s="127"/>
-      <c r="BE71" s="127"/>
-      <c r="BF71" s="127"/>
-      <c r="BG71" s="126"/>
-      <c r="BH71" s="128"/>
-      <c r="BI71" s="127"/>
-      <c r="BJ71" s="127"/>
-      <c r="BK71" s="127"/>
-      <c r="BL71" s="125" t="s">
-        <v>610</v>
-      </c>
-      <c r="BM71" s="123"/>
-      <c r="BN71" s="123"/>
-      <c r="BO71" s="124"/>
-      <c r="BP71" s="129"/>
+    <row r="71" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="134">
+        <v>7</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="14">
+        <v>77</v>
+      </c>
+      <c r="F71" s="14">
+        <v>4800926</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X71" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z71" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
+      <c r="AC71" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2">
+        <v>1024.8</v>
+      </c>
+      <c r="AI71" s="18">
+        <v>20240131</v>
+      </c>
+      <c r="AJ71" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AK71" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL71" s="14">
+        <v>29</v>
+      </c>
+      <c r="AM71" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN71" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO71" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP71" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ71" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR71" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS71" s="22"/>
+      <c r="AT71" s="22"/>
+      <c r="AU71" s="22"/>
+      <c r="AV71" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW71" s="16">
+        <v>42711</v>
+      </c>
+      <c r="AX71" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY71" s="22"/>
+      <c r="AZ71" s="22"/>
+      <c r="BA71" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="BB71" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="BC71" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="BD71" s="22"/>
+      <c r="BE71" s="22"/>
+      <c r="BF71" s="22"/>
+      <c r="BG71" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH71" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI71" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="BJ71" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="BK71" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL71" s="2"/>
+      <c r="BM71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO71" s="18"/>
+      <c r="BP71" s="143"/>
+      <c r="BQ71" s="88"/>
+      <c r="BR71" s="88"/>
+      <c r="BS71" s="88"/>
+      <c r="BT71" s="88"/>
+      <c r="BU71" s="88"/>
+      <c r="BV71" s="88"/>
+      <c r="BW71" s="88"/>
+      <c r="BX71" s="88"/>
+      <c r="BY71" s="88"/>
+      <c r="BZ71" s="88"/>
+      <c r="CA71" s="88"/>
+      <c r="CB71" s="88"/>
+      <c r="CC71" s="88"/>
+      <c r="CD71" s="88"/>
+      <c r="CE71" s="88"/>
+      <c r="CF71" s="88"/>
+      <c r="CG71" s="88"/>
+      <c r="CH71" s="88"/>
+      <c r="CI71" s="88"/>
+      <c r="CJ71" s="88"/>
+      <c r="CK71" s="88"/>
+      <c r="CL71" s="88"/>
+      <c r="CM71" s="88"/>
+      <c r="CN71" s="88"/>
+      <c r="CO71" s="88"/>
+      <c r="CP71" s="88"/>
+      <c r="CQ71" s="88"/>
+      <c r="CR71" s="88"/>
+      <c r="CS71" s="88"/>
+      <c r="CT71" s="88"/>
+      <c r="CU71" s="88"/>
+      <c r="CV71" s="88"/>
+      <c r="CW71" s="88"/>
     </row>
-    <row r="72" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="125"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="123"/>
-      <c r="M72" s="125"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="124"/>
-      <c r="P72" s="124"/>
-      <c r="Q72" s="124"/>
-      <c r="R72" s="125"/>
-      <c r="S72" s="125"/>
-      <c r="T72" s="125"/>
-      <c r="U72" s="125"/>
-      <c r="V72" s="125"/>
-      <c r="W72" s="124"/>
-      <c r="X72" s="124"/>
-      <c r="Y72" s="124"/>
-      <c r="Z72" s="124"/>
-      <c r="AA72" s="124"/>
-      <c r="AB72" s="124"/>
-      <c r="AC72" s="124"/>
-      <c r="AD72" s="124"/>
-      <c r="AE72" s="125"/>
-      <c r="AF72" s="125"/>
-      <c r="AG72" s="125"/>
-      <c r="AH72" s="125"/>
-      <c r="AI72" s="124"/>
-      <c r="AJ72" s="124"/>
-      <c r="AK72" s="124"/>
-      <c r="AL72" s="123"/>
-      <c r="AM72" s="126"/>
-      <c r="AN72" s="127"/>
-      <c r="AO72" s="127"/>
-      <c r="AP72" s="126"/>
-      <c r="AQ72" s="126"/>
-      <c r="AR72" s="127"/>
-      <c r="AS72" s="127"/>
-      <c r="AT72" s="127"/>
-      <c r="AU72" s="127"/>
-      <c r="AV72" s="126"/>
-      <c r="AW72" s="127"/>
-      <c r="AX72" s="127"/>
-      <c r="AY72" s="127"/>
-      <c r="AZ72" s="127"/>
-      <c r="BA72" s="127"/>
-      <c r="BB72" s="127"/>
-      <c r="BC72" s="127"/>
-      <c r="BD72" s="127"/>
-      <c r="BE72" s="127"/>
-      <c r="BF72" s="127"/>
-      <c r="BG72" s="126"/>
-      <c r="BH72" s="128"/>
-      <c r="BI72" s="127"/>
-      <c r="BJ72" s="127"/>
-      <c r="BK72" s="127"/>
-      <c r="BL72" s="125"/>
-      <c r="BM72" s="123"/>
-      <c r="BN72" s="123"/>
-      <c r="BO72" s="124"/>
-      <c r="BP72" s="129"/>
+    <row r="72" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="134">
+        <v>8</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="22"/>
+      <c r="AO72" s="22"/>
+      <c r="AP72" s="20"/>
+      <c r="AQ72" s="20"/>
+      <c r="AR72" s="22"/>
+      <c r="AS72" s="22"/>
+      <c r="AT72" s="22"/>
+      <c r="AU72" s="22"/>
+      <c r="AV72" s="20"/>
+      <c r="AW72" s="22"/>
+      <c r="AX72" s="22"/>
+      <c r="AY72" s="22"/>
+      <c r="AZ72" s="22"/>
+      <c r="BA72" s="22"/>
+      <c r="BB72" s="22"/>
+      <c r="BC72" s="22"/>
+      <c r="BD72" s="22"/>
+      <c r="BE72" s="22"/>
+      <c r="BF72" s="22"/>
+      <c r="BG72" s="20"/>
+      <c r="BH72" s="49"/>
+      <c r="BI72" s="22"/>
+      <c r="BJ72" s="22"/>
+      <c r="BK72" s="22"/>
+      <c r="BL72" s="2"/>
+      <c r="BM72" s="14"/>
+      <c r="BN72" s="14"/>
+      <c r="BO72" s="18"/>
+      <c r="BP72" s="143"/>
+      <c r="BQ72" s="88"/>
+      <c r="BR72" s="88"/>
+      <c r="BS72" s="88"/>
+      <c r="BT72" s="88"/>
+      <c r="BU72" s="88"/>
+      <c r="BV72" s="88"/>
+      <c r="BW72" s="88"/>
+      <c r="BX72" s="88"/>
+      <c r="BY72" s="88"/>
+      <c r="BZ72" s="88"/>
+      <c r="CA72" s="88"/>
+      <c r="CB72" s="88"/>
+      <c r="CC72" s="88"/>
+      <c r="CD72" s="88"/>
+      <c r="CE72" s="88"/>
+      <c r="CF72" s="88"/>
+      <c r="CG72" s="88"/>
+      <c r="CH72" s="88"/>
+      <c r="CI72" s="88"/>
+      <c r="CJ72" s="88"/>
+      <c r="CK72" s="88"/>
+      <c r="CL72" s="88"/>
+      <c r="CM72" s="88"/>
+      <c r="CN72" s="88"/>
+      <c r="CO72" s="88"/>
+      <c r="CP72" s="88"/>
+      <c r="CQ72" s="88"/>
+      <c r="CR72" s="88"/>
+      <c r="CS72" s="88"/>
+      <c r="CT72" s="88"/>
+      <c r="CU72" s="88"/>
+      <c r="CV72" s="88"/>
+      <c r="CW72" s="88"/>
     </row>
-    <row r="73" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="125"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="124"/>
-      <c r="P73" s="124"/>
-      <c r="Q73" s="124"/>
-      <c r="R73" s="125"/>
-      <c r="S73" s="125"/>
-      <c r="T73" s="125"/>
-      <c r="U73" s="125"/>
-      <c r="V73" s="125"/>
-      <c r="W73" s="124"/>
-      <c r="X73" s="124"/>
-      <c r="Y73" s="124"/>
-      <c r="Z73" s="124"/>
-      <c r="AA73" s="124"/>
-      <c r="AB73" s="124"/>
-      <c r="AC73" s="124"/>
-      <c r="AD73" s="124"/>
-      <c r="AE73" s="125"/>
-      <c r="AF73" s="125"/>
-      <c r="AG73" s="125"/>
-      <c r="AH73" s="125"/>
-      <c r="AI73" s="124"/>
-      <c r="AJ73" s="124"/>
-      <c r="AK73" s="124"/>
-      <c r="AL73" s="123"/>
-      <c r="AM73" s="126"/>
-      <c r="AN73" s="127"/>
-      <c r="AO73" s="127"/>
-      <c r="AP73" s="126"/>
-      <c r="AQ73" s="126"/>
-      <c r="AR73" s="127"/>
-      <c r="AS73" s="127"/>
-      <c r="AT73" s="127"/>
-      <c r="AU73" s="127"/>
-      <c r="AV73" s="126"/>
-      <c r="AW73" s="127"/>
-      <c r="AX73" s="127"/>
-      <c r="AY73" s="127"/>
-      <c r="AZ73" s="127"/>
-      <c r="BA73" s="127"/>
-      <c r="BB73" s="127"/>
-      <c r="BC73" s="127"/>
-      <c r="BD73" s="127"/>
-      <c r="BE73" s="127"/>
-      <c r="BF73" s="127"/>
-      <c r="BG73" s="126"/>
-      <c r="BH73" s="128"/>
-      <c r="BI73" s="127"/>
-      <c r="BJ73" s="127"/>
-      <c r="BK73" s="127" t="s">
-        <v>609</v>
-      </c>
-      <c r="BL73" s="125"/>
-      <c r="BM73" s="123"/>
-      <c r="BN73" s="123"/>
-      <c r="BO73" s="124"/>
-      <c r="BP73" s="129"/>
+    <row r="73" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="37"/>
+      <c r="AJ73" s="37"/>
+      <c r="AK73" s="37"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN73" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="AO73" s="38"/>
+      <c r="AP73" s="34"/>
+      <c r="AQ73" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR73" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="AS73" s="38"/>
+      <c r="AT73" s="38"/>
+      <c r="AU73" s="38"/>
+      <c r="AV73" s="34"/>
+      <c r="AW73" s="38"/>
+      <c r="AX73" s="38"/>
+      <c r="AY73" s="38"/>
+      <c r="AZ73" s="38"/>
+      <c r="BA73" s="38"/>
+      <c r="BB73" s="38"/>
+      <c r="BC73" s="38"/>
+      <c r="BD73" s="38"/>
+      <c r="BE73" s="38"/>
+      <c r="BF73" s="38"/>
+      <c r="BG73" s="34"/>
+      <c r="BH73" s="97"/>
+      <c r="BI73" s="38"/>
+      <c r="BJ73" s="38"/>
+      <c r="BK73" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="35"/>
+      <c r="BN73" s="35"/>
+      <c r="BO73" s="37"/>
+      <c r="BP73" s="144"/>
     </row>
-    <row r="74" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="123"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="123"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
-      <c r="K74" s="123"/>
-      <c r="L74" s="123"/>
-      <c r="M74" s="125"/>
-      <c r="N74" s="124"/>
-      <c r="O74" s="124"/>
-      <c r="P74" s="124"/>
-      <c r="Q74" s="124"/>
-      <c r="R74" s="125"/>
-      <c r="S74" s="125"/>
-      <c r="T74" s="125"/>
-      <c r="U74" s="125"/>
-      <c r="V74" s="125"/>
-      <c r="W74" s="124"/>
-      <c r="X74" s="124"/>
-      <c r="Y74" s="124"/>
-      <c r="Z74" s="124"/>
-      <c r="AA74" s="124"/>
-      <c r="AB74" s="124"/>
-      <c r="AC74" s="124"/>
-      <c r="AD74" s="124"/>
-      <c r="AE74" s="125"/>
-      <c r="AF74" s="125"/>
-      <c r="AG74" s="125"/>
-      <c r="AH74" s="125"/>
-      <c r="AI74" s="124"/>
-      <c r="AJ74" s="124"/>
-      <c r="AK74" s="124"/>
-      <c r="AL74" s="123"/>
-      <c r="AM74" s="126"/>
-      <c r="AN74" s="127"/>
-      <c r="AO74" s="127"/>
-      <c r="AP74" s="126"/>
-      <c r="AQ74" s="126"/>
-      <c r="AR74" s="127"/>
-      <c r="AS74" s="127"/>
-      <c r="AT74" s="127"/>
-      <c r="AU74" s="127"/>
-      <c r="AV74" s="126"/>
-      <c r="AW74" s="127"/>
-      <c r="AX74" s="127"/>
-      <c r="AY74" s="127"/>
-      <c r="AZ74" s="127"/>
-      <c r="BA74" s="127"/>
-      <c r="BB74" s="127"/>
-      <c r="BC74" s="127"/>
-      <c r="BD74" s="127"/>
-      <c r="BE74" s="127"/>
-      <c r="BF74" s="127"/>
-      <c r="BG74" s="126"/>
-      <c r="BH74" s="128"/>
-      <c r="BI74" s="127"/>
-      <c r="BJ74" s="127"/>
-      <c r="BK74" s="127"/>
-      <c r="BL74" s="125"/>
-      <c r="BM74" s="123"/>
-      <c r="BN74" s="123"/>
-      <c r="BO74" s="124"/>
-      <c r="BP74" s="129"/>
+    <row r="74" spans="1:101" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="37"/>
+      <c r="AJ74" s="37"/>
+      <c r="AK74" s="37"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="34"/>
+      <c r="AN74" s="38"/>
+      <c r="AO74" s="38"/>
+      <c r="AP74" s="34"/>
+      <c r="AQ74" s="41"/>
+      <c r="AR74" s="38"/>
+      <c r="AS74" s="38"/>
+      <c r="AT74" s="38"/>
+      <c r="AU74" s="38"/>
+      <c r="AV74" s="34"/>
+      <c r="AW74" s="38"/>
+      <c r="AX74" s="38"/>
+      <c r="AY74" s="38"/>
+      <c r="AZ74" s="38"/>
+      <c r="BA74" s="38"/>
+      <c r="BB74" s="38"/>
+      <c r="BC74" s="38"/>
+      <c r="BD74" s="38"/>
+      <c r="BE74" s="38"/>
+      <c r="BF74" s="38"/>
+      <c r="BG74" s="34"/>
+      <c r="BH74" s="97"/>
+      <c r="BI74" s="38"/>
+      <c r="BJ74" s="38"/>
+      <c r="BK74" s="38"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="35"/>
+      <c r="BN74" s="35"/>
+      <c r="BO74" s="37"/>
+      <c r="BP74" s="144"/>
     </row>
-    <row r="75" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="123"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="123"/>
-      <c r="L75" s="123"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="124"/>
-      <c r="O75" s="124"/>
-      <c r="P75" s="124"/>
-      <c r="Q75" s="124"/>
-      <c r="R75" s="125"/>
-      <c r="S75" s="125"/>
-      <c r="T75" s="125"/>
-      <c r="U75" s="125"/>
-      <c r="V75" s="125"/>
-      <c r="W75" s="124"/>
-      <c r="X75" s="124"/>
-      <c r="Y75" s="124"/>
-      <c r="Z75" s="124"/>
-      <c r="AA75" s="124"/>
-      <c r="AB75" s="124"/>
-      <c r="AC75" s="124"/>
-      <c r="AD75" s="124"/>
-      <c r="AE75" s="125"/>
-      <c r="AF75" s="125"/>
-      <c r="AG75" s="125"/>
-      <c r="AH75" s="125"/>
-      <c r="AI75" s="124"/>
-      <c r="AJ75" s="124"/>
-      <c r="AK75" s="124"/>
-      <c r="AL75" s="123"/>
-      <c r="AM75" s="126"/>
-      <c r="AN75" s="127"/>
-      <c r="AO75" s="127"/>
-      <c r="AP75" s="126"/>
-      <c r="AQ75" s="126"/>
-      <c r="AR75" s="127"/>
-      <c r="AS75" s="127"/>
-      <c r="AT75" s="127"/>
-      <c r="AU75" s="127"/>
-      <c r="AV75" s="126"/>
-      <c r="AW75" s="127"/>
-      <c r="AX75" s="127"/>
-      <c r="AY75" s="127"/>
-      <c r="AZ75" s="127"/>
-      <c r="BA75" s="127"/>
-      <c r="BB75" s="127"/>
-      <c r="BC75" s="127"/>
-      <c r="BD75" s="127"/>
-      <c r="BE75" s="127"/>
-      <c r="BF75" s="127"/>
-      <c r="BG75" s="126"/>
-      <c r="BH75" s="128"/>
-      <c r="BI75" s="127"/>
-      <c r="BJ75" s="127"/>
-      <c r="BK75" s="127"/>
-      <c r="BL75" s="125"/>
-      <c r="BM75" s="123"/>
-      <c r="BN75" s="123"/>
-      <c r="BO75" s="124"/>
-      <c r="BP75" s="129"/>
+    <row r="75" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="121"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="121"/>
+      <c r="L75" s="121"/>
+      <c r="M75" s="123"/>
+      <c r="N75" s="122"/>
+      <c r="O75" s="122"/>
+      <c r="P75" s="122"/>
+      <c r="Q75" s="122"/>
+      <c r="R75" s="123"/>
+      <c r="S75" s="123"/>
+      <c r="T75" s="123"/>
+      <c r="U75" s="123"/>
+      <c r="V75" s="123"/>
+      <c r="W75" s="122"/>
+      <c r="X75" s="122"/>
+      <c r="Y75" s="122"/>
+      <c r="Z75" s="122"/>
+      <c r="AA75" s="122"/>
+      <c r="AB75" s="122"/>
+      <c r="AC75" s="122"/>
+      <c r="AD75" s="122"/>
+      <c r="AE75" s="123"/>
+      <c r="AF75" s="123"/>
+      <c r="AG75" s="123"/>
+      <c r="AH75" s="123"/>
+      <c r="AI75" s="122"/>
+      <c r="AJ75" s="122"/>
+      <c r="AK75" s="122"/>
+      <c r="AL75" s="121"/>
+      <c r="AM75" s="124"/>
+      <c r="AN75" s="125"/>
+      <c r="AO75" s="125"/>
+      <c r="AP75" s="124"/>
+      <c r="AQ75" s="124"/>
+      <c r="AR75" s="125"/>
+      <c r="AS75" s="125"/>
+      <c r="AT75" s="125"/>
+      <c r="AU75" s="125"/>
+      <c r="AV75" s="124"/>
+      <c r="AW75" s="125"/>
+      <c r="AX75" s="125"/>
+      <c r="AY75" s="125"/>
+      <c r="AZ75" s="125"/>
+      <c r="BA75" s="125"/>
+      <c r="BB75" s="125"/>
+      <c r="BC75" s="125"/>
+      <c r="BD75" s="125"/>
+      <c r="BE75" s="125"/>
+      <c r="BF75" s="125"/>
+      <c r="BG75" s="124"/>
+      <c r="BH75" s="126"/>
+      <c r="BI75" s="125"/>
+      <c r="BJ75" s="125"/>
+      <c r="BK75" s="125"/>
+      <c r="BL75" s="123"/>
+      <c r="BM75" s="121"/>
+      <c r="BN75" s="121"/>
+      <c r="BO75" s="122"/>
+      <c r="BP75" s="127"/>
     </row>
-    <row r="76" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="123"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="123"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-      <c r="K76" s="123"/>
-      <c r="L76" s="123"/>
-      <c r="M76" s="125"/>
-      <c r="N76" s="124"/>
-      <c r="O76" s="124"/>
-      <c r="P76" s="124"/>
-      <c r="Q76" s="124"/>
-      <c r="R76" s="125"/>
-      <c r="S76" s="125"/>
-      <c r="T76" s="125"/>
-      <c r="U76" s="125"/>
-      <c r="V76" s="125"/>
-      <c r="W76" s="124"/>
-      <c r="X76" s="124"/>
-      <c r="Y76" s="124"/>
-      <c r="Z76" s="124"/>
-      <c r="AA76" s="124"/>
-      <c r="AB76" s="124"/>
-      <c r="AC76" s="124"/>
-      <c r="AD76" s="124"/>
-      <c r="AE76" s="125"/>
-      <c r="AF76" s="125"/>
-      <c r="AG76" s="125"/>
-      <c r="AH76" s="125"/>
-      <c r="AI76" s="124"/>
-      <c r="AJ76" s="124"/>
-      <c r="AK76" s="124"/>
-      <c r="AL76" s="123"/>
-      <c r="AM76" s="126"/>
-      <c r="AN76" s="127"/>
-      <c r="AO76" s="127"/>
-      <c r="AP76" s="126"/>
-      <c r="AQ76" s="126"/>
-      <c r="AR76" s="127"/>
-      <c r="AS76" s="127"/>
-      <c r="AT76" s="127"/>
-      <c r="AU76" s="127"/>
-      <c r="AV76" s="126"/>
-      <c r="AW76" s="127"/>
-      <c r="AX76" s="127"/>
-      <c r="AY76" s="127"/>
-      <c r="AZ76" s="127"/>
-      <c r="BA76" s="127"/>
-      <c r="BB76" s="127"/>
-      <c r="BC76" s="127"/>
-      <c r="BD76" s="127"/>
-      <c r="BE76" s="127"/>
-      <c r="BF76" s="127"/>
-      <c r="BG76" s="126"/>
-      <c r="BH76" s="128"/>
+    <row r="76" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="121"/>
+      <c r="L76" s="121"/>
+      <c r="M76" s="123"/>
+      <c r="N76" s="122"/>
+      <c r="O76" s="122"/>
+      <c r="P76" s="122"/>
+      <c r="Q76" s="122"/>
+      <c r="R76" s="123"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="123"/>
+      <c r="U76" s="123"/>
+      <c r="V76" s="123"/>
+      <c r="W76" s="122"/>
+      <c r="X76" s="122"/>
+      <c r="Y76" s="122"/>
+      <c r="Z76" s="122"/>
+      <c r="AA76" s="122"/>
+      <c r="AB76" s="122"/>
+      <c r="AC76" s="122"/>
+      <c r="AD76" s="122"/>
+      <c r="AE76" s="123"/>
+      <c r="AF76" s="123"/>
+      <c r="AG76" s="123"/>
+      <c r="AH76" s="123"/>
+      <c r="AI76" s="122"/>
+      <c r="AJ76" s="122"/>
+      <c r="AK76" s="122"/>
+      <c r="AL76" s="121"/>
+      <c r="AM76" s="124"/>
+      <c r="AN76" s="125"/>
+      <c r="AO76" s="125"/>
+      <c r="AP76" s="124"/>
+      <c r="AQ76" s="124"/>
+      <c r="AR76" s="125"/>
+      <c r="AS76" s="125"/>
+      <c r="AT76" s="125"/>
+      <c r="AU76" s="125"/>
+      <c r="AV76" s="124"/>
+      <c r="AW76" s="125"/>
+      <c r="AX76" s="125"/>
+      <c r="AY76" s="125"/>
+      <c r="AZ76" s="125"/>
+      <c r="BA76" s="125"/>
+      <c r="BB76" s="125"/>
+      <c r="BC76" s="125"/>
+      <c r="BD76" s="125"/>
+      <c r="BE76" s="125"/>
+      <c r="BF76" s="125"/>
+      <c r="BG76" s="124"/>
+      <c r="BH76" s="126"/>
       <c r="BI76" s="93"/>
       <c r="BJ76" s="93" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="BK76" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="BL76" s="141" t="s">
-        <v>601</v>
+        <v>531</v>
+      </c>
+      <c r="BL76" s="131" t="s">
+        <v>532</v>
       </c>
       <c r="BM76" s="35"/>
       <c r="BN76" s="35"/>
-      <c r="BO76" s="124"/>
-      <c r="BP76" s="129"/>
+      <c r="BO76" s="122"/>
+      <c r="BP76" s="127"/>
     </row>
-    <row r="77" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="123"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
-      <c r="G77" s="123"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="123"/>
-      <c r="L77" s="123"/>
-      <c r="M77" s="125"/>
-      <c r="N77" s="124"/>
-      <c r="O77" s="124"/>
-      <c r="P77" s="124"/>
-      <c r="Q77" s="124"/>
-      <c r="R77" s="125"/>
-      <c r="S77" s="125"/>
-      <c r="T77" s="125"/>
-      <c r="U77" s="125"/>
-      <c r="V77" s="125"/>
-      <c r="W77" s="124"/>
-      <c r="X77" s="124"/>
-      <c r="Y77" s="124"/>
-      <c r="Z77" s="124"/>
-      <c r="AA77" s="124"/>
-      <c r="AB77" s="124"/>
-      <c r="AC77" s="124"/>
-      <c r="AD77" s="124"/>
-      <c r="AE77" s="125"/>
-      <c r="AF77" s="125"/>
-      <c r="AG77" s="125"/>
-      <c r="AH77" s="125"/>
-      <c r="AI77" s="124"/>
-      <c r="AJ77" s="124"/>
-      <c r="AK77" s="124"/>
-      <c r="AL77" s="123"/>
-      <c r="AM77" s="126"/>
-      <c r="AN77" s="127"/>
-      <c r="AO77" s="127"/>
-      <c r="AP77" s="126"/>
-      <c r="AQ77" s="126"/>
-      <c r="AR77" s="127"/>
-      <c r="AS77" s="127"/>
-      <c r="AT77" s="127"/>
-      <c r="AU77" s="127"/>
-      <c r="AV77" s="126"/>
-      <c r="AW77" s="127"/>
-      <c r="AX77" s="127"/>
-      <c r="AY77" s="127"/>
-      <c r="AZ77" s="127"/>
-      <c r="BA77" s="127"/>
-      <c r="BB77" s="127"/>
-      <c r="BC77" s="127"/>
-      <c r="BD77" s="127"/>
-      <c r="BE77" s="127"/>
-      <c r="BF77" s="127"/>
-      <c r="BG77" s="126"/>
-      <c r="BH77" s="137"/>
+    <row r="77" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="123"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="123"/>
+      <c r="N77" s="122"/>
+      <c r="O77" s="122"/>
+      <c r="P77" s="122"/>
+      <c r="Q77" s="122"/>
+      <c r="R77" s="123"/>
+      <c r="S77" s="123"/>
+      <c r="T77" s="123"/>
+      <c r="U77" s="123"/>
+      <c r="V77" s="123"/>
+      <c r="W77" s="122"/>
+      <c r="X77" s="122"/>
+      <c r="Y77" s="122"/>
+      <c r="Z77" s="122"/>
+      <c r="AA77" s="122"/>
+      <c r="AB77" s="122"/>
+      <c r="AC77" s="122"/>
+      <c r="AD77" s="122"/>
+      <c r="AE77" s="123"/>
+      <c r="AF77" s="123"/>
+      <c r="AG77" s="123"/>
+      <c r="AH77" s="123"/>
+      <c r="AI77" s="122"/>
+      <c r="AJ77" s="122"/>
+      <c r="AK77" s="122"/>
+      <c r="AL77" s="121"/>
+      <c r="AM77" s="124"/>
+      <c r="AN77" s="125"/>
+      <c r="AO77" s="125"/>
+      <c r="AP77" s="124"/>
+      <c r="AQ77" s="124"/>
+      <c r="AR77" s="125"/>
+      <c r="AS77" s="125"/>
+      <c r="AT77" s="125"/>
+      <c r="AU77" s="125"/>
+      <c r="AV77" s="124"/>
+      <c r="AW77" s="125"/>
+      <c r="AX77" s="125"/>
+      <c r="AY77" s="125"/>
+      <c r="AZ77" s="125"/>
+      <c r="BA77" s="125"/>
+      <c r="BB77" s="125"/>
+      <c r="BC77" s="125"/>
+      <c r="BD77" s="125"/>
+      <c r="BE77" s="125"/>
+      <c r="BF77" s="125"/>
+      <c r="BG77" s="124"/>
+      <c r="BH77" s="128"/>
       <c r="BI77" s="38" t="s">
         <v>98</v>
       </c>
       <c r="BJ77" s="38" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="BK77" s="38" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="BL77" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="BM77" s="138"/>
+        <v>527</v>
+      </c>
+      <c r="BM77" s="129"/>
       <c r="BN77" s="35"/>
-      <c r="BO77" s="124"/>
-      <c r="BP77" s="129"/>
+      <c r="BO77" s="122"/>
+      <c r="BP77" s="127"/>
     </row>
-    <row r="78" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="119"/>
-      <c r="C78" s="119"/>
-      <c r="D78" s="119"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="119"/>
-      <c r="G78" s="119"/>
+    <row r="78" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
       <c r="H78" s="77"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="117"/>
       <c r="N78" s="77"/>
       <c r="O78" s="77"/>
       <c r="P78" s="77"/>
@@ -15310,17 +15763,17 @@
       <c r="AI78" s="77"/>
       <c r="AJ78" s="77"/>
       <c r="AK78" s="77"/>
-      <c r="AL78" s="119"/>
-      <c r="AM78" s="120"/>
+      <c r="AL78" s="117"/>
+      <c r="AM78" s="118"/>
       <c r="AN78" s="78"/>
       <c r="AO78" s="78"/>
-      <c r="AP78" s="120"/>
-      <c r="AQ78" s="120"/>
+      <c r="AP78" s="118"/>
+      <c r="AQ78" s="118"/>
       <c r="AR78" s="78"/>
       <c r="AS78" s="78"/>
       <c r="AT78" s="78"/>
       <c r="AU78" s="78"/>
-      <c r="AV78" s="120"/>
+      <c r="AV78" s="118"/>
       <c r="AW78" s="78"/>
       <c r="AX78" s="78"/>
       <c r="AY78" s="78"/>
@@ -15331,35 +15784,31 @@
       <c r="BD78" s="78"/>
       <c r="BE78" s="78"/>
       <c r="BF78" s="78"/>
-      <c r="BG78" s="120"/>
-      <c r="BH78" s="121"/>
-      <c r="BI78" s="140" t="s">
+      <c r="BG78" s="118"/>
+      <c r="BH78" s="119"/>
+      <c r="BI78" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="BJ78" s="140" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK78" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="BL78" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="BM78" s="139"/>
+      <c r="BJ78" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="BK78" s="38"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="130"/>
       <c r="BN78" s="45"/>
       <c r="BO78" s="77"/>
-      <c r="BP78" s="122"/>
+      <c r="BP78" s="120"/>
     </row>
-    <row r="79" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="119"/>
-      <c r="C79" s="119"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
+    <row r="79" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
       <c r="H79" s="77"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="119"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="117"/>
       <c r="N79" s="77"/>
       <c r="O79" s="77"/>
       <c r="P79" s="77"/>
@@ -15375,17 +15824,17 @@
       <c r="AI79" s="77"/>
       <c r="AJ79" s="77"/>
       <c r="AK79" s="77"/>
-      <c r="AL79" s="119"/>
-      <c r="AM79" s="120"/>
+      <c r="AL79" s="117"/>
+      <c r="AM79" s="118"/>
       <c r="AN79" s="78"/>
       <c r="AO79" s="78"/>
-      <c r="AP79" s="120"/>
-      <c r="AQ79" s="120"/>
+      <c r="AP79" s="118"/>
+      <c r="AQ79" s="118"/>
       <c r="AR79" s="78"/>
       <c r="AS79" s="78"/>
       <c r="AT79" s="78"/>
       <c r="AU79" s="78"/>
-      <c r="AV79" s="120"/>
+      <c r="AV79" s="118"/>
       <c r="AW79" s="78"/>
       <c r="AX79" s="78"/>
       <c r="AY79" s="78"/>
@@ -15396,35 +15845,31 @@
       <c r="BD79" s="78"/>
       <c r="BE79" s="78"/>
       <c r="BF79" s="78"/>
-      <c r="BG79" s="120"/>
-      <c r="BH79" s="121"/>
-      <c r="BI79" s="140" t="s">
+      <c r="BG79" s="118"/>
+      <c r="BH79" s="119"/>
+      <c r="BI79" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="BJ79" s="140" t="s">
-        <v>326</v>
-      </c>
-      <c r="BK79" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="BL79" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="BM79" s="138"/>
+      <c r="BJ79" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="BK79" s="38"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="129"/>
       <c r="BN79" s="35"/>
       <c r="BO79" s="77"/>
-      <c r="BP79" s="122"/>
+      <c r="BP79" s="120"/>
     </row>
-    <row r="80" spans="1:68" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="119"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="119"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="119"/>
-      <c r="G80" s="119"/>
+    <row r="80" spans="1:101" s="116" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
       <c r="H80" s="77"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="119"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="117"/>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
       <c r="P80" s="77"/>
@@ -15440,17 +15885,17 @@
       <c r="AI80" s="77"/>
       <c r="AJ80" s="77"/>
       <c r="AK80" s="77"/>
-      <c r="AL80" s="119"/>
-      <c r="AM80" s="120"/>
+      <c r="AL80" s="117"/>
+      <c r="AM80" s="118"/>
       <c r="AN80" s="78"/>
       <c r="AO80" s="78"/>
-      <c r="AP80" s="120"/>
-      <c r="AQ80" s="120"/>
+      <c r="AP80" s="118"/>
+      <c r="AQ80" s="118"/>
       <c r="AR80" s="78"/>
       <c r="AS80" s="78"/>
       <c r="AT80" s="78"/>
       <c r="AU80" s="78"/>
-      <c r="AV80" s="120"/>
+      <c r="AV80" s="118"/>
       <c r="AW80" s="78"/>
       <c r="AX80" s="78"/>
       <c r="AY80" s="78"/>
@@ -15461,35 +15906,37 @@
       <c r="BD80" s="78"/>
       <c r="BE80" s="78"/>
       <c r="BF80" s="78"/>
-      <c r="BG80" s="120"/>
-      <c r="BH80" s="121"/>
-      <c r="BI80" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="BJ80" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="BK80" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="BL80" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="BM80" s="29"/>
+      <c r="BG80" s="118"/>
+      <c r="BH80" s="119"/>
+      <c r="BI80" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ80" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK80" s="145" t="s">
+        <v>679</v>
+      </c>
+      <c r="BL80" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="BM80" s="147" t="s">
+        <v>609</v>
+      </c>
       <c r="BN80" s="29"/>
  